--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 26-Oct-2024</t>
+    <t>1-Jul-2024 to 29-Oct-2024</t>
   </si>
   <si>
     <t/>
@@ -95,7 +95,7 @@
     <t>1858 PATRIKA</t>
   </si>
   <si>
-    <t>1859 PATRIKA (26.10)</t>
+    <t>1859 PATRIKA</t>
   </si>
   <si>
     <t>1860 PATRIKA</t>
@@ -173,124 +173,124 @@
     <t>1884 PATRIKA</t>
   </si>
   <si>
-    <t>1885 PATRIKA</t>
-  </si>
-  <si>
-    <t>1886 PATRIKA</t>
-  </si>
-  <si>
-    <t>1887  PATRIKA</t>
-  </si>
-  <si>
-    <t>1888 PATRIKA</t>
-  </si>
-  <si>
-    <t>1889 PATRIKA</t>
-  </si>
-  <si>
-    <t>1890 PATRIKA</t>
-  </si>
-  <si>
-    <t>1891 PATRIKA</t>
+    <t>1885 PATRIKA (Eco 51)</t>
+  </si>
+  <si>
+    <t>1886 PATRIKA (Eco 52)</t>
+  </si>
+  <si>
+    <t>1887  PATRIKA (Eco 53)</t>
+  </si>
+  <si>
+    <t>1888 PATRIKA (Eco 54)</t>
+  </si>
+  <si>
+    <t>1889 PATRIKA (Eco 55)</t>
+  </si>
+  <si>
+    <t>1890 PATRIKA (Eco 56)</t>
+  </si>
+  <si>
+    <t>1891 PATRIKA (Eco 57)</t>
   </si>
   <si>
     <t>1892 PATRIKA (इको 58)</t>
   </si>
   <si>
-    <t>1893 PATRIKA</t>
-  </si>
-  <si>
-    <t>1894 PATRIKA</t>
-  </si>
-  <si>
-    <t>1895 PATRIKA</t>
-  </si>
-  <si>
-    <t>1896  PATRIKA</t>
+    <t>1893 PATRIKA (Eco 59)</t>
+  </si>
+  <si>
+    <t>1894 PATRIKA (Eco 60)</t>
+  </si>
+  <si>
+    <t>1895 PATRIKA (SHREE 51)</t>
   </si>
   <si>
     <t>1896 PATRIKA- B</t>
   </si>
   <si>
-    <t>1897 PATRIKA</t>
-  </si>
-  <si>
-    <t>1898 PATRIKA</t>
-  </si>
-  <si>
-    <t>1899  PATRIKA</t>
+    <t>1896  PATRIKA (SHREE 57)</t>
+  </si>
+  <si>
+    <t>1897 PATRIKA (SHREE 54)</t>
+  </si>
+  <si>
+    <t>1898 PATRIKA (PEARL 51)</t>
   </si>
   <si>
     <t>1899 PATRIKA- B</t>
   </si>
   <si>
+    <t>1899  PATRIKA (PEARL 52)</t>
+  </si>
+  <si>
     <t>1900 PATRIKA</t>
   </si>
   <si>
     <t>1901 PATRIKA</t>
   </si>
   <si>
-    <t>1902 PATRIKA (200 PKG)</t>
-  </si>
-  <si>
-    <t>1903 PATRIKA (200 PKG)</t>
-  </si>
-  <si>
-    <t>1904 PATRIKA</t>
-  </si>
-  <si>
-    <t>1905 PATRIKA</t>
-  </si>
-  <si>
-    <t>1906 PATRIKA</t>
-  </si>
-  <si>
-    <t>1907 PATRIKA</t>
-  </si>
-  <si>
-    <t>1908 PATRIKA</t>
-  </si>
-  <si>
-    <t>1909 PATRIKA</t>
-  </si>
-  <si>
-    <t>1910 PATRIKA</t>
-  </si>
-  <si>
-    <t>1911 PATRIKA</t>
-  </si>
-  <si>
-    <t>1912 PATRIKA</t>
-  </si>
-  <si>
-    <t>1913 PATRIKA</t>
-  </si>
-  <si>
-    <t>1914 PATRIKA</t>
-  </si>
-  <si>
-    <t>1915 PATRIKA</t>
-  </si>
-  <si>
-    <t>1916 PATRIKA</t>
-  </si>
-  <si>
-    <t>1917 PATRIKA</t>
-  </si>
-  <si>
-    <t>1918 PATRIKA</t>
-  </si>
-  <si>
-    <t>1919 PATRIKA</t>
-  </si>
-  <si>
-    <t>1920 PATRIKA</t>
+    <t>1902 PATRIKA (200 PKG) (ANNA 01)</t>
+  </si>
+  <si>
+    <t>1903 PATRIKA (200 PKG) (ANNA 05)</t>
+  </si>
+  <si>
+    <t>1904 PATRIKA (ARJUN 02)</t>
+  </si>
+  <si>
+    <t>1905 PATRIKA (ARJUN 04)</t>
+  </si>
+  <si>
+    <t>1906 PATRIKA (KING 01)</t>
+  </si>
+  <si>
+    <t>1907 PATRIKA (KING 02)</t>
+  </si>
+  <si>
+    <t>1908 PATRIKA (S.S. 51)</t>
+  </si>
+  <si>
+    <t>1909 PATRIKA (S.S. 54)</t>
+  </si>
+  <si>
+    <t>1910 PATRIKA (S.S. 56)</t>
+  </si>
+  <si>
+    <t>1911 PATRIKA (GOLDEN)</t>
+  </si>
+  <si>
+    <t>1912 PATRIKA (RED)</t>
+  </si>
+  <si>
+    <t>1913 PATRIKA (RED)</t>
+  </si>
+  <si>
+    <t>1914 PATRIKA (YELLOW)</t>
+  </si>
+  <si>
+    <t>1915 PATRIKA (RED)</t>
+  </si>
+  <si>
+    <t>1916 PATRIKA (GOLDEN)</t>
+  </si>
+  <si>
+    <t>1917 PATRIKA (RED)</t>
+  </si>
+  <si>
+    <t>1918 PATRIKA (GOLDEN)</t>
+  </si>
+  <si>
+    <t>1919 PATRIKA (BLUE)</t>
   </si>
   <si>
     <t>1920 PATRIKA-B</t>
   </si>
   <si>
-    <t>1921 PATRIKA</t>
+    <t>1920 PATRIKA (RED)</t>
+  </si>
+  <si>
+    <t>1921 PATRIKA (GOLDEN)</t>
   </si>
   <si>
     <t>1922 PATRIKA</t>
@@ -317,10 +317,10 @@
     <t>1929 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>2021 PATRIKA {L} 500</t>
-  </si>
-  <si>
-    <t>2022 PATRIKA {L} 2000</t>
+    <t>2021 PATRIKA {L}</t>
+  </si>
+  <si>
+    <t>2022 PATRIKA {L}</t>
   </si>
   <si>
     <t>2023 PATRIKA {L}</t>
@@ -329,7 +329,7 @@
     <t>2024 PATRIKA {L}</t>
   </si>
   <si>
-    <t>2025 PATRIKA 2000</t>
+    <t>2025 PATRIKA</t>
   </si>
   <si>
     <t>2026 PATRIKA {L}</t>
@@ -344,7 +344,7 @@
     <t>2029 PATRIKA {M}</t>
   </si>
   <si>
-    <t>2030 PATRIKA {M} 2000</t>
+    <t>2030 PATRIKA {M}</t>
   </si>
   <si>
     <t>2031 PATRIKA</t>
@@ -398,7 +398,7 @@
     <t>2047 PATRIKA {L}</t>
   </si>
   <si>
-    <t>2048 PATRIKA {L} 2000</t>
+    <t>2048 PATRIKA {L}</t>
   </si>
   <si>
     <t>2049 PATRIKA {L}</t>
@@ -434,19 +434,19 @@
     <t>2059 PATRIKA (Dc)</t>
   </si>
   <si>
-    <t>4200 PATRIKA (29.10)</t>
-  </si>
-  <si>
-    <t>4201 PATRIKA (26.10)</t>
-  </si>
-  <si>
-    <t>4202 PATRIKA (26.10)</t>
-  </si>
-  <si>
-    <t>4203 PATRIKA (26.10)</t>
-  </si>
-  <si>
-    <t>4204 PATRIKA (GGN) {M} (25.10)</t>
+    <t>4200 PATRIKA</t>
+  </si>
+  <si>
+    <t>4201 PATRIKA</t>
+  </si>
+  <si>
+    <t>4202 PATRIKA</t>
+  </si>
+  <si>
+    <t>4203 PATRIKA</t>
+  </si>
+  <si>
+    <t>4204 PATRIKA (GGN) {M}</t>
   </si>
   <si>
     <t>4205 PATRIKA</t>
@@ -461,7 +461,7 @@
     <t>4209 PATRIKA</t>
   </si>
   <si>
-    <t>4210 PATRIKA (25.10)</t>
+    <t>4210 PATRIKA</t>
   </si>
   <si>
     <t>4211 PATRIKA</t>
@@ -476,7 +476,7 @@
     <t>4214 PATRIKA</t>
   </si>
   <si>
-    <t>4215 PATRIKA (25.10)</t>
+    <t>4215 PATRIKA</t>
   </si>
   <si>
     <t>4216 PATRIKA</t>
@@ -488,10 +488,10 @@
     <t>4218 PATRIKA</t>
   </si>
   <si>
-    <t>4219 PATRIKA (26.10)</t>
-  </si>
-  <si>
-    <t>4220 PATRIKA (26.10)</t>
+    <t>4219 PATRIKA</t>
+  </si>
+  <si>
+    <t>4220 PATRIKA</t>
   </si>
   <si>
     <t>4221 PATRIKA</t>
@@ -503,7 +503,7 @@
     <t>4223 PATRIKA</t>
   </si>
   <si>
-    <t>4224 PATRIKA (26.10)</t>
+    <t>4224 PATRIKA</t>
   </si>
   <si>
     <t>4225 PATRIKA</t>
@@ -530,7 +530,7 @@
     <t>4232 PATRIKA (4170)</t>
   </si>
   <si>
-    <t>4233 PATRIKA (28.10)</t>
+    <t>4233 PATRIKA</t>
   </si>
   <si>
     <t>4234 PATRIKA</t>
@@ -554,7 +554,7 @@
     <t>4240 PATRIKA</t>
   </si>
   <si>
-    <t>4241 PATRIKA (29.10)</t>
+    <t>4241 PATRIKA</t>
   </si>
   <si>
     <t>4242 PATRIKA</t>
@@ -617,10 +617,10 @@
     <t>5012 PATRIKA</t>
   </si>
   <si>
-    <t>5013 PATRIKA (AA GYA)</t>
-  </si>
-  <si>
-    <t>5014 PATRIKA (25.10)</t>
+    <t>5013 PATRIKA</t>
+  </si>
+  <si>
+    <t>5014 PATRIKA</t>
   </si>
   <si>
     <t>5015 PATRIKA</t>
@@ -689,7 +689,7 @@
     <t>5036 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5037 PATRIKA</t>
+    <t>5037 PATRIKA (05.11.24)</t>
   </si>
   <si>
     <t>5038 PATRIKA</t>
@@ -728,7 +728,7 @@
     <t>5047 PATRIKA (5022-B)</t>
   </si>
   <si>
-    <t>5850 PATRIKA (TIME LAGEGA)</t>
+    <t>5850 PATRIKA</t>
   </si>
   <si>
     <t>5851 PATRIKA</t>
@@ -746,7 +746,7 @@
     <t>5855 PATRIKA</t>
   </si>
   <si>
-    <t>5856 PATRIKA</t>
+    <t>5856 PATRIKA (05.11.24)</t>
   </si>
   <si>
     <t>5857 PATRIKA</t>
@@ -776,16 +776,16 @@
     <t>5865 PATRIKA</t>
   </si>
   <si>
-    <t>5866 PATRIKA (GGN)</t>
-  </si>
-  <si>
-    <t>5867 PATRIKA (AA GYA)</t>
+    <t>5866 PATRIKA (GGN) (04.11)</t>
+  </si>
+  <si>
+    <t>5867 PATRIKA</t>
   </si>
   <si>
     <t>5868 PATRIKA (DC) {{10}}</t>
   </si>
   <si>
-    <t>5869 PATRIKA (25.10)</t>
+    <t>5869 PATRIKA</t>
   </si>
   <si>
     <t>5870 PATRIKA</t>
@@ -800,7 +800,7 @@
     <t>5873 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5874 PATRIKA (26.10)</t>
+    <t>5874 PATRIKA</t>
   </si>
   <si>
     <t>5875 PATRIKA {M}</t>
@@ -809,7 +809,7 @@
     <t>5876 PATRIKA</t>
   </si>
   <si>
-    <t>5877 PATRIKA (28.10)</t>
+    <t>5877 PATRIKA</t>
   </si>
   <si>
     <t>5878 PATRIKA (DC)</t>
@@ -821,7 +821,7 @@
     <t>5880 PATRIKA</t>
   </si>
   <si>
-    <t>5881 PATRIKA</t>
+    <t>5881 PATRIKA (05.11.24)</t>
   </si>
   <si>
     <t>5882 PATRIKA</t>
@@ -842,7 +842,7 @@
     <t>5887 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5888 PATRIKA {M}</t>
+    <t>5888 PATRIKA {M} (05.11.24)</t>
   </si>
   <si>
     <t>5889 PATRIKA (DC) {{10}}</t>
@@ -863,7 +863,7 @@
     <t>5894 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5895 PATRIKA</t>
+    <t>5895 PATRIKA (05.11.24)</t>
   </si>
   <si>
     <t>5896 PATRIKA</t>
@@ -944,7 +944,7 @@
     <t>5921 PATRIKA (GGN) {M}</t>
   </si>
   <si>
-    <t>5922 PATRIKA {M} (28.10)</t>
+    <t>5922 PATRIKA {M}</t>
   </si>
   <si>
     <t>5923 PATRIKA (DC) {{10}}</t>
@@ -1004,7 +1004,7 @@
     <t>5941 PATRIKA (Dc)</t>
   </si>
   <si>
-    <t>5942 PATRIKA (6000)</t>
+    <t>5942 PATRIKA</t>
   </si>
   <si>
     <t>5943 PATRIKA</t>
@@ -1103,7 +1103,7 @@
     <t>6526 PATRIKA</t>
   </si>
   <si>
-    <t>6527 PATRIKA {M}</t>
+    <t>6527 PATRIKA {M} (05.11.24)</t>
   </si>
   <si>
     <t>6528 PATRIKA {M}</t>
@@ -1112,7 +1112,7 @@
     <t>6529 PATRIKA</t>
   </si>
   <si>
-    <t>6530 PATRIKA {M}</t>
+    <t>6530 PATRIKA {M} (05.11.24)</t>
   </si>
   <si>
     <t>6531 PATRIKA {M}</t>
@@ -1157,7 +1157,7 @@
     <t>6544 PATRIKA (GGN) {M}</t>
   </si>
   <si>
-    <t>6545 PATRIKA {M}</t>
+    <t>6545 PATRIKA {M} (05.11.24)</t>
   </si>
   <si>
     <t>6546 PATRIKA {M}</t>
@@ -1169,7 +1169,7 @@
     <t>6548 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6549 PATRIKA {M}</t>
+    <t>6549 PATRIKA {M} (05.11.24)</t>
   </si>
   <si>
     <t>6550 PATRIKA {M}</t>
@@ -1268,7 +1268,7 @@
     <t>7279 PATRIKA- B (Dc)</t>
   </si>
   <si>
-    <t>7280 PATRIKA (29.10)</t>
+    <t>7280 PATRIKA</t>
   </si>
   <si>
     <t>7281 PATRIKA</t>
@@ -1286,7 +1286,7 @@
     <t>7286 PATRIKA</t>
   </si>
   <si>
-    <t>7287 PATRIKA (2000)</t>
+    <t>7287 PATRIKA</t>
   </si>
   <si>
     <t>7288 PATRIKA</t>
@@ -1304,7 +1304,7 @@
     <t>7292 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>7293 PATRIKA (29.10)</t>
+    <t>7293 PATRIKA</t>
   </si>
   <si>
     <t>7294 PATRIKA</t>
@@ -1355,7 +1355,7 @@
     <t>7309 PATRIKA</t>
   </si>
   <si>
-    <t>7310 PATRIKA</t>
+    <t>7310 PATRIKA (D)</t>
   </si>
   <si>
     <t>7311 PATRIKA (DC) {{10}}</t>
@@ -1391,13 +1391,13 @@
     <t>7322 PATRIKA (GGN) {M}</t>
   </si>
   <si>
-    <t>7323 PATRIKA {F/G} (25.10)</t>
+    <t>7323 PATRIKA {F/G}</t>
   </si>
   <si>
     <t>7324 PATRIKA {F/G} (PINK)</t>
   </si>
   <si>
-    <t>7325 PATRIKA (GGN) {F/G} (28.10)</t>
+    <t>7325 PATRIKA (GGN) {F/G}</t>
   </si>
   <si>
     <t>7326 PATRIKA {F/G}</t>
@@ -1436,13 +1436,13 @@
     <t>7339 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>7340 PATRIKA</t>
-  </si>
-  <si>
-    <t>7341 PATRIKA</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (29.10)</t>
+    <t>7340 PATRIKA (ECO 65)</t>
+  </si>
+  <si>
+    <t>7341 PATRIKA (ECO 66)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA</t>
   </si>
   <si>
     <t>7343 PATRIKA</t>
@@ -1484,13 +1484,13 @@
     <t>9009 CARD</t>
   </si>
   <si>
-    <t>9010 CARD (29.10)</t>
-  </si>
-  <si>
-    <t>9011 CARD (25.10)</t>
-  </si>
-  <si>
-    <t>9012 CARD (25.10)</t>
+    <t>9010 CARD</t>
+  </si>
+  <si>
+    <t>9011 CARD</t>
+  </si>
+  <si>
+    <t>9012 CARD</t>
   </si>
   <si>
     <t>9013 CARD</t>
@@ -1529,7 +1529,7 @@
     <t>9024 CARD</t>
   </si>
   <si>
-    <t>9025 CARD (T) (28.10)</t>
+    <t>9025 CARD (T)</t>
   </si>
   <si>
     <t>9026 CARD (T)</t>
@@ -1541,10 +1541,10 @@
     <t>9028 CARD (Dc)</t>
   </si>
   <si>
-    <t>9029 CARD (25.10)</t>
-  </si>
-  <si>
-    <t>9030 CARD (25.10)</t>
+    <t>9029 CARD</t>
+  </si>
+  <si>
+    <t>9030 CARD</t>
   </si>
   <si>
     <t>9031 CARD</t>
@@ -1559,10 +1559,10 @@
     <t>9034 CARD (Dc)</t>
   </si>
   <si>
-    <t>9035 CARD (29.10)</t>
-  </si>
-  <si>
-    <t>9036 CARD (29.10)</t>
+    <t>9035 CARD</t>
+  </si>
+  <si>
+    <t>9036 CARD</t>
   </si>
   <si>
     <t>9037 CARD</t>
@@ -1577,22 +1577,22 @@
     <t>9040 CARD</t>
   </si>
   <si>
-    <t>9041 CARD (25.10)</t>
-  </si>
-  <si>
-    <t>9042 CARD (T) (28.10)</t>
-  </si>
-  <si>
-    <t>9043 CARD (T) (28.10)</t>
+    <t>9041 CARD</t>
+  </si>
+  <si>
+    <t>9042 CARD (T)</t>
+  </si>
+  <si>
+    <t>9043 CARD (T)</t>
   </si>
   <si>
     <t>9044 CARD</t>
   </si>
   <si>
-    <t>9045 CARD (29.10)</t>
-  </si>
-  <si>
-    <t>9046 CARD (29.10)</t>
+    <t>9045 CARD</t>
+  </si>
+  <si>
+    <t>9046 CARD</t>
   </si>
   <si>
     <t>9047 CARD</t>
@@ -1604,13 +1604,13 @@
     <t>9049 CARD</t>
   </si>
   <si>
-    <t>9050 CARD (28.10)</t>
+    <t>9050 CARD (TIME LAGEGA)</t>
   </si>
   <si>
     <t>9051 CARD</t>
   </si>
   <si>
-    <t>9052 CARD (28.10)</t>
+    <t>9052 CARD</t>
   </si>
   <si>
     <t>9053 CARD</t>
@@ -1682,7 +1682,7 @@
     <t>9075 CARD</t>
   </si>
   <si>
-    <t>9076 CARD (25.10) (29.10)</t>
+    <t>9076 CARD</t>
   </si>
   <si>
     <t>9077 CARD</t>
@@ -1703,10 +1703,10 @@
     <t>9082 CARD</t>
   </si>
   <si>
-    <t>9083 CARD (29.10)</t>
-  </si>
-  <si>
-    <t>9084 CARD (29.10)</t>
+    <t>9083 CARD</t>
+  </si>
+  <si>
+    <t>9084 CARD</t>
   </si>
   <si>
     <t>9085 CARD</t>
@@ -1778,7 +1778,7 @@
     <t>9107 CARD</t>
   </si>
   <si>
-    <t>9200 CARD</t>
+    <t>9200 CARD (YLW)</t>
   </si>
   <si>
     <t>9201 CARD (GOLDEN)</t>
@@ -1790,19 +1790,19 @@
     <t>9203 CARD (CREAM)</t>
   </si>
   <si>
-    <t>9205 CARD</t>
-  </si>
-  <si>
-    <t>9206 CARD</t>
-  </si>
-  <si>
-    <t>9207 CARD</t>
+    <t>9205 CARD (RED)</t>
+  </si>
+  <si>
+    <t>9206 CARD (YELLOW)</t>
+  </si>
+  <si>
+    <t>9207 CARD (GOLDEN)</t>
   </si>
   <si>
     <t>9208 CARD (RED BOLNA)</t>
   </si>
   <si>
-    <t>9209 CARD</t>
+    <t>9209 CARD (YELLOW) (Aa Gya)</t>
   </si>
   <si>
     <t>9210 CARD (GOLDEN BOLNA)</t>
@@ -1826,7 +1826,7 @@
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;&quot;0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,15 +2311,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>898.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2439,21 +2439,21 @@
         <v>77.42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>48.5</v>
+        <v>58.5</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>80.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>106.43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
@@ -2481,63 +2481,63 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="18">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C15" s="19">
         <v>1.8</v>
       </c>
       <c r="D15" s="20">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="18">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C16" s="19">
         <v>1.8</v>
       </c>
       <c r="D16" s="20">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="18">
-        <v>58.5</v>
+        <v>138.5</v>
       </c>
       <c r="C18" s="19">
         <v>2</v>
       </c>
       <c r="D18" s="20">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
@@ -2551,91 +2551,91 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="18">
-        <v>34.5</v>
+        <v>29.5</v>
       </c>
       <c r="C20" s="19">
         <v>2</v>
       </c>
       <c r="D20" s="20">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="18">
-        <v>43.5</v>
+        <v>113.5</v>
       </c>
       <c r="C21" s="19">
         <v>2</v>
       </c>
       <c r="D21" s="20">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="18">
-        <v>17.5</v>
+        <v>140.5</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>27.5</v>
+        <v>164</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>57.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="17" t="s">
         <v>28</v>
       </c>
@@ -2643,35 +2643,35 @@
       <c r="C26" s="22"/>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>9.9700000000000006</v>
+        <v>12.97</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>23.43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>41</v>
+        <v>118.5</v>
       </c>
       <c r="C28" s="19">
         <v>2.35</v>
       </c>
       <c r="D28" s="20">
-        <v>96.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
@@ -2679,27 +2679,27 @@
         <v>56.5</v>
       </c>
       <c r="C29" s="19">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D29" s="20">
-        <v>141.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144.08000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="19">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D30" s="20">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="C31" s="22"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="17" t="s">
         <v>36</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="17" t="s">
         <v>37</v>
       </c>
@@ -2757,63 +2757,63 @@
       <c r="C35" s="22"/>
       <c r="D35" s="21"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="18">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C36" s="19">
         <v>2.6</v>
       </c>
       <c r="D36" s="20">
-        <v>145.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>301.60000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="18">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C37" s="19">
         <v>2.6</v>
       </c>
       <c r="D37" s="20">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275.60000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C38" s="19">
         <v>2.7</v>
       </c>
       <c r="D38" s="20">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="18">
-        <v>25</v>
+        <v>142.5</v>
       </c>
       <c r="C39" s="19">
         <v>2.7</v>
       </c>
       <c r="D39" s="20">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>384.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="17" t="s">
         <v>42</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>173.6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="17" t="s">
         <v>43</v>
       </c>
@@ -2841,21 +2841,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="18">
-        <v>39.5</v>
+        <v>112.5</v>
       </c>
       <c r="C42" s="19">
         <v>2.85</v>
       </c>
       <c r="D42" s="20">
-        <v>112.58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="17" t="s">
         <v>45</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="17" t="s">
         <v>46</v>
       </c>
@@ -2883,217 +2883,217 @@
         <v>138.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>61.5</v>
+        <v>97.5</v>
       </c>
       <c r="C45" s="19">
         <v>2.35</v>
       </c>
       <c r="D45" s="20">
-        <v>144.53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>39.5</v>
+        <v>147.5</v>
       </c>
       <c r="C46" s="19">
         <v>2.35</v>
       </c>
       <c r="D46" s="20">
-        <v>92.83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>346.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="18">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="20">
-        <v>303.60000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>299.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="18">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="20">
-        <v>404.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>398.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>405</v>
+        <v>402.5</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>445.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>442.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="18">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C51" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D51" s="20">
-        <v>281.60000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>442.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C53" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="20">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>338.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>456.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="18">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C55" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D55" s="20">
-        <v>312.39999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C56" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" s="20">
-        <v>180.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="18">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C57" s="19">
         <v>1.9</v>
       </c>
       <c r="D57" s="20">
-        <v>1383.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1379.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="18">
-        <v>473</v>
+        <v>20</v>
       </c>
       <c r="C58" s="19">
         <v>1.9</v>
       </c>
       <c r="D58" s="20">
-        <v>898.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="18">
-        <v>20</v>
+        <v>473</v>
       </c>
       <c r="C59" s="19">
         <v>1.9</v>
       </c>
       <c r="D59" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>898.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="17" t="s">
         <v>62</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>967.1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
         <v>63</v>
       </c>
@@ -3121,49 +3121,49 @@
         <v>226.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="18">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C62" s="19">
         <v>2.1</v>
       </c>
       <c r="D62" s="20">
-        <v>207.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="18">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C63" s="19">
         <v>2.1</v>
       </c>
       <c r="D63" s="20">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="18">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C64" s="19">
         <v>2.1</v>
       </c>
       <c r="D64" s="20">
-        <v>1003.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>999.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="17" t="s">
         <v>67</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>1030.05</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="17" t="s">
         <v>68</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="17" t="s">
         <v>69</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>68.64</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="17" t="s">
         <v>70</v>
       </c>
@@ -3219,63 +3219,63 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="18">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="19">
         <v>0.7</v>
       </c>
       <c r="D69" s="20">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="18">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C70" s="19">
         <v>0.9</v>
       </c>
       <c r="D70" s="20">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>1422.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1415.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="17" t="s">
         <v>75</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>1438.4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="17" t="s">
         <v>76</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>1515.9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="17" t="s">
         <v>77</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="17" t="s">
         <v>78</v>
       </c>
@@ -3323,83 +3323,83 @@
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>3</v>
+        <v>105.5</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C79" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D79" s="20">
-        <v>296.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292.10000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C80" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D80" s="20">
-        <v>58.65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>184.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="18">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="19">
         <v>1.4</v>
       </c>
       <c r="D82" s="20">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="17" t="s">
         <v>85</v>
       </c>
@@ -3413,49 +3413,49 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="18">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C84" s="19">
         <v>2</v>
       </c>
       <c r="D84" s="20">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>6</v>
+        <v>72.5</v>
       </c>
       <c r="C85" s="19">
         <v>2</v>
       </c>
       <c r="D85" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="18">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C86" s="19">
         <v>2</v>
       </c>
       <c r="D86" s="20">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="17" t="s">
         <v>89</v>
       </c>
@@ -3463,13 +3463,13 @@
         <v>321</v>
       </c>
       <c r="C87" s="19">
-        <v>1.1499999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="D87" s="20">
-        <v>370.23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404.46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="17" t="s">
         <v>90</v>
       </c>
@@ -3477,13 +3477,13 @@
         <v>314</v>
       </c>
       <c r="C88" s="19">
-        <v>1.1499999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="D88" s="20">
-        <v>362.11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395.64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="17" t="s">
         <v>91</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="C89" s="22"/>
       <c r="D89" s="21"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="17" t="s">
         <v>92</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="C90" s="22"/>
       <c r="D90" s="21"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="17" t="s">
         <v>93</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="17" t="s">
         <v>94</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="17" t="s">
         <v>95</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="17" t="s">
         <v>96</v>
       </c>
@@ -3555,105 +3555,105 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>-9.5</v>
+        <v>19.5</v>
       </c>
       <c r="C95" s="19">
         <v>12.5</v>
       </c>
       <c r="D95" s="20">
-        <v>-118.75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="18">
-        <v>2</v>
+        <v>19.5</v>
       </c>
       <c r="C96" s="19">
         <v>12.5</v>
       </c>
       <c r="D96" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>-3.5</v>
+        <v>9</v>
       </c>
       <c r="C97" s="19">
         <v>12.5</v>
       </c>
       <c r="D97" s="20">
-        <v>-43.75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="18">
-        <v>7.5</v>
+        <v>26.5</v>
       </c>
       <c r="C98" s="19">
         <v>12.5</v>
       </c>
       <c r="D98" s="20">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>331.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="C99" s="19">
         <v>12.5</v>
       </c>
       <c r="D99" s="20">
-        <v>-62.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="18">
-        <v>3.5</v>
+        <v>21.5</v>
       </c>
       <c r="C100" s="19">
         <v>12.5</v>
       </c>
       <c r="D100" s="20">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>0.36</v>
+        <v>11.36</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="17" t="s">
         <v>104</v>
       </c>
@@ -3667,29 +3667,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="21"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="18">
+        <v>2</v>
+      </c>
+      <c r="C103" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="D103" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>5.5</v>
+        <v>24</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="17" t="s">
         <v>107</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="17" t="s">
         <v>108</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="17" t="s">
         <v>109</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="17" t="s">
         <v>110</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="17" t="s">
         <v>111</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="17" t="s">
         <v>112</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="17" t="s">
         <v>113</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="17" t="s">
         <v>114</v>
       </c>
@@ -3801,21 +3807,21 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B113" s="18">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C113" s="19">
         <v>15.5</v>
       </c>
       <c r="D113" s="20">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="17" t="s">
         <v>116</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="17" t="s">
         <v>117</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="17" t="s">
         <v>118</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="17" t="s">
         <v>119</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="17" t="s">
         <v>120</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="17" t="s">
         <v>121</v>
       </c>
@@ -3899,7 +3905,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="17" t="s">
         <v>122</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="17" t="s">
         <v>123</v>
       </c>
@@ -3927,21 +3933,21 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B122" s="18">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="C122" s="19">
-        <v>18.27</v>
+        <v>18.41</v>
       </c>
       <c r="D122" s="20">
-        <v>82.21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322.16000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="17" t="s">
         <v>125</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>256.79000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="17" t="s">
         <v>126</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>173.56</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="17" t="s">
         <v>127</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>200.96</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="17" t="s">
         <v>128</v>
       </c>
@@ -3997,21 +4003,21 @@
         <v>182.69</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C127" s="19">
         <v>18.27</v>
       </c>
       <c r="D127" s="20">
-        <v>200.96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182.69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="17" t="s">
         <v>130</v>
       </c>
@@ -4025,21 +4031,21 @@
         <v>284.3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B129" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" s="19">
         <v>18.36</v>
       </c>
       <c r="D129" s="20">
-        <v>183.64</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165.27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="17" t="s">
         <v>132</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>200.96</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="17" t="s">
         <v>133</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>201.76</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="17" t="s">
         <v>134</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>82.21</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="17" t="s">
         <v>135</v>
       </c>
@@ -4095,91 +4101,91 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>8</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="C134" s="19">
         <v>3.3</v>
       </c>
       <c r="D134" s="20">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>38.5</v>
+        <v>136.5</v>
       </c>
       <c r="C135" s="19">
         <v>2.8</v>
       </c>
       <c r="D135" s="20">
-        <v>107.8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>382.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="17" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>56.5</v>
+        <v>146.5</v>
       </c>
       <c r="C136" s="19">
         <v>2.75</v>
       </c>
       <c r="D136" s="20">
-        <v>155.38</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402.88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C137" s="19">
         <v>2.75</v>
       </c>
       <c r="D137" s="20">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B138" s="18">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C138" s="19">
         <v>4.7</v>
       </c>
       <c r="D138" s="20">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B139" s="18">
-        <v>27.5</v>
+        <v>165</v>
       </c>
       <c r="C139" s="19">
         <v>3.4</v>
       </c>
       <c r="D139" s="20">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="17" t="s">
         <v>142</v>
       </c>
@@ -4193,147 +4199,147 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="C141" s="19">
         <v>2.7</v>
       </c>
       <c r="D141" s="20">
-        <v>33.75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="C142" s="19">
         <v>2.8</v>
       </c>
       <c r="D142" s="20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>422.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>8.5</v>
+        <v>408.5</v>
       </c>
       <c r="C143" s="19">
         <v>2.8</v>
       </c>
       <c r="D143" s="20">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1143.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B144" s="18">
-        <v>4.5</v>
+        <v>124.5</v>
       </c>
       <c r="C144" s="19">
         <v>2.5</v>
       </c>
       <c r="D144" s="20">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>311.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="17" t="s">
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C145" s="19">
         <v>2.8</v>
       </c>
       <c r="D145" s="20">
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B146" s="18">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="C146" s="19">
         <v>2.8</v>
       </c>
       <c r="D146" s="20">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>411.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="17" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="18">
-        <v>24.5</v>
+        <v>54.5</v>
       </c>
       <c r="C147" s="19">
         <v>2.8</v>
       </c>
       <c r="D147" s="20">
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C148" s="19">
         <v>2.95</v>
       </c>
       <c r="D148" s="20">
-        <v>50.15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327.45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="17" t="s">
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="C149" s="19">
         <v>2.95</v>
       </c>
       <c r="D149" s="20">
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36.880000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B150" s="18">
-        <v>55.5</v>
+        <v>125</v>
       </c>
       <c r="C150" s="19">
         <v>3</v>
       </c>
       <c r="D150" s="20">
-        <v>166.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="17" t="s">
         <v>153</v>
       </c>
@@ -4347,49 +4353,49 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="17" t="s">
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>35.5</v>
+        <v>132</v>
       </c>
       <c r="C152" s="19">
         <v>3.3</v>
       </c>
       <c r="D152" s="20">
-        <v>117.15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B153" s="18">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C153" s="19">
         <v>3.3</v>
       </c>
       <c r="D153" s="20">
-        <v>171.6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="17" t="s">
         <v>156</v>
       </c>
       <c r="B154" s="18">
-        <v>25</v>
+        <v>83.5</v>
       </c>
       <c r="C154" s="19">
         <v>3.5</v>
       </c>
       <c r="D154" s="20">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="17" t="s">
         <v>157</v>
       </c>
@@ -4397,7 +4403,7 @@
       <c r="C155" s="22"/>
       <c r="D155" s="21"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="17" t="s">
         <v>158</v>
       </c>
@@ -4411,63 +4417,63 @@
         <v>76.05</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B157" s="18">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C157" s="19">
         <v>3.9</v>
       </c>
       <c r="D157" s="20">
-        <v>89.7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323.7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="17" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C158" s="19">
         <v>3.33</v>
       </c>
       <c r="D158" s="20">
-        <v>243.09</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209.79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B159" s="18">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C159" s="19">
         <v>3.33</v>
       </c>
       <c r="D159" s="20">
-        <v>439.56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362.97</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="17" t="s">
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C160" s="19">
         <v>3.33</v>
       </c>
       <c r="D160" s="20">
-        <v>256.41000000000003</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323.01</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="17" t="s">
         <v>163</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="17" t="s">
         <v>164</v>
       </c>
@@ -4489,7 +4495,7 @@
       <c r="C162" s="22"/>
       <c r="D162" s="21"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="17" t="s">
         <v>165</v>
       </c>
@@ -4503,21 +4509,21 @@
         <v>58.13</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B164" s="18">
-        <v>29.5</v>
+        <v>26.5</v>
       </c>
       <c r="C164" s="19">
         <v>3.8</v>
       </c>
       <c r="D164" s="20">
-        <v>112.1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="17" t="s">
         <v>167</v>
       </c>
@@ -4531,21 +4537,21 @@
         <v>504</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="C166" s="19">
         <v>4.5</v>
       </c>
       <c r="D166" s="20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="17" t="s">
         <v>169</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>248.24</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="17" t="s">
         <v>170</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="17" t="s">
         <v>171</v>
       </c>
@@ -4587,35 +4593,35 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C170" s="19">
         <v>4.5</v>
       </c>
       <c r="D170" s="20">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B171" s="18">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="C171" s="19">
         <v>4.5</v>
       </c>
       <c r="D171" s="20">
-        <v>218.25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="17" t="s">
         <v>174</v>
       </c>
@@ -4623,13 +4629,13 @@
         <v>98</v>
       </c>
       <c r="C172" s="19">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="D172" s="20">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>380.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="17" t="s">
         <v>175</v>
       </c>
@@ -4637,27 +4643,27 @@
         <v>80</v>
       </c>
       <c r="C173" s="19">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="D173" s="20">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310.54000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="17" t="s">
         <v>176</v>
       </c>
       <c r="B174" s="18">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C174" s="19">
         <v>4.1500000000000004</v>
       </c>
       <c r="D174" s="20">
-        <v>161.85</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319.55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="17" t="s">
         <v>177</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="17" t="s">
         <v>178</v>
       </c>
@@ -4685,7 +4691,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="17" t="s">
         <v>179</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="17" t="s">
         <v>180</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="17" t="s">
         <v>181</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="17" t="s">
         <v>182</v>
       </c>
@@ -4741,7 +4747,7 @@
         <v>94.55</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="17" t="s">
         <v>183</v>
       </c>
@@ -4749,21 +4755,21 @@
       <c r="C181" s="22"/>
       <c r="D181" s="21"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C182" s="19">
         <v>3.05</v>
       </c>
       <c r="D182" s="20">
-        <v>70.150000000000006</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57.95</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="17" t="s">
         <v>185</v>
       </c>
@@ -4771,7 +4777,7 @@
       <c r="C183" s="22"/>
       <c r="D183" s="21"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="17" t="s">
         <v>186</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>50.53</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="17" t="s">
         <v>187</v>
       </c>
@@ -4793,7 +4799,7 @@
       <c r="C185" s="22"/>
       <c r="D185" s="21"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="17" t="s">
         <v>188</v>
       </c>
@@ -4801,7 +4807,7 @@
       <c r="C186" s="22"/>
       <c r="D186" s="21"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="17" t="s">
         <v>189</v>
       </c>
@@ -4809,7 +4815,7 @@
       <c r="C187" s="22"/>
       <c r="D187" s="21"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="17" t="s">
         <v>190</v>
       </c>
@@ -4823,21 +4829,21 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="17" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>47.5</v>
+        <v>51.5</v>
       </c>
       <c r="C189" s="19">
         <v>3.8</v>
       </c>
       <c r="D189" s="20">
-        <v>180.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195.7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="17" t="s">
         <v>192</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="17" t="s">
         <v>193</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>190.8</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="17" t="s">
         <v>194</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>133.19999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="17" t="s">
         <v>195</v>
       </c>
@@ -4893,49 +4899,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="17" t="s">
         <v>196</v>
       </c>
       <c r="B194" s="18">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="C194" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D194" s="20">
-        <v>139.4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137.35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="17" t="s">
         <v>197</v>
       </c>
       <c r="B195" s="18">
-        <v>-15</v>
+        <v>67.5</v>
       </c>
       <c r="C195" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D195" s="20">
-        <v>-61.5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="17" t="s">
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C196" s="19">
         <v>4.75</v>
       </c>
       <c r="D196" s="20">
-        <v>61.75</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>318.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="17" t="s">
         <v>199</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>30.88</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="17" t="s">
         <v>200</v>
       </c>
@@ -4963,21 +4969,21 @@
         <v>180.4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B199" s="18">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="C199" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D199" s="20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="17" t="s">
         <v>202</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>126.26</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="17" t="s">
         <v>203</v>
       </c>
@@ -5005,35 +5011,35 @@
         <v>113.42</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C202" s="19">
         <v>4.5</v>
       </c>
       <c r="D202" s="20">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B203" s="18">
-        <v>49</v>
+        <v>50.5</v>
       </c>
       <c r="C203" s="19">
         <v>4.5</v>
       </c>
       <c r="D203" s="20">
-        <v>220.5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="17" t="s">
         <v>206</v>
       </c>
@@ -5047,21 +5053,21 @@
         <v>435.75</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="C205" s="19">
         <v>4.8</v>
       </c>
       <c r="D205" s="20">
-        <v>-14.4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="17" t="s">
         <v>208</v>
       </c>
@@ -5075,21 +5081,21 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>3.5</v>
+        <v>67</v>
       </c>
       <c r="C207" s="19">
         <v>4.5</v>
       </c>
       <c r="D207" s="20">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="17" t="s">
         <v>210</v>
       </c>
@@ -5103,7 +5109,7 @@
         <v>111.63</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209" s="17" t="s">
         <v>211</v>
       </c>
@@ -5117,7 +5123,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" s="17" t="s">
         <v>212</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" s="17" t="s">
         <v>213</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" s="17" t="s">
         <v>214</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>166.25</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" s="17" t="s">
         <v>215</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>458.38</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" s="17" t="s">
         <v>216</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" s="17" t="s">
         <v>217</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" s="17" t="s">
         <v>218</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" s="17" t="s">
         <v>219</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" s="17" t="s">
         <v>220</v>
       </c>
@@ -5237,21 +5243,21 @@
       <c r="C218" s="22"/>
       <c r="D218" s="21"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B219" s="18">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="C219" s="19">
         <v>5.7</v>
       </c>
       <c r="D219" s="20">
-        <v>37.049999999999997</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54.15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="17" t="s">
         <v>222</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>259.88</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" s="17" t="s">
         <v>223</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" s="17" t="s">
         <v>224</v>
       </c>
@@ -5293,21 +5299,21 @@
         <v>378</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" s="17" t="s">
         <v>225</v>
       </c>
       <c r="B223" s="18">
-        <v>39.5</v>
+        <v>29.5</v>
       </c>
       <c r="C223" s="19">
         <v>5.92</v>
       </c>
       <c r="D223" s="20">
-        <v>233.67</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174.52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="17" t="s">
         <v>226</v>
       </c>
@@ -5321,21 +5327,21 @@
         <v>121.3</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="18">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="C225" s="19">
         <v>4</v>
       </c>
       <c r="D225" s="20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="17" t="s">
         <v>228</v>
       </c>
@@ -5349,21 +5355,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>107.5</v>
+        <v>105.5</v>
       </c>
       <c r="C227" s="19">
         <v>4.5</v>
       </c>
       <c r="D227" s="20">
-        <v>483.75</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>474.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="17" t="s">
         <v>230</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="17" t="s">
         <v>231</v>
       </c>
@@ -5391,7 +5397,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="17" t="s">
         <v>232</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="A231" s="17" t="s">
         <v>233</v>
       </c>
@@ -5419,21 +5425,21 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="A232" s="17" t="s">
         <v>234</v>
       </c>
       <c r="B232" s="18">
-        <v>-15</v>
+        <v>0.5</v>
       </c>
       <c r="C232" s="19">
         <v>3.5</v>
       </c>
       <c r="D232" s="20">
-        <v>-52.5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="17" t="s">
         <v>235</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>208.25</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234" s="17" t="s">
         <v>236</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>216.75</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" s="17" t="s">
         <v>237</v>
       </c>
@@ -5469,49 +5475,49 @@
       <c r="C235" s="22"/>
       <c r="D235" s="21"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236" s="17" t="s">
         <v>238</v>
       </c>
       <c r="B236" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C236" s="19">
         <v>4.18</v>
       </c>
       <c r="D236" s="20">
-        <v>129.58000000000001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="17" t="s">
         <v>239</v>
       </c>
       <c r="B237" s="18">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="C237" s="19">
         <v>4.18</v>
       </c>
       <c r="D237" s="20">
-        <v>89.87</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="17" t="s">
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>29.5</v>
+        <v>25</v>
       </c>
       <c r="C238" s="19">
         <v>4.28</v>
       </c>
       <c r="D238" s="20">
-        <v>126.26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="17" t="s">
         <v>241</v>
       </c>
@@ -5525,21 +5531,21 @@
         <v>113.42</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" s="17" t="s">
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C240" s="19">
         <v>4.5999999999999996</v>
       </c>
       <c r="D240" s="20">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="17" t="s">
         <v>243</v>
       </c>
@@ -5553,21 +5559,21 @@
         <v>118.75</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="A242" s="17" t="s">
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C242" s="19">
         <v>4.95</v>
       </c>
       <c r="D242" s="20">
-        <v>17.329999999999998</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="17" t="s">
         <v>245</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>156.75</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4">
       <c r="A244" s="17" t="s">
         <v>246</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4">
       <c r="A245" s="17" t="s">
         <v>247</v>
       </c>
@@ -5603,7 +5609,7 @@
       <c r="C245" s="22"/>
       <c r="D245" s="21"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4">
       <c r="A246" s="17" t="s">
         <v>248</v>
       </c>
@@ -5611,7 +5617,7 @@
       <c r="C246" s="22"/>
       <c r="D246" s="21"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4">
       <c r="A247" s="17" t="s">
         <v>249</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4">
       <c r="A248" s="17" t="s">
         <v>250</v>
       </c>
@@ -5639,49 +5645,49 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4">
       <c r="A249" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B249" s="18">
-        <v>2.5</v>
+        <v>40</v>
       </c>
       <c r="C249" s="19">
         <v>5.4</v>
       </c>
       <c r="D249" s="20">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="C250" s="19">
         <v>5.5</v>
       </c>
       <c r="D250" s="20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>-0.5</v>
+        <v>58.5</v>
       </c>
       <c r="C251" s="19">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="D251" s="20">
-        <v>-2.78</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324.68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="17" t="s">
         <v>254</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>133.37</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4">
       <c r="A253" s="17" t="s">
         <v>255</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>172.59</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4">
       <c r="A254" s="17" t="s">
         <v>256</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>204.75</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4">
       <c r="A255" s="17" t="s">
         <v>257</v>
       </c>
@@ -5731,29 +5737,35 @@
       <c r="C255" s="22"/>
       <c r="D255" s="21"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4">
       <c r="A256" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="21"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="21"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="18">
+        <v>74.5</v>
+      </c>
+      <c r="C256" s="19">
+        <v>6.25</v>
+      </c>
+      <c r="D256" s="20">
+        <v>465.63</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C257" s="19">
-        <v>6</v>
+        <v>6.26</v>
       </c>
       <c r="D257" s="20">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131.41999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="17" t="s">
         <v>260</v>
       </c>
@@ -5767,21 +5779,21 @@
         <v>260</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4">
       <c r="A259" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>2.5</v>
+        <v>17.5</v>
       </c>
       <c r="C259" s="19">
         <v>6</v>
       </c>
       <c r="D259" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="17" t="s">
         <v>262</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4">
       <c r="A261" s="17" t="s">
         <v>263</v>
       </c>
@@ -5809,21 +5821,21 @@
         <v>475.2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4">
       <c r="A262" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>8</v>
+        <v>37.5</v>
       </c>
       <c r="C262" s="19">
         <v>5.7</v>
       </c>
       <c r="D262" s="20">
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213.75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="17" t="s">
         <v>265</v>
       </c>
@@ -5837,35 +5849,35 @@
         <v>249.48</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4">
       <c r="A264" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B264" s="18">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="C264" s="19">
         <v>5.94</v>
       </c>
       <c r="D264" s="20">
-        <v>118.8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133.65</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C265" s="19">
         <v>7</v>
       </c>
       <c r="D265" s="20">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="17" t="s">
         <v>268</v>
       </c>
@@ -5873,7 +5885,7 @@
       <c r="C266" s="22"/>
       <c r="D266" s="21"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4">
       <c r="A267" s="17" t="s">
         <v>269</v>
       </c>
@@ -5887,7 +5899,7 @@
         <v>302.82</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="A268" s="17" t="s">
         <v>270</v>
       </c>
@@ -5901,7 +5913,7 @@
         <v>105.06</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4">
       <c r="A269" s="17" t="s">
         <v>271</v>
       </c>
@@ -5909,7 +5921,7 @@
       <c r="C269" s="22"/>
       <c r="D269" s="21"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4">
       <c r="A270" s="17" t="s">
         <v>272</v>
       </c>
@@ -5923,7 +5935,7 @@
         <v>139.05000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4">
       <c r="A271" s="17" t="s">
         <v>273</v>
       </c>
@@ -5937,7 +5949,7 @@
         <v>162.93</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4">
       <c r="A272" s="17" t="s">
         <v>274</v>
       </c>
@@ -5951,7 +5963,7 @@
         <v>166.25</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4">
       <c r="A273" s="17" t="s">
         <v>275</v>
       </c>
@@ -5965,35 +5977,35 @@
         <v>166.4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4">
       <c r="A274" s="17" t="s">
         <v>276</v>
       </c>
       <c r="B274" s="18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C274" s="19">
         <v>6.46</v>
       </c>
       <c r="D274" s="20">
-        <v>90.44</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187.34</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="17" t="s">
         <v>277</v>
       </c>
       <c r="B275" s="18">
-        <v>15.5</v>
+        <v>33.5</v>
       </c>
       <c r="C275" s="19">
         <v>6.4</v>
       </c>
       <c r="D275" s="20">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="17" t="s">
         <v>278</v>
       </c>
@@ -6001,21 +6013,21 @@
       <c r="C276" s="22"/>
       <c r="D276" s="21"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4">
       <c r="A277" s="17" t="s">
         <v>279</v>
       </c>
       <c r="B277" s="18">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C277" s="19">
         <v>6.65</v>
       </c>
       <c r="D277" s="20">
-        <v>182.88</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176.23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="17" t="s">
         <v>280</v>
       </c>
@@ -6029,7 +6041,7 @@
         <v>383.16</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4">
       <c r="A279" s="17" t="s">
         <v>281</v>
       </c>
@@ -6037,63 +6049,63 @@
       <c r="C279" s="22"/>
       <c r="D279" s="21"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4">
       <c r="A280" s="17" t="s">
         <v>282</v>
       </c>
       <c r="B280" s="18">
-        <v>23.5</v>
+        <v>18.5</v>
       </c>
       <c r="C280" s="19">
         <v>7.31</v>
       </c>
       <c r="D280" s="20">
-        <v>171.76</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135.21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="17" t="s">
         <v>283</v>
       </c>
       <c r="B281" s="18">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="C281" s="19">
         <v>7.13</v>
       </c>
       <c r="D281" s="20">
-        <v>299.45999999999998</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288.77</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="17" t="s">
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>34</v>
+        <v>91.5</v>
       </c>
       <c r="C282" s="19">
         <v>7.13</v>
       </c>
       <c r="D282" s="20">
-        <v>242.42</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>652.4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B283" s="18">
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="C283" s="19">
         <v>7.13</v>
       </c>
       <c r="D283" s="20">
-        <v>135.47</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188.95</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="17" t="s">
         <v>286</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>116.38</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4">
       <c r="A285" s="17" t="s">
         <v>287</v>
       </c>
@@ -6115,21 +6127,21 @@
       <c r="C285" s="22"/>
       <c r="D285" s="21"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4">
       <c r="A286" s="17" t="s">
         <v>288</v>
       </c>
       <c r="B286" s="18">
-        <v>12</v>
+        <v>47.5</v>
       </c>
       <c r="C286" s="19">
         <v>7.6</v>
       </c>
       <c r="D286" s="20">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="17" t="s">
         <v>289</v>
       </c>
@@ -6143,7 +6155,7 @@
         <v>136.16</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4">
       <c r="A288" s="17" t="s">
         <v>290</v>
       </c>
@@ -6151,7 +6163,7 @@
       <c r="C288" s="22"/>
       <c r="D288" s="21"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4">
       <c r="A289" s="17" t="s">
         <v>291</v>
       </c>
@@ -6165,7 +6177,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4">
       <c r="A290" s="17" t="s">
         <v>292</v>
       </c>
@@ -6179,21 +6191,21 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4">
       <c r="A291" s="17" t="s">
         <v>293</v>
       </c>
       <c r="B291" s="18">
-        <v>32.5</v>
+        <v>28.5</v>
       </c>
       <c r="C291" s="19">
         <v>8.08</v>
       </c>
       <c r="D291" s="20">
-        <v>262.60000000000002</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230.28</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="17" t="s">
         <v>294</v>
       </c>
@@ -6207,7 +6219,7 @@
         <v>293.13</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4">
       <c r="A293" s="17" t="s">
         <v>295</v>
       </c>
@@ -6215,21 +6227,21 @@
       <c r="C293" s="22"/>
       <c r="D293" s="21"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4">
       <c r="A294" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B294" s="18">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="C294" s="19">
         <v>8.08</v>
       </c>
       <c r="D294" s="20">
-        <v>133.32</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="17" t="s">
         <v>297</v>
       </c>
@@ -6243,7 +6255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4">
       <c r="A296" s="17" t="s">
         <v>298</v>
       </c>
@@ -6257,7 +6269,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4">
       <c r="A297" s="17" t="s">
         <v>299</v>
       </c>
@@ -6271,7 +6283,7 @@
         <v>300.02</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4">
       <c r="A298" s="17" t="s">
         <v>300</v>
       </c>
@@ -6279,55 +6291,55 @@
         <v>18</v>
       </c>
       <c r="C298" s="19">
-        <v>9</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D298" s="20">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170.25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="17" t="s">
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C299" s="19">
         <v>9.25</v>
       </c>
       <c r="D299" s="20">
-        <v>212.75</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>2.7</v>
+        <v>11.7</v>
       </c>
       <c r="C300" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D300" s="20">
-        <v>23.76</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102.96</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B301" s="18">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="C301" s="19">
         <v>9.3000000000000007</v>
       </c>
       <c r="D301" s="20">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51.15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="17" t="s">
         <v>304</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4">
       <c r="A303" s="17" t="s">
         <v>305</v>
       </c>
@@ -6355,21 +6367,21 @@
         <v>294.5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4">
       <c r="A304" s="17" t="s">
         <v>306</v>
       </c>
       <c r="B304" s="18">
-        <v>7.5</v>
+        <v>27.5</v>
       </c>
       <c r="C304" s="19">
         <v>10</v>
       </c>
       <c r="D304" s="20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="17" t="s">
         <v>307</v>
       </c>
@@ -6383,21 +6395,21 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4">
       <c r="A306" s="17" t="s">
         <v>308</v>
       </c>
       <c r="B306" s="18">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
       <c r="C306" s="19">
         <v>9.25</v>
       </c>
       <c r="D306" s="20">
-        <v>346.88</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393.13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="17" t="s">
         <v>309</v>
       </c>
@@ -6411,7 +6423,7 @@
         <v>176.25</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4">
       <c r="A308" s="17" t="s">
         <v>310</v>
       </c>
@@ -6425,7 +6437,7 @@
         <v>163.19999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4">
       <c r="A309" s="17" t="s">
         <v>311</v>
       </c>
@@ -6433,41 +6445,35 @@
         <v>22</v>
       </c>
       <c r="C309" s="19">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="D309" s="20">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B310" s="18">
-        <v>-18</v>
-      </c>
-      <c r="C310" s="19">
-        <v>5.5</v>
-      </c>
-      <c r="D310" s="20">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B310" s="21"/>
+      <c r="C310" s="22"/>
+      <c r="D310" s="21"/>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="17" t="s">
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>33.5</v>
+        <v>58.5</v>
       </c>
       <c r="C311" s="19">
-        <v>6.5</v>
+        <v>6.67</v>
       </c>
       <c r="D311" s="20">
-        <v>217.75</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390.11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="17" t="s">
         <v>314</v>
       </c>
@@ -6481,21 +6487,21 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4">
       <c r="A313" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>38.5</v>
+        <v>37.5</v>
       </c>
       <c r="C313" s="19">
         <v>7.13</v>
       </c>
       <c r="D313" s="20">
-        <v>274.51</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267.38</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="17" t="s">
         <v>316</v>
       </c>
@@ -6509,21 +6515,21 @@
         <v>225.25</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4">
       <c r="A315" s="17" t="s">
         <v>317</v>
       </c>
       <c r="B315" s="18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C315" s="19">
         <v>8.5</v>
       </c>
       <c r="D315" s="20">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="17" t="s">
         <v>318</v>
       </c>
@@ -6537,21 +6543,21 @@
         <v>365.75</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4">
       <c r="A317" s="17" t="s">
         <v>319</v>
       </c>
       <c r="B317" s="18">
-        <v>24</v>
+        <v>20.5</v>
       </c>
       <c r="C317" s="19">
-        <v>10.5</v>
+        <v>10.61</v>
       </c>
       <c r="D317" s="20">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217.59</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="17" t="s">
         <v>320</v>
       </c>
@@ -6565,7 +6571,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4">
       <c r="A319" s="17" t="s">
         <v>321</v>
       </c>
@@ -6579,21 +6585,21 @@
         <v>113.85</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4">
       <c r="A320" s="17" t="s">
         <v>322</v>
       </c>
       <c r="B320" s="18">
-        <v>14.5</v>
+        <v>26.5</v>
       </c>
       <c r="C320" s="19">
-        <v>7.74</v>
+        <v>7.82</v>
       </c>
       <c r="D320" s="20">
-        <v>112.24</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207.36</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="17" t="s">
         <v>323</v>
       </c>
@@ -6601,21 +6607,21 @@
       <c r="C321" s="22"/>
       <c r="D321" s="21"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4">
       <c r="A322" s="17" t="s">
         <v>324</v>
       </c>
       <c r="B322" s="18">
-        <v>16.5</v>
+        <v>44.5</v>
       </c>
       <c r="C322" s="19">
         <v>6.5</v>
       </c>
       <c r="D322" s="20">
-        <v>107.25</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="17" t="s">
         <v>325</v>
       </c>
@@ -6623,21 +6629,21 @@
       <c r="C323" s="22"/>
       <c r="D323" s="21"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4">
       <c r="A324" s="17" t="s">
         <v>326</v>
       </c>
       <c r="B324" s="18">
-        <v>-18</v>
+        <v>48.5</v>
       </c>
       <c r="C324" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="D324" s="20">
-        <v>-88.2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237.65</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="17" t="s">
         <v>327</v>
       </c>
@@ -6651,21 +6657,21 @@
         <v>172.9</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4">
       <c r="A326" s="17" t="s">
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C326" s="19">
         <v>7.36</v>
       </c>
       <c r="D326" s="20">
-        <v>169.28</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139.84</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="17" t="s">
         <v>329</v>
       </c>
@@ -6679,35 +6685,35 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4">
       <c r="A328" s="17" t="s">
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C328" s="19">
-        <v>9</v>
+        <v>8.74</v>
       </c>
       <c r="D328" s="20">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>332.28</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="17" t="s">
         <v>331</v>
       </c>
       <c r="B329" s="18">
-        <v>79.5</v>
+        <v>82.5</v>
       </c>
       <c r="C329" s="19">
         <v>6.5</v>
       </c>
       <c r="D329" s="20">
-        <v>516.75</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>536.25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="17" t="s">
         <v>332</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4">
       <c r="A331" s="17" t="s">
         <v>333</v>
       </c>
@@ -6735,35 +6741,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4">
       <c r="A332" s="17" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C332" s="19">
         <v>12.5</v>
       </c>
       <c r="D332" s="20">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="17" t="s">
         <v>335</v>
       </c>
       <c r="B333" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C333" s="19">
         <v>12.25</v>
       </c>
       <c r="D333" s="20">
-        <v>220.5</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208.25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="17" t="s">
         <v>336</v>
       </c>
@@ -6777,21 +6783,21 @@
         <v>219.38</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4">
       <c r="A335" s="17" t="s">
         <v>337</v>
       </c>
       <c r="B335" s="18">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="C335" s="19">
         <v>11</v>
       </c>
       <c r="D335" s="20">
-        <v>148.5</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="17" t="s">
         <v>338</v>
       </c>
@@ -6805,15 +6811,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4">
       <c r="A337" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B337" s="21"/>
-      <c r="C337" s="22"/>
-      <c r="D337" s="21"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B337" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C337" s="19">
+        <v>10</v>
+      </c>
+      <c r="D337" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="17" t="s">
         <v>340</v>
       </c>
@@ -6827,49 +6839,49 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4">
       <c r="A339" s="17" t="s">
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C339" s="19">
         <v>11</v>
       </c>
       <c r="D339" s="20">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="17" t="s">
         <v>342</v>
       </c>
       <c r="B340" s="18">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C340" s="19">
         <v>39</v>
       </c>
       <c r="D340" s="20">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>448.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="17" t="s">
         <v>343</v>
       </c>
       <c r="B341" s="18">
-        <v>9.99</v>
+        <v>12.99</v>
       </c>
       <c r="C341" s="19">
         <v>12</v>
       </c>
       <c r="D341" s="20">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155.88</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="17" t="s">
         <v>344</v>
       </c>
@@ -6883,21 +6895,21 @@
         <v>192</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4">
       <c r="A343" s="17" t="s">
         <v>345</v>
       </c>
       <c r="B343" s="18">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C343" s="19">
         <v>7.84</v>
       </c>
       <c r="D343" s="20">
-        <v>203.84</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="17" t="s">
         <v>346</v>
       </c>
@@ -6911,35 +6923,35 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4">
       <c r="A345" s="17" t="s">
         <v>347</v>
       </c>
       <c r="B345" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C345" s="19">
         <v>23.5</v>
       </c>
       <c r="D345" s="20">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="17" t="s">
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C346" s="19">
-        <v>14.73</v>
+        <v>14.68</v>
       </c>
       <c r="D346" s="20">
-        <v>250.41</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322.98</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="17" t="s">
         <v>349</v>
       </c>
@@ -6953,7 +6965,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4">
       <c r="A348" s="17" t="s">
         <v>350</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4">
       <c r="A349" s="17" t="s">
         <v>351</v>
       </c>
@@ -6981,7 +6993,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4">
       <c r="A350" s="17" t="s">
         <v>352</v>
       </c>
@@ -6995,7 +7007,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4">
       <c r="A351" s="17" t="s">
         <v>353</v>
       </c>
@@ -7009,7 +7021,7 @@
         <v>194.25</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4">
       <c r="A352" s="17" t="s">
         <v>354</v>
       </c>
@@ -7023,21 +7035,21 @@
         <v>263.25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4">
       <c r="A353" s="17" t="s">
         <v>355</v>
       </c>
       <c r="B353" s="18">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="C353" s="19">
         <v>18</v>
       </c>
       <c r="D353" s="20">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" s="17" t="s">
         <v>356</v>
       </c>
@@ -7051,49 +7063,49 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4">
       <c r="A355" s="17" t="s">
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>-9.5</v>
+        <v>-13</v>
       </c>
       <c r="C355" s="19">
         <v>9.5</v>
       </c>
       <c r="D355" s="20">
-        <v>-90.25</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-123.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="17" t="s">
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="C356" s="19">
         <v>15</v>
       </c>
       <c r="D356" s="20">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" s="17" t="s">
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="C357" s="19">
         <v>10</v>
       </c>
       <c r="D357" s="20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="17" t="s">
         <v>360</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4">
       <c r="A359" s="17" t="s">
         <v>361</v>
       </c>
@@ -7121,35 +7133,35 @@
         <v>255</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4">
       <c r="A360" s="17" t="s">
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C360" s="19">
         <v>7.84</v>
       </c>
       <c r="D360" s="20">
-        <v>62.72</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31.36</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="17" t="s">
         <v>363</v>
       </c>
       <c r="B361" s="18">
-        <v>-9.5</v>
+        <v>2.5</v>
       </c>
       <c r="C361" s="19">
         <v>25</v>
       </c>
       <c r="D361" s="20">
-        <v>-237.5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" s="17" t="s">
         <v>364</v>
       </c>
@@ -7163,21 +7175,21 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4">
       <c r="A363" s="17" t="s">
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C363" s="19">
         <v>10.93</v>
       </c>
       <c r="D363" s="20">
-        <v>142.09</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+        <v>437.2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="17" t="s">
         <v>366</v>
       </c>
@@ -7191,7 +7203,7 @@
         <v>188.1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4">
       <c r="A365" s="17" t="s">
         <v>367</v>
       </c>
@@ -7205,21 +7217,21 @@
         <v>231.25</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4">
       <c r="A366" s="17" t="s">
         <v>368</v>
       </c>
       <c r="B366" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C366" s="19">
         <v>21.5</v>
       </c>
       <c r="D366" s="20">
-        <v>150.5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="17" t="s">
         <v>369</v>
       </c>
@@ -7233,21 +7245,15 @@
         <v>172.13</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4">
       <c r="A368" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B368" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C368" s="19">
-        <v>11.5</v>
-      </c>
-      <c r="D368" s="20">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B368" s="21"/>
+      <c r="C368" s="22"/>
+      <c r="D368" s="21"/>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="17" t="s">
         <v>371</v>
       </c>
@@ -7261,7 +7267,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4">
       <c r="A370" s="17" t="s">
         <v>372</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4">
       <c r="A371" s="17" t="s">
         <v>373</v>
       </c>
@@ -7289,21 +7295,21 @@
         <v>195.75</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4">
       <c r="A372" s="17" t="s">
         <v>374</v>
       </c>
       <c r="B372" s="18">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="C372" s="19">
         <v>22.5</v>
       </c>
       <c r="D372" s="20">
-        <v>33.75</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="17" t="s">
         <v>375</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4">
       <c r="A374" s="17" t="s">
         <v>376</v>
       </c>
@@ -7331,21 +7337,21 @@
         <v>223.25</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4">
       <c r="A375" s="17" t="s">
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C375" s="19">
         <v>10.93</v>
       </c>
       <c r="D375" s="20">
-        <v>327.9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371.62</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" s="17" t="s">
         <v>378</v>
       </c>
@@ -7359,7 +7365,7 @@
         <v>131.16</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4">
       <c r="A377" s="17" t="s">
         <v>379</v>
       </c>
@@ -7373,7 +7379,7 @@
         <v>184.38</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4">
       <c r="A378" s="17" t="s">
         <v>380</v>
       </c>
@@ -7387,21 +7393,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4">
       <c r="A379" s="17" t="s">
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C379" s="19">
         <v>10.45</v>
       </c>
       <c r="D379" s="20">
-        <v>125.4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114.95</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="17" t="s">
         <v>382</v>
       </c>
@@ -7415,21 +7421,21 @@
         <v>78.38</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4">
       <c r="A381" s="17" t="s">
         <v>383</v>
       </c>
       <c r="B381" s="18">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="C381" s="19">
         <v>2</v>
       </c>
       <c r="D381" s="20">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="17" t="s">
         <v>384</v>
       </c>
@@ -7443,21 +7449,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4">
       <c r="A383" s="17" t="s">
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>27.5</v>
+        <v>57.5</v>
       </c>
       <c r="C383" s="19">
         <v>2.1</v>
       </c>
       <c r="D383" s="20">
-        <v>57.75</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120.75</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="17" t="s">
         <v>386</v>
       </c>
@@ -7465,7 +7471,7 @@
       <c r="C384" s="22"/>
       <c r="D384" s="21"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4">
       <c r="A385" s="17" t="s">
         <v>387</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4">
       <c r="A386" s="17" t="s">
         <v>388</v>
       </c>
@@ -7487,7 +7493,7 @@
       <c r="C386" s="22"/>
       <c r="D386" s="21"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4">
       <c r="A387" s="17" t="s">
         <v>389</v>
       </c>
@@ -7495,7 +7501,7 @@
       <c r="C387" s="22"/>
       <c r="D387" s="21"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4">
       <c r="A388" s="17" t="s">
         <v>390</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4">
       <c r="A389" s="17" t="s">
         <v>391</v>
       </c>
@@ -7523,7 +7529,7 @@
         <v>155.25</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4">
       <c r="A390" s="17" t="s">
         <v>392</v>
       </c>
@@ -7537,7 +7543,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4">
       <c r="A391" s="17" t="s">
         <v>393</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>70.88</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4">
       <c r="A392" s="17" t="s">
         <v>394</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4">
       <c r="A393" s="17" t="s">
         <v>395</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4">
       <c r="A394" s="17" t="s">
         <v>396</v>
       </c>
@@ -7593,21 +7599,21 @@
         <v>68.849999999999994</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4">
       <c r="A395" s="17" t="s">
         <v>397</v>
       </c>
       <c r="B395" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C395" s="19">
         <v>2.7</v>
       </c>
       <c r="D395" s="20">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="17" t="s">
         <v>398</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4">
       <c r="A397" s="17" t="s">
         <v>399</v>
       </c>
@@ -7635,21 +7641,21 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4">
       <c r="A398" s="17" t="s">
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>48.5</v>
+        <v>93.5</v>
       </c>
       <c r="C398" s="19">
         <v>2.75</v>
       </c>
       <c r="D398" s="20">
-        <v>133.38</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257.13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" s="17" t="s">
         <v>401</v>
       </c>
@@ -7663,35 +7669,35 @@
         <v>171</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4">
       <c r="A400" s="17" t="s">
         <v>402</v>
       </c>
       <c r="B400" s="18">
-        <v>48.5</v>
+        <v>45</v>
       </c>
       <c r="C400" s="19">
         <v>2.8</v>
       </c>
       <c r="D400" s="20">
-        <v>135.80000000000001</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="17" t="s">
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C401" s="19">
         <v>2.8</v>
       </c>
       <c r="D401" s="20">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="17" t="s">
         <v>404</v>
       </c>
@@ -7699,35 +7705,35 @@
       <c r="C402" s="22"/>
       <c r="D402" s="21"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4">
       <c r="A403" s="17" t="s">
         <v>405</v>
       </c>
       <c r="B403" s="18">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C403" s="19">
         <v>2.8</v>
       </c>
       <c r="D403" s="20">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288.39999999999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" s="17" t="s">
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C404" s="19">
         <v>2.95</v>
       </c>
       <c r="D404" s="20">
-        <v>200.6</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" s="17" t="s">
         <v>407</v>
       </c>
@@ -7741,7 +7747,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4">
       <c r="A406" s="17" t="s">
         <v>408</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>95.48</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4">
       <c r="A407" s="17" t="s">
         <v>409</v>
       </c>
@@ -7769,7 +7775,7 @@
         <v>96.17</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4">
       <c r="A408" s="17" t="s">
         <v>410</v>
       </c>
@@ -7783,7 +7789,7 @@
         <v>179.85</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4">
       <c r="A409" s="17" t="s">
         <v>411</v>
       </c>
@@ -7797,21 +7803,21 @@
         <v>173.25</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4">
       <c r="A410" s="17" t="s">
         <v>412</v>
       </c>
       <c r="B410" s="18">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="C410" s="19">
         <v>3.05</v>
       </c>
       <c r="D410" s="20">
-        <v>71.680000000000007</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68.63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" s="17" t="s">
         <v>413</v>
       </c>
@@ -7825,21 +7831,21 @@
         <v>94.55</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4">
       <c r="A412" s="17" t="s">
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="C412" s="19">
         <v>3.25</v>
       </c>
       <c r="D412" s="20">
-        <v>43.88</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" s="17" t="s">
         <v>415</v>
       </c>
@@ -7853,7 +7859,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4">
       <c r="A414" s="17" t="s">
         <v>416</v>
       </c>
@@ -7861,7 +7867,7 @@
       <c r="C414" s="22"/>
       <c r="D414" s="21"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4">
       <c r="A415" s="17" t="s">
         <v>417</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4">
       <c r="A416" s="17" t="s">
         <v>418</v>
       </c>
@@ -7889,35 +7895,35 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4">
       <c r="A417" s="17" t="s">
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>20.86</v>
+        <v>17.86</v>
       </c>
       <c r="C417" s="19">
         <v>3.5</v>
       </c>
       <c r="D417" s="20">
-        <v>73.010000000000005</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62.51</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="17" t="s">
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="C418" s="19">
         <v>3.8</v>
       </c>
       <c r="D418" s="20">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="17" t="s">
         <v>421</v>
       </c>
@@ -7931,21 +7937,21 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4">
       <c r="A420" s="17" t="s">
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C420" s="19">
         <v>3.33</v>
       </c>
       <c r="D420" s="20">
-        <v>93.24</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.58</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" s="17" t="s">
         <v>423</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>193.14</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4">
       <c r="A422" s="17" t="s">
         <v>424</v>
       </c>
@@ -7967,7 +7973,7 @@
       <c r="C422" s="22"/>
       <c r="D422" s="21"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4">
       <c r="A423" s="17" t="s">
         <v>425</v>
       </c>
@@ -7975,21 +7981,21 @@
       <c r="C423" s="22"/>
       <c r="D423" s="21"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4">
       <c r="A424" s="17" t="s">
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C424" s="19">
         <v>3.8</v>
       </c>
       <c r="D424" s="20">
-        <v>144.4</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201.4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="17" t="s">
         <v>427</v>
       </c>
@@ -8003,7 +8009,7 @@
         <v>240.13</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4">
       <c r="A426" s="17" t="s">
         <v>428</v>
       </c>
@@ -8017,21 +8023,21 @@
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4">
       <c r="A427" s="17" t="s">
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C427" s="19">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D427" s="20">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151.62</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" s="17" t="s">
         <v>430</v>
       </c>
@@ -8045,7 +8051,7 @@
         <v>80.75</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4">
       <c r="A429" s="17" t="s">
         <v>431</v>
       </c>
@@ -8059,7 +8065,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4">
       <c r="A430" s="17" t="s">
         <v>432</v>
       </c>
@@ -8073,7 +8079,7 @@
         <v>132.30000000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4">
       <c r="A431" s="17" t="s">
         <v>433</v>
       </c>
@@ -8087,7 +8093,7 @@
         <v>128.4</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4">
       <c r="A432" s="17" t="s">
         <v>434</v>
       </c>
@@ -8101,21 +8107,21 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4">
       <c r="A433" s="17" t="s">
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>28</v>
+        <v>42.5</v>
       </c>
       <c r="C433" s="19">
         <v>4.28</v>
       </c>
       <c r="D433" s="20">
-        <v>119.84</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181.9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="17" t="s">
         <v>436</v>
       </c>
@@ -8129,7 +8135,7 @@
         <v>78.38</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4">
       <c r="A435" s="17" t="s">
         <v>437</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4">
       <c r="A436" s="17" t="s">
         <v>438</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>175.75</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4">
       <c r="A437" s="17" t="s">
         <v>439</v>
       </c>
@@ -8171,21 +8177,21 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4">
       <c r="A438" s="17" t="s">
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C438" s="19">
         <v>4.5</v>
       </c>
       <c r="D438" s="20">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" s="17" t="s">
         <v>441</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4">
       <c r="A440" s="17" t="s">
         <v>442</v>
       </c>
@@ -8213,21 +8219,21 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4">
       <c r="A441" s="17" t="s">
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>8</v>
+        <v>82.5</v>
       </c>
       <c r="C441" s="19">
         <v>5.5</v>
       </c>
       <c r="D441" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453.75</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" s="17" t="s">
         <v>444</v>
       </c>
@@ -8241,7 +8247,7 @@
         <v>195.25</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4">
       <c r="A443" s="17" t="s">
         <v>445</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>154.29</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4">
       <c r="A444" s="17" t="s">
         <v>446</v>
       </c>
@@ -8269,7 +8275,7 @@
         <v>65.63</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4">
       <c r="A445" s="17" t="s">
         <v>447</v>
       </c>
@@ -8277,7 +8283,7 @@
       <c r="C445" s="22"/>
       <c r="D445" s="21"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4">
       <c r="A446" s="17" t="s">
         <v>448</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4">
       <c r="A447" s="17" t="s">
         <v>449</v>
       </c>
@@ -8299,21 +8305,21 @@
       <c r="C447" s="22"/>
       <c r="D447" s="21"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4">
       <c r="A448" s="17" t="s">
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="C448" s="19">
         <v>5.94</v>
       </c>
       <c r="D448" s="20">
-        <v>136.62</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139.59</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" s="17" t="s">
         <v>451</v>
       </c>
@@ -8327,21 +8333,21 @@
         <v>141.75</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4">
       <c r="A450" s="17" t="s">
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>33.5</v>
+        <v>32</v>
       </c>
       <c r="C450" s="19">
         <v>7.5</v>
       </c>
       <c r="D450" s="20">
-        <v>251.25</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" s="17" t="s">
         <v>453</v>
       </c>
@@ -8355,7 +8361,7 @@
         <v>570.4</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4">
       <c r="A452" s="17" t="s">
         <v>454</v>
       </c>
@@ -8369,49 +8375,49 @@
         <v>200</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4">
       <c r="A453" s="17" t="s">
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C453" s="19">
         <v>7</v>
       </c>
       <c r="D453" s="20">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" s="17" t="s">
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>47</v>
+        <v>45.5</v>
       </c>
       <c r="C454" s="19">
         <v>7.6</v>
       </c>
       <c r="D454" s="20">
-        <v>357.2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+        <v>345.8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" s="17" t="s">
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C455" s="19">
         <v>8.5</v>
       </c>
       <c r="D455" s="20">
-        <v>110.5</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" s="17" t="s">
         <v>458</v>
       </c>
@@ -8425,21 +8431,21 @@
         <v>116.25</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4">
       <c r="A457" s="17" t="s">
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="C457" s="19">
         <v>8.25</v>
       </c>
       <c r="D457" s="20">
-        <v>152.63</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119.63</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="17" t="s">
         <v>460</v>
       </c>
@@ -8447,7 +8453,7 @@
       <c r="C458" s="22"/>
       <c r="D458" s="21"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4">
       <c r="A459" s="17" t="s">
         <v>461</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4">
       <c r="A460" s="17" t="s">
         <v>462</v>
       </c>
@@ -8475,7 +8481,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4">
       <c r="A461" s="17" t="s">
         <v>463</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>136.96</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4">
       <c r="A462" s="17" t="s">
         <v>464</v>
       </c>
@@ -8503,7 +8509,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4">
       <c r="A463" s="17" t="s">
         <v>465</v>
       </c>
@@ -8517,7 +8523,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4">
       <c r="A464" s="17" t="s">
         <v>466</v>
       </c>
@@ -8531,21 +8537,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4">
       <c r="A465" s="17" t="s">
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>54.5</v>
+        <v>9.5</v>
       </c>
       <c r="C465" s="19">
         <v>5.7</v>
       </c>
       <c r="D465" s="20">
-        <v>310.64999999999998</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54.15</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" s="17" t="s">
         <v>468</v>
       </c>
@@ -8559,7 +8565,7 @@
         <v>65.23</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4">
       <c r="A467" s="17" t="s">
         <v>469</v>
       </c>
@@ -8573,49 +8579,49 @@
         <v>172.9</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4">
       <c r="A468" s="17" t="s">
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>50.5</v>
+        <v>250.5</v>
       </c>
       <c r="C468" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D468" s="20">
-        <v>55.55</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275.55</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" s="17" t="s">
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>-11</v>
+        <v>192</v>
       </c>
       <c r="C469" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D469" s="20">
-        <v>-12.1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211.2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" s="17" t="s">
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C470" s="19">
         <v>4.1500000000000004</v>
       </c>
       <c r="D470" s="20">
-        <v>182.6</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240.7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" s="17" t="s">
         <v>473</v>
       </c>
@@ -8629,7 +8635,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4">
       <c r="A472" s="17" t="s">
         <v>474</v>
       </c>
@@ -8643,7 +8649,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4">
       <c r="A473" s="17" t="s">
         <v>475</v>
       </c>
@@ -8657,119 +8663,119 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4">
       <c r="A474" s="17" t="s">
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="C474" s="19">
         <v>3</v>
       </c>
       <c r="D474" s="20">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="17" t="s">
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C475" s="19">
         <v>1.5</v>
       </c>
       <c r="D475" s="20">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+        <v>295.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" s="17" t="s">
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="C476" s="19">
         <v>1.5</v>
       </c>
       <c r="D476" s="20">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" s="17" t="s">
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>108.5</v>
+        <v>234.5</v>
       </c>
       <c r="C477" s="19">
         <v>1.5</v>
       </c>
       <c r="D477" s="20">
-        <v>162.75</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+        <v>351.75</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" s="17" t="s">
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C478" s="19">
         <v>1.71</v>
       </c>
       <c r="D478" s="20">
-        <v>116.28</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99.18</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" s="17" t="s">
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C479" s="19">
         <v>0.39</v>
       </c>
       <c r="D479" s="20">
-        <v>68.56</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" s="17" t="s">
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="C480" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D480" s="20">
-        <v>44.46</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" s="17" t="s">
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>43.5</v>
+        <v>42.5</v>
       </c>
       <c r="C481" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D481" s="20">
-        <v>99.18</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" s="17" t="s">
         <v>484</v>
       </c>
@@ -8783,7 +8789,7 @@
         <v>158.08000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4">
       <c r="A483" s="17" t="s">
         <v>485</v>
       </c>
@@ -8791,63 +8797,63 @@
       <c r="C483" s="22"/>
       <c r="D483" s="21"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4">
       <c r="A484" s="17" t="s">
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>9.5</v>
+        <v>29.5</v>
       </c>
       <c r="C484" s="19">
         <v>2.75</v>
       </c>
       <c r="D484" s="20">
-        <v>26.13</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" s="17" t="s">
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C485" s="19">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="D485" s="20">
-        <v>47.11</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266.52</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" s="17" t="s">
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>24.5</v>
+        <v>88.5</v>
       </c>
       <c r="C486" s="19">
         <v>2.8</v>
       </c>
       <c r="D486" s="20">
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247.8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" s="17" t="s">
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="C487" s="19">
         <v>2.95</v>
       </c>
       <c r="D487" s="20">
-        <v>28.03</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" s="17" t="s">
         <v>490</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>38.35</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4">
       <c r="A489" s="17" t="s">
         <v>491</v>
       </c>
@@ -8875,7 +8881,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4">
       <c r="A490" s="17" t="s">
         <v>492</v>
       </c>
@@ -8889,7 +8895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4">
       <c r="A491" s="17" t="s">
         <v>493</v>
       </c>
@@ -8903,7 +8909,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4">
       <c r="A492" s="17" t="s">
         <v>494</v>
       </c>
@@ -8917,7 +8923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4">
       <c r="A493" s="17" t="s">
         <v>495</v>
       </c>
@@ -8925,7 +8931,7 @@
       <c r="C493" s="22"/>
       <c r="D493" s="21"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4">
       <c r="A494" s="17" t="s">
         <v>496</v>
       </c>
@@ -8939,35 +8945,35 @@
         <v>169.58</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4">
       <c r="A495" s="17" t="s">
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C495" s="19">
         <v>3.25</v>
       </c>
       <c r="D495" s="20">
-        <v>61.75</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" s="17" t="s">
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C496" s="19">
         <v>3.25</v>
       </c>
       <c r="D496" s="20">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113.75</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" s="17" t="s">
         <v>499</v>
       </c>
@@ -8975,7 +8981,7 @@
       <c r="C497" s="22"/>
       <c r="D497" s="21"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4">
       <c r="A498" s="17" t="s">
         <v>500</v>
       </c>
@@ -8983,49 +8989,49 @@
       <c r="C498" s="22"/>
       <c r="D498" s="21"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4">
       <c r="A499" s="17" t="s">
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C499" s="19">
         <v>3.5</v>
       </c>
       <c r="D499" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" s="17" t="s">
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C500" s="19">
         <v>3.5</v>
       </c>
       <c r="D500" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" s="17" t="s">
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>24.5</v>
+        <v>28.5</v>
       </c>
       <c r="C501" s="19">
         <v>3.33</v>
       </c>
       <c r="D501" s="20">
-        <v>81.59</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.91</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
       <c r="A502" s="17" t="s">
         <v>504</v>
       </c>
@@ -9033,49 +9039,49 @@
       <c r="C502" s="22"/>
       <c r="D502" s="21"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4">
       <c r="A503" s="17" t="s">
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>16.5</v>
+        <v>68.5</v>
       </c>
       <c r="C503" s="19">
         <v>3.8</v>
       </c>
       <c r="D503" s="20">
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260.3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
       <c r="A504" s="17" t="s">
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>21.5</v>
+        <v>71.5</v>
       </c>
       <c r="C504" s="19">
         <v>3.7</v>
       </c>
       <c r="D504" s="20">
-        <v>79.55</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264.55</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
       <c r="A505" s="17" t="s">
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C505" s="19">
         <v>3.6</v>
       </c>
       <c r="D505" s="20">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" s="17" t="s">
         <v>508</v>
       </c>
@@ -9083,7 +9089,7 @@
       <c r="C506" s="22"/>
       <c r="D506" s="21"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4">
       <c r="A507" s="17" t="s">
         <v>509</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>262.8</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4">
       <c r="A508" s="17" t="s">
         <v>510</v>
       </c>
@@ -9105,35 +9111,35 @@
       <c r="C508" s="22"/>
       <c r="D508" s="21"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4">
       <c r="A509" s="17" t="s">
         <v>511</v>
       </c>
       <c r="B509" s="18">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C509" s="19">
         <v>4</v>
       </c>
       <c r="D509" s="20">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" s="17" t="s">
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C510" s="19">
         <v>4</v>
       </c>
       <c r="D510" s="20">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" s="17" t="s">
         <v>513</v>
       </c>
@@ -9141,21 +9147,21 @@
       <c r="C511" s="22"/>
       <c r="D511" s="21"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4">
       <c r="A512" s="17" t="s">
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C512" s="19">
         <v>4</v>
       </c>
       <c r="D512" s="20">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="17" t="s">
         <v>515</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4">
       <c r="A514" s="17" t="s">
         <v>516</v>
       </c>
@@ -9183,49 +9189,49 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4">
       <c r="A515" s="17" t="s">
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C515" s="19">
         <v>4.3</v>
       </c>
       <c r="D515" s="20">
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202.1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="17" t="s">
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C516" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D516" s="20">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="17" t="s">
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C517" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D517" s="20">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="17" t="s">
         <v>520</v>
       </c>
@@ -9239,35 +9245,35 @@
         <v>135</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4">
       <c r="A519" s="17" t="s">
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C519" s="19">
         <v>4.75</v>
       </c>
       <c r="D519" s="20">
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137.75</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="17" t="s">
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>14.5</v>
+        <v>34.5</v>
       </c>
       <c r="C520" s="19">
         <v>4.75</v>
       </c>
       <c r="D520" s="20">
-        <v>68.88</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163.88</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="17" t="s">
         <v>523</v>
       </c>
@@ -9281,7 +9287,7 @@
         <v>175.75</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4">
       <c r="A522" s="17" t="s">
         <v>524</v>
       </c>
@@ -9295,7 +9301,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4">
       <c r="A523" s="17" t="s">
         <v>525</v>
       </c>
@@ -9309,21 +9315,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4">
       <c r="A524" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="B524" s="18">
-        <v>2</v>
-      </c>
-      <c r="C524" s="19">
-        <v>5</v>
-      </c>
-      <c r="D524" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B524" s="21"/>
+      <c r="C524" s="22"/>
+      <c r="D524" s="21"/>
+    </row>
+    <row r="525" spans="1:4">
       <c r="A525" s="17" t="s">
         <v>527</v>
       </c>
@@ -9337,21 +9337,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4">
       <c r="A526" s="17" t="s">
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C526" s="19">
         <v>5.25</v>
       </c>
       <c r="D526" s="20">
-        <v>47.25</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
       <c r="A527" s="17" t="s">
         <v>529</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4">
       <c r="A528" s="17" t="s">
         <v>530</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4">
       <c r="A529" s="17" t="s">
         <v>531</v>
       </c>
@@ -9393,35 +9393,35 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4">
       <c r="A530" s="17" t="s">
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C530" s="19">
         <v>5.75</v>
       </c>
       <c r="D530" s="20">
-        <v>178.25</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143.75</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
       <c r="A531" s="17" t="s">
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>10.5</v>
+        <v>23.5</v>
       </c>
       <c r="C531" s="19">
         <v>5.75</v>
       </c>
       <c r="D531" s="20">
-        <v>60.38</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135.13</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
       <c r="A532" s="17" t="s">
         <v>534</v>
       </c>
@@ -9435,21 +9435,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4">
       <c r="A533" s="17" t="s">
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>18</v>
+        <v>27.5</v>
       </c>
       <c r="C533" s="19">
         <v>5.75</v>
       </c>
       <c r="D533" s="20">
-        <v>103.5</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158.13</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
       <c r="A534" s="17" t="s">
         <v>536</v>
       </c>
@@ -9463,21 +9463,21 @@
         <v>212.75</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4">
       <c r="A535" s="17" t="s">
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C535" s="19">
         <v>6</v>
       </c>
       <c r="D535" s="20">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
       <c r="A536" s="17" t="s">
         <v>538</v>
       </c>
@@ -9491,21 +9491,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4">
       <c r="A537" s="17" t="s">
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C537" s="19">
         <v>6</v>
       </c>
       <c r="D537" s="20">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
       <c r="A538" s="17" t="s">
         <v>540</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4">
       <c r="A539" s="17" t="s">
         <v>541</v>
       </c>
@@ -9527,7 +9527,7 @@
       <c r="C539" s="22"/>
       <c r="D539" s="21"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4">
       <c r="A540" s="17" t="s">
         <v>542</v>
       </c>
@@ -9535,21 +9535,21 @@
       <c r="C540" s="22"/>
       <c r="D540" s="21"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4">
       <c r="A541" s="17" t="s">
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C541" s="19">
         <v>7.25</v>
       </c>
       <c r="D541" s="20">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137.75</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
       <c r="A542" s="17" t="s">
         <v>544</v>
       </c>
@@ -9563,49 +9563,49 @@
         <v>205.38</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4">
       <c r="A543" s="17" t="s">
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C543" s="19">
         <v>8</v>
       </c>
       <c r="D543" s="20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
       <c r="A544" s="17" t="s">
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="C544" s="19">
         <v>10</v>
       </c>
       <c r="D544" s="20">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
       <c r="A545" s="17" t="s">
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C545" s="19">
         <v>8.75</v>
       </c>
       <c r="D545" s="20">
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
       <c r="A546" s="17" t="s">
         <v>548</v>
       </c>
@@ -9613,7 +9613,7 @@
       <c r="C546" s="22"/>
       <c r="D546" s="21"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4">
       <c r="A547" s="17" t="s">
         <v>549</v>
       </c>
@@ -9627,21 +9627,21 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4">
       <c r="A548" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>22.5</v>
+        <v>79.5</v>
       </c>
       <c r="C548" s="19">
         <v>2.76</v>
       </c>
       <c r="D548" s="20">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219.42</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
       <c r="A549" s="17" t="s">
         <v>551</v>
       </c>
@@ -9655,21 +9655,21 @@
         <v>171.12</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4">
       <c r="A550" s="17" t="s">
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="C550" s="19">
         <v>2.76</v>
       </c>
       <c r="D550" s="20">
-        <v>60.72</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396.96</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
       <c r="A551" s="17" t="s">
         <v>553</v>
       </c>
@@ -9683,21 +9683,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4">
       <c r="A552" s="17" t="s">
         <v>554</v>
       </c>
       <c r="B552" s="18">
-        <v>27.5</v>
+        <v>67.5</v>
       </c>
       <c r="C552" s="19">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="D552" s="20">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192.6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
       <c r="A553" s="17" t="s">
         <v>555</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>180.78</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4">
       <c r="A554" s="17" t="s">
         <v>556</v>
       </c>
@@ -9725,21 +9725,21 @@
         <v>182.16</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4">
       <c r="A555" s="17" t="s">
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C555" s="19">
         <v>2.76</v>
       </c>
       <c r="D555" s="20">
-        <v>201.48</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190.44</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
       <c r="A556" s="17" t="s">
         <v>558</v>
       </c>
@@ -9753,49 +9753,49 @@
         <v>105</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4">
       <c r="A557" s="17" t="s">
         <v>559</v>
       </c>
       <c r="B557" s="18">
-        <v>19</v>
+        <v>42.5</v>
       </c>
       <c r="C557" s="19">
         <v>3</v>
       </c>
       <c r="D557" s="20">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
       <c r="A558" s="17" t="s">
         <v>560</v>
       </c>
       <c r="B558" s="18">
-        <v>-2.5</v>
+        <v>22.5</v>
       </c>
       <c r="C558" s="19">
         <v>3</v>
       </c>
       <c r="D558" s="20">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
       <c r="A559" s="17" t="s">
         <v>561</v>
       </c>
       <c r="B559" s="18">
-        <v>53.5</v>
+        <v>46.5</v>
       </c>
       <c r="C559" s="19">
         <v>3.1</v>
       </c>
       <c r="D559" s="20">
-        <v>165.85</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144.15</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
       <c r="A560" s="17" t="s">
         <v>562</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4">
       <c r="A561" s="17" t="s">
         <v>563</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4">
       <c r="A562" s="17" t="s">
         <v>564</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4">
       <c r="A563" s="17" t="s">
         <v>565</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4">
       <c r="A564" s="17" t="s">
         <v>566</v>
       </c>
@@ -9865,49 +9865,49 @@
         <v>80</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4">
       <c r="A565" s="17" t="s">
         <v>567</v>
       </c>
       <c r="B565" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C565" s="19">
         <v>5.25</v>
       </c>
       <c r="D565" s="20">
-        <v>157.5</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
       <c r="A566" s="17" t="s">
         <v>568</v>
       </c>
       <c r="B566" s="18">
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="C566" s="19">
-        <v>4.8</v>
+        <v>5.19</v>
       </c>
       <c r="D566" s="20">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.47</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
       <c r="A567" s="17" t="s">
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="C567" s="19">
         <v>1.96</v>
       </c>
       <c r="D567" s="20">
-        <v>185.09</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186.07</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
       <c r="A568" s="17" t="s">
         <v>570</v>
       </c>
@@ -9921,35 +9921,35 @@
         <v>206.92</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4">
       <c r="A569" s="17" t="s">
         <v>571</v>
       </c>
       <c r="B569" s="18">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C569" s="19">
         <v>2</v>
       </c>
       <c r="D569" s="20">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
       <c r="A570" s="17" t="s">
         <v>572</v>
       </c>
       <c r="B570" s="18">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="C570" s="19">
         <v>2.86</v>
       </c>
       <c r="D570" s="20">
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
       <c r="A571" s="17" t="s">
         <v>573</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4">
       <c r="A572" s="17" t="s">
         <v>574</v>
       </c>
@@ -9977,35 +9977,35 @@
         <v>85.6</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4">
       <c r="A573" s="17" t="s">
         <v>575</v>
       </c>
       <c r="B573" s="18">
-        <v>39</v>
+        <v>41.5</v>
       </c>
       <c r="C573" s="19">
         <v>4.05</v>
       </c>
       <c r="D573" s="20">
-        <v>157.94999999999999</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168.08</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
       <c r="A574" s="17" t="s">
         <v>576</v>
       </c>
       <c r="B574" s="18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C574" s="19">
         <v>4.05</v>
       </c>
       <c r="D574" s="20">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
       <c r="A575" s="17" t="s">
         <v>577</v>
       </c>
@@ -10013,51 +10013,51 @@
         <v>20.5</v>
       </c>
       <c r="C575" s="19">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="D575" s="20">
-        <v>27.89</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
       <c r="A576" s="17" t="s">
         <v>578</v>
       </c>
       <c r="B576" s="18">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C576" s="19">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="D576" s="20">
-        <v>41.96</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
       <c r="A577" s="17" t="s">
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C577" s="19">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="D577" s="20">
-        <v>52.86</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
       <c r="A578" s="17" t="s">
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="C578" s="22"/>
       <c r="D578" s="21"/>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4">
       <c r="A579" s="17" t="s">
         <v>581</v>
       </c>
@@ -10067,55 +10067,55 @@
       <c r="C579" s="22"/>
       <c r="D579" s="21"/>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4">
       <c r="A580" s="17" t="s">
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="C580" s="22"/>
       <c r="D580" s="21"/>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4">
       <c r="A581" s="17" t="s">
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>30.5</v>
+        <v>27.5</v>
       </c>
       <c r="C581" s="22"/>
       <c r="D581" s="21"/>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4">
       <c r="A582" s="17" t="s">
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>999.5</v>
+        <v>979.5</v>
       </c>
       <c r="C582" s="19">
         <v>0.8</v>
       </c>
       <c r="D582" s="20">
-        <v>799.6</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+        <v>783.6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
       <c r="A583" s="17" t="s">
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>954.5</v>
+        <v>953</v>
       </c>
       <c r="C583" s="19">
         <v>0.8</v>
       </c>
       <c r="D583" s="20">
-        <v>763.6</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+        <v>762.4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
       <c r="A584" s="17" t="s">
         <v>586</v>
       </c>
@@ -10129,63 +10129,63 @@
         <v>740</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4">
       <c r="A585" s="17" t="s">
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>926.5</v>
+        <v>915.5</v>
       </c>
       <c r="C585" s="19">
         <v>0.8</v>
       </c>
       <c r="D585" s="20">
-        <v>741.2</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+        <v>732.4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
       <c r="A586" s="17" t="s">
         <v>588</v>
       </c>
       <c r="B586" s="18">
-        <v>164.5</v>
+        <v>640.5</v>
       </c>
       <c r="C586" s="19">
         <v>0.52</v>
       </c>
       <c r="D586" s="20">
-        <v>85.54</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+        <v>333.06</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
       <c r="A587" s="17" t="s">
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>19.5</v>
+        <v>510.5</v>
       </c>
       <c r="C587" s="19">
         <v>0.52</v>
       </c>
       <c r="D587" s="20">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265.45999999999998</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
       <c r="A588" s="17" t="s">
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>98.5</v>
+        <v>565.5</v>
       </c>
       <c r="C588" s="19">
         <v>0.52</v>
       </c>
       <c r="D588" s="20">
-        <v>51.22</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294.06</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
       <c r="A589" s="17" t="s">
         <v>591</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4">
       <c r="A590" s="17" t="s">
         <v>592</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4">
       <c r="A591" s="17" t="s">
         <v>593</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4">
       <c r="A592" s="17" t="s">
         <v>594</v>
       </c>
@@ -10241,30 +10241,30 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4">
       <c r="A593" s="17" t="s">
         <v>595</v>
       </c>
       <c r="B593" s="18">
-        <v>45.5</v>
+        <v>41.5</v>
       </c>
       <c r="C593" s="19">
         <v>4.5</v>
       </c>
       <c r="D593" s="20">
-        <v>204.75</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186.75</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
       <c r="A594" s="23" t="s">
         <v>596</v>
       </c>
       <c r="B594" s="24">
-        <v>30796.38</v>
+        <v>38151.53</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="26">
-        <v>86290.62</v>
+        <v>108300.48</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 29-Oct-2024</t>
+    <t>1-Jul-2024 to 1-Nov-2024</t>
   </si>
   <si>
     <t/>
@@ -689,7 +689,7 @@
     <t>5036 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5037 PATRIKA (05.11.24)</t>
+    <t>5037 PATRIKA</t>
   </si>
   <si>
     <t>5038 PATRIKA</t>
@@ -746,7 +746,7 @@
     <t>5855 PATRIKA</t>
   </si>
   <si>
-    <t>5856 PATRIKA (05.11.24)</t>
+    <t>5856 PATRIKA</t>
   </si>
   <si>
     <t>5857 PATRIKA</t>
@@ -776,7 +776,7 @@
     <t>5865 PATRIKA</t>
   </si>
   <si>
-    <t>5866 PATRIKA (GGN) (04.11)</t>
+    <t>5866 PATRIKA (GGN)</t>
   </si>
   <si>
     <t>5867 PATRIKA</t>
@@ -821,7 +821,7 @@
     <t>5880 PATRIKA</t>
   </si>
   <si>
-    <t>5881 PATRIKA (05.11.24)</t>
+    <t>5881 PATRIKA</t>
   </si>
   <si>
     <t>5882 PATRIKA</t>
@@ -842,7 +842,7 @@
     <t>5887 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5888 PATRIKA {M} (05.11.24)</t>
+    <t>5888 PATRIKA {M}</t>
   </si>
   <si>
     <t>5889 PATRIKA (DC) {{10}}</t>
@@ -863,7 +863,7 @@
     <t>5894 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5895 PATRIKA (05.11.24)</t>
+    <t>5895 PATRIKA</t>
   </si>
   <si>
     <t>5896 PATRIKA</t>
@@ -962,7 +962,7 @@
     <t>5927 PATRIKA</t>
   </si>
   <si>
-    <t>5928 PATRIKA</t>
+    <t>5928 PATRIKA (06.11)</t>
   </si>
   <si>
     <t>5929 PATRIKA {C.M}</t>
@@ -1103,7 +1103,7 @@
     <t>6526 PATRIKA</t>
   </si>
   <si>
-    <t>6527 PATRIKA {M} (05.11.24)</t>
+    <t>6527 PATRIKA {M}</t>
   </si>
   <si>
     <t>6528 PATRIKA {M}</t>
@@ -1112,7 +1112,7 @@
     <t>6529 PATRIKA</t>
   </si>
   <si>
-    <t>6530 PATRIKA {M} (05.11.24)</t>
+    <t>6530 PATRIKA {M}</t>
   </si>
   <si>
     <t>6531 PATRIKA {M}</t>
@@ -1157,7 +1157,7 @@
     <t>6544 PATRIKA (GGN) {M}</t>
   </si>
   <si>
-    <t>6545 PATRIKA {M} (05.11.24)</t>
+    <t>6545 PATRIKA {M}</t>
   </si>
   <si>
     <t>6546 PATRIKA {M}</t>
@@ -1169,7 +1169,7 @@
     <t>6548 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6549 PATRIKA {M} (05.11.24)</t>
+    <t>6549 PATRIKA {M}</t>
   </si>
   <si>
     <t>6550 PATRIKA {M}</t>
@@ -1493,10 +1493,10 @@
     <t>9012 CARD</t>
   </si>
   <si>
-    <t>9013 CARD</t>
-  </si>
-  <si>
-    <t>9014 CARD</t>
+    <t>9013 CARD (06.11)</t>
+  </si>
+  <si>
+    <t>9014 CARD (06.11)</t>
   </si>
   <si>
     <t>9015 CARD</t>
@@ -1652,7 +1652,7 @@
     <t>9065 CARD</t>
   </si>
   <si>
-    <t>9066 CARD</t>
+    <t>9066 CARD (06.11)</t>
   </si>
   <si>
     <t>9067 CARD</t>
@@ -1802,7 +1802,7 @@
     <t>9208 CARD (RED BOLNA)</t>
   </si>
   <si>
-    <t>9209 CARD (YELLOW) (Aa Gya)</t>
+    <t>9209 CARD (YELLOW)</t>
   </si>
   <si>
     <t>9210 CARD (GOLDEN BOLNA)</t>
@@ -1826,7 +1826,7 @@
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;&quot;0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,15 +2311,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>898.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>77.42</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>96.53</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>106.43</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
@@ -2495,35 +2495,35 @@
         <v>194.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="18">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="19">
         <v>1.8</v>
       </c>
       <c r="D16" s="20">
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>48</v>
+        <v>121.5</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
@@ -2537,35 +2537,35 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="18">
-        <v>29.5</v>
+        <v>34</v>
       </c>
       <c r="C20" s="19">
         <v>2</v>
       </c>
       <c r="D20" s="20">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>25</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>245.7</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>27</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>344.4</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>28</v>
       </c>
@@ -2643,49 +2643,49 @@
       <c r="C26" s="22"/>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>12.97</v>
+        <v>115.47</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>30.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>271.35000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>118.5</v>
+        <v>112</v>
       </c>
       <c r="C28" s="19">
         <v>2.35</v>
       </c>
       <c r="D28" s="20">
-        <v>278.48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="18">
-        <v>56.5</v>
+        <v>54.5</v>
       </c>
       <c r="C29" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="D29" s="20">
-        <v>144.08000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>138.97999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>140.25</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="C31" s="22"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>36</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>37</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="C35" s="22"/>
       <c r="D35" s="21"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>38</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>301.60000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>39</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>275.60000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>40</v>
       </c>
@@ -2799,21 +2799,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="18">
-        <v>142.5</v>
+        <v>139.5</v>
       </c>
       <c r="C39" s="19">
         <v>2.7</v>
       </c>
       <c r="D39" s="20">
-        <v>384.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>376.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>42</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>173.6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>43</v>
       </c>
@@ -2841,21 +2841,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="18">
-        <v>112.5</v>
+        <v>97</v>
       </c>
       <c r="C42" s="19">
         <v>2.85</v>
       </c>
       <c r="D42" s="20">
-        <v>320.63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>276.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>45</v>
       </c>
@@ -2869,21 +2869,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="18">
-        <v>61.5</v>
+        <v>179.5</v>
       </c>
       <c r="C44" s="19">
         <v>2.25</v>
       </c>
       <c r="D44" s="20">
-        <v>138.38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>403.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>47</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>229.13</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>48</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>346.63</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>49</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>299.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>50</v>
       </c>
@@ -2939,21 +2939,21 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="18">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="20">
-        <v>398.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>392.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>52</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>442.75</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>53</v>
       </c>
@@ -2981,21 +2981,21 @@
         <v>277.2</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>435.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>432.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>55</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>338.8</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>56</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>454.3</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>57</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>58</v>
       </c>
@@ -3051,21 +3051,21 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="18">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C57" s="19">
         <v>1.9</v>
       </c>
       <c r="D57" s="20">
-        <v>1379.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>1381.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>60</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>61</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>898.7</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>62</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>967.1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>63</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>226.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>64</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>65</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>207.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>66</v>
       </c>
@@ -3163,21 +3163,21 @@
         <v>999.6</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="18">
-        <v>490.5</v>
+        <v>489</v>
       </c>
       <c r="C65" s="19">
         <v>2.1</v>
       </c>
       <c r="D65" s="20">
-        <v>1030.05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>1026.9000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>68</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>69</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>68.64</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>70</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>71</v>
       </c>
@@ -3233,21 +3233,15 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="18">
-        <v>2</v>
-      </c>
-      <c r="C70" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="D70" s="20">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>73</v>
       </c>
@@ -3261,7 +3255,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>74</v>
       </c>
@@ -3275,7 +3269,7 @@
         <v>1415.15</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>75</v>
       </c>
@@ -3289,7 +3283,7 @@
         <v>1438.4</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>76</v>
       </c>
@@ -3303,7 +3297,7 @@
         <v>1515.9</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>77</v>
       </c>
@@ -3313,27 +3307,27 @@
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>105.5</v>
+        <v>179</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>80</v>
       </c>
@@ -3343,7 +3337,7 @@
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>81</v>
       </c>
@@ -3357,7 +3351,7 @@
         <v>292.10000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>82</v>
       </c>
@@ -3371,49 +3365,49 @@
         <v>63.25</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>179.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="18">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C82" s="19">
         <v>1.4</v>
       </c>
       <c r="D82" s="20">
-        <v>194.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>187.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>117.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>86</v>
       </c>
@@ -3427,35 +3421,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>72.5</v>
+        <v>75.5</v>
       </c>
       <c r="C85" s="19">
         <v>2</v>
       </c>
       <c r="D85" s="20">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="18">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C86" s="19">
         <v>2</v>
       </c>
       <c r="D86" s="20">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>89</v>
       </c>
@@ -3469,7 +3463,7 @@
         <v>404.46</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>90</v>
       </c>
@@ -3483,7 +3477,7 @@
         <v>395.64</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>91</v>
       </c>
@@ -3491,7 +3485,7 @@
       <c r="C89" s="22"/>
       <c r="D89" s="21"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>92</v>
       </c>
@@ -3499,7 +3493,7 @@
       <c r="C90" s="22"/>
       <c r="D90" s="21"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>93</v>
       </c>
@@ -3513,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>94</v>
       </c>
@@ -3527,7 +3521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>95</v>
       </c>
@@ -3541,7 +3535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>96</v>
       </c>
@@ -3555,105 +3549,105 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>19.5</v>
+        <v>38.5</v>
       </c>
       <c r="C95" s="19">
         <v>12.5</v>
       </c>
       <c r="D95" s="20">
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>481.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="18">
-        <v>19.5</v>
+        <v>39.5</v>
       </c>
       <c r="C96" s="19">
         <v>12.5</v>
       </c>
       <c r="D96" s="20">
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>493.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C97" s="19">
         <v>12.5</v>
       </c>
       <c r="D97" s="20">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="18">
-        <v>26.5</v>
+        <v>41.5</v>
       </c>
       <c r="C98" s="19">
         <v>12.5</v>
       </c>
       <c r="D98" s="20">
-        <v>331.25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>518.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C99" s="19">
         <v>12.5</v>
       </c>
       <c r="D99" s="20">
-        <v>212.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>462.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="18">
-        <v>21.5</v>
+        <v>32</v>
       </c>
       <c r="C100" s="19">
         <v>12.5</v>
       </c>
       <c r="D100" s="20">
-        <v>268.75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>11.36</v>
+        <v>34.36</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>429.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>104</v>
       </c>
@@ -3667,35 +3661,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>587.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>107</v>
       </c>
@@ -3709,7 +3703,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>108</v>
       </c>
@@ -3723,7 +3717,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>109</v>
       </c>
@@ -3737,7 +3731,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>110</v>
       </c>
@@ -3751,7 +3745,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>111</v>
       </c>
@@ -3765,7 +3759,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>112</v>
       </c>
@@ -3779,7 +3773,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>113</v>
       </c>
@@ -3793,7 +3787,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>114</v>
       </c>
@@ -3807,21 +3801,21 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B113" s="18">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="C113" s="19">
         <v>15.5</v>
       </c>
       <c r="D113" s="20">
-        <v>302.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>116</v>
       </c>
@@ -3835,7 +3829,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>117</v>
       </c>
@@ -3849,7 +3843,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>118</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>119</v>
       </c>
@@ -3877,7 +3871,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>120</v>
       </c>
@@ -3891,7 +3885,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>121</v>
       </c>
@@ -3905,7 +3899,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>122</v>
       </c>
@@ -3919,7 +3913,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>123</v>
       </c>
@@ -3933,21 +3927,21 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B122" s="18">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="C122" s="19">
         <v>18.41</v>
       </c>
       <c r="D122" s="20">
-        <v>322.16000000000003</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>377.39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>125</v>
       </c>
@@ -3961,7 +3955,7 @@
         <v>256.79000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>126</v>
       </c>
@@ -3975,7 +3969,7 @@
         <v>173.56</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>127</v>
       </c>
@@ -3989,7 +3983,7 @@
         <v>200.96</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>128</v>
       </c>
@@ -4003,21 +3997,21 @@
         <v>182.69</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="18">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C127" s="19">
         <v>18.27</v>
       </c>
       <c r="D127" s="20">
-        <v>182.69</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>191.83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>130</v>
       </c>
@@ -4031,21 +4025,21 @@
         <v>284.3</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B129" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" s="19">
         <v>18.36</v>
       </c>
       <c r="D129" s="20">
-        <v>165.27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>146.91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>132</v>
       </c>
@@ -4059,7 +4053,7 @@
         <v>200.96</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>133</v>
       </c>
@@ -4073,21 +4067,21 @@
         <v>201.76</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="18">
-        <v>4.5</v>
+        <v>14.5</v>
       </c>
       <c r="C132" s="19">
-        <v>18.27</v>
+        <v>18.37</v>
       </c>
       <c r="D132" s="20">
-        <v>82.21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>266.36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>135</v>
       </c>
@@ -4101,63 +4095,63 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>67.650000000000006</v>
+        <v>67.5</v>
       </c>
       <c r="C134" s="19">
         <v>3.3</v>
       </c>
       <c r="D134" s="20">
-        <v>223.25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>222.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>136.5</v>
+        <v>134.5</v>
       </c>
       <c r="C135" s="19">
         <v>2.8</v>
       </c>
       <c r="D135" s="20">
-        <v>382.2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>376.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>146.5</v>
+        <v>151.5</v>
       </c>
       <c r="C136" s="19">
         <v>2.75</v>
       </c>
       <c r="D136" s="20">
-        <v>402.88</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>416.63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>116</v>
+        <v>118.5</v>
       </c>
       <c r="C137" s="19">
         <v>2.75</v>
       </c>
       <c r="D137" s="20">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>325.88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>140</v>
       </c>
@@ -4171,7 +4165,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>141</v>
       </c>
@@ -4185,7 +4179,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>142</v>
       </c>
@@ -4199,49 +4193,49 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C141" s="19">
         <v>2.7</v>
       </c>
       <c r="D141" s="20">
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>151</v>
+        <v>156.5</v>
       </c>
       <c r="C142" s="19">
         <v>2.8</v>
       </c>
       <c r="D142" s="20">
-        <v>422.8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>438.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>408.5</v>
+        <v>308.5</v>
       </c>
       <c r="C143" s="19">
         <v>2.8</v>
       </c>
       <c r="D143" s="20">
-        <v>1143.8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>863.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>146</v>
       </c>
@@ -4255,7 +4249,7 @@
         <v>311.25</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>147</v>
       </c>
@@ -4269,7 +4263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>148</v>
       </c>
@@ -4283,7 +4277,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>149</v>
       </c>
@@ -4297,21 +4291,21 @@
         <v>152.6</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C148" s="19">
         <v>2.95</v>
       </c>
       <c r="D148" s="20">
-        <v>327.45</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>312.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>151</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>152</v>
       </c>
@@ -4339,7 +4333,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>153</v>
       </c>
@@ -4353,21 +4347,21 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>132</v>
+        <v>130.5</v>
       </c>
       <c r="C152" s="19">
         <v>3.3</v>
       </c>
       <c r="D152" s="20">
-        <v>435.6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>430.65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>155</v>
       </c>
@@ -4381,7 +4375,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>156</v>
       </c>
@@ -4395,7 +4389,7 @@
         <v>292.25</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>157</v>
       </c>
@@ -4403,7 +4397,7 @@
       <c r="C155" s="22"/>
       <c r="D155" s="21"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>158</v>
       </c>
@@ -4417,7 +4411,7 @@
         <v>76.05</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>159</v>
       </c>
@@ -4431,21 +4425,21 @@
         <v>323.7</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>63</v>
+        <v>65.5</v>
       </c>
       <c r="C158" s="19">
         <v>3.33</v>
       </c>
       <c r="D158" s="20">
-        <v>209.79</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>218.12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>161</v>
       </c>
@@ -4459,35 +4453,35 @@
         <v>362.97</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C160" s="19">
         <v>3.33</v>
       </c>
       <c r="D160" s="20">
-        <v>323.01</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>316.35000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B161" s="18">
-        <v>8.5</v>
+        <v>157.5</v>
       </c>
       <c r="C161" s="19">
         <v>3.6</v>
       </c>
       <c r="D161" s="20">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>164</v>
       </c>
@@ -4495,21 +4489,21 @@
       <c r="C162" s="22"/>
       <c r="D162" s="21"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B163" s="18">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="C163" s="19">
         <v>3.75</v>
       </c>
       <c r="D163" s="20">
-        <v>58.13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>166</v>
       </c>
@@ -4523,7 +4517,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>167</v>
       </c>
@@ -4537,21 +4531,21 @@
         <v>504</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>106</v>
+        <v>101.5</v>
       </c>
       <c r="C166" s="19">
         <v>4.5</v>
       </c>
       <c r="D166" s="20">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>456.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>169</v>
       </c>
@@ -4565,7 +4559,7 @@
         <v>248.24</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>170</v>
       </c>
@@ -4579,7 +4573,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>171</v>
       </c>
@@ -4593,7 +4587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>172</v>
       </c>
@@ -4607,7 +4601,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>173</v>
       </c>
@@ -4621,7 +4615,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>174</v>
       </c>
@@ -4635,21 +4629,21 @@
         <v>380.42</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C173" s="19">
         <v>3.88</v>
       </c>
       <c r="D173" s="20">
-        <v>310.54000000000002</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>291.14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>176</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>319.55</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>177</v>
       </c>
@@ -4677,7 +4671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>178</v>
       </c>
@@ -4691,7 +4685,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>179</v>
       </c>
@@ -4705,7 +4699,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
         <v>180</v>
       </c>
@@ -4719,7 +4713,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>181</v>
       </c>
@@ -4733,7 +4727,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>182</v>
       </c>
@@ -4747,7 +4741,7 @@
         <v>94.55</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>183</v>
       </c>
@@ -4755,21 +4749,21 @@
       <c r="C181" s="22"/>
       <c r="D181" s="21"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C182" s="19">
         <v>3.05</v>
       </c>
       <c r="D182" s="20">
-        <v>57.95</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>185</v>
       </c>
@@ -4777,7 +4771,7 @@
       <c r="C183" s="22"/>
       <c r="D183" s="21"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>186</v>
       </c>
@@ -4791,7 +4785,7 @@
         <v>50.53</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>187</v>
       </c>
@@ -4799,7 +4793,7 @@
       <c r="C185" s="22"/>
       <c r="D185" s="21"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>188</v>
       </c>
@@ -4807,7 +4801,7 @@
       <c r="C186" s="22"/>
       <c r="D186" s="21"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>189</v>
       </c>
@@ -4815,7 +4809,7 @@
       <c r="C187" s="22"/>
       <c r="D187" s="21"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>190</v>
       </c>
@@ -4829,7 +4823,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>191</v>
       </c>
@@ -4843,21 +4837,21 @@
         <v>195.7</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B190" s="18">
-        <v>11.5</v>
+        <v>58</v>
       </c>
       <c r="C190" s="19">
         <v>3.8</v>
       </c>
       <c r="D190" s="20">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>220.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>193</v>
       </c>
@@ -4871,7 +4865,7 @@
         <v>190.8</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>194</v>
       </c>
@@ -4885,7 +4879,7 @@
         <v>133.19999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>195</v>
       </c>
@@ -4899,7 +4893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>196</v>
       </c>
@@ -4913,21 +4907,21 @@
         <v>137.35</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>197</v>
       </c>
       <c r="B195" s="18">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="C195" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D195" s="20">
-        <v>276.75</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>198</v>
       </c>
@@ -4941,7 +4935,7 @@
         <v>318.25</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
         <v>199</v>
       </c>
@@ -4955,7 +4949,7 @@
         <v>30.88</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>200</v>
       </c>
@@ -4969,21 +4963,21 @@
         <v>180.4</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B199" s="18">
-        <v>10.5</v>
+        <v>58.5</v>
       </c>
       <c r="C199" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D199" s="20">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>257.39999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>202</v>
       </c>
@@ -4997,7 +4991,7 @@
         <v>126.26</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>203</v>
       </c>
@@ -5011,63 +5005,63 @@
         <v>113.42</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>62</v>
+        <v>49.5</v>
       </c>
       <c r="C202" s="19">
         <v>4.5</v>
       </c>
       <c r="D202" s="20">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>222.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B203" s="18">
-        <v>50.5</v>
+        <v>45.5</v>
       </c>
       <c r="C203" s="19">
         <v>4.5</v>
       </c>
       <c r="D203" s="20">
-        <v>227.25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>204.75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>206</v>
       </c>
       <c r="B204" s="18">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C204" s="19">
         <v>5.25</v>
       </c>
       <c r="D204" s="20">
-        <v>435.75</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C205" s="19">
         <v>4.8</v>
       </c>
       <c r="D205" s="20">
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>283.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
         <v>208</v>
       </c>
@@ -5081,21 +5075,21 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C207" s="19">
         <v>4.5</v>
       </c>
       <c r="D207" s="20">
-        <v>301.5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>210</v>
       </c>
@@ -5109,7 +5103,7 @@
         <v>111.63</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>211</v>
       </c>
@@ -5123,7 +5117,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
         <v>212</v>
       </c>
@@ -5137,7 +5131,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>213</v>
       </c>
@@ -5151,21 +5145,21 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="C212" s="19">
         <v>4.75</v>
       </c>
       <c r="D212" s="20">
-        <v>166.25</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>154.38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>215</v>
       </c>
@@ -5179,7 +5173,7 @@
         <v>458.38</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>216</v>
       </c>
@@ -5193,7 +5187,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>217</v>
       </c>
@@ -5207,7 +5201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>218</v>
       </c>
@@ -5221,7 +5215,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>219</v>
       </c>
@@ -5235,7 +5229,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>220</v>
       </c>
@@ -5243,21 +5237,21 @@
       <c r="C218" s="22"/>
       <c r="D218" s="21"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B219" s="18">
-        <v>9.5</v>
+        <v>41.5</v>
       </c>
       <c r="C219" s="19">
         <v>5.7</v>
       </c>
       <c r="D219" s="20">
-        <v>54.15</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>236.55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>222</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>259.88</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
         <v>223</v>
       </c>
@@ -5285,7 +5279,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
         <v>224</v>
       </c>
@@ -5299,35 +5293,35 @@
         <v>378</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
         <v>225</v>
       </c>
       <c r="B223" s="18">
-        <v>29.5</v>
+        <v>27</v>
       </c>
       <c r="C223" s="19">
         <v>5.92</v>
       </c>
       <c r="D223" s="20">
-        <v>174.52</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>159.72999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="C224" s="19">
         <v>4.26</v>
       </c>
       <c r="D224" s="20">
-        <v>121.3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>117.04</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
         <v>227</v>
       </c>
@@ -5341,7 +5335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
         <v>228</v>
       </c>
@@ -5355,21 +5349,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>105.5</v>
+        <v>103.5</v>
       </c>
       <c r="C227" s="19">
         <v>4.5</v>
       </c>
       <c r="D227" s="20">
-        <v>474.75</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>465.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
         <v>230</v>
       </c>
@@ -5383,7 +5377,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="s">
         <v>231</v>
       </c>
@@ -5397,7 +5391,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="17" t="s">
         <v>232</v>
       </c>
@@ -5411,7 +5405,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="17" t="s">
         <v>233</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="17" t="s">
         <v>234</v>
       </c>
@@ -5439,21 +5433,21 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="s">
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C233" s="19">
         <v>4.25</v>
       </c>
       <c r="D233" s="20">
-        <v>208.25</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>199.75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="s">
         <v>236</v>
       </c>
@@ -5467,7 +5461,7 @@
         <v>216.75</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="s">
         <v>237</v>
       </c>
@@ -5475,21 +5469,21 @@
       <c r="C235" s="22"/>
       <c r="D235" s="21"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
         <v>238</v>
       </c>
       <c r="B236" s="18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C236" s="19">
         <v>4.18</v>
       </c>
       <c r="D236" s="20">
-        <v>125.4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>117.04</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
         <v>239</v>
       </c>
@@ -5503,21 +5497,21 @@
         <v>85.69</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="17" t="s">
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C238" s="19">
         <v>4.28</v>
       </c>
       <c r="D238" s="20">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>359.52</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="s">
         <v>241</v>
       </c>
@@ -5531,7 +5525,7 @@
         <v>113.42</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="17" t="s">
         <v>242</v>
       </c>
@@ -5545,7 +5539,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="s">
         <v>243</v>
       </c>
@@ -5559,21 +5553,21 @@
         <v>118.75</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="17" t="s">
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C242" s="19">
         <v>4.95</v>
       </c>
       <c r="D242" s="20">
-        <v>22.28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
         <v>245</v>
       </c>
@@ -5587,7 +5581,7 @@
         <v>156.75</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
         <v>246</v>
       </c>
@@ -5601,7 +5595,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
         <v>247</v>
       </c>
@@ -5609,7 +5603,7 @@
       <c r="C245" s="22"/>
       <c r="D245" s="21"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
         <v>248</v>
       </c>
@@ -5617,35 +5611,35 @@
       <c r="C246" s="22"/>
       <c r="D246" s="21"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="s">
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>13</v>
+        <v>57.5</v>
       </c>
       <c r="C247" s="19">
         <v>5.0999999999999996</v>
       </c>
       <c r="D247" s="20">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>293.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
         <v>250</v>
       </c>
       <c r="B248" s="18">
-        <v>4.5</v>
+        <v>43.5</v>
       </c>
       <c r="C248" s="19">
         <v>5.3</v>
       </c>
       <c r="D248" s="20">
-        <v>23.85</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>230.55</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="17" t="s">
         <v>251</v>
       </c>
@@ -5659,35 +5653,35 @@
         <v>216</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C250" s="19">
         <v>5.5</v>
       </c>
       <c r="D250" s="20">
-        <v>52.25</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>58.5</v>
+        <v>53.5</v>
       </c>
       <c r="C251" s="19">
         <v>5.55</v>
       </c>
       <c r="D251" s="20">
-        <v>324.68</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>296.93</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="17" t="s">
         <v>254</v>
       </c>
@@ -5701,21 +5695,21 @@
         <v>133.37</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="s">
         <v>255</v>
       </c>
       <c r="B253" s="18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C253" s="19">
         <v>5.23</v>
       </c>
       <c r="D253" s="20">
-        <v>172.59</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>167.36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="17" t="s">
         <v>256</v>
       </c>
@@ -5729,7 +5723,7 @@
         <v>204.75</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="s">
         <v>257</v>
       </c>
@@ -5737,7 +5731,7 @@
       <c r="C255" s="22"/>
       <c r="D255" s="21"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
         <v>258</v>
       </c>
@@ -5751,21 +5745,21 @@
         <v>465.63</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C257" s="19">
         <v>6.26</v>
       </c>
       <c r="D257" s="20">
-        <v>131.41999999999999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>137.68</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="17" t="s">
         <v>260</v>
       </c>
@@ -5779,7 +5773,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="17" t="s">
         <v>261</v>
       </c>
@@ -5793,7 +5787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="s">
         <v>262</v>
       </c>
@@ -5807,77 +5801,77 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="s">
         <v>263</v>
       </c>
       <c r="B261" s="18">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C261" s="19">
         <v>5.94</v>
       </c>
       <c r="D261" s="20">
-        <v>475.2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>445.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>37.5</v>
+        <v>47.5</v>
       </c>
       <c r="C262" s="19">
         <v>5.7</v>
       </c>
       <c r="D262" s="20">
-        <v>213.75</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>270.75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B263" s="18">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C263" s="19">
         <v>5.94</v>
       </c>
       <c r="D263" s="20">
-        <v>249.48</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>481.14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B264" s="18">
-        <v>22.5</v>
+        <v>16.5</v>
       </c>
       <c r="C264" s="19">
         <v>5.94</v>
       </c>
       <c r="D264" s="20">
-        <v>133.65</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>98.01</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C265" s="19">
         <v>7</v>
       </c>
       <c r="D265" s="20">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="17" t="s">
         <v>268</v>
       </c>
@@ -5885,7 +5879,7 @@
       <c r="C266" s="22"/>
       <c r="D266" s="21"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="s">
         <v>269</v>
       </c>
@@ -5899,7 +5893,7 @@
         <v>302.82</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
         <v>270</v>
       </c>
@@ -5913,7 +5907,7 @@
         <v>105.06</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
         <v>271</v>
       </c>
@@ -5921,21 +5915,21 @@
       <c r="C269" s="22"/>
       <c r="D269" s="21"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
         <v>272</v>
       </c>
       <c r="B270" s="18">
-        <v>22.5</v>
+        <v>102</v>
       </c>
       <c r="C270" s="19">
         <v>6.18</v>
       </c>
       <c r="D270" s="20">
-        <v>139.05000000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>630.36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
         <v>273</v>
       </c>
@@ -5949,7 +5943,7 @@
         <v>162.93</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="17" t="s">
         <v>274</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>166.25</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="17" t="s">
         <v>275</v>
       </c>
@@ -5977,21 +5971,21 @@
         <v>166.4</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
         <v>276</v>
       </c>
       <c r="B274" s="18">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="C274" s="19">
         <v>6.46</v>
       </c>
       <c r="D274" s="20">
-        <v>187.34</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>235.79</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
         <v>277</v>
       </c>
@@ -6005,7 +5999,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="s">
         <v>278</v>
       </c>
@@ -6013,21 +6007,21 @@
       <c r="C276" s="22"/>
       <c r="D276" s="21"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
         <v>279</v>
       </c>
       <c r="B277" s="18">
-        <v>26.5</v>
+        <v>66.5</v>
       </c>
       <c r="C277" s="19">
         <v>6.65</v>
       </c>
       <c r="D277" s="20">
-        <v>176.23</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>442.23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
         <v>280</v>
       </c>
@@ -6041,7 +6035,7 @@
         <v>383.16</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="s">
         <v>281</v>
       </c>
@@ -6049,21 +6043,21 @@
       <c r="C279" s="22"/>
       <c r="D279" s="21"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="17" t="s">
         <v>282</v>
       </c>
       <c r="B280" s="18">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="C280" s="19">
         <v>7.31</v>
       </c>
       <c r="D280" s="20">
-        <v>135.21</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>146.18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
         <v>283</v>
       </c>
@@ -6077,21 +6071,21 @@
         <v>288.77</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="17" t="s">
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>91.5</v>
+        <v>93.5</v>
       </c>
       <c r="C282" s="19">
         <v>7.13</v>
       </c>
       <c r="D282" s="20">
-        <v>652.4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>666.66</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="17" t="s">
         <v>285</v>
       </c>
@@ -6105,21 +6099,21 @@
         <v>188.95</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="17" t="s">
         <v>286</v>
       </c>
       <c r="B284" s="18">
-        <v>17.5</v>
+        <v>34.5</v>
       </c>
       <c r="C284" s="19">
         <v>6.65</v>
       </c>
       <c r="D284" s="20">
-        <v>116.38</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>229.43</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
         <v>287</v>
       </c>
@@ -6127,7 +6121,7 @@
       <c r="C285" s="22"/>
       <c r="D285" s="21"/>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
         <v>288</v>
       </c>
@@ -6141,7 +6135,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
         <v>289</v>
       </c>
@@ -6155,7 +6149,7 @@
         <v>136.16</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="s">
         <v>290</v>
       </c>
@@ -6163,7 +6157,7 @@
       <c r="C288" s="22"/>
       <c r="D288" s="21"/>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
         <v>291</v>
       </c>
@@ -6177,35 +6171,35 @@
         <v>128</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="s">
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C290" s="19">
         <v>7.6</v>
       </c>
       <c r="D290" s="20">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>288.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="s">
         <v>293</v>
       </c>
       <c r="B291" s="18">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="C291" s="19">
         <v>8.08</v>
       </c>
       <c r="D291" s="20">
-        <v>230.28</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>246.44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="s">
         <v>294</v>
       </c>
@@ -6219,7 +6213,7 @@
         <v>293.13</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
         <v>295</v>
       </c>
@@ -6227,7 +6221,7 @@
       <c r="C293" s="22"/>
       <c r="D293" s="21"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>296</v>
       </c>
@@ -6241,7 +6235,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
         <v>297</v>
       </c>
@@ -6255,7 +6249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="s">
         <v>298</v>
       </c>
@@ -6269,7 +6263,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
         <v>299</v>
       </c>
@@ -6283,7 +6277,7 @@
         <v>300.02</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
         <v>300</v>
       </c>
@@ -6297,7 +6291,7 @@
         <v>170.25</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="s">
         <v>301</v>
       </c>
@@ -6311,21 +6305,21 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>11.7</v>
+        <v>29.7</v>
       </c>
       <c r="C300" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D300" s="20">
-        <v>102.96</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+        <v>261.36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="s">
         <v>303</v>
       </c>
@@ -6339,7 +6333,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="17" t="s">
         <v>304</v>
       </c>
@@ -6353,7 +6347,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
         <v>305</v>
       </c>
@@ -6367,7 +6361,7 @@
         <v>294.5</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="17" t="s">
         <v>306</v>
       </c>
@@ -6381,7 +6375,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="s">
         <v>307</v>
       </c>
@@ -6395,7 +6389,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
         <v>308</v>
       </c>
@@ -6409,21 +6403,21 @@
         <v>393.13</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="17" t="s">
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C307" s="19">
         <v>11.75</v>
       </c>
       <c r="D307" s="20">
-        <v>176.25</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
+        <v>352.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="s">
         <v>310</v>
       </c>
@@ -6437,7 +6431,7 @@
         <v>163.19999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="s">
         <v>311</v>
       </c>
@@ -6451,29 +6445,35 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B310" s="21"/>
-      <c r="C310" s="22"/>
-      <c r="D310" s="21"/>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="B310" s="18">
+        <v>38</v>
+      </c>
+      <c r="C310" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="D310" s="20">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="s">
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>58.5</v>
+        <v>61</v>
       </c>
       <c r="C311" s="19">
-        <v>6.67</v>
+        <v>6.84</v>
       </c>
       <c r="D311" s="20">
-        <v>390.11</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
+        <v>417.06</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="17" t="s">
         <v>314</v>
       </c>
@@ -6487,21 +6487,21 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="C313" s="19">
         <v>7.13</v>
       </c>
       <c r="D313" s="20">
-        <v>267.38</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
+        <v>270.94</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="17" t="s">
         <v>316</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>225.25</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="s">
         <v>317</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>178.5</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="17" t="s">
         <v>318</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>365.75</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="s">
         <v>319</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>217.59</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="17" t="s">
         <v>320</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="s">
         <v>321</v>
       </c>
@@ -6585,21 +6585,21 @@
         <v>113.85</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="s">
         <v>322</v>
       </c>
       <c r="B320" s="18">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="C320" s="19">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="D320" s="20">
-        <v>207.36</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
+        <v>199.54</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
         <v>323</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="C321" s="22"/>
       <c r="D321" s="21"/>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="17" t="s">
         <v>324</v>
       </c>
@@ -6615,13 +6615,13 @@
         <v>44.5</v>
       </c>
       <c r="C322" s="19">
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
       <c r="D322" s="20">
-        <v>289.25</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
+        <v>289.70999999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="s">
         <v>325</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="C323" s="22"/>
       <c r="D323" s="21"/>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="s">
         <v>326</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>237.65</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="s">
         <v>327</v>
       </c>
@@ -6657,21 +6657,21 @@
         <v>172.9</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="17" t="s">
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C326" s="19">
         <v>7.36</v>
       </c>
       <c r="D326" s="20">
-        <v>139.84</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+        <v>154.56</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
         <v>329</v>
       </c>
@@ -6685,21 +6685,21 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="17" t="s">
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>38</v>
+        <v>36.5</v>
       </c>
       <c r="C328" s="19">
-        <v>8.74</v>
+        <v>8.75</v>
       </c>
       <c r="D328" s="20">
-        <v>332.28</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
+        <v>319.54000000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="s">
         <v>331</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>536.25</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
         <v>332</v>
       </c>
@@ -6727,21 +6727,21 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="s">
         <v>333</v>
       </c>
       <c r="B331" s="18">
-        <v>12.5</v>
+        <v>24.5</v>
       </c>
       <c r="C331" s="19">
         <v>16</v>
       </c>
       <c r="D331" s="20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="17" t="s">
         <v>334</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="17" t="s">
         <v>335</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>208.25</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="17" t="s">
         <v>336</v>
       </c>
@@ -6783,21 +6783,21 @@
         <v>219.38</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="17" t="s">
         <v>337</v>
       </c>
       <c r="B335" s="18">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="C335" s="19">
         <v>11</v>
       </c>
       <c r="D335" s="20">
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="17" t="s">
         <v>338</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="17" t="s">
         <v>339</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="17" t="s">
         <v>340</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="s">
         <v>341</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="17" t="s">
         <v>342</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>448.5</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="17" t="s">
         <v>343</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>155.88</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="17" t="s">
         <v>344</v>
       </c>
@@ -6895,35 +6895,35 @@
         <v>192</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="17" t="s">
         <v>345</v>
       </c>
       <c r="B343" s="18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C343" s="19">
         <v>7.84</v>
       </c>
       <c r="D343" s="20">
-        <v>156.80000000000001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>125.44</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="17" t="s">
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="C344" s="19">
         <v>11</v>
       </c>
       <c r="D344" s="20">
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="17" t="s">
         <v>347</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="17" t="s">
         <v>348</v>
       </c>
@@ -6945,13 +6945,13 @@
         <v>22</v>
       </c>
       <c r="C346" s="19">
-        <v>14.68</v>
+        <v>14.79</v>
       </c>
       <c r="D346" s="20">
-        <v>322.98</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
+        <v>325.32</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="17" t="s">
         <v>349</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="17" t="s">
         <v>350</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="17" t="s">
         <v>351</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="17" t="s">
         <v>352</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="17" t="s">
         <v>353</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>194.25</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="17" t="s">
         <v>354</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>263.25</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="17" t="s">
         <v>355</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="17" t="s">
         <v>356</v>
       </c>
@@ -7063,21 +7063,21 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="s">
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>-13</v>
+        <v>25</v>
       </c>
       <c r="C355" s="19">
         <v>9.5</v>
       </c>
       <c r="D355" s="20">
-        <v>-123.5</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="17" t="s">
         <v>358</v>
       </c>
@@ -7091,21 +7091,21 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="17" t="s">
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="C357" s="19">
         <v>10</v>
       </c>
       <c r="D357" s="20">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="17" t="s">
         <v>360</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="17" t="s">
         <v>361</v>
       </c>
@@ -7133,35 +7133,35 @@
         <v>255</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="17" t="s">
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C360" s="19">
         <v>7.84</v>
       </c>
       <c r="D360" s="20">
-        <v>31.36</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
+        <v>282.24</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="17" t="s">
         <v>363</v>
       </c>
       <c r="B361" s="18">
-        <v>2.5</v>
+        <v>16.5</v>
       </c>
       <c r="C361" s="19">
         <v>25</v>
       </c>
       <c r="D361" s="20">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="17" t="s">
         <v>364</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="17" t="s">
         <v>365</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>437.2</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="17" t="s">
         <v>366</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>188.1</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="17" t="s">
         <v>367</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>231.25</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="17" t="s">
         <v>368</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="17" t="s">
         <v>369</v>
       </c>
@@ -7245,15 +7245,21 @@
         <v>172.13</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B368" s="21"/>
-      <c r="C368" s="22"/>
-      <c r="D368" s="21"/>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="B368" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C368" s="19">
+        <v>11.5</v>
+      </c>
+      <c r="D368" s="20">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="17" t="s">
         <v>371</v>
       </c>
@@ -7267,7 +7273,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="17" t="s">
         <v>372</v>
       </c>
@@ -7281,7 +7287,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="17" t="s">
         <v>373</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>195.75</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="17" t="s">
         <v>374</v>
       </c>
@@ -7309,7 +7315,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="17" t="s">
         <v>375</v>
       </c>
@@ -7323,7 +7329,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="17" t="s">
         <v>376</v>
       </c>
@@ -7337,21 +7343,21 @@
         <v>223.25</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="s">
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C375" s="19">
         <v>10.93</v>
       </c>
       <c r="D375" s="20">
-        <v>371.62</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+        <v>732.31</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="17" t="s">
         <v>378</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>131.16</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="17" t="s">
         <v>379</v>
       </c>
@@ -7379,7 +7385,7 @@
         <v>184.38</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="17" t="s">
         <v>380</v>
       </c>
@@ -7393,21 +7399,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="17" t="s">
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C379" s="19">
         <v>10.45</v>
       </c>
       <c r="D379" s="20">
-        <v>114.95</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+        <v>177.65</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="17" t="s">
         <v>382</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>78.38</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="17" t="s">
         <v>383</v>
       </c>
@@ -7435,7 +7441,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="17" t="s">
         <v>384</v>
       </c>
@@ -7449,7 +7455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="17" t="s">
         <v>385</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="17" t="s">
         <v>386</v>
       </c>
@@ -7471,7 +7477,7 @@
       <c r="C384" s="22"/>
       <c r="D384" s="21"/>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="s">
         <v>387</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="17" t="s">
         <v>388</v>
       </c>
@@ -7493,7 +7499,7 @@
       <c r="C386" s="22"/>
       <c r="D386" s="21"/>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="s">
         <v>389</v>
       </c>
@@ -7501,7 +7507,7 @@
       <c r="C387" s="22"/>
       <c r="D387" s="21"/>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="17" t="s">
         <v>390</v>
       </c>
@@ -7515,7 +7521,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
         <v>391</v>
       </c>
@@ -7529,7 +7535,7 @@
         <v>155.25</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="17" t="s">
         <v>392</v>
       </c>
@@ -7543,7 +7549,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="17" t="s">
         <v>393</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>70.88</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="17" t="s">
         <v>394</v>
       </c>
@@ -7571,21 +7577,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="s">
         <v>395</v>
       </c>
       <c r="B393" s="18">
-        <v>22.5</v>
+        <v>55.5</v>
       </c>
       <c r="C393" s="19">
         <v>2.5</v>
       </c>
       <c r="D393" s="20">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
+        <v>138.75</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="17" t="s">
         <v>396</v>
       </c>
@@ -7599,21 +7605,21 @@
         <v>68.849999999999994</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="s">
         <v>397</v>
       </c>
       <c r="B395" s="18">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C395" s="19">
         <v>2.7</v>
       </c>
       <c r="D395" s="20">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="17" t="s">
         <v>398</v>
       </c>
@@ -7627,7 +7633,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="17" t="s">
         <v>399</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="17" t="s">
         <v>400</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>257.13</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="17" t="s">
         <v>401</v>
       </c>
@@ -7669,7 +7675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="17" t="s">
         <v>402</v>
       </c>
@@ -7683,21 +7689,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="17" t="s">
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C401" s="19">
         <v>2.8</v>
       </c>
       <c r="D401" s="20">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="17" t="s">
         <v>404</v>
       </c>
@@ -7705,7 +7711,7 @@
       <c r="C402" s="22"/>
       <c r="D402" s="21"/>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="s">
         <v>405</v>
       </c>
@@ -7719,49 +7725,49 @@
         <v>288.39999999999998</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="17" t="s">
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C404" s="19">
         <v>2.95</v>
       </c>
       <c r="D404" s="20">
-        <v>188.8</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
+        <v>194.7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="17" t="s">
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C405" s="19">
         <v>3.1</v>
       </c>
       <c r="D405" s="20">
-        <v>111.6</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="17" t="s">
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>33.5</v>
+        <v>31.5</v>
       </c>
       <c r="C406" s="19">
         <v>2.85</v>
       </c>
       <c r="D406" s="20">
-        <v>95.48</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
+        <v>89.78</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="17" t="s">
         <v>409</v>
       </c>
@@ -7775,7 +7781,7 @@
         <v>96.17</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="17" t="s">
         <v>410</v>
       </c>
@@ -7789,21 +7795,21 @@
         <v>179.85</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="17" t="s">
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C409" s="19">
         <v>3.15</v>
       </c>
       <c r="D409" s="20">
-        <v>173.25</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
+        <v>170.1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="17" t="s">
         <v>412</v>
       </c>
@@ -7817,7 +7823,7 @@
         <v>68.63</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="s">
         <v>413</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>94.55</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="17" t="s">
         <v>414</v>
       </c>
@@ -7845,21 +7851,21 @@
         <v>87.75</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="s">
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="C413" s="19">
         <v>3.5</v>
       </c>
       <c r="D413" s="20">
-        <v>54.25</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="17" t="s">
         <v>416</v>
       </c>
@@ -7867,7 +7873,7 @@
       <c r="C414" s="22"/>
       <c r="D414" s="21"/>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="17" t="s">
         <v>417</v>
       </c>
@@ -7881,7 +7887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="17" t="s">
         <v>418</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="17" t="s">
         <v>419</v>
       </c>
@@ -7909,7 +7915,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="17" t="s">
         <v>420</v>
       </c>
@@ -7923,7 +7929,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="17" t="s">
         <v>421</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="17" t="s">
         <v>422</v>
       </c>
@@ -7951,7 +7957,7 @@
         <v>86.58</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="17" t="s">
         <v>423</v>
       </c>
@@ -7965,7 +7971,7 @@
         <v>193.14</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="17" t="s">
         <v>424</v>
       </c>
@@ -7973,7 +7979,7 @@
       <c r="C422" s="22"/>
       <c r="D422" s="21"/>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="s">
         <v>425</v>
       </c>
@@ -7981,7 +7987,7 @@
       <c r="C423" s="22"/>
       <c r="D423" s="21"/>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="17" t="s">
         <v>426</v>
       </c>
@@ -7995,21 +8001,21 @@
         <v>201.4</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="17" t="s">
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="C425" s="19">
         <v>4.25</v>
       </c>
       <c r="D425" s="20">
-        <v>240.13</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="17" t="s">
         <v>428</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="17" t="s">
         <v>429</v>
       </c>
@@ -8037,7 +8043,7 @@
         <v>151.62</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="17" t="s">
         <v>430</v>
       </c>
@@ -8051,7 +8057,7 @@
         <v>80.75</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="s">
         <v>431</v>
       </c>
@@ -8065,7 +8071,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="17" t="s">
         <v>432</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>132.30000000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="s">
         <v>433</v>
       </c>
@@ -8093,7 +8099,7 @@
         <v>128.4</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="17" t="s">
         <v>434</v>
       </c>
@@ -8107,7 +8113,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="17" t="s">
         <v>435</v>
       </c>
@@ -8121,7 +8127,7 @@
         <v>181.9</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="17" t="s">
         <v>436</v>
       </c>
@@ -8135,7 +8141,7 @@
         <v>78.38</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="17" t="s">
         <v>437</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="17" t="s">
         <v>438</v>
       </c>
@@ -8163,7 +8169,7 @@
         <v>175.75</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="17" t="s">
         <v>439</v>
       </c>
@@ -8177,21 +8183,21 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="17" t="s">
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C438" s="19">
         <v>4.5</v>
       </c>
       <c r="D438" s="20">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="17" t="s">
         <v>441</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="17" t="s">
         <v>442</v>
       </c>
@@ -8219,7 +8225,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="s">
         <v>443</v>
       </c>
@@ -8233,7 +8239,7 @@
         <v>453.75</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
         <v>444</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>195.25</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
         <v>445</v>
       </c>
@@ -8261,7 +8267,7 @@
         <v>154.29</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
         <v>446</v>
       </c>
@@ -8275,7 +8281,7 @@
         <v>65.63</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
         <v>447</v>
       </c>
@@ -8283,7 +8289,7 @@
       <c r="C445" s="22"/>
       <c r="D445" s="21"/>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
         <v>448</v>
       </c>
@@ -8297,7 +8303,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
         <v>449</v>
       </c>
@@ -8305,7 +8311,7 @@
       <c r="C447" s="22"/>
       <c r="D447" s="21"/>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
         <v>450</v>
       </c>
@@ -8319,7 +8325,7 @@
         <v>139.59</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
         <v>451</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>141.75</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="17" t="s">
         <v>452</v>
       </c>
@@ -8347,7 +8353,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="s">
         <v>453</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>570.4</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
         <v>454</v>
       </c>
@@ -8375,21 +8381,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C453" s="19">
         <v>7</v>
       </c>
       <c r="D453" s="20">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
         <v>456</v>
       </c>
@@ -8403,7 +8409,7 @@
         <v>345.8</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
         <v>457</v>
       </c>
@@ -8417,21 +8423,21 @@
         <v>365.5</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="C456" s="19">
         <v>7.5</v>
       </c>
       <c r="D456" s="20">
-        <v>116.25</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
         <v>459</v>
       </c>
@@ -8445,7 +8451,7 @@
         <v>119.63</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
         <v>460</v>
       </c>
@@ -8453,7 +8459,7 @@
       <c r="C458" s="22"/>
       <c r="D458" s="21"/>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
         <v>461</v>
       </c>
@@ -8467,21 +8473,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="C460" s="19">
         <v>3.75</v>
       </c>
       <c r="D460" s="20">
-        <v>80.63</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
+        <v>76.88</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
         <v>463</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>136.96</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
         <v>464</v>
       </c>
@@ -8509,7 +8515,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
         <v>465</v>
       </c>
@@ -8523,7 +8529,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
         <v>466</v>
       </c>
@@ -8537,7 +8543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
         <v>467</v>
       </c>
@@ -8551,7 +8557,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
         <v>468</v>
       </c>
@@ -8565,7 +8571,7 @@
         <v>65.23</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
         <v>469</v>
       </c>
@@ -8579,7 +8585,7 @@
         <v>172.9</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
         <v>470</v>
       </c>
@@ -8593,21 +8599,21 @@
         <v>275.55</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C469" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D469" s="20">
-        <v>211.2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
         <v>472</v>
       </c>
@@ -8621,7 +8627,7 @@
         <v>240.7</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
         <v>473</v>
       </c>
@@ -8635,7 +8641,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
         <v>474</v>
       </c>
@@ -8649,7 +8655,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
         <v>475</v>
       </c>
@@ -8663,7 +8669,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
         <v>476</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
         <v>477</v>
       </c>
@@ -8691,35 +8697,35 @@
         <v>295.5</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C476" s="19">
         <v>1.5</v>
       </c>
       <c r="D476" s="20">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>234.5</v>
+        <v>232.5</v>
       </c>
       <c r="C477" s="19">
         <v>1.5</v>
       </c>
       <c r="D477" s="20">
-        <v>351.75</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>348.75</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
         <v>480</v>
       </c>
@@ -8733,49 +8739,49 @@
         <v>99.18</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C479" s="19">
         <v>0.39</v>
       </c>
       <c r="D479" s="20">
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+        <v>67.77</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C480" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D480" s="20">
-        <v>41.04</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+        <v>88.92</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>42.5</v>
+        <v>73.5</v>
       </c>
       <c r="C481" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D481" s="20">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
+        <v>167.58</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
         <v>484</v>
       </c>
@@ -8789,7 +8795,7 @@
         <v>158.08000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
         <v>485</v>
       </c>
@@ -8797,35 +8803,35 @@
       <c r="C483" s="22"/>
       <c r="D483" s="21"/>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="C484" s="19">
         <v>2.75</v>
       </c>
       <c r="D484" s="20">
-        <v>81.13</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
+        <v>75.63</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C485" s="19">
         <v>2.72</v>
       </c>
       <c r="D485" s="20">
-        <v>266.52</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
+        <v>280.12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
         <v>488</v>
       </c>
@@ -8839,35 +8845,35 @@
         <v>247.8</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>8.5</v>
+        <v>48.5</v>
       </c>
       <c r="C487" s="19">
         <v>2.95</v>
       </c>
       <c r="D487" s="20">
-        <v>25.08</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
+        <v>143.08000000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C488" s="19">
         <v>2.95</v>
       </c>
       <c r="D488" s="20">
-        <v>38.35</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
+        <v>126.85</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
         <v>491</v>
       </c>
@@ -8881,7 +8887,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
         <v>492</v>
       </c>
@@ -8895,7 +8901,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
         <v>493</v>
       </c>
@@ -8909,21 +8915,21 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C492" s="19">
         <v>3.2</v>
       </c>
       <c r="D492" s="20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
         <v>495</v>
       </c>
@@ -8931,7 +8937,7 @@
       <c r="C493" s="22"/>
       <c r="D493" s="21"/>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
         <v>496</v>
       </c>
@@ -8945,21 +8951,21 @@
         <v>169.58</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C495" s="19">
         <v>3.25</v>
       </c>
       <c r="D495" s="20">
-        <v>126.75</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
         <v>498</v>
       </c>
@@ -8973,7 +8979,7 @@
         <v>113.75</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
         <v>499</v>
       </c>
@@ -8981,7 +8987,7 @@
       <c r="C497" s="22"/>
       <c r="D497" s="21"/>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
         <v>500</v>
       </c>
@@ -8989,7 +8995,7 @@
       <c r="C498" s="22"/>
       <c r="D498" s="21"/>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
         <v>501</v>
       </c>
@@ -9003,7 +9009,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
         <v>502</v>
       </c>
@@ -9017,21 +9023,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>28.5</v>
+        <v>52.5</v>
       </c>
       <c r="C501" s="19">
         <v>3.33</v>
       </c>
       <c r="D501" s="20">
-        <v>94.91</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
+        <v>174.83</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
         <v>504</v>
       </c>
@@ -9039,7 +9045,7 @@
       <c r="C502" s="22"/>
       <c r="D502" s="21"/>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
         <v>505</v>
       </c>
@@ -9053,7 +9059,7 @@
         <v>260.3</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
         <v>506</v>
       </c>
@@ -9067,21 +9073,21 @@
         <v>264.55</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>33</v>
+        <v>35.5</v>
       </c>
       <c r="C505" s="19">
         <v>3.6</v>
       </c>
       <c r="D505" s="20">
-        <v>118.8</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
         <v>508</v>
       </c>
@@ -9089,7 +9095,7 @@
       <c r="C506" s="22"/>
       <c r="D506" s="21"/>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
         <v>509</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>262.8</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
         <v>510</v>
       </c>
@@ -9111,7 +9117,7 @@
       <c r="C508" s="22"/>
       <c r="D508" s="21"/>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
         <v>511</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
         <v>512</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
         <v>513</v>
       </c>
@@ -9147,7 +9153,7 @@
       <c r="C511" s="22"/>
       <c r="D511" s="21"/>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
         <v>514</v>
       </c>
@@ -9161,21 +9167,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C513" s="19">
         <v>3.8</v>
       </c>
       <c r="D513" s="20">
-        <v>197.6</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
+        <v>178.6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
         <v>516</v>
       </c>
@@ -9189,7 +9195,7 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
         <v>517</v>
       </c>
@@ -9203,7 +9209,7 @@
         <v>202.1</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
         <v>518</v>
       </c>
@@ -9217,7 +9223,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
         <v>519</v>
       </c>
@@ -9231,7 +9237,7 @@
         <v>136.4</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
         <v>520</v>
       </c>
@@ -9245,7 +9251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
         <v>521</v>
       </c>
@@ -9259,21 +9265,21 @@
         <v>137.75</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
       <c r="C520" s="19">
         <v>4.75</v>
       </c>
       <c r="D520" s="20">
-        <v>163.88</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
+        <v>159.13</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
         <v>523</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>175.75</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
         <v>524</v>
       </c>
@@ -9301,7 +9307,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
         <v>525</v>
       </c>
@@ -9315,15 +9321,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="B524" s="21"/>
-      <c r="C524" s="22"/>
-      <c r="D524" s="21"/>
-    </row>
-    <row r="525" spans="1:4">
+      <c r="B524" s="18">
+        <v>5</v>
+      </c>
+      <c r="C524" s="19">
+        <v>5</v>
+      </c>
+      <c r="D524" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
         <v>527</v>
       </c>
@@ -9337,7 +9349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
         <v>528</v>
       </c>
@@ -9351,7 +9363,7 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
         <v>529</v>
       </c>
@@ -9365,7 +9377,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
         <v>530</v>
       </c>
@@ -9379,7 +9391,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
         <v>531</v>
       </c>
@@ -9393,21 +9405,21 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C530" s="19">
         <v>5.75</v>
       </c>
       <c r="D530" s="20">
-        <v>143.75</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
         <v>533</v>
       </c>
@@ -9421,7 +9433,7 @@
         <v>135.13</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
         <v>534</v>
       </c>
@@ -9435,7 +9447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
         <v>535</v>
       </c>
@@ -9449,7 +9461,7 @@
         <v>158.13</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
         <v>536</v>
       </c>
@@ -9463,21 +9475,21 @@
         <v>212.75</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C535" s="19">
         <v>6</v>
       </c>
       <c r="D535" s="20">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
         <v>538</v>
       </c>
@@ -9491,7 +9503,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
         <v>539</v>
       </c>
@@ -9505,7 +9517,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
         <v>540</v>
       </c>
@@ -9519,7 +9531,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
         <v>541</v>
       </c>
@@ -9527,15 +9539,21 @@
       <c r="C539" s="22"/>
       <c r="D539" s="21"/>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B540" s="21"/>
-      <c r="C540" s="22"/>
-      <c r="D540" s="21"/>
-    </row>
-    <row r="541" spans="1:4">
+      <c r="B540" s="18">
+        <v>36</v>
+      </c>
+      <c r="C540" s="19">
+        <v>7</v>
+      </c>
+      <c r="D540" s="20">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
         <v>543</v>
       </c>
@@ -9549,7 +9567,7 @@
         <v>137.75</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
         <v>544</v>
       </c>
@@ -9563,7 +9581,7 @@
         <v>205.38</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
         <v>545</v>
       </c>
@@ -9577,7 +9595,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
         <v>546</v>
       </c>
@@ -9591,21 +9609,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C545" s="19">
         <v>8.75</v>
       </c>
       <c r="D545" s="20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
         <v>548</v>
       </c>
@@ -9613,7 +9631,7 @@
       <c r="C546" s="22"/>
       <c r="D546" s="21"/>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
         <v>549</v>
       </c>
@@ -9627,21 +9645,21 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>79.5</v>
+        <v>75.5</v>
       </c>
       <c r="C548" s="19">
         <v>2.76</v>
       </c>
       <c r="D548" s="20">
-        <v>219.42</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4">
+        <v>208.38</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
         <v>551</v>
       </c>
@@ -9655,7 +9673,7 @@
         <v>171.12</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
         <v>552</v>
       </c>
@@ -9666,24 +9684,24 @@
         <v>2.76</v>
       </c>
       <c r="D550" s="20">
-        <v>396.96</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
+        <v>397.44</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="17" t="s">
         <v>553</v>
       </c>
       <c r="B551" s="18">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C551" s="19">
         <v>2.8</v>
       </c>
       <c r="D551" s="20">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="17" t="s">
         <v>554</v>
       </c>
@@ -9697,7 +9715,7 @@
         <v>192.6</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
         <v>555</v>
       </c>
@@ -9711,7 +9729,7 @@
         <v>180.78</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
         <v>556</v>
       </c>
@@ -9725,21 +9743,21 @@
         <v>182.16</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C555" s="19">
         <v>2.76</v>
       </c>
       <c r="D555" s="20">
-        <v>190.44</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
+        <v>193.2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
         <v>558</v>
       </c>
@@ -9753,7 +9771,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
         <v>559</v>
       </c>
@@ -9767,7 +9785,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
         <v>560</v>
       </c>
@@ -9781,7 +9799,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
         <v>561</v>
       </c>
@@ -9795,7 +9813,7 @@
         <v>144.15</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
         <v>562</v>
       </c>
@@ -9809,7 +9827,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
         <v>563</v>
       </c>
@@ -9823,7 +9841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
         <v>564</v>
       </c>
@@ -9837,7 +9855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
         <v>565</v>
       </c>
@@ -9851,7 +9869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
         <v>566</v>
       </c>
@@ -9865,7 +9883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
         <v>567</v>
       </c>
@@ -9879,7 +9897,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
         <v>568</v>
       </c>
@@ -9893,21 +9911,21 @@
         <v>93.47</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C567" s="19">
         <v>1.96</v>
       </c>
       <c r="D567" s="20">
-        <v>186.07</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
+        <v>182.15</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
         <v>570</v>
       </c>
@@ -9921,7 +9939,7 @@
         <v>206.92</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
         <v>571</v>
       </c>
@@ -9935,21 +9953,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
         <v>572</v>
       </c>
       <c r="B570" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C570" s="19">
         <v>2.86</v>
       </c>
       <c r="D570" s="20">
-        <v>85.8</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+        <v>82.94</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
         <v>573</v>
       </c>
@@ -9963,7 +9981,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
         <v>574</v>
       </c>
@@ -9977,7 +9995,7 @@
         <v>85.6</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
         <v>575</v>
       </c>
@@ -9991,21 +10009,21 @@
         <v>168.08</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="17" t="s">
         <v>576</v>
       </c>
       <c r="B574" s="18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C574" s="19">
         <v>4.05</v>
       </c>
       <c r="D574" s="20">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="17" t="s">
         <v>577</v>
       </c>
@@ -10019,21 +10037,21 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="17" t="s">
         <v>578</v>
       </c>
       <c r="B576" s="18">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C576" s="19">
         <v>1.4</v>
       </c>
       <c r="D576" s="20">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="17" t="s">
         <v>579</v>
       </c>
@@ -10047,17 +10065,17 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="17" t="s">
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>5.5</v>
+        <v>15.5</v>
       </c>
       <c r="C578" s="22"/>
       <c r="D578" s="21"/>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="17" t="s">
         <v>581</v>
       </c>
@@ -10067,7 +10085,7 @@
       <c r="C579" s="22"/>
       <c r="D579" s="21"/>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="17" t="s">
         <v>582</v>
       </c>
@@ -10077,7 +10095,7 @@
       <c r="C580" s="22"/>
       <c r="D580" s="21"/>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="17" t="s">
         <v>583</v>
       </c>
@@ -10087,21 +10105,21 @@
       <c r="C581" s="22"/>
       <c r="D581" s="21"/>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="17" t="s">
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>979.5</v>
+        <v>989.5</v>
       </c>
       <c r="C582" s="19">
         <v>0.8</v>
       </c>
       <c r="D582" s="20">
-        <v>783.6</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
+        <v>791.6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="17" t="s">
         <v>585</v>
       </c>
@@ -10115,7 +10133,7 @@
         <v>762.4</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="17" t="s">
         <v>586</v>
       </c>
@@ -10129,7 +10147,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="17" t="s">
         <v>587</v>
       </c>
@@ -10143,91 +10161,91 @@
         <v>732.4</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="17" t="s">
         <v>588</v>
       </c>
       <c r="B586" s="18">
-        <v>640.5</v>
+        <v>634.5</v>
       </c>
       <c r="C586" s="19">
         <v>0.52</v>
       </c>
       <c r="D586" s="20">
-        <v>333.06</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
+        <v>329.94</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="17" t="s">
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>510.5</v>
+        <v>494.5</v>
       </c>
       <c r="C587" s="19">
         <v>0.52</v>
       </c>
       <c r="D587" s="20">
-        <v>265.45999999999998</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
+        <v>257.14</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="17" t="s">
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>565.5</v>
+        <v>549.5</v>
       </c>
       <c r="C588" s="19">
         <v>0.52</v>
       </c>
       <c r="D588" s="20">
-        <v>294.06</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
+        <v>285.74</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="17" t="s">
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>48.5</v>
+        <v>42.5</v>
       </c>
       <c r="C589" s="19">
         <v>0.7</v>
       </c>
       <c r="D589" s="20">
-        <v>33.950000000000003</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="17" t="s">
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>2.5</v>
+        <v>171.5</v>
       </c>
       <c r="C590" s="19">
         <v>0.7</v>
       </c>
       <c r="D590" s="20">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
+        <v>120.05</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="17" t="s">
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>85</v>
+        <v>478</v>
       </c>
       <c r="C591" s="19">
         <v>0.7</v>
       </c>
       <c r="D591" s="20">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
+        <v>334.6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="17" t="s">
         <v>594</v>
       </c>
@@ -10241,7 +10259,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="17" t="s">
         <v>595</v>
       </c>
@@ -10255,16 +10273,16 @@
         <v>186.75</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="23" t="s">
         <v>596</v>
       </c>
       <c r="B594" s="24">
-        <v>38151.53</v>
+        <v>40258.879999999997</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="26">
-        <v>108300.48</v>
+        <v>118000.73</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="598">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 1-Nov-2024</t>
+    <t>1-Jul-2024 to 13-Nov-2024</t>
   </si>
   <si>
     <t/>
@@ -242,7 +242,7 @@
     <t>1905 PATRIKA (ARJUN 04)</t>
   </si>
   <si>
-    <t>1906 PATRIKA (KING 01)</t>
+    <t>1906 PATRIKA (KING 01) (MAAL NHI MIL RHA)</t>
   </si>
   <si>
     <t>1907 PATRIKA (KING 02)</t>
@@ -638,6 +638,9 @@
     <t>5019 PATRIKA (DC) {{10}}</t>
   </si>
   <si>
+    <t>5020 PATRIKA - B</t>
+  </si>
+  <si>
     <t>5020 PATRIKA (DIRECT) {M}</t>
   </si>
   <si>
@@ -701,7 +704,7 @@
     <t>5039 PATRIKA</t>
   </si>
   <si>
-    <t>5040 PATRIKA</t>
+    <t>5040 PATRIKA (Time Lagega Appr 20.11)</t>
   </si>
   <si>
     <t>5041 PATRIKA</t>
@@ -728,7 +731,7 @@
     <t>5047 PATRIKA (5022-B)</t>
   </si>
   <si>
-    <t>5850 PATRIKA</t>
+    <t>5850 PATRIKA (MONDAY)</t>
   </si>
   <si>
     <t>5851 PATRIKA</t>
@@ -962,7 +965,7 @@
     <t>5927 PATRIKA</t>
   </si>
   <si>
-    <t>5928 PATRIKA (06.11)</t>
+    <t>5928 PATRIKA</t>
   </si>
   <si>
     <t>5929 PATRIKA {C.M}</t>
@@ -1043,7 +1046,7 @@
     <t>6506 PATRIKA {L}</t>
   </si>
   <si>
-    <t>6507 PATRIKA (GGN) {C.M.}</t>
+    <t>6507 PATRIKA (GGN)</t>
   </si>
   <si>
     <t>6508 PATRIKA {M}</t>
@@ -1493,10 +1496,10 @@
     <t>9012 CARD</t>
   </si>
   <si>
-    <t>9013 CARD (06.11)</t>
-  </si>
-  <si>
-    <t>9014 CARD (06.11)</t>
+    <t>9013 CARD</t>
+  </si>
+  <si>
+    <t>9014 CARD</t>
   </si>
   <si>
     <t>9015 CARD</t>
@@ -1529,10 +1532,10 @@
     <t>9024 CARD</t>
   </si>
   <si>
-    <t>9025 CARD (T)</t>
-  </si>
-  <si>
-    <t>9026 CARD (T)</t>
+    <t>9025 CARD ( टसर )</t>
+  </si>
+  <si>
+    <t>9026 CARD ( टसर )</t>
   </si>
   <si>
     <t>9027 CARD</t>
@@ -1568,7 +1571,7 @@
     <t>9037 CARD</t>
   </si>
   <si>
-    <t>9038 CARD</t>
+    <t>9038 CARD (TIME LAGEGA)</t>
   </si>
   <si>
     <t>9039 CARD</t>
@@ -1580,10 +1583,10 @@
     <t>9041 CARD</t>
   </si>
   <si>
-    <t>9042 CARD (T)</t>
-  </si>
-  <si>
-    <t>9043 CARD (T)</t>
+    <t>9042 CARD ( टसर )</t>
+  </si>
+  <si>
+    <t>9043 CARD ( टसर )</t>
   </si>
   <si>
     <t>9044 CARD</t>
@@ -1604,7 +1607,7 @@
     <t>9049 CARD</t>
   </si>
   <si>
-    <t>9050 CARD (TIME LAGEGA)</t>
+    <t>9050 CARD</t>
   </si>
   <si>
     <t>9051 CARD</t>
@@ -1652,7 +1655,7 @@
     <t>9065 CARD</t>
   </si>
   <si>
-    <t>9066 CARD (06.11)</t>
+    <t>9066 CARD</t>
   </si>
   <si>
     <t>9067 CARD</t>
@@ -1742,7 +1745,7 @@
     <t>9095 CARD</t>
   </si>
   <si>
-    <t>9096 CARD</t>
+    <t>9096 CARD (14.11)</t>
   </si>
   <si>
     <t>9097 CARD</t>
@@ -2307,13 +2310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -2402,13 +2405,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="18">
-        <v>898.5</v>
+        <v>878.5</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="20">
-        <v>898.5</v>
+        <v>878.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,13 +2433,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="19">
         <v>0.98</v>
       </c>
       <c r="D11" s="20">
-        <v>77.42</v>
+        <v>71.540000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,13 +2447,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>58.5</v>
+        <v>54</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>96.53</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,13 +2461,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="18">
-        <v>64.5</v>
+        <v>103.5</v>
       </c>
       <c r="C13" s="19">
         <v>1.65</v>
       </c>
       <c r="D13" s="20">
-        <v>106.43</v>
+        <v>170.78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,13 +2489,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="18">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C15" s="19">
         <v>1.8</v>
       </c>
       <c r="D15" s="20">
-        <v>194.4</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,13 +2517,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>121.5</v>
+        <v>104</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,13 +2531,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="18">
-        <v>138.5</v>
+        <v>130</v>
       </c>
       <c r="C18" s="19">
         <v>2</v>
       </c>
       <c r="D18" s="20">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2542,13 +2545,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>145</v>
+        <v>142.5</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,13 +2559,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="18">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C20" s="19">
         <v>2</v>
       </c>
       <c r="D20" s="20">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,13 +2587,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,13 +2601,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="18">
-        <v>140.5</v>
+        <v>136.5</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="20">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,13 +2615,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>245.7</v>
+        <v>218.4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,13 +2629,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>164</v>
+        <v>145.5</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>344.4</v>
+        <v>305.55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2648,13 +2651,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>115.47</v>
+        <v>96.97</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>271.35000000000002</v>
+        <v>227.88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2662,13 +2665,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>112</v>
+        <v>89.67</v>
       </c>
       <c r="C28" s="19">
         <v>2.35</v>
       </c>
       <c r="D28" s="20">
-        <v>263.2</v>
+        <v>210.72</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,13 +2679,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="18">
-        <v>54.5</v>
+        <v>46.5</v>
       </c>
       <c r="C29" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="D29" s="20">
-        <v>138.97999999999999</v>
+        <v>118.58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,13 +2693,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="D30" s="20">
-        <v>140.25</v>
+        <v>135.15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,13 +2715,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="18">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C32" s="19">
         <v>2.5</v>
       </c>
       <c r="D32" s="20">
-        <v>247.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2740,13 +2743,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="18">
-        <v>33.5</v>
+        <v>10</v>
       </c>
       <c r="C34" s="19">
         <v>2.5</v>
       </c>
       <c r="D34" s="20">
-        <v>83.75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,13 +2765,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="18">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C36" s="19">
         <v>2.6</v>
       </c>
       <c r="D36" s="20">
-        <v>301.60000000000002</v>
+        <v>275.60000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,13 +2779,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="18">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C37" s="19">
         <v>2.6</v>
       </c>
       <c r="D37" s="20">
-        <v>275.60000000000002</v>
+        <v>254.8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,13 +2793,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C38" s="19">
         <v>2.7</v>
       </c>
       <c r="D38" s="20">
-        <v>270</v>
+        <v>237.6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,13 +2807,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="18">
-        <v>139.5</v>
+        <v>130.5</v>
       </c>
       <c r="C39" s="19">
         <v>2.7</v>
       </c>
       <c r="D39" s="20">
-        <v>376.65</v>
+        <v>352.35</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2849,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="18">
-        <v>97</v>
+        <v>90.5</v>
       </c>
       <c r="C42" s="19">
         <v>2.85</v>
       </c>
       <c r="D42" s="20">
-        <v>276.45</v>
+        <v>257.93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,13 +2863,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="18">
-        <v>72</v>
+        <v>56.5</v>
       </c>
       <c r="C43" s="19">
         <v>2.25</v>
       </c>
       <c r="D43" s="20">
-        <v>162</v>
+        <v>127.13</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,13 +2877,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="18">
-        <v>179.5</v>
+        <v>164.5</v>
       </c>
       <c r="C44" s="19">
         <v>2.25</v>
       </c>
       <c r="D44" s="20">
-        <v>403.88</v>
+        <v>370.13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,13 +2891,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>97.5</v>
+        <v>95.5</v>
       </c>
       <c r="C45" s="19">
         <v>2.35</v>
       </c>
       <c r="D45" s="20">
-        <v>229.13</v>
+        <v>224.43</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,13 +2919,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="18">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="C47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="20">
-        <v>299.2</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,13 +2933,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,13 +2947,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="18">
-        <v>357</v>
+        <v>169</v>
       </c>
       <c r="C49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="20">
-        <v>392.7</v>
+        <v>185.9</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,13 +2961,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>402.5</v>
+        <v>370</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>442.75</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,13 +2975,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="18">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="C51" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D51" s="20">
-        <v>277.2</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,13 +2989,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>432.3</v>
+        <v>388.3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,13 +3003,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C53" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="20">
-        <v>338.8</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,13 +3017,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>454.3</v>
+        <v>420.2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,13 +3031,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="18">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="C55" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D55" s="20">
-        <v>308</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,13 +3045,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="C56" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" s="20">
-        <v>178.2</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,13 +3059,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="18">
-        <v>727</v>
+        <v>648.5</v>
       </c>
       <c r="C57" s="19">
         <v>1.9</v>
       </c>
       <c r="D57" s="20">
-        <v>1381.3</v>
+        <v>1232.1500000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,13 +3087,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="18">
-        <v>473</v>
+        <v>374</v>
       </c>
       <c r="C59" s="19">
         <v>1.9</v>
       </c>
       <c r="D59" s="20">
-        <v>898.7</v>
+        <v>710.6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,13 +3101,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="18">
-        <v>509</v>
+        <v>507.5</v>
       </c>
       <c r="C60" s="19">
         <v>1.9</v>
       </c>
       <c r="D60" s="20">
-        <v>967.1</v>
+        <v>964.25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,13 +3115,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="18">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C61" s="19">
         <v>2.1</v>
       </c>
       <c r="D61" s="20">
-        <v>226.8</v>
+        <v>174.3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,13 +3143,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="18">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C63" s="19">
         <v>2.1</v>
       </c>
       <c r="D63" s="20">
-        <v>207.9</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,13 +3157,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="18">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="C64" s="19">
         <v>2.1</v>
       </c>
       <c r="D64" s="20">
-        <v>999.6</v>
+        <v>936.6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,13 +3171,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="18">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C65" s="19">
         <v>2.1</v>
       </c>
       <c r="D65" s="20">
-        <v>1026.9000000000001</v>
+        <v>1022.7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,13 +3185,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="18">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="C66" s="19">
         <v>0.52</v>
       </c>
       <c r="D66" s="20">
-        <v>57.2</v>
+        <v>161.19999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,13 +3199,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="18">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="C67" s="19">
         <v>0.52</v>
       </c>
       <c r="D67" s="20">
-        <v>68.64</v>
+        <v>168.48</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,13 +3213,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="C68" s="19">
         <v>0.7</v>
       </c>
       <c r="D68" s="20">
-        <v>58.1</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,35 +3227,41 @@
         <v>71</v>
       </c>
       <c r="B69" s="18">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="C69" s="19">
         <v>0.7</v>
       </c>
       <c r="D69" s="20">
-        <v>53.2</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="21"/>
+      <c r="B70" s="18">
+        <v>188</v>
+      </c>
+      <c r="C70" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="D70" s="20">
+        <v>169.2</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>77.400000000000006</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,13 +3269,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>913</v>
+        <v>818.5</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>1415.15</v>
+        <v>1268.68</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,13 +3283,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="18">
-        <v>928</v>
+        <v>847</v>
       </c>
       <c r="C73" s="19">
         <v>1.55</v>
       </c>
       <c r="D73" s="20">
-        <v>1438.4</v>
+        <v>1312.85</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,13 +3297,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>978</v>
+        <v>948.5</v>
       </c>
       <c r="C74" s="19">
         <v>1.55</v>
       </c>
       <c r="D74" s="20">
-        <v>1515.9</v>
+        <v>1470.18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,7 +3311,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>78</v>
+        <v>21.5</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3312,7 +3321,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>28</v>
+        <v>-17</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
@@ -3322,7 +3331,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>179</v>
+        <v>155.5</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
@@ -3332,7 +3341,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3342,13 +3351,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>254</v>
+        <v>148.5</v>
       </c>
       <c r="C79" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D79" s="20">
-        <v>292.10000000000002</v>
+        <v>170.78</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3356,13 +3365,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C80" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D80" s="20">
-        <v>63.25</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,41 +3379,35 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>165.2</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="18">
-        <v>134</v>
-      </c>
-      <c r="C82" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="D82" s="20">
-        <v>187.6</v>
-      </c>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>110.6</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3429,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>75.5</v>
+        <v>65</v>
       </c>
       <c r="C85" s="19">
         <v>2</v>
       </c>
       <c r="D85" s="20">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,13 +3443,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="18">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C86" s="19">
         <v>2</v>
       </c>
       <c r="D86" s="20">
-        <v>272</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,13 +3457,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="18">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C87" s="19">
         <v>1.26</v>
       </c>
       <c r="D87" s="20">
-        <v>404.46</v>
+        <v>381.78</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,13 +3471,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="18">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C88" s="19">
         <v>1.26</v>
       </c>
       <c r="D88" s="20">
-        <v>395.64</v>
+        <v>350.28</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,13 +3557,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>38.5</v>
+        <v>28</v>
       </c>
       <c r="C95" s="19">
         <v>12.5</v>
       </c>
       <c r="D95" s="20">
-        <v>481.25</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3568,13 +3571,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="18">
-        <v>39.5</v>
+        <v>20.5</v>
       </c>
       <c r="C96" s="19">
         <v>12.5</v>
       </c>
       <c r="D96" s="20">
-        <v>493.75</v>
+        <v>256.25</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3582,13 +3585,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>34</v>
+        <v>21.5</v>
       </c>
       <c r="C97" s="19">
         <v>12.5</v>
       </c>
       <c r="D97" s="20">
-        <v>425</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3610,13 +3613,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>37</v>
+        <v>23.5</v>
       </c>
       <c r="C99" s="19">
         <v>12.5</v>
       </c>
       <c r="D99" s="20">
-        <v>462.5</v>
+        <v>293.75</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,13 +3641,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>34.36</v>
+        <v>30.86</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>429.5</v>
+        <v>385.75</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3652,13 +3655,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>100</v>
+        <v>-62.5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3666,13 +3669,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>47</v>
+        <v>39.5</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>587.5</v>
+        <v>493.75</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3680,13 +3683,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>46</v>
+        <v>24.5</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>575</v>
+        <v>306.25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,13 +3697,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="18">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="C105" s="19">
         <v>15.5</v>
       </c>
       <c r="D105" s="20">
-        <v>310</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3708,13 +3711,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C106" s="19">
         <v>15.5</v>
       </c>
       <c r="D106" s="20">
-        <v>310</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3736,13 +3739,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="C108" s="19">
         <v>15.5</v>
       </c>
       <c r="D108" s="20">
-        <v>325.5</v>
+        <v>255.75</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,13 +3767,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C110" s="19">
         <v>15.5</v>
       </c>
       <c r="D110" s="20">
-        <v>325.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,13 +3781,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="18">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="C111" s="19">
         <v>15.5</v>
       </c>
       <c r="D111" s="20">
-        <v>310</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,13 +3795,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" s="19">
         <v>15.5</v>
       </c>
       <c r="D112" s="20">
-        <v>325.5</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,13 +3837,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="18">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C115" s="19">
         <v>15.5</v>
       </c>
       <c r="D115" s="20">
-        <v>325.5</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3848,13 +3851,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="18">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="C116" s="19">
         <v>15.5</v>
       </c>
       <c r="D116" s="20">
-        <v>325.5</v>
+        <v>224.75</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,13 +3879,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C118" s="19">
         <v>15.5</v>
       </c>
       <c r="D118" s="20">
-        <v>341</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,13 +3907,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C120" s="19">
         <v>15.5</v>
       </c>
       <c r="D120" s="20">
-        <v>325.5</v>
+        <v>294.5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,13 +3935,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="18">
-        <v>20.5</v>
+        <v>11.5</v>
       </c>
       <c r="C122" s="19">
         <v>18.41</v>
       </c>
       <c r="D122" s="20">
-        <v>377.39</v>
+        <v>211.7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3946,13 +3949,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="18">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="C123" s="19">
         <v>18.34</v>
       </c>
       <c r="D123" s="20">
-        <v>256.79000000000002</v>
+        <v>247.62</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,13 +3977,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="18">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="C125" s="19">
         <v>18.27</v>
       </c>
       <c r="D125" s="20">
-        <v>200.96</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,13 +3991,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" s="19">
         <v>18.27</v>
       </c>
       <c r="D126" s="20">
-        <v>182.69</v>
+        <v>164.42</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4016,13 +4019,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="18">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="C128" s="19">
         <v>18.34</v>
       </c>
       <c r="D128" s="20">
-        <v>284.3</v>
+        <v>256.79000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4030,13 +4033,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="18">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="C129" s="19">
-        <v>18.36</v>
+        <v>18.37</v>
       </c>
       <c r="D129" s="20">
-        <v>146.91</v>
+        <v>27.55</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,13 +4047,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C130" s="19">
         <v>18.27</v>
       </c>
       <c r="D130" s="20">
-        <v>200.96</v>
+        <v>146.15</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4058,13 +4061,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C131" s="19">
         <v>18.34</v>
       </c>
       <c r="D131" s="20">
-        <v>201.76</v>
+        <v>110.05</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,13 +4103,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>67.5</v>
+        <v>61.5</v>
       </c>
       <c r="C134" s="19">
         <v>3.3</v>
       </c>
       <c r="D134" s="20">
-        <v>222.75</v>
+        <v>202.95</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,13 +4117,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>134.5</v>
+        <v>92.5</v>
       </c>
       <c r="C135" s="19">
         <v>2.8</v>
       </c>
       <c r="D135" s="20">
-        <v>376.6</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,13 +4131,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>151.5</v>
+        <v>141.5</v>
       </c>
       <c r="C136" s="19">
         <v>2.75</v>
       </c>
       <c r="D136" s="20">
-        <v>416.63</v>
+        <v>389.13</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4142,13 +4145,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>118.5</v>
+        <v>102</v>
       </c>
       <c r="C137" s="19">
         <v>2.75</v>
       </c>
       <c r="D137" s="20">
-        <v>325.88</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,13 +4159,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="18">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C138" s="19">
         <v>4.7</v>
       </c>
       <c r="D138" s="20">
-        <v>220.9</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,13 +4173,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="18">
-        <v>165</v>
+        <v>144.5</v>
       </c>
       <c r="C139" s="19">
         <v>3.4</v>
       </c>
       <c r="D139" s="20">
-        <v>561</v>
+        <v>491.3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,13 +4187,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C140" s="19">
         <v>2.7</v>
       </c>
       <c r="D140" s="20">
-        <v>79.650000000000006</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,13 +4201,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>6</v>
+        <v>69.5</v>
       </c>
       <c r="C141" s="19">
         <v>2.7</v>
       </c>
       <c r="D141" s="20">
-        <v>16.2</v>
+        <v>187.65</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,13 +4215,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>156.5</v>
+        <v>142</v>
       </c>
       <c r="C142" s="19">
         <v>2.8</v>
       </c>
       <c r="D142" s="20">
-        <v>438.2</v>
+        <v>397.6</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,13 +4229,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>308.5</v>
+        <v>284</v>
       </c>
       <c r="C143" s="19">
         <v>2.8</v>
       </c>
       <c r="D143" s="20">
-        <v>863.8</v>
+        <v>795.2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,13 +4243,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="18">
-        <v>124.5</v>
+        <v>120</v>
       </c>
       <c r="C144" s="19">
         <v>2.5</v>
       </c>
       <c r="D144" s="20">
-        <v>311.25</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,13 +4271,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="18">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C146" s="19">
         <v>2.8</v>
       </c>
       <c r="D146" s="20">
-        <v>411.6</v>
+        <v>389.2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,13 +4299,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="C148" s="19">
         <v>2.95</v>
       </c>
       <c r="D148" s="20">
-        <v>312.7</v>
+        <v>536.9</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,13 +4313,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>12.5</v>
+        <v>132</v>
       </c>
       <c r="C149" s="19">
         <v>2.95</v>
       </c>
       <c r="D149" s="20">
-        <v>36.880000000000003</v>
+        <v>389.4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,13 +4327,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="18">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C150" s="19">
         <v>3</v>
       </c>
       <c r="D150" s="20">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,13 +4341,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="18">
-        <v>75.5</v>
+        <v>70.5</v>
       </c>
       <c r="C151" s="19">
         <v>3</v>
       </c>
       <c r="D151" s="20">
-        <v>226.5</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,13 +4355,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>130.5</v>
+        <v>127</v>
       </c>
       <c r="C152" s="19">
         <v>3.3</v>
       </c>
       <c r="D152" s="20">
-        <v>430.65</v>
+        <v>419.1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,13 +4369,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="18">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C153" s="19">
         <v>3.3</v>
       </c>
       <c r="D153" s="20">
-        <v>435.6</v>
+        <v>402.6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,13 +4383,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="18">
-        <v>83.5</v>
+        <v>48.5</v>
       </c>
       <c r="C154" s="19">
         <v>3.5</v>
       </c>
       <c r="D154" s="20">
-        <v>292.25</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4402,13 +4405,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="18">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="C156" s="19">
         <v>3.9</v>
       </c>
       <c r="D156" s="20">
-        <v>76.05</v>
+        <v>64.349999999999994</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4416,13 +4419,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="18">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C157" s="19">
         <v>3.9</v>
       </c>
       <c r="D157" s="20">
-        <v>323.7</v>
+        <v>257.39999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4430,13 +4433,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>65.5</v>
+        <v>51.5</v>
       </c>
       <c r="C158" s="19">
         <v>3.33</v>
       </c>
       <c r="D158" s="20">
-        <v>218.12</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,13 +4461,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>95</v>
+        <v>91.5</v>
       </c>
       <c r="C160" s="19">
         <v>3.33</v>
       </c>
       <c r="D160" s="20">
-        <v>316.35000000000002</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,13 +4475,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="18">
-        <v>157.5</v>
+        <v>153.5</v>
       </c>
       <c r="C161" s="19">
         <v>3.6</v>
       </c>
       <c r="D161" s="20">
-        <v>567</v>
+        <v>552.6</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,41 +4497,35 @@
         <v>165</v>
       </c>
       <c r="B163" s="18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C163" s="19">
         <v>3.75</v>
       </c>
       <c r="D163" s="20">
-        <v>48.75</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="18">
-        <v>26.5</v>
-      </c>
-      <c r="C164" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D164" s="20">
-        <v>100.7</v>
-      </c>
+      <c r="B164" s="21"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="21"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B165" s="18">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C165" s="19">
         <v>3</v>
       </c>
       <c r="D165" s="20">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,13 +4533,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>101.5</v>
+        <v>64.5</v>
       </c>
       <c r="C166" s="19">
         <v>4.5</v>
       </c>
       <c r="D166" s="20">
-        <v>456.75</v>
+        <v>290.25</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +4547,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="18">
-        <v>58</v>
+        <v>53.5</v>
       </c>
       <c r="C167" s="19">
         <v>4.28</v>
       </c>
       <c r="D167" s="20">
-        <v>248.24</v>
+        <v>228.98</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,13 +4561,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="18">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C168" s="19">
         <v>3.1</v>
       </c>
       <c r="D168" s="20">
-        <v>155</v>
+        <v>148.80000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,13 +4589,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="18">
-        <v>55</v>
+        <v>42.5</v>
       </c>
       <c r="C170" s="19">
         <v>4.5</v>
       </c>
       <c r="D170" s="20">
-        <v>247.5</v>
+        <v>191.25</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +4603,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="18">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C171" s="19">
         <v>4.5</v>
       </c>
       <c r="D171" s="20">
-        <v>216</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,13 +4617,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="18">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C172" s="19">
         <v>3.88</v>
       </c>
       <c r="D172" s="20">
-        <v>380.42</v>
+        <v>368.77</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,13 +4631,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C173" s="19">
         <v>3.88</v>
       </c>
       <c r="D173" s="20">
-        <v>291.14</v>
+        <v>221.26</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,13 +4645,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="18">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C174" s="19">
         <v>4.1500000000000004</v>
       </c>
       <c r="D174" s="20">
-        <v>319.55</v>
+        <v>302.95</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,13 +4659,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="18">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C175" s="19">
         <v>3</v>
       </c>
       <c r="D175" s="20">
-        <v>63</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,13 +4715,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C179" s="19">
         <v>4.5</v>
       </c>
       <c r="D179" s="20">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,13 +4751,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C182" s="19">
         <v>3.05</v>
       </c>
       <c r="D182" s="20">
-        <v>42.7</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,13 +4773,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="18">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="C184" s="19">
         <v>3.26</v>
       </c>
       <c r="D184" s="20">
-        <v>50.53</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,13 +4825,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>51.5</v>
+        <v>38.5</v>
       </c>
       <c r="C189" s="19">
         <v>3.8</v>
       </c>
       <c r="D189" s="20">
-        <v>195.7</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,13 +4839,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="18">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C190" s="19">
         <v>3.8</v>
       </c>
       <c r="D190" s="20">
-        <v>220.4</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,13 +4881,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C193" s="19">
         <v>4</v>
       </c>
       <c r="D193" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,13 +4895,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="18">
-        <v>33.5</v>
+        <v>28</v>
       </c>
       <c r="C194" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D194" s="20">
-        <v>137.35</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,13 +4909,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="18">
-        <v>65</v>
+        <v>35.5</v>
       </c>
       <c r="C195" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D195" s="20">
-        <v>266.5</v>
+        <v>145.55000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4926,13 +4923,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>67</v>
+        <v>55.5</v>
       </c>
       <c r="C196" s="19">
         <v>4.75</v>
       </c>
       <c r="D196" s="20">
-        <v>318.25</v>
+        <v>263.63</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,13 +4937,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>6.5</v>
+        <v>60.5</v>
       </c>
       <c r="C197" s="19">
         <v>4.75</v>
       </c>
       <c r="D197" s="20">
-        <v>30.88</v>
+        <v>287.38</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,13 +4951,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="18">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C198" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D198" s="20">
-        <v>180.4</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,13 +4965,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="18">
-        <v>58.5</v>
+        <v>39.5</v>
       </c>
       <c r="C199" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D199" s="20">
-        <v>257.39999999999998</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,13 +4993,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="18">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="C201" s="19">
         <v>4.28</v>
       </c>
       <c r="D201" s="20">
-        <v>113.42</v>
+        <v>104.86</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5010,13 +5007,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>49.5</v>
+        <v>35</v>
       </c>
       <c r="C202" s="19">
         <v>4.5</v>
       </c>
       <c r="D202" s="20">
-        <v>222.75</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,41 +5021,35 @@
         <v>205</v>
       </c>
       <c r="B203" s="18">
-        <v>45.5</v>
+        <v>43</v>
       </c>
       <c r="C203" s="19">
         <v>4.5</v>
       </c>
       <c r="D203" s="20">
-        <v>204.75</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="18">
-        <v>80</v>
-      </c>
-      <c r="C204" s="19">
-        <v>5.25</v>
-      </c>
-      <c r="D204" s="20">
-        <v>420</v>
-      </c>
+      <c r="B204" s="21"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="21"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C205" s="19">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="D205" s="20">
-        <v>283.2</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,13 +5057,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>8.5</v>
+        <v>47</v>
       </c>
       <c r="C206" s="19">
         <v>4.8</v>
       </c>
       <c r="D206" s="20">
-        <v>40.799999999999997</v>
+        <v>225.6</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5080,13 +5071,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>64</v>
+        <v>57.5</v>
       </c>
       <c r="C207" s="19">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D207" s="20">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5094,13 +5085,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="18">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
       <c r="C208" s="19">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="D208" s="20">
-        <v>111.63</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5108,13 +5099,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="18">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="C209" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="D209" s="20">
-        <v>9.8000000000000007</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,13 +5113,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C210" s="19">
-        <v>5.25</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D210" s="20">
-        <v>378</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,13 +5127,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C211" s="19">
         <v>5.25</v>
       </c>
       <c r="D211" s="20">
-        <v>346.5</v>
+        <v>330.75</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,13 +5141,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>32.5</v>
+        <v>64</v>
       </c>
       <c r="C212" s="19">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D212" s="20">
-        <v>154.38</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5164,13 +5155,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="18">
-        <v>96.5</v>
+        <v>61.5</v>
       </c>
       <c r="C213" s="19">
         <v>4.75</v>
       </c>
       <c r="D213" s="20">
-        <v>458.38</v>
+        <v>292.13</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,13 +5169,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="18">
-        <v>16</v>
+        <v>83.5</v>
       </c>
       <c r="C214" s="19">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="D214" s="20">
-        <v>84.8</v>
+        <v>396.63</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,13 +5183,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C215" s="19">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="D215" s="20">
-        <v>90</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,13 +5197,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="18">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C216" s="19">
         <v>6</v>
       </c>
       <c r="D216" s="20">
-        <v>306</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,49 +5211,49 @@
         <v>219</v>
       </c>
       <c r="B217" s="18">
-        <v>37.5</v>
+        <v>48.5</v>
       </c>
       <c r="C217" s="19">
         <v>6</v>
       </c>
       <c r="D217" s="20">
-        <v>225</v>
+        <v>291</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B218" s="21"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="21"/>
+      <c r="B218" s="18">
+        <v>1</v>
+      </c>
+      <c r="C218" s="19">
+        <v>6</v>
+      </c>
+      <c r="D218" s="20">
+        <v>6</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="18">
-        <v>41.5</v>
-      </c>
-      <c r="C219" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="D219" s="20">
-        <v>236.55</v>
-      </c>
+      <c r="B219" s="21"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="21"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>222</v>
       </c>
       <c r="B220" s="18">
-        <v>38.5</v>
+        <v>48</v>
       </c>
       <c r="C220" s="19">
-        <v>6.75</v>
+        <v>5.7</v>
       </c>
       <c r="D220" s="20">
-        <v>259.88</v>
+        <v>273.60000000000002</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,13 +5261,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>0.5</v>
+        <v>33.5</v>
       </c>
       <c r="C221" s="19">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="D221" s="20">
-        <v>3.38</v>
+        <v>226.13</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5284,13 +5275,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="18">
-        <v>56</v>
+        <v>0.5</v>
       </c>
       <c r="C222" s="19">
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="D222" s="20">
-        <v>378</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5298,13 +5289,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="18">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C223" s="19">
-        <v>5.92</v>
+        <v>6.75</v>
       </c>
       <c r="D223" s="20">
-        <v>159.72999999999999</v>
+        <v>276.75</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5312,13 +5303,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>27.5</v>
+        <v>0.5</v>
       </c>
       <c r="C224" s="19">
-        <v>4.26</v>
+        <v>5.92</v>
       </c>
       <c r="D224" s="20">
-        <v>117.04</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,13 +5317,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="18">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="C225" s="19">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="D225" s="20">
-        <v>30</v>
+        <v>110.66</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5340,13 +5331,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="18">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="C226" s="19">
         <v>4</v>
       </c>
       <c r="D226" s="20">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5354,13 +5345,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>103.5</v>
+        <v>3.5</v>
       </c>
       <c r="C227" s="19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D227" s="20">
-        <v>465.75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5368,13 +5359,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="18">
-        <v>20</v>
+        <v>97.5</v>
       </c>
       <c r="C228" s="19">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D228" s="20">
-        <v>130</v>
+        <v>438.75</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5382,13 +5373,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="18">
-        <v>28.5</v>
+        <v>20</v>
       </c>
       <c r="C229" s="19">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D229" s="20">
-        <v>142.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,13 +5387,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>40</v>
+        <v>28.5</v>
       </c>
       <c r="C230" s="19">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="D230" s="20">
-        <v>152</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5410,13 +5401,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C231" s="19">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="D231" s="20">
-        <v>73.5</v>
+        <v>117.8</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,13 +5415,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="18">
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="C232" s="19">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="D232" s="20">
-        <v>1.75</v>
+        <v>60.38</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5438,13 +5429,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C233" s="19">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="D233" s="20">
-        <v>199.75</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5452,49 +5443,49 @@
         <v>236</v>
       </c>
       <c r="B234" s="18">
-        <v>51</v>
+        <v>6.5</v>
       </c>
       <c r="C234" s="19">
         <v>4.25</v>
       </c>
       <c r="D234" s="20">
-        <v>216.75</v>
+        <v>27.63</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="21"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="21"/>
+      <c r="B235" s="18">
+        <v>35.5</v>
+      </c>
+      <c r="C235" s="19">
+        <v>4.25</v>
+      </c>
+      <c r="D235" s="20">
+        <v>150.88</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="18">
-        <v>28</v>
-      </c>
-      <c r="C236" s="19">
-        <v>4.18</v>
-      </c>
-      <c r="D236" s="20">
-        <v>117.04</v>
-      </c>
+      <c r="B236" s="21"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="21"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
         <v>239</v>
       </c>
       <c r="B237" s="18">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="C237" s="19">
         <v>4.18</v>
       </c>
       <c r="D237" s="20">
-        <v>85.69</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,13 +5493,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>84</v>
+        <v>12.5</v>
       </c>
       <c r="C238" s="19">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="D238" s="20">
-        <v>359.52</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5516,13 +5507,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="18">
-        <v>26.5</v>
+        <v>61.5</v>
       </c>
       <c r="C239" s="19">
         <v>4.28</v>
       </c>
       <c r="D239" s="20">
-        <v>113.42</v>
+        <v>263.22000000000003</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5530,13 +5521,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C240" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.28</v>
       </c>
       <c r="D240" s="20">
-        <v>184</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5544,13 +5535,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C241" s="19">
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D241" s="20">
-        <v>118.75</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5558,13 +5549,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C242" s="19">
-        <v>4.95</v>
+        <v>4.75</v>
       </c>
       <c r="D242" s="20">
-        <v>29.7</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,13 +5563,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="18">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C243" s="19">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="D243" s="20">
-        <v>156.75</v>
+        <v>202.95</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,22 +5577,28 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>43.5</v>
+        <v>25</v>
       </c>
       <c r="C244" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D244" s="20">
-        <v>217.5</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="21"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="21"/>
+      <c r="B245" s="18">
+        <v>40</v>
+      </c>
+      <c r="C245" s="19">
+        <v>5</v>
+      </c>
+      <c r="D245" s="20">
+        <v>200</v>
+      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
@@ -5615,28 +5612,22 @@
       <c r="A247" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="18">
-        <v>57.5</v>
-      </c>
-      <c r="C247" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D247" s="20">
-        <v>293.25</v>
-      </c>
+      <c r="B247" s="21"/>
+      <c r="C247" s="22"/>
+      <c r="D247" s="21"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
         <v>250</v>
       </c>
       <c r="B248" s="18">
-        <v>43.5</v>
+        <v>57.5</v>
       </c>
       <c r="C248" s="19">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D248" s="20">
-        <v>230.55</v>
+        <v>293.25</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,13 +5635,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="18">
-        <v>40</v>
+        <v>33.5</v>
       </c>
       <c r="C249" s="19">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="D249" s="20">
-        <v>216</v>
+        <v>177.55</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,13 +5649,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="C250" s="19">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D250" s="20">
-        <v>55</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,13 +5663,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>53.5</v>
+        <v>10</v>
       </c>
       <c r="C251" s="19">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="D251" s="20">
-        <v>296.93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5686,13 +5677,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="18">
-        <v>25.5</v>
+        <v>43.5</v>
       </c>
       <c r="C252" s="19">
-        <v>5.23</v>
+        <v>5.55</v>
       </c>
       <c r="D252" s="20">
-        <v>133.37</v>
+        <v>241.43</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,13 +5691,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="18">
-        <v>32</v>
+        <v>25.5</v>
       </c>
       <c r="C253" s="19">
         <v>5.23</v>
       </c>
       <c r="D253" s="20">
-        <v>167.36</v>
+        <v>133.37</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5714,49 +5705,49 @@
         <v>256</v>
       </c>
       <c r="B254" s="18">
-        <v>37.5</v>
+        <v>23</v>
       </c>
       <c r="C254" s="19">
-        <v>5.46</v>
+        <v>5.23</v>
       </c>
       <c r="D254" s="20">
-        <v>204.75</v>
+        <v>120.29</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B255" s="21"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="21"/>
+      <c r="B255" s="18">
+        <v>32.5</v>
+      </c>
+      <c r="C255" s="19">
+        <v>5.46</v>
+      </c>
+      <c r="D255" s="20">
+        <v>177.45</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="18">
-        <v>74.5</v>
-      </c>
-      <c r="C256" s="19">
-        <v>6.25</v>
-      </c>
-      <c r="D256" s="20">
-        <v>465.63</v>
-      </c>
+      <c r="B256" s="21"/>
+      <c r="C256" s="22"/>
+      <c r="D256" s="21"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C257" s="19">
-        <v>6.26</v>
+        <v>6.25</v>
       </c>
       <c r="D257" s="20">
-        <v>137.68</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5764,13 +5755,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="18">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C258" s="19">
-        <v>6.5</v>
+        <v>6.13</v>
       </c>
       <c r="D258" s="20">
-        <v>260</v>
+        <v>294.10000000000002</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5778,13 +5769,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="C259" s="19">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D259" s="20">
-        <v>105</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,13 +5783,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C260" s="19">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="D260" s="20">
-        <v>148.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5806,13 +5797,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="18">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C261" s="19">
         <v>5.94</v>
       </c>
       <c r="D261" s="20">
-        <v>445.5</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5820,13 +5811,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>47.5</v>
+        <v>31.5</v>
       </c>
       <c r="C262" s="19">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="D262" s="20">
-        <v>270.75</v>
+        <v>187.11</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5834,13 +5825,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="18">
-        <v>81</v>
+        <v>35.5</v>
       </c>
       <c r="C263" s="19">
-        <v>5.94</v>
+        <v>5.7</v>
       </c>
       <c r="D263" s="20">
-        <v>481.14</v>
+        <v>202.35</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5848,13 +5839,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="18">
-        <v>16.5</v>
+        <v>112.5</v>
       </c>
       <c r="C264" s="19">
         <v>5.94</v>
       </c>
       <c r="D264" s="20">
-        <v>98.01</v>
+        <v>668.25</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5862,85 +5853,85 @@
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="C265" s="19">
-        <v>7</v>
+        <v>5.94</v>
       </c>
       <c r="D265" s="20">
-        <v>35</v>
+        <v>86.13</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B266" s="21"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="21"/>
+      <c r="B266" s="18">
+        <v>38</v>
+      </c>
+      <c r="C266" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="D266" s="20">
+        <v>250.61</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B267" s="18">
-        <v>49</v>
-      </c>
-      <c r="C267" s="19">
-        <v>6.18</v>
-      </c>
-      <c r="D267" s="20">
-        <v>302.82</v>
-      </c>
+      <c r="B267" s="21"/>
+      <c r="C267" s="22"/>
+      <c r="D267" s="21"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
         <v>270</v>
       </c>
       <c r="B268" s="18">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C268" s="19">
         <v>6.18</v>
       </c>
       <c r="D268" s="20">
-        <v>105.06</v>
+        <v>302.82</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B269" s="21"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="21"/>
+      <c r="B269" s="18">
+        <v>24.5</v>
+      </c>
+      <c r="C269" s="19">
+        <v>6.18</v>
+      </c>
+      <c r="D269" s="20">
+        <v>151.41</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B270" s="18">
-        <v>102</v>
-      </c>
-      <c r="C270" s="19">
-        <v>6.18</v>
-      </c>
-      <c r="D270" s="20">
-        <v>630.36</v>
-      </c>
+      <c r="B270" s="21"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="21"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
         <v>273</v>
       </c>
       <c r="B271" s="18">
-        <v>24.5</v>
+        <v>96.5</v>
       </c>
       <c r="C271" s="19">
-        <v>6.65</v>
+        <v>6.18</v>
       </c>
       <c r="D271" s="20">
-        <v>162.93</v>
+        <v>596.37</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,13 +5939,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="18">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C272" s="19">
         <v>6.65</v>
       </c>
       <c r="D272" s="20">
-        <v>166.25</v>
+        <v>162.93</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,13 +5953,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C273" s="19">
-        <v>6.4</v>
+        <v>6.65</v>
       </c>
       <c r="D273" s="20">
-        <v>166.4</v>
+        <v>166.25</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,13 +5967,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="18">
-        <v>36.5</v>
+        <v>22.5</v>
       </c>
       <c r="C274" s="19">
-        <v>6.46</v>
+        <v>6.4</v>
       </c>
       <c r="D274" s="20">
-        <v>235.79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,85 +5981,85 @@
         <v>277</v>
       </c>
       <c r="B275" s="18">
-        <v>33.5</v>
+        <v>36.5</v>
       </c>
       <c r="C275" s="19">
-        <v>6.4</v>
+        <v>6.46</v>
       </c>
       <c r="D275" s="20">
-        <v>214.4</v>
+        <v>235.79</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B276" s="21"/>
-      <c r="C276" s="22"/>
-      <c r="D276" s="21"/>
+      <c r="B276" s="18">
+        <v>32.5</v>
+      </c>
+      <c r="C276" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="D276" s="20">
+        <v>208</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B277" s="18">
-        <v>66.5</v>
-      </c>
-      <c r="C277" s="19">
-        <v>6.65</v>
-      </c>
-      <c r="D277" s="20">
-        <v>442.23</v>
-      </c>
+      <c r="B277" s="21"/>
+      <c r="C277" s="22"/>
+      <c r="D277" s="21"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
         <v>280</v>
       </c>
       <c r="B278" s="18">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C278" s="19">
-        <v>6.18</v>
+        <v>6.65</v>
       </c>
       <c r="D278" s="20">
-        <v>383.16</v>
+        <v>325.85000000000002</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B279" s="21"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="21"/>
+      <c r="B279" s="18">
+        <v>41</v>
+      </c>
+      <c r="C279" s="19">
+        <v>6.18</v>
+      </c>
+      <c r="D279" s="20">
+        <v>253.38</v>
+      </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B280" s="18">
-        <v>20</v>
-      </c>
-      <c r="C280" s="19">
-        <v>7.31</v>
-      </c>
-      <c r="D280" s="20">
-        <v>146.18</v>
-      </c>
+      <c r="B280" s="21"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="21"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
         <v>283</v>
       </c>
       <c r="B281" s="18">
-        <v>40.5</v>
+        <v>25.5</v>
       </c>
       <c r="C281" s="19">
-        <v>7.13</v>
+        <v>7.18</v>
       </c>
       <c r="D281" s="20">
-        <v>288.77</v>
+        <v>183.03</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6076,13 +6067,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>93.5</v>
+        <v>25.5</v>
       </c>
       <c r="C282" s="19">
         <v>7.13</v>
       </c>
       <c r="D282" s="20">
-        <v>666.66</v>
+        <v>181.82</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,13 +6081,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="18">
-        <v>26.5</v>
+        <v>91.5</v>
       </c>
       <c r="C283" s="19">
         <v>7.13</v>
       </c>
       <c r="D283" s="20">
-        <v>188.95</v>
+        <v>652.4</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,85 +6095,85 @@
         <v>286</v>
       </c>
       <c r="B284" s="18">
-        <v>34.5</v>
+        <v>26.5</v>
       </c>
       <c r="C284" s="19">
-        <v>6.65</v>
+        <v>7.13</v>
       </c>
       <c r="D284" s="20">
-        <v>229.43</v>
+        <v>188.95</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B285" s="21"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="21"/>
+      <c r="B285" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="C285" s="19">
+        <v>6.65</v>
+      </c>
+      <c r="D285" s="20">
+        <v>196.18</v>
+      </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B286" s="18">
-        <v>47.5</v>
-      </c>
-      <c r="C286" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="D286" s="20">
-        <v>361</v>
-      </c>
+      <c r="B286" s="21"/>
+      <c r="C286" s="22"/>
+      <c r="D286" s="21"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
         <v>289</v>
       </c>
       <c r="B287" s="18">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="C287" s="19">
-        <v>7.36</v>
+        <v>7.6</v>
       </c>
       <c r="D287" s="20">
-        <v>136.16</v>
+        <v>311.60000000000002</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="B288" s="21"/>
-      <c r="C288" s="22"/>
-      <c r="D288" s="21"/>
+      <c r="B288" s="18">
+        <v>18.5</v>
+      </c>
+      <c r="C288" s="19">
+        <v>7.36</v>
+      </c>
+      <c r="D288" s="20">
+        <v>136.16</v>
+      </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B289" s="18">
-        <v>16</v>
-      </c>
-      <c r="C289" s="19">
-        <v>8</v>
-      </c>
-      <c r="D289" s="20">
-        <v>128</v>
-      </c>
+      <c r="B289" s="21"/>
+      <c r="C289" s="22"/>
+      <c r="D289" s="21"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="s">
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C290" s="19">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D290" s="20">
-        <v>288.8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,13 +6181,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="18">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="C291" s="19">
-        <v>8.08</v>
+        <v>7.6</v>
       </c>
       <c r="D291" s="20">
-        <v>246.44</v>
+        <v>228</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,49 +6195,49 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>33.5</v>
+        <v>23.5</v>
       </c>
       <c r="C292" s="19">
-        <v>8.75</v>
+        <v>8.08</v>
       </c>
       <c r="D292" s="20">
-        <v>293.13</v>
+        <v>189.88</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="B293" s="21"/>
-      <c r="C293" s="22"/>
-      <c r="D293" s="21"/>
+      <c r="B293" s="18">
+        <v>27.5</v>
+      </c>
+      <c r="C293" s="19">
+        <v>8.75</v>
+      </c>
+      <c r="D293" s="20">
+        <v>240.63</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B294" s="18">
-        <v>20</v>
-      </c>
-      <c r="C294" s="19">
-        <v>8.08</v>
-      </c>
-      <c r="D294" s="20">
-        <v>161.6</v>
-      </c>
+      <c r="B294" s="21"/>
+      <c r="C294" s="22"/>
+      <c r="D294" s="21"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B295" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295" s="19">
-        <v>9</v>
+        <v>8.08</v>
       </c>
       <c r="D295" s="20">
-        <v>90</v>
+        <v>72.72</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6254,13 +6245,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="18">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="C296" s="19">
-        <v>8.85</v>
+        <v>9</v>
       </c>
       <c r="D296" s="20">
-        <v>13.28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,13 +6259,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="18">
-        <v>33.5</v>
+        <v>1.5</v>
       </c>
       <c r="C297" s="19">
-        <v>8.9600000000000009</v>
+        <v>8.85</v>
       </c>
       <c r="D297" s="20">
-        <v>300.02</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,13 +6273,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="18">
-        <v>18</v>
+        <v>33.5</v>
       </c>
       <c r="C298" s="19">
-        <v>9.4600000000000009</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="D298" s="20">
-        <v>170.25</v>
+        <v>300.02</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6296,13 +6287,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="C299" s="19">
-        <v>9.25</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D299" s="20">
-        <v>203.5</v>
+        <v>156.06</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6310,13 +6301,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>29.7</v>
+        <v>26</v>
       </c>
       <c r="C300" s="19">
-        <v>8.8000000000000007</v>
+        <v>9.25</v>
       </c>
       <c r="D300" s="20">
-        <v>261.36</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,13 +6315,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="18">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="C301" s="19">
-        <v>9.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D301" s="20">
-        <v>51.15</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6338,13 +6329,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="18">
-        <v>18</v>
+        <v>35.5</v>
       </c>
       <c r="C302" s="19">
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D302" s="20">
-        <v>162</v>
+        <v>330.15</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6352,13 +6343,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="18">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C303" s="19">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D303" s="20">
-        <v>294.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6366,13 +6357,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="18">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="C304" s="19">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D304" s="20">
-        <v>275</v>
+        <v>280.25</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6380,13 +6371,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="18">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="C305" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D305" s="20">
-        <v>104.5</v>
+        <v>245</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6394,13 +6385,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="18">
-        <v>42.5</v>
+        <v>9.5</v>
       </c>
       <c r="C306" s="19">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="D306" s="20">
-        <v>393.13</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6408,13 +6399,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="C307" s="19">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="D307" s="20">
-        <v>352.5</v>
+        <v>152.63</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6422,13 +6413,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C308" s="19">
-        <v>4.8</v>
+        <v>11.75</v>
       </c>
       <c r="D308" s="20">
-        <v>163.19999999999999</v>
+        <v>340.75</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6436,13 +6427,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C309" s="19">
-        <v>8.25</v>
+        <v>4.8</v>
       </c>
       <c r="D309" s="20">
-        <v>181.5</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6450,13 +6441,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C310" s="19">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="D310" s="20">
-        <v>209</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6464,13 +6455,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>61</v>
+        <v>11.5</v>
       </c>
       <c r="C311" s="19">
-        <v>6.84</v>
+        <v>5.5</v>
       </c>
       <c r="D311" s="20">
-        <v>417.06</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6478,13 +6469,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>1.5</v>
+        <v>55</v>
       </c>
       <c r="C312" s="19">
-        <v>6.5</v>
+        <v>6.84</v>
       </c>
       <c r="D312" s="20">
-        <v>9.75</v>
+        <v>376.04</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,13 +6483,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>38</v>
+        <v>0.5</v>
       </c>
       <c r="C313" s="19">
-        <v>7.13</v>
+        <v>6.5</v>
       </c>
       <c r="D313" s="20">
-        <v>270.94</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6506,13 +6497,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>26.5</v>
+        <v>35</v>
       </c>
       <c r="C314" s="19">
-        <v>8.5</v>
+        <v>7.13</v>
       </c>
       <c r="D314" s="20">
-        <v>225.25</v>
+        <v>249.55</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6520,13 +6511,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="18">
-        <v>21</v>
+        <v>26.5</v>
       </c>
       <c r="C315" s="19">
         <v>8.5</v>
       </c>
       <c r="D315" s="20">
-        <v>178.5</v>
+        <v>225.25</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6534,13 +6525,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="18">
-        <v>38.5</v>
+        <v>30</v>
       </c>
       <c r="C316" s="19">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D316" s="20">
-        <v>365.75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6548,13 +6539,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="18">
-        <v>20.5</v>
+        <v>38.5</v>
       </c>
       <c r="C317" s="19">
-        <v>10.61</v>
+        <v>9.5</v>
       </c>
       <c r="D317" s="20">
-        <v>217.59</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6562,13 +6553,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="18">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="C318" s="19">
-        <v>7.84</v>
+        <v>10.61</v>
       </c>
       <c r="D318" s="20">
-        <v>137.19999999999999</v>
+        <v>217.59</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6576,13 +6567,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="18">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="C319" s="19">
-        <v>6.9</v>
+        <v>7.84</v>
       </c>
       <c r="D319" s="20">
-        <v>113.85</v>
+        <v>121.52</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6590,71 +6581,71 @@
         <v>322</v>
       </c>
       <c r="B320" s="18">
-        <v>25.5</v>
+        <v>14.5</v>
       </c>
       <c r="C320" s="19">
-        <v>7.83</v>
+        <v>6.9</v>
       </c>
       <c r="D320" s="20">
-        <v>199.54</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B321" s="21"/>
-      <c r="C321" s="22"/>
-      <c r="D321" s="21"/>
+      <c r="B321" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="C321" s="19">
+        <v>7.82</v>
+      </c>
+      <c r="D321" s="20">
+        <v>176.06</v>
+      </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B322" s="18">
-        <v>44.5</v>
-      </c>
-      <c r="C322" s="19">
-        <v>6.51</v>
-      </c>
-      <c r="D322" s="20">
-        <v>289.70999999999998</v>
-      </c>
+      <c r="B322" s="21"/>
+      <c r="C322" s="22"/>
+      <c r="D322" s="21"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B323" s="21"/>
-      <c r="C323" s="22"/>
-      <c r="D323" s="21"/>
+      <c r="B323" s="18">
+        <v>37.5</v>
+      </c>
+      <c r="C323" s="19">
+        <v>6.51</v>
+      </c>
+      <c r="D323" s="20">
+        <v>244.14</v>
+      </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B324" s="18">
-        <v>48.5</v>
-      </c>
-      <c r="C324" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D324" s="20">
-        <v>237.65</v>
-      </c>
+      <c r="B324" s="21"/>
+      <c r="C324" s="22"/>
+      <c r="D324" s="21"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="s">
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="C325" s="19">
-        <v>6.65</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D325" s="20">
-        <v>172.9</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6662,13 +6653,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="C326" s="19">
-        <v>7.36</v>
+        <v>6.65</v>
       </c>
       <c r="D326" s="20">
-        <v>154.56</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6676,13 +6667,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="C327" s="19">
-        <v>7.6</v>
+        <v>7.36</v>
       </c>
       <c r="D327" s="20">
-        <v>68.400000000000006</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,13 +6681,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>36.5</v>
+        <v>17.5</v>
       </c>
       <c r="C328" s="19">
-        <v>8.75</v>
+        <v>7.67</v>
       </c>
       <c r="D328" s="20">
-        <v>319.54000000000002</v>
+        <v>134.19</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6704,13 +6695,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="18">
-        <v>82.5</v>
+        <v>31.5</v>
       </c>
       <c r="C329" s="19">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="D329" s="20">
-        <v>536.25</v>
+        <v>275.76</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,13 +6709,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="18">
-        <v>17.5</v>
+        <v>69.5</v>
       </c>
       <c r="C330" s="19">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="D330" s="20">
-        <v>297.5</v>
+        <v>451.75</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6732,13 +6723,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="18">
-        <v>24.5</v>
+        <v>13</v>
       </c>
       <c r="C331" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D331" s="20">
-        <v>392</v>
+        <v>221</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,13 +6737,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="C332" s="19">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="D332" s="20">
-        <v>75</v>
+        <v>280</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,13 +6751,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C333" s="19">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="D333" s="20">
-        <v>208.25</v>
+        <v>225</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,13 +6765,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="18">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="C334" s="19">
-        <v>16.25</v>
+        <v>12.25</v>
       </c>
       <c r="D334" s="20">
-        <v>219.38</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,13 +6779,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="18">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="C335" s="19">
-        <v>11</v>
+        <v>16.25</v>
       </c>
       <c r="D335" s="20">
-        <v>143</v>
+        <v>105.63</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6802,13 +6793,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="C336" s="19">
         <v>11</v>
       </c>
-      <c r="C336" s="19">
-        <v>18</v>
-      </c>
       <c r="D336" s="20">
-        <v>198</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,13 +6807,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="18">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="C337" s="19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D337" s="20">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,13 +6821,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="18">
-        <v>4.5</v>
+        <v>25</v>
       </c>
       <c r="C338" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D338" s="20">
-        <v>49.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,13 +6835,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C339" s="19">
         <v>11</v>
       </c>
       <c r="D339" s="20">
-        <v>209</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,13 +6849,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="18">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="C340" s="19">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D340" s="20">
-        <v>448.5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,13 +6863,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="18">
-        <v>12.99</v>
+        <v>11</v>
       </c>
       <c r="C341" s="19">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D341" s="20">
-        <v>155.88</v>
+        <v>429</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6886,13 +6877,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="18">
-        <v>16</v>
+        <v>-1.51</v>
       </c>
       <c r="C342" s="19">
         <v>12</v>
       </c>
       <c r="D342" s="20">
-        <v>192</v>
+        <v>-18.12</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,13 +6891,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="18">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="C343" s="19">
-        <v>7.84</v>
+        <v>12</v>
       </c>
       <c r="D343" s="20">
-        <v>125.44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6914,13 +6905,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C344" s="19">
-        <v>11</v>
+        <v>7.84</v>
       </c>
       <c r="D344" s="20">
-        <v>88</v>
+        <v>74.48</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6928,13 +6919,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C345" s="19">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="D345" s="20">
-        <v>329</v>
+        <v>66</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6942,13 +6933,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C346" s="19">
-        <v>14.79</v>
+        <v>23.5</v>
       </c>
       <c r="D346" s="20">
-        <v>325.32</v>
+        <v>329</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,13 +6947,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="18">
-        <v>4.5</v>
+        <v>22</v>
       </c>
       <c r="C347" s="19">
-        <v>13.5</v>
+        <v>14.79</v>
       </c>
       <c r="D347" s="20">
-        <v>60.75</v>
+        <v>325.32</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,13 +6961,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="18">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C348" s="19">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="D348" s="20">
-        <v>68.25</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,13 +6975,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="18">
-        <v>23.5</v>
+        <v>6.5</v>
       </c>
       <c r="C349" s="19">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D349" s="20">
-        <v>235</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,13 +6989,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="18">
-        <v>28.5</v>
+        <v>21.23</v>
       </c>
       <c r="C350" s="19">
         <v>10</v>
       </c>
       <c r="D350" s="20">
-        <v>285</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,13 +7003,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>18.5</v>
+        <v>26.5</v>
       </c>
       <c r="C351" s="19">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D351" s="20">
-        <v>194.25</v>
+        <v>265</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7026,13 +7017,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="18">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="C352" s="19">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="D352" s="20">
-        <v>263.25</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7040,13 +7031,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="18">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="C353" s="19">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="D353" s="20">
-        <v>333</v>
+        <v>216</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7054,13 +7045,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="18">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="C354" s="19">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="D354" s="20">
-        <v>183.75</v>
+        <v>333</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,13 +7059,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="C355" s="19">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D355" s="20">
-        <v>237.5</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,13 +7073,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="C356" s="19">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="D356" s="20">
-        <v>82.5</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7096,13 +7087,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>19.5</v>
+        <v>0.5</v>
       </c>
       <c r="C357" s="19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D357" s="20">
-        <v>195</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7110,13 +7101,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C358" s="19">
         <v>10</v>
       </c>
       <c r="D358" s="20">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7127,10 +7118,10 @@
         <v>15</v>
       </c>
       <c r="C359" s="19">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D359" s="20">
-        <v>255</v>
+        <v>150</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7138,13 +7129,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="C360" s="19">
-        <v>7.84</v>
+        <v>17</v>
       </c>
       <c r="D360" s="20">
-        <v>282.24</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,13 +7143,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="18">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="C361" s="19">
-        <v>25</v>
+        <v>7.84</v>
       </c>
       <c r="D361" s="20">
-        <v>412.5</v>
+        <v>282.24</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7166,13 +7157,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="18">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="C362" s="19">
-        <v>14.2</v>
+        <v>25</v>
       </c>
       <c r="D362" s="20">
-        <v>49.7</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7180,13 +7171,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="C363" s="19">
-        <v>10.93</v>
+        <v>14.2</v>
       </c>
       <c r="D363" s="20">
-        <v>437.2</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,13 +7185,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="C364" s="19">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="D364" s="20">
-        <v>188.1</v>
+        <v>437.2</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7208,13 +7199,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="C365" s="19">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="D365" s="20">
-        <v>231.25</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7222,13 +7213,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="18">
-        <v>5</v>
+        <v>18.5</v>
       </c>
       <c r="C366" s="19">
-        <v>21.5</v>
+        <v>12.5</v>
       </c>
       <c r="D366" s="20">
-        <v>107.5</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,13 +7227,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="18">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="C367" s="19">
-        <v>12.75</v>
+        <v>21.5</v>
       </c>
       <c r="D367" s="20">
-        <v>172.13</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7250,13 +7241,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="18">
-        <v>0.5</v>
+        <v>13.5</v>
       </c>
       <c r="C368" s="19">
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="D368" s="20">
-        <v>5.75</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7264,13 +7255,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="C369" s="19">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="D369" s="20">
-        <v>93.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7278,13 +7269,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="18">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="C370" s="19">
-        <v>11.4</v>
+        <v>17</v>
       </c>
       <c r="D370" s="20">
-        <v>68.400000000000006</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,13 +7283,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="C371" s="19">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="D371" s="20">
-        <v>195.75</v>
+        <v>216.6</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,13 +7297,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="18">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="C372" s="19">
-        <v>22.5</v>
+        <v>14.5</v>
       </c>
       <c r="D372" s="20">
-        <v>202.5</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7320,13 +7311,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C373" s="19">
-        <v>12.5</v>
+        <v>22.5</v>
       </c>
       <c r="D373" s="20">
-        <v>162.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7334,13 +7325,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="18">
-        <v>23.5</v>
+        <v>13</v>
       </c>
       <c r="C374" s="19">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="D374" s="20">
-        <v>223.25</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7348,13 +7339,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C375" s="19">
-        <v>10.93</v>
+        <v>9.5</v>
       </c>
       <c r="D375" s="20">
-        <v>732.31</v>
+        <v>209</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7362,13 +7353,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>12</v>
+        <v>61.5</v>
       </c>
       <c r="C376" s="19">
         <v>10.93</v>
       </c>
       <c r="D376" s="20">
-        <v>131.16</v>
+        <v>672.2</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7376,13 +7367,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="18">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="C377" s="19">
-        <v>14.75</v>
+        <v>10.93</v>
       </c>
       <c r="D377" s="20">
-        <v>184.38</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,13 +7381,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>14.5</v>
+        <v>4.5</v>
       </c>
       <c r="C378" s="19">
-        <v>10</v>
+        <v>14.75</v>
       </c>
       <c r="D378" s="20">
-        <v>145</v>
+        <v>66.38</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,13 +7395,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="C379" s="19">
-        <v>10.45</v>
+        <v>10</v>
       </c>
       <c r="D379" s="20">
-        <v>177.65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7418,13 +7409,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="18">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="C380" s="19">
         <v>10.45</v>
       </c>
       <c r="D380" s="20">
-        <v>78.38</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,13 +7423,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="18">
-        <v>51.5</v>
+        <v>7.5</v>
       </c>
       <c r="C381" s="19">
-        <v>2</v>
+        <v>10.45</v>
       </c>
       <c r="D381" s="20">
-        <v>103</v>
+        <v>78.38</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7446,13 +7437,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C382" s="19">
         <v>2</v>
       </c>
       <c r="D382" s="20">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,44 +7451,50 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>57.5</v>
+        <v>44.5</v>
       </c>
       <c r="C383" s="19">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D383" s="20">
-        <v>120.75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B384" s="21"/>
-      <c r="C384" s="22"/>
-      <c r="D384" s="21"/>
+      <c r="B384" s="18">
+        <v>57.5</v>
+      </c>
+      <c r="C384" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="D384" s="20">
+        <v>120.75</v>
+      </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B385" s="18">
-        <v>69</v>
-      </c>
-      <c r="C385" s="19">
-        <v>2</v>
-      </c>
-      <c r="D385" s="20">
-        <v>138</v>
-      </c>
+      <c r="B385" s="21"/>
+      <c r="C385" s="22"/>
+      <c r="D385" s="21"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B386" s="21"/>
-      <c r="C386" s="22"/>
-      <c r="D386" s="21"/>
+      <c r="B386" s="18">
+        <v>62</v>
+      </c>
+      <c r="C386" s="19">
+        <v>2</v>
+      </c>
+      <c r="D386" s="20">
+        <v>124</v>
+      </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="s">
@@ -7511,28 +7508,22 @@
       <c r="A388" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="B388" s="18">
-        <v>19</v>
-      </c>
-      <c r="C388" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D388" s="20">
-        <v>47.5</v>
-      </c>
+      <c r="B388" s="21"/>
+      <c r="C388" s="22"/>
+      <c r="D388" s="21"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
         <v>391</v>
       </c>
       <c r="B389" s="18">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C389" s="19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D389" s="20">
-        <v>155.25</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7540,13 +7531,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="18">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C390" s="19">
         <v>2.25</v>
       </c>
       <c r="D390" s="20">
-        <v>168.75</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,13 +7545,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="18">
-        <v>31.5</v>
+        <v>72</v>
       </c>
       <c r="C391" s="19">
         <v>2.25</v>
       </c>
       <c r="D391" s="20">
-        <v>70.88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7568,13 +7559,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="18">
-        <v>28</v>
+        <v>31.5</v>
       </c>
       <c r="C392" s="19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="D392" s="20">
-        <v>70</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7582,13 +7573,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="18">
-        <v>55.5</v>
+        <v>23</v>
       </c>
       <c r="C393" s="19">
         <v>2.5</v>
       </c>
       <c r="D393" s="20">
-        <v>138.75</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7596,13 +7587,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="18">
-        <v>25.5</v>
+        <v>50</v>
       </c>
       <c r="C394" s="19">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D394" s="20">
-        <v>68.849999999999994</v>
+        <v>125</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7610,13 +7601,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="18">
-        <v>28</v>
+        <v>21.5</v>
       </c>
       <c r="C395" s="19">
         <v>2.7</v>
       </c>
       <c r="D395" s="20">
-        <v>75.599999999999994</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7624,13 +7615,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="18">
-        <v>57.5</v>
+        <v>10.5</v>
       </c>
       <c r="C396" s="19">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D396" s="20">
-        <v>149.5</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7638,13 +7629,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="18">
-        <v>78</v>
+        <v>57.5</v>
       </c>
       <c r="C397" s="19">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="D397" s="20">
-        <v>214.5</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7652,13 +7643,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>93.5</v>
+        <v>78</v>
       </c>
       <c r="C398" s="19">
         <v>2.75</v>
       </c>
       <c r="D398" s="20">
-        <v>257.13</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7666,13 +7657,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>45</v>
+        <v>64.5</v>
       </c>
       <c r="C399" s="19">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="D399" s="20">
-        <v>171</v>
+        <v>177.38</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7683,10 +7674,10 @@
         <v>45</v>
       </c>
       <c r="C400" s="19">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D400" s="20">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7694,49 +7685,49 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C401" s="19">
         <v>2.8</v>
       </c>
       <c r="D401" s="20">
-        <v>156.80000000000001</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="22"/>
-      <c r="D402" s="21"/>
+      <c r="B402" s="18">
+        <v>48.5</v>
+      </c>
+      <c r="C402" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="D402" s="20">
+        <v>135.80000000000001</v>
+      </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="B403" s="18">
-        <v>103</v>
-      </c>
-      <c r="C403" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="D403" s="20">
-        <v>288.39999999999998</v>
-      </c>
+      <c r="B403" s="21"/>
+      <c r="C403" s="22"/>
+      <c r="D403" s="21"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="17" t="s">
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C404" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D404" s="20">
-        <v>194.7</v>
+        <v>274.39999999999998</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7744,13 +7735,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C405" s="19">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="D405" s="20">
-        <v>105.4</v>
+        <v>179.95</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7758,13 +7749,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>31.5</v>
+        <v>34</v>
       </c>
       <c r="C406" s="19">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="D406" s="20">
-        <v>89.78</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7772,13 +7763,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="18">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="C407" s="19">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="D407" s="20">
-        <v>96.17</v>
+        <v>88.35</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7786,13 +7777,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="18">
-        <v>54.5</v>
+        <v>29.5</v>
       </c>
       <c r="C408" s="19">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="D408" s="20">
-        <v>179.85</v>
+        <v>96.17</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7800,13 +7791,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="C409" s="19">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="D409" s="20">
-        <v>170.1</v>
+        <v>179.85</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7814,13 +7805,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="18">
-        <v>22.5</v>
+        <v>48</v>
       </c>
       <c r="C410" s="19">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="D410" s="20">
-        <v>68.63</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7828,13 +7819,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="18">
-        <v>31</v>
+        <v>21.5</v>
       </c>
       <c r="C411" s="19">
         <v>3.05</v>
       </c>
       <c r="D411" s="20">
-        <v>94.55</v>
+        <v>65.58</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7842,13 +7833,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C412" s="19">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="D412" s="20">
-        <v>87.75</v>
+        <v>94.55</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,36 +7847,36 @@
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C413" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D413" s="20">
-        <v>49</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="B414" s="21"/>
-      <c r="C414" s="22"/>
-      <c r="D414" s="21"/>
+      <c r="B414" s="18">
+        <v>14</v>
+      </c>
+      <c r="C414" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D414" s="20">
+        <v>49</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B415" s="18">
-        <v>44</v>
-      </c>
-      <c r="C415" s="19">
-        <v>3.25</v>
-      </c>
-      <c r="D415" s="20">
-        <v>143</v>
-      </c>
+      <c r="B415" s="21"/>
+      <c r="C415" s="22"/>
+      <c r="D415" s="21"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="17" t="s">
@@ -7895,10 +7886,10 @@
         <v>44</v>
       </c>
       <c r="C416" s="19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="D416" s="20">
-        <v>149.6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7906,13 +7897,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>17.86</v>
+        <v>43.5</v>
       </c>
       <c r="C417" s="19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D417" s="20">
-        <v>62.51</v>
+        <v>147.9</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7920,13 +7911,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>29</v>
+        <v>28.36</v>
       </c>
       <c r="C418" s="19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D418" s="20">
-        <v>110.2</v>
+        <v>99.26</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,13 +7925,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C419" s="19">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D419" s="20">
-        <v>109.2</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -7948,13 +7939,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C420" s="19">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="D420" s="20">
-        <v>86.58</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -7962,22 +7953,28 @@
         <v>423</v>
       </c>
       <c r="B421" s="18">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C421" s="19">
         <v>3.33</v>
       </c>
       <c r="D421" s="20">
-        <v>193.14</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="B422" s="21"/>
-      <c r="C422" s="22"/>
-      <c r="D422" s="21"/>
+      <c r="B422" s="18">
+        <v>58</v>
+      </c>
+      <c r="C422" s="19">
+        <v>3.33</v>
+      </c>
+      <c r="D422" s="20">
+        <v>193.14</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="s">
@@ -7991,28 +7988,22 @@
       <c r="A424" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B424" s="18">
-        <v>53</v>
-      </c>
-      <c r="C424" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D424" s="20">
-        <v>201.4</v>
-      </c>
+      <c r="B424" s="21"/>
+      <c r="C424" s="22"/>
+      <c r="D424" s="21"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="17" t="s">
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C425" s="19">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="D425" s="20">
-        <v>238</v>
+        <v>201.4</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8020,13 +8011,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C426" s="19">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="D426" s="20">
-        <v>136.80000000000001</v>
+        <v>199.75</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8034,13 +8025,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C427" s="19">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D427" s="20">
-        <v>151.62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,13 +8039,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C428" s="19">
-        <v>4.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D428" s="20">
-        <v>80.75</v>
+        <v>118.84</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8062,13 +8053,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C429" s="19">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="D429" s="20">
-        <v>85.5</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,13 +8067,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="18">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C430" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="D430" s="20">
-        <v>132.30000000000001</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8090,13 +8081,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C431" s="19">
-        <v>4.28</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D431" s="20">
-        <v>128.4</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8107,10 +8098,10 @@
         <v>30</v>
       </c>
       <c r="C432" s="19">
-        <v>4.18</v>
+        <v>4.28</v>
       </c>
       <c r="D432" s="20">
-        <v>125.4</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8118,13 +8109,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>42.5</v>
+        <v>30</v>
       </c>
       <c r="C433" s="19">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="D433" s="20">
-        <v>181.9</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8132,13 +8123,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="C434" s="19">
-        <v>4.75</v>
+        <v>4.28</v>
       </c>
       <c r="D434" s="20">
-        <v>78.38</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8146,13 +8137,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C435" s="19">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="D435" s="20">
-        <v>62.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8160,13 +8151,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C436" s="19">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="D436" s="20">
-        <v>175.75</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8174,13 +8165,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C437" s="19">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="D437" s="20">
-        <v>89.25</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8188,13 +8179,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C438" s="19">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D438" s="20">
-        <v>94.5</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8205,10 +8196,10 @@
         <v>18</v>
       </c>
       <c r="C439" s="19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D439" s="20">
-        <v>94.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8216,13 +8207,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="18">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C440" s="19">
-        <v>4.5999999999999996</v>
+        <v>5.25</v>
       </c>
       <c r="D440" s="20">
-        <v>133.4</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,13 +8221,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>82.5</v>
+        <v>29</v>
       </c>
       <c r="C441" s="19">
-        <v>5.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D441" s="20">
-        <v>453.75</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8244,13 +8235,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>35.5</v>
+        <v>62</v>
       </c>
       <c r="C442" s="19">
         <v>5.5</v>
       </c>
       <c r="D442" s="20">
-        <v>195.25</v>
+        <v>341</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8258,13 +8249,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="18">
-        <v>29.5</v>
+        <v>35.5</v>
       </c>
       <c r="C443" s="19">
-        <v>5.23</v>
+        <v>5.5</v>
       </c>
       <c r="D443" s="20">
-        <v>154.29</v>
+        <v>195.25</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8272,71 +8263,71 @@
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>10.5</v>
+        <v>29.5</v>
       </c>
       <c r="C444" s="19">
-        <v>6.25</v>
+        <v>5.23</v>
       </c>
       <c r="D444" s="20">
-        <v>65.63</v>
+        <v>154.29</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="B445" s="21"/>
-      <c r="C445" s="22"/>
-      <c r="D445" s="21"/>
+      <c r="B445" s="18">
+        <v>10.5</v>
+      </c>
+      <c r="C445" s="19">
+        <v>6.25</v>
+      </c>
+      <c r="D445" s="20">
+        <v>65.63</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="B446" s="18">
-        <v>56</v>
-      </c>
-      <c r="C446" s="19">
-        <v>6</v>
-      </c>
-      <c r="D446" s="20">
-        <v>336</v>
-      </c>
+      <c r="B446" s="21"/>
+      <c r="C446" s="22"/>
+      <c r="D446" s="21"/>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B447" s="21"/>
-      <c r="C447" s="22"/>
-      <c r="D447" s="21"/>
+      <c r="B447" s="18">
+        <v>51</v>
+      </c>
+      <c r="C447" s="19">
+        <v>6</v>
+      </c>
+      <c r="D447" s="20">
+        <v>306</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B448" s="18">
-        <v>23.5</v>
-      </c>
-      <c r="C448" s="19">
-        <v>5.94</v>
-      </c>
-      <c r="D448" s="20">
-        <v>139.59</v>
-      </c>
+      <c r="B448" s="21"/>
+      <c r="C448" s="22"/>
+      <c r="D448" s="21"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="C449" s="19">
-        <v>6.75</v>
+        <v>5.94</v>
       </c>
       <c r="D449" s="20">
-        <v>141.75</v>
+        <v>139.59</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8344,13 +8335,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C450" s="19">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="D450" s="20">
-        <v>240</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,13 +8349,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C451" s="19">
-        <v>7.13</v>
+        <v>7.5</v>
       </c>
       <c r="D451" s="20">
-        <v>570.4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8372,13 +8363,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>25</v>
+        <v>70.5</v>
       </c>
       <c r="C452" s="19">
-        <v>8</v>
+        <v>7.13</v>
       </c>
       <c r="D452" s="20">
-        <v>200</v>
+        <v>502.67</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8386,13 +8377,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C453" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D453" s="20">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8400,13 +8391,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>45.5</v>
+        <v>27</v>
       </c>
       <c r="C454" s="19">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="D454" s="20">
-        <v>345.8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8414,13 +8405,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C455" s="19">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="D455" s="20">
-        <v>365.5</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8428,13 +8419,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>17.5</v>
+        <v>43</v>
       </c>
       <c r="C456" s="19">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D456" s="20">
-        <v>131.25</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8445,46 +8436,46 @@
         <v>14.5</v>
       </c>
       <c r="C457" s="19">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="D457" s="20">
-        <v>119.63</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="B458" s="21"/>
-      <c r="C458" s="22"/>
-      <c r="D458" s="21"/>
+      <c r="B458" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="C458" s="19">
+        <v>8.25</v>
+      </c>
+      <c r="D458" s="20">
+        <v>119.63</v>
+      </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="B459" s="18">
-        <v>16</v>
-      </c>
-      <c r="C459" s="19">
-        <v>9</v>
-      </c>
-      <c r="D459" s="20">
-        <v>144</v>
-      </c>
+      <c r="B459" s="21"/>
+      <c r="C459" s="22"/>
+      <c r="D459" s="21"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>20.5</v>
+        <v>13.5</v>
       </c>
       <c r="C460" s="19">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="D460" s="20">
-        <v>76.88</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8492,13 +8483,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C461" s="19">
-        <v>4.28</v>
+        <v>3.75</v>
       </c>
       <c r="D461" s="20">
-        <v>136.96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,13 +8497,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C462" s="19">
-        <v>9.5</v>
+        <v>4.28</v>
       </c>
       <c r="D462" s="20">
-        <v>361</v>
+        <v>136.96</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8520,13 +8511,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>44</v>
+        <v>20.5</v>
       </c>
       <c r="C463" s="19">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="D463" s="20">
-        <v>198</v>
+        <v>194.75</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8534,13 +8525,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C464" s="19">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D464" s="20">
-        <v>140</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8548,13 +8539,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>9.5</v>
+        <v>50</v>
       </c>
       <c r="C465" s="19">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="D465" s="20">
-        <v>54.15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8562,13 +8553,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>34</v>
+        <v>69.5</v>
       </c>
       <c r="C466" s="19">
-        <v>1.92</v>
+        <v>5.7</v>
       </c>
       <c r="D466" s="20">
-        <v>65.23</v>
+        <v>396.15</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8576,13 +8567,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C467" s="19">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D467" s="20">
-        <v>172.9</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8590,13 +8581,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>250.5</v>
+        <v>91</v>
       </c>
       <c r="C468" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D468" s="20">
-        <v>275.55</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8604,13 +8595,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C469" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D469" s="20">
-        <v>205.7</v>
+        <v>179.3</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8618,13 +8609,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C470" s="19">
-        <v>4.1500000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D470" s="20">
-        <v>240.7</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8632,13 +8623,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C471" s="19">
-        <v>1.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D471" s="20">
-        <v>128.80000000000001</v>
+        <v>240.7</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8646,13 +8637,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>162.5</v>
+        <v>41</v>
       </c>
       <c r="C472" s="19">
         <v>1.4</v>
       </c>
       <c r="D472" s="20">
-        <v>227.5</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8660,13 +8651,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>67</v>
+        <v>145.5</v>
       </c>
       <c r="C473" s="19">
         <v>1.4</v>
       </c>
       <c r="D473" s="20">
-        <v>93.8</v>
+        <v>203.7</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8674,13 +8665,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C474" s="19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D474" s="20">
-        <v>72</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8688,13 +8679,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>197</v>
+        <v>22.5</v>
       </c>
       <c r="C475" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D475" s="20">
-        <v>295.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8702,13 +8693,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C476" s="19">
         <v>1.5</v>
       </c>
       <c r="D476" s="20">
-        <v>301.5</v>
+        <v>279</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8716,13 +8707,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>232.5</v>
+        <v>164.5</v>
       </c>
       <c r="C477" s="19">
         <v>1.5</v>
       </c>
       <c r="D477" s="20">
-        <v>348.75</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8730,13 +8721,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>58</v>
+        <v>219.5</v>
       </c>
       <c r="C478" s="19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="D478" s="20">
-        <v>99.18</v>
+        <v>329.25</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8744,13 +8735,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="C479" s="19">
-        <v>0.39</v>
+        <v>1.71</v>
       </c>
       <c r="D479" s="20">
-        <v>67.77</v>
+        <v>90.63</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8758,13 +8749,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C480" s="19">
-        <v>2.2799999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="D480" s="20">
-        <v>88.92</v>
+        <v>66.209999999999994</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8772,13 +8763,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>73.5</v>
+        <v>8</v>
       </c>
       <c r="C481" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D481" s="20">
-        <v>167.58</v>
+        <v>18.239999999999998</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8786,49 +8777,49 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C482" s="19">
-        <v>2.4700000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D482" s="20">
-        <v>158.08000000000001</v>
+        <v>84.36</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="B483" s="21"/>
-      <c r="C483" s="22"/>
-      <c r="D483" s="21"/>
+      <c r="B483" s="18">
+        <v>52</v>
+      </c>
+      <c r="C483" s="19">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D483" s="20">
+        <v>128.44</v>
+      </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="B484" s="18">
-        <v>27.5</v>
-      </c>
-      <c r="C484" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="D484" s="20">
-        <v>75.63</v>
-      </c>
+      <c r="B484" s="21"/>
+      <c r="C484" s="22"/>
+      <c r="D484" s="21"/>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C485" s="19">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="D485" s="20">
-        <v>280.12</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8836,13 +8827,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>88.5</v>
+        <v>99</v>
       </c>
       <c r="C486" s="19">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="D486" s="20">
-        <v>247.8</v>
+        <v>269.24</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8850,13 +8841,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>48.5</v>
+        <v>72.5</v>
       </c>
       <c r="C487" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D487" s="20">
-        <v>143.08000000000001</v>
+        <v>203</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8864,13 +8855,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>43</v>
+        <v>48.5</v>
       </c>
       <c r="C488" s="19">
         <v>2.95</v>
       </c>
       <c r="D488" s="20">
-        <v>126.85</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8878,13 +8869,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C489" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D489" s="20">
-        <v>105</v>
+        <v>120.95</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8906,13 +8897,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C491" s="19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D491" s="20">
-        <v>60.8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8920,49 +8911,49 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C492" s="19">
         <v>3.2</v>
       </c>
       <c r="D492" s="20">
-        <v>57.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="B493" s="21"/>
-      <c r="C493" s="22"/>
-      <c r="D493" s="21"/>
+      <c r="B493" s="18">
+        <v>7</v>
+      </c>
+      <c r="C493" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="D493" s="20">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B494" s="18">
-        <v>59.5</v>
-      </c>
-      <c r="C494" s="19">
-        <v>2.85</v>
-      </c>
-      <c r="D494" s="20">
-        <v>169.58</v>
-      </c>
+      <c r="B494" s="21"/>
+      <c r="C494" s="22"/>
+      <c r="D494" s="21"/>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C495" s="19">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="D495" s="20">
-        <v>97.5</v>
+        <v>145.35</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -8970,22 +8961,28 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C496" s="19">
         <v>3.25</v>
       </c>
       <c r="D496" s="20">
-        <v>113.75</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="B497" s="21"/>
-      <c r="C497" s="22"/>
-      <c r="D497" s="21"/>
+      <c r="B497" s="18">
+        <v>33.5</v>
+      </c>
+      <c r="C497" s="19">
+        <v>3.25</v>
+      </c>
+      <c r="D497" s="20">
+        <v>108.88</v>
+      </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
@@ -8999,28 +8996,22 @@
       <c r="A499" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="B499" s="18">
-        <v>44</v>
-      </c>
-      <c r="C499" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D499" s="20">
-        <v>154</v>
-      </c>
+      <c r="B499" s="21"/>
+      <c r="C499" s="22"/>
+      <c r="D499" s="21"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C500" s="19">
         <v>3.5</v>
       </c>
       <c r="D500" s="20">
-        <v>154</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9028,49 +9019,49 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>52.5</v>
+        <v>42</v>
       </c>
       <c r="C501" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D501" s="20">
-        <v>174.83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="B502" s="21"/>
-      <c r="C502" s="22"/>
-      <c r="D502" s="21"/>
+      <c r="B502" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="C502" s="19">
+        <v>3.33</v>
+      </c>
+      <c r="D502" s="20">
+        <v>54.95</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="B503" s="18">
-        <v>68.5</v>
-      </c>
-      <c r="C503" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D503" s="20">
-        <v>260.3</v>
-      </c>
+      <c r="B503" s="21"/>
+      <c r="C503" s="22"/>
+      <c r="D503" s="21"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>71.5</v>
+        <v>65.5</v>
       </c>
       <c r="C504" s="19">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D504" s="20">
-        <v>264.55</v>
+        <v>248.9</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9078,93 +9069,99 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>35.5</v>
+        <v>71.5</v>
       </c>
       <c r="C505" s="19">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D505" s="20">
-        <v>127.8</v>
+        <v>264.55</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B506" s="21"/>
-      <c r="C506" s="22"/>
-      <c r="D506" s="21"/>
+      <c r="B506" s="18">
+        <v>22</v>
+      </c>
+      <c r="C506" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="D506" s="20">
+        <v>79.2</v>
+      </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B507" s="18">
-        <v>73</v>
-      </c>
-      <c r="C507" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="D507" s="20">
-        <v>262.8</v>
-      </c>
+      <c r="B507" s="21"/>
+      <c r="C507" s="22"/>
+      <c r="D507" s="21"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B508" s="21"/>
-      <c r="C508" s="22"/>
-      <c r="D508" s="21"/>
+      <c r="B508" s="18">
+        <v>38.5</v>
+      </c>
+      <c r="C508" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="D508" s="20">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B509" s="18">
-        <v>37</v>
-      </c>
-      <c r="C509" s="19">
-        <v>4</v>
-      </c>
-      <c r="D509" s="20">
-        <v>148</v>
-      </c>
+      <c r="B509" s="21"/>
+      <c r="C509" s="22"/>
+      <c r="D509" s="21"/>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="C510" s="19">
         <v>4</v>
       </c>
       <c r="D510" s="20">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="B511" s="21"/>
-      <c r="C511" s="22"/>
-      <c r="D511" s="21"/>
+      <c r="B511" s="18">
+        <v>32</v>
+      </c>
+      <c r="C511" s="19">
+        <v>4</v>
+      </c>
+      <c r="D511" s="20">
+        <v>128</v>
+      </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="C512" s="19">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D512" s="20">
-        <v>56</v>
+        <v>-19.25</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9172,13 +9169,13 @@
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>47</v>
+        <v>-1.5</v>
       </c>
       <c r="C513" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D513" s="20">
-        <v>178.6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9186,13 +9183,13 @@
         <v>516</v>
       </c>
       <c r="B514" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C514" s="19">
         <v>3.8</v>
       </c>
       <c r="D514" s="20">
-        <v>174.8</v>
+        <v>178.6</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9200,13 +9197,13 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C515" s="19">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D515" s="20">
-        <v>202.1</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9214,13 +9211,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C516" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="D516" s="20">
-        <v>140.80000000000001</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9228,13 +9225,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C517" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D517" s="20">
-        <v>136.4</v>
+        <v>140.80000000000001</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9242,13 +9239,13 @@
         <v>520</v>
       </c>
       <c r="B518" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C518" s="19">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D518" s="20">
-        <v>135</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9256,13 +9253,13 @@
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C519" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D519" s="20">
-        <v>137.75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9270,13 +9267,13 @@
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>33.5</v>
+        <v>29</v>
       </c>
       <c r="C520" s="19">
         <v>4.75</v>
       </c>
       <c r="D520" s="20">
-        <v>159.13</v>
+        <v>137.75</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9284,13 +9281,13 @@
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C521" s="19">
         <v>4.75</v>
       </c>
       <c r="D521" s="20">
-        <v>175.75</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9298,13 +9295,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C522" s="19">
         <v>4.75</v>
       </c>
       <c r="D522" s="20">
-        <v>85.5</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9312,13 +9309,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C523" s="19">
         <v>4.75</v>
       </c>
       <c r="D523" s="20">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9326,13 +9323,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C524" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D524" s="20">
-        <v>25</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9340,13 +9337,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C525" s="19">
         <v>5</v>
       </c>
       <c r="D525" s="20">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9354,13 +9351,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="C526" s="19">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D526" s="20">
-        <v>99.75</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9368,13 +9365,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C527" s="19">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D527" s="20">
-        <v>200</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9382,13 +9379,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C528" s="19">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D528" s="20">
-        <v>41.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9396,13 +9393,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>12.5</v>
+        <v>0.5</v>
       </c>
       <c r="C529" s="19">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="D529" s="20">
-        <v>68.75</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9410,13 +9407,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C530" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D530" s="20">
-        <v>161</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9424,13 +9421,13 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>23.5</v>
+        <v>28</v>
       </c>
       <c r="C531" s="19">
         <v>5.75</v>
       </c>
       <c r="D531" s="20">
-        <v>135.13</v>
+        <v>161</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9438,13 +9435,13 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C532" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D532" s="20">
-        <v>66</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9452,13 +9449,13 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>27.5</v>
+        <v>3</v>
       </c>
       <c r="C533" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D533" s="20">
-        <v>158.13</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -9466,13 +9463,13 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>37</v>
+        <v>27.5</v>
       </c>
       <c r="C534" s="19">
         <v>5.75</v>
       </c>
       <c r="D534" s="20">
-        <v>212.75</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9480,13 +9477,13 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C535" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D535" s="20">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9494,13 +9491,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="C536" s="19">
         <v>6</v>
       </c>
       <c r="D536" s="20">
-        <v>186</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9508,13 +9505,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C537" s="19">
         <v>6</v>
       </c>
       <c r="D537" s="20">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9522,49 +9519,49 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C538" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D538" s="20">
-        <v>126</v>
+        <v>216</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B539" s="21"/>
-      <c r="C539" s="22"/>
-      <c r="D539" s="21"/>
+      <c r="B539" s="18">
+        <v>15.5</v>
+      </c>
+      <c r="C539" s="19">
+        <v>7</v>
+      </c>
+      <c r="D539" s="20">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B540" s="18">
-        <v>36</v>
-      </c>
-      <c r="C540" s="19">
-        <v>7</v>
-      </c>
-      <c r="D540" s="20">
-        <v>252</v>
-      </c>
+      <c r="B540" s="21"/>
+      <c r="C540" s="22"/>
+      <c r="D540" s="21"/>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C541" s="19">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="D541" s="20">
-        <v>137.75</v>
+        <v>238</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9572,13 +9569,13 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>26.5</v>
+        <v>19</v>
       </c>
       <c r="C542" s="19">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="D542" s="20">
-        <v>205.38</v>
+        <v>137.75</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9586,13 +9583,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>14</v>
+        <v>24.5</v>
       </c>
       <c r="C543" s="19">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="D543" s="20">
-        <v>112</v>
+        <v>189.88</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9600,13 +9597,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="C544" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D544" s="20">
-        <v>185</v>
+        <v>92</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9614,49 +9611,49 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="C545" s="19">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="D545" s="20">
-        <v>8.75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="B546" s="21"/>
-      <c r="C546" s="22"/>
-      <c r="D546" s="21"/>
+      <c r="B546" s="18">
+        <v>-2</v>
+      </c>
+      <c r="C546" s="19">
+        <v>8.75</v>
+      </c>
+      <c r="D546" s="20">
+        <v>-17.5</v>
+      </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="B547" s="18">
-        <v>17.5</v>
-      </c>
-      <c r="C547" s="19">
-        <v>11</v>
-      </c>
-      <c r="D547" s="20">
-        <v>192.5</v>
-      </c>
+      <c r="B547" s="21"/>
+      <c r="C547" s="22"/>
+      <c r="D547" s="21"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>75.5</v>
+        <v>15.5</v>
       </c>
       <c r="C548" s="19">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="D548" s="20">
-        <v>208.38</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9664,13 +9661,13 @@
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C549" s="19">
         <v>2.76</v>
       </c>
       <c r="D549" s="20">
-        <v>171.12</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9678,13 +9675,13 @@
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>144</v>
+        <v>33.5</v>
       </c>
       <c r="C550" s="19">
         <v>2.76</v>
       </c>
       <c r="D550" s="20">
-        <v>397.44</v>
+        <v>92.46</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9692,13 +9689,13 @@
         <v>553</v>
       </c>
       <c r="B551" s="18">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C551" s="19">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D551" s="20">
-        <v>137.19999999999999</v>
+        <v>372.6</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9706,13 +9703,13 @@
         <v>554</v>
       </c>
       <c r="B552" s="18">
-        <v>67.5</v>
+        <v>49</v>
       </c>
       <c r="C552" s="19">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="D552" s="20">
-        <v>192.6</v>
+        <v>137.19999999999999</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -9720,13 +9717,13 @@
         <v>555</v>
       </c>
       <c r="B553" s="18">
-        <v>65.5</v>
+        <v>52</v>
       </c>
       <c r="C553" s="19">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="D553" s="20">
-        <v>180.78</v>
+        <v>148.37</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9734,13 +9731,13 @@
         <v>556</v>
       </c>
       <c r="B554" s="18">
-        <v>66</v>
+        <v>65.5</v>
       </c>
       <c r="C554" s="19">
         <v>2.76</v>
       </c>
       <c r="D554" s="20">
-        <v>182.16</v>
+        <v>180.78</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -9748,13 +9745,13 @@
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C555" s="19">
         <v>2.76</v>
       </c>
       <c r="D555" s="20">
-        <v>193.2</v>
+        <v>182.16</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -9762,13 +9759,13 @@
         <v>558</v>
       </c>
       <c r="B556" s="18">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C556" s="19">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="D556" s="20">
-        <v>105</v>
+        <v>160.08000000000001</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -9776,13 +9773,13 @@
         <v>559</v>
       </c>
       <c r="B557" s="18">
-        <v>42.5</v>
+        <v>30</v>
       </c>
       <c r="C557" s="19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D557" s="20">
-        <v>127.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -9790,13 +9787,13 @@
         <v>560</v>
       </c>
       <c r="B558" s="18">
-        <v>22.5</v>
+        <v>42.5</v>
       </c>
       <c r="C558" s="19">
         <v>3</v>
       </c>
       <c r="D558" s="20">
-        <v>67.5</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,13 +9801,13 @@
         <v>561</v>
       </c>
       <c r="B559" s="18">
-        <v>46.5</v>
+        <v>2</v>
       </c>
       <c r="C559" s="19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D559" s="20">
-        <v>144.15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -9818,13 +9815,13 @@
         <v>562</v>
       </c>
       <c r="B560" s="18">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="C560" s="19">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="D560" s="20">
-        <v>162</v>
+        <v>106.95</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -9832,13 +9829,13 @@
         <v>563</v>
       </c>
       <c r="B561" s="18">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C561" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D561" s="20">
-        <v>68</v>
+        <v>162</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -9846,13 +9843,13 @@
         <v>564</v>
       </c>
       <c r="B562" s="18">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="C562" s="19">
         <v>4</v>
       </c>
       <c r="D562" s="20">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -9860,13 +9857,13 @@
         <v>565</v>
       </c>
       <c r="B563" s="18">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C563" s="19">
         <v>4</v>
       </c>
       <c r="D563" s="20">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -9874,13 +9871,13 @@
         <v>566</v>
       </c>
       <c r="B564" s="18">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C564" s="19">
         <v>4</v>
       </c>
       <c r="D564" s="20">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -9888,13 +9885,13 @@
         <v>567</v>
       </c>
       <c r="B565" s="18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C565" s="19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="D565" s="20">
-        <v>262.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -9902,13 +9899,13 @@
         <v>568</v>
       </c>
       <c r="B566" s="18">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C566" s="19">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="D566" s="20">
-        <v>93.47</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -9916,13 +9913,13 @@
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C567" s="19">
-        <v>1.96</v>
+        <v>5.19</v>
       </c>
       <c r="D567" s="20">
-        <v>182.15</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -9930,13 +9927,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>105.5</v>
+        <v>43</v>
       </c>
       <c r="C568" s="19">
         <v>1.96</v>
       </c>
       <c r="D568" s="20">
-        <v>206.92</v>
+        <v>84.22</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9944,13 +9941,13 @@
         <v>571</v>
       </c>
       <c r="B569" s="18">
-        <v>77</v>
+        <v>57.5</v>
       </c>
       <c r="C569" s="19">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="D569" s="20">
-        <v>154</v>
+        <v>112.77</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -9958,13 +9955,13 @@
         <v>572</v>
       </c>
       <c r="B570" s="18">
-        <v>29</v>
+        <v>62.5</v>
       </c>
       <c r="C570" s="19">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="D570" s="20">
-        <v>82.94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -9972,13 +9969,13 @@
         <v>573</v>
       </c>
       <c r="B571" s="18">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="C571" s="19">
-        <v>4.28</v>
+        <v>2.79</v>
       </c>
       <c r="D571" s="20">
-        <v>64.2</v>
+        <v>57.27</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -9986,13 +9983,13 @@
         <v>574</v>
       </c>
       <c r="B572" s="18">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C572" s="19">
         <v>4.28</v>
       </c>
       <c r="D572" s="20">
-        <v>85.6</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -10000,13 +9997,13 @@
         <v>575</v>
       </c>
       <c r="B573" s="18">
-        <v>41.5</v>
+        <v>7</v>
       </c>
       <c r="C573" s="19">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="D573" s="20">
-        <v>168.08</v>
+        <v>29.96</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -10014,13 +10011,13 @@
         <v>576</v>
       </c>
       <c r="B574" s="18">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="C574" s="19">
         <v>4.05</v>
       </c>
       <c r="D574" s="20">
-        <v>137.69999999999999</v>
+        <v>131.63</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -10028,41 +10025,35 @@
         <v>577</v>
       </c>
       <c r="B575" s="18">
-        <v>20.5</v>
+        <v>14.5</v>
       </c>
       <c r="C575" s="19">
-        <v>1.4</v>
+        <v>4.05</v>
       </c>
       <c r="D575" s="20">
-        <v>28.7</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="B576" s="18">
-        <v>42</v>
-      </c>
-      <c r="C576" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="D576" s="20">
-        <v>58.8</v>
-      </c>
+      <c r="B576" s="21"/>
+      <c r="C576" s="22"/>
+      <c r="D576" s="21"/>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="17" t="s">
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="C577" s="19">
         <v>1.4</v>
       </c>
       <c r="D577" s="20">
-        <v>47.6</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10070,17 +10061,21 @@
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>15.5</v>
-      </c>
-      <c r="C578" s="22"/>
-      <c r="D578" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="C578" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D578" s="20">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="17" t="s">
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>27.5</v>
+        <v>3</v>
       </c>
       <c r="C579" s="22"/>
       <c r="D579" s="21"/>
@@ -10090,7 +10085,7 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>23.5</v>
+        <v>7</v>
       </c>
       <c r="C580" s="22"/>
       <c r="D580" s="21"/>
@@ -10100,7 +10095,7 @@
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>27.5</v>
+        <v>11.5</v>
       </c>
       <c r="C581" s="22"/>
       <c r="D581" s="21"/>
@@ -10110,27 +10105,23 @@
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>989.5</v>
-      </c>
-      <c r="C582" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="D582" s="20">
-        <v>791.6</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C582" s="22"/>
+      <c r="D582" s="21"/>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="17" t="s">
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>953</v>
+        <v>928</v>
       </c>
       <c r="C583" s="19">
         <v>0.8</v>
       </c>
       <c r="D583" s="20">
-        <v>762.4</v>
+        <v>742.4</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10138,13 +10129,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="C584" s="19">
         <v>0.8</v>
       </c>
       <c r="D584" s="20">
-        <v>740</v>
+        <v>713.6</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10152,13 +10143,13 @@
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>915.5</v>
+        <v>853</v>
       </c>
       <c r="C585" s="19">
         <v>0.8</v>
       </c>
       <c r="D585" s="20">
-        <v>732.4</v>
+        <v>682.4</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10166,13 +10157,13 @@
         <v>588</v>
       </c>
       <c r="B586" s="18">
-        <v>634.5</v>
+        <v>844.5</v>
       </c>
       <c r="C586" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D586" s="20">
-        <v>329.94</v>
+        <v>675.6</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -10180,13 +10171,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>494.5</v>
+        <v>543.5</v>
       </c>
       <c r="C587" s="19">
         <v>0.52</v>
       </c>
       <c r="D587" s="20">
-        <v>257.14</v>
+        <v>282.62</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10194,13 +10185,13 @@
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>549.5</v>
+        <v>322.5</v>
       </c>
       <c r="C588" s="19">
         <v>0.52</v>
       </c>
       <c r="D588" s="20">
-        <v>285.74</v>
+        <v>167.7</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -10208,13 +10199,13 @@
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>42.5</v>
+        <v>456.5</v>
       </c>
       <c r="C589" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D589" s="20">
-        <v>29.75</v>
+        <v>237.38</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -10222,13 +10213,13 @@
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>171.5</v>
+        <v>67</v>
       </c>
       <c r="C590" s="19">
         <v>0.7</v>
       </c>
       <c r="D590" s="20">
-        <v>120.05</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -10236,13 +10227,13 @@
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="C591" s="19">
         <v>0.7</v>
       </c>
       <c r="D591" s="20">
-        <v>334.6</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -10250,13 +10241,13 @@
         <v>594</v>
       </c>
       <c r="B592" s="18">
-        <v>29</v>
+        <v>642</v>
       </c>
       <c r="C592" s="19">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="D592" s="20">
-        <v>130.5</v>
+        <v>449.4</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -10264,25 +10255,39 @@
         <v>595</v>
       </c>
       <c r="B593" s="18">
-        <v>41.5</v>
+        <v>5</v>
       </c>
       <c r="C593" s="19">
         <v>4.5</v>
       </c>
       <c r="D593" s="20">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="B594" s="18">
+        <v>41.5</v>
+      </c>
+      <c r="C594" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D594" s="20">
         <v>186.75</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="B594" s="24">
-        <v>40258.879999999997</v>
-      </c>
-      <c r="C594" s="25"/>
-      <c r="D594" s="26">
-        <v>118000.73</v>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B595" s="24">
+        <v>36736.28</v>
+      </c>
+      <c r="C595" s="25"/>
+      <c r="D595" s="26">
+        <v>104529.32</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -731,7 +731,7 @@
     <t>5047 PATRIKA (5022-B)</t>
   </si>
   <si>
-    <t>5850 PATRIKA (MONDAY)</t>
+    <t>5850 PATRIKA</t>
   </si>
   <si>
     <t>5851 PATRIKA</t>
@@ -2461,13 +2461,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="18">
-        <v>103.5</v>
+        <v>104.5</v>
       </c>
       <c r="C13" s="19">
         <v>1.65</v>
       </c>
       <c r="D13" s="20">
-        <v>170.78</v>
+        <v>172.43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2489,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="18">
-        <v>102</v>
+        <v>102.5</v>
       </c>
       <c r="C15" s="19">
         <v>1.8</v>
       </c>
       <c r="D15" s="20">
-        <v>183.6</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2517,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +2531,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="18">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C18" s="19">
         <v>2</v>
       </c>
       <c r="D18" s="20">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,13 +2559,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="18">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="C20" s="19">
         <v>2</v>
       </c>
       <c r="D20" s="20">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +2587,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,13 +2615,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>218.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2629,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>145.5</v>
+        <v>139.5</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>305.55</v>
+        <v>292.95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2679,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="18">
-        <v>46.5</v>
+        <v>48.5</v>
       </c>
       <c r="C29" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="D29" s="20">
-        <v>118.58</v>
+        <v>123.68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2693,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="D30" s="20">
-        <v>135.15</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,13 +2743,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C34" s="19">
         <v>2.5</v>
       </c>
       <c r="D34" s="20">
-        <v>25</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,13 +2793,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" s="19">
         <v>2.7</v>
       </c>
       <c r="D38" s="20">
-        <v>237.6</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,13 +2849,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="18">
-        <v>90.5</v>
+        <v>94.5</v>
       </c>
       <c r="C42" s="19">
         <v>2.85</v>
       </c>
       <c r="D42" s="20">
-        <v>257.93</v>
+        <v>269.33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,13 +2863,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="18">
-        <v>56.5</v>
+        <v>57.5</v>
       </c>
       <c r="C43" s="19">
         <v>2.25</v>
       </c>
       <c r="D43" s="20">
-        <v>127.13</v>
+        <v>129.38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,13 +2961,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,13 +2989,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>388.3</v>
+        <v>383.9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,13 +3017,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>420.2</v>
+        <v>425.7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,13 +3045,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C56" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" s="20">
-        <v>41.8</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,13 +3143,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="18">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C63" s="19">
         <v>2.1</v>
       </c>
       <c r="D63" s="20">
-        <v>170.1</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,13 +3157,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="18">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C64" s="19">
         <v>2.1</v>
       </c>
       <c r="D64" s="20">
-        <v>936.6</v>
+        <v>947.1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,13 +3213,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C68" s="19">
         <v>0.7</v>
       </c>
       <c r="D68" s="20">
-        <v>164.5</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,13 +3255,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>220.5</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>21.5</v>
+        <v>26.5</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3341,7 +3341,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3351,13 +3351,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>148.5</v>
+        <v>174.5</v>
       </c>
       <c r="C79" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D79" s="20">
-        <v>170.78</v>
+        <v>200.68</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3365,13 +3365,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D80" s="20">
-        <v>8.0500000000000007</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3379,13 +3379,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>51.8</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,13 +3401,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>60.2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,13 +3557,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" s="19">
         <v>12.5</v>
       </c>
       <c r="D95" s="20">
-        <v>350</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,13 +3571,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="18">
-        <v>20.5</v>
+        <v>25</v>
       </c>
       <c r="C96" s="19">
         <v>12.5</v>
       </c>
       <c r="D96" s="20">
-        <v>256.25</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,13 +3585,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>21.5</v>
+        <v>25</v>
       </c>
       <c r="C97" s="19">
         <v>12.5</v>
       </c>
       <c r="D97" s="20">
-        <v>268.75</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,13 +3599,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="18">
-        <v>41.5</v>
+        <v>47.5</v>
       </c>
       <c r="C98" s="19">
         <v>12.5</v>
       </c>
       <c r="D98" s="20">
-        <v>518.75</v>
+        <v>593.75</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3613,13 +3613,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="C99" s="19">
         <v>12.5</v>
       </c>
       <c r="D99" s="20">
-        <v>293.75</v>
+        <v>318.75</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,13 +3641,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>30.86</v>
+        <v>32.36</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>385.75</v>
+        <v>404.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,13 +3669,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>493.75</v>
+        <v>531.25</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,13 +3683,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>306.25</v>
+        <v>318.75</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,13 +3697,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="18">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="C105" s="19">
         <v>15.5</v>
       </c>
       <c r="D105" s="20">
-        <v>286.75</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,13 +3711,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="18">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="C106" s="19">
         <v>15.5</v>
       </c>
       <c r="D106" s="20">
-        <v>263.5</v>
+        <v>271.25</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,13 +3739,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="C108" s="19">
         <v>15.5</v>
       </c>
       <c r="D108" s="20">
-        <v>255.75</v>
+        <v>294.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,13 +3767,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C110" s="19">
         <v>15.5</v>
       </c>
       <c r="D110" s="20">
-        <v>46.5</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3837,13 +3837,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C115" s="19">
         <v>15.5</v>
       </c>
       <c r="D115" s="20">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,13 +3851,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="18">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="C116" s="19">
         <v>15.5</v>
       </c>
       <c r="D116" s="20">
-        <v>224.75</v>
+        <v>255.75</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,13 +3879,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="18">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="C118" s="19">
         <v>15.5</v>
       </c>
       <c r="D118" s="20">
-        <v>263.5</v>
+        <v>302.25</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,13 +3977,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="18">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="C125" s="19">
         <v>18.27</v>
       </c>
       <c r="D125" s="20">
-        <v>118.75</v>
+        <v>155.29</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4061,13 +4061,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" s="19">
         <v>18.34</v>
       </c>
       <c r="D131" s="20">
-        <v>110.05</v>
+        <v>128.38999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,13 +4103,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>61.5</v>
+        <v>63.5</v>
       </c>
       <c r="C134" s="19">
         <v>3.3</v>
       </c>
       <c r="D134" s="20">
-        <v>202.95</v>
+        <v>209.55</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,13 +4117,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>92.5</v>
+        <v>95.5</v>
       </c>
       <c r="C135" s="19">
         <v>2.8</v>
       </c>
       <c r="D135" s="20">
-        <v>259</v>
+        <v>267.39999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,13 +4131,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>141.5</v>
+        <v>140</v>
       </c>
       <c r="C136" s="19">
         <v>2.75</v>
       </c>
       <c r="D136" s="20">
-        <v>389.13</v>
+        <v>385</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4173,13 +4173,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="18">
-        <v>144.5</v>
+        <v>147.5</v>
       </c>
       <c r="C139" s="19">
         <v>3.4</v>
       </c>
       <c r="D139" s="20">
-        <v>491.3</v>
+        <v>501.5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,13 +4201,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>69.5</v>
+        <v>72.5</v>
       </c>
       <c r="C141" s="19">
         <v>2.7</v>
       </c>
       <c r="D141" s="20">
-        <v>187.65</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,13 +4215,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>142</v>
+        <v>129.5</v>
       </c>
       <c r="C142" s="19">
         <v>2.8</v>
       </c>
       <c r="D142" s="20">
-        <v>397.6</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,13 +4229,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C143" s="19">
         <v>2.8</v>
       </c>
       <c r="D143" s="20">
-        <v>795.2</v>
+        <v>784</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4313,13 +4313,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C149" s="19">
         <v>2.95</v>
       </c>
       <c r="D149" s="20">
-        <v>389.4</v>
+        <v>404.15</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,13 +4355,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C152" s="19">
         <v>3.3</v>
       </c>
       <c r="D152" s="20">
-        <v>419.1</v>
+        <v>422.4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,13 +4369,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="18">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C153" s="19">
         <v>3.3</v>
       </c>
       <c r="D153" s="20">
-        <v>402.6</v>
+        <v>409.2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,13 +4383,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="18">
-        <v>48.5</v>
+        <v>51</v>
       </c>
       <c r="C154" s="19">
         <v>3.5</v>
       </c>
       <c r="D154" s="20">
-        <v>169.75</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,13 +4433,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>51.5</v>
+        <v>54.5</v>
       </c>
       <c r="C158" s="19">
         <v>3.33</v>
       </c>
       <c r="D158" s="20">
-        <v>171.5</v>
+        <v>181.49</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,13 +4519,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="18">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" s="19">
         <v>3</v>
       </c>
       <c r="D165" s="20">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4533,13 +4533,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>64.5</v>
+        <v>70</v>
       </c>
       <c r="C166" s="19">
         <v>4.5</v>
       </c>
       <c r="D166" s="20">
-        <v>290.25</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,13 +4547,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="18">
-        <v>53.5</v>
+        <v>55.5</v>
       </c>
       <c r="C167" s="19">
         <v>4.28</v>
       </c>
       <c r="D167" s="20">
-        <v>228.98</v>
+        <v>237.54</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,13 +4589,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="18">
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
       <c r="C170" s="19">
         <v>4.5</v>
       </c>
       <c r="D170" s="20">
-        <v>191.25</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,13 +4603,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C171" s="19">
         <v>4.5</v>
       </c>
       <c r="D171" s="20">
-        <v>121.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,13 +4659,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="18">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C175" s="19">
         <v>3</v>
       </c>
       <c r="D175" s="20">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,13 +4751,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C182" s="19">
         <v>3.05</v>
       </c>
       <c r="D182" s="20">
-        <v>57.95</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,13 +4773,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="18">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="C184" s="19">
         <v>3.26</v>
       </c>
       <c r="D184" s="20">
-        <v>30.97</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,13 +4825,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>38.5</v>
+        <v>41</v>
       </c>
       <c r="C189" s="19">
         <v>3.8</v>
       </c>
       <c r="D189" s="20">
-        <v>146.30000000000001</v>
+        <v>155.80000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,13 +4839,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="18">
-        <v>24</v>
+        <v>37.5</v>
       </c>
       <c r="C190" s="19">
         <v>3.8</v>
       </c>
       <c r="D190" s="20">
-        <v>91.2</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4909,13 +4909,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="18">
-        <v>35.5</v>
+        <v>47</v>
       </c>
       <c r="C195" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D195" s="20">
-        <v>145.55000000000001</v>
+        <v>192.7</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,13 +4923,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>55.5</v>
+        <v>58.5</v>
       </c>
       <c r="C196" s="19">
         <v>4.75</v>
       </c>
       <c r="D196" s="20">
-        <v>263.63</v>
+        <v>277.88</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4951,13 +4951,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="18">
-        <v>26</v>
+        <v>29.5</v>
       </c>
       <c r="C198" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D198" s="20">
-        <v>114.4</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,13 +5021,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="18">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C203" s="19">
         <v>4.5</v>
       </c>
       <c r="D203" s="20">
-        <v>193.5</v>
+        <v>265.5</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,13 +5043,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C205" s="19">
         <v>5.25</v>
       </c>
       <c r="D205" s="20">
-        <v>294</v>
+        <v>341.25</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,13 +5057,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C206" s="19">
         <v>4.8</v>
       </c>
       <c r="D206" s="20">
-        <v>225.6</v>
+        <v>235.2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,13 +5071,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="C207" s="19">
         <v>4.8</v>
       </c>
       <c r="D207" s="20">
-        <v>276</v>
+        <v>283.2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,13 +5085,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="18">
-        <v>17.5</v>
+        <v>33.5</v>
       </c>
       <c r="C208" s="19">
         <v>4.5</v>
       </c>
       <c r="D208" s="20">
-        <v>78.75</v>
+        <v>150.75</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,13 +5127,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C211" s="19">
         <v>5.25</v>
       </c>
       <c r="D211" s="20">
-        <v>330.75</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,13 +5155,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="18">
-        <v>61.5</v>
+        <v>63.5</v>
       </c>
       <c r="C213" s="19">
         <v>4.75</v>
       </c>
       <c r="D213" s="20">
-        <v>292.13</v>
+        <v>301.63</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,13 +5169,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="18">
-        <v>83.5</v>
+        <v>86.5</v>
       </c>
       <c r="C214" s="19">
         <v>4.75</v>
       </c>
       <c r="D214" s="20">
-        <v>396.63</v>
+        <v>410.88</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,13 +5225,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C218" s="19">
         <v>6</v>
       </c>
       <c r="D218" s="20">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5247,13 +5247,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C220" s="19">
         <v>5.7</v>
       </c>
       <c r="D220" s="20">
-        <v>273.60000000000002</v>
+        <v>279.3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5289,13 +5289,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="18">
-        <v>41</v>
+        <v>44.5</v>
       </c>
       <c r="C223" s="19">
         <v>6.75</v>
       </c>
       <c r="D223" s="20">
-        <v>276.75</v>
+        <v>300.38</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,13 +5331,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C226" s="19">
         <v>4</v>
       </c>
       <c r="D226" s="20">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,13 +5401,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C231" s="19">
         <v>3.8</v>
       </c>
       <c r="D231" s="20">
-        <v>117.8</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,13 +5429,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>29</v>
+        <v>26.5</v>
       </c>
       <c r="C233" s="19">
         <v>3.5</v>
       </c>
       <c r="D233" s="20">
-        <v>101.5</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,13 +5443,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="18">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="C234" s="19">
         <v>4.25</v>
       </c>
       <c r="D234" s="20">
-        <v>27.63</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,13 +5457,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="18">
-        <v>35.5</v>
+        <v>42</v>
       </c>
       <c r="C235" s="19">
         <v>4.25</v>
       </c>
       <c r="D235" s="20">
-        <v>150.88</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5493,13 +5493,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="C238" s="19">
         <v>4.18</v>
       </c>
       <c r="D238" s="20">
-        <v>52.25</v>
+        <v>56.43</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,13 +5507,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="18">
-        <v>61.5</v>
+        <v>60</v>
       </c>
       <c r="C239" s="19">
         <v>4.28</v>
       </c>
       <c r="D239" s="20">
-        <v>263.22000000000003</v>
+        <v>256.8</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,13 +5521,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C240" s="19">
         <v>4.28</v>
       </c>
       <c r="D240" s="20">
-        <v>64.2</v>
+        <v>81.319999999999993</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5563,13 +5563,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C243" s="19">
         <v>4.95</v>
       </c>
       <c r="D243" s="20">
-        <v>202.95</v>
+        <v>217.8</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,13 +5649,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="C250" s="19">
         <v>5.4</v>
       </c>
       <c r="D250" s="20">
-        <v>62.1</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,13 +5705,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C254" s="19">
         <v>5.23</v>
       </c>
       <c r="D254" s="20">
-        <v>120.29</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,13 +5719,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="18">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="C255" s="19">
         <v>5.46</v>
       </c>
       <c r="D255" s="20">
-        <v>177.45</v>
+        <v>188.37</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5783,13 +5783,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C260" s="19">
         <v>6</v>
       </c>
       <c r="D260" s="20">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5811,13 +5811,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>31.5</v>
+        <v>42</v>
       </c>
       <c r="C262" s="19">
         <v>5.94</v>
       </c>
       <c r="D262" s="20">
-        <v>187.11</v>
+        <v>249.48</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,13 +5825,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="18">
-        <v>35.5</v>
+        <v>38</v>
       </c>
       <c r="C263" s="19">
         <v>5.7</v>
       </c>
       <c r="D263" s="20">
-        <v>202.35</v>
+        <v>216.6</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5903,13 +5903,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="C269" s="19">
         <v>6.18</v>
       </c>
       <c r="D269" s="20">
-        <v>151.41</v>
+        <v>160.68</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,13 +5925,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="18">
-        <v>96.5</v>
+        <v>99</v>
       </c>
       <c r="C271" s="19">
         <v>6.18</v>
       </c>
       <c r="D271" s="20">
-        <v>596.37</v>
+        <v>611.82000000000005</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,13 +6017,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="18">
-        <v>49</v>
+        <v>54.5</v>
       </c>
       <c r="C278" s="19">
         <v>6.65</v>
       </c>
       <c r="D278" s="20">
-        <v>325.85000000000002</v>
+        <v>362.43</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,13 +6031,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="18">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C279" s="19">
         <v>6.18</v>
       </c>
       <c r="D279" s="20">
-        <v>253.38</v>
+        <v>290.45999999999998</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6053,13 +6053,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="18">
-        <v>25.5</v>
+        <v>33.5</v>
       </c>
       <c r="C281" s="19">
         <v>7.18</v>
       </c>
       <c r="D281" s="20">
-        <v>183.03</v>
+        <v>240.46</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6067,13 +6067,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="C282" s="19">
         <v>7.13</v>
       </c>
       <c r="D282" s="20">
-        <v>181.82</v>
+        <v>192.51</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6109,13 +6109,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="C285" s="19">
         <v>6.65</v>
       </c>
       <c r="D285" s="20">
-        <v>196.18</v>
+        <v>212.8</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,13 +6195,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="C292" s="19">
         <v>8.08</v>
       </c>
       <c r="D292" s="20">
-        <v>189.88</v>
+        <v>218.16</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,13 +6209,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="18">
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="C293" s="19">
         <v>8.75</v>
       </c>
       <c r="D293" s="20">
-        <v>240.63</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6231,13 +6231,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="18">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="C295" s="19">
         <v>8.08</v>
       </c>
       <c r="D295" s="20">
-        <v>72.72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6301,13 +6301,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>26</v>
+        <v>30.5</v>
       </c>
       <c r="C300" s="19">
         <v>9.25</v>
       </c>
       <c r="D300" s="20">
-        <v>240.5</v>
+        <v>282.13</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6315,13 +6315,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="18">
-        <v>1.2</v>
+        <v>11.7</v>
       </c>
       <c r="C301" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D301" s="20">
-        <v>10.56</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6343,13 +6343,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="18">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="C303" s="19">
         <v>9</v>
       </c>
       <c r="D303" s="20">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,13 +6399,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="C307" s="19">
         <v>9.25</v>
       </c>
       <c r="D307" s="20">
-        <v>152.63</v>
+        <v>208.13</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6455,13 +6455,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="C311" s="19">
         <v>5.5</v>
       </c>
       <c r="D311" s="20">
-        <v>63.25</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6497,13 +6497,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C314" s="19">
         <v>7.13</v>
       </c>
       <c r="D314" s="20">
-        <v>249.55</v>
+        <v>256.68</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,13 +6525,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="18">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C316" s="19">
         <v>8.5</v>
       </c>
       <c r="D316" s="20">
-        <v>255</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6595,13 +6595,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="18">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="C321" s="19">
         <v>7.82</v>
       </c>
       <c r="D321" s="20">
-        <v>176.06</v>
+        <v>191.71</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,13 +6639,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>24.5</v>
+        <v>31.5</v>
       </c>
       <c r="C325" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="D325" s="20">
-        <v>120.05</v>
+        <v>154.35</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,13 +6653,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C326" s="19">
         <v>6.65</v>
       </c>
       <c r="D326" s="20">
-        <v>116.38</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6667,13 +6667,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="C327" s="19">
         <v>7.36</v>
       </c>
       <c r="D327" s="20">
-        <v>18.399999999999999</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6681,13 +6681,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="C328" s="19">
         <v>7.67</v>
       </c>
       <c r="D328" s="20">
-        <v>134.19</v>
+        <v>141.86000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6695,13 +6695,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="18">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="C329" s="19">
         <v>8.75</v>
       </c>
       <c r="D329" s="20">
-        <v>275.76</v>
+        <v>288.89999999999998</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,13 +6723,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C331" s="19">
         <v>17</v>
       </c>
       <c r="D331" s="20">
-        <v>221</v>
+        <v>255</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,13 +6765,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="18">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="C334" s="19">
         <v>12.25</v>
       </c>
       <c r="D334" s="20">
-        <v>36.75</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,13 +6849,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="18">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C340" s="19">
         <v>11</v>
       </c>
       <c r="D340" s="20">
-        <v>253</v>
+        <v>407</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,13 +6877,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="18">
-        <v>-1.51</v>
+        <v>1.99</v>
       </c>
       <c r="C342" s="19">
         <v>12</v>
       </c>
       <c r="D342" s="20">
-        <v>-18.12</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,13 +6905,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="C344" s="19">
         <v>7.84</v>
       </c>
       <c r="D344" s="20">
-        <v>74.48</v>
+        <v>86.24</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,13 +7003,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="C351" s="19">
         <v>10</v>
       </c>
       <c r="D351" s="20">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,13 +7031,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C353" s="19">
         <v>13.5</v>
       </c>
       <c r="D353" s="20">
-        <v>216</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7073,13 +7073,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>13</v>
+        <v>21.5</v>
       </c>
       <c r="C356" s="19">
         <v>9.5</v>
       </c>
       <c r="D356" s="20">
-        <v>123.5</v>
+        <v>204.25</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7129,13 +7129,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="C360" s="19">
         <v>17</v>
       </c>
       <c r="D360" s="20">
-        <v>178.5</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,13 +7171,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C363" s="19">
         <v>14.2</v>
       </c>
       <c r="D363" s="20">
-        <v>35.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,13 +7255,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="C369" s="19">
         <v>11.5</v>
       </c>
       <c r="D369" s="20">
-        <v>103.5</v>
+        <v>166.75</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,13 +7311,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C373" s="19">
         <v>22.5</v>
       </c>
       <c r="D373" s="20">
-        <v>135</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,13 +7339,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="C375" s="19">
         <v>9.5</v>
       </c>
       <c r="D375" s="20">
-        <v>209</v>
+        <v>223.25</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7353,13 +7353,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>61.5</v>
+        <v>62.5</v>
       </c>
       <c r="C376" s="19">
         <v>10.93</v>
       </c>
       <c r="D376" s="20">
-        <v>672.2</v>
+        <v>683.13</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,13 +7367,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="18">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="C377" s="19">
         <v>10.93</v>
       </c>
       <c r="D377" s="20">
-        <v>16.399999999999999</v>
+        <v>71.05</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7381,13 +7381,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="C378" s="19">
         <v>14.75</v>
       </c>
       <c r="D378" s="20">
-        <v>66.38</v>
+        <v>125.38</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7395,13 +7395,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C379" s="19">
         <v>10</v>
       </c>
       <c r="D379" s="20">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,13 +7437,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C382" s="19">
         <v>2</v>
       </c>
       <c r="D382" s="20">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7487,13 +7487,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C386" s="19">
         <v>2</v>
       </c>
       <c r="D386" s="20">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7587,13 +7587,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="18">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C394" s="19">
         <v>2.5</v>
       </c>
       <c r="D394" s="20">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7601,13 +7601,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="18">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="C395" s="19">
         <v>2.7</v>
       </c>
       <c r="D395" s="20">
-        <v>58.05</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7615,13 +7615,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="18">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="C396" s="19">
         <v>2.7</v>
       </c>
       <c r="D396" s="20">
-        <v>28.35</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,13 +7657,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>64.5</v>
+        <v>70.5</v>
       </c>
       <c r="C399" s="19">
         <v>2.75</v>
       </c>
       <c r="D399" s="20">
-        <v>177.38</v>
+        <v>193.88</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7685,13 +7685,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C401" s="19">
         <v>2.8</v>
       </c>
       <c r="D401" s="20">
-        <v>109.2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7699,13 +7699,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="18">
-        <v>48.5</v>
+        <v>50.5</v>
       </c>
       <c r="C402" s="19">
         <v>2.8</v>
       </c>
       <c r="D402" s="20">
-        <v>135.80000000000001</v>
+        <v>141.4</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7735,13 +7735,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>61</v>
+        <v>59.5</v>
       </c>
       <c r="C405" s="19">
         <v>2.95</v>
       </c>
       <c r="D405" s="20">
-        <v>179.95</v>
+        <v>175.53</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,13 +7911,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>28.36</v>
+        <v>33.86</v>
       </c>
       <c r="C418" s="19">
         <v>3.5</v>
       </c>
       <c r="D418" s="20">
-        <v>99.26</v>
+        <v>118.51</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7953,13 +7953,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="18">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C421" s="19">
         <v>3.33</v>
       </c>
       <c r="D421" s="20">
-        <v>29.97</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,13 +8011,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C426" s="19">
         <v>4.25</v>
       </c>
       <c r="D426" s="20">
-        <v>199.75</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,13 +8025,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C427" s="19">
         <v>3.8</v>
       </c>
       <c r="D427" s="20">
-        <v>114</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,13 +8123,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>30</v>
+        <v>33.5</v>
       </c>
       <c r="C434" s="19">
         <v>4.28</v>
       </c>
       <c r="D434" s="20">
-        <v>128.4</v>
+        <v>143.38</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,13 +8193,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C439" s="19">
         <v>4.5</v>
       </c>
       <c r="D439" s="20">
-        <v>81</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8235,13 +8235,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C442" s="19">
         <v>5.5</v>
       </c>
       <c r="D442" s="20">
-        <v>341</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8299,13 +8299,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C447" s="19">
         <v>6</v>
       </c>
       <c r="D447" s="20">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8349,13 +8349,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C451" s="19">
         <v>7.5</v>
       </c>
       <c r="D451" s="20">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8363,13 +8363,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>70.5</v>
+        <v>72</v>
       </c>
       <c r="C452" s="19">
         <v>7.13</v>
       </c>
       <c r="D452" s="20">
-        <v>502.67</v>
+        <v>513.36</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8405,13 +8405,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="C455" s="19">
         <v>7.6</v>
       </c>
       <c r="D455" s="20">
-        <v>159.6</v>
+        <v>178.6</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8511,13 +8511,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>20.5</v>
+        <v>23</v>
       </c>
       <c r="C463" s="19">
         <v>9.5</v>
       </c>
       <c r="D463" s="20">
-        <v>194.75</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8553,13 +8553,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>69.5</v>
+        <v>68.5</v>
       </c>
       <c r="C466" s="19">
         <v>5.7</v>
       </c>
       <c r="D466" s="20">
-        <v>396.15</v>
+        <v>390.45</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8595,13 +8595,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C469" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D469" s="20">
-        <v>179.3</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8609,13 +8609,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C470" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D470" s="20">
-        <v>112.2</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8637,13 +8637,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>41</v>
+        <v>32.5</v>
       </c>
       <c r="C472" s="19">
         <v>1.4</v>
       </c>
       <c r="D472" s="20">
-        <v>57.4</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8665,13 +8665,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C474" s="19">
         <v>1.4</v>
       </c>
       <c r="D474" s="20">
-        <v>93.8</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8707,13 +8707,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>164.5</v>
+        <v>163</v>
       </c>
       <c r="C477" s="19">
         <v>1.5</v>
       </c>
       <c r="D477" s="20">
-        <v>246.75</v>
+        <v>244.5</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8763,13 +8763,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="C481" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D481" s="20">
-        <v>18.239999999999998</v>
+        <v>35.340000000000003</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8791,13 +8791,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C483" s="19">
         <v>2.4700000000000002</v>
       </c>
       <c r="D483" s="20">
-        <v>128.44</v>
+        <v>138.32</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8827,13 +8827,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C486" s="19">
         <v>2.72</v>
       </c>
       <c r="D486" s="20">
-        <v>269.24</v>
+        <v>271.95999999999998</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8841,13 +8841,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>72.5</v>
+        <v>74.5</v>
       </c>
       <c r="C487" s="19">
         <v>2.8</v>
       </c>
       <c r="D487" s="20">
-        <v>203</v>
+        <v>208.6</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8911,13 +8911,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="C492" s="19">
         <v>3.2</v>
       </c>
       <c r="D492" s="20">
-        <v>3.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8925,13 +8925,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C493" s="19">
         <v>3.2</v>
       </c>
       <c r="D493" s="20">
-        <v>22.4</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -8947,13 +8947,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C495" s="19">
         <v>2.85</v>
       </c>
       <c r="D495" s="20">
-        <v>145.35</v>
+        <v>153.9</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,13 +8961,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>19</v>
+        <v>27.5</v>
       </c>
       <c r="C496" s="19">
         <v>3.25</v>
       </c>
       <c r="D496" s="20">
-        <v>61.75</v>
+        <v>89.38</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,13 +8975,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="C497" s="19">
         <v>3.25</v>
       </c>
       <c r="D497" s="20">
-        <v>108.88</v>
+        <v>105.63</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9005,13 +9005,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C500" s="19">
         <v>3.5</v>
       </c>
       <c r="D500" s="20">
-        <v>80.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,13 +9033,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="C502" s="19">
         <v>3.33</v>
       </c>
       <c r="D502" s="20">
-        <v>54.95</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9168,15 +9168,9 @@
       <c r="A513" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B513" s="18">
-        <v>-1.5</v>
-      </c>
-      <c r="C513" s="19">
-        <v>4</v>
-      </c>
-      <c r="D513" s="20">
-        <v>-6</v>
-      </c>
+      <c r="B513" s="21"/>
+      <c r="C513" s="22"/>
+      <c r="D513" s="21"/>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
@@ -9197,13 +9191,13 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>33</v>
+        <v>39.5</v>
       </c>
       <c r="C515" s="19">
         <v>3.8</v>
       </c>
       <c r="D515" s="20">
-        <v>125.4</v>
+        <v>150.1</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9211,13 +9205,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C516" s="19">
         <v>4.3</v>
       </c>
       <c r="D516" s="20">
-        <v>176.3</v>
+        <v>189.2</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9337,13 +9331,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C525" s="19">
         <v>5</v>
       </c>
       <c r="D525" s="20">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9407,13 +9401,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C530" s="19">
         <v>5.5</v>
       </c>
       <c r="D530" s="20">
-        <v>60.5</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9435,13 +9429,13 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C532" s="19">
         <v>5.75</v>
       </c>
       <c r="D532" s="20">
-        <v>-5.75</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9491,13 +9485,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>-2</v>
+        <v>7.5</v>
       </c>
       <c r="C536" s="19">
         <v>6</v>
       </c>
       <c r="D536" s="20">
-        <v>-12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9505,13 +9499,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C537" s="19">
         <v>6</v>
       </c>
       <c r="D537" s="20">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9533,13 +9527,13 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="C539" s="19">
         <v>7</v>
       </c>
       <c r="D539" s="20">
-        <v>108.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9625,13 +9619,13 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>-2</v>
+        <v>2.5</v>
       </c>
       <c r="C546" s="19">
         <v>8.75</v>
       </c>
       <c r="D546" s="20">
-        <v>-17.5</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9647,13 +9641,13 @@
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="C548" s="19">
         <v>11</v>
       </c>
       <c r="D548" s="20">
-        <v>170.5</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9661,13 +9655,13 @@
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C549" s="19">
         <v>2.76</v>
       </c>
       <c r="D549" s="20">
-        <v>110.4</v>
+        <v>126.96</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9675,13 +9669,13 @@
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>33.5</v>
+        <v>39</v>
       </c>
       <c r="C550" s="19">
         <v>2.76</v>
       </c>
       <c r="D550" s="20">
-        <v>92.46</v>
+        <v>107.64</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9689,13 +9683,13 @@
         <v>553</v>
       </c>
       <c r="B551" s="18">
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="C551" s="19">
         <v>2.76</v>
       </c>
       <c r="D551" s="20">
-        <v>372.6</v>
+        <v>376.74</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9717,13 +9711,13 @@
         <v>555</v>
       </c>
       <c r="B553" s="18">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="C553" s="19">
         <v>2.85</v>
       </c>
       <c r="D553" s="20">
-        <v>148.37</v>
+        <v>144.09</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9759,13 +9753,13 @@
         <v>558</v>
       </c>
       <c r="B556" s="18">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C556" s="19">
         <v>2.76</v>
       </c>
       <c r="D556" s="20">
-        <v>160.08000000000001</v>
+        <v>173.88</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -9801,13 +9795,13 @@
         <v>561</v>
       </c>
       <c r="B559" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C559" s="19">
         <v>3</v>
       </c>
       <c r="D559" s="20">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -9815,13 +9809,13 @@
         <v>562</v>
       </c>
       <c r="B560" s="18">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="C560" s="19">
         <v>3.1</v>
       </c>
       <c r="D560" s="20">
-        <v>106.95</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -9913,13 +9907,13 @@
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C567" s="19">
         <v>5.19</v>
       </c>
       <c r="D567" s="20">
-        <v>15.58</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -9927,13 +9921,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C568" s="19">
         <v>1.96</v>
       </c>
       <c r="D568" s="20">
-        <v>84.22</v>
+        <v>111.64</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9941,13 +9935,13 @@
         <v>571</v>
       </c>
       <c r="B569" s="18">
-        <v>57.5</v>
+        <v>60.5</v>
       </c>
       <c r="C569" s="19">
         <v>1.96</v>
       </c>
       <c r="D569" s="20">
-        <v>112.77</v>
+        <v>118.66</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -9969,13 +9963,13 @@
         <v>573</v>
       </c>
       <c r="B571" s="18">
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="C571" s="19">
         <v>2.79</v>
       </c>
       <c r="D571" s="20">
-        <v>57.27</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -9997,13 +9991,13 @@
         <v>575</v>
       </c>
       <c r="B573" s="18">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C573" s="19">
         <v>4.28</v>
       </c>
       <c r="D573" s="20">
-        <v>29.96</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -10011,13 +10005,13 @@
         <v>576</v>
       </c>
       <c r="B574" s="18">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="C574" s="19">
         <v>4.05</v>
       </c>
       <c r="D574" s="20">
-        <v>131.63</v>
+        <v>135.68</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -10025,13 +10019,13 @@
         <v>577</v>
       </c>
       <c r="B575" s="18">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="C575" s="19">
         <v>4.05</v>
       </c>
       <c r="D575" s="20">
-        <v>58.73</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -10047,13 +10041,13 @@
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="C577" s="19">
         <v>1.4</v>
       </c>
       <c r="D577" s="20">
-        <v>14.7</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10061,13 +10055,13 @@
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="C578" s="19">
         <v>1.4</v>
       </c>
       <c r="D578" s="20">
-        <v>23.8</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10075,7 +10069,7 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C579" s="22"/>
       <c r="D579" s="21"/>
@@ -10085,7 +10079,7 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C580" s="22"/>
       <c r="D580" s="21"/>
@@ -10095,7 +10089,7 @@
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C581" s="22"/>
       <c r="D581" s="21"/>
@@ -10105,7 +10099,7 @@
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="C582" s="22"/>
       <c r="D582" s="21"/>
@@ -10129,13 +10123,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C584" s="19">
         <v>0.8</v>
       </c>
       <c r="D584" s="20">
-        <v>713.6</v>
+        <v>714.4</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10143,13 +10137,13 @@
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C585" s="19">
         <v>0.8</v>
       </c>
       <c r="D585" s="20">
-        <v>682.4</v>
+        <v>683.2</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10157,13 +10151,13 @@
         <v>588</v>
       </c>
       <c r="B586" s="18">
-        <v>844.5</v>
+        <v>846.5</v>
       </c>
       <c r="C586" s="19">
         <v>0.8</v>
       </c>
       <c r="D586" s="20">
-        <v>675.6</v>
+        <v>677.2</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -10171,13 +10165,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>543.5</v>
+        <v>541.5</v>
       </c>
       <c r="C587" s="19">
         <v>0.52</v>
       </c>
       <c r="D587" s="20">
-        <v>282.62</v>
+        <v>281.58</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10185,13 +10179,13 @@
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>322.5</v>
+        <v>323.5</v>
       </c>
       <c r="C588" s="19">
         <v>0.52</v>
       </c>
       <c r="D588" s="20">
-        <v>167.7</v>
+        <v>168.22</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -10199,13 +10193,13 @@
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>456.5</v>
+        <v>452.5</v>
       </c>
       <c r="C589" s="19">
         <v>0.52</v>
       </c>
       <c r="D589" s="20">
-        <v>237.38</v>
+        <v>235.3</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -10213,13 +10207,13 @@
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C590" s="19">
         <v>0.7</v>
       </c>
       <c r="D590" s="20">
-        <v>46.9</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -10227,13 +10221,13 @@
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C591" s="19">
         <v>0.7</v>
       </c>
       <c r="D591" s="20">
-        <v>298.2</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -10241,13 +10235,13 @@
         <v>594</v>
       </c>
       <c r="B592" s="18">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C592" s="19">
         <v>0.7</v>
       </c>
       <c r="D592" s="20">
-        <v>449.4</v>
+        <v>447.3</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -10255,13 +10249,13 @@
         <v>595</v>
       </c>
       <c r="B593" s="18">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C593" s="19">
         <v>4.5</v>
       </c>
       <c r="D593" s="20">
-        <v>22.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -10283,11 +10277,11 @@
         <v>597</v>
       </c>
       <c r="B595" s="24">
-        <v>36736.28</v>
+        <v>37384.28</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="26">
-        <v>104529.32</v>
+        <v>108138.18</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="607">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 13-Nov-2024</t>
+    <t>1-Jul-2024 to 12-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -242,7 +242,7 @@
     <t>1905 PATRIKA (ARJUN 04)</t>
   </si>
   <si>
-    <t>1906 PATRIKA (KING 01) (MAAL NHI MIL RHA)</t>
+    <t>1906 PATRIKA (KING 01)</t>
   </si>
   <si>
     <t>1907 PATRIKA (KING 02)</t>
@@ -263,9 +263,15 @@
     <t>1912 PATRIKA (RED)</t>
   </si>
   <si>
+    <t>1913 PATRIKA- B</t>
+  </si>
+  <si>
     <t>1913 PATRIKA (RED)</t>
   </si>
   <si>
+    <t>1914 PATRIKA - B</t>
+  </si>
+  <si>
     <t>1914 PATRIKA (YELLOW)</t>
   </si>
   <si>
@@ -287,7 +293,7 @@
     <t>1920 PATRIKA-B</t>
   </si>
   <si>
-    <t>1920 PATRIKA (RED)</t>
+    <t>1920 PATRIKA (RED) 14.12</t>
   </si>
   <si>
     <t>1921 PATRIKA (GOLDEN)</t>
@@ -317,6 +323,18 @@
     <t>1929 PATRIKA (DC)</t>
   </si>
   <si>
+    <t>1930 PATRIKA (S.S.63)</t>
+  </si>
+  <si>
+    <t>1931 PATRIKA (S.S.62)</t>
+  </si>
+  <si>
+    <t>1932 PATRIKA (ECO 79 BIRSA)</t>
+  </si>
+  <si>
+    <t>1933 PATRIKA (ECO 80 BIRSA)</t>
+  </si>
+  <si>
     <t>2021 PATRIKA {L}</t>
   </si>
   <si>
@@ -356,7 +374,7 @@
     <t>2033 PATRIKA {L}</t>
   </si>
   <si>
-    <t>2034 PATRIKA {L}</t>
+    <t>2034 PATRIKA {L} DC</t>
   </si>
   <si>
     <t>2035 PATRIKA {M}</t>
@@ -413,7 +431,7 @@
     <t>2052 PATRIKA {L}</t>
   </si>
   <si>
-    <t>2053 PATRIKA {L}</t>
+    <t>2053 PATRIKA {L} DC</t>
   </si>
   <si>
     <t>2054 PATRIKA {L}</t>
@@ -503,6 +521,9 @@
     <t>4223 PATRIKA</t>
   </si>
   <si>
+    <t>4223 PATRIKA - B</t>
+  </si>
+  <si>
     <t>4224 PATRIKA</t>
   </si>
   <si>
@@ -704,13 +725,13 @@
     <t>5039 PATRIKA</t>
   </si>
   <si>
-    <t>5040 PATRIKA (Time Lagega Appr 20.11)</t>
+    <t>5040 PATRIKA</t>
   </si>
   <si>
     <t>5041 PATRIKA</t>
   </si>
   <si>
-    <t>5042 PATRIKA</t>
+    <t>5042 PATRIKA (AA GYA)</t>
   </si>
   <si>
     <t>5042 PATRIKA - B (DC)</t>
@@ -731,7 +752,7 @@
     <t>5047 PATRIKA (5022-B)</t>
   </si>
   <si>
-    <t>5850 PATRIKA</t>
+    <t>5850 PATRIKA (Halka D/f)</t>
   </si>
   <si>
     <t>5851 PATRIKA</t>
@@ -1121,7 +1142,7 @@
     <t>6531 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6532 PATRIKA</t>
+    <t>6532 PATRIKA (Dc) REMOVE</t>
   </si>
   <si>
     <t>6533 PATRIKA {M}</t>
@@ -1268,9 +1289,6 @@
     <t>7279 PATRIKA</t>
   </si>
   <si>
-    <t>7279 PATRIKA- B (Dc)</t>
-  </si>
-  <si>
     <t>7280 PATRIKA</t>
   </si>
   <si>
@@ -1460,6 +1478,15 @@
     <t>7346 PATRIKA</t>
   </si>
   <si>
+    <t>7348 PATRIKA (7279-B)</t>
+  </si>
+  <si>
+    <t>7349 PATRIKA (S.S.60)</t>
+  </si>
+  <si>
+    <t>7350 PATRIKA (S.S.61)</t>
+  </si>
+  <si>
     <t>9000 CARD</t>
   </si>
   <si>
@@ -1571,7 +1598,7 @@
     <t>9037 CARD</t>
   </si>
   <si>
-    <t>9038 CARD (TIME LAGEGA)</t>
+    <t>9038 CARD</t>
   </si>
   <si>
     <t>9039 CARD</t>
@@ -1745,7 +1772,7 @@
     <t>9095 CARD</t>
   </si>
   <si>
-    <t>9096 CARD (14.11)</t>
+    <t>9096 CARD</t>
   </si>
   <si>
     <t>9097 CARD</t>
@@ -1760,13 +1787,13 @@
     <t>9100 CARD</t>
   </si>
   <si>
-    <t>9101 CARD</t>
+    <t>9101 CARD (MIL JAYEGA)</t>
   </si>
   <si>
     <t>9102 CARD</t>
   </si>
   <si>
-    <t>9103 CARD</t>
+    <t>9103 CARD (MIL JAYEGA)</t>
   </si>
   <si>
     <t>9104 CARD</t>
@@ -2310,13 +2337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D595"/>
+  <dimension ref="A1:D604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -2405,13 +2432,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="18">
-        <v>878.5</v>
+        <v>742.5</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="20">
-        <v>878.5</v>
+        <v>742.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,13 +2446,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="18">
-        <v>477</v>
+        <v>324</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="20">
-        <v>477</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +2460,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>73</v>
+        <v>-126</v>
       </c>
       <c r="C11" s="19">
         <v>0.98</v>
       </c>
       <c r="D11" s="20">
-        <v>71.540000000000006</v>
+        <v>-123.48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,13 +2474,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>89.1</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +2488,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="18">
-        <v>104.5</v>
+        <v>58.5</v>
       </c>
       <c r="C13" s="19">
         <v>1.65</v>
       </c>
       <c r="D13" s="20">
-        <v>172.43</v>
+        <v>96.53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +2502,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="18">
-        <v>57</v>
+        <v>41.5</v>
       </c>
       <c r="C14" s="19">
         <v>1.8</v>
       </c>
       <c r="D14" s="20">
-        <v>102.6</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2516,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="18">
-        <v>102.5</v>
+        <v>91.5</v>
       </c>
       <c r="C15" s="19">
         <v>1.8</v>
       </c>
       <c r="D15" s="20">
-        <v>184.5</v>
+        <v>164.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2530,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="18">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="19">
         <v>1.8</v>
       </c>
       <c r="D16" s="20">
-        <v>90</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2544,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>105</v>
+        <v>126.5</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>210</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +2558,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="18">
-        <v>132</v>
+        <v>55.5</v>
       </c>
       <c r="C18" s="19">
         <v>2</v>
       </c>
       <c r="D18" s="20">
-        <v>264</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,41 +2572,35 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>142.5</v>
+        <v>126.5</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="18">
-        <v>23.5</v>
-      </c>
-      <c r="C20" s="19">
-        <v>2</v>
-      </c>
-      <c r="D20" s="20">
-        <v>47</v>
-      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="18">
-        <v>113.5</v>
+        <v>109</v>
       </c>
       <c r="C21" s="19">
         <v>2</v>
       </c>
       <c r="D21" s="20">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +2608,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>97</v>
+        <v>94.5</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="18">
-        <v>136.5</v>
+        <v>127</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="20">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,13 +2636,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>226.8</v>
+        <v>165.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2650,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>139.5</v>
+        <v>123.5</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>292.95</v>
+        <v>259.35000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2672,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>96.97</v>
+        <v>88.72</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>227.88</v>
+        <v>208.49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,13 +2686,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>89.67</v>
+        <v>78.17</v>
       </c>
       <c r="C28" s="19">
         <v>2.35</v>
       </c>
       <c r="D28" s="20">
-        <v>210.72</v>
+        <v>183.7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2700,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="18">
-        <v>48.5</v>
+        <v>179.8</v>
       </c>
       <c r="C29" s="19">
-        <v>2.5499999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D29" s="20">
-        <v>123.68</v>
+        <v>452.18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2714,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="18">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C30" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="D30" s="20">
-        <v>137.69999999999999</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,42 +2736,30 @@
         <v>34</v>
       </c>
       <c r="B32" s="18">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C32" s="19">
         <v>2.5</v>
       </c>
       <c r="D32" s="20">
-        <v>237.5</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="18">
-        <v>3</v>
-      </c>
-      <c r="C33" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D33" s="20">
-        <v>7.5</v>
-      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="18">
-        <v>13</v>
-      </c>
-      <c r="C34" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D34" s="20">
-        <v>32.5</v>
-      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
@@ -2765,13 +2774,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="18">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C36" s="19">
         <v>2.6</v>
       </c>
       <c r="D36" s="20">
-        <v>275.60000000000002</v>
+        <v>236.6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,13 +2788,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="18">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C37" s="19">
         <v>2.6</v>
       </c>
       <c r="D37" s="20">
-        <v>254.8</v>
+        <v>171.6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,13 +2802,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C38" s="19">
         <v>2.7</v>
       </c>
       <c r="D38" s="20">
-        <v>243</v>
+        <v>167.4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,13 +2816,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="18">
-        <v>130.5</v>
+        <v>112.5</v>
       </c>
       <c r="C39" s="19">
         <v>2.7</v>
       </c>
       <c r="D39" s="20">
-        <v>352.35</v>
+        <v>303.75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,13 +2844,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="18">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C41" s="19">
         <v>2.85</v>
       </c>
       <c r="D41" s="20">
-        <v>171</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,13 +2858,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="18">
-        <v>94.5</v>
+        <v>38.5</v>
       </c>
       <c r="C42" s="19">
         <v>2.85</v>
       </c>
       <c r="D42" s="20">
-        <v>269.33</v>
+        <v>109.73</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,13 +2872,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="18">
-        <v>57.5</v>
+        <v>36.5</v>
       </c>
       <c r="C43" s="19">
         <v>2.25</v>
       </c>
       <c r="D43" s="20">
-        <v>129.38</v>
+        <v>82.13</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,13 +2886,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="18">
-        <v>164.5</v>
+        <v>154.5</v>
       </c>
       <c r="C44" s="19">
         <v>2.25</v>
       </c>
       <c r="D44" s="20">
-        <v>370.13</v>
+        <v>347.63</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,13 +2900,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>95.5</v>
+        <v>69</v>
       </c>
       <c r="C45" s="19">
         <v>2.35</v>
       </c>
       <c r="D45" s="20">
-        <v>224.43</v>
+        <v>162.15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,13 +2914,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>147.5</v>
+        <v>143.5</v>
       </c>
       <c r="C46" s="19">
         <v>2.35</v>
       </c>
       <c r="D46" s="20">
-        <v>346.63</v>
+        <v>337.23</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,13 +2928,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="18">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="C47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="20">
-        <v>231</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,13 +2942,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>286</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,13 +2956,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="18">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="20">
-        <v>185.9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,13 +2970,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>380</v>
+        <v>173.5</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>418</v>
+        <v>190.85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,13 +2984,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="18">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="C51" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D51" s="20">
-        <v>112.2</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,13 +2998,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>349</v>
+        <v>193</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>383.9</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,13 +3012,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="C53" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="20">
-        <v>327.8</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,13 +3026,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>387</v>
+        <v>69</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>425.7</v>
+        <v>75.900000000000006</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,13 +3040,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="18">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C55" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D55" s="20">
-        <v>129.80000000000001</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,13 +3054,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>44</v>
+        <v>-10</v>
       </c>
       <c r="C56" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" s="20">
-        <v>48.4</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,13 +3068,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="18">
-        <v>648.5</v>
+        <v>607</v>
       </c>
       <c r="C57" s="19">
         <v>1.9</v>
       </c>
       <c r="D57" s="20">
-        <v>1232.1500000000001</v>
+        <v>1153.3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,13 +3096,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="18">
-        <v>374</v>
+        <v>245</v>
       </c>
       <c r="C59" s="19">
         <v>1.9</v>
       </c>
       <c r="D59" s="20">
-        <v>710.6</v>
+        <v>465.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,13 +3110,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="18">
-        <v>507.5</v>
+        <v>455.5</v>
       </c>
       <c r="C60" s="19">
         <v>1.9</v>
       </c>
       <c r="D60" s="20">
-        <v>964.25</v>
+        <v>865.45</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,13 +3124,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="18">
-        <v>83</v>
+        <v>40.5</v>
       </c>
       <c r="C61" s="19">
         <v>2.1</v>
       </c>
       <c r="D61" s="20">
-        <v>174.3</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,13 +3152,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="18">
-        <v>85</v>
+        <v>55.5</v>
       </c>
       <c r="C63" s="19">
         <v>2.1</v>
       </c>
       <c r="D63" s="20">
-        <v>178.5</v>
+        <v>116.55</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,13 +3166,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="18">
-        <v>451</v>
+        <v>414.5</v>
       </c>
       <c r="C64" s="19">
         <v>2.1</v>
       </c>
       <c r="D64" s="20">
-        <v>947.1</v>
+        <v>870.45</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,13 +3180,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="18">
-        <v>487</v>
+        <v>457.5</v>
       </c>
       <c r="C65" s="19">
         <v>2.1</v>
       </c>
       <c r="D65" s="20">
-        <v>1022.7</v>
+        <v>960.75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,13 +3194,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="18">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C66" s="19">
         <v>0.52</v>
       </c>
       <c r="D66" s="20">
-        <v>161.19999999999999</v>
+        <v>153.4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,13 +3208,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="18">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="C67" s="19">
         <v>0.52</v>
       </c>
       <c r="D67" s="20">
-        <v>168.48</v>
+        <v>141.96</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,13 +3222,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C68" s="19">
         <v>0.7</v>
       </c>
       <c r="D68" s="20">
-        <v>178.5</v>
+        <v>158.9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,13 +3236,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="18">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="C69" s="19">
         <v>0.7</v>
       </c>
       <c r="D69" s="20">
-        <v>177.1</v>
+        <v>135.80000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,13 +3250,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="18">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="C70" s="19">
         <v>0.9</v>
       </c>
       <c r="D70" s="20">
-        <v>169.2</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,13 +3264,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>214.2</v>
+        <v>126.9</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,13 +3278,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>818.5</v>
+        <v>533</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>1268.68</v>
+        <v>826.15</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,13 +3292,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="18">
-        <v>847</v>
+        <v>573</v>
       </c>
       <c r="C73" s="19">
         <v>1.55</v>
       </c>
       <c r="D73" s="20">
-        <v>1312.85</v>
+        <v>888.15</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,13 +3306,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>948.5</v>
+        <v>715.5</v>
       </c>
       <c r="C74" s="19">
         <v>1.55</v>
       </c>
       <c r="D74" s="20">
-        <v>1470.18</v>
+        <v>1109.03</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,7 +3320,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>26.5</v>
+        <v>108.5</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3321,7 +3330,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>-17</v>
+        <v>-22.5</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
@@ -3331,7 +3340,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>155.5</v>
+        <v>160</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
@@ -3341,7 +3350,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>34</v>
+        <v>74.5</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3351,63 +3360,61 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>174.5</v>
-      </c>
-      <c r="C79" s="19">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D79" s="20">
-        <v>200.68</v>
-      </c>
+        <v>205.5</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>6</v>
-      </c>
-      <c r="C80" s="19">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D80" s="20">
-        <v>6.9</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C81" s="19">
-        <v>1.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D81" s="20">
-        <v>43.4</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="21"/>
+      <c r="B82" s="18">
+        <v>544</v>
+      </c>
+      <c r="C82" s="19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D82" s="20">
+        <v>625.6</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>40</v>
+        <v>-2</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>56</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,13 +3422,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="18">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C84" s="19">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D84" s="20">
-        <v>12</v>
+        <v>191.8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,41 +3436,35 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C85" s="19">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D85" s="20">
-        <v>130</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="18">
-        <v>111</v>
-      </c>
-      <c r="C86" s="19">
-        <v>2</v>
-      </c>
-      <c r="D86" s="20">
-        <v>222</v>
-      </c>
+      <c r="B86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B87" s="18">
-        <v>303</v>
+        <v>-14.5</v>
       </c>
       <c r="C87" s="19">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="D87" s="20">
-        <v>381.78</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,58 +3472,58 @@
         <v>90</v>
       </c>
       <c r="B88" s="18">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="C88" s="19">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="D88" s="20">
-        <v>350.28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="21"/>
+      <c r="B89" s="18">
+        <v>244</v>
+      </c>
+      <c r="C89" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="D89" s="20">
+        <v>307.44</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="21"/>
+      <c r="B90" s="18">
+        <v>225.5</v>
+      </c>
+      <c r="C90" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="D90" s="20">
+        <v>284.13</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="18">
-        <v>20</v>
-      </c>
-      <c r="C91" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D91" s="20">
-        <v>11</v>
-      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="18">
-        <v>20</v>
-      </c>
-      <c r="C92" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D92" s="20">
-        <v>11</v>
-      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
@@ -3543,13 +3544,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C94" s="19">
         <v>0.55000000000000004</v>
       </c>
       <c r="D94" s="20">
-        <v>9.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,13 +3558,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C95" s="19">
-        <v>12.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D95" s="20">
-        <v>362.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,13 +3572,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C96" s="19">
-        <v>12.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D96" s="20">
-        <v>312.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,41 +3586,35 @@
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="C97" s="19">
-        <v>12.5</v>
+        <v>1.55</v>
       </c>
       <c r="D97" s="20">
-        <v>312.5</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="18">
-        <v>47.5</v>
-      </c>
-      <c r="C98" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="D98" s="20">
-        <v>593.75</v>
-      </c>
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>25.5</v>
+        <v>12</v>
       </c>
       <c r="C99" s="19">
-        <v>12.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D99" s="20">
-        <v>318.75</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,13 +3622,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="18">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C100" s="19">
-        <v>12.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D100" s="20">
-        <v>400</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,13 +3636,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>32.36</v>
+        <v>4.5</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>404.5</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,13 +3650,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>-5</v>
+        <v>9.5</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>-62.5</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,13 +3664,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>42.5</v>
+        <v>2.5</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>531.25</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,13 +3678,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>25.5</v>
+        <v>52.5</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>318.75</v>
+        <v>656.25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,13 +3692,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="18">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C105" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D105" s="20">
-        <v>217</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,13 +3706,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="18">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="C106" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D106" s="20">
-        <v>271.25</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3725,13 +3720,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="18">
-        <v>21</v>
+        <v>9.86</v>
       </c>
       <c r="C107" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D107" s="20">
-        <v>325.5</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,13 +3734,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="C108" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D108" s="20">
-        <v>294.5</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3753,13 +3748,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="18">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C109" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D109" s="20">
-        <v>325.5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,13 +3762,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C110" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D110" s="20">
-        <v>170.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,13 +3776,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="18">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="C111" s="19">
         <v>15.5</v>
       </c>
       <c r="D111" s="20">
-        <v>286.75</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3795,13 +3790,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C112" s="19">
         <v>15.5</v>
       </c>
       <c r="D112" s="20">
-        <v>310</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,13 +3804,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113" s="19">
         <v>15.5</v>
       </c>
       <c r="D113" s="20">
-        <v>310</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3823,13 +3818,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="18">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="C114" s="19">
         <v>15.5</v>
       </c>
       <c r="D114" s="20">
-        <v>325.5</v>
+        <v>193.75</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3837,13 +3832,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C115" s="19">
         <v>15.5</v>
       </c>
       <c r="D115" s="20">
-        <v>279</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,13 +3846,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="18">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
       <c r="C116" s="19">
         <v>15.5</v>
       </c>
       <c r="D116" s="20">
-        <v>255.75</v>
+        <v>100.75</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,13 +3860,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="18">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="C117" s="19">
         <v>15.5</v>
       </c>
       <c r="D117" s="20">
-        <v>325.5</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,13 +3874,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="18">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="C118" s="19">
         <v>15.5</v>
       </c>
       <c r="D118" s="20">
-        <v>302.25</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,13 +3888,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" s="19">
         <v>15.5</v>
       </c>
       <c r="D119" s="20">
-        <v>325.5</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,13 +3902,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C120" s="19">
         <v>15.5</v>
       </c>
       <c r="D120" s="20">
-        <v>294.5</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,13 +3916,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="18">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C121" s="19">
         <v>15.5</v>
       </c>
       <c r="D121" s="20">
-        <v>325.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3935,13 +3930,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="18">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="C122" s="19">
-        <v>18.41</v>
+        <v>15.5</v>
       </c>
       <c r="D122" s="20">
-        <v>211.7</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,13 +3944,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="18">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="C123" s="19">
-        <v>18.34</v>
+        <v>15.5</v>
       </c>
       <c r="D123" s="20">
-        <v>247.62</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,13 +3958,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="18">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="C124" s="19">
-        <v>18.27</v>
+        <v>15.5</v>
       </c>
       <c r="D124" s="20">
-        <v>173.56</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,13 +3972,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="18">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="C125" s="19">
-        <v>18.27</v>
+        <v>15.5</v>
       </c>
       <c r="D125" s="20">
-        <v>155.29</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,13 +3986,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="18">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="C126" s="19">
-        <v>18.27</v>
+        <v>15.5</v>
       </c>
       <c r="D126" s="20">
-        <v>164.42</v>
+        <v>255.75</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,13 +4000,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="18">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="C127" s="19">
-        <v>18.27</v>
+        <v>15.5</v>
       </c>
       <c r="D127" s="20">
-        <v>191.83</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,13 +4014,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="18">
-        <v>14</v>
+        <v>1.5</v>
       </c>
       <c r="C128" s="19">
-        <v>18.34</v>
+        <v>18.41</v>
       </c>
       <c r="D128" s="20">
-        <v>256.79000000000002</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,13 +4028,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="18">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="C129" s="19">
-        <v>18.37</v>
+        <v>18.34</v>
       </c>
       <c r="D129" s="20">
-        <v>27.55</v>
+        <v>220.11</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4061,41 +4056,35 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="C131" s="19">
-        <v>18.34</v>
+        <v>18.27</v>
       </c>
       <c r="D131" s="20">
-        <v>128.38999999999999</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="18">
-        <v>14.5</v>
-      </c>
-      <c r="C132" s="19">
-        <v>18.37</v>
-      </c>
-      <c r="D132" s="20">
-        <v>266.36</v>
-      </c>
+      <c r="B132" s="21"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="21"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>135</v>
       </c>
       <c r="B133" s="18">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="C133" s="19">
-        <v>14.5</v>
+        <v>18.27</v>
       </c>
       <c r="D133" s="20">
-        <v>174</v>
+        <v>191.83</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,13 +4092,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>63.5</v>
+        <v>10</v>
       </c>
       <c r="C134" s="19">
-        <v>3.3</v>
+        <v>18.34</v>
       </c>
       <c r="D134" s="20">
-        <v>209.55</v>
+        <v>183.42</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,13 +4106,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>95.5</v>
+        <v>1.5</v>
       </c>
       <c r="C135" s="19">
-        <v>2.8</v>
+        <v>18.41</v>
       </c>
       <c r="D135" s="20">
-        <v>267.39999999999998</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,13 +4120,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>140</v>
+        <v>7.5</v>
       </c>
       <c r="C136" s="19">
-        <v>2.75</v>
+        <v>18.37</v>
       </c>
       <c r="D136" s="20">
-        <v>385</v>
+        <v>137.77000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,13 +4134,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C137" s="19">
-        <v>2.75</v>
+        <v>18.34</v>
       </c>
       <c r="D137" s="20">
-        <v>280.5</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4159,13 +4148,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="18">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C138" s="19">
-        <v>4.7</v>
+        <v>18.37</v>
       </c>
       <c r="D138" s="20">
-        <v>211.5</v>
+        <v>202.07</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4173,13 +4162,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="18">
-        <v>147.5</v>
+        <v>8.5</v>
       </c>
       <c r="C139" s="19">
-        <v>3.4</v>
+        <v>14.5</v>
       </c>
       <c r="D139" s="20">
-        <v>501.5</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,13 +4176,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C140" s="19">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D140" s="20">
-        <v>78.3</v>
+        <v>188.1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,13 +4190,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>72.5</v>
+        <v>61.5</v>
       </c>
       <c r="C141" s="19">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D141" s="20">
-        <v>195.75</v>
+        <v>172.2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,13 +4204,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>129.5</v>
+        <v>116</v>
       </c>
       <c r="C142" s="19">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="D142" s="20">
-        <v>362.6</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,13 +4218,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="C143" s="19">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="D143" s="20">
-        <v>784</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4243,13 +4232,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="18">
-        <v>120</v>
+        <v>34.5</v>
       </c>
       <c r="C144" s="19">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="D144" s="20">
-        <v>300</v>
+        <v>162.15</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,13 +4246,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C145" s="19">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D145" s="20">
-        <v>84</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4271,13 +4260,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="18">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="C146" s="19">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D146" s="20">
-        <v>389.2</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4285,13 +4274,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="18">
-        <v>54.5</v>
+        <v>54</v>
       </c>
       <c r="C147" s="19">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D147" s="20">
-        <v>152.6</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,13 +4288,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>182</v>
+        <v>105.5</v>
       </c>
       <c r="C148" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D148" s="20">
-        <v>536.9</v>
+        <v>295.39999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4313,13 +4302,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C149" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>404.15</v>
+        <v>302.39999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,13 +4316,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="18">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C150" s="19">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D150" s="20">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4341,13 +4330,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="18">
-        <v>70.5</v>
+        <v>128.5</v>
       </c>
       <c r="C151" s="19">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D151" s="20">
-        <v>211.5</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,13 +4344,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C152" s="19">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D152" s="20">
-        <v>422.4</v>
+        <v>361.2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,13 +4358,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="18">
-        <v>124</v>
+        <v>113.5</v>
       </c>
       <c r="C153" s="19">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D153" s="20">
-        <v>409.2</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,35 +4372,41 @@
         <v>156</v>
       </c>
       <c r="B154" s="18">
-        <v>51</v>
+        <v>99.5</v>
       </c>
       <c r="C154" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D154" s="20">
-        <v>178.5</v>
+        <v>293.52999999999997</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="21"/>
+      <c r="B155" s="18">
+        <v>84</v>
+      </c>
+      <c r="C155" s="19">
+        <v>2.95</v>
+      </c>
+      <c r="D155" s="20">
+        <v>247.8</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="18">
-        <v>16.5</v>
+        <v>106</v>
       </c>
       <c r="C156" s="19">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D156" s="20">
-        <v>64.349999999999994</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,13 +4414,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="18">
-        <v>66</v>
+        <v>70.5</v>
       </c>
       <c r="C157" s="19">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D157" s="20">
-        <v>257.39999999999998</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,13 +4428,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>54.5</v>
+        <v>123.5</v>
       </c>
       <c r="C158" s="19">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="D158" s="20">
-        <v>181.49</v>
+        <v>407.55</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,13 +4442,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="18">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C159" s="19">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="D159" s="20">
-        <v>362.97</v>
+        <v>399.3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,36 +4456,36 @@
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>91.5</v>
+        <v>6.5</v>
       </c>
       <c r="C160" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D160" s="20">
-        <v>304.7</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="18">
-        <v>153.5</v>
-      </c>
-      <c r="C161" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="D161" s="20">
-        <v>552.6</v>
-      </c>
+      <c r="B161" s="21"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="21"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="21"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="21"/>
+      <c r="B162" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="C162" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="D162" s="20">
+        <v>497.25</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
@@ -4500,32 +4495,38 @@
         <v>5</v>
       </c>
       <c r="C163" s="19">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="D163" s="20">
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="21"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="21"/>
+      <c r="B164" s="18">
+        <v>63</v>
+      </c>
+      <c r="C164" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="D164" s="20">
+        <v>245.7</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B165" s="18">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="C165" s="19">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="D165" s="20">
-        <v>495</v>
+        <v>136.53</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4533,13 +4534,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C166" s="19">
-        <v>4.5</v>
+        <v>3.33</v>
       </c>
       <c r="D166" s="20">
-        <v>315</v>
+        <v>329.67</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,13 +4548,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="18">
-        <v>55.5</v>
+        <v>59</v>
       </c>
       <c r="C167" s="19">
-        <v>4.28</v>
+        <v>3.33</v>
       </c>
       <c r="D167" s="20">
-        <v>237.54</v>
+        <v>196.47</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,41 +4562,35 @@
         <v>170</v>
       </c>
       <c r="B168" s="18">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C168" s="19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D168" s="20">
-        <v>148.80000000000001</v>
+        <v>500.4</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B169" s="18">
-        <v>50</v>
-      </c>
-      <c r="C169" s="19">
-        <v>3.1</v>
-      </c>
-      <c r="D169" s="20">
-        <v>155</v>
-      </c>
+      <c r="B169" s="21"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="21"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="18">
-        <v>44.5</v>
+        <v>25</v>
       </c>
       <c r="C170" s="19">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="D170" s="20">
-        <v>200.25</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,13 +4598,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="18">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C171" s="19">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D171" s="20">
-        <v>157.5</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4617,13 +4612,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="18">
-        <v>95</v>
+        <v>161.5</v>
       </c>
       <c r="C172" s="19">
-        <v>3.88</v>
+        <v>3</v>
       </c>
       <c r="D172" s="20">
-        <v>368.77</v>
+        <v>484.5</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4631,13 +4626,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>57</v>
+        <v>37.5</v>
       </c>
       <c r="C173" s="19">
-        <v>3.88</v>
+        <v>4.5</v>
       </c>
       <c r="D173" s="20">
-        <v>221.26</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,13 +4640,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="18">
-        <v>73</v>
+        <v>51.5</v>
       </c>
       <c r="C174" s="19">
-        <v>4.1500000000000004</v>
+        <v>4.28</v>
       </c>
       <c r="D174" s="20">
-        <v>302.95</v>
+        <v>220.42</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,13 +4654,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="18">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C175" s="19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D175" s="20">
-        <v>201</v>
+        <v>148.80000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,13 +4668,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="18">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C176" s="19">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D176" s="20">
-        <v>140</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,13 +4682,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="18">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="C177" s="19">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D177" s="20">
-        <v>140</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,13 +4696,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C178" s="19">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D178" s="20">
-        <v>71.400000000000006</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,13 +4710,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="18">
-        <v>22</v>
+        <v>140.5</v>
       </c>
       <c r="C179" s="19">
-        <v>4.5</v>
+        <v>3.73</v>
       </c>
       <c r="D179" s="20">
-        <v>99</v>
+        <v>523.47</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,74 +4724,98 @@
         <v>182</v>
       </c>
       <c r="B180" s="18">
-        <v>31</v>
+        <v>93.5</v>
       </c>
       <c r="C180" s="19">
-        <v>3.05</v>
+        <v>3.69</v>
       </c>
       <c r="D180" s="20">
-        <v>94.55</v>
+        <v>345.02</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="21"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="21"/>
+      <c r="B181" s="18">
+        <v>73</v>
+      </c>
+      <c r="C181" s="19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D181" s="20">
+        <v>302.95</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>24</v>
+        <v>98.5</v>
       </c>
       <c r="C182" s="19">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="D182" s="20">
-        <v>73.2</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B183" s="21"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="21"/>
+      <c r="B183" s="18">
+        <v>50</v>
+      </c>
+      <c r="C183" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="D183" s="20">
+        <v>140</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B184" s="18">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="C184" s="19">
-        <v>3.26</v>
+        <v>2.8</v>
       </c>
       <c r="D184" s="20">
-        <v>40.75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B185" s="21"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="21"/>
+      <c r="B185" s="18">
+        <v>21</v>
+      </c>
+      <c r="C185" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="D185" s="20">
+        <v>71.400000000000006</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B186" s="21"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="21"/>
+      <c r="B186" s="18">
+        <v>22</v>
+      </c>
+      <c r="C186" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D186" s="20">
+        <v>99</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
@@ -4810,112 +4829,82 @@
       <c r="A188" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B188" s="18">
-        <v>39</v>
-      </c>
-      <c r="C188" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D188" s="20">
-        <v>148.19999999999999</v>
-      </c>
+      <c r="B188" s="21"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="21"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>41</v>
+        <v>52.24</v>
       </c>
       <c r="C189" s="19">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="D189" s="20">
-        <v>155.80000000000001</v>
+        <v>159.33000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B190" s="18">
-        <v>37.5</v>
-      </c>
-      <c r="C190" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D190" s="20">
-        <v>142.5</v>
-      </c>
+      <c r="B190" s="21"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="21"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>193</v>
       </c>
       <c r="B191" s="18">
-        <v>53</v>
+        <v>9.5</v>
       </c>
       <c r="C191" s="19">
-        <v>3.6</v>
+        <v>3.26</v>
       </c>
       <c r="D191" s="20">
-        <v>190.8</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="18">
-        <v>37</v>
-      </c>
-      <c r="C192" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="D192" s="20">
-        <v>133.19999999999999</v>
-      </c>
+      <c r="B192" s="21"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="21"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B193" s="18">
-        <v>5</v>
-      </c>
-      <c r="C193" s="19">
-        <v>4</v>
-      </c>
-      <c r="D193" s="20">
-        <v>20</v>
-      </c>
+      <c r="B193" s="21"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="21"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B194" s="18">
-        <v>28</v>
-      </c>
-      <c r="C194" s="19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D194" s="20">
-        <v>114.8</v>
-      </c>
+      <c r="B194" s="21"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="21"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>197</v>
       </c>
       <c r="B195" s="18">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C195" s="19">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D195" s="20">
-        <v>192.7</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,13 +4912,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>58.5</v>
+        <v>26</v>
       </c>
       <c r="C196" s="19">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="D196" s="20">
-        <v>277.88</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,13 +4926,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>60.5</v>
+        <v>29.5</v>
       </c>
       <c r="C197" s="19">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="D197" s="20">
-        <v>287.38</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4951,13 +4940,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="18">
-        <v>29.5</v>
+        <v>53</v>
       </c>
       <c r="C198" s="19">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D198" s="20">
-        <v>129.80000000000001</v>
+        <v>190.8</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4965,41 +4954,35 @@
         <v>201</v>
       </c>
       <c r="B199" s="18">
-        <v>39.5</v>
+        <v>17</v>
       </c>
       <c r="C199" s="19">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D199" s="20">
-        <v>173.8</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B200" s="18">
-        <v>29.5</v>
-      </c>
-      <c r="C200" s="19">
-        <v>4.28</v>
-      </c>
-      <c r="D200" s="20">
-        <v>126.26</v>
-      </c>
+      <c r="B200" s="21"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="21"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>203</v>
       </c>
       <c r="B201" s="18">
-        <v>24.5</v>
+        <v>43</v>
       </c>
       <c r="C201" s="19">
-        <v>4.28</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D201" s="20">
-        <v>104.86</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,13 +4990,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>35</v>
+        <v>86.5</v>
       </c>
       <c r="C202" s="19">
-        <v>4.5</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D202" s="20">
-        <v>157.5</v>
+        <v>355.34</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,35 +5004,41 @@
         <v>205</v>
       </c>
       <c r="B203" s="18">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="C203" s="19">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D203" s="20">
-        <v>265.5</v>
+        <v>277.88</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="21"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="21"/>
+      <c r="B204" s="18">
+        <v>56.5</v>
+      </c>
+      <c r="C204" s="19">
+        <v>4.75</v>
+      </c>
+      <c r="D204" s="20">
+        <v>268.38</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>65</v>
+        <v>29.5</v>
       </c>
       <c r="C205" s="19">
-        <v>5.25</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D205" s="20">
-        <v>341.25</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,13 +5046,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C206" s="19">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D206" s="20">
-        <v>235.2</v>
+        <v>404.8</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,41 +5060,35 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>59</v>
+        <v>29.5</v>
       </c>
       <c r="C207" s="19">
-        <v>4.8</v>
+        <v>4.28</v>
       </c>
       <c r="D207" s="20">
-        <v>283.2</v>
+        <v>126.26</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B208" s="18">
-        <v>33.5</v>
-      </c>
-      <c r="C208" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="D208" s="20">
-        <v>150.75</v>
-      </c>
+      <c r="B208" s="21"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="21"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B209" s="18">
-        <v>5.5</v>
+        <v>52</v>
       </c>
       <c r="C209" s="19">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="D209" s="20">
-        <v>26.13</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5113,13 +5096,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>2</v>
+        <v>-14.5</v>
       </c>
       <c r="C210" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D210" s="20">
-        <v>9.8000000000000007</v>
+        <v>-65.25</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,13 +5110,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C211" s="19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D211" s="20">
-        <v>346.5</v>
+        <v>508.5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,13 +5124,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C212" s="19">
         <v>5.25</v>
       </c>
       <c r="D212" s="20">
-        <v>336</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,13 +5138,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="18">
-        <v>63.5</v>
+        <v>43</v>
       </c>
       <c r="C213" s="19">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="D213" s="20">
-        <v>301.63</v>
+        <v>206.4</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,13 +5152,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="18">
-        <v>86.5</v>
+        <v>47</v>
       </c>
       <c r="C214" s="19">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="D214" s="20">
-        <v>410.88</v>
+        <v>225.6</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,13 +5166,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="18">
-        <v>16</v>
+        <v>71.5</v>
       </c>
       <c r="C215" s="19">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="D215" s="20">
-        <v>84.8</v>
+        <v>321.75</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,13 +5180,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="18">
-        <v>13</v>
+        <v>24.5</v>
       </c>
       <c r="C216" s="19">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="D216" s="20">
-        <v>78</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,13 +5194,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="18">
-        <v>48.5</v>
+        <v>2</v>
       </c>
       <c r="C217" s="19">
-        <v>6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D217" s="20">
-        <v>291</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,35 +5208,41 @@
         <v>220</v>
       </c>
       <c r="B218" s="18">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C218" s="19">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="D218" s="20">
-        <v>30</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="21"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="21"/>
+      <c r="B219" s="18">
+        <v>58</v>
+      </c>
+      <c r="C219" s="19">
+        <v>5.25</v>
+      </c>
+      <c r="D219" s="20">
+        <v>304.5</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>222</v>
       </c>
       <c r="B220" s="18">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C220" s="19">
-        <v>5.7</v>
+        <v>4.75</v>
       </c>
       <c r="D220" s="20">
-        <v>279.3</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5261,13 +5250,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>33.5</v>
+        <v>86.5</v>
       </c>
       <c r="C221" s="19">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
       <c r="D221" s="20">
-        <v>226.13</v>
+        <v>410.88</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5275,41 +5264,35 @@
         <v>224</v>
       </c>
       <c r="B222" s="18">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="C222" s="19">
-        <v>6.76</v>
+        <v>5.3</v>
       </c>
       <c r="D222" s="20">
-        <v>3.38</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B223" s="18">
-        <v>44.5</v>
-      </c>
-      <c r="C223" s="19">
-        <v>6.75</v>
-      </c>
-      <c r="D223" s="20">
-        <v>300.38</v>
-      </c>
+      <c r="B223" s="21"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="21"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>0.5</v>
+        <v>39.5</v>
       </c>
       <c r="C224" s="19">
-        <v>5.92</v>
+        <v>6</v>
       </c>
       <c r="D224" s="20">
-        <v>2.96</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,41 +5300,35 @@
         <v>227</v>
       </c>
       <c r="B225" s="18">
-        <v>26</v>
+        <v>-8</v>
       </c>
       <c r="C225" s="19">
-        <v>4.26</v>
+        <v>6</v>
       </c>
       <c r="D225" s="20">
-        <v>110.66</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B226" s="18">
-        <v>10</v>
-      </c>
-      <c r="C226" s="19">
-        <v>4</v>
-      </c>
-      <c r="D226" s="20">
-        <v>40</v>
-      </c>
+      <c r="B226" s="21"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="21"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="C227" s="19">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="D227" s="20">
-        <v>14</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,13 +5336,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="18">
-        <v>97.5</v>
+        <v>32.5</v>
       </c>
       <c r="C228" s="19">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="D228" s="20">
-        <v>438.75</v>
+        <v>219.38</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,13 +5350,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="18">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="C229" s="19">
-        <v>6.5</v>
+        <v>6.76</v>
       </c>
       <c r="D229" s="20">
-        <v>130</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,13 +5364,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="C230" s="19">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="D230" s="20">
-        <v>142.5</v>
+        <v>182.25</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,13 +5378,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C231" s="19">
-        <v>3.8</v>
+        <v>5.96</v>
       </c>
       <c r="D231" s="20">
-        <v>125.4</v>
+        <v>423.45</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,13 +5392,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="18">
-        <v>11.5</v>
+        <v>23.5</v>
       </c>
       <c r="C232" s="19">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="D232" s="20">
-        <v>60.38</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,13 +5406,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>26.5</v>
+        <v>9.5</v>
       </c>
       <c r="C233" s="19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D233" s="20">
-        <v>92.75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,13 +5420,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="18">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="C234" s="19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="D234" s="20">
-        <v>89.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,35 +5434,41 @@
         <v>237</v>
       </c>
       <c r="B235" s="18">
-        <v>42</v>
+        <v>89.5</v>
       </c>
       <c r="C235" s="19">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D235" s="20">
-        <v>178.5</v>
+        <v>402.75</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="21"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="21"/>
+      <c r="B236" s="18">
+        <v>20</v>
+      </c>
+      <c r="C236" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="D236" s="20">
+        <v>130</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
         <v>239</v>
       </c>
       <c r="B237" s="18">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="C237" s="19">
-        <v>4.18</v>
+        <v>5</v>
       </c>
       <c r="D237" s="20">
-        <v>94.05</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5493,13 +5476,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="C238" s="19">
-        <v>4.18</v>
+        <v>3.8</v>
       </c>
       <c r="D238" s="20">
-        <v>56.43</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,13 +5490,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="18">
-        <v>60</v>
+        <v>6.5</v>
       </c>
       <c r="C239" s="19">
-        <v>4.28</v>
+        <v>5.25</v>
       </c>
       <c r="D239" s="20">
-        <v>256.8</v>
+        <v>34.130000000000003</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,13 +5504,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C240" s="19">
-        <v>4.28</v>
+        <v>3.5</v>
       </c>
       <c r="D240" s="20">
-        <v>81.319999999999993</v>
+        <v>224</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,13 +5518,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C241" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.25</v>
       </c>
       <c r="D241" s="20">
-        <v>174.8</v>
+        <v>837.25</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,41 +5532,35 @@
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C242" s="19">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="D242" s="20">
-        <v>118.75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="18">
-        <v>44</v>
-      </c>
-      <c r="C243" s="19">
-        <v>4.95</v>
-      </c>
-      <c r="D243" s="20">
-        <v>217.8</v>
-      </c>
+      <c r="B243" s="21"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="21"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C244" s="19">
-        <v>4.75</v>
+        <v>4.18</v>
       </c>
       <c r="D244" s="20">
-        <v>118.75</v>
+        <v>271.7</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5591,43 +5568,55 @@
         <v>247</v>
       </c>
       <c r="B245" s="18">
-        <v>40</v>
+        <v>49.5</v>
       </c>
       <c r="C245" s="19">
-        <v>5</v>
+        <v>4.18</v>
       </c>
       <c r="D245" s="20">
-        <v>200</v>
+        <v>206.91</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B246" s="21"/>
-      <c r="C246" s="22"/>
-      <c r="D246" s="21"/>
+      <c r="B246" s="18">
+        <v>125</v>
+      </c>
+      <c r="C246" s="19">
+        <v>4.28</v>
+      </c>
+      <c r="D246" s="20">
+        <v>535</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="21"/>
-      <c r="C247" s="22"/>
-      <c r="D247" s="21"/>
+      <c r="B247" s="18">
+        <v>80</v>
+      </c>
+      <c r="C247" s="19">
+        <v>4.28</v>
+      </c>
+      <c r="D247" s="20">
+        <v>342.4</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
         <v>250</v>
       </c>
       <c r="B248" s="18">
-        <v>57.5</v>
+        <v>38</v>
       </c>
       <c r="C248" s="19">
-        <v>5.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D248" s="20">
-        <v>293.25</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,13 +5624,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="18">
-        <v>33.5</v>
+        <v>24</v>
       </c>
       <c r="C249" s="19">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="D249" s="20">
-        <v>177.55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,13 +5638,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C250" s="19">
-        <v>5.4</v>
+        <v>4.95</v>
       </c>
       <c r="D250" s="20">
-        <v>70.2</v>
+        <v>84.15</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5663,13 +5652,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C251" s="19">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="D251" s="20">
-        <v>55</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,77 +5666,71 @@
         <v>254</v>
       </c>
       <c r="B252" s="18">
-        <v>43.5</v>
+        <v>36</v>
       </c>
       <c r="C252" s="19">
-        <v>5.55</v>
+        <v>5</v>
       </c>
       <c r="D252" s="20">
-        <v>241.43</v>
+        <v>180</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B253" s="18">
-        <v>25.5</v>
-      </c>
-      <c r="C253" s="19">
-        <v>5.23</v>
-      </c>
-      <c r="D253" s="20">
-        <v>133.37</v>
-      </c>
+      <c r="B253" s="21"/>
+      <c r="C253" s="22"/>
+      <c r="D253" s="21"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B254" s="18">
-        <v>25</v>
-      </c>
-      <c r="C254" s="19">
-        <v>5.23</v>
-      </c>
-      <c r="D254" s="20">
-        <v>130.75</v>
-      </c>
+      <c r="B254" s="21"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="21"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="s">
         <v>257</v>
       </c>
       <c r="B255" s="18">
-        <v>34.5</v>
+        <v>21.5</v>
       </c>
       <c r="C255" s="19">
-        <v>5.46</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D255" s="20">
-        <v>188.37</v>
+        <v>109.65</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="21"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="21"/>
+      <c r="B256" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="C256" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="D256" s="20">
+        <v>151.05000000000001</v>
+      </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C257" s="19">
-        <v>6.25</v>
+        <v>5.4</v>
       </c>
       <c r="D257" s="20">
-        <v>437.5</v>
+        <v>243</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5755,13 +5738,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="18">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C258" s="19">
-        <v>6.13</v>
+        <v>5.5</v>
       </c>
       <c r="D258" s="20">
-        <v>294.10000000000002</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,13 +5752,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="C259" s="19">
-        <v>6.5</v>
+        <v>5.55</v>
       </c>
       <c r="D259" s="20">
-        <v>227.5</v>
+        <v>52.73</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5783,13 +5766,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="18">
-        <v>7</v>
+        <v>25.5</v>
       </c>
       <c r="C260" s="19">
-        <v>6</v>
+        <v>5.23</v>
       </c>
       <c r="D260" s="20">
-        <v>42</v>
+        <v>133.37</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5800,10 +5783,10 @@
         <v>25</v>
       </c>
       <c r="C261" s="19">
-        <v>5.94</v>
+        <v>5.23</v>
       </c>
       <c r="D261" s="20">
-        <v>148.5</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5811,41 +5794,35 @@
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>42</v>
+        <v>34.5</v>
       </c>
       <c r="C262" s="19">
-        <v>5.94</v>
+        <v>5.46</v>
       </c>
       <c r="D262" s="20">
-        <v>249.48</v>
+        <v>188.37</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B263" s="18">
-        <v>38</v>
-      </c>
-      <c r="C263" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="D263" s="20">
-        <v>216.6</v>
-      </c>
+      <c r="B263" s="21"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="21"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B264" s="18">
-        <v>112.5</v>
+        <v>33.5</v>
       </c>
       <c r="C264" s="19">
-        <v>5.94</v>
+        <v>6.25</v>
       </c>
       <c r="D264" s="20">
-        <v>668.25</v>
+        <v>209.38</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5853,13 +5830,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="C265" s="19">
-        <v>5.94</v>
+        <v>6.38</v>
       </c>
       <c r="D265" s="20">
-        <v>86.13</v>
+        <v>261.62</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5867,35 +5844,41 @@
         <v>268</v>
       </c>
       <c r="B266" s="18">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C266" s="19">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D266" s="20">
-        <v>250.61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B267" s="21"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="21"/>
+      <c r="B267" s="18">
+        <v>44</v>
+      </c>
+      <c r="C267" s="19">
+        <v>6</v>
+      </c>
+      <c r="D267" s="20">
+        <v>264</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
         <v>270</v>
       </c>
       <c r="B268" s="18">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C268" s="19">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="D268" s="20">
-        <v>302.82</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5903,35 +5886,41 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C269" s="19">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="D269" s="20">
-        <v>160.68</v>
+        <v>249.48</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B270" s="21"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="21"/>
+      <c r="B270" s="18">
+        <v>27</v>
+      </c>
+      <c r="C270" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="D270" s="20">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
         <v>273</v>
       </c>
       <c r="B271" s="18">
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="C271" s="19">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="D271" s="20">
-        <v>611.82000000000005</v>
+        <v>596.97</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,13 +5928,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="18">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="C272" s="19">
-        <v>6.65</v>
+        <v>5.94</v>
       </c>
       <c r="D272" s="20">
-        <v>162.93</v>
+        <v>130.68</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,41 +5942,35 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>25</v>
+        <v>28.5</v>
       </c>
       <c r="C273" s="19">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="D273" s="20">
-        <v>166.25</v>
+        <v>187.96</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B274" s="18">
-        <v>22.5</v>
-      </c>
-      <c r="C274" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="D274" s="20">
-        <v>144</v>
-      </c>
+      <c r="B274" s="21"/>
+      <c r="C274" s="22"/>
+      <c r="D274" s="21"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
         <v>277</v>
       </c>
       <c r="B275" s="18">
-        <v>36.5</v>
+        <v>48</v>
       </c>
       <c r="C275" s="19">
-        <v>6.46</v>
+        <v>6.18</v>
       </c>
       <c r="D275" s="20">
-        <v>235.79</v>
+        <v>296.64</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,13 +5978,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="18">
-        <v>32.5</v>
+        <v>20.5</v>
       </c>
       <c r="C276" s="19">
-        <v>6.4</v>
+        <v>6.18</v>
       </c>
       <c r="D276" s="20">
-        <v>208</v>
+        <v>126.69</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,13 +6000,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="18">
-        <v>54.5</v>
+        <v>53</v>
       </c>
       <c r="C278" s="19">
-        <v>6.65</v>
+        <v>6.18</v>
       </c>
       <c r="D278" s="20">
-        <v>362.43</v>
+        <v>327.54000000000002</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,35 +6014,41 @@
         <v>281</v>
       </c>
       <c r="B279" s="18">
-        <v>47</v>
+        <v>24.5</v>
       </c>
       <c r="C279" s="19">
-        <v>6.18</v>
+        <v>6.65</v>
       </c>
       <c r="D279" s="20">
-        <v>290.45999999999998</v>
+        <v>162.93</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B280" s="21"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="21"/>
+      <c r="B280" s="18">
+        <v>25</v>
+      </c>
+      <c r="C280" s="19">
+        <v>6.65</v>
+      </c>
+      <c r="D280" s="20">
+        <v>166.25</v>
+      </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
         <v>283</v>
       </c>
       <c r="B281" s="18">
-        <v>33.5</v>
+        <v>22.5</v>
       </c>
       <c r="C281" s="19">
-        <v>7.18</v>
+        <v>6.4</v>
       </c>
       <c r="D281" s="20">
-        <v>240.46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6067,13 +6056,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C282" s="19">
-        <v>7.13</v>
+        <v>6.46</v>
       </c>
       <c r="D282" s="20">
-        <v>192.51</v>
+        <v>226.1</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6081,99 +6070,99 @@
         <v>285</v>
       </c>
       <c r="B283" s="18">
-        <v>91.5</v>
+        <v>31</v>
       </c>
       <c r="C283" s="19">
-        <v>7.13</v>
+        <v>6.4</v>
       </c>
       <c r="D283" s="20">
-        <v>652.4</v>
+        <v>198.4</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="B284" s="18">
-        <v>26.5</v>
-      </c>
-      <c r="C284" s="19">
-        <v>7.13</v>
-      </c>
-      <c r="D284" s="20">
-        <v>188.95</v>
-      </c>
+      <c r="B284" s="21"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="21"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C285" s="19">
         <v>6.65</v>
       </c>
       <c r="D285" s="20">
-        <v>212.8</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B286" s="21"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="21"/>
+      <c r="B286" s="18">
+        <v>31.5</v>
+      </c>
+      <c r="C286" s="19">
+        <v>6.18</v>
+      </c>
+      <c r="D286" s="20">
+        <v>194.67</v>
+      </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B287" s="18">
-        <v>41</v>
-      </c>
-      <c r="C287" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="D287" s="20">
-        <v>311.60000000000002</v>
-      </c>
+      <c r="B287" s="21"/>
+      <c r="C287" s="22"/>
+      <c r="D287" s="21"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="s">
         <v>290</v>
       </c>
       <c r="B288" s="18">
-        <v>18.5</v>
+        <v>33.5</v>
       </c>
       <c r="C288" s="19">
-        <v>7.36</v>
+        <v>7.18</v>
       </c>
       <c r="D288" s="20">
-        <v>136.16</v>
+        <v>240.46</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B289" s="21"/>
-      <c r="C289" s="22"/>
-      <c r="D289" s="21"/>
+      <c r="B289" s="18">
+        <v>11</v>
+      </c>
+      <c r="C289" s="19">
+        <v>7.13</v>
+      </c>
+      <c r="D289" s="20">
+        <v>78.430000000000007</v>
+      </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="s">
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C290" s="19">
-        <v>8</v>
+        <v>7.13</v>
       </c>
       <c r="D290" s="20">
-        <v>128</v>
+        <v>627.44000000000005</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,13 +6170,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="18">
-        <v>30</v>
+        <v>26.5</v>
       </c>
       <c r="C291" s="19">
-        <v>7.6</v>
+        <v>7.13</v>
       </c>
       <c r="D291" s="20">
-        <v>228</v>
+        <v>188.95</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,77 +6184,71 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C292" s="19">
-        <v>8.08</v>
+        <v>6.65</v>
       </c>
       <c r="D292" s="20">
-        <v>218.16</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="B293" s="18">
-        <v>30</v>
-      </c>
-      <c r="C293" s="19">
-        <v>8.75</v>
-      </c>
-      <c r="D293" s="20">
-        <v>262.5</v>
-      </c>
+      <c r="B293" s="21"/>
+      <c r="C293" s="22"/>
+      <c r="D293" s="21"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B294" s="21"/>
-      <c r="C294" s="22"/>
-      <c r="D294" s="21"/>
+      <c r="B294" s="18">
+        <v>37.5</v>
+      </c>
+      <c r="C294" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="D294" s="20">
+        <v>285</v>
+      </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B295" s="18">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="C295" s="19">
-        <v>8.08</v>
+        <v>7.36</v>
       </c>
       <c r="D295" s="20">
-        <v>101</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B296" s="18">
-        <v>10</v>
-      </c>
-      <c r="C296" s="19">
-        <v>9</v>
-      </c>
-      <c r="D296" s="20">
-        <v>90</v>
-      </c>
+      <c r="B296" s="21"/>
+      <c r="C296" s="22"/>
+      <c r="D296" s="21"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
         <v>299</v>
       </c>
       <c r="B297" s="18">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="C297" s="19">
-        <v>8.85</v>
+        <v>8</v>
       </c>
       <c r="D297" s="20">
-        <v>13.28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6273,13 +6256,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="18">
-        <v>33.5</v>
+        <v>17</v>
       </c>
       <c r="C298" s="19">
-        <v>8.9600000000000009</v>
+        <v>7.6</v>
       </c>
       <c r="D298" s="20">
-        <v>300.02</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6287,13 +6270,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="C299" s="19">
-        <v>9.4600000000000009</v>
+        <v>8.08</v>
       </c>
       <c r="D299" s="20">
-        <v>156.06</v>
+        <v>96.96</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6301,41 +6284,35 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="C300" s="19">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="D300" s="20">
-        <v>282.13</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B301" s="18">
-        <v>11.7</v>
-      </c>
-      <c r="C301" s="19">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D301" s="20">
-        <v>102.96</v>
-      </c>
+      <c r="B301" s="21"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="21"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B302" s="18">
-        <v>35.5</v>
+        <v>19.5</v>
       </c>
       <c r="C302" s="19">
-        <v>9.3000000000000007</v>
+        <v>8.08</v>
       </c>
       <c r="D302" s="20">
-        <v>330.15</v>
+        <v>157.56</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6343,13 +6320,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="18">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="C303" s="19">
         <v>9</v>
       </c>
       <c r="D303" s="20">
-        <v>148.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,13 +6334,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="18">
-        <v>29.5</v>
+        <v>11.5</v>
       </c>
       <c r="C304" s="19">
-        <v>9.5</v>
+        <v>8.85</v>
       </c>
       <c r="D304" s="20">
-        <v>280.25</v>
+        <v>101.78</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6371,13 +6348,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="18">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="C305" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D305" s="20">
-        <v>245</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6385,13 +6362,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="18">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="C306" s="19">
-        <v>11</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D306" s="20">
-        <v>104.5</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,13 +6376,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>22.5</v>
+        <v>14.5</v>
       </c>
       <c r="C307" s="19">
         <v>9.25</v>
       </c>
       <c r="D307" s="20">
-        <v>208.13</v>
+        <v>134.13</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6413,13 +6390,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="C308" s="19">
-        <v>11.75</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D308" s="20">
-        <v>340.75</v>
+        <v>252.56</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6427,13 +6404,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C309" s="19">
-        <v>4.8</v>
+        <v>9.31</v>
       </c>
       <c r="D309" s="20">
-        <v>153.6</v>
+        <v>316.63</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,10 +6421,10 @@
         <v>14</v>
       </c>
       <c r="C310" s="19">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="D310" s="20">
-        <v>115.5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6455,13 +6432,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C311" s="19">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="D311" s="20">
-        <v>71.5</v>
+        <v>180.5</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6469,13 +6446,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="C312" s="19">
-        <v>6.84</v>
+        <v>10</v>
       </c>
       <c r="D312" s="20">
-        <v>376.04</v>
+        <v>175</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6483,13 +6460,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="C313" s="19">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="D313" s="20">
-        <v>3.25</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6497,13 +6474,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C314" s="19">
-        <v>7.13</v>
+        <v>9.25</v>
       </c>
       <c r="D314" s="20">
-        <v>256.68</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,10 +6491,10 @@
         <v>26.5</v>
       </c>
       <c r="C315" s="19">
-        <v>8.5</v>
+        <v>11.75</v>
       </c>
       <c r="D315" s="20">
-        <v>225.25</v>
+        <v>311.38</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,13 +6502,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="18">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C316" s="19">
-        <v>8.5</v>
+        <v>4.8</v>
       </c>
       <c r="D316" s="20">
-        <v>331.5</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6539,13 +6516,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="18">
-        <v>38.5</v>
+        <v>13</v>
       </c>
       <c r="C317" s="19">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="D317" s="20">
-        <v>365.75</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6553,13 +6530,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="18">
-        <v>20.5</v>
+        <v>88.5</v>
       </c>
       <c r="C318" s="19">
-        <v>10.61</v>
+        <v>5.5</v>
       </c>
       <c r="D318" s="20">
-        <v>217.59</v>
+        <v>486.75</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6567,13 +6544,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="18">
-        <v>15.5</v>
+        <v>60.5</v>
       </c>
       <c r="C319" s="19">
-        <v>7.84</v>
+        <v>6.79</v>
       </c>
       <c r="D319" s="20">
-        <v>121.52</v>
+        <v>410.7</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6581,13 +6558,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="18">
-        <v>14.5</v>
+        <v>60.5</v>
       </c>
       <c r="C320" s="19">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D320" s="20">
-        <v>100.05</v>
+        <v>393.25</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6595,57 +6572,69 @@
         <v>323</v>
       </c>
       <c r="B321" s="18">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="C321" s="19">
-        <v>7.82</v>
+        <v>7.13</v>
       </c>
       <c r="D321" s="20">
-        <v>191.71</v>
+        <v>171.12</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B322" s="21"/>
-      <c r="C322" s="22"/>
-      <c r="D322" s="21"/>
+      <c r="B322" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="C322" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="D322" s="20">
+        <v>225.25</v>
+      </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="s">
         <v>325</v>
       </c>
       <c r="B323" s="18">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="C323" s="19">
-        <v>6.51</v>
+        <v>8.5</v>
       </c>
       <c r="D323" s="20">
-        <v>244.14</v>
+        <v>255</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B324" s="21"/>
-      <c r="C324" s="22"/>
-      <c r="D324" s="21"/>
+      <c r="B324" s="18">
+        <v>38.5</v>
+      </c>
+      <c r="C324" s="19">
+        <v>9.5</v>
+      </c>
+      <c r="D324" s="20">
+        <v>365.75</v>
+      </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="s">
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>31.5</v>
+        <v>16</v>
       </c>
       <c r="C325" s="19">
-        <v>4.9000000000000004</v>
+        <v>10.61</v>
       </c>
       <c r="D325" s="20">
-        <v>154.35</v>
+        <v>169.83</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,13 +6642,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="C326" s="19">
-        <v>6.65</v>
+        <v>7.84</v>
       </c>
       <c r="D326" s="20">
-        <v>113.05</v>
+        <v>74.48</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6667,13 +6656,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="C327" s="19">
-        <v>7.36</v>
+        <v>6.9</v>
       </c>
       <c r="D327" s="20">
-        <v>62.56</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6681,69 +6670,57 @@
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="C328" s="19">
-        <v>7.67</v>
+        <v>7.88</v>
       </c>
       <c r="D328" s="20">
-        <v>141.86000000000001</v>
+        <v>267.89999999999998</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B329" s="18">
-        <v>33</v>
-      </c>
-      <c r="C329" s="19">
-        <v>8.75</v>
-      </c>
-      <c r="D329" s="20">
-        <v>288.89999999999998</v>
-      </c>
+      <c r="B329" s="21"/>
+      <c r="C329" s="22"/>
+      <c r="D329" s="21"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
         <v>332</v>
       </c>
       <c r="B330" s="18">
-        <v>69.5</v>
+        <v>29.5</v>
       </c>
       <c r="C330" s="19">
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
       <c r="D330" s="20">
-        <v>451.75</v>
+        <v>192.06</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B331" s="18">
-        <v>15</v>
-      </c>
-      <c r="C331" s="19">
-        <v>17</v>
-      </c>
-      <c r="D331" s="20">
-        <v>255</v>
-      </c>
+      <c r="B331" s="21"/>
+      <c r="C331" s="22"/>
+      <c r="D331" s="21"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="17" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="C332" s="19">
-        <v>16</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D332" s="20">
-        <v>280</v>
+        <v>98</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,13 +6728,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C333" s="19">
-        <v>12.5</v>
+        <v>6.65</v>
       </c>
       <c r="D333" s="20">
-        <v>225</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,13 +6742,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="18">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="C334" s="19">
-        <v>12.25</v>
+        <v>7.36</v>
       </c>
       <c r="D334" s="20">
-        <v>116.38</v>
+        <v>117.76</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,13 +6756,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="18">
-        <v>6.5</v>
+        <v>31.5</v>
       </c>
       <c r="C335" s="19">
-        <v>16.25</v>
+        <v>7.66</v>
       </c>
       <c r="D335" s="20">
-        <v>105.63</v>
+        <v>241.39</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,13 +6770,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="18">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="C336" s="19">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="D336" s="20">
-        <v>148.5</v>
+        <v>201.35</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,13 +6784,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="18">
-        <v>10.5</v>
+        <v>65.5</v>
       </c>
       <c r="C337" s="19">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="D337" s="20">
-        <v>189</v>
+        <v>425.75</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,13 +6798,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="18">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="C338" s="19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D338" s="20">
-        <v>250</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,13 +6812,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="C339" s="19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D339" s="20">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,13 +6826,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="18">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C340" s="19">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="D340" s="20">
-        <v>407</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6863,13 +6840,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="18">
-        <v>11</v>
+        <v>27.5</v>
       </c>
       <c r="C341" s="19">
-        <v>39</v>
+        <v>12.25</v>
       </c>
       <c r="D341" s="20">
-        <v>429</v>
+        <v>336.88</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,13 +6854,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="18">
-        <v>1.99</v>
+        <v>4.5</v>
       </c>
       <c r="C342" s="19">
-        <v>12</v>
+        <v>16.25</v>
       </c>
       <c r="D342" s="20">
-        <v>23.88</v>
+        <v>73.13</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6891,13 +6868,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="18">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
       <c r="C343" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D343" s="20">
-        <v>222</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,13 +6882,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="C344" s="19">
-        <v>7.84</v>
+        <v>18</v>
       </c>
       <c r="D344" s="20">
-        <v>86.24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,13 +6896,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="18">
-        <v>6</v>
+        <v>22.5</v>
       </c>
       <c r="C345" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D345" s="20">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6933,13 +6910,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C346" s="19">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="D346" s="20">
-        <v>329</v>
+        <v>165</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,13 +6924,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C347" s="19">
-        <v>14.79</v>
+        <v>11</v>
       </c>
       <c r="D347" s="20">
-        <v>325.32</v>
+        <v>330</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6961,13 +6938,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="18">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="C348" s="19">
-        <v>13.5</v>
+        <v>39</v>
       </c>
       <c r="D348" s="20">
-        <v>60.75</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6975,13 +6952,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="18">
-        <v>6.5</v>
+        <v>13.99</v>
       </c>
       <c r="C349" s="19">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="D349" s="20">
-        <v>68.25</v>
+        <v>167.88</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6989,13 +6966,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="18">
-        <v>21.23</v>
+        <v>16.5</v>
       </c>
       <c r="C350" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D350" s="20">
-        <v>212.3</v>
+        <v>198</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,13 +6980,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>27</v>
+        <v>3.5</v>
       </c>
       <c r="C351" s="19">
-        <v>10</v>
+        <v>7.84</v>
       </c>
       <c r="D351" s="20">
-        <v>270</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7017,13 +6994,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="18">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="C352" s="19">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D352" s="20">
-        <v>194.25</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,13 +7008,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C353" s="19">
-        <v>13.5</v>
+        <v>23.5</v>
       </c>
       <c r="D353" s="20">
-        <v>202.5</v>
+        <v>329</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7045,13 +7022,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="18">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="C354" s="19">
-        <v>18</v>
+        <v>14.79</v>
       </c>
       <c r="D354" s="20">
-        <v>333</v>
+        <v>295.74</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,13 +7036,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>17.5</v>
+        <v>4.5</v>
       </c>
       <c r="C355" s="19">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="D355" s="20">
-        <v>183.75</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7073,13 +7050,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>21.5</v>
+        <v>6.5</v>
       </c>
       <c r="C356" s="19">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D356" s="20">
-        <v>204.25</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,13 +7064,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>0.5</v>
+        <v>5.73</v>
       </c>
       <c r="C357" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D357" s="20">
-        <v>7.5</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,13 +7078,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="18">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="C358" s="19">
         <v>10</v>
       </c>
       <c r="D358" s="20">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,13 +7092,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="18">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="C359" s="19">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D359" s="20">
-        <v>150</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7129,13 +7106,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="C360" s="19">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="D360" s="20">
-        <v>195.5</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7143,13 +7120,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="18">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="C361" s="19">
-        <v>7.84</v>
+        <v>18</v>
       </c>
       <c r="D361" s="20">
-        <v>282.24</v>
+        <v>333</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,13 +7134,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="18">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="C362" s="19">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="D362" s="20">
-        <v>162.5</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,13 +7148,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C363" s="19">
-        <v>14.2</v>
+        <v>9.5</v>
       </c>
       <c r="D363" s="20">
-        <v>42.6</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,13 +7162,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>40</v>
+        <v>5.5</v>
       </c>
       <c r="C364" s="19">
-        <v>10.93</v>
+        <v>15</v>
       </c>
       <c r="D364" s="20">
-        <v>437.2</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,13 +7176,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="C365" s="19">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="D365" s="20">
-        <v>159.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7213,13 +7190,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="18">
-        <v>18.5</v>
+        <v>3.5</v>
       </c>
       <c r="C366" s="19">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="D366" s="20">
-        <v>231.25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7227,13 +7204,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="18">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="C367" s="19">
-        <v>21.5</v>
+        <v>17</v>
       </c>
       <c r="D367" s="20">
-        <v>96.75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,13 +7218,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="18">
-        <v>13.5</v>
+        <v>25.5</v>
       </c>
       <c r="C368" s="19">
-        <v>12.75</v>
+        <v>7.84</v>
       </c>
       <c r="D368" s="20">
-        <v>172.13</v>
+        <v>199.92</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,13 +7232,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="C369" s="19">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="D369" s="20">
-        <v>166.75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,13 +7246,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="18">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="C370" s="19">
-        <v>17</v>
+        <v>14.2</v>
       </c>
       <c r="D370" s="20">
-        <v>195.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7283,13 +7260,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="C371" s="19">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="D371" s="20">
-        <v>216.6</v>
+        <v>377.09</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,13 +7274,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="18">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="C372" s="19">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="D372" s="20">
-        <v>195.75</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,13 +7288,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="18">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="C373" s="19">
-        <v>22.5</v>
+        <v>12.5</v>
       </c>
       <c r="D373" s="20">
-        <v>157.5</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7325,13 +7302,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="18">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C374" s="19">
-        <v>12.5</v>
+        <v>21.5</v>
       </c>
       <c r="D374" s="20">
-        <v>162.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,13 +7316,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>23.5</v>
+        <v>13.5</v>
       </c>
       <c r="C375" s="19">
-        <v>9.5</v>
+        <v>12.75</v>
       </c>
       <c r="D375" s="20">
-        <v>223.25</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7353,13 +7330,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>62.5</v>
+        <v>38.25</v>
       </c>
       <c r="C376" s="19">
-        <v>10.93</v>
+        <v>11.5</v>
       </c>
       <c r="D376" s="20">
-        <v>683.13</v>
+        <v>439.88</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,13 +7344,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="C377" s="19">
-        <v>10.93</v>
+        <v>17</v>
       </c>
       <c r="D377" s="20">
-        <v>71.05</v>
+        <v>170</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7381,13 +7358,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="C378" s="19">
-        <v>14.75</v>
+        <v>11.4</v>
       </c>
       <c r="D378" s="20">
-        <v>125.38</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7395,13 +7372,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="C379" s="19">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="D379" s="20">
-        <v>95</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,13 +7386,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="18">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="C380" s="19">
-        <v>10.45</v>
+        <v>22.5</v>
       </c>
       <c r="D380" s="20">
-        <v>156.75</v>
+        <v>371.25</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,13 +7400,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="18">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="C381" s="19">
-        <v>10.45</v>
+        <v>12.5</v>
       </c>
       <c r="D381" s="20">
-        <v>78.38</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,13 +7414,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C382" s="19">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="D382" s="20">
-        <v>92</v>
+        <v>209</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7451,13 +7428,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>44.5</v>
+        <v>40.5</v>
       </c>
       <c r="C383" s="19">
-        <v>2</v>
+        <v>10.93</v>
       </c>
       <c r="D383" s="20">
-        <v>89</v>
+        <v>442.67</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,65 +7442,83 @@
         <v>386</v>
       </c>
       <c r="B384" s="18">
-        <v>57.5</v>
+        <v>23</v>
       </c>
       <c r="C384" s="19">
-        <v>2.1</v>
+        <v>10.93</v>
       </c>
       <c r="D384" s="20">
-        <v>120.75</v>
+        <v>251.39</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B385" s="21"/>
-      <c r="C385" s="22"/>
-      <c r="D385" s="21"/>
+      <c r="B385" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="C385" s="19">
+        <v>14.75</v>
+      </c>
+      <c r="D385" s="20">
+        <v>95.88</v>
+      </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="17" t="s">
         <v>388</v>
       </c>
       <c r="B386" s="18">
-        <v>63</v>
+        <v>6.5</v>
       </c>
       <c r="C386" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D386" s="20">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="B387" s="21"/>
-      <c r="C387" s="22"/>
-      <c r="D387" s="21"/>
+      <c r="B387" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="C387" s="19">
+        <v>10.45</v>
+      </c>
+      <c r="D387" s="20">
+        <v>130.63</v>
+      </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="B388" s="21"/>
-      <c r="C388" s="22"/>
-      <c r="D388" s="21"/>
+      <c r="B388" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C388" s="19">
+        <v>10.46</v>
+      </c>
+      <c r="D388" s="20">
+        <v>5.23</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
         <v>391</v>
       </c>
       <c r="B389" s="18">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="C389" s="19">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D389" s="20">
-        <v>47.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7531,13 +7526,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="18">
-        <v>69</v>
+        <v>37.5</v>
       </c>
       <c r="C390" s="19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="D390" s="20">
-        <v>155.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7545,83 +7540,65 @@
         <v>393</v>
       </c>
       <c r="B391" s="18">
-        <v>72</v>
+        <v>48.5</v>
       </c>
       <c r="C391" s="19">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="D391" s="20">
-        <v>162</v>
+        <v>101.85</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B392" s="18">
-        <v>31.5</v>
-      </c>
-      <c r="C392" s="19">
-        <v>2.25</v>
-      </c>
-      <c r="D392" s="20">
-        <v>70.88</v>
-      </c>
+      <c r="B392" s="21"/>
+      <c r="C392" s="22"/>
+      <c r="D392" s="21"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="s">
         <v>395</v>
       </c>
       <c r="B393" s="18">
-        <v>23</v>
+        <v>54.5</v>
       </c>
       <c r="C393" s="19">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D393" s="20">
-        <v>57.5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B394" s="18">
-        <v>52</v>
-      </c>
-      <c r="C394" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D394" s="20">
-        <v>130</v>
-      </c>
+      <c r="B394" s="21"/>
+      <c r="C394" s="22"/>
+      <c r="D394" s="21"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B395" s="18">
-        <v>23.5</v>
-      </c>
-      <c r="C395" s="19">
-        <v>2.7</v>
-      </c>
-      <c r="D395" s="20">
-        <v>63.45</v>
-      </c>
+      <c r="B395" s="21"/>
+      <c r="C395" s="22"/>
+      <c r="D395" s="21"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="17" t="s">
         <v>398</v>
       </c>
       <c r="B396" s="18">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="C396" s="19">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D396" s="20">
-        <v>33.75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,13 +7606,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="18">
-        <v>57.5</v>
+        <v>69</v>
       </c>
       <c r="C397" s="19">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="D397" s="20">
-        <v>149.5</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7643,13 +7620,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>78</v>
+        <v>65.5</v>
       </c>
       <c r="C398" s="19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="D398" s="20">
-        <v>214.5</v>
+        <v>147.38</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,13 +7634,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>70.5</v>
+        <v>24</v>
       </c>
       <c r="C399" s="19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="D399" s="20">
-        <v>193.88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7671,13 +7648,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="18">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C400" s="19">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D400" s="20">
-        <v>171</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7685,13 +7662,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C401" s="19">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D401" s="20">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7699,35 +7676,41 @@
         <v>404</v>
       </c>
       <c r="B402" s="18">
-        <v>50.5</v>
+        <v>9.5</v>
       </c>
       <c r="C402" s="19">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D402" s="20">
-        <v>141.4</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="B403" s="21"/>
-      <c r="C403" s="22"/>
-      <c r="D403" s="21"/>
+      <c r="B403" s="18">
+        <v>87</v>
+      </c>
+      <c r="C403" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="D403" s="20">
+        <v>234.9</v>
+      </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="17" t="s">
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>98</v>
+        <v>57.5</v>
       </c>
       <c r="C404" s="19">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D404" s="20">
-        <v>274.39999999999998</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7735,13 +7718,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>59.5</v>
+        <v>73</v>
       </c>
       <c r="C405" s="19">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="D405" s="20">
-        <v>175.53</v>
+        <v>200.75</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,13 +7732,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C406" s="19">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="D406" s="20">
-        <v>105.4</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7763,13 +7746,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="18">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C407" s="19">
-        <v>2.85</v>
+        <v>3.8</v>
       </c>
       <c r="D407" s="20">
-        <v>88.35</v>
+        <v>171</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7777,13 +7760,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="18">
-        <v>29.5</v>
+        <v>35</v>
       </c>
       <c r="C408" s="19">
-        <v>3.26</v>
+        <v>2.8</v>
       </c>
       <c r="D408" s="20">
-        <v>96.17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7791,41 +7774,35 @@
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>54.5</v>
+        <v>32</v>
       </c>
       <c r="C409" s="19">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D409" s="20">
-        <v>179.85</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="B410" s="18">
-        <v>48</v>
-      </c>
-      <c r="C410" s="19">
-        <v>3.15</v>
-      </c>
-      <c r="D410" s="20">
-        <v>151.19999999999999</v>
-      </c>
+      <c r="B410" s="21"/>
+      <c r="C410" s="22"/>
+      <c r="D410" s="21"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="s">
         <v>413</v>
       </c>
       <c r="B411" s="18">
-        <v>21.5</v>
+        <v>67</v>
       </c>
       <c r="C411" s="19">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="D411" s="20">
-        <v>65.58</v>
+        <v>187.6</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7833,13 +7810,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C412" s="19">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="D412" s="20">
-        <v>94.55</v>
+        <v>144.55000000000001</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7847,13 +7824,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C413" s="19">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="D413" s="20">
-        <v>81.25</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7861,35 +7838,41 @@
         <v>416</v>
       </c>
       <c r="B414" s="18">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C414" s="19">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="D414" s="20">
-        <v>49</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B415" s="21"/>
-      <c r="C415" s="22"/>
-      <c r="D415" s="21"/>
+      <c r="B415" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="C415" s="19">
+        <v>3.26</v>
+      </c>
+      <c r="D415" s="20">
+        <v>96.17</v>
+      </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="17" t="s">
         <v>418</v>
       </c>
       <c r="B416" s="18">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="C416" s="19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="D416" s="20">
-        <v>143</v>
+        <v>143.55000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7897,13 +7880,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>43.5</v>
+        <v>22.95</v>
       </c>
       <c r="C417" s="19">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="D417" s="20">
-        <v>147.9</v>
+        <v>72.290000000000006</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,13 +7894,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>33.86</v>
+        <v>2.5</v>
       </c>
       <c r="C418" s="19">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="D418" s="20">
-        <v>118.51</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7925,13 +7908,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="18">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="C419" s="19">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="D419" s="20">
-        <v>110.2</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -7939,71 +7922,77 @@
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C420" s="19">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D420" s="20">
-        <v>109.2</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="B421" s="18">
-        <v>16</v>
-      </c>
-      <c r="C421" s="19">
-        <v>3.33</v>
-      </c>
-      <c r="D421" s="20">
-        <v>53.28</v>
-      </c>
+      <c r="B421" s="21"/>
+      <c r="C421" s="22"/>
+      <c r="D421" s="21"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="17" t="s">
         <v>424</v>
       </c>
       <c r="B422" s="18">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C422" s="19">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="D422" s="20">
-        <v>193.14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="B423" s="21"/>
-      <c r="C423" s="22"/>
-      <c r="D423" s="21"/>
+      <c r="B423" s="18">
+        <v>34.5</v>
+      </c>
+      <c r="C423" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="D423" s="20">
+        <v>117.3</v>
+      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B424" s="21"/>
-      <c r="C424" s="22"/>
-      <c r="D424" s="21"/>
+      <c r="B424" s="18">
+        <v>46.56</v>
+      </c>
+      <c r="C424" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D424" s="20">
+        <v>162.96</v>
+      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="17" t="s">
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>53</v>
+        <v>59.5</v>
       </c>
       <c r="C425" s="19">
         <v>3.8</v>
       </c>
       <c r="D425" s="20">
-        <v>201.4</v>
+        <v>226.1</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,13 +8000,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C426" s="19">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="D426" s="20">
-        <v>212.5</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,13 +8014,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C427" s="19">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="D427" s="20">
-        <v>121.6</v>
+        <v>133.19999999999999</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,55 +8028,43 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C428" s="19">
-        <v>4.0999999999999996</v>
+        <v>3.33</v>
       </c>
       <c r="D428" s="20">
-        <v>118.84</v>
+        <v>189.81</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="B429" s="18">
-        <v>19</v>
-      </c>
-      <c r="C429" s="19">
-        <v>4.25</v>
-      </c>
-      <c r="D429" s="20">
-        <v>80.75</v>
-      </c>
+      <c r="B429" s="21"/>
+      <c r="C429" s="22"/>
+      <c r="D429" s="21"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="B430" s="18">
-        <v>18</v>
-      </c>
-      <c r="C430" s="19">
-        <v>4.75</v>
-      </c>
-      <c r="D430" s="20">
-        <v>85.5</v>
-      </c>
+      <c r="B430" s="21"/>
+      <c r="C430" s="22"/>
+      <c r="D430" s="21"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="s">
         <v>433</v>
       </c>
       <c r="B431" s="18">
-        <v>27</v>
+        <v>50.5</v>
       </c>
       <c r="C431" s="19">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="D431" s="20">
-        <v>132.30000000000001</v>
+        <v>191.9</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,13 +8072,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C432" s="19">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="D432" s="20">
-        <v>128.4</v>
+        <v>174.25</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,13 +8086,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="C433" s="19">
-        <v>4.18</v>
+        <v>3.8</v>
       </c>
       <c r="D433" s="20">
-        <v>125.4</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,13 +8100,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>33.5</v>
+        <v>11.5</v>
       </c>
       <c r="C434" s="19">
-        <v>4.28</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D434" s="20">
-        <v>143.38</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,13 +8114,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="C435" s="19">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="D435" s="20">
-        <v>57</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8154,10 +8131,10 @@
         <v>13</v>
       </c>
       <c r="C436" s="19">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="D436" s="20">
-        <v>62.4</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8165,13 +8142,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C437" s="19">
-        <v>4.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D437" s="20">
-        <v>175.75</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8179,13 +8156,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C438" s="19">
-        <v>5.25</v>
+        <v>4.28</v>
       </c>
       <c r="D438" s="20">
-        <v>89.25</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,13 +8170,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C439" s="19">
-        <v>4.5</v>
+        <v>4.18</v>
       </c>
       <c r="D439" s="20">
-        <v>85.5</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8210,10 +8187,10 @@
         <v>18</v>
       </c>
       <c r="C440" s="19">
-        <v>5.25</v>
+        <v>4.28</v>
       </c>
       <c r="D440" s="20">
-        <v>94.5</v>
+        <v>77.040000000000006</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,41 +8198,35 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>29</v>
+        <v>50.5</v>
       </c>
       <c r="C441" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="D441" s="20">
-        <v>133.4</v>
+        <v>239.88</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B442" s="18">
-        <v>67</v>
-      </c>
-      <c r="C442" s="19">
-        <v>5.5</v>
-      </c>
-      <c r="D442" s="20">
-        <v>368.5</v>
-      </c>
+      <c r="B442" s="21"/>
+      <c r="C442" s="22"/>
+      <c r="D442" s="21"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
         <v>445</v>
       </c>
       <c r="B443" s="18">
-        <v>35.5</v>
+        <v>31</v>
       </c>
       <c r="C443" s="19">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="D443" s="20">
-        <v>195.25</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,13 +8234,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>29.5</v>
+        <v>2.5</v>
       </c>
       <c r="C444" s="19">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="D444" s="20">
-        <v>154.29</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8277,57 +8248,69 @@
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="C445" s="19">
-        <v>6.25</v>
+        <v>4.5</v>
       </c>
       <c r="D445" s="20">
-        <v>65.63</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="B446" s="21"/>
-      <c r="C446" s="22"/>
-      <c r="D446" s="21"/>
+      <c r="B446" s="18">
+        <v>11</v>
+      </c>
+      <c r="C446" s="19">
+        <v>5.25</v>
+      </c>
+      <c r="D446" s="20">
+        <v>57.75</v>
+      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C447" s="19">
-        <v>6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D447" s="20">
-        <v>318</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B448" s="21"/>
-      <c r="C448" s="22"/>
-      <c r="D448" s="21"/>
+      <c r="B448" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="C448" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="D448" s="20">
+        <v>79.75</v>
+      </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>23.5</v>
+        <v>5.5</v>
       </c>
       <c r="C449" s="19">
-        <v>5.94</v>
+        <v>5.5</v>
       </c>
       <c r="D449" s="20">
-        <v>139.59</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8335,13 +8318,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>21</v>
+        <v>29.5</v>
       </c>
       <c r="C450" s="19">
-        <v>6.75</v>
+        <v>5.23</v>
       </c>
       <c r="D450" s="20">
-        <v>141.75</v>
+        <v>154.29</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8349,56 +8332,44 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="C451" s="19">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="D451" s="20">
-        <v>225</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="B452" s="18">
-        <v>72</v>
-      </c>
-      <c r="C452" s="19">
-        <v>7.13</v>
-      </c>
-      <c r="D452" s="20">
-        <v>513.36</v>
-      </c>
+      <c r="B452" s="21"/>
+      <c r="C452" s="22"/>
+      <c r="D452" s="21"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C453" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D453" s="20">
-        <v>200</v>
+        <v>282</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B454" s="18">
-        <v>27</v>
-      </c>
-      <c r="C454" s="19">
-        <v>7</v>
-      </c>
-      <c r="D454" s="20">
-        <v>189</v>
-      </c>
+      <c r="B454" s="21"/>
+      <c r="C454" s="22"/>
+      <c r="D454" s="21"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
@@ -8408,10 +8379,10 @@
         <v>23.5</v>
       </c>
       <c r="C455" s="19">
-        <v>7.6</v>
+        <v>5.94</v>
       </c>
       <c r="D455" s="20">
-        <v>178.6</v>
+        <v>139.59</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8419,13 +8390,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C456" s="19">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="D456" s="20">
-        <v>365.5</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8433,13 +8404,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="C457" s="19">
         <v>7.5</v>
       </c>
       <c r="D457" s="20">
-        <v>108.75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8447,35 +8418,41 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>14.5</v>
+        <v>54.5</v>
       </c>
       <c r="C458" s="19">
-        <v>8.25</v>
+        <v>7.13</v>
       </c>
       <c r="D458" s="20">
-        <v>119.63</v>
+        <v>388.59</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="B459" s="21"/>
-      <c r="C459" s="22"/>
-      <c r="D459" s="21"/>
+      <c r="B459" s="18">
+        <v>24</v>
+      </c>
+      <c r="C459" s="19">
+        <v>8</v>
+      </c>
+      <c r="D459" s="20">
+        <v>192</v>
+      </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="C460" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D460" s="20">
-        <v>121.5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,13 +8460,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C461" s="19">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="D461" s="20">
-        <v>75</v>
+        <v>304</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8497,13 +8474,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C462" s="19">
-        <v>4.28</v>
+        <v>8.5</v>
       </c>
       <c r="D462" s="20">
-        <v>136.96</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8511,13 +8488,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="C463" s="19">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D463" s="20">
-        <v>218.5</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8525,41 +8502,35 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>41</v>
+        <v>6.5</v>
       </c>
       <c r="C464" s="19">
-        <v>4.5</v>
+        <v>8.25</v>
       </c>
       <c r="D464" s="20">
-        <v>184.5</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="B465" s="18">
-        <v>50</v>
-      </c>
-      <c r="C465" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="D465" s="20">
-        <v>140</v>
-      </c>
+      <c r="B465" s="21"/>
+      <c r="C465" s="22"/>
+      <c r="D465" s="21"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>68.5</v>
+        <v>11.5</v>
       </c>
       <c r="C466" s="19">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="D466" s="20">
-        <v>390.45</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,13 +8538,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="C467" s="19">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
       <c r="D467" s="20">
-        <v>65.23</v>
+        <v>50.63</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8581,13 +8552,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C468" s="19">
-        <v>1.9</v>
+        <v>4.28</v>
       </c>
       <c r="D468" s="20">
-        <v>172.9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8595,13 +8566,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>161</v>
+        <v>20.5</v>
       </c>
       <c r="C469" s="19">
-        <v>1.1000000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D469" s="20">
-        <v>177.1</v>
+        <v>194.75</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8609,13 +8580,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>98</v>
+        <v>35.5</v>
       </c>
       <c r="C470" s="19">
-        <v>1.1000000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="D470" s="20">
-        <v>107.8</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8623,13 +8594,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C471" s="19">
-        <v>4.1500000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="D471" s="20">
-        <v>240.7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8637,13 +8608,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>32.5</v>
+        <v>58</v>
       </c>
       <c r="C472" s="19">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="D472" s="20">
-        <v>45.5</v>
+        <v>330.6</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8651,13 +8622,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>145.5</v>
+        <v>34</v>
       </c>
       <c r="C473" s="19">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="D473" s="20">
-        <v>203.7</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8665,13 +8636,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C474" s="19">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D474" s="20">
-        <v>72.8</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8679,13 +8650,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>22.5</v>
+        <v>80</v>
       </c>
       <c r="C475" s="19">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D475" s="20">
-        <v>67.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8693,13 +8664,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>186</v>
+        <v>51.5</v>
       </c>
       <c r="C476" s="19">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D476" s="20">
-        <v>279</v>
+        <v>56.65</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8707,41 +8678,35 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C477" s="19">
-        <v>1.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D477" s="20">
-        <v>244.5</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="B478" s="18">
-        <v>219.5</v>
-      </c>
-      <c r="C478" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="D478" s="20">
-        <v>329.25</v>
-      </c>
+      <c r="B478" s="21"/>
+      <c r="C478" s="22"/>
+      <c r="D478" s="21"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>53</v>
+        <v>150.5</v>
       </c>
       <c r="C479" s="19">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="D479" s="20">
-        <v>90.63</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8749,13 +8714,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>169</v>
+        <v>106.5</v>
       </c>
       <c r="C480" s="19">
-        <v>0.39</v>
+        <v>1.4</v>
       </c>
       <c r="D480" s="20">
-        <v>66.209999999999994</v>
+        <v>149.1</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8763,13 +8728,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>15.5</v>
+        <v>22.5</v>
       </c>
       <c r="C481" s="19">
-        <v>2.2799999999999998</v>
+        <v>3</v>
       </c>
       <c r="D481" s="20">
-        <v>35.340000000000003</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8777,13 +8742,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C482" s="19">
-        <v>2.2799999999999998</v>
+        <v>3.05</v>
       </c>
       <c r="D482" s="20">
-        <v>84.36</v>
+        <v>94.55</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8791,35 +8756,41 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C483" s="19">
-        <v>2.4700000000000002</v>
+        <v>1.55</v>
       </c>
       <c r="D483" s="20">
-        <v>138.32</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="B484" s="21"/>
-      <c r="C484" s="22"/>
-      <c r="D484" s="21"/>
+      <c r="B484" s="18">
+        <v>10</v>
+      </c>
+      <c r="C484" s="19">
+        <v>1.55</v>
+      </c>
+      <c r="D484" s="20">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C485" s="19">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="D485" s="20">
-        <v>71.5</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8827,13 +8798,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>100</v>
+        <v>220.5</v>
       </c>
       <c r="C486" s="19">
-        <v>2.72</v>
+        <v>1.5</v>
       </c>
       <c r="D486" s="20">
-        <v>271.95999999999998</v>
+        <v>330.75</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8841,13 +8812,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>74.5</v>
+        <v>341.5</v>
       </c>
       <c r="C487" s="19">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="D487" s="20">
-        <v>208.6</v>
+        <v>512.25</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8855,13 +8826,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>48.5</v>
+        <v>12.5</v>
       </c>
       <c r="C488" s="19">
-        <v>2.95</v>
+        <v>1.71</v>
       </c>
       <c r="D488" s="20">
-        <v>143.08000000000001</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8869,13 +8840,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C489" s="19">
-        <v>2.95</v>
+        <v>0.39</v>
       </c>
       <c r="D489" s="20">
-        <v>120.95</v>
+        <v>59.55</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8883,13 +8854,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="C490" s="19">
-        <v>3.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D490" s="20">
-        <v>105</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8897,13 +8868,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>30</v>
+        <v>69.5</v>
       </c>
       <c r="C491" s="19">
-        <v>3.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D491" s="20">
-        <v>105</v>
+        <v>158.46</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8911,49 +8882,49 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>-0.5</v>
+        <v>28.5</v>
       </c>
       <c r="C492" s="19">
-        <v>3.2</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D492" s="20">
-        <v>-1.6</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="B493" s="18">
-        <v>11</v>
-      </c>
-      <c r="C493" s="19">
-        <v>3.2</v>
-      </c>
-      <c r="D493" s="20">
-        <v>35.200000000000003</v>
-      </c>
+      <c r="B493" s="21"/>
+      <c r="C493" s="22"/>
+      <c r="D493" s="21"/>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B494" s="21"/>
-      <c r="C494" s="22"/>
-      <c r="D494" s="21"/>
+      <c r="B494" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="C494" s="19">
+        <v>2.75</v>
+      </c>
+      <c r="D494" s="20">
+        <v>56.38</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>54</v>
+        <v>86.5</v>
       </c>
       <c r="C495" s="19">
-        <v>2.85</v>
+        <v>2.73</v>
       </c>
       <c r="D495" s="20">
-        <v>153.9</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,13 +8932,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>27.5</v>
+        <v>19</v>
       </c>
       <c r="C496" s="19">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="D496" s="20">
-        <v>89.38</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,43 +8946,55 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>32.5</v>
+        <v>48.5</v>
       </c>
       <c r="C497" s="19">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="D497" s="20">
-        <v>105.63</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="B498" s="21"/>
-      <c r="C498" s="22"/>
-      <c r="D498" s="21"/>
+      <c r="B498" s="18">
+        <v>40</v>
+      </c>
+      <c r="C498" s="19">
+        <v>2.95</v>
+      </c>
+      <c r="D498" s="20">
+        <v>118</v>
+      </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="B499" s="21"/>
-      <c r="C499" s="22"/>
-      <c r="D499" s="21"/>
+      <c r="B499" s="18">
+        <v>30</v>
+      </c>
+      <c r="C499" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D499" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C500" s="19">
         <v>3.5</v>
       </c>
       <c r="D500" s="20">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,13 +9002,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C501" s="19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D501" s="20">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,13 +9016,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>21.5</v>
+        <v>45.5</v>
       </c>
       <c r="C502" s="19">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="D502" s="20">
-        <v>71.599999999999994</v>
+        <v>145.6</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9055,13 +9038,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>65.5</v>
+        <v>46</v>
       </c>
       <c r="C504" s="19">
-        <v>3.8</v>
+        <v>2.85</v>
       </c>
       <c r="D504" s="20">
-        <v>248.9</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9069,13 +9052,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>71.5</v>
+        <v>20.5</v>
       </c>
       <c r="C505" s="19">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="D505" s="20">
-        <v>264.55</v>
+        <v>66.63</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9083,13 +9066,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="18">
-        <v>22</v>
+        <v>46.5</v>
       </c>
       <c r="C506" s="19">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="D506" s="20">
-        <v>79.2</v>
+        <v>151.13</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9104,36 +9087,36 @@
       <c r="A508" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B508" s="18">
-        <v>38.5</v>
-      </c>
-      <c r="C508" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="D508" s="20">
-        <v>138.6</v>
-      </c>
+      <c r="B508" s="21"/>
+      <c r="C508" s="22"/>
+      <c r="D508" s="21"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B509" s="21"/>
-      <c r="C509" s="22"/>
-      <c r="D509" s="21"/>
+      <c r="B509" s="18">
+        <v>15</v>
+      </c>
+      <c r="C509" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D509" s="20">
+        <v>52.5</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>32.5</v>
+        <v>22</v>
       </c>
       <c r="C510" s="19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D510" s="20">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9141,49 +9124,49 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>32</v>
+        <v>66.5</v>
       </c>
       <c r="C511" s="19">
-        <v>4</v>
+        <v>3.33</v>
       </c>
       <c r="D511" s="20">
-        <v>128</v>
+        <v>221.45</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="B512" s="18">
-        <v>-5</v>
-      </c>
-      <c r="C512" s="19">
-        <v>3.85</v>
-      </c>
-      <c r="D512" s="20">
-        <v>-19.25</v>
-      </c>
+      <c r="B512" s="21"/>
+      <c r="C512" s="22"/>
+      <c r="D512" s="21"/>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B513" s="21"/>
-      <c r="C513" s="22"/>
-      <c r="D513" s="21"/>
+      <c r="B513" s="18">
+        <v>52.5</v>
+      </c>
+      <c r="C513" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="D513" s="20">
+        <v>199.5</v>
+      </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
         <v>516</v>
       </c>
       <c r="B514" s="18">
-        <v>47</v>
+        <v>71.5</v>
       </c>
       <c r="C514" s="19">
-        <v>3.8</v>
+        <v>3.71</v>
       </c>
       <c r="D514" s="20">
-        <v>178.6</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9191,69 +9174,57 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>39.5</v>
+        <v>58.5</v>
       </c>
       <c r="C515" s="19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D515" s="20">
-        <v>150.1</v>
+        <v>210.6</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="B516" s="18">
-        <v>44</v>
-      </c>
-      <c r="C516" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="D516" s="20">
-        <v>189.2</v>
-      </c>
+      <c r="B516" s="21"/>
+      <c r="C516" s="22"/>
+      <c r="D516" s="21"/>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="C517" s="19">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D517" s="20">
-        <v>140.80000000000001</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B518" s="18">
-        <v>26</v>
-      </c>
-      <c r="C518" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D518" s="20">
-        <v>114.4</v>
-      </c>
+      <c r="B518" s="21"/>
+      <c r="C518" s="22"/>
+      <c r="D518" s="21"/>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C519" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D519" s="20">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9261,13 +9232,13 @@
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C520" s="19">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="D520" s="20">
-        <v>137.75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9275,13 +9246,13 @@
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>33</v>
+        <v>44.5</v>
       </c>
       <c r="C521" s="19">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="D521" s="20">
-        <v>156.75</v>
+        <v>171.33</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9289,13 +9260,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C522" s="19">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="D522" s="20">
-        <v>175.75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9303,13 +9274,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C523" s="19">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="D523" s="20">
-        <v>95</v>
+        <v>178.6</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9317,13 +9288,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="C524" s="19">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="D524" s="20">
-        <v>90.25</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9331,13 +9302,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C525" s="19">
-        <v>5</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D525" s="20">
-        <v>95</v>
+        <v>185.33</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9345,13 +9316,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>2.5</v>
+        <v>26</v>
       </c>
       <c r="C526" s="19">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D526" s="20">
-        <v>12.5</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9362,10 +9333,10 @@
         <v>18</v>
       </c>
       <c r="C527" s="19">
-        <v>5.25</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D527" s="20">
-        <v>94.5</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9373,13 +9344,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C528" s="19">
         <v>5</v>
       </c>
       <c r="D528" s="20">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9387,13 +9358,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>0.5</v>
+        <v>27</v>
       </c>
       <c r="C529" s="19">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="D529" s="20">
-        <v>2.6</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9401,13 +9372,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C530" s="19">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="D530" s="20">
-        <v>137.5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9415,13 +9386,13 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>28</v>
+        <v>35.5</v>
       </c>
       <c r="C531" s="19">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="D531" s="20">
-        <v>161</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9429,13 +9400,13 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>9</v>
+        <v>27.5</v>
       </c>
       <c r="C532" s="19">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="D532" s="20">
-        <v>51.75</v>
+        <v>130.63</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9443,13 +9414,13 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C533" s="19">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="D533" s="20">
-        <v>16.5</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -9457,13 +9428,13 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="C534" s="19">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="D534" s="20">
-        <v>158.13</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9471,13 +9442,13 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="C535" s="19">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="D535" s="20">
-        <v>207</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9485,13 +9456,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>7.5</v>
+        <v>18</v>
       </c>
       <c r="C536" s="19">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="D536" s="20">
-        <v>45</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9499,13 +9470,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C537" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D537" s="20">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9513,13 +9484,13 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C538" s="19">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="D538" s="20">
-        <v>216</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9527,35 +9498,41 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="C539" s="19">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D539" s="20">
-        <v>94.5</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B540" s="21"/>
-      <c r="C540" s="22"/>
-      <c r="D540" s="21"/>
+      <c r="B540" s="18">
+        <v>28</v>
+      </c>
+      <c r="C540" s="19">
+        <v>5.75</v>
+      </c>
+      <c r="D540" s="20">
+        <v>161</v>
+      </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>34</v>
+        <v>29.5</v>
       </c>
       <c r="C541" s="19">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="D541" s="20">
-        <v>238</v>
+        <v>169.63</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9563,13 +9540,13 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C542" s="19">
-        <v>7.25</v>
+        <v>5.5</v>
       </c>
       <c r="D542" s="20">
-        <v>137.75</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9577,13 +9554,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="C543" s="19">
-        <v>7.75</v>
+        <v>5.75</v>
       </c>
       <c r="D543" s="20">
-        <v>189.88</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9591,13 +9568,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>11.5</v>
+        <v>35.5</v>
       </c>
       <c r="C544" s="19">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="D544" s="20">
-        <v>92</v>
+        <v>204.13</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9605,13 +9582,13 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="C545" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D545" s="20">
-        <v>105</v>
+        <v>174</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9619,63 +9596,63 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>2.5</v>
+        <v>23</v>
       </c>
       <c r="C546" s="19">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="D546" s="20">
-        <v>21.88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="B547" s="21"/>
-      <c r="C547" s="22"/>
-      <c r="D547" s="21"/>
+      <c r="B547" s="18">
+        <v>34</v>
+      </c>
+      <c r="C547" s="19">
+        <v>6</v>
+      </c>
+      <c r="D547" s="20">
+        <v>204</v>
+      </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="C548" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D548" s="20">
-        <v>181.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="B549" s="18">
-        <v>46</v>
-      </c>
-      <c r="C549" s="19">
-        <v>2.76</v>
-      </c>
-      <c r="D549" s="20">
-        <v>126.96</v>
-      </c>
+      <c r="B549" s="21"/>
+      <c r="C549" s="22"/>
+      <c r="D549" s="21"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C550" s="19">
-        <v>2.76</v>
+        <v>7</v>
       </c>
       <c r="D550" s="20">
-        <v>107.64</v>
+        <v>238</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9683,13 +9660,13 @@
         <v>553</v>
       </c>
       <c r="B551" s="18">
-        <v>136.5</v>
+        <v>19</v>
       </c>
       <c r="C551" s="19">
-        <v>2.76</v>
+        <v>7.25</v>
       </c>
       <c r="D551" s="20">
-        <v>376.74</v>
+        <v>137.75</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9697,13 +9674,13 @@
         <v>554</v>
       </c>
       <c r="B552" s="18">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="C552" s="19">
-        <v>2.8</v>
+        <v>7.75</v>
       </c>
       <c r="D552" s="20">
-        <v>137.19999999999999</v>
+        <v>189.88</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -9711,13 +9688,13 @@
         <v>555</v>
       </c>
       <c r="B553" s="18">
-        <v>50.5</v>
+        <v>11.5</v>
       </c>
       <c r="C553" s="19">
-        <v>2.85</v>
+        <v>8</v>
       </c>
       <c r="D553" s="20">
-        <v>144.09</v>
+        <v>92</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9725,13 +9702,13 @@
         <v>556</v>
       </c>
       <c r="B554" s="18">
-        <v>65.5</v>
+        <v>11</v>
       </c>
       <c r="C554" s="19">
-        <v>2.76</v>
+        <v>10</v>
       </c>
       <c r="D554" s="20">
-        <v>180.78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -9739,41 +9716,35 @@
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>66</v>
+        <v>7.5</v>
       </c>
       <c r="C555" s="19">
-        <v>2.76</v>
+        <v>8.75</v>
       </c>
       <c r="D555" s="20">
-        <v>182.16</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="B556" s="18">
-        <v>63</v>
-      </c>
-      <c r="C556" s="19">
-        <v>2.76</v>
-      </c>
-      <c r="D556" s="20">
-        <v>173.88</v>
-      </c>
+      <c r="B556" s="21"/>
+      <c r="C556" s="22"/>
+      <c r="D556" s="21"/>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
         <v>559</v>
       </c>
       <c r="B557" s="18">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="C557" s="19">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="D557" s="20">
-        <v>105</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -9781,13 +9752,13 @@
         <v>560</v>
       </c>
       <c r="B558" s="18">
-        <v>42.5</v>
+        <v>83</v>
       </c>
       <c r="C558" s="19">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="D558" s="20">
-        <v>127.5</v>
+        <v>228.79</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -9795,13 +9766,13 @@
         <v>561</v>
       </c>
       <c r="B559" s="18">
-        <v>7</v>
+        <v>81.5</v>
       </c>
       <c r="C559" s="19">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="D559" s="20">
-        <v>21</v>
+        <v>224.55</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -9809,13 +9780,13 @@
         <v>562</v>
       </c>
       <c r="B560" s="18">
-        <v>37.5</v>
+        <v>112.5</v>
       </c>
       <c r="C560" s="19">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="D560" s="20">
-        <v>116.25</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -9823,13 +9794,13 @@
         <v>563</v>
       </c>
       <c r="B561" s="18">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C561" s="19">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="D561" s="20">
-        <v>162</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -9837,13 +9808,13 @@
         <v>564</v>
       </c>
       <c r="B562" s="18">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C562" s="19">
-        <v>4</v>
+        <v>2.83</v>
       </c>
       <c r="D562" s="20">
-        <v>152</v>
+        <v>150.1</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -9851,13 +9822,13 @@
         <v>565</v>
       </c>
       <c r="B563" s="18">
-        <v>34</v>
+        <v>65.5</v>
       </c>
       <c r="C563" s="19">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="D563" s="20">
-        <v>136</v>
+        <v>180.78</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -9865,13 +9836,13 @@
         <v>566</v>
       </c>
       <c r="B564" s="18">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C564" s="19">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="D564" s="20">
-        <v>112</v>
+        <v>182.16</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -9879,13 +9850,13 @@
         <v>567</v>
       </c>
       <c r="B565" s="18">
-        <v>20</v>
+        <v>44.5</v>
       </c>
       <c r="C565" s="19">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="D565" s="20">
-        <v>80</v>
+        <v>122.82</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -9893,13 +9864,13 @@
         <v>568</v>
       </c>
       <c r="B566" s="18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C566" s="19">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="D566" s="20">
-        <v>262.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -9907,13 +9878,13 @@
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>8</v>
+        <v>42.5</v>
       </c>
       <c r="C567" s="19">
-        <v>5.19</v>
+        <v>3</v>
       </c>
       <c r="D567" s="20">
-        <v>41.54</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -9921,13 +9892,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C568" s="19">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="D568" s="20">
-        <v>111.64</v>
+        <v>222</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9935,13 +9906,13 @@
         <v>571</v>
       </c>
       <c r="B569" s="18">
-        <v>60.5</v>
+        <v>51</v>
       </c>
       <c r="C569" s="19">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="D569" s="20">
-        <v>118.66</v>
+        <v>158.1</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -9949,13 +9920,13 @@
         <v>572</v>
       </c>
       <c r="B570" s="18">
-        <v>62.5</v>
+        <v>27</v>
       </c>
       <c r="C570" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D570" s="20">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -9963,13 +9934,13 @@
         <v>573</v>
       </c>
       <c r="B571" s="18">
-        <v>32.5</v>
+        <v>37</v>
       </c>
       <c r="C571" s="19">
-        <v>2.79</v>
+        <v>4</v>
       </c>
       <c r="D571" s="20">
-        <v>90.8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -9977,13 +9948,13 @@
         <v>574</v>
       </c>
       <c r="B572" s="18">
-        <v>14</v>
+        <v>28.5</v>
       </c>
       <c r="C572" s="19">
-        <v>4.28</v>
+        <v>4</v>
       </c>
       <c r="D572" s="20">
-        <v>59.92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -9991,13 +9962,13 @@
         <v>575</v>
       </c>
       <c r="B573" s="18">
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="C573" s="19">
-        <v>4.28</v>
+        <v>4</v>
       </c>
       <c r="D573" s="20">
-        <v>36.380000000000003</v>
+        <v>96</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -10005,13 +9976,13 @@
         <v>576</v>
       </c>
       <c r="B574" s="18">
-        <v>33.5</v>
+        <v>20</v>
       </c>
       <c r="C574" s="19">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="D574" s="20">
-        <v>135.68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -10019,35 +9990,41 @@
         <v>577</v>
       </c>
       <c r="B575" s="18">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C575" s="19">
-        <v>4.05</v>
+        <v>5.25</v>
       </c>
       <c r="D575" s="20">
-        <v>64.8</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="B576" s="21"/>
-      <c r="C576" s="22"/>
-      <c r="D576" s="21"/>
+      <c r="B576" s="18">
+        <v>33</v>
+      </c>
+      <c r="C576" s="19">
+        <v>5.01</v>
+      </c>
+      <c r="D576" s="20">
+        <v>165.48</v>
+      </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="17" t="s">
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="C577" s="19">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="D577" s="20">
-        <v>22.4</v>
+        <v>565.9</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10055,13 +10032,13 @@
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="C578" s="19">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="D578" s="20">
-        <v>18.899999999999999</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10069,53 +10046,69 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>2</v>
-      </c>
-      <c r="C579" s="22"/>
-      <c r="D579" s="21"/>
+        <v>250.5</v>
+      </c>
+      <c r="C579" s="19">
+        <v>1.93</v>
+      </c>
+      <c r="D579" s="20">
+        <v>483.47</v>
+      </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="17" t="s">
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>9</v>
-      </c>
-      <c r="C580" s="22"/>
-      <c r="D580" s="21"/>
+        <v>137</v>
+      </c>
+      <c r="C580" s="19">
+        <v>2.79</v>
+      </c>
+      <c r="D580" s="20">
+        <v>382.42</v>
+      </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="17" t="s">
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>13.5</v>
-      </c>
-      <c r="C581" s="22"/>
-      <c r="D581" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="C581" s="19">
+        <v>4.28</v>
+      </c>
+      <c r="D581" s="20">
+        <v>47.08</v>
+      </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="17" t="s">
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="C582" s="22"/>
-      <c r="D582" s="21"/>
+        <v>36.5</v>
+      </c>
+      <c r="C582" s="19">
+        <v>4.28</v>
+      </c>
+      <c r="D582" s="20">
+        <v>156.22</v>
+      </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="17" t="s">
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>928</v>
+        <v>68.5</v>
       </c>
       <c r="C583" s="19">
-        <v>0.8</v>
+        <v>4.05</v>
       </c>
       <c r="D583" s="20">
-        <v>742.4</v>
+        <v>277.43</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10123,13 +10116,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>893</v>
+        <v>105.5</v>
       </c>
       <c r="C584" s="19">
-        <v>0.8</v>
+        <v>4.05</v>
       </c>
       <c r="D584" s="20">
-        <v>714.4</v>
+        <v>427.28</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10137,13 +10130,13 @@
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>854</v>
+        <v>156</v>
       </c>
       <c r="C585" s="19">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="D585" s="20">
-        <v>683.2</v>
+        <v>211.71</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10151,13 +10144,13 @@
         <v>588</v>
       </c>
       <c r="B586" s="18">
-        <v>846.5</v>
+        <v>378</v>
       </c>
       <c r="C586" s="19">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="D586" s="20">
-        <v>677.2</v>
+        <v>512.54</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -10165,13 +10158,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>541.5</v>
+        <v>105</v>
       </c>
       <c r="C587" s="19">
-        <v>0.52</v>
+        <v>1.37</v>
       </c>
       <c r="D587" s="20">
-        <v>281.58</v>
+        <v>143.99</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10179,69 +10172,53 @@
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>323.5</v>
-      </c>
-      <c r="C588" s="19">
-        <v>0.52</v>
-      </c>
-      <c r="D588" s="20">
-        <v>168.22</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C588" s="22"/>
+      <c r="D588" s="21"/>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="17" t="s">
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>452.5</v>
-      </c>
-      <c r="C589" s="19">
-        <v>0.52</v>
-      </c>
-      <c r="D589" s="20">
-        <v>235.3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C589" s="22"/>
+      <c r="D589" s="21"/>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="17" t="s">
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>76</v>
-      </c>
-      <c r="C590" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="D590" s="20">
-        <v>53.2</v>
-      </c>
+        <v>51.5</v>
+      </c>
+      <c r="C590" s="22"/>
+      <c r="D590" s="21"/>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="17" t="s">
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>429</v>
-      </c>
-      <c r="C591" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="D591" s="20">
-        <v>300.3</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C591" s="22"/>
+      <c r="D591" s="21"/>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="17" t="s">
         <v>594</v>
       </c>
       <c r="B592" s="18">
-        <v>639</v>
+        <v>547.5</v>
       </c>
       <c r="C592" s="19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D592" s="20">
-        <v>447.3</v>
+        <v>438</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -10249,13 +10226,13 @@
         <v>595</v>
       </c>
       <c r="B593" s="18">
-        <v>17</v>
+        <v>631.5</v>
       </c>
       <c r="C593" s="19">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="D593" s="20">
-        <v>76.5</v>
+        <v>505.2</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -10263,25 +10240,145 @@
         <v>596</v>
       </c>
       <c r="B594" s="18">
-        <v>41.5</v>
+        <v>751</v>
       </c>
       <c r="C594" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="D594" s="20">
+        <v>600.79999999999995</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B595" s="18">
+        <v>521.5</v>
+      </c>
+      <c r="C595" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="D595" s="20">
+        <v>417.2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="B596" s="18">
+        <v>334</v>
+      </c>
+      <c r="C596" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D596" s="20">
+        <v>173.68</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B597" s="18">
+        <v>516</v>
+      </c>
+      <c r="C597" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D597" s="20">
+        <v>268.32</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B598" s="18">
+        <v>859.5</v>
+      </c>
+      <c r="C598" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D598" s="20">
+        <v>446.94</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B599" s="18">
+        <v>55</v>
+      </c>
+      <c r="C599" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D599" s="20">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B600" s="21"/>
+      <c r="C600" s="22"/>
+      <c r="D600" s="21"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B601" s="18">
+        <v>549.5</v>
+      </c>
+      <c r="C601" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D601" s="20">
+        <v>384.65</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="B602" s="18">
+        <v>11</v>
+      </c>
+      <c r="C602" s="19">
         <v>4.5</v>
       </c>
-      <c r="D594" s="20">
-        <v>186.75</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B595" s="24">
-        <v>37384.28</v>
-      </c>
-      <c r="C595" s="25"/>
-      <c r="D595" s="26">
-        <v>108138.18</v>
+      <c r="D602" s="20">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B603" s="18">
+        <v>41</v>
+      </c>
+      <c r="C603" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D603" s="20">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="B604" s="24">
+        <v>33900.97</v>
+      </c>
+      <c r="C604" s="25"/>
+      <c r="D604" s="26">
+        <v>100769.98</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 12-Dec-2024</t>
+    <t>1-Jul-2024 to 14-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -293,7 +293,7 @@
     <t>1920 PATRIKA-B</t>
   </si>
   <si>
-    <t>1920 PATRIKA (RED) 14.12</t>
+    <t>1920 PATRIKA (RED)</t>
   </si>
   <si>
     <t>1921 PATRIKA (GOLDEN)</t>
@@ -1196,7 +1196,7 @@
     <t>6549 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6550 PATRIKA {M}</t>
+    <t>6550 PATRIKA {M} (DC)</t>
   </si>
   <si>
     <t>7250 PATRIKA</t>
@@ -2460,13 +2460,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>-126</v>
+        <v>-146</v>
       </c>
       <c r="C11" s="19">
         <v>0.98</v>
       </c>
       <c r="D11" s="20">
-        <v>-123.48</v>
+        <v>-143.08000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2572,13 +2572,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>126.5</v>
+        <v>124</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,13 +2650,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>123.5</v>
+        <v>121.5</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>259.35000000000002</v>
+        <v>255.15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,13 +2816,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="18">
-        <v>112.5</v>
+        <v>111</v>
       </c>
       <c r="C39" s="19">
         <v>2.7</v>
       </c>
       <c r="D39" s="20">
-        <v>303.75</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,13 +2970,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>173.5</v>
+        <v>153.5</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>190.85</v>
+        <v>168.85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,13 +2998,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>212.3</v>
+        <v>199.1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,13 +3012,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C53" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="20">
-        <v>118.8</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>75.900000000000006</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,13 +3054,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="C56" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" s="20">
-        <v>-11</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,13 +3068,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="18">
-        <v>607</v>
+        <v>604.5</v>
       </c>
       <c r="C57" s="19">
         <v>1.9</v>
       </c>
       <c r="D57" s="20">
-        <v>1153.3</v>
+        <v>1148.55</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,13 +3124,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="18">
-        <v>40.5</v>
+        <v>35.5</v>
       </c>
       <c r="C61" s="19">
         <v>2.1</v>
       </c>
       <c r="D61" s="20">
-        <v>85.05</v>
+        <v>74.55</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,13 +3152,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="18">
-        <v>55.5</v>
+        <v>49.5</v>
       </c>
       <c r="C63" s="19">
         <v>2.1</v>
       </c>
       <c r="D63" s="20">
-        <v>116.55</v>
+        <v>103.95</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,13 +3166,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="18">
-        <v>414.5</v>
+        <v>411.5</v>
       </c>
       <c r="C64" s="19">
         <v>2.1</v>
       </c>
       <c r="D64" s="20">
-        <v>870.45</v>
+        <v>864.15</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,13 +3194,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="18">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C66" s="19">
         <v>0.52</v>
       </c>
       <c r="D66" s="20">
-        <v>153.4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,13 +3208,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="18">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C67" s="19">
         <v>0.52</v>
       </c>
       <c r="D67" s="20">
-        <v>141.96</v>
+        <v>131.56</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,13 +3222,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C68" s="19">
         <v>0.7</v>
       </c>
       <c r="D68" s="20">
-        <v>158.9</v>
+        <v>144.9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,13 +3236,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="18">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C69" s="19">
         <v>0.7</v>
       </c>
       <c r="D69" s="20">
-        <v>135.80000000000001</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,13 +3250,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="18">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C70" s="19">
         <v>0.9</v>
       </c>
       <c r="D70" s="20">
-        <v>105.3</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,13 +3264,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>126.9</v>
+        <v>117.9</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,13 +3278,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>826.15</v>
+        <v>810.65</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,13 +3292,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="18">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C73" s="19">
         <v>1.55</v>
       </c>
       <c r="D73" s="20">
-        <v>888.15</v>
+        <v>872.65</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,13 +3306,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>715.5</v>
+        <v>705.5</v>
       </c>
       <c r="C74" s="19">
         <v>1.55</v>
       </c>
       <c r="D74" s="20">
-        <v>1109.03</v>
+        <v>1093.53</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>108.5</v>
+        <v>177.5</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3330,7 +3330,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>-22.5</v>
+        <v>27.5</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
@@ -3370,7 +3370,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
@@ -3408,13 +3408,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>-2</v>
+        <v>152</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>-2.8</v>
+        <v>212.8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,13 +3422,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="18">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C84" s="19">
         <v>1.4</v>
       </c>
       <c r="D84" s="20">
-        <v>191.8</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,13 +3458,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="18">
-        <v>-14.5</v>
+        <v>85.5</v>
       </c>
       <c r="C87" s="19">
         <v>2</v>
       </c>
       <c r="D87" s="20">
-        <v>-29</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3472,13 +3472,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88" s="19">
         <v>2</v>
       </c>
       <c r="D88" s="20">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,13 +3486,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="18">
-        <v>244</v>
+        <v>520</v>
       </c>
       <c r="C89" s="19">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="D89" s="20">
-        <v>307.44</v>
+        <v>629.05999999999995</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,13 +3500,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="18">
-        <v>225.5</v>
+        <v>513.5</v>
       </c>
       <c r="C90" s="19">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="D90" s="20">
-        <v>284.13</v>
+        <v>621.1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3636,13 +3636,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>56.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3650,13 +3650,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>118.75</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,13 +3720,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="18">
-        <v>9.86</v>
+        <v>7.36</v>
       </c>
       <c r="C107" s="19">
         <v>12.5</v>
       </c>
       <c r="D107" s="20">
-        <v>123.25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,13 +3734,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="C108" s="19">
         <v>12.5</v>
       </c>
       <c r="D108" s="20">
-        <v>106.25</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3748,13 +3748,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="18">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C109" s="19">
         <v>12.5</v>
       </c>
       <c r="D109" s="20">
-        <v>400</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4056,22 +4056,28 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C131" s="19">
         <v>18.27</v>
       </c>
       <c r="D131" s="20">
-        <v>27.4</v>
+        <v>-45.67</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="21"/>
+      <c r="B132" s="18">
+        <v>-2.5</v>
+      </c>
+      <c r="C132" s="19">
+        <v>18.27</v>
+      </c>
+      <c r="D132" s="20">
+        <v>-45.67</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
@@ -4246,13 +4252,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C145" s="19">
         <v>3.4</v>
       </c>
       <c r="D145" s="20">
-        <v>295.8</v>
+        <v>285.60000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4288,13 +4294,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>105.5</v>
+        <v>101</v>
       </c>
       <c r="C148" s="19">
         <v>2.8</v>
       </c>
       <c r="D148" s="20">
-        <v>295.39999999999998</v>
+        <v>282.8</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4302,13 +4308,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>108</v>
+        <v>103.5</v>
       </c>
       <c r="C149" s="19">
         <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>302.39999999999998</v>
+        <v>289.8</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4386,13 +4392,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="18">
-        <v>84</v>
+        <v>81.5</v>
       </c>
       <c r="C155" s="19">
         <v>2.95</v>
       </c>
       <c r="D155" s="20">
-        <v>247.8</v>
+        <v>240.43</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,13 +4540,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C166" s="19">
         <v>3.33</v>
       </c>
       <c r="D166" s="20">
-        <v>329.67</v>
+        <v>326.33999999999997</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,13 +4632,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>37.5</v>
+        <v>150.5</v>
       </c>
       <c r="C173" s="19">
         <v>4.5</v>
       </c>
       <c r="D173" s="20">
-        <v>168.75</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,13 +4702,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="18">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="C178" s="19">
         <v>4.5</v>
       </c>
       <c r="D178" s="20">
-        <v>67.5</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4838,13 +4844,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>52.24</v>
+        <v>50.24</v>
       </c>
       <c r="C189" s="19">
         <v>3.05</v>
       </c>
       <c r="D189" s="20">
-        <v>159.33000000000001</v>
+        <v>153.22999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,13 +4918,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C196" s="19">
         <v>3.8</v>
       </c>
       <c r="D196" s="20">
-        <v>98.8</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4976,13 +4982,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="18">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C201" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D201" s="20">
-        <v>176.3</v>
+        <v>159.9</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4990,13 +4996,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>86.5</v>
+        <v>86</v>
       </c>
       <c r="C202" s="19">
         <v>4.1100000000000003</v>
       </c>
       <c r="D202" s="20">
-        <v>355.34</v>
+        <v>353.29</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5046,13 +5052,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>92</v>
+        <v>73.5</v>
       </c>
       <c r="C206" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D206" s="20">
-        <v>404.8</v>
+        <v>323.39999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,13 +5102,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>-14.5</v>
+        <v>-17.5</v>
       </c>
       <c r="C210" s="19">
         <v>4.5</v>
       </c>
       <c r="D210" s="20">
-        <v>-65.25</v>
+        <v>-78.75</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,13 +5116,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C211" s="19">
         <v>4.5</v>
       </c>
       <c r="D211" s="20">
-        <v>508.5</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,13 +5130,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C212" s="19">
         <v>5.25</v>
       </c>
       <c r="D212" s="20">
-        <v>220.5</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,13 +5172,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="18">
-        <v>71.5</v>
+        <v>69.5</v>
       </c>
       <c r="C215" s="19">
         <v>4.5</v>
       </c>
       <c r="D215" s="20">
-        <v>321.75</v>
+        <v>312.75</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,13 +5228,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="18">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C219" s="19">
         <v>5.25</v>
       </c>
       <c r="D219" s="20">
-        <v>304.5</v>
+        <v>283.5</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5250,13 +5256,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>86.5</v>
+        <v>72.5</v>
       </c>
       <c r="C221" s="19">
         <v>4.75</v>
       </c>
       <c r="D221" s="20">
-        <v>410.88</v>
+        <v>344.38</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,15 +5305,9 @@
       <c r="A225" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B225" s="18">
-        <v>-8</v>
-      </c>
-      <c r="C225" s="19">
-        <v>6</v>
-      </c>
-      <c r="D225" s="20">
-        <v>-48</v>
-      </c>
+      <c r="B225" s="21"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="21"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
@@ -5322,13 +5322,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C227" s="19">
         <v>5.7</v>
       </c>
       <c r="D227" s="20">
-        <v>96.9</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,13 +5378,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C231" s="19">
         <v>5.96</v>
       </c>
       <c r="D231" s="20">
-        <v>423.45</v>
+        <v>387.67</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,13 +5504,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C240" s="19">
         <v>3.5</v>
       </c>
       <c r="D240" s="20">
-        <v>224</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,13 +5518,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C241" s="19">
         <v>4.25</v>
       </c>
       <c r="D241" s="20">
-        <v>837.25</v>
+        <v>811.75</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5554,13 +5554,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C244" s="19">
         <v>4.18</v>
       </c>
       <c r="D244" s="20">
-        <v>271.7</v>
+        <v>259.16000000000003</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5582,13 +5582,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="18">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C246" s="19">
         <v>4.28</v>
       </c>
       <c r="D246" s="20">
-        <v>535</v>
+        <v>530.72</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5596,13 +5596,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C247" s="19">
         <v>4.28</v>
       </c>
       <c r="D247" s="20">
-        <v>342.4</v>
+        <v>333.84</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5696,13 +5696,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="18">
-        <v>21.5</v>
+        <v>15</v>
       </c>
       <c r="C255" s="19">
         <v>5.0999999999999996</v>
       </c>
       <c r="D255" s="20">
-        <v>109.65</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5724,13 +5724,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C257" s="19">
         <v>5.4</v>
       </c>
       <c r="D257" s="20">
-        <v>243</v>
+        <v>237.6</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,13 +5886,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C269" s="19">
         <v>5.94</v>
       </c>
       <c r="D269" s="20">
-        <v>249.48</v>
+        <v>457.38</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,13 +5942,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>28.5</v>
+        <v>25.5</v>
       </c>
       <c r="C273" s="19">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="D273" s="20">
-        <v>187.96</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,13 +5964,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="18">
-        <v>48</v>
+        <v>45.5</v>
       </c>
       <c r="C275" s="19">
         <v>6.18</v>
       </c>
       <c r="D275" s="20">
-        <v>296.64</v>
+        <v>281.19</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6070,13 +6070,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="18">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C283" s="19">
         <v>6.4</v>
       </c>
       <c r="D283" s="20">
-        <v>198.4</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,13 +6092,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>48</v>
+        <v>44.5</v>
       </c>
       <c r="C285" s="19">
         <v>6.65</v>
       </c>
       <c r="D285" s="20">
-        <v>319.2</v>
+        <v>295.93</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6106,13 +6106,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="18">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="C286" s="19">
         <v>6.18</v>
       </c>
       <c r="D286" s="20">
-        <v>194.67</v>
+        <v>191.58</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,13 +6128,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="18">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="C288" s="19">
         <v>7.18</v>
       </c>
       <c r="D288" s="20">
-        <v>240.46</v>
+        <v>233.28</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6156,13 +6156,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>88</v>
+        <v>85.5</v>
       </c>
       <c r="C290" s="19">
         <v>7.13</v>
       </c>
       <c r="D290" s="20">
-        <v>627.44000000000005</v>
+        <v>609.62</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,13 +6184,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C292" s="19">
         <v>6.65</v>
       </c>
       <c r="D292" s="20">
-        <v>66.5</v>
+        <v>219.45</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,13 +6206,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="18">
-        <v>37.5</v>
+        <v>36</v>
       </c>
       <c r="C294" s="19">
         <v>7.6</v>
       </c>
       <c r="D294" s="20">
-        <v>285</v>
+        <v>273.60000000000002</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,13 +6270,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C299" s="19">
         <v>8.08</v>
       </c>
       <c r="D299" s="20">
-        <v>96.96</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6376,13 +6376,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="C307" s="19">
         <v>9.25</v>
       </c>
       <c r="D307" s="20">
-        <v>134.13</v>
+        <v>97.13</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,13 +6404,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="C309" s="19">
         <v>9.31</v>
       </c>
       <c r="D309" s="20">
-        <v>316.63</v>
+        <v>311.97000000000003</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6432,13 +6432,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C311" s="19">
         <v>9.5</v>
       </c>
       <c r="D311" s="20">
-        <v>180.5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6446,13 +6446,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="C312" s="19">
         <v>10</v>
       </c>
       <c r="D312" s="20">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,13 +6474,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C314" s="19">
         <v>9.25</v>
       </c>
       <c r="D314" s="20">
-        <v>101.75</v>
+        <v>-9.25</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6572,13 +6572,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C321" s="19">
         <v>7.13</v>
       </c>
       <c r="D321" s="20">
-        <v>171.12</v>
+        <v>163.99</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6600,13 +6600,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="18">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="C323" s="19">
         <v>8.5</v>
       </c>
       <c r="D323" s="20">
-        <v>255</v>
+        <v>242.25</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6656,13 +6656,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C327" s="19">
         <v>6.9</v>
       </c>
       <c r="D327" s="20">
-        <v>89.7</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,13 +6714,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="C332" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="D332" s="20">
-        <v>98</v>
+        <v>71.05</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6742,13 +6742,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C334" s="19">
         <v>7.36</v>
       </c>
       <c r="D334" s="20">
-        <v>117.76</v>
+        <v>103.04</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6882,13 +6882,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C344" s="19">
         <v>18</v>
       </c>
       <c r="D344" s="20">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6938,13 +6938,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C348" s="19">
         <v>39</v>
       </c>
       <c r="D348" s="20">
-        <v>390</v>
+        <v>273</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6952,13 +6952,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="18">
-        <v>13.99</v>
+        <v>12.99</v>
       </c>
       <c r="C349" s="19">
         <v>12</v>
       </c>
       <c r="D349" s="20">
-        <v>167.88</v>
+        <v>155.88</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7064,13 +7064,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>5.73</v>
+        <v>0.23</v>
       </c>
       <c r="C357" s="19">
         <v>10</v>
       </c>
       <c r="D357" s="20">
-        <v>57.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7148,13 +7148,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C363" s="19">
         <v>9.5</v>
       </c>
       <c r="D363" s="20">
-        <v>256.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7162,13 +7162,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="C364" s="19">
         <v>15</v>
       </c>
       <c r="D364" s="20">
-        <v>82.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7176,13 +7176,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="C365" s="19">
         <v>10</v>
       </c>
       <c r="D365" s="20">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7204,13 +7204,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="18">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="C367" s="19">
         <v>17</v>
       </c>
       <c r="D367" s="20">
-        <v>170</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7232,13 +7232,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C369" s="19">
         <v>25</v>
       </c>
       <c r="D369" s="20">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7260,13 +7260,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="C371" s="19">
         <v>10.93</v>
       </c>
       <c r="D371" s="20">
-        <v>377.09</v>
+        <v>388.02</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7302,13 +7302,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C374" s="19">
         <v>21.5</v>
       </c>
       <c r="D374" s="20">
-        <v>64.5</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7330,13 +7330,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>38.25</v>
+        <v>34.75</v>
       </c>
       <c r="C376" s="19">
         <v>11.5</v>
       </c>
       <c r="D376" s="20">
-        <v>439.88</v>
+        <v>399.63</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7358,13 +7358,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="C378" s="19">
         <v>11.4</v>
       </c>
       <c r="D378" s="20">
-        <v>142.5</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7428,13 +7428,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>40.5</v>
+        <v>38.5</v>
       </c>
       <c r="C383" s="19">
         <v>10.93</v>
       </c>
       <c r="D383" s="20">
-        <v>442.67</v>
+        <v>420.81</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7484,13 +7484,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="18">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="C387" s="19">
         <v>10.45</v>
       </c>
       <c r="D387" s="20">
-        <v>130.63</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7498,13 +7498,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="18">
-        <v>0.5</v>
+        <v>-5</v>
       </c>
       <c r="C388" s="19">
-        <v>10.46</v>
+        <v>10.45</v>
       </c>
       <c r="D388" s="20">
-        <v>5.23</v>
+        <v>-52.25</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7732,13 +7732,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C406" s="19">
         <v>2.75</v>
       </c>
       <c r="D406" s="20">
-        <v>115.5</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7796,13 +7796,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="18">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C411" s="19">
         <v>2.8</v>
       </c>
       <c r="D411" s="20">
-        <v>187.6</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7908,13 +7908,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="18">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="C419" s="19">
         <v>3.25</v>
       </c>
       <c r="D419" s="20">
-        <v>60.13</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -7958,13 +7958,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="18">
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="C423" s="19">
         <v>3.4</v>
       </c>
       <c r="D423" s="20">
-        <v>117.3</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8014,13 +8014,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C427" s="19">
         <v>3.33</v>
       </c>
       <c r="D427" s="20">
-        <v>133.19999999999999</v>
+        <v>126.54</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,13 +8072,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C432" s="19">
         <v>4.25</v>
       </c>
       <c r="D432" s="20">
-        <v>174.25</v>
+        <v>170</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,13 +8114,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="C435" s="19">
         <v>4.25</v>
       </c>
       <c r="D435" s="20">
-        <v>70.13</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8418,13 +8418,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>54.5</v>
+        <v>52</v>
       </c>
       <c r="C458" s="19">
         <v>7.13</v>
       </c>
       <c r="D458" s="20">
-        <v>388.59</v>
+        <v>370.76</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8446,13 +8446,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C460" s="19">
         <v>7</v>
       </c>
       <c r="D460" s="20">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8460,13 +8460,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="C461" s="19">
         <v>7.6</v>
       </c>
       <c r="D461" s="20">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8566,13 +8566,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="C469" s="19">
         <v>9.5</v>
       </c>
       <c r="D469" s="20">
-        <v>194.75</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,13 +8650,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C475" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D475" s="20">
-        <v>88</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8664,13 +8664,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>51.5</v>
+        <v>49.5</v>
       </c>
       <c r="C476" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D476" s="20">
-        <v>56.65</v>
+        <v>54.45</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8700,13 +8700,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>150.5</v>
+        <v>149.5</v>
       </c>
       <c r="C479" s="19">
         <v>1.4</v>
       </c>
       <c r="D479" s="20">
-        <v>210.7</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8728,13 +8728,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="C481" s="19">
         <v>3</v>
       </c>
       <c r="D481" s="20">
-        <v>67.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8784,13 +8784,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C485" s="19">
         <v>1.5</v>
       </c>
       <c r="D485" s="20">
-        <v>325.5</v>
+        <v>324</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8798,13 +8798,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>220.5</v>
+        <v>217.5</v>
       </c>
       <c r="C486" s="19">
         <v>1.5</v>
       </c>
       <c r="D486" s="20">
-        <v>330.75</v>
+        <v>326.25</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8868,13 +8868,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>69.5</v>
+        <v>60</v>
       </c>
       <c r="C491" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D491" s="20">
-        <v>158.46</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9052,13 +9052,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>20.5</v>
+        <v>60.5</v>
       </c>
       <c r="C505" s="19">
         <v>3.25</v>
       </c>
       <c r="D505" s="20">
-        <v>66.63</v>
+        <v>196.63</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9124,13 +9124,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>66.5</v>
+        <v>61.5</v>
       </c>
       <c r="C511" s="19">
         <v>3.33</v>
       </c>
       <c r="D511" s="20">
-        <v>221.45</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9196,13 +9196,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="C517" s="19">
         <v>3.6</v>
       </c>
       <c r="D517" s="20">
-        <v>70.2</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9260,13 +9260,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C522" s="19">
         <v>4</v>
       </c>
       <c r="D522" s="20">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,13 +9330,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C527" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D527" s="20">
-        <v>79.2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9358,13 +9358,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="C529" s="19">
         <v>4.75</v>
       </c>
       <c r="D529" s="20">
-        <v>128.25</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9428,13 +9428,13 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>16.5</v>
+        <v>26.5</v>
       </c>
       <c r="C534" s="19">
         <v>5</v>
       </c>
       <c r="D534" s="20">
-        <v>82.5</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9470,13 +9470,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C537" s="19">
         <v>5</v>
       </c>
       <c r="D537" s="20">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9716,13 +9716,13 @@
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="C555" s="19">
         <v>8.75</v>
       </c>
       <c r="D555" s="20">
-        <v>65.63</v>
+        <v>170.63</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -9752,13 +9752,13 @@
         <v>560</v>
       </c>
       <c r="B558" s="18">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C558" s="19">
         <v>2.76</v>
       </c>
       <c r="D558" s="20">
-        <v>228.79</v>
+        <v>220.52</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -9766,13 +9766,13 @@
         <v>561</v>
       </c>
       <c r="B559" s="18">
-        <v>81.5</v>
+        <v>74</v>
       </c>
       <c r="C559" s="19">
         <v>2.76</v>
       </c>
       <c r="D559" s="20">
-        <v>224.55</v>
+        <v>203.89</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -9780,13 +9780,13 @@
         <v>562</v>
       </c>
       <c r="B560" s="18">
-        <v>112.5</v>
+        <v>109.5</v>
       </c>
       <c r="C560" s="19">
         <v>2.76</v>
       </c>
       <c r="D560" s="20">
-        <v>310.5</v>
+        <v>302.22000000000003</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -9836,13 +9836,13 @@
         <v>566</v>
       </c>
       <c r="B564" s="18">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C564" s="19">
         <v>2.76</v>
       </c>
       <c r="D564" s="20">
-        <v>182.16</v>
+        <v>126.96</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -9850,13 +9850,13 @@
         <v>567</v>
       </c>
       <c r="B565" s="18">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="C565" s="19">
         <v>2.76</v>
       </c>
       <c r="D565" s="20">
-        <v>122.82</v>
+        <v>120.06</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -9892,13 +9892,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C568" s="19">
         <v>3</v>
       </c>
       <c r="D568" s="20">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9906,13 +9906,13 @@
         <v>571</v>
       </c>
       <c r="B569" s="18">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C569" s="19">
         <v>3.1</v>
       </c>
       <c r="D569" s="20">
-        <v>158.1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -10004,13 +10004,13 @@
         <v>578</v>
       </c>
       <c r="B576" s="18">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C576" s="19">
         <v>5.01</v>
       </c>
       <c r="D576" s="20">
-        <v>165.48</v>
+        <v>145.43</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -10032,13 +10032,13 @@
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C578" s="19">
         <v>1.96</v>
       </c>
       <c r="D578" s="20">
-        <v>27.46</v>
+        <v>17.649999999999999</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10046,13 +10046,13 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>250.5</v>
+        <v>249</v>
       </c>
       <c r="C579" s="19">
         <v>1.93</v>
       </c>
       <c r="D579" s="20">
-        <v>483.47</v>
+        <v>480.57</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10060,13 +10060,13 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C580" s="19">
         <v>2.79</v>
       </c>
       <c r="D580" s="20">
-        <v>382.42</v>
+        <v>362.88</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -10102,13 +10102,13 @@
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>68.5</v>
+        <v>62.5</v>
       </c>
       <c r="C583" s="19">
         <v>4.05</v>
       </c>
       <c r="D583" s="20">
-        <v>277.43</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10116,13 +10116,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>105.5</v>
+        <v>104.5</v>
       </c>
       <c r="C584" s="19">
         <v>4.05</v>
       </c>
       <c r="D584" s="20">
-        <v>427.28</v>
+        <v>423.23</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10130,13 +10130,13 @@
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C585" s="19">
         <v>1.36</v>
       </c>
       <c r="D585" s="20">
-        <v>211.71</v>
+        <v>207.64</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10158,13 +10158,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C587" s="19">
         <v>1.37</v>
       </c>
       <c r="D587" s="20">
-        <v>143.99</v>
+        <v>128.9</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10182,7 +10182,7 @@
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="C589" s="22"/>
       <c r="D589" s="21"/>
@@ -10192,7 +10192,7 @@
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>51.5</v>
+        <v>49.5</v>
       </c>
       <c r="C590" s="22"/>
       <c r="D590" s="21"/>
@@ -10202,7 +10202,7 @@
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C591" s="22"/>
       <c r="D591" s="21"/>
@@ -10212,13 +10212,13 @@
         <v>594</v>
       </c>
       <c r="B592" s="18">
-        <v>547.5</v>
+        <v>546.5</v>
       </c>
       <c r="C592" s="19">
         <v>0.8</v>
       </c>
       <c r="D592" s="20">
-        <v>438</v>
+        <v>437.2</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -10254,13 +10254,13 @@
         <v>597</v>
       </c>
       <c r="B595" s="18">
-        <v>521.5</v>
+        <v>511.5</v>
       </c>
       <c r="C595" s="19">
         <v>0.8</v>
       </c>
       <c r="D595" s="20">
-        <v>417.2</v>
+        <v>409.2</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -10268,13 +10268,13 @@
         <v>598</v>
       </c>
       <c r="B596" s="18">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C596" s="19">
         <v>0.52</v>
       </c>
       <c r="D596" s="20">
-        <v>173.68</v>
+        <v>164.84</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10282,13 +10282,13 @@
         <v>599</v>
       </c>
       <c r="B597" s="18">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C597" s="19">
         <v>0.52</v>
       </c>
       <c r="D597" s="20">
-        <v>268.32</v>
+        <v>265.2</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -10296,13 +10296,13 @@
         <v>600</v>
       </c>
       <c r="B598" s="18">
-        <v>859.5</v>
+        <v>853.5</v>
       </c>
       <c r="C598" s="19">
         <v>0.52</v>
       </c>
       <c r="D598" s="20">
-        <v>446.94</v>
+        <v>443.82</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -10310,13 +10310,13 @@
         <v>601</v>
       </c>
       <c r="B599" s="18">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C599" s="19">
         <v>0.7</v>
       </c>
       <c r="D599" s="20">
-        <v>38.5</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -10332,13 +10332,13 @@
         <v>603</v>
       </c>
       <c r="B601" s="18">
-        <v>549.5</v>
+        <v>536.5</v>
       </c>
       <c r="C601" s="19">
         <v>0.7</v>
       </c>
       <c r="D601" s="20">
-        <v>384.65</v>
+        <v>375.55</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -10374,11 +10374,11 @@
         <v>606</v>
       </c>
       <c r="B604" s="24">
-        <v>33900.97</v>
+        <v>34405.97</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="26">
-        <v>100769.98</v>
+        <v>100264.81</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -2346,7 +2346,7 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2432,13 +2432,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="18">
-        <v>742.5</v>
+        <v>722.5</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="20">
-        <v>742.5</v>
+        <v>722.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,13 +2446,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="18">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="20">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,13 +2886,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="18">
-        <v>154.5</v>
+        <v>150.5</v>
       </c>
       <c r="C44" s="19">
         <v>2.25</v>
       </c>
       <c r="D44" s="20">
-        <v>347.63</v>
+        <v>338.63</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,13 +2970,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>153.5</v>
+        <v>133.5</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>168.85</v>
+        <v>146.85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,13 +2998,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>199.1</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,13 +3012,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C53" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="20">
-        <v>96.8</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>64.900000000000006</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>74.5</v>
+        <v>72.5</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -4378,13 +4378,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="18">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="C154" s="19">
         <v>2.95</v>
       </c>
       <c r="D154" s="20">
-        <v>293.52999999999997</v>
+        <v>289.10000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,13 +4392,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="18">
-        <v>81.5</v>
+        <v>80</v>
       </c>
       <c r="C155" s="19">
         <v>2.95</v>
       </c>
       <c r="D155" s="20">
-        <v>240.43</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,13 +4996,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C202" s="19">
         <v>4.1100000000000003</v>
       </c>
       <c r="D202" s="20">
-        <v>353.29</v>
+        <v>349.18</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5130,13 +5130,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C212" s="19">
         <v>5.25</v>
       </c>
       <c r="D212" s="20">
-        <v>199.5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,13 +5322,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C227" s="19">
         <v>5.7</v>
       </c>
       <c r="D227" s="20">
-        <v>68.400000000000006</v>
+        <v>57</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5406,13 +5406,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="C233" s="19">
         <v>4</v>
       </c>
       <c r="D233" s="20">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,13 +5518,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C241" s="19">
         <v>4.25</v>
       </c>
       <c r="D241" s="20">
-        <v>811.75</v>
+        <v>803.25</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6390,13 +6390,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>28.7</v>
+        <v>27.7</v>
       </c>
       <c r="C308" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D308" s="20">
-        <v>252.56</v>
+        <v>243.76</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7880,13 +7880,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>22.95</v>
+        <v>21.95</v>
       </c>
       <c r="C417" s="19">
         <v>3.15</v>
       </c>
       <c r="D417" s="20">
-        <v>72.290000000000006</v>
+        <v>69.14</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -9016,13 +9016,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>45.5</v>
+        <v>44</v>
       </c>
       <c r="C502" s="19">
         <v>3.2</v>
       </c>
       <c r="D502" s="20">
-        <v>145.6</v>
+        <v>140.80000000000001</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9124,13 +9124,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>61.5</v>
+        <v>59.5</v>
       </c>
       <c r="C511" s="19">
         <v>3.33</v>
       </c>
       <c r="D511" s="20">
-        <v>204.8</v>
+        <v>198.14</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9892,13 +9892,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C568" s="19">
         <v>3</v>
       </c>
       <c r="D568" s="20">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -10060,13 +10060,13 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C580" s="19">
         <v>2.79</v>
       </c>
       <c r="D580" s="20">
-        <v>362.88</v>
+        <v>348.92</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -10130,13 +10130,13 @@
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C585" s="19">
         <v>1.36</v>
       </c>
       <c r="D585" s="20">
-        <v>207.64</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10268,13 +10268,13 @@
         <v>598</v>
       </c>
       <c r="B596" s="18">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="C596" s="19">
         <v>0.52</v>
       </c>
       <c r="D596" s="20">
-        <v>164.84</v>
+        <v>112.84</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10282,13 +10282,13 @@
         <v>599</v>
       </c>
       <c r="B597" s="18">
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="C597" s="19">
         <v>0.52</v>
       </c>
       <c r="D597" s="20">
-        <v>265.2</v>
+        <v>213.2</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -10374,11 +10374,11 @@
         <v>606</v>
       </c>
       <c r="B604" s="24">
-        <v>34405.97</v>
+        <v>34029.47</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="26">
-        <v>100264.81</v>
+        <v>99898.93</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 14-Dec-2024</t>
+    <t>1-Jul-2024 to 16-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -2346,7 +2346,7 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2432,13 +2432,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="18">
-        <v>722.5</v>
+        <v>712.5</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="20">
-        <v>722.5</v>
+        <v>712.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,13 +2460,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>-146</v>
+        <v>252</v>
       </c>
       <c r="C11" s="19">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>-143.08000000000001</v>
+        <v>231.91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,13 +2474,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>39.6</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,13 +2516,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="18">
-        <v>91.5</v>
+        <v>83.5</v>
       </c>
       <c r="C15" s="19">
         <v>1.8</v>
       </c>
       <c r="D15" s="20">
-        <v>164.7</v>
+        <v>150.30000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2572,22 +2572,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>124</v>
+        <v>122.5</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="18">
+        <v>140</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2</v>
+      </c>
+      <c r="D20" s="20">
+        <v>280</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -2636,13 +2642,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>165.9</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,13 +2678,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>88.72</v>
+        <v>84.72</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>208.49</v>
+        <v>199.09</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,13 +2692,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>78.17</v>
+        <v>72.17</v>
       </c>
       <c r="C28" s="19">
         <v>2.35</v>
       </c>
       <c r="D28" s="20">
-        <v>183.7</v>
+        <v>169.6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,13 +2706,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="18">
-        <v>179.8</v>
+        <v>189.8</v>
       </c>
       <c r="C29" s="19">
-        <v>2.5099999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="D29" s="20">
-        <v>452.18</v>
+        <v>490.77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,13 +2822,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="18">
-        <v>111</v>
+        <v>109.5</v>
       </c>
       <c r="C39" s="19">
         <v>2.7</v>
       </c>
       <c r="D39" s="20">
-        <v>299.7</v>
+        <v>295.64999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,13 +2976,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>133.5</v>
+        <v>153.5</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>146.85</v>
+        <v>168.85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,13 +3004,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>177.1</v>
+        <v>199.1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,13 +3018,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C53" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="20">
-        <v>52.8</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,13 +3032,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>42.9</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,13 +3074,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="18">
-        <v>604.5</v>
+        <v>599.5</v>
       </c>
       <c r="C57" s="19">
         <v>1.9</v>
       </c>
       <c r="D57" s="20">
-        <v>1148.55</v>
+        <v>1139.05</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,13 +3172,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="18">
-        <v>411.5</v>
+        <v>407.5</v>
       </c>
       <c r="C64" s="19">
         <v>2.1</v>
       </c>
       <c r="D64" s="20">
-        <v>864.15</v>
+        <v>855.75</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,13 +3186,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="18">
-        <v>457.5</v>
+        <v>456.5</v>
       </c>
       <c r="C65" s="19">
         <v>2.1</v>
       </c>
       <c r="D65" s="20">
-        <v>960.75</v>
+        <v>958.65</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,13 +3270,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>117.9</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,13 +3284,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>810.65</v>
+        <v>802.9</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,13 +3312,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>705.5</v>
+        <v>702.5</v>
       </c>
       <c r="C74" s="19">
         <v>1.55</v>
       </c>
       <c r="D74" s="20">
-        <v>1093.53</v>
+        <v>1088.8800000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,7 +3326,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>177.5</v>
+        <v>175.5</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3330,7 +3336,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>27.5</v>
+        <v>7.5</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
@@ -3340,7 +3346,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
@@ -3350,7 +3356,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>72.5</v>
+        <v>69.5</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3360,7 +3366,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>205.5</v>
+        <v>185.5</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
@@ -3370,7 +3376,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
@@ -3394,13 +3400,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="18">
-        <v>544</v>
+        <v>532.5</v>
       </c>
       <c r="C82" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D82" s="20">
-        <v>625.6</v>
+        <v>612.38</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,13 +3414,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>212.8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,13 +3428,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="18">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C84" s="19">
         <v>1.4</v>
       </c>
       <c r="D84" s="20">
-        <v>184.8</v>
+        <v>170.8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,13 +3464,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="18">
-        <v>85.5</v>
+        <v>58.5</v>
       </c>
       <c r="C87" s="19">
         <v>2</v>
       </c>
       <c r="D87" s="20">
-        <v>171</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,13 +3492,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="18">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C89" s="19">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="D89" s="20">
-        <v>629.05999999999995</v>
+        <v>647.64</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3503,10 +3509,10 @@
         <v>513.5</v>
       </c>
       <c r="C90" s="19">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="D90" s="20">
-        <v>621.1</v>
+        <v>647.01</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,10 +3617,10 @@
         <v>12</v>
       </c>
       <c r="C99" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D99" s="20">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3625,10 +3631,10 @@
         <v>14</v>
       </c>
       <c r="C100" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D100" s="20">
-        <v>15.4</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3650,13 +3656,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>5.5</v>
+        <v>24.5</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>68.75</v>
+        <v>306.25</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,13 +3740,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>6.5</v>
+        <v>21.5</v>
       </c>
       <c r="C108" s="19">
         <v>12.5</v>
       </c>
       <c r="D108" s="20">
-        <v>81.25</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3888,13 +3894,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C119" s="19">
         <v>15.5</v>
       </c>
       <c r="D119" s="20">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4014,13 +4020,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="18">
-        <v>1.5</v>
+        <v>11.5</v>
       </c>
       <c r="C128" s="19">
-        <v>18.41</v>
+        <v>18.43</v>
       </c>
       <c r="D128" s="20">
-        <v>27.61</v>
+        <v>211.95</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4070,13 +4076,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="18">
-        <v>-2.5</v>
+        <v>3</v>
       </c>
       <c r="C132" s="19">
-        <v>18.27</v>
+        <v>18.37</v>
       </c>
       <c r="D132" s="20">
-        <v>-45.67</v>
+        <v>55.11</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4111,15 +4117,9 @@
       <c r="A135" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B135" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="C135" s="19">
-        <v>18.41</v>
-      </c>
-      <c r="D135" s="20">
-        <v>27.61</v>
-      </c>
+      <c r="B135" s="21"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="21"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
@@ -4196,13 +4196,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>61.5</v>
+        <v>56.5</v>
       </c>
       <c r="C141" s="19">
         <v>2.8</v>
       </c>
       <c r="D141" s="20">
-        <v>172.2</v>
+        <v>158.19999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,13 +4224,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C143" s="19">
         <v>2.75</v>
       </c>
       <c r="D143" s="20">
-        <v>275</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,13 +4252,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C145" s="19">
         <v>3.4</v>
       </c>
       <c r="D145" s="20">
-        <v>285.60000000000002</v>
+        <v>268.60000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,13 +4294,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C148" s="19">
         <v>2.8</v>
       </c>
       <c r="D148" s="20">
-        <v>282.8</v>
+        <v>274.39999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4308,13 +4308,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>103.5</v>
+        <v>103</v>
       </c>
       <c r="C149" s="19">
         <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>289.8</v>
+        <v>288.39999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4350,13 +4350,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C152" s="19">
         <v>2.8</v>
       </c>
       <c r="D152" s="20">
-        <v>361.2</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,13 +4484,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="18">
-        <v>127.5</v>
+        <v>67.5</v>
       </c>
       <c r="C162" s="19">
         <v>3.9</v>
       </c>
       <c r="D162" s="20">
-        <v>497.25</v>
+        <v>263.25</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,13 +4554,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="18">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C167" s="19">
         <v>3.33</v>
       </c>
       <c r="D167" s="20">
-        <v>196.47</v>
+        <v>189.81</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,13 +4632,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>150.5</v>
+        <v>153.5</v>
       </c>
       <c r="C173" s="19">
         <v>4.5</v>
       </c>
       <c r="D173" s="20">
-        <v>677.25</v>
+        <v>690.75</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,10 +4719,10 @@
         <v>140.5</v>
       </c>
       <c r="C179" s="19">
-        <v>3.73</v>
+        <v>3.93</v>
       </c>
       <c r="D179" s="20">
-        <v>523.47</v>
+        <v>552.17999999999995</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,13 +4730,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="18">
-        <v>93.5</v>
+        <v>98.5</v>
       </c>
       <c r="C180" s="19">
-        <v>3.69</v>
+        <v>3.94</v>
       </c>
       <c r="D180" s="20">
-        <v>345.02</v>
+        <v>388.33</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,13 +4758,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
       <c r="C182" s="19">
         <v>3</v>
       </c>
       <c r="D182" s="20">
-        <v>295.5</v>
+        <v>286.5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4844,13 +4844,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>50.24</v>
+        <v>44.74</v>
       </c>
       <c r="C189" s="19">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="D189" s="20">
-        <v>153.22999999999999</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4918,13 +4918,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C196" s="19">
         <v>3.8</v>
       </c>
       <c r="D196" s="20">
-        <v>79.8</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,13 +4982,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="18">
-        <v>39</v>
+        <v>26.5</v>
       </c>
       <c r="C201" s="19">
-        <v>4.0999999999999996</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D201" s="20">
-        <v>159.9</v>
+        <v>108.91</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,13 +4996,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C202" s="19">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
       <c r="D202" s="20">
-        <v>349.18</v>
+        <v>321.05</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,13 +5052,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>73.5</v>
+        <v>70.5</v>
       </c>
       <c r="C206" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D206" s="20">
-        <v>323.39999999999998</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,13 +5088,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C209" s="19">
         <v>4.5</v>
       </c>
       <c r="D209" s="20">
-        <v>234</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5102,13 +5102,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>-17.5</v>
+        <v>-3</v>
       </c>
       <c r="C210" s="19">
         <v>4.5</v>
       </c>
       <c r="D210" s="20">
-        <v>-78.75</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5186,13 +5186,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="18">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="C216" s="19">
         <v>4.75</v>
       </c>
       <c r="D216" s="20">
-        <v>116.38</v>
+        <v>121.13</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5256,13 +5256,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>72.5</v>
+        <v>79.5</v>
       </c>
       <c r="C221" s="19">
         <v>4.75</v>
       </c>
       <c r="D221" s="20">
-        <v>344.38</v>
+        <v>377.63</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,13 +5322,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="C227" s="19">
         <v>5.7</v>
       </c>
       <c r="D227" s="20">
-        <v>57</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,13 +5378,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C231" s="19">
         <v>5.96</v>
       </c>
       <c r="D231" s="20">
-        <v>387.67</v>
+        <v>351.88</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5395,10 +5395,10 @@
         <v>23.5</v>
       </c>
       <c r="C232" s="19">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="D232" s="20">
-        <v>99.99</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,13 +5462,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="18">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="C237" s="19">
         <v>5</v>
       </c>
       <c r="D237" s="20">
-        <v>117.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,13 +5504,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>57</v>
+        <v>48.5</v>
       </c>
       <c r="C240" s="19">
         <v>3.5</v>
       </c>
       <c r="D240" s="20">
-        <v>199.5</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,13 +5518,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C241" s="19">
         <v>4.25</v>
       </c>
       <c r="D241" s="20">
-        <v>803.25</v>
+        <v>811.75</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5582,13 +5582,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="18">
-        <v>124</v>
+        <v>106.5</v>
       </c>
       <c r="C246" s="19">
         <v>4.28</v>
       </c>
       <c r="D246" s="20">
-        <v>530.72</v>
+        <v>455.82</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5638,13 +5638,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="C250" s="19">
         <v>4.95</v>
       </c>
       <c r="D250" s="20">
-        <v>84.15</v>
+        <v>66.83</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,13 +5652,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C251" s="19">
         <v>4.75</v>
       </c>
       <c r="D251" s="20">
-        <v>118.75</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,13 +5858,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="18">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C267" s="19">
         <v>6</v>
       </c>
       <c r="D267" s="20">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,13 +5886,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C269" s="19">
         <v>5.94</v>
       </c>
       <c r="D269" s="20">
-        <v>457.38</v>
+        <v>427.68</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,13 +5942,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="C273" s="19">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="D273" s="20">
-        <v>168.17</v>
+        <v>158.28</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,13 +6092,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="C285" s="19">
         <v>6.65</v>
       </c>
       <c r="D285" s="20">
-        <v>295.93</v>
+        <v>289.27999999999997</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,13 +6128,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="18">
-        <v>32.5</v>
+        <v>31</v>
       </c>
       <c r="C288" s="19">
         <v>7.18</v>
       </c>
       <c r="D288" s="20">
-        <v>233.28</v>
+        <v>222.51</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,13 +6142,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="18">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C289" s="19">
         <v>7.13</v>
       </c>
       <c r="D289" s="20">
-        <v>78.430000000000007</v>
+        <v>163.99</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,13 +6184,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C292" s="19">
         <v>6.65</v>
       </c>
       <c r="D292" s="20">
-        <v>219.45</v>
+        <v>212.8</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,13 +6256,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C298" s="19">
         <v>7.6</v>
       </c>
       <c r="D298" s="20">
-        <v>129.19999999999999</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,13 +6270,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C299" s="19">
         <v>8.08</v>
       </c>
       <c r="D299" s="20">
-        <v>8.08</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,13 +6474,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C314" s="19">
         <v>9.25</v>
       </c>
       <c r="D314" s="20">
-        <v>-9.25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6547,10 +6547,10 @@
         <v>60.5</v>
       </c>
       <c r="C319" s="19">
-        <v>6.79</v>
+        <v>6.86</v>
       </c>
       <c r="D319" s="20">
-        <v>410.7</v>
+        <v>415.06</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6561,10 +6561,10 @@
         <v>60.5</v>
       </c>
       <c r="C320" s="19">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D320" s="20">
-        <v>393.25</v>
+        <v>417.45</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,13 +6714,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="C332" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="D332" s="20">
-        <v>71.05</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6759,10 +6759,10 @@
         <v>31.5</v>
       </c>
       <c r="C335" s="19">
-        <v>7.66</v>
+        <v>7.6</v>
       </c>
       <c r="D335" s="20">
-        <v>241.39</v>
+        <v>239.4</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6882,13 +6882,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="C344" s="19">
         <v>18</v>
       </c>
       <c r="D344" s="20">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6980,13 +6980,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="C351" s="19">
         <v>7.84</v>
       </c>
       <c r="D351" s="20">
-        <v>27.44</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7176,13 +7176,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="C365" s="19">
         <v>10</v>
       </c>
       <c r="D365" s="20">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7232,13 +7232,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C369" s="19">
         <v>25</v>
       </c>
       <c r="D369" s="20">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7301,15 +7301,9 @@
       <c r="A374" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B374" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="C374" s="19">
-        <v>21.5</v>
-      </c>
-      <c r="D374" s="20">
-        <v>32.25</v>
-      </c>
+      <c r="B374" s="21"/>
+      <c r="C374" s="22"/>
+      <c r="D374" s="21"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="s">
@@ -7428,13 +7422,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>38.5</v>
+        <v>23</v>
       </c>
       <c r="C383" s="19">
         <v>10.93</v>
       </c>
       <c r="D383" s="20">
-        <v>420.81</v>
+        <v>251.39</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7512,13 +7506,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="18">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="C389" s="19">
         <v>2</v>
       </c>
       <c r="D389" s="20">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7526,13 +7520,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="18">
-        <v>37.5</v>
+        <v>30.5</v>
       </c>
       <c r="C390" s="19">
         <v>2</v>
       </c>
       <c r="D390" s="20">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7662,13 +7656,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C401" s="19">
         <v>2.5</v>
       </c>
       <c r="D401" s="20">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7690,13 +7684,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="18">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C403" s="19">
         <v>2.7</v>
       </c>
       <c r="D403" s="20">
-        <v>234.9</v>
+        <v>218.7</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7732,13 +7726,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C406" s="19">
         <v>2.75</v>
       </c>
       <c r="D406" s="20">
-        <v>112.75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7880,13 +7874,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>21.95</v>
+        <v>20.95</v>
       </c>
       <c r="C417" s="19">
         <v>3.15</v>
       </c>
       <c r="D417" s="20">
-        <v>69.14</v>
+        <v>65.989999999999995</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7972,13 +7966,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>46.56</v>
+        <v>46.06</v>
       </c>
       <c r="C424" s="19">
         <v>3.5</v>
       </c>
       <c r="D424" s="20">
-        <v>162.96</v>
+        <v>161.21</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -7986,13 +7980,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="C425" s="19">
         <v>3.8</v>
       </c>
       <c r="D425" s="20">
-        <v>226.1</v>
+        <v>229.9</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,13 +8094,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="C434" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="D434" s="20">
-        <v>47.13</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,13 +8108,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="C435" s="19">
         <v>4.25</v>
       </c>
       <c r="D435" s="20">
-        <v>63.75</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8198,13 +8192,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="C441" s="19">
         <v>4.75</v>
       </c>
       <c r="D441" s="20">
-        <v>239.88</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8290,13 +8284,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="C448" s="19">
         <v>5.5</v>
       </c>
       <c r="D448" s="20">
-        <v>79.75</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8460,13 +8454,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="C461" s="19">
         <v>7.6</v>
       </c>
       <c r="D461" s="20">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8566,13 +8560,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="C469" s="19">
         <v>9.5</v>
       </c>
       <c r="D469" s="20">
-        <v>175.75</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8608,13 +8602,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C472" s="19">
         <v>5.7</v>
       </c>
       <c r="D472" s="20">
-        <v>330.6</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8868,13 +8862,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C491" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D491" s="20">
-        <v>136.80000000000001</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8904,13 +8898,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="18">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="C494" s="19">
         <v>2.75</v>
       </c>
       <c r="D494" s="20">
-        <v>56.38</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9002,13 +8996,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C501" s="19">
         <v>3.2</v>
       </c>
       <c r="D501" s="20">
-        <v>192</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9016,13 +9010,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C502" s="19">
         <v>3.2</v>
       </c>
       <c r="D502" s="20">
-        <v>140.80000000000001</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9052,13 +9046,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="C505" s="19">
         <v>3.25</v>
       </c>
       <c r="D505" s="20">
-        <v>196.63</v>
+        <v>190.13</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9124,13 +9118,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>59.5</v>
+        <v>58</v>
       </c>
       <c r="C511" s="19">
         <v>3.33</v>
       </c>
       <c r="D511" s="20">
-        <v>198.14</v>
+        <v>193.14</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9288,13 +9282,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>38.5</v>
+        <v>33.5</v>
       </c>
       <c r="C524" s="19">
         <v>3.8</v>
       </c>
       <c r="D524" s="20">
-        <v>146.30000000000001</v>
+        <v>127.3</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9358,13 +9352,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>24.5</v>
+        <v>14.5</v>
       </c>
       <c r="C529" s="19">
         <v>4.75</v>
       </c>
       <c r="D529" s="20">
-        <v>116.38</v>
+        <v>68.88</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9428,13 +9422,13 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>26.5</v>
+        <v>-1</v>
       </c>
       <c r="C534" s="19">
         <v>5</v>
       </c>
       <c r="D534" s="20">
-        <v>132.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9442,13 +9436,13 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>14.5</v>
+        <v>34.5</v>
       </c>
       <c r="C535" s="19">
         <v>5</v>
       </c>
       <c r="D535" s="20">
-        <v>72.5</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9487,10 +9481,10 @@
         <v>24</v>
       </c>
       <c r="C538" s="19">
-        <v>5.2</v>
+        <v>5.41</v>
       </c>
       <c r="D538" s="20">
-        <v>124.8</v>
+        <v>129.78</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9526,13 +9520,13 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="C541" s="19">
         <v>5.75</v>
       </c>
       <c r="D541" s="20">
-        <v>169.63</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9568,13 +9562,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>35.5</v>
+        <v>32.5</v>
       </c>
       <c r="C544" s="19">
         <v>5.75</v>
       </c>
       <c r="D544" s="20">
-        <v>204.13</v>
+        <v>186.88</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9752,13 +9746,13 @@
         <v>560</v>
       </c>
       <c r="B558" s="18">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C558" s="19">
         <v>2.76</v>
       </c>
       <c r="D558" s="20">
-        <v>220.52</v>
+        <v>245.64</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -9772,7 +9766,7 @@
         <v>2.76</v>
       </c>
       <c r="D559" s="20">
-        <v>203.89</v>
+        <v>204.24</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -9780,13 +9774,13 @@
         <v>562</v>
       </c>
       <c r="B560" s="18">
-        <v>109.5</v>
+        <v>107.5</v>
       </c>
       <c r="C560" s="19">
         <v>2.76</v>
       </c>
       <c r="D560" s="20">
-        <v>302.22000000000003</v>
+        <v>296.7</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -9811,10 +9805,10 @@
         <v>53</v>
       </c>
       <c r="C562" s="19">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="D562" s="20">
-        <v>150.1</v>
+        <v>152.22</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -9892,13 +9886,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C568" s="19">
         <v>3</v>
       </c>
       <c r="D568" s="20">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9920,13 +9914,13 @@
         <v>572</v>
       </c>
       <c r="B570" s="18">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C570" s="19">
         <v>6</v>
       </c>
       <c r="D570" s="20">
-        <v>162</v>
+        <v>42</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -10018,13 +10012,13 @@
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="C577" s="19">
         <v>1.92</v>
       </c>
       <c r="D577" s="20">
-        <v>565.9</v>
+        <v>491.64</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10046,13 +10040,13 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C579" s="19">
         <v>1.93</v>
       </c>
       <c r="D579" s="20">
-        <v>480.57</v>
+        <v>488.19</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10060,13 +10054,13 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C580" s="19">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="D580" s="20">
-        <v>348.92</v>
+        <v>349.06</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -10088,13 +10082,13 @@
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="C582" s="19">
         <v>4.28</v>
       </c>
       <c r="D582" s="20">
-        <v>156.22</v>
+        <v>147.66</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -10102,13 +10096,13 @@
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>62.5</v>
+        <v>56.5</v>
       </c>
       <c r="C583" s="19">
         <v>4.05</v>
       </c>
       <c r="D583" s="20">
-        <v>253.13</v>
+        <v>228.83</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10116,13 +10110,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>104.5</v>
+        <v>80.5</v>
       </c>
       <c r="C584" s="19">
         <v>4.05</v>
       </c>
       <c r="D584" s="20">
-        <v>423.23</v>
+        <v>326.02999999999997</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10133,10 +10127,10 @@
         <v>147</v>
       </c>
       <c r="C585" s="19">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="D585" s="20">
-        <v>199.5</v>
+        <v>204.64</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10147,10 +10141,10 @@
         <v>378</v>
       </c>
       <c r="C586" s="19">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="D586" s="20">
-        <v>512.54</v>
+        <v>529.20000000000005</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -10158,13 +10152,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C587" s="19">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="D587" s="20">
-        <v>128.9</v>
+        <v>166.6</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10182,7 +10176,7 @@
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="C589" s="22"/>
       <c r="D589" s="21"/>
@@ -10212,13 +10206,13 @@
         <v>594</v>
       </c>
       <c r="B592" s="18">
-        <v>546.5</v>
+        <v>526.5</v>
       </c>
       <c r="C592" s="19">
         <v>0.8</v>
       </c>
       <c r="D592" s="20">
-        <v>437.2</v>
+        <v>421.2</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -10254,13 +10248,13 @@
         <v>597</v>
       </c>
       <c r="B595" s="18">
-        <v>511.5</v>
+        <v>509.5</v>
       </c>
       <c r="C595" s="19">
         <v>0.8</v>
       </c>
       <c r="D595" s="20">
-        <v>409.2</v>
+        <v>407.6</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -10268,13 +10262,13 @@
         <v>598</v>
       </c>
       <c r="B596" s="18">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C596" s="19">
         <v>0.52</v>
       </c>
       <c r="D596" s="20">
-        <v>112.84</v>
+        <v>102.44</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10282,13 +10276,13 @@
         <v>599</v>
       </c>
       <c r="B597" s="18">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C597" s="19">
         <v>0.52</v>
       </c>
       <c r="D597" s="20">
-        <v>213.2</v>
+        <v>211.12</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -10310,13 +10304,13 @@
         <v>601</v>
       </c>
       <c r="B599" s="18">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C599" s="19">
         <v>0.7</v>
       </c>
       <c r="D599" s="20">
-        <v>34.299999999999997</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -10332,13 +10326,13 @@
         <v>603</v>
       </c>
       <c r="B601" s="18">
-        <v>536.5</v>
+        <v>465.5</v>
       </c>
       <c r="C601" s="19">
         <v>0.7</v>
       </c>
       <c r="D601" s="20">
-        <v>375.55</v>
+        <v>325.85000000000002</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -10374,11 +10368,11 @@
         <v>606</v>
       </c>
       <c r="B604" s="24">
-        <v>34029.47</v>
+        <v>34166.47</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="26">
-        <v>99898.93</v>
+        <v>100320.22</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -2477,13 +2477,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>64</v>
+        <v>60.5</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>105.6</v>
+        <v>99.83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>69.5</v>
+        <v>67</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3445,13 +3445,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C85" s="19">
         <v>1.4</v>
       </c>
       <c r="D85" s="20">
-        <v>239.4</v>
+        <v>233.8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,13 +4065,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C131" s="19">
         <v>18.37</v>
       </c>
       <c r="D131" s="20">
-        <v>146.96</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,13 +4767,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C182" s="19">
         <v>3</v>
       </c>
       <c r="D182" s="20">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5153,13 +5153,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="18">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C213" s="19">
         <v>4.8</v>
       </c>
       <c r="D213" s="20">
-        <v>206.4</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5569,13 +5569,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C244" s="19">
         <v>4.18</v>
       </c>
       <c r="D244" s="20">
-        <v>259.16000000000003</v>
+        <v>250.8</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6143,13 +6143,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="18">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C288" s="19">
         <v>7.18</v>
       </c>
       <c r="D288" s="20">
-        <v>222.51</v>
+        <v>200.98</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -7233,13 +7233,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="18">
-        <v>25.5</v>
+        <v>23.5</v>
       </c>
       <c r="C368" s="19">
         <v>7.84</v>
       </c>
       <c r="D368" s="20">
-        <v>199.92</v>
+        <v>184.24</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -8413,13 +8413,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C457" s="19">
         <v>7.5</v>
       </c>
       <c r="D457" s="20">
-        <v>150</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -10055,13 +10055,13 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="C579" s="19">
         <v>1.96</v>
       </c>
       <c r="D579" s="20">
-        <v>17.649999999999999</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10083,13 +10083,13 @@
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>119.5</v>
+        <v>117.5</v>
       </c>
       <c r="C581" s="19">
         <v>2.84</v>
       </c>
       <c r="D581" s="20">
-        <v>339.12</v>
+        <v>333.45</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -10397,11 +10397,11 @@
         <v>607</v>
       </c>
       <c r="B605" s="24">
-        <v>36478.97</v>
+        <v>36447.97</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="26">
-        <v>104367.95</v>
+        <v>104231.78</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 18-Dec-2024</t>
+    <t>1-Jul-2024 to 19-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -512,7 +512,7 @@
     <t>4220 PATRIKA</t>
   </si>
   <si>
-    <t>4221 PATRIKA (20.12 6K)</t>
+    <t>4221 PATRIKA (AA GYA)</t>
   </si>
   <si>
     <t>4222 PATRIKA (DC)</t>
@@ -929,7 +929,7 @@
     <t>5908 PATRIKA</t>
   </si>
   <si>
-    <t>5909 PATRIKA {M}</t>
+    <t>5909 PATRIKA {M} (AA GYA)</t>
   </si>
   <si>
     <t>5910 PATRIKA {M}</t>
@@ -974,7 +974,7 @@
     <t>5923 PATRIKA (DC) {{10}}</t>
   </si>
   <si>
-    <t>5924 PATRIKA {M}</t>
+    <t>5924 PATRIKA {M} (400)</t>
   </si>
   <si>
     <t>5925 PATRIKA {M}</t>
@@ -1139,7 +1139,7 @@
     <t>6530 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6531 PATRIKA {M}</t>
+    <t>6531 PATRIKA {M} (1500)</t>
   </si>
   <si>
     <t>6532 PATRIKA (Dc) REMOVE</t>
@@ -1376,7 +1376,7 @@
     <t>7309 PATRIKA</t>
   </si>
   <si>
-    <t>7310 PATRIKA (D)</t>
+    <t>7310 PATRIKA (D) (AA GYA)</t>
   </si>
   <si>
     <t>7311 PATRIKA (DC) {{10}}</t>
@@ -2449,13 +2449,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="18">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="20">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,13 +2463,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="19">
         <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>210.74</v>
+        <v>209.82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,13 +2589,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="18">
-        <v>131.5</v>
+        <v>129.5</v>
       </c>
       <c r="C20" s="19">
         <v>2</v>
       </c>
       <c r="D20" s="20">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,13 +2631,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="18">
-        <v>124</v>
+        <v>119.5</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="20">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,13 +2645,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>66.5</v>
+        <v>60.5</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>139.65</v>
+        <v>127.05</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +2979,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>149.6</v>
+        <v>141.9</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,13 +3035,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>35.200000000000003</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,13 +3287,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>753.3</v>
+        <v>757.95</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +3315,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>702.5</v>
+        <v>700.5</v>
       </c>
       <c r="C74" s="19">
         <v>1.55</v>
       </c>
       <c r="D74" s="20">
-        <v>1088.8800000000001</v>
+        <v>1085.78</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>165.5</v>
+        <v>160.5</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3359,7 +3359,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>67</v>
+        <v>64.5</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3379,7 +3379,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
@@ -3417,13 +3417,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>989.8</v>
+        <v>992.6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,13 +3509,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="18">
-        <v>513.5</v>
+        <v>511.5</v>
       </c>
       <c r="C90" s="19">
         <v>1.26</v>
       </c>
       <c r="D90" s="20">
-        <v>647.01</v>
+        <v>644.49</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,23 +3594,23 @@
       <c r="A97" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="18">
-        <v>-10</v>
-      </c>
-      <c r="C97" s="19">
-        <v>1.55</v>
-      </c>
-      <c r="D97" s="20">
-        <v>-15.5</v>
-      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="21"/>
+      <c r="B98" s="18">
+        <v>8</v>
+      </c>
+      <c r="C98" s="19">
+        <v>1.55</v>
+      </c>
+      <c r="D98" s="20">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
@@ -3771,13 +3771,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="C110" s="19">
         <v>12.5</v>
       </c>
       <c r="D110" s="20">
-        <v>243.75</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,13 +4065,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C131" s="19">
         <v>18.37</v>
       </c>
       <c r="D131" s="20">
-        <v>119.4</v>
+        <v>146.96</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4205,13 +4205,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C141" s="19">
         <v>2.8</v>
       </c>
       <c r="D141" s="20">
-        <v>154</v>
+        <v>137.19999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4219,13 +4219,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>110.5</v>
+        <v>107</v>
       </c>
       <c r="C142" s="19">
         <v>2.75</v>
       </c>
       <c r="D142" s="20">
-        <v>303.88</v>
+        <v>294.25</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4247,13 +4247,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C144" s="19">
         <v>4.7</v>
       </c>
       <c r="D144" s="20">
-        <v>155.1</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4261,13 +4261,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C145" s="19">
         <v>3.4</v>
       </c>
       <c r="D145" s="20">
-        <v>261.8</v>
+        <v>258.39999999999998</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4317,13 +4317,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>103</v>
+        <v>99.5</v>
       </c>
       <c r="C149" s="19">
         <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>288.39999999999998</v>
+        <v>278.60000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,13 +4535,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="18">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C165" s="19">
         <v>3.33</v>
       </c>
       <c r="D165" s="20">
-        <v>136.53</v>
+        <v>103.23</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,13 +4697,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="18">
-        <v>33.5</v>
+        <v>30.5</v>
       </c>
       <c r="C177" s="19">
         <v>4.5</v>
       </c>
       <c r="D177" s="20">
-        <v>150.75</v>
+        <v>137.25</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,13 +4725,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="18">
-        <v>138.5</v>
+        <v>123.5</v>
       </c>
       <c r="C179" s="19">
         <v>3.93</v>
       </c>
       <c r="D179" s="20">
-        <v>544.32000000000005</v>
+        <v>485.37</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,13 +4739,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="18">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
       <c r="C180" s="19">
         <v>3.94</v>
       </c>
       <c r="D180" s="20">
-        <v>388.33</v>
+        <v>376.51</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,13 +4941,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>20.5</v>
+        <v>14.5</v>
       </c>
       <c r="C197" s="19">
         <v>3.8</v>
       </c>
       <c r="D197" s="20">
-        <v>77.900000000000006</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,13 +4991,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="18">
-        <v>29.5</v>
+        <v>26.5</v>
       </c>
       <c r="C201" s="19">
         <v>4.1100000000000003</v>
       </c>
       <c r="D201" s="20">
-        <v>121.24</v>
+        <v>108.91</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,13 +5005,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C202" s="19">
         <v>4.12</v>
       </c>
       <c r="D202" s="20">
-        <v>156.41</v>
+        <v>148.18</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,13 +5111,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>297</v>
+        <v>290.5</v>
       </c>
       <c r="C210" s="19">
         <v>4.5</v>
       </c>
       <c r="D210" s="20">
-        <v>1336.5</v>
+        <v>1307.25</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,13 +5139,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>19</v>
+        <v>25.5</v>
       </c>
       <c r="C212" s="19">
         <v>5.25</v>
       </c>
       <c r="D212" s="20">
-        <v>99.75</v>
+        <v>133.88</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,13 +5315,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="18">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="C225" s="19">
         <v>6</v>
       </c>
       <c r="D225" s="20">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,28 +5504,22 @@
       <c r="A239" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="18">
-        <v>6.5</v>
-      </c>
-      <c r="C239" s="19">
-        <v>5.25</v>
-      </c>
-      <c r="D239" s="20">
-        <v>34.130000000000003</v>
-      </c>
+      <c r="B239" s="21"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="21"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="17" t="s">
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="C240" s="19">
         <v>3.5</v>
       </c>
       <c r="D240" s="20">
-        <v>162.75</v>
+        <v>159.25</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5681,13 +5675,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="18">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C252" s="19">
         <v>5</v>
       </c>
       <c r="D252" s="20">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5831,13 +5825,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="18">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="C264" s="19">
         <v>6.25</v>
       </c>
       <c r="D264" s="20">
-        <v>184.38</v>
+        <v>171.88</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,13 +5867,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="18">
-        <v>38</v>
+        <v>36.5</v>
       </c>
       <c r="C267" s="19">
         <v>6</v>
       </c>
       <c r="D267" s="20">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,13 +5895,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>75.5</v>
+        <v>72.5</v>
       </c>
       <c r="C269" s="19">
         <v>5.94</v>
       </c>
       <c r="D269" s="20">
-        <v>448.47</v>
+        <v>430.65</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6143,13 +6137,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="18">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C288" s="19">
         <v>7.18</v>
       </c>
       <c r="D288" s="20">
-        <v>200.98</v>
+        <v>179.44</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6157,13 +6151,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="18">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="C289" s="19">
         <v>7.13</v>
       </c>
       <c r="D289" s="20">
-        <v>139.04</v>
+        <v>110.52</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,13 +6469,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C313" s="19">
         <v>11</v>
       </c>
       <c r="D313" s="20">
-        <v>104.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6545,13 +6539,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="18">
-        <v>88.5</v>
+        <v>91.5</v>
       </c>
       <c r="C318" s="19">
         <v>5.5</v>
       </c>
       <c r="D318" s="20">
-        <v>486.75</v>
+        <v>503.25</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6671,13 +6665,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="C327" s="19">
         <v>6.9</v>
       </c>
       <c r="D327" s="20">
-        <v>69</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,13 +6723,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C332" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="D332" s="20">
-        <v>78.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6799,13 +6793,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="18">
-        <v>65.5</v>
+        <v>64</v>
       </c>
       <c r="C337" s="19">
         <v>6.5</v>
       </c>
       <c r="D337" s="20">
-        <v>425.75</v>
+        <v>416</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6995,13 +6989,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="C351" s="19">
         <v>7.84</v>
       </c>
       <c r="D351" s="20">
-        <v>35.28</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7233,13 +7227,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="18">
-        <v>23.5</v>
+        <v>20.5</v>
       </c>
       <c r="C368" s="19">
         <v>7.84</v>
       </c>
       <c r="D368" s="20">
-        <v>184.24</v>
+        <v>160.72</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7247,13 +7241,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="C369" s="19">
         <v>25</v>
       </c>
       <c r="D369" s="20">
-        <v>375</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7275,13 +7269,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
       <c r="C371" s="19">
         <v>10.93</v>
       </c>
       <c r="D371" s="20">
-        <v>388.02</v>
+        <v>377.09</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,13 +7431,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C383" s="19">
         <v>10.93</v>
       </c>
       <c r="D383" s="20">
-        <v>284.18</v>
+        <v>240.46</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7535,13 +7529,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="18">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="C390" s="19">
         <v>2</v>
       </c>
       <c r="D390" s="20">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7699,13 +7693,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="18">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C403" s="19">
         <v>2.7</v>
       </c>
       <c r="D403" s="20">
-        <v>218.7</v>
+        <v>216</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7967,13 +7961,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="18">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="C423" s="19">
         <v>3.4</v>
       </c>
       <c r="D423" s="20">
-        <v>103.7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8299,13 +8293,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="C448" s="19">
         <v>5.5</v>
       </c>
       <c r="D448" s="20">
-        <v>46.75</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8427,13 +8421,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C458" s="19">
         <v>7.13</v>
       </c>
       <c r="D458" s="20">
-        <v>349.37</v>
+        <v>342.24</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8561,13 +8555,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C468" s="19">
         <v>4.28</v>
       </c>
       <c r="D468" s="20">
-        <v>107</v>
+        <v>102.72</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8729,13 +8723,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>106.5</v>
+        <v>86.5</v>
       </c>
       <c r="C480" s="19">
         <v>1.4</v>
       </c>
       <c r="D480" s="20">
-        <v>149.1</v>
+        <v>121.1</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8827,13 +8821,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>217.5</v>
+        <v>209.5</v>
       </c>
       <c r="C487" s="19">
         <v>1.5</v>
       </c>
       <c r="D487" s="20">
-        <v>326.25</v>
+        <v>314.25</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8841,13 +8835,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>352.5</v>
+        <v>350.5</v>
       </c>
       <c r="C488" s="19">
         <v>1.5</v>
       </c>
       <c r="D488" s="20">
-        <v>528.75</v>
+        <v>525.75</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8869,13 +8863,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C490" s="19">
         <v>0.39</v>
       </c>
       <c r="D490" s="20">
-        <v>57.59</v>
+        <v>53.67</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8883,13 +8877,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C491" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D491" s="20">
-        <v>223.44</v>
+        <v>218.88</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,13 +8955,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C497" s="19">
         <v>2.8</v>
       </c>
       <c r="D497" s="20">
-        <v>39.200000000000003</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9153,13 +9147,13 @@
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C512" s="19">
         <v>3.33</v>
       </c>
       <c r="D512" s="20">
-        <v>203.13</v>
+        <v>193.14</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9203,13 +9197,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C516" s="19">
         <v>3.6</v>
       </c>
       <c r="D516" s="20">
-        <v>196.2</v>
+        <v>192.6</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9317,13 +9311,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>33.5</v>
+        <v>31.5</v>
       </c>
       <c r="C525" s="19">
         <v>3.8</v>
       </c>
       <c r="D525" s="20">
-        <v>127.3</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9465,13 +9459,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="C536" s="19">
         <v>5</v>
       </c>
       <c r="D536" s="20">
-        <v>172.5</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9605,13 +9599,13 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C546" s="19">
         <v>6</v>
       </c>
       <c r="D546" s="20">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9619,13 +9613,13 @@
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C547" s="19">
         <v>6</v>
       </c>
       <c r="D547" s="20">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -10041,13 +10035,13 @@
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C578" s="19">
         <v>1.92</v>
       </c>
       <c r="D578" s="20">
-        <v>487.8</v>
+        <v>482.04</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10055,13 +10049,13 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C579" s="19">
         <v>1.96</v>
       </c>
       <c r="D579" s="20">
-        <v>12.75</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10069,13 +10063,13 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C580" s="19">
         <v>1.93</v>
       </c>
       <c r="D580" s="20">
-        <v>486.26</v>
+        <v>480.48</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -10083,13 +10077,13 @@
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>117.5</v>
+        <v>115.5</v>
       </c>
       <c r="C581" s="19">
         <v>2.84</v>
       </c>
       <c r="D581" s="20">
-        <v>333.45</v>
+        <v>327.77</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -10205,7 +10199,7 @@
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="C590" s="22"/>
       <c r="D590" s="21"/>
@@ -10215,7 +10209,7 @@
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>51.5</v>
+        <v>49.5</v>
       </c>
       <c r="C591" s="22"/>
       <c r="D591" s="21"/>
@@ -10249,13 +10243,13 @@
         <v>596</v>
       </c>
       <c r="B594" s="18">
-        <v>630.5</v>
+        <v>628.5</v>
       </c>
       <c r="C594" s="19">
         <v>0.8</v>
       </c>
       <c r="D594" s="20">
-        <v>504.4</v>
+        <v>502.8</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -10277,13 +10271,13 @@
         <v>598</v>
       </c>
       <c r="B596" s="18">
-        <v>483.5</v>
+        <v>479.5</v>
       </c>
       <c r="C596" s="19">
         <v>0.8</v>
       </c>
       <c r="D596" s="20">
-        <v>386.8</v>
+        <v>383.6</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10355,13 +10349,13 @@
         <v>604</v>
       </c>
       <c r="B602" s="18">
-        <v>469.5</v>
+        <v>467.5</v>
       </c>
       <c r="C602" s="19">
         <v>0.68</v>
       </c>
       <c r="D602" s="20">
-        <v>320.2</v>
+        <v>318.83999999999997</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -10397,11 +10391,11 @@
         <v>607</v>
       </c>
       <c r="B605" s="24">
-        <v>36447.97</v>
+        <v>36240.47</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="26">
-        <v>104231.78</v>
+        <v>103376.68</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="611">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 19-Dec-2024</t>
+    <t>1-Jul-2024 to 20-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -425,7 +425,7 @@
     <t>2050 PATRIKA {L}</t>
   </si>
   <si>
-    <t>2051 PATRIKA {L}</t>
+    <t>2051 PATRIKA {L} (DC)</t>
   </si>
   <si>
     <t>2052 PATRIKA {L}</t>
@@ -437,7 +437,7 @@
     <t>2054 PATRIKA {L}</t>
   </si>
   <si>
-    <t>2055 PATRIKA (Saturday 21.12 1000)</t>
+    <t>2055 PATRIKA</t>
   </si>
   <si>
     <t>2056 PATRIKA {L}</t>
@@ -680,7 +680,7 @@
     <t>5025 PATRIKA (DORI) {M}</t>
   </si>
   <si>
-    <t>5026 PATRIKA</t>
+    <t>5026 PATRIKA (3000)</t>
   </si>
   <si>
     <t>5027 PATRIKA (DC)</t>
@@ -713,7 +713,7 @@
     <t>5036 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5037 PATRIKA</t>
+    <t>5037 PATRIKA (8000)</t>
   </si>
   <si>
     <t>5038 PATRIKA</t>
@@ -728,7 +728,7 @@
     <t>5040 PATRIKA</t>
   </si>
   <si>
-    <t>5041 PATRIKA</t>
+    <t>5041 PATRIKA (2400)</t>
   </si>
   <si>
     <t>5042 PATRIKA (AA GYA)</t>
@@ -1010,7 +1010,7 @@
     <t>5935 PATRIKA {M}</t>
   </si>
   <si>
-    <t>5936 PATRIKA {M}</t>
+    <t>5936 PATRIKA {M} (26.12 4K)</t>
   </si>
   <si>
     <t>5937 PATRIKA (Dc) {{10}}</t>
@@ -1103,10 +1103,10 @@
     <t>6518 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6519 PATRIKA {M}</t>
-  </si>
-  <si>
-    <t>6520 PATRIKA {M}</t>
+    <t>6519 PATRIKA {M} (2000)</t>
+  </si>
+  <si>
+    <t>6520 PATRIKA {M} (1400 Total)</t>
   </si>
   <si>
     <t>6521 PATRIKA (GGN) {M}</t>
@@ -1130,7 +1130,7 @@
     <t>6527 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6528 PATRIKA {M}</t>
+    <t>6528 PATRIKA {M} (2200)</t>
   </si>
   <si>
     <t>6529 PATRIKA</t>
@@ -1166,7 +1166,7 @@
     <t>6539 PATRIKA</t>
   </si>
   <si>
-    <t>6540 PATRIKA {M}</t>
+    <t>6540 PATRIKA {M} (2700)</t>
   </si>
   <si>
     <t>6541 PATRIKA</t>
@@ -1208,6 +1208,9 @@
     <t>7252 PATRIKA</t>
   </si>
   <si>
+    <t>7253 PATRIKA</t>
+  </si>
+  <si>
     <t>7253 PATRIKA - B (Dc)</t>
   </si>
   <si>
@@ -1250,7 +1253,7 @@
     <t>7266 PATRIKA</t>
   </si>
   <si>
-    <t>7267 PATRIKA</t>
+    <t>7267 PATRIKA (5000)</t>
   </si>
   <si>
     <t>7268 PATRIKA</t>
@@ -1334,7 +1337,7 @@
     <t>7295 PATRIKA</t>
   </si>
   <si>
-    <t>7296 PATRIKA {F}</t>
+    <t>7296 PATRIKA {F} (5200)</t>
   </si>
   <si>
     <t>7297 PATRIKA {F/G}</t>
@@ -1364,7 +1367,7 @@
     <t>7305 PATRIKA</t>
   </si>
   <si>
-    <t>7306 PATRIKA</t>
+    <t>7306 PATRIKA (1800)</t>
   </si>
   <si>
     <t>7307 PATRIKA</t>
@@ -1439,7 +1442,7 @@
     <t>7330 PATRIKA</t>
   </si>
   <si>
-    <t>7331 PATRIKA {F/G}</t>
+    <t>7331 PATRIKA {F/G} (2400)</t>
   </si>
   <si>
     <t>7332 PATRIKA</t>
@@ -1634,7 +1637,7 @@
     <t>9048 CARD</t>
   </si>
   <si>
-    <t>9049 CARD</t>
+    <t>9049 CARD (1200)</t>
   </si>
   <si>
     <t>9050 CARD</t>
@@ -1845,6 +1848,12 @@
   </si>
   <si>
     <t>9955 CARDS ♠</t>
+  </si>
+  <si>
+    <t>GIFT ENVELOPE -116</t>
+  </si>
+  <si>
+    <t>GIFT ENVELOPE 143</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2340,13 +2349,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -2463,13 +2472,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C11" s="19">
         <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>208.9</v>
+        <v>192.33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,13 +2542,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="18">
-        <v>44</v>
+        <v>41.5</v>
       </c>
       <c r="C16" s="19">
         <v>1.8</v>
       </c>
       <c r="D16" s="20">
-        <v>79.2</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,13 +2556,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>123.5</v>
+        <v>121.5</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +2876,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="18">
-        <v>137.5</v>
+        <v>136.5</v>
       </c>
       <c r="C42" s="19">
         <v>2.85</v>
       </c>
       <c r="D42" s="20">
-        <v>391.88</v>
+        <v>389.03</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,13 +2946,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="18">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="C47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="20">
-        <v>6.6</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,13 +2960,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>19.8</v>
+        <v>338.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +2974,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="18">
-        <v>14.5</v>
+        <v>304.5</v>
       </c>
       <c r="C49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="20">
-        <v>15.95</v>
+        <v>334.95</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +2988,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>123</v>
+        <v>413</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>135.30000000000001</v>
+        <v>454.3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,13 +3002,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="18">
-        <v>8</v>
+        <v>294</v>
       </c>
       <c r="C51" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D51" s="20">
-        <v>8.8000000000000007</v>
+        <v>323.39999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,13 +3016,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>178</v>
+        <v>458</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>195.8</v>
+        <v>503.8</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,13 +3030,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="C53" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="20">
-        <v>96.8</v>
+        <v>404.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,13 +3044,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>24.5</v>
+        <v>304.5</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>26.95</v>
+        <v>334.95</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,13 +3058,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="18">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="C55" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D55" s="20">
-        <v>17.600000000000001</v>
+        <v>336.6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3063,13 +3072,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>-22</v>
+        <v>262</v>
       </c>
       <c r="C56" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" s="20">
-        <v>-24.2</v>
+        <v>288.2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,13 +3296,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>757.95</v>
+        <v>734.7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,13 +3310,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="18">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C73" s="19">
         <v>1.55</v>
       </c>
       <c r="D73" s="20">
-        <v>841.65</v>
+        <v>807.55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +3324,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>700.5</v>
+        <v>696.5</v>
       </c>
       <c r="C74" s="19">
         <v>1.55</v>
       </c>
       <c r="D74" s="20">
-        <v>1085.78</v>
+        <v>1079.58</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,7 +3338,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>160.5</v>
+        <v>156.5</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3339,7 +3348,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>102.5</v>
+        <v>145.5</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
@@ -3359,7 +3368,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>58.5</v>
+        <v>54.5</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3379,7 +3388,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
@@ -3389,13 +3398,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C81" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D81" s="20">
-        <v>657.8</v>
+        <v>647.45000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3417,13 +3426,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>709</v>
+        <v>686.5</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>992.6</v>
+        <v>961.1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3445,13 +3454,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C85" s="19">
         <v>1.4</v>
       </c>
       <c r="D85" s="20">
-        <v>225.4</v>
+        <v>211.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,13 +3518,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="18">
-        <v>511.5</v>
+        <v>506.5</v>
       </c>
       <c r="C90" s="19">
         <v>1.26</v>
       </c>
       <c r="D90" s="20">
-        <v>644.49</v>
+        <v>638.19000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,13 +3626,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C99" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D99" s="20">
-        <v>13.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3631,13 +3640,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D100" s="20">
-        <v>16.100000000000001</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,13 +3654,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>281.25</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3673,13 +3682,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>643.75</v>
+        <v>637.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3687,13 +3696,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>52.5</v>
+        <v>44.5</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>656.25</v>
+        <v>556.25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,13 +3766,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="18">
-        <v>29.5</v>
+        <v>24</v>
       </c>
       <c r="C109" s="19">
         <v>12.5</v>
       </c>
       <c r="D109" s="20">
-        <v>368.75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,13 +3780,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="C110" s="19">
         <v>12.5</v>
       </c>
       <c r="D110" s="20">
-        <v>162.5</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,13 +3808,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C112" s="19">
         <v>15.5</v>
       </c>
       <c r="D112" s="20">
-        <v>232.5</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4093,13 +4102,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="18">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="C133" s="19">
         <v>18.27</v>
       </c>
       <c r="D133" s="20">
-        <v>191.83</v>
+        <v>155.29</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,13 +4130,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
       <c r="C135" s="19">
-        <v>18.41</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="D135" s="20">
-        <v>-27.61</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4205,13 +4214,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C141" s="19">
         <v>2.8</v>
       </c>
       <c r="D141" s="20">
-        <v>137.19999999999999</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4317,13 +4326,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>99.5</v>
+        <v>95.5</v>
       </c>
       <c r="C149" s="19">
         <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>278.60000000000002</v>
+        <v>267.39999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4471,13 +4480,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C160" s="19">
         <v>3.5</v>
       </c>
       <c r="D160" s="20">
-        <v>206.5</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,13 +4558,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C166" s="19">
         <v>3.33</v>
       </c>
       <c r="D166" s="20">
-        <v>326.33999999999997</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,13 +4586,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="18">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C168" s="19">
         <v>3.6</v>
       </c>
       <c r="D168" s="20">
-        <v>500.4</v>
+        <v>496.8</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,13 +4650,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C173" s="19">
         <v>4.5</v>
       </c>
       <c r="D173" s="20">
-        <v>675</v>
+        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,13 +4762,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="18">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C181" s="19">
         <v>4.1500000000000004</v>
       </c>
       <c r="D181" s="20">
-        <v>302.95</v>
+        <v>282.2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,13 +4776,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C182" s="19">
         <v>3</v>
       </c>
       <c r="D182" s="20">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,13 +4862,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>38.24</v>
+        <v>31.24</v>
       </c>
       <c r="C189" s="19">
         <v>3.14</v>
       </c>
       <c r="D189" s="20">
-        <v>120.07</v>
+        <v>98.09</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,13 +4950,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="C197" s="19">
         <v>3.8</v>
       </c>
       <c r="D197" s="20">
-        <v>47.5</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,13 +4978,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C199" s="19">
         <v>3.6</v>
       </c>
       <c r="D199" s="20">
-        <v>61.2</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,13 +5014,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>33</v>
+        <v>28.5</v>
       </c>
       <c r="C202" s="19">
         <v>4.12</v>
       </c>
       <c r="D202" s="20">
-        <v>135.83000000000001</v>
+        <v>117.31</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,13 +5120,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>279.5</v>
+        <v>277.5</v>
       </c>
       <c r="C210" s="19">
         <v>4.5</v>
       </c>
       <c r="D210" s="20">
-        <v>1257.75</v>
+        <v>1248.75</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,13 +5134,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="C211" s="19">
         <v>4.5</v>
       </c>
       <c r="D211" s="20">
-        <v>612</v>
+        <v>600.75</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,13 +5204,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="18">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="C216" s="19">
         <v>4.75</v>
       </c>
       <c r="D216" s="20">
-        <v>87.88</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5301,13 +5310,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>39.5</v>
+        <v>36.5</v>
       </c>
       <c r="C224" s="19">
         <v>6</v>
       </c>
       <c r="D224" s="20">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,13 +5346,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C227" s="19">
         <v>5.7</v>
       </c>
       <c r="D227" s="20">
-        <v>-11.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,13 +5430,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="C233" s="19">
         <v>4</v>
       </c>
       <c r="D233" s="20">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,13 +5444,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="18">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C234" s="19">
         <v>4</v>
       </c>
       <c r="D234" s="20">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,13 +5522,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>45.5</v>
+        <v>40.5</v>
       </c>
       <c r="C240" s="19">
         <v>3.5</v>
       </c>
       <c r="D240" s="20">
-        <v>159.25</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5563,13 +5572,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>57.5</v>
+        <v>54.5</v>
       </c>
       <c r="C244" s="19">
         <v>4.18</v>
       </c>
       <c r="D244" s="20">
-        <v>240.35</v>
+        <v>227.81</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5605,13 +5614,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>75</v>
+        <v>72.5</v>
       </c>
       <c r="C247" s="19">
         <v>4.28</v>
       </c>
       <c r="D247" s="20">
-        <v>321</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,13 +5742,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>46</v>
+        <v>44.5</v>
       </c>
       <c r="C257" s="19">
         <v>5.4</v>
       </c>
       <c r="D257" s="20">
-        <v>248.4</v>
+        <v>240.3</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,13 +5770,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="C259" s="19">
         <v>5.55</v>
       </c>
       <c r="D259" s="20">
-        <v>274.73</v>
+        <v>246.98</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,13 +5918,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="18">
-        <v>23.5</v>
+        <v>19.5</v>
       </c>
       <c r="C270" s="19">
         <v>5.7</v>
       </c>
       <c r="D270" s="20">
-        <v>133.94999999999999</v>
+        <v>111.15</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6343,13 +6352,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="18">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="C304" s="19">
         <v>8.85</v>
       </c>
       <c r="D304" s="20">
-        <v>101.78</v>
+        <v>75.23</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6385,13 +6394,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="C307" s="19">
         <v>9.25</v>
       </c>
       <c r="D307" s="20">
-        <v>134.13</v>
+        <v>217.38</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,13 +6408,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>27.7</v>
+        <v>23.2</v>
       </c>
       <c r="C308" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D308" s="20">
-        <v>243.76</v>
+        <v>204.16</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6441,13 +6450,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C311" s="19">
         <v>9.5</v>
       </c>
       <c r="D311" s="20">
-        <v>104.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6483,13 +6492,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C314" s="19">
         <v>9.25</v>
       </c>
       <c r="D314" s="20">
-        <v>50.88</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6637,28 +6646,22 @@
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C325" s="19">
         <v>10.61</v>
       </c>
       <c r="D325" s="20">
-        <v>169.83</v>
+        <v>164.52</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C326" s="19">
-        <v>7.84</v>
-      </c>
-      <c r="D326" s="20">
-        <v>3.92</v>
-      </c>
+      <c r="B326" s="21"/>
+      <c r="C326" s="22"/>
+      <c r="D326" s="21"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
@@ -6723,13 +6726,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C332" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="D332" s="20">
-        <v>78.400000000000006</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,13 +7090,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="18">
-        <v>-1.5</v>
+        <v>-6</v>
       </c>
       <c r="C358" s="19">
         <v>10</v>
       </c>
       <c r="D358" s="20">
-        <v>-15</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,13 +7104,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="18">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="C359" s="19">
         <v>10.5</v>
       </c>
       <c r="D359" s="20">
-        <v>194.25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,22 +7300,28 @@
         <v>375</v>
       </c>
       <c r="B373" s="18">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="C373" s="19">
         <v>12.5</v>
       </c>
       <c r="D373" s="20">
-        <v>231.25</v>
+        <v>193.75</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B374" s="21"/>
-      <c r="C374" s="22"/>
-      <c r="D374" s="21"/>
+      <c r="B374" s="18">
+        <v>6</v>
+      </c>
+      <c r="C374" s="19">
+        <v>21.5</v>
+      </c>
+      <c r="D374" s="20">
+        <v>129</v>
+      </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="s">
@@ -7445,13 +7454,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="18">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="C384" s="19">
         <v>10.93</v>
       </c>
       <c r="D384" s="20">
-        <v>251.39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7556,31 +7565,37 @@
       <c r="A392" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B392" s="21"/>
-      <c r="C392" s="22"/>
-      <c r="D392" s="21"/>
+      <c r="B392" s="18">
+        <v>81</v>
+      </c>
+      <c r="C392" s="19">
+        <v>2</v>
+      </c>
+      <c r="D392" s="20">
+        <v>162</v>
+      </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B393" s="18">
-        <v>54.5</v>
-      </c>
-      <c r="C393" s="19">
-        <v>2</v>
-      </c>
-      <c r="D393" s="20">
-        <v>109</v>
-      </c>
+      <c r="B393" s="21"/>
+      <c r="C393" s="22"/>
+      <c r="D393" s="21"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B394" s="21"/>
-      <c r="C394" s="22"/>
-      <c r="D394" s="21"/>
+      <c r="B394" s="18">
+        <v>54.5</v>
+      </c>
+      <c r="C394" s="19">
+        <v>2</v>
+      </c>
+      <c r="D394" s="20">
+        <v>109</v>
+      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="s">
@@ -7594,28 +7609,22 @@
       <c r="A396" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="B396" s="18">
-        <v>14</v>
-      </c>
-      <c r="C396" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D396" s="20">
-        <v>35</v>
-      </c>
+      <c r="B396" s="21"/>
+      <c r="C396" s="22"/>
+      <c r="D396" s="21"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="17" t="s">
         <v>399</v>
       </c>
       <c r="B397" s="18">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C397" s="19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D397" s="20">
-        <v>155.25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7623,13 +7632,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>62.5</v>
+        <v>67</v>
       </c>
       <c r="C398" s="19">
         <v>2.25</v>
       </c>
       <c r="D398" s="20">
-        <v>140.63</v>
+        <v>150.75</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7637,13 +7646,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>24</v>
+        <v>62.5</v>
       </c>
       <c r="C399" s="19">
         <v>2.25</v>
       </c>
       <c r="D399" s="20">
-        <v>54</v>
+        <v>140.63</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7651,13 +7660,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C400" s="19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="D400" s="20">
-        <v>37.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7665,13 +7674,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="C401" s="19">
         <v>2.5</v>
       </c>
       <c r="D401" s="20">
-        <v>56.25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7679,13 +7688,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="18">
-        <v>8.5</v>
+        <v>22.5</v>
       </c>
       <c r="C402" s="19">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D402" s="20">
-        <v>22.95</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7693,13 +7702,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="18">
-        <v>80</v>
+        <v>8.5</v>
       </c>
       <c r="C403" s="19">
         <v>2.7</v>
       </c>
       <c r="D403" s="20">
-        <v>216</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7707,13 +7716,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>57.5</v>
+        <v>80</v>
       </c>
       <c r="C404" s="19">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D404" s="20">
-        <v>149.5</v>
+        <v>216</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7721,13 +7730,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>73</v>
+        <v>57.5</v>
       </c>
       <c r="C405" s="19">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="D405" s="20">
-        <v>200.75</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7735,13 +7744,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C406" s="19">
         <v>2.75</v>
       </c>
       <c r="D406" s="20">
-        <v>99</v>
+        <v>200.75</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,13 +7758,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="18">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C407" s="19">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="D407" s="20">
-        <v>171</v>
+        <v>90.75</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7763,13 +7772,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="18">
-        <v>24.5</v>
+        <v>45</v>
       </c>
       <c r="C408" s="19">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D408" s="20">
-        <v>68.599999999999994</v>
+        <v>171</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7777,49 +7786,49 @@
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>32</v>
+        <v>24.5</v>
       </c>
       <c r="C409" s="19">
         <v>2.8</v>
       </c>
       <c r="D409" s="20">
-        <v>89.6</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="22"/>
-      <c r="D410" s="21"/>
+      <c r="B410" s="18">
+        <v>32</v>
+      </c>
+      <c r="C410" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="D410" s="20">
+        <v>89.6</v>
+      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B411" s="18">
-        <v>63.5</v>
-      </c>
-      <c r="C411" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="D411" s="20">
-        <v>177.8</v>
-      </c>
+      <c r="B411" s="21"/>
+      <c r="C411" s="22"/>
+      <c r="D411" s="21"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="17" t="s">
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>44</v>
+        <v>63.5</v>
       </c>
       <c r="C412" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D412" s="20">
-        <v>129.80000000000001</v>
+        <v>177.8</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7827,13 +7836,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C413" s="19">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="D413" s="20">
-        <v>80.599999999999994</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7841,13 +7850,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="18">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C414" s="19">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="D414" s="20">
-        <v>59.85</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7855,13 +7864,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="18">
-        <v>29.5</v>
+        <v>21</v>
       </c>
       <c r="C415" s="19">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="D415" s="20">
-        <v>96.17</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7869,13 +7878,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="18">
-        <v>43.5</v>
+        <v>29.5</v>
       </c>
       <c r="C416" s="19">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="D416" s="20">
-        <v>143.55000000000001</v>
+        <v>96.17</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,85 +7892,85 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>19.95</v>
+        <v>43.5</v>
       </c>
       <c r="C417" s="19">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="D417" s="20">
-        <v>62.84</v>
+        <v>143.55000000000001</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B418" s="21"/>
-      <c r="C418" s="22"/>
-      <c r="D418" s="21"/>
+      <c r="B418" s="18">
+        <v>17.95</v>
+      </c>
+      <c r="C418" s="19">
+        <v>3.15</v>
+      </c>
+      <c r="D418" s="20">
+        <v>56.54</v>
+      </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="B419" s="18">
-        <v>16.5</v>
-      </c>
-      <c r="C419" s="19">
-        <v>3.25</v>
-      </c>
-      <c r="D419" s="20">
-        <v>53.63</v>
-      </c>
+      <c r="B419" s="21"/>
+      <c r="C419" s="22"/>
+      <c r="D419" s="21"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="17" t="s">
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="C420" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D420" s="20">
-        <v>126</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="B421" s="21"/>
-      <c r="C421" s="22"/>
-      <c r="D421" s="21"/>
+      <c r="B421" s="18">
+        <v>35</v>
+      </c>
+      <c r="C421" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D421" s="20">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="B422" s="18">
-        <v>44</v>
-      </c>
-      <c r="C422" s="19">
-        <v>3.25</v>
-      </c>
-      <c r="D422" s="20">
-        <v>143</v>
-      </c>
+      <c r="B422" s="21"/>
+      <c r="C422" s="22"/>
+      <c r="D422" s="21"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="s">
         <v>425</v>
       </c>
       <c r="B423" s="18">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C423" s="19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="D423" s="20">
-        <v>78.2</v>
+        <v>143</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -7969,13 +7978,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>45.56</v>
+        <v>23</v>
       </c>
       <c r="C424" s="19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D424" s="20">
-        <v>159.46</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -7983,13 +7992,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>60.5</v>
+        <v>45.56</v>
       </c>
       <c r="C425" s="19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D425" s="20">
-        <v>229.9</v>
+        <v>159.46</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -7997,13 +8006,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>28</v>
+        <v>60.5</v>
       </c>
       <c r="C426" s="19">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D426" s="20">
-        <v>109.2</v>
+        <v>229.9</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,13 +8020,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C427" s="19">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="D427" s="20">
-        <v>119.88</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,22 +8034,28 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C428" s="19">
         <v>3.33</v>
       </c>
       <c r="D428" s="20">
-        <v>189.81</v>
+        <v>119.88</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="B429" s="21"/>
-      <c r="C429" s="22"/>
-      <c r="D429" s="21"/>
+      <c r="B429" s="18">
+        <v>57</v>
+      </c>
+      <c r="C429" s="19">
+        <v>3.33</v>
+      </c>
+      <c r="D429" s="20">
+        <v>189.81</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="17" t="s">
@@ -8054,28 +8069,22 @@
       <c r="A431" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="B431" s="18">
-        <v>50.5</v>
-      </c>
-      <c r="C431" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D431" s="20">
-        <v>191.9</v>
-      </c>
+      <c r="B431" s="21"/>
+      <c r="C431" s="22"/>
+      <c r="D431" s="21"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="17" t="s">
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>35.5</v>
+        <v>50.5</v>
       </c>
       <c r="C432" s="19">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="D432" s="20">
-        <v>150.88</v>
+        <v>191.9</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8083,13 +8092,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>28.5</v>
+        <v>35.5</v>
       </c>
       <c r="C433" s="19">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="D433" s="20">
-        <v>108.3</v>
+        <v>150.88</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8097,13 +8106,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>10</v>
+        <v>28.5</v>
       </c>
       <c r="C434" s="19">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D434" s="20">
-        <v>40.98</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8111,13 +8120,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C435" s="19">
-        <v>4.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D435" s="20">
-        <v>53.13</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8125,13 +8134,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C436" s="19">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="D436" s="20">
-        <v>61.75</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8139,13 +8148,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C437" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="D437" s="20">
-        <v>102.9</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8153,13 +8162,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C438" s="19">
-        <v>4.28</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D438" s="20">
-        <v>128.4</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8170,10 +8179,10 @@
         <v>30</v>
       </c>
       <c r="C439" s="19">
-        <v>4.18</v>
+        <v>4.28</v>
       </c>
       <c r="D439" s="20">
-        <v>125.4</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8181,13 +8190,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="18">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C440" s="19">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="D440" s="20">
-        <v>77.040000000000006</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8195,49 +8204,49 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C441" s="19">
-        <v>4.75</v>
+        <v>4.28</v>
       </c>
       <c r="D441" s="20">
-        <v>237.5</v>
+        <v>77.040000000000006</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B442" s="21"/>
-      <c r="C442" s="22"/>
-      <c r="D442" s="21"/>
+      <c r="B442" s="18">
+        <v>50</v>
+      </c>
+      <c r="C442" s="19">
+        <v>4.75</v>
+      </c>
+      <c r="D442" s="20">
+        <v>237.5</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B443" s="18">
-        <v>34</v>
-      </c>
-      <c r="C443" s="19">
-        <v>4.75</v>
-      </c>
-      <c r="D443" s="20">
-        <v>161.5</v>
-      </c>
+      <c r="B443" s="21"/>
+      <c r="C443" s="22"/>
+      <c r="D443" s="21"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>2.5</v>
+        <v>34</v>
       </c>
       <c r="C444" s="19">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="D444" s="20">
-        <v>13.13</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,13 +8254,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="C445" s="19">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D445" s="20">
-        <v>58.5</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8259,13 +8268,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C446" s="19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D446" s="20">
-        <v>57.75</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8273,13 +8282,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C447" s="19">
-        <v>4.5999999999999996</v>
+        <v>5.25</v>
       </c>
       <c r="D447" s="20">
-        <v>133.4</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8287,13 +8296,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C448" s="19">
-        <v>5.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D448" s="20">
-        <v>363</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8301,13 +8310,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>5.5</v>
+        <v>60.5</v>
       </c>
       <c r="C449" s="19">
         <v>5.5</v>
       </c>
       <c r="D449" s="20">
-        <v>30.25</v>
+        <v>332.75</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8315,13 +8324,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>29.5</v>
+        <v>5.5</v>
       </c>
       <c r="C450" s="19">
-        <v>5.23</v>
+        <v>5.5</v>
       </c>
       <c r="D450" s="20">
-        <v>154.29</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8329,71 +8338,71 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>10.5</v>
+        <v>29.5</v>
       </c>
       <c r="C451" s="19">
-        <v>6.25</v>
+        <v>5.23</v>
       </c>
       <c r="D451" s="20">
-        <v>65.63</v>
+        <v>154.29</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="B452" s="21"/>
-      <c r="C452" s="22"/>
-      <c r="D452" s="21"/>
+      <c r="B452" s="18">
+        <v>10.5</v>
+      </c>
+      <c r="C452" s="19">
+        <v>6.25</v>
+      </c>
+      <c r="D452" s="20">
+        <v>65.63</v>
+      </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="B453" s="18">
-        <v>46</v>
-      </c>
-      <c r="C453" s="19">
-        <v>6</v>
-      </c>
-      <c r="D453" s="20">
-        <v>276</v>
-      </c>
+      <c r="B453" s="21"/>
+      <c r="C453" s="22"/>
+      <c r="D453" s="21"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B454" s="21"/>
-      <c r="C454" s="22"/>
-      <c r="D454" s="21"/>
+      <c r="B454" s="18">
+        <v>46</v>
+      </c>
+      <c r="C454" s="19">
+        <v>6</v>
+      </c>
+      <c r="D454" s="20">
+        <v>276</v>
+      </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="B455" s="18">
-        <v>23.5</v>
-      </c>
-      <c r="C455" s="19">
-        <v>5.94</v>
-      </c>
-      <c r="D455" s="20">
-        <v>139.59</v>
-      </c>
+      <c r="B455" s="21"/>
+      <c r="C455" s="22"/>
+      <c r="D455" s="21"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="C456" s="19">
-        <v>6.75</v>
+        <v>5.94</v>
       </c>
       <c r="D456" s="20">
-        <v>141.75</v>
+        <v>139.59</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8401,13 +8410,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C457" s="19">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="D457" s="20">
-        <v>127.5</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8415,13 +8424,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C458" s="19">
-        <v>7.13</v>
+        <v>7.5</v>
       </c>
       <c r="D458" s="20">
-        <v>342.24</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8429,13 +8438,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="18">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C459" s="19">
-        <v>8</v>
+        <v>7.13</v>
       </c>
       <c r="D459" s="20">
-        <v>192</v>
+        <v>335.11</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8443,13 +8452,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C460" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D460" s="20">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,13 +8466,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="C461" s="19">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="D461" s="20">
-        <v>231.8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8471,13 +8480,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>43</v>
+        <v>30.5</v>
       </c>
       <c r="C462" s="19">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="D462" s="20">
-        <v>365.5</v>
+        <v>231.8</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8485,13 +8494,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>24.5</v>
+        <v>43</v>
       </c>
       <c r="C463" s="19">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D463" s="20">
-        <v>183.75</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8499,49 +8508,49 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>6.5</v>
+        <v>24.5</v>
       </c>
       <c r="C464" s="19">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="D464" s="20">
-        <v>53.63</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="B465" s="21"/>
-      <c r="C465" s="22"/>
-      <c r="D465" s="21"/>
+      <c r="B465" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="C465" s="19">
+        <v>8.25</v>
+      </c>
+      <c r="D465" s="20">
+        <v>53.63</v>
+      </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="B466" s="18">
-        <v>11.5</v>
-      </c>
-      <c r="C466" s="19">
-        <v>9</v>
-      </c>
-      <c r="D466" s="20">
-        <v>103.5</v>
-      </c>
+      <c r="B466" s="21"/>
+      <c r="C466" s="22"/>
+      <c r="D466" s="21"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="C467" s="19">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="D467" s="20">
-        <v>50.63</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8549,13 +8558,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="C468" s="19">
-        <v>4.28</v>
+        <v>3.75</v>
       </c>
       <c r="D468" s="20">
-        <v>102.72</v>
+        <v>50.63</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8563,13 +8572,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="C469" s="19">
-        <v>9.5</v>
+        <v>4.28</v>
       </c>
       <c r="D469" s="20">
-        <v>147.25</v>
+        <v>102.72</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8577,13 +8586,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>35.5</v>
+        <v>15.5</v>
       </c>
       <c r="C470" s="19">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="D470" s="20">
-        <v>159.75</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8591,13 +8600,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>50</v>
+        <v>35.5</v>
       </c>
       <c r="C471" s="19">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D471" s="20">
-        <v>140</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8605,13 +8614,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C472" s="19">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="D472" s="20">
-        <v>228</v>
+        <v>140</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8619,13 +8628,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C473" s="19">
-        <v>1.92</v>
+        <v>5.7</v>
       </c>
       <c r="D473" s="20">
-        <v>65.23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8633,13 +8642,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C474" s="19">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D474" s="20">
-        <v>172.9</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8647,13 +8656,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C475" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D475" s="20">
-        <v>15.4</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8661,13 +8670,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>-3.5</v>
+        <v>29</v>
       </c>
       <c r="C476" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D476" s="20">
-        <v>-3.85</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8675,13 +8684,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>56</v>
+        <v>5.5</v>
       </c>
       <c r="C477" s="19">
-        <v>4.1500000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D477" s="20">
-        <v>232.4</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8689,13 +8698,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C478" s="19">
-        <v>1.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D478" s="20">
-        <v>189</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,13 +8712,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>149.5</v>
+        <v>135</v>
       </c>
       <c r="C479" s="19">
         <v>1.4</v>
       </c>
       <c r="D479" s="20">
-        <v>209.3</v>
+        <v>189</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8717,13 +8726,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>86.5</v>
+        <v>149.5</v>
       </c>
       <c r="C480" s="19">
         <v>1.4</v>
       </c>
       <c r="D480" s="20">
-        <v>121.1</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8731,13 +8740,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>21.5</v>
+        <v>86.5</v>
       </c>
       <c r="C481" s="19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D481" s="20">
-        <v>64.5</v>
+        <v>121.1</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8745,13 +8754,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>30.5</v>
+        <v>21.5</v>
       </c>
       <c r="C482" s="19">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="D482" s="20">
-        <v>93.03</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8759,13 +8768,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>28</v>
+        <v>30.5</v>
       </c>
       <c r="C483" s="19">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="D483" s="20">
-        <v>43.4</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8773,13 +8782,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C484" s="19">
         <v>1.55</v>
       </c>
       <c r="D484" s="20">
-        <v>15.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8787,13 +8796,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="C485" s="19">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="D485" s="20">
-        <v>227.41</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8801,13 +8810,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C486" s="19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="D486" s="20">
-        <v>144</v>
+        <v>227.41</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8815,13 +8824,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="C487" s="19">
         <v>1.5</v>
       </c>
       <c r="D487" s="20">
-        <v>306</v>
+        <v>144</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8829,13 +8838,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>350.5</v>
+        <v>204</v>
       </c>
       <c r="C488" s="19">
         <v>1.5</v>
       </c>
       <c r="D488" s="20">
-        <v>525.75</v>
+        <v>306</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8843,13 +8852,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>48.5</v>
+        <v>350.5</v>
       </c>
       <c r="C489" s="19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="D489" s="20">
-        <v>82.94</v>
+        <v>525.75</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8857,13 +8866,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>131.5</v>
+        <v>48.5</v>
       </c>
       <c r="C490" s="19">
-        <v>0.39</v>
+        <v>1.71</v>
       </c>
       <c r="D490" s="20">
-        <v>51.52</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,13 +8880,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>96</v>
+        <v>131.5</v>
       </c>
       <c r="C491" s="19">
-        <v>2.2799999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="D491" s="20">
-        <v>218.88</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8885,13 +8894,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C492" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D492" s="20">
-        <v>104.88</v>
+        <v>202.92</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8899,49 +8908,49 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>27.5</v>
+        <v>46</v>
       </c>
       <c r="C493" s="19">
-        <v>2.4700000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D493" s="20">
-        <v>67.930000000000007</v>
+        <v>104.88</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B494" s="21"/>
-      <c r="C494" s="22"/>
-      <c r="D494" s="21"/>
+      <c r="B494" s="18">
+        <v>27.5</v>
+      </c>
+      <c r="C494" s="19">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D494" s="20">
+        <v>67.930000000000007</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="B495" s="18">
-        <v>19.5</v>
-      </c>
-      <c r="C495" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="D495" s="20">
-        <v>53.63</v>
-      </c>
+      <c r="B495" s="21"/>
+      <c r="C495" s="22"/>
+      <c r="D495" s="21"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>86.5</v>
+        <v>19.5</v>
       </c>
       <c r="C496" s="19">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="D496" s="20">
-        <v>236.5</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -8949,13 +8958,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>12</v>
+        <v>71.5</v>
       </c>
       <c r="C497" s="19">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="D497" s="20">
-        <v>33.6</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -8963,13 +8972,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="18">
-        <v>48.5</v>
+        <v>12</v>
       </c>
       <c r="C498" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D498" s="20">
-        <v>143.08000000000001</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -8977,13 +8986,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>40</v>
+        <v>48.5</v>
       </c>
       <c r="C499" s="19">
         <v>2.95</v>
       </c>
       <c r="D499" s="20">
-        <v>118</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -8991,13 +9000,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C500" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D500" s="20">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,13 +9028,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>57.5</v>
+        <v>30</v>
       </c>
       <c r="C502" s="19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D502" s="20">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,49 +9042,49 @@
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>47</v>
+        <v>57.5</v>
       </c>
       <c r="C503" s="19">
         <v>3.2</v>
       </c>
       <c r="D503" s="20">
-        <v>150.4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B504" s="21"/>
-      <c r="C504" s="22"/>
-      <c r="D504" s="21"/>
+      <c r="B504" s="18">
+        <v>47</v>
+      </c>
+      <c r="C504" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="D504" s="20">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B505" s="18">
-        <v>46</v>
-      </c>
-      <c r="C505" s="19">
-        <v>2.85</v>
-      </c>
-      <c r="D505" s="20">
-        <v>131.1</v>
-      </c>
+      <c r="B505" s="21"/>
+      <c r="C505" s="22"/>
+      <c r="D505" s="21"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
         <v>508</v>
       </c>
       <c r="B506" s="18">
-        <v>57.5</v>
+        <v>46</v>
       </c>
       <c r="C506" s="19">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="D506" s="20">
-        <v>186.88</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9083,22 +9092,28 @@
         <v>509</v>
       </c>
       <c r="B507" s="18">
-        <v>46.5</v>
+        <v>57.5</v>
       </c>
       <c r="C507" s="19">
         <v>3.25</v>
       </c>
       <c r="D507" s="20">
-        <v>151.13</v>
+        <v>186.88</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B508" s="21"/>
-      <c r="C508" s="22"/>
-      <c r="D508" s="21"/>
+      <c r="B508" s="18">
+        <v>46.5</v>
+      </c>
+      <c r="C508" s="19">
+        <v>3.25</v>
+      </c>
+      <c r="D508" s="20">
+        <v>151.13</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
@@ -9112,28 +9127,22 @@
       <c r="A510" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="B510" s="18">
-        <v>34</v>
-      </c>
-      <c r="C510" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D510" s="20">
-        <v>119</v>
-      </c>
+      <c r="B510" s="21"/>
+      <c r="C510" s="22"/>
+      <c r="D510" s="21"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C511" s="19">
         <v>3.5</v>
       </c>
       <c r="D511" s="20">
-        <v>77</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9141,49 +9150,49 @@
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>54.5</v>
+        <v>22</v>
       </c>
       <c r="C512" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D512" s="20">
-        <v>181.49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B513" s="21"/>
-      <c r="C513" s="22"/>
-      <c r="D513" s="21"/>
+      <c r="B513" s="18">
+        <v>53.5</v>
+      </c>
+      <c r="C513" s="19">
+        <v>3.33</v>
+      </c>
+      <c r="D513" s="20">
+        <v>178.16</v>
+      </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="B514" s="18">
-        <v>52.5</v>
-      </c>
-      <c r="C514" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D514" s="20">
-        <v>199.5</v>
-      </c>
+      <c r="B514" s="21"/>
+      <c r="C514" s="22"/>
+      <c r="D514" s="21"/>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>71.5</v>
+        <v>52.5</v>
       </c>
       <c r="C515" s="19">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="D515" s="20">
-        <v>265.52</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9191,71 +9200,71 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>50.5</v>
+        <v>71.5</v>
       </c>
       <c r="C516" s="19">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="D516" s="20">
-        <v>181.8</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B517" s="21"/>
-      <c r="C517" s="22"/>
-      <c r="D517" s="21"/>
+      <c r="B517" s="18">
+        <v>48</v>
+      </c>
+      <c r="C517" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="D517" s="20">
+        <v>172.8</v>
+      </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B518" s="18">
-        <v>76.5</v>
-      </c>
-      <c r="C518" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="D518" s="20">
-        <v>275.39999999999998</v>
-      </c>
+      <c r="B518" s="21"/>
+      <c r="C518" s="22"/>
+      <c r="D518" s="21"/>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B519" s="21"/>
-      <c r="C519" s="22"/>
-      <c r="D519" s="21"/>
+      <c r="B519" s="18">
+        <v>76.5</v>
+      </c>
+      <c r="C519" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="D519" s="20">
+        <v>275.39999999999998</v>
+      </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B520" s="18">
-        <v>22.5</v>
-      </c>
-      <c r="C520" s="19">
-        <v>4</v>
-      </c>
-      <c r="D520" s="20">
-        <v>90</v>
-      </c>
+      <c r="B520" s="21"/>
+      <c r="C520" s="22"/>
+      <c r="D520" s="21"/>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C521" s="19">
         <v>4</v>
       </c>
       <c r="D521" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9263,13 +9272,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>44.5</v>
+        <v>22</v>
       </c>
       <c r="C522" s="19">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D522" s="20">
-        <v>171.33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9277,13 +9286,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>29</v>
+        <v>41.5</v>
       </c>
       <c r="C523" s="19">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D523" s="20">
-        <v>116</v>
+        <v>159.78</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9291,13 +9300,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C524" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D524" s="20">
-        <v>152</v>
+        <v>72</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9305,13 +9314,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="C525" s="19">
         <v>3.8</v>
       </c>
       <c r="D525" s="20">
-        <v>138.69999999999999</v>
+        <v>152</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9319,13 +9328,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>43</v>
+        <v>36.5</v>
       </c>
       <c r="C526" s="19">
-        <v>4.3099999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D526" s="20">
-        <v>185.33</v>
+        <v>138.69999999999999</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9333,13 +9342,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C527" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D527" s="20">
-        <v>114.4</v>
+        <v>185.33</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9347,13 +9356,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C528" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D528" s="20">
-        <v>66</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9361,13 +9370,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="C529" s="19">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D529" s="20">
-        <v>80</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9375,13 +9384,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="C530" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D530" s="20">
-        <v>49.88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9389,13 +9398,13 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="C531" s="19">
         <v>4.75</v>
       </c>
       <c r="D531" s="20">
-        <v>133</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9403,13 +9412,13 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>35.5</v>
+        <v>28</v>
       </c>
       <c r="C532" s="19">
         <v>4.75</v>
       </c>
       <c r="D532" s="20">
-        <v>168.63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9417,13 +9426,13 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>25.5</v>
+        <v>35.5</v>
       </c>
       <c r="C533" s="19">
         <v>4.75</v>
       </c>
       <c r="D533" s="20">
-        <v>121.13</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -9431,13 +9440,13 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>3.5</v>
+        <v>25</v>
       </c>
       <c r="C534" s="19">
         <v>4.75</v>
       </c>
       <c r="D534" s="20">
-        <v>16.63</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9445,13 +9454,13 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>25</v>
+        <v>3.5</v>
       </c>
       <c r="C535" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D535" s="20">
-        <v>125</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9459,13 +9468,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="C536" s="19">
         <v>5</v>
       </c>
       <c r="D536" s="20">
-        <v>162.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9473,13 +9482,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>18</v>
+        <v>29.5</v>
       </c>
       <c r="C537" s="19">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D537" s="20">
-        <v>94.5</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9487,13 +9496,13 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C538" s="19">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D538" s="20">
-        <v>175</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9501,13 +9510,13 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C539" s="19">
-        <v>5.41</v>
+        <v>5</v>
       </c>
       <c r="D539" s="20">
-        <v>129.78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9515,13 +9524,13 @@
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C540" s="19">
-        <v>5.5</v>
+        <v>5.41</v>
       </c>
       <c r="D540" s="20">
-        <v>71.5</v>
+        <v>129.78</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9529,13 +9538,13 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C541" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D541" s="20">
-        <v>161</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9543,13 +9552,13 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>20.5</v>
+        <v>28</v>
       </c>
       <c r="C542" s="19">
         <v>5.75</v>
       </c>
       <c r="D542" s="20">
-        <v>117.88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9557,13 +9566,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>53</v>
+        <v>20.5</v>
       </c>
       <c r="C543" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D543" s="20">
-        <v>291.5</v>
+        <v>117.88</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9571,13 +9580,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>27.5</v>
+        <v>53</v>
       </c>
       <c r="C544" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D544" s="20">
-        <v>158.13</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9585,13 +9594,13 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="C545" s="19">
         <v>5.75</v>
       </c>
       <c r="D545" s="20">
-        <v>186.88</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9599,13 +9608,13 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>23</v>
+        <v>32.5</v>
       </c>
       <c r="C546" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D546" s="20">
-        <v>138</v>
+        <v>186.88</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9613,13 +9622,13 @@
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C547" s="19">
         <v>6</v>
       </c>
       <c r="D547" s="20">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9627,13 +9636,13 @@
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C548" s="19">
         <v>6</v>
       </c>
       <c r="D548" s="20">
-        <v>204</v>
+        <v>78</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9641,49 +9650,49 @@
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="C549" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D549" s="20">
-        <v>94.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="B550" s="21"/>
-      <c r="C550" s="22"/>
-      <c r="D550" s="21"/>
+      <c r="B550" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="C550" s="19">
+        <v>7</v>
+      </c>
+      <c r="D550" s="20">
+        <v>94.5</v>
+      </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="B551" s="18">
-        <v>34</v>
-      </c>
-      <c r="C551" s="19">
-        <v>7</v>
-      </c>
-      <c r="D551" s="20">
-        <v>238</v>
-      </c>
+      <c r="B551" s="21"/>
+      <c r="C551" s="22"/>
+      <c r="D551" s="21"/>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="17" t="s">
         <v>554</v>
       </c>
       <c r="B552" s="18">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="C552" s="19">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="D552" s="20">
-        <v>126.88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -9691,13 +9700,13 @@
         <v>555</v>
       </c>
       <c r="B553" s="18">
-        <v>24.5</v>
+        <v>17.5</v>
       </c>
       <c r="C553" s="19">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="D553" s="20">
-        <v>189.88</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9705,13 +9714,13 @@
         <v>556</v>
       </c>
       <c r="B554" s="18">
-        <v>11.5</v>
+        <v>24.5</v>
       </c>
       <c r="C554" s="19">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="D554" s="20">
-        <v>92</v>
+        <v>189.88</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -9719,13 +9728,13 @@
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="C555" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D555" s="20">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -9733,49 +9742,49 @@
         <v>558</v>
       </c>
       <c r="B556" s="18">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="C556" s="19">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="D556" s="20">
-        <v>144.38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="B557" s="21"/>
-      <c r="C557" s="22"/>
-      <c r="D557" s="21"/>
+      <c r="B557" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="C557" s="19">
+        <v>8.75</v>
+      </c>
+      <c r="D557" s="20">
+        <v>144.38</v>
+      </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="B558" s="18">
-        <v>16.5</v>
-      </c>
-      <c r="C558" s="19">
-        <v>11</v>
-      </c>
-      <c r="D558" s="20">
-        <v>181.5</v>
-      </c>
+      <c r="B558" s="21"/>
+      <c r="C558" s="22"/>
+      <c r="D558" s="21"/>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
         <v>561</v>
       </c>
       <c r="B559" s="18">
-        <v>71</v>
+        <v>16.5</v>
       </c>
       <c r="C559" s="19">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="D559" s="20">
-        <v>195.96</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -9783,13 +9792,13 @@
         <v>562</v>
       </c>
       <c r="B560" s="18">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C560" s="19">
         <v>2.76</v>
       </c>
       <c r="D560" s="20">
-        <v>204.24</v>
+        <v>195.96</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -9797,13 +9806,13 @@
         <v>563</v>
       </c>
       <c r="B561" s="18">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C561" s="19">
         <v>2.76</v>
       </c>
       <c r="D561" s="20">
-        <v>287.04000000000002</v>
+        <v>204.24</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -9811,13 +9820,13 @@
         <v>564</v>
       </c>
       <c r="B562" s="18">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C562" s="19">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D562" s="20">
-        <v>95.2</v>
+        <v>287.04000000000002</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -9825,13 +9834,13 @@
         <v>565</v>
       </c>
       <c r="B563" s="18">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C563" s="19">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="D563" s="20">
-        <v>152.22</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -9839,13 +9848,13 @@
         <v>566</v>
       </c>
       <c r="B564" s="18">
-        <v>40.5</v>
+        <v>53</v>
       </c>
       <c r="C564" s="19">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="D564" s="20">
-        <v>111.78</v>
+        <v>152.22</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -9853,13 +9862,13 @@
         <v>567</v>
       </c>
       <c r="B565" s="18">
-        <v>21</v>
+        <v>40.5</v>
       </c>
       <c r="C565" s="19">
         <v>2.76</v>
       </c>
       <c r="D565" s="20">
-        <v>57.96</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -9867,13 +9876,13 @@
         <v>568</v>
       </c>
       <c r="B566" s="18">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C566" s="19">
         <v>2.76</v>
       </c>
       <c r="D566" s="20">
-        <v>121.44</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -9881,13 +9890,13 @@
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C567" s="19">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="D567" s="20">
-        <v>105</v>
+        <v>121.44</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -9895,13 +9904,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>42.5</v>
+        <v>30</v>
       </c>
       <c r="C568" s="19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D568" s="20">
-        <v>127.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9909,13 +9918,13 @@
         <v>571</v>
       </c>
       <c r="B569" s="18">
-        <v>70</v>
+        <v>41.5</v>
       </c>
       <c r="C569" s="19">
         <v>3</v>
       </c>
       <c r="D569" s="20">
-        <v>210</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -9923,13 +9932,13 @@
         <v>572</v>
       </c>
       <c r="B570" s="18">
-        <v>38.5</v>
+        <v>70</v>
       </c>
       <c r="C570" s="19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D570" s="20">
-        <v>119.35</v>
+        <v>210</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -9937,13 +9946,13 @@
         <v>573</v>
       </c>
       <c r="B571" s="18">
-        <v>7</v>
+        <v>38.5</v>
       </c>
       <c r="C571" s="19">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="D571" s="20">
-        <v>42</v>
+        <v>119.35</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -9951,13 +9960,13 @@
         <v>574</v>
       </c>
       <c r="B572" s="18">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C572" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D572" s="20">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -9965,13 +9974,13 @@
         <v>575</v>
       </c>
       <c r="B573" s="18">
-        <v>25.5</v>
+        <v>37</v>
       </c>
       <c r="C573" s="19">
         <v>4</v>
       </c>
       <c r="D573" s="20">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -9979,13 +9988,13 @@
         <v>576</v>
       </c>
       <c r="B574" s="18">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="C574" s="19">
         <v>4</v>
       </c>
       <c r="D574" s="20">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -9993,13 +10002,13 @@
         <v>577</v>
       </c>
       <c r="B575" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C575" s="19">
         <v>4</v>
       </c>
       <c r="D575" s="20">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -10007,13 +10016,13 @@
         <v>578</v>
       </c>
       <c r="B576" s="18">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C576" s="19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="D576" s="20">
-        <v>246.75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -10021,13 +10030,13 @@
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C577" s="19">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="D577" s="20">
-        <v>125.37</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10035,13 +10044,13 @@
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="C578" s="19">
-        <v>1.92</v>
+        <v>5.01</v>
       </c>
       <c r="D578" s="20">
-        <v>482.04</v>
+        <v>125.37</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10049,13 +10058,13 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>-1.5</v>
+        <v>247.5</v>
       </c>
       <c r="C579" s="19">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="D579" s="20">
-        <v>-2.94</v>
+        <v>475.32</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10063,13 +10072,13 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>249</v>
+        <v>-1.5</v>
       </c>
       <c r="C580" s="19">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="D580" s="20">
-        <v>480.48</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -10077,13 +10086,13 @@
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>108.5</v>
+        <v>249</v>
       </c>
       <c r="C581" s="19">
-        <v>2.84</v>
+        <v>1.93</v>
       </c>
       <c r="D581" s="20">
-        <v>307.91000000000003</v>
+        <v>480.48</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -10091,13 +10100,13 @@
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>5</v>
+        <v>108.5</v>
       </c>
       <c r="C582" s="19">
-        <v>4.28</v>
+        <v>2.84</v>
       </c>
       <c r="D582" s="20">
-        <v>21.4</v>
+        <v>307.91000000000003</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -10105,13 +10114,13 @@
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>34.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C583" s="19">
         <v>4.28</v>
       </c>
       <c r="D583" s="20">
-        <v>147.66</v>
+        <v>-6.42</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10119,13 +10128,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>56.5</v>
+        <v>34.5</v>
       </c>
       <c r="C584" s="19">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="D584" s="20">
-        <v>228.83</v>
+        <v>147.66</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10133,13 +10142,13 @@
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>71</v>
+        <v>56.5</v>
       </c>
       <c r="C585" s="19">
         <v>4.05</v>
       </c>
       <c r="D585" s="20">
-        <v>287.55</v>
+        <v>228.83</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10147,13 +10156,13 @@
         <v>588</v>
       </c>
       <c r="B586" s="18">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C586" s="19">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="D586" s="20">
-        <v>189.32</v>
+        <v>279.45</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -10161,13 +10170,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>373.5</v>
+        <v>133</v>
       </c>
       <c r="C587" s="19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="D587" s="20">
-        <v>522.9</v>
+        <v>185.15</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10175,13 +10184,13 @@
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>98.5</v>
+        <v>367.5</v>
       </c>
       <c r="C588" s="19">
         <v>1.4</v>
       </c>
       <c r="D588" s="20">
-        <v>137.9</v>
+        <v>514.5</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -10189,17 +10198,21 @@
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>90</v>
-      </c>
-      <c r="C589" s="22"/>
-      <c r="D589" s="21"/>
+        <v>98.5</v>
+      </c>
+      <c r="C589" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D589" s="20">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="17" t="s">
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>29.5</v>
+        <v>90</v>
       </c>
       <c r="C590" s="22"/>
       <c r="D590" s="21"/>
@@ -10209,7 +10222,7 @@
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>47.5</v>
+        <v>29.5</v>
       </c>
       <c r="C591" s="22"/>
       <c r="D591" s="21"/>
@@ -10219,7 +10232,7 @@
         <v>594</v>
       </c>
       <c r="B592" s="18">
-        <v>10</v>
+        <v>45.5</v>
       </c>
       <c r="C592" s="22"/>
       <c r="D592" s="21"/>
@@ -10229,27 +10242,23 @@
         <v>595</v>
       </c>
       <c r="B593" s="18">
-        <v>516.5</v>
-      </c>
-      <c r="C593" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="D593" s="20">
-        <v>413.2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C593" s="22"/>
+      <c r="D593" s="21"/>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="17" t="s">
         <v>596</v>
       </c>
       <c r="B594" s="18">
-        <v>628.5</v>
+        <v>2016.5</v>
       </c>
       <c r="C594" s="19">
         <v>0.8</v>
       </c>
       <c r="D594" s="20">
-        <v>502.8</v>
+        <v>1613.2</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -10257,13 +10266,13 @@
         <v>597</v>
       </c>
       <c r="B595" s="18">
-        <v>731</v>
+        <v>628.5</v>
       </c>
       <c r="C595" s="19">
         <v>0.8</v>
       </c>
       <c r="D595" s="20">
-        <v>584.79999999999995</v>
+        <v>502.8</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -10271,13 +10280,13 @@
         <v>598</v>
       </c>
       <c r="B596" s="18">
-        <v>479.5</v>
+        <v>731</v>
       </c>
       <c r="C596" s="19">
         <v>0.8</v>
       </c>
       <c r="D596" s="20">
-        <v>383.6</v>
+        <v>584.79999999999995</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10285,13 +10294,13 @@
         <v>599</v>
       </c>
       <c r="B597" s="18">
-        <v>179.5</v>
+        <v>479.5</v>
       </c>
       <c r="C597" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D597" s="20">
-        <v>93.34</v>
+        <v>383.6</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -10299,13 +10308,13 @@
         <v>600</v>
       </c>
       <c r="B598" s="18">
-        <v>331</v>
+        <v>179.5</v>
       </c>
       <c r="C598" s="19">
         <v>0.52</v>
       </c>
       <c r="D598" s="20">
-        <v>172.12</v>
+        <v>93.34</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -10313,13 +10322,13 @@
         <v>601</v>
       </c>
       <c r="B599" s="18">
-        <v>853.5</v>
+        <v>311</v>
       </c>
       <c r="C599" s="19">
         <v>0.52</v>
       </c>
       <c r="D599" s="20">
-        <v>443.82</v>
+        <v>161.72</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -10327,13 +10336,13 @@
         <v>602</v>
       </c>
       <c r="B600" s="18">
-        <v>663</v>
+        <v>840</v>
       </c>
       <c r="C600" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D600" s="20">
-        <v>464.1</v>
+        <v>436.8</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -10341,13 +10350,13 @@
         <v>603</v>
       </c>
       <c r="B601" s="18">
-        <v>-2</v>
+        <v>658.5</v>
       </c>
       <c r="C601" s="19">
         <v>0.7</v>
       </c>
       <c r="D601" s="20">
-        <v>-1.4</v>
+        <v>460.95</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -10355,13 +10364,13 @@
         <v>604</v>
       </c>
       <c r="B602" s="18">
-        <v>465.5</v>
+        <v>-2</v>
       </c>
       <c r="C602" s="19">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D602" s="20">
-        <v>317.48</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -10369,13 +10378,13 @@
         <v>605</v>
       </c>
       <c r="B603" s="18">
-        <v>11</v>
+        <v>445.5</v>
       </c>
       <c r="C603" s="19">
-        <v>4.5</v>
+        <v>0.68</v>
       </c>
       <c r="D603" s="20">
-        <v>49.5</v>
+        <v>303.83999999999997</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -10383,25 +10392,67 @@
         <v>606</v>
       </c>
       <c r="B604" s="18">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C604" s="19">
         <v>4.5</v>
       </c>
       <c r="D604" s="20">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B605" s="18">
+        <v>41</v>
+      </c>
+      <c r="C605" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D605" s="20">
         <v>184.5</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="B605" s="24">
-        <v>36510.67</v>
-      </c>
-      <c r="C605" s="25"/>
-      <c r="D605" s="26">
-        <v>106182.08</v>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="B606" s="18">
+        <v>7</v>
+      </c>
+      <c r="C606" s="19">
+        <v>3</v>
+      </c>
+      <c r="D606" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B607" s="18">
+        <v>3</v>
+      </c>
+      <c r="C607" s="19">
+        <v>3</v>
+      </c>
+      <c r="D607" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="B608" s="24">
+        <v>40644.17</v>
+      </c>
+      <c r="C608" s="25"/>
+      <c r="D608" s="26">
+        <v>109634.31</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 20-Dec-2024</t>
+    <t>1-Jul-2024 to 21-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -2472,13 +2472,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C11" s="19">
         <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>192.33</v>
+        <v>186.81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,13 +2556,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>121.5</v>
+        <v>106.5</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>243</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2640,13 +2640,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="18">
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="20">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2654,13 +2654,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>60.5</v>
+        <v>56.5</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>127.05</v>
+        <v>118.65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,13 +2704,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>64.37</v>
+        <v>60.37</v>
       </c>
       <c r="C28" s="19">
         <v>2.35</v>
       </c>
       <c r="D28" s="20">
-        <v>151.27000000000001</v>
+        <v>141.87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2834,13 +2834,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="18">
-        <v>108.5</v>
+        <v>105.5</v>
       </c>
       <c r="C39" s="19">
         <v>2.7</v>
       </c>
       <c r="D39" s="20">
-        <v>292.95</v>
+        <v>284.85000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2946,13 +2946,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="18">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="C47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="20">
-        <v>327.8</v>
+        <v>239.8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,13 +3002,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="18">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="C51" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D51" s="20">
-        <v>323.39999999999998</v>
+        <v>191.4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3016,13 +3016,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>503.8</v>
+        <v>498.3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3058,13 +3058,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="18">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="C55" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D55" s="20">
-        <v>336.6</v>
+        <v>248.6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,13 +3142,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="18">
-        <v>35.5</v>
+        <v>33.5</v>
       </c>
       <c r="C61" s="19">
         <v>2.1</v>
       </c>
       <c r="D61" s="20">
-        <v>74.55</v>
+        <v>70.349999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,13 +3268,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="18">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C70" s="19">
         <v>0.9</v>
       </c>
       <c r="D70" s="20">
-        <v>87.3</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
@@ -3398,13 +3398,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C81" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D81" s="20">
-        <v>647.45000000000005</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3426,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>686.5</v>
+        <v>675.5</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>961.1</v>
+        <v>945.7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,13 +3518,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="18">
-        <v>506.5</v>
+        <v>505.5</v>
       </c>
       <c r="C90" s="19">
         <v>1.26</v>
       </c>
       <c r="D90" s="20">
-        <v>638.19000000000005</v>
+        <v>636.92999999999995</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3752,13 +3752,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="C108" s="19">
         <v>12.5</v>
       </c>
       <c r="D108" s="20">
-        <v>281.25</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,13 +4214,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>48</v>
+        <v>45.5</v>
       </c>
       <c r="C141" s="19">
         <v>2.8</v>
       </c>
       <c r="D141" s="20">
-        <v>134.4</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,13 +5014,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="C202" s="19">
         <v>4.12</v>
       </c>
       <c r="D202" s="20">
-        <v>117.31</v>
+        <v>111.13</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5120,13 +5120,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>277.5</v>
+        <v>275.5</v>
       </c>
       <c r="C210" s="19">
         <v>4.5</v>
       </c>
       <c r="D210" s="20">
-        <v>1248.75</v>
+        <v>1239.75</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5134,13 +5134,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>133.5</v>
+        <v>128.5</v>
       </c>
       <c r="C211" s="19">
         <v>4.5</v>
       </c>
       <c r="D211" s="20">
-        <v>600.75</v>
+        <v>578.25</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5904,13 +5904,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>72.5</v>
+        <v>70.5</v>
       </c>
       <c r="C269" s="19">
         <v>5.94</v>
       </c>
       <c r="D269" s="20">
-        <v>430.65</v>
+        <v>418.77</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6408,13 +6408,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>23.2</v>
+        <v>16.2</v>
       </c>
       <c r="C308" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D308" s="20">
-        <v>204.16</v>
+        <v>142.56</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7090,13 +7090,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="18">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="C358" s="19">
         <v>10</v>
       </c>
       <c r="D358" s="20">
-        <v>-60</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7342,13 +7342,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>31.75</v>
+        <v>25.75</v>
       </c>
       <c r="C376" s="19">
         <v>11.5</v>
       </c>
       <c r="D376" s="20">
-        <v>365.13</v>
+        <v>296.13</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7496,13 +7496,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="18">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="C387" s="19">
         <v>10.45</v>
       </c>
       <c r="D387" s="20">
-        <v>130.63</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7800,13 +7800,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C410" s="19">
         <v>2.8</v>
       </c>
       <c r="D410" s="20">
-        <v>89.6</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7836,13 +7836,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C413" s="19">
         <v>2.95</v>
       </c>
       <c r="D413" s="20">
-        <v>129.80000000000001</v>
+        <v>115.05</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8480,13 +8480,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="C462" s="19">
         <v>7.6</v>
       </c>
       <c r="D462" s="20">
-        <v>231.8</v>
+        <v>216.6</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8558,13 +8558,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="C468" s="19">
         <v>3.75</v>
       </c>
       <c r="D468" s="20">
-        <v>50.63</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8684,13 +8684,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="C477" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D477" s="20">
-        <v>6.05</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8894,13 +8894,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C492" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D492" s="20">
-        <v>202.92</v>
+        <v>198.36</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9300,13 +9300,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C524" s="19">
         <v>4</v>
       </c>
       <c r="D524" s="20">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9468,13 +9468,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C536" s="19">
         <v>5</v>
       </c>
       <c r="D536" s="20">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9482,13 +9482,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>29.5</v>
+        <v>25.5</v>
       </c>
       <c r="C537" s="19">
         <v>5</v>
       </c>
       <c r="D537" s="20">
-        <v>147.5</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9608,13 +9608,13 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>32.5</v>
+        <v>28.5</v>
       </c>
       <c r="C546" s="19">
         <v>5.75</v>
       </c>
       <c r="D546" s="20">
-        <v>186.88</v>
+        <v>163.88</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9806,13 +9806,13 @@
         <v>563</v>
       </c>
       <c r="B561" s="18">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C561" s="19">
         <v>2.76</v>
       </c>
       <c r="D561" s="20">
-        <v>204.24</v>
+        <v>190.44</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -10058,13 +10058,13 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>247.5</v>
+        <v>246.5</v>
       </c>
       <c r="C579" s="19">
         <v>1.92</v>
       </c>
       <c r="D579" s="20">
-        <v>475.32</v>
+        <v>473.4</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10128,13 +10128,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="C584" s="19">
         <v>4.28</v>
       </c>
       <c r="D584" s="20">
-        <v>147.66</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10448,11 +10448,11 @@
         <v>610</v>
       </c>
       <c r="B608" s="24">
-        <v>40644.17</v>
+        <v>40225.17</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="26">
-        <v>109634.31</v>
+        <v>108750.23</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 23-Dec-2024</t>
+    <t>1-Jul-2024 to 24-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -2587,13 +2587,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>118</v>
+        <v>120.5</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5053,13 +5053,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C205" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D205" s="20">
-        <v>129.80000000000001</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6659,13 +6659,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="C327" s="19">
         <v>6.9</v>
       </c>
       <c r="D327" s="20">
-        <v>69</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7707,13 +7707,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>77.5</v>
+        <v>72.5</v>
       </c>
       <c r="C404" s="19">
         <v>2.7</v>
       </c>
       <c r="D404" s="20">
-        <v>209.25</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7897,13 +7897,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>17.95</v>
+        <v>16.45</v>
       </c>
       <c r="C418" s="19">
         <v>3.15</v>
       </c>
       <c r="D418" s="20">
-        <v>56.54</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -10449,11 +10449,11 @@
         <v>611</v>
       </c>
       <c r="B609" s="24">
-        <v>39580.269999999997</v>
+        <v>39574.269999999997</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="26">
-        <v>110126</v>
+        <v>110100.23</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -1793,13 +1793,13 @@
     <t>9100 CARD</t>
   </si>
   <si>
-    <t>9101 CARD (MIL JAYEGA)</t>
-  </si>
-  <si>
-    <t>9102 CARD</t>
-  </si>
-  <si>
-    <t>9103 CARD (MIL JAYEGA)</t>
+    <t>9101 CARD (YELLOW)</t>
+  </si>
+  <si>
+    <t>9102 CARD (RED)</t>
+  </si>
+  <si>
+    <t>9103 CARD (GOLDEN)</t>
   </si>
   <si>
     <t>9104 CARD</t>
@@ -2475,13 +2475,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C11" s="19">
         <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>182.21</v>
+        <v>174.85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2489,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>58.5</v>
+        <v>218.5</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>96.53</v>
+        <v>360.53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2629,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>94.5</v>
+        <v>92.5</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,13 +2657,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>60.5</v>
+        <v>59</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>127.05</v>
+        <v>123.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2671,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>119.5</v>
+        <v>116</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>250.95</v>
+        <v>243.6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2778,9 +2778,15 @@
       <c r="A34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="18">
+        <v>66</v>
+      </c>
+      <c r="C34" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="20">
+        <v>165</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
@@ -2991,13 +2997,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>441.1</v>
+        <v>434.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3047,13 +3053,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>286</v>
+        <v>281.60000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3075,13 +3081,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C56" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" s="20">
-        <v>257.39999999999998</v>
+        <v>266.2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,13 +3249,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C68" s="19">
         <v>0.7</v>
       </c>
       <c r="D68" s="20">
-        <v>130.9</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,13 +3277,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="18">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C70" s="19">
         <v>0.9</v>
       </c>
       <c r="D70" s="20">
-        <v>76.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,13 +3291,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>124</v>
+        <v>121.5</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>111.6</v>
+        <v>109.35</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,13 +3305,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>595.20000000000005</v>
+        <v>579.70000000000005</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,7 +3347,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3457,13 +3463,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C85" s="19">
         <v>1.4</v>
       </c>
       <c r="D85" s="20">
-        <v>169.4</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,13 +3671,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>24.5</v>
+        <v>20</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>306.25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,13 +3685,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>51.5</v>
+        <v>43.5</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>643.75</v>
+        <v>543.75</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,13 +3699,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>44.5</v>
+        <v>39.5</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>556.25</v>
+        <v>493.75</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,13 +3783,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C110" s="19">
         <v>12.5</v>
       </c>
       <c r="D110" s="20">
-        <v>118.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,13 +3839,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="18">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="C114" s="19">
         <v>15.5</v>
       </c>
       <c r="D114" s="20">
-        <v>193.75</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,13 +4007,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="18">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="C126" s="19">
         <v>15.5</v>
       </c>
       <c r="D126" s="20">
-        <v>209.25</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4127,13 +4133,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="C135" s="19">
-        <v>18.420000000000002</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="D135" s="20">
-        <v>64.47</v>
+        <v>248.89</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,13 +4217,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C141" s="19">
         <v>2.8</v>
       </c>
       <c r="D141" s="20">
-        <v>114.8</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,13 +4245,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>96.5</v>
+        <v>93.5</v>
       </c>
       <c r="C143" s="19">
         <v>2.75</v>
       </c>
       <c r="D143" s="20">
-        <v>265.38</v>
+        <v>257.13</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,13 +4301,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="18">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="C147" s="19">
         <v>2.7</v>
       </c>
       <c r="D147" s="20">
-        <v>112.05</v>
+        <v>109.35</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,13 +4315,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C148" s="19">
         <v>2.8</v>
       </c>
       <c r="D148" s="20">
-        <v>268.8</v>
+        <v>249.2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,13 +4329,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>94.5</v>
+        <v>92.5</v>
       </c>
       <c r="C149" s="19">
         <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>264.60000000000002</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,13 +4413,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="18">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C155" s="19">
         <v>2.95</v>
       </c>
       <c r="D155" s="20">
-        <v>233.05</v>
+        <v>227.15</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4477,13 +4483,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C160" s="19">
         <v>3.5</v>
       </c>
       <c r="D160" s="20">
-        <v>189</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,13 +4589,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="18">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C168" s="19">
         <v>3.6</v>
       </c>
       <c r="D168" s="20">
-        <v>496.8</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,13 +4865,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>21.74</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="C189" s="19">
         <v>3.14</v>
       </c>
       <c r="D189" s="20">
-        <v>68.260000000000005</v>
+        <v>58.84</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,13 +5137,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>117.5</v>
+        <v>189.5</v>
       </c>
       <c r="C211" s="19">
         <v>4.5</v>
       </c>
       <c r="D211" s="20">
-        <v>528.75</v>
+        <v>852.75</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5145,13 +5151,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="C212" s="19">
         <v>5.25</v>
       </c>
       <c r="D212" s="20">
-        <v>73.5</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,13 +5277,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C221" s="19">
         <v>4.75</v>
       </c>
       <c r="D221" s="20">
-        <v>375.25</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,13 +5385,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C230" s="19">
         <v>6.75</v>
       </c>
       <c r="D230" s="20">
-        <v>513</v>
+        <v>519.75</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,13 +5399,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>162.5</v>
+        <v>160.5</v>
       </c>
       <c r="C231" s="19">
         <v>5.97</v>
       </c>
       <c r="D231" s="20">
-        <v>970.92</v>
+        <v>958.97</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,13 +5413,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="18">
-        <v>47.5</v>
+        <v>44.5</v>
       </c>
       <c r="C232" s="19">
         <v>4.26</v>
       </c>
       <c r="D232" s="20">
-        <v>202.35</v>
+        <v>189.57</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,13 +5519,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C240" s="19">
         <v>3.5</v>
       </c>
       <c r="D240" s="20">
-        <v>129.5</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5541,13 +5547,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>14.5</v>
+        <v>94.5</v>
       </c>
       <c r="C242" s="19">
         <v>4.25</v>
       </c>
       <c r="D242" s="20">
-        <v>61.63</v>
+        <v>401.63</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5647,13 +5653,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>33.5</v>
+        <v>29</v>
       </c>
       <c r="C250" s="19">
         <v>4.95</v>
       </c>
       <c r="D250" s="20">
-        <v>165.83</v>
+        <v>143.55000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5895,13 +5901,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>64.5</v>
+        <v>62.5</v>
       </c>
       <c r="C269" s="19">
         <v>5.94</v>
       </c>
       <c r="D269" s="20">
-        <v>383.13</v>
+        <v>371.25</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5987,13 +5993,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="18">
-        <v>10.5</v>
+        <v>20.5</v>
       </c>
       <c r="C276" s="19">
         <v>6.18</v>
       </c>
       <c r="D276" s="20">
-        <v>64.89</v>
+        <v>126.69</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6101,13 +6107,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>46</v>
+        <v>44.5</v>
       </c>
       <c r="C285" s="19">
         <v>6.65</v>
       </c>
       <c r="D285" s="20">
-        <v>305.89999999999998</v>
+        <v>295.93</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6151,13 +6157,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="18">
-        <v>15.5</v>
+        <v>91</v>
       </c>
       <c r="C289" s="19">
         <v>7.13</v>
       </c>
       <c r="D289" s="20">
-        <v>110.52</v>
+        <v>648.83000000000004</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,13 +6221,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C294" s="19">
         <v>7.6</v>
       </c>
       <c r="D294" s="20">
-        <v>228</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6371,13 +6377,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="18">
-        <v>5.5</v>
+        <v>-12.5</v>
       </c>
       <c r="C306" s="19">
         <v>9.4600000000000009</v>
       </c>
       <c r="D306" s="20">
-        <v>52.02</v>
+        <v>-118.23</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,13 +6405,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>20.7</v>
+        <v>56.7</v>
       </c>
       <c r="C308" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D308" s="20">
-        <v>182.16</v>
+        <v>498.96</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6483,13 +6489,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>2.5</v>
+        <v>50.5</v>
       </c>
       <c r="C314" s="19">
         <v>9.25</v>
       </c>
       <c r="D314" s="20">
-        <v>23.13</v>
+        <v>467.13</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6650,9 +6656,15 @@
       <c r="A326" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="21"/>
-      <c r="C326" s="22"/>
-      <c r="D326" s="21"/>
+      <c r="B326" s="18">
+        <v>39</v>
+      </c>
+      <c r="C326" s="19">
+        <v>7.84</v>
+      </c>
+      <c r="D326" s="20">
+        <v>305.76</v>
+      </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
@@ -6695,13 +6707,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="18">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="C330" s="19">
         <v>6.51</v>
       </c>
       <c r="D330" s="20">
-        <v>192.06</v>
+        <v>182.29</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6955,13 +6967,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="18">
-        <v>13.99</v>
+        <v>11.49</v>
       </c>
       <c r="C349" s="19">
         <v>12</v>
       </c>
       <c r="D349" s="20">
-        <v>167.88</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6983,13 +6995,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="C351" s="19">
         <v>7.84</v>
       </c>
       <c r="D351" s="20">
-        <v>-7.84</v>
+        <v>274.39999999999998</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7053,13 +7065,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="C356" s="19">
         <v>10.5</v>
       </c>
       <c r="D356" s="20">
-        <v>68.25</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7179,13 +7191,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="C365" s="19">
         <v>10</v>
       </c>
       <c r="D365" s="20">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7235,13 +7247,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="C369" s="19">
         <v>25</v>
       </c>
       <c r="D369" s="20">
-        <v>512.5</v>
+        <v>487.5</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7501,13 +7513,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="18">
-        <v>-5.5</v>
+        <v>0.25</v>
       </c>
       <c r="C388" s="19">
-        <v>10.45</v>
+        <v>10.84</v>
       </c>
       <c r="D388" s="20">
-        <v>-57.48</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7579,13 +7591,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="18">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C394" s="19">
         <v>2</v>
       </c>
       <c r="D394" s="20">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7637,13 +7649,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>62.5</v>
+        <v>61.5</v>
       </c>
       <c r="C399" s="19">
         <v>2.25</v>
       </c>
       <c r="D399" s="20">
-        <v>140.63</v>
+        <v>138.38</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7679,13 +7691,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="18">
-        <v>22.5</v>
+        <v>55.5</v>
       </c>
       <c r="C402" s="19">
         <v>2.5</v>
       </c>
       <c r="D402" s="20">
-        <v>56.25</v>
+        <v>138.75</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,13 +7761,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="18">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C407" s="19">
         <v>2.75</v>
       </c>
       <c r="D407" s="20">
-        <v>225.5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7777,13 +7789,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C409" s="19">
         <v>2.8</v>
       </c>
       <c r="D409" s="20">
-        <v>77</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7791,13 +7803,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C410" s="19">
         <v>2.8</v>
       </c>
       <c r="D410" s="20">
-        <v>86.8</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,13 +7895,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>42.5</v>
+        <v>41</v>
       </c>
       <c r="C417" s="19">
         <v>3.3</v>
       </c>
       <c r="D417" s="20">
-        <v>140.25</v>
+        <v>135.30000000000001</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7919,13 +7931,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="C420" s="19">
         <v>3.25</v>
       </c>
       <c r="D420" s="20">
-        <v>47.13</v>
+        <v>37.380000000000003</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8083,13 +8095,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C433" s="19">
         <v>4.25</v>
       </c>
       <c r="D433" s="20">
-        <v>131.75</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8195,13 +8207,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>16.5</v>
+        <v>56.5</v>
       </c>
       <c r="C441" s="19">
         <v>4.28</v>
       </c>
       <c r="D441" s="20">
-        <v>70.62</v>
+        <v>241.82</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8365,13 +8377,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C454" s="19">
         <v>6</v>
       </c>
       <c r="D454" s="20">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8387,13 +8399,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>23.5</v>
+        <v>20.5</v>
       </c>
       <c r="C456" s="19">
         <v>5.94</v>
       </c>
       <c r="D456" s="20">
-        <v>139.59</v>
+        <v>121.77</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,13 +8469,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C461" s="19">
         <v>7</v>
       </c>
       <c r="D461" s="20">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8471,13 +8483,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C462" s="19">
         <v>7.6</v>
       </c>
       <c r="D462" s="20">
-        <v>209</v>
+        <v>201.4</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8577,13 +8589,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="C470" s="19">
         <v>9.5</v>
       </c>
       <c r="D470" s="20">
-        <v>375.25</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8661,13 +8673,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="C476" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D476" s="20">
-        <v>16.5</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,13 +8715,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C479" s="19">
         <v>1.4</v>
       </c>
       <c r="D479" s="20">
-        <v>183.4</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8829,13 +8841,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C488" s="19">
         <v>1.5</v>
       </c>
       <c r="D488" s="20">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8843,13 +8855,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>350.5</v>
+        <v>347.5</v>
       </c>
       <c r="C489" s="19">
         <v>1.5</v>
       </c>
       <c r="D489" s="20">
-        <v>525.75</v>
+        <v>521.25</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,13 +8883,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>130.5</v>
+        <v>128.5</v>
       </c>
       <c r="C491" s="19">
         <v>0.39</v>
       </c>
       <c r="D491" s="20">
-        <v>51.12</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8885,13 +8897,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C492" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D492" s="20">
-        <v>266.76</v>
+        <v>264.48</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9127,13 +9139,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="C511" s="19">
         <v>3.5</v>
       </c>
       <c r="D511" s="20">
-        <v>75.25</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9205,13 +9217,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C517" s="19">
         <v>3.6</v>
       </c>
       <c r="D517" s="20">
-        <v>183.6</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9305,13 +9317,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C525" s="19">
         <v>3.8</v>
       </c>
       <c r="D525" s="20">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9347,13 +9359,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C528" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D528" s="20">
-        <v>114.4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9529,13 +9541,13 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="C541" s="19">
         <v>5.5</v>
       </c>
       <c r="D541" s="20">
-        <v>71.5</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9613,13 +9625,13 @@
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C547" s="19">
         <v>6</v>
       </c>
       <c r="D547" s="20">
-        <v>138</v>
+        <v>282</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9811,13 +9823,13 @@
         <v>564</v>
       </c>
       <c r="B562" s="18">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C562" s="19">
         <v>2.76</v>
       </c>
       <c r="D562" s="20">
-        <v>264.95999999999998</v>
+        <v>256.68</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -9881,13 +9893,13 @@
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C567" s="19">
         <v>2.76</v>
       </c>
       <c r="D567" s="20">
-        <v>121.44</v>
+        <v>118.68</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -10021,13 +10033,13 @@
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C577" s="19">
         <v>5.25</v>
       </c>
       <c r="D577" s="20">
-        <v>220.5</v>
+        <v>215.25</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10105,13 +10117,13 @@
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C583" s="19">
         <v>4.28</v>
       </c>
       <c r="D583" s="20">
-        <v>-6.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10161,13 +10173,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>122</v>
+        <v>119.5</v>
       </c>
       <c r="C587" s="19">
         <v>1.39</v>
       </c>
       <c r="D587" s="20">
-        <v>169.83</v>
+        <v>166.35</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10175,13 +10187,13 @@
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>344.5</v>
+        <v>354.5</v>
       </c>
       <c r="C588" s="19">
         <v>1.4</v>
       </c>
       <c r="D588" s="20">
-        <v>482.3</v>
+        <v>496.3</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -10189,13 +10201,13 @@
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>80.5</v>
+        <v>78.5</v>
       </c>
       <c r="C589" s="19">
         <v>1.4</v>
       </c>
       <c r="D589" s="20">
-        <v>112.7</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -10213,7 +10225,7 @@
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="C591" s="22"/>
       <c r="D591" s="21"/>
@@ -10233,7 +10245,7 @@
         <v>595</v>
       </c>
       <c r="B593" s="18">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C593" s="22"/>
       <c r="D593" s="21"/>
@@ -10243,7 +10255,7 @@
         <v>596</v>
       </c>
       <c r="B594" s="18">
-        <v>-10</v>
+        <v>470</v>
       </c>
       <c r="C594" s="22"/>
       <c r="D594" s="21"/>
@@ -10253,13 +10265,13 @@
         <v>597</v>
       </c>
       <c r="B595" s="18">
-        <v>1756.5</v>
+        <v>1753.5</v>
       </c>
       <c r="C595" s="19">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D595" s="20">
-        <v>1405.2</v>
+        <v>1446.64</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -10267,13 +10279,13 @@
         <v>598</v>
       </c>
       <c r="B596" s="18">
-        <v>617.5</v>
+        <v>614.5</v>
       </c>
       <c r="C596" s="19">
         <v>0.8</v>
       </c>
       <c r="D596" s="20">
-        <v>494</v>
+        <v>491.6</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10323,13 +10335,13 @@
         <v>602</v>
       </c>
       <c r="B600" s="18">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C600" s="19">
         <v>0.52</v>
       </c>
       <c r="D600" s="20">
-        <v>139.88</v>
+        <v>138.32</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -10337,13 +10349,13 @@
         <v>603</v>
       </c>
       <c r="B601" s="18">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="C601" s="19">
         <v>0.52</v>
       </c>
       <c r="D601" s="20">
-        <v>431.6</v>
+        <v>424.32</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -10449,11 +10461,11 @@
         <v>611</v>
       </c>
       <c r="B609" s="24">
-        <v>39574.269999999997</v>
+        <v>40521.019999999997</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="26">
-        <v>110100.23</v>
+        <v>112722.98</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="615">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 24-Dec-2024</t>
+    <t>1-Jul-2024 to 25-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -608,6 +608,9 @@
     <t>5003 PATRIKA</t>
   </si>
   <si>
+    <t>5003 PATRIKA - B</t>
+  </si>
+  <si>
     <t>5004 PATRIKA</t>
   </si>
   <si>
@@ -707,7 +710,7 @@
     <t>5034 PATRIKA (Direct)</t>
   </si>
   <si>
-    <t>5035 PATRIKA</t>
+    <t>5035 PATRIKA (MONDAY )</t>
   </si>
   <si>
     <t>5036 PATRIKA (DC)</t>
@@ -1028,7 +1031,7 @@
     <t>5941 PATRIKA (Dc)</t>
   </si>
   <si>
-    <t>5942 PATRIKA</t>
+    <t>5942 PATRIKA (10000)</t>
   </si>
   <si>
     <t>5943 PATRIKA</t>
@@ -1845,6 +1848,12 @@
   </si>
   <si>
     <t>9210 CARD (GOLDEN BOLNA)</t>
+  </si>
+  <si>
+    <t>9211 CARD (NEW)</t>
+  </si>
+  <si>
+    <t>9212 CARDS (NEW)</t>
   </si>
   <si>
     <t>9945 CARDS {M} ♠</t>
@@ -2352,7 +2361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D609"/>
+  <dimension ref="A1:D612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2447,13 +2456,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="18">
-        <v>712.5</v>
+        <v>692.5</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="20">
-        <v>712.5</v>
+        <v>692.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +2470,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="18">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="20">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +2484,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C11" s="19">
         <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>174.85</v>
+        <v>170.25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2526,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="18">
-        <v>39.5</v>
+        <v>36.5</v>
       </c>
       <c r="C14" s="19">
         <v>1.8</v>
       </c>
       <c r="D14" s="20">
-        <v>71.099999999999994</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,13 +2554,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="18">
-        <v>39.5</v>
+        <v>36.5</v>
       </c>
       <c r="C16" s="19">
         <v>1.8</v>
       </c>
       <c r="D16" s="20">
-        <v>71.099999999999994</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,13 +2568,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>101.5</v>
+        <v>98.5</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +2596,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>120.5</v>
+        <v>118</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2638,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>92.5</v>
+        <v>90.5</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2680,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>116</v>
+        <v>114.5</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>243.6</v>
+        <v>240.45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2702,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>67.819999999999993</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>159.38</v>
+        <v>152.33000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,13 +2716,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>60.37</v>
+        <v>57.37</v>
       </c>
       <c r="C28" s="19">
         <v>2.35</v>
       </c>
       <c r="D28" s="20">
-        <v>141.87</v>
+        <v>134.82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,13 +2788,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="18">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C34" s="19">
         <v>2.5</v>
       </c>
       <c r="D34" s="20">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,13 +2838,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>56.5</v>
+        <v>54</v>
       </c>
       <c r="C38" s="19">
         <v>2.7</v>
       </c>
       <c r="D38" s="20">
-        <v>152.55000000000001</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,13 +2964,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="18">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="20">
-        <v>217.8</v>
+        <v>206.8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,13 +2978,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>338.8</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2983,13 +2992,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="18">
-        <v>276.5</v>
+        <v>258.5</v>
       </c>
       <c r="C49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="20">
-        <v>304.14999999999998</v>
+        <v>284.35000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,13 +3006,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>434.5</v>
+        <v>421.3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,13 +3034,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>471.9</v>
+        <v>467.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,13 +3062,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="18">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C54" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D54" s="20">
-        <v>281.60000000000002</v>
+        <v>279.39999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,13 +3160,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="18">
-        <v>31.5</v>
+        <v>28.5</v>
       </c>
       <c r="C61" s="19">
         <v>2.1</v>
       </c>
       <c r="D61" s="20">
-        <v>66.150000000000006</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,13 +3202,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="18">
-        <v>380.5</v>
+        <v>352</v>
       </c>
       <c r="C64" s="19">
         <v>2.1</v>
       </c>
       <c r="D64" s="20">
-        <v>799.05</v>
+        <v>739.2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,13 +3258,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C68" s="19">
         <v>0.7</v>
       </c>
       <c r="D68" s="20">
-        <v>126.7</v>
+        <v>124.6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,13 +3272,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="18">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C69" s="19">
         <v>0.7</v>
       </c>
       <c r="D69" s="20">
-        <v>114.1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3277,13 +3286,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="18">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C70" s="19">
         <v>0.9</v>
       </c>
       <c r="D70" s="20">
-        <v>49.5</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,13 +3300,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>121.5</v>
+        <v>107.5</v>
       </c>
       <c r="C71" s="19">
         <v>0.9</v>
       </c>
       <c r="D71" s="20">
-        <v>109.35</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,13 +3314,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C72" s="19">
         <v>1.55</v>
       </c>
       <c r="D72" s="20">
-        <v>579.70000000000005</v>
+        <v>576.6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,13 +3328,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="18">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C73" s="19">
         <v>1.55</v>
       </c>
       <c r="D73" s="20">
-        <v>683.55</v>
+        <v>672.7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,13 +3342,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>636.5</v>
+        <v>631.5</v>
       </c>
       <c r="C74" s="19">
         <v>1.55</v>
       </c>
       <c r="D74" s="20">
-        <v>986.58</v>
+        <v>978.83</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3347,7 +3356,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3357,7 +3366,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>145.5</v>
+        <v>40.5</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
@@ -3377,7 +3386,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>96.5</v>
+        <v>40.5</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -3397,7 +3406,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
@@ -3407,13 +3416,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>537.5</v>
+        <v>487.5</v>
       </c>
       <c r="C81" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D81" s="20">
-        <v>618.13</v>
+        <v>560.63</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3421,13 +3430,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="18">
-        <v>518.5</v>
+        <v>468.5</v>
       </c>
       <c r="C82" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D82" s="20">
-        <v>596.28</v>
+        <v>538.78</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3435,13 +3444,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>615.5</v>
+        <v>563</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>861.7</v>
+        <v>788.2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3463,13 +3472,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C85" s="19">
         <v>1.4</v>
       </c>
       <c r="D85" s="20">
-        <v>127.4</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,13 +3494,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="18">
-        <v>175.5</v>
+        <v>142.5</v>
       </c>
       <c r="C87" s="19">
         <v>2</v>
       </c>
       <c r="D87" s="20">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,13 +3508,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="18">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="C88" s="19">
         <v>2</v>
       </c>
       <c r="D88" s="20">
-        <v>554</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,13 +3522,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="18">
-        <v>493</v>
+        <v>469.5</v>
       </c>
       <c r="C89" s="19">
         <v>1.26</v>
       </c>
       <c r="D89" s="20">
-        <v>621.17999999999995</v>
+        <v>591.57000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,13 +3536,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="18">
-        <v>493.5</v>
+        <v>485.5</v>
       </c>
       <c r="C90" s="19">
         <v>1.26</v>
       </c>
       <c r="D90" s="20">
-        <v>621.80999999999995</v>
+        <v>611.73</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,13 +3680,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>250</v>
+        <v>243.75</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,13 +3778,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C109" s="19">
         <v>12.5</v>
       </c>
       <c r="D109" s="20">
-        <v>300</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,13 +3820,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="18">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="C112" s="19">
         <v>15.5</v>
       </c>
       <c r="D112" s="20">
-        <v>147.25</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,13 +4044,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="18">
-        <v>26.5</v>
+        <v>21.5</v>
       </c>
       <c r="C128" s="19">
         <v>18.45</v>
       </c>
       <c r="D128" s="20">
-        <v>488.88</v>
+        <v>396.64</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,13 +4212,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C140" s="19">
         <v>3.3</v>
       </c>
       <c r="D140" s="20">
-        <v>188.1</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,13 +4254,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>93.5</v>
+        <v>91.5</v>
       </c>
       <c r="C143" s="19">
         <v>2.75</v>
       </c>
       <c r="D143" s="20">
-        <v>257.13</v>
+        <v>251.63</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,13 +4282,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>71</v>
+        <v>66.5</v>
       </c>
       <c r="C145" s="19">
         <v>3.4</v>
       </c>
       <c r="D145" s="20">
-        <v>241.4</v>
+        <v>226.1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,13 +4310,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="18">
-        <v>40.5</v>
+        <v>33.5</v>
       </c>
       <c r="C147" s="19">
         <v>2.7</v>
       </c>
       <c r="D147" s="20">
-        <v>109.35</v>
+        <v>90.45</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,13 +4324,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C148" s="19">
         <v>2.8</v>
       </c>
       <c r="D148" s="20">
-        <v>249.2</v>
+        <v>235.2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,13 +4338,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>92.5</v>
+        <v>89.5</v>
       </c>
       <c r="C149" s="19">
         <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>259</v>
+        <v>250.6</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,13 +4422,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="18">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C155" s="19">
         <v>2.95</v>
       </c>
       <c r="D155" s="20">
-        <v>227.15</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,13 +4464,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C158" s="19">
         <v>3.3</v>
       </c>
       <c r="D158" s="20">
-        <v>386.1</v>
+        <v>376.2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,13 +4492,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C160" s="19">
         <v>3.5</v>
       </c>
       <c r="D160" s="20">
-        <v>185.5</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,13 +4584,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="18">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C167" s="19">
         <v>3.33</v>
       </c>
       <c r="D167" s="20">
-        <v>189.81</v>
+        <v>186.48</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,13 +4760,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="18">
-        <v>172.5</v>
+        <v>162.5</v>
       </c>
       <c r="C180" s="19">
         <v>3.96</v>
       </c>
       <c r="D180" s="20">
-        <v>682.62</v>
+        <v>643.04999999999995</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,13 +4874,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>18.739999999999998</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="C189" s="19">
         <v>3.14</v>
       </c>
       <c r="D189" s="20">
-        <v>58.84</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4900,9 +4909,15 @@
       <c r="A192" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="21"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="21"/>
+      <c r="B192" s="18">
+        <v>52</v>
+      </c>
+      <c r="C192" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D192" s="20">
+        <v>182</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
@@ -4924,28 +4939,22 @@
       <c r="A195" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B195" s="18">
-        <v>24</v>
-      </c>
-      <c r="C195" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D195" s="20">
-        <v>91.2</v>
-      </c>
+      <c r="B195" s="21"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="21"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C196" s="19">
         <v>3.8</v>
       </c>
       <c r="D196" s="20">
-        <v>64.599999999999994</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4953,13 +4962,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="C197" s="19">
         <v>3.8</v>
       </c>
       <c r="D197" s="20">
-        <v>36.1</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,13 +4976,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="18">
-        <v>53</v>
+        <v>2.5</v>
       </c>
       <c r="C198" s="19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D198" s="20">
-        <v>190.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,49 +4990,49 @@
         <v>201</v>
       </c>
       <c r="B199" s="18">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C199" s="19">
         <v>3.6</v>
       </c>
       <c r="D199" s="20">
-        <v>43.2</v>
+        <v>190.8</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B200" s="21"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="21"/>
+      <c r="B200" s="18">
+        <v>12</v>
+      </c>
+      <c r="C200" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="D200" s="20">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B201" s="18">
-        <v>30.5</v>
-      </c>
-      <c r="C201" s="19">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="D201" s="20">
-        <v>125.41</v>
-      </c>
+      <c r="B201" s="21"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="21"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>58.5</v>
+        <v>30.5</v>
       </c>
       <c r="C202" s="19">
-        <v>4.12</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D202" s="20">
-        <v>240.83</v>
+        <v>125.41</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5031,13 +5040,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="18">
-        <v>57</v>
+        <v>58.5</v>
       </c>
       <c r="C203" s="19">
-        <v>4.75</v>
+        <v>4.12</v>
       </c>
       <c r="D203" s="20">
-        <v>270.75</v>
+        <v>240.83</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,13 +5054,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="18">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C204" s="19">
         <v>4.75</v>
       </c>
       <c r="D204" s="20">
-        <v>247</v>
+        <v>270.75</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,13 +5068,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C205" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="D205" s="20">
-        <v>127.6</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,13 +5082,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C206" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D206" s="20">
-        <v>321.2</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5087,49 +5096,49 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>29.5</v>
+        <v>73</v>
       </c>
       <c r="C207" s="19">
-        <v>4.28</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D207" s="20">
-        <v>126.26</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B208" s="21"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="21"/>
+      <c r="B208" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="C208" s="19">
+        <v>4.28</v>
+      </c>
+      <c r="D208" s="20">
+        <v>126.26</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B209" s="18">
-        <v>52</v>
-      </c>
-      <c r="C209" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="D209" s="20">
-        <v>234</v>
-      </c>
+      <c r="B209" s="21"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="21"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>258.5</v>
+        <v>52</v>
       </c>
       <c r="C210" s="19">
         <v>4.5</v>
       </c>
       <c r="D210" s="20">
-        <v>1163.25</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,13 +5146,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>189.5</v>
+        <v>254</v>
       </c>
       <c r="C211" s="19">
         <v>4.5</v>
       </c>
       <c r="D211" s="20">
-        <v>852.75</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,13 +5160,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>12.5</v>
+        <v>189.5</v>
       </c>
       <c r="C212" s="19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D212" s="20">
-        <v>65.63</v>
+        <v>852.75</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,13 +5174,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="18">
-        <v>41</v>
+        <v>8.5</v>
       </c>
       <c r="C213" s="19">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="D213" s="20">
-        <v>196.8</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,13 +5188,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="18">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C214" s="19">
         <v>4.8</v>
       </c>
       <c r="D214" s="20">
-        <v>148.80000000000001</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5193,13 +5202,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="18">
-        <v>61.5</v>
+        <v>31</v>
       </c>
       <c r="C215" s="19">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D215" s="20">
-        <v>276.75</v>
+        <v>148.80000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,13 +5216,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="18">
-        <v>45.5</v>
+        <v>61.5</v>
       </c>
       <c r="C216" s="19">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="D216" s="20">
-        <v>216.13</v>
+        <v>276.75</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,13 +5230,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="18">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C217" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="D217" s="20">
-        <v>9.8000000000000007</v>
+        <v>204.25</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,13 +5244,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="18">
-        <v>43.5</v>
+        <v>2</v>
       </c>
       <c r="C218" s="19">
-        <v>5.25</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D218" s="20">
-        <v>228.38</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,13 +5258,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="18">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="C219" s="19">
         <v>5.25</v>
       </c>
       <c r="D219" s="20">
-        <v>254.63</v>
+        <v>217.88</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,13 +5272,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="18">
-        <v>44</v>
+        <v>48.5</v>
       </c>
       <c r="C220" s="19">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D220" s="20">
-        <v>209</v>
+        <v>254.63</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,22 +5286,28 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C221" s="19">
         <v>4.75</v>
       </c>
       <c r="D221" s="20">
-        <v>351.5</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B222" s="21"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="21"/>
+      <c r="B222" s="18">
+        <v>74</v>
+      </c>
+      <c r="C222" s="19">
+        <v>4.75</v>
+      </c>
+      <c r="D222" s="20">
+        <v>351.5</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
@@ -5306,64 +5321,58 @@
       <c r="A224" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B224" s="18">
-        <v>36.5</v>
-      </c>
-      <c r="C224" s="19">
-        <v>6</v>
-      </c>
-      <c r="D224" s="20">
-        <v>219</v>
-      </c>
+      <c r="B224" s="21"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="21"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="18">
-        <v>2.5</v>
+        <v>36.5</v>
       </c>
       <c r="C225" s="19">
         <v>6</v>
       </c>
       <c r="D225" s="20">
-        <v>15</v>
+        <v>219</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B226" s="21"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="21"/>
+      <c r="B226" s="18">
+        <v>-6</v>
+      </c>
+      <c r="C226" s="19">
+        <v>6</v>
+      </c>
+      <c r="D226" s="20">
+        <v>-36</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="18">
-        <v>81</v>
-      </c>
-      <c r="C227" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="D227" s="20">
-        <v>461.7</v>
-      </c>
+      <c r="B227" s="21"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="21"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B228" s="18">
-        <v>25.5</v>
+        <v>81</v>
       </c>
       <c r="C228" s="19">
-        <v>6.75</v>
+        <v>5.7</v>
       </c>
       <c r="D228" s="20">
-        <v>172.13</v>
+        <v>461.7</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5371,13 +5380,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="18">
-        <v>0.5</v>
+        <v>25.5</v>
       </c>
       <c r="C229" s="19">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="D229" s="20">
-        <v>3.38</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,13 +5394,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>77</v>
+        <v>0.5</v>
       </c>
       <c r="C230" s="19">
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="D230" s="20">
-        <v>519.75</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,13 +5408,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>160.5</v>
+        <v>77</v>
       </c>
       <c r="C231" s="19">
-        <v>5.97</v>
+        <v>6.75</v>
       </c>
       <c r="D231" s="20">
-        <v>958.97</v>
+        <v>519.75</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5413,13 +5422,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="18">
-        <v>44.5</v>
+        <v>160.5</v>
       </c>
       <c r="C232" s="19">
-        <v>4.26</v>
+        <v>5.97</v>
       </c>
       <c r="D232" s="20">
-        <v>189.57</v>
+        <v>958.97</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5427,13 +5436,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>5.5</v>
+        <v>44.5</v>
       </c>
       <c r="C233" s="19">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="D233" s="20">
-        <v>22</v>
+        <v>189.57</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,13 +5450,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="18">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="C234" s="19">
         <v>4</v>
       </c>
       <c r="D234" s="20">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5455,13 +5464,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="18">
-        <v>89.5</v>
+        <v>2.5</v>
       </c>
       <c r="C235" s="19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D235" s="20">
-        <v>402.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,13 +5478,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="18">
-        <v>20</v>
+        <v>89.5</v>
       </c>
       <c r="C236" s="19">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D236" s="20">
-        <v>130</v>
+        <v>402.75</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5483,13 +5492,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="18">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="C237" s="19">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D237" s="20">
-        <v>107.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5497,49 +5506,49 @@
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>24.5</v>
+        <v>21.5</v>
       </c>
       <c r="C238" s="19">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="D238" s="20">
-        <v>93.1</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="21"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="21"/>
+      <c r="B239" s="18">
+        <v>24.5</v>
+      </c>
+      <c r="C239" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="D239" s="20">
+        <v>93.1</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B240" s="18">
-        <v>61</v>
-      </c>
-      <c r="C240" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D240" s="20">
-        <v>213.5</v>
-      </c>
+      <c r="B240" s="21"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="21"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="s">
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="C241" s="19">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="D241" s="20">
-        <v>752.25</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,49 +5556,49 @@
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>94.5</v>
+        <v>177</v>
       </c>
       <c r="C242" s="19">
         <v>4.25</v>
       </c>
       <c r="D242" s="20">
-        <v>401.63</v>
+        <v>752.25</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="21"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="21"/>
+      <c r="B243" s="18">
+        <v>93</v>
+      </c>
+      <c r="C243" s="19">
+        <v>4.25</v>
+      </c>
+      <c r="D243" s="20">
+        <v>395.25</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="18">
-        <v>54.5</v>
-      </c>
-      <c r="C244" s="19">
-        <v>4.18</v>
-      </c>
-      <c r="D244" s="20">
-        <v>227.81</v>
-      </c>
+      <c r="B244" s="21"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="21"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
         <v>247</v>
       </c>
       <c r="B245" s="18">
-        <v>49.5</v>
+        <v>52</v>
       </c>
       <c r="C245" s="19">
         <v>4.18</v>
       </c>
       <c r="D245" s="20">
-        <v>206.91</v>
+        <v>217.36</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,13 +5606,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="18">
-        <v>102.5</v>
+        <v>49.5</v>
       </c>
       <c r="C246" s="19">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="D246" s="20">
-        <v>438.7</v>
+        <v>206.91</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,13 +5620,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>72.5</v>
+        <v>101.5</v>
       </c>
       <c r="C247" s="19">
         <v>4.28</v>
       </c>
       <c r="D247" s="20">
-        <v>310.3</v>
+        <v>434.42</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5625,13 +5634,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="18">
-        <v>38</v>
+        <v>72.5</v>
       </c>
       <c r="C248" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.28</v>
       </c>
       <c r="D248" s="20">
-        <v>174.8</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,13 +5648,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="18">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C249" s="19">
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D249" s="20">
-        <v>114</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5653,13 +5662,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C250" s="19">
-        <v>4.95</v>
+        <v>4.75</v>
       </c>
       <c r="D250" s="20">
-        <v>143.55000000000001</v>
+        <v>114</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,13 +5676,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="C251" s="19">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="D251" s="20">
-        <v>116.38</v>
+        <v>136.13</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5681,22 +5690,28 @@
         <v>254</v>
       </c>
       <c r="B252" s="18">
-        <v>33</v>
+        <v>24.5</v>
       </c>
       <c r="C252" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D252" s="20">
-        <v>165</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B253" s="21"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="21"/>
+      <c r="B253" s="18">
+        <v>33</v>
+      </c>
+      <c r="C253" s="19">
+        <v>5</v>
+      </c>
+      <c r="D253" s="20">
+        <v>165</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="17" t="s">
@@ -5710,28 +5725,22 @@
       <c r="A255" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B255" s="18">
-        <v>27.5</v>
-      </c>
-      <c r="C255" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D255" s="20">
-        <v>140.25</v>
-      </c>
+      <c r="B255" s="21"/>
+      <c r="C255" s="22"/>
+      <c r="D255" s="21"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B256" s="18">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="C256" s="19">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D256" s="20">
-        <v>143.1</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,13 +5748,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>44.5</v>
+        <v>27</v>
       </c>
       <c r="C257" s="19">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="D257" s="20">
-        <v>240.3</v>
+        <v>143.1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,13 +5762,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="18">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="C258" s="19">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D258" s="20">
-        <v>27.5</v>
+        <v>240.3</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,13 +5776,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>44.5</v>
+        <v>5</v>
       </c>
       <c r="C259" s="19">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="D259" s="20">
-        <v>246.98</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,13 +5790,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="18">
-        <v>25.5</v>
+        <v>42.5</v>
       </c>
       <c r="C260" s="19">
-        <v>5.23</v>
+        <v>5.55</v>
       </c>
       <c r="D260" s="20">
-        <v>133.37</v>
+        <v>235.88</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,13 +5804,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="18">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C261" s="19">
         <v>5.23</v>
       </c>
       <c r="D261" s="20">
-        <v>130.75</v>
+        <v>133.37</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,49 +5818,49 @@
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="C262" s="19">
-        <v>5.46</v>
+        <v>5.23</v>
       </c>
       <c r="D262" s="20">
-        <v>188.37</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B263" s="21"/>
-      <c r="C263" s="22"/>
-      <c r="D263" s="21"/>
+      <c r="B263" s="18">
+        <v>34.5</v>
+      </c>
+      <c r="C263" s="19">
+        <v>5.46</v>
+      </c>
+      <c r="D263" s="20">
+        <v>188.37</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B264" s="18">
-        <v>21</v>
-      </c>
-      <c r="C264" s="19">
-        <v>6.25</v>
-      </c>
-      <c r="D264" s="20">
-        <v>131.25</v>
-      </c>
+      <c r="B264" s="21"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="21"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C265" s="19">
-        <v>6.38</v>
+        <v>6.25</v>
       </c>
       <c r="D265" s="20">
-        <v>261.62</v>
+        <v>131.25</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,13 +5868,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="18">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C266" s="19">
-        <v>6.5</v>
+        <v>6.38</v>
       </c>
       <c r="D266" s="20">
-        <v>208</v>
+        <v>261.62</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,13 +5882,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="18">
-        <v>34.5</v>
+        <v>32</v>
       </c>
       <c r="C267" s="19">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D267" s="20">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,13 +5896,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="18">
-        <v>20</v>
+        <v>34.5</v>
       </c>
       <c r="C268" s="19">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="D268" s="20">
-        <v>118.8</v>
+        <v>207</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,13 +5910,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>62.5</v>
+        <v>20</v>
       </c>
       <c r="C269" s="19">
         <v>5.94</v>
       </c>
       <c r="D269" s="20">
-        <v>371.25</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,13 +5924,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="18">
-        <v>24.5</v>
+        <v>62.5</v>
       </c>
       <c r="C270" s="19">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="D270" s="20">
-        <v>139.65</v>
+        <v>371.25</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,13 +5938,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="18">
-        <v>85.5</v>
+        <v>24.5</v>
       </c>
       <c r="C271" s="19">
-        <v>5.94</v>
+        <v>5.7</v>
       </c>
       <c r="D271" s="20">
-        <v>507.87</v>
+        <v>139.65</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,13 +5952,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="18">
-        <v>14</v>
+        <v>85.5</v>
       </c>
       <c r="C272" s="19">
         <v>5.94</v>
       </c>
       <c r="D272" s="20">
-        <v>83.16</v>
+        <v>507.87</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,85 +5966,85 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C273" s="19">
-        <v>6.67</v>
+        <v>5.94</v>
       </c>
       <c r="D273" s="20">
-        <v>246.79</v>
+        <v>83.16</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B274" s="21"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="21"/>
+      <c r="B274" s="18">
+        <v>32</v>
+      </c>
+      <c r="C274" s="19">
+        <v>6.67</v>
+      </c>
+      <c r="D274" s="20">
+        <v>213.44</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B275" s="18">
-        <v>45.5</v>
-      </c>
-      <c r="C275" s="19">
-        <v>6.18</v>
-      </c>
-      <c r="D275" s="20">
-        <v>281.19</v>
-      </c>
+      <c r="B275" s="21"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="21"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="s">
         <v>278</v>
       </c>
       <c r="B276" s="18">
-        <v>20.5</v>
+        <v>45.5</v>
       </c>
       <c r="C276" s="19">
         <v>6.18</v>
       </c>
       <c r="D276" s="20">
-        <v>126.69</v>
+        <v>281.19</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B277" s="21"/>
-      <c r="C277" s="22"/>
-      <c r="D277" s="21"/>
+      <c r="B277" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="C277" s="19">
+        <v>6.18</v>
+      </c>
+      <c r="D277" s="20">
+        <v>101.97</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B278" s="18">
-        <v>51.5</v>
-      </c>
-      <c r="C278" s="19">
-        <v>6.18</v>
-      </c>
-      <c r="D278" s="20">
-        <v>318.27</v>
-      </c>
+      <c r="B278" s="21"/>
+      <c r="C278" s="22"/>
+      <c r="D278" s="21"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="s">
         <v>281</v>
       </c>
       <c r="B279" s="18">
-        <v>19.5</v>
+        <v>49</v>
       </c>
       <c r="C279" s="19">
-        <v>6.65</v>
+        <v>6.18</v>
       </c>
       <c r="D279" s="20">
-        <v>129.68</v>
+        <v>302.82</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6043,13 +6052,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="18">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C280" s="19">
         <v>6.65</v>
       </c>
       <c r="D280" s="20">
-        <v>133</v>
+        <v>129.68</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6057,13 +6066,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="18">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="C281" s="19">
-        <v>6.4</v>
+        <v>6.65</v>
       </c>
       <c r="D281" s="20">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,13 +6080,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>35</v>
+        <v>22.5</v>
       </c>
       <c r="C282" s="19">
-        <v>6.46</v>
+        <v>6.4</v>
       </c>
       <c r="D282" s="20">
-        <v>226.1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,85 +6094,85 @@
         <v>285</v>
       </c>
       <c r="B283" s="18">
-        <v>23.5</v>
+        <v>35</v>
       </c>
       <c r="C283" s="19">
-        <v>6.4</v>
+        <v>6.46</v>
       </c>
       <c r="D283" s="20">
-        <v>150.4</v>
+        <v>226.1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="B284" s="21"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="21"/>
+      <c r="B284" s="18">
+        <v>23.5</v>
+      </c>
+      <c r="C284" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="D284" s="20">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B285" s="18">
-        <v>44.5</v>
-      </c>
-      <c r="C285" s="19">
-        <v>6.65</v>
-      </c>
-      <c r="D285" s="20">
-        <v>295.93</v>
-      </c>
+      <c r="B285" s="21"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="21"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
         <v>288</v>
       </c>
       <c r="B286" s="18">
-        <v>30.5</v>
+        <v>44.5</v>
       </c>
       <c r="C286" s="19">
-        <v>6.18</v>
+        <v>6.65</v>
       </c>
       <c r="D286" s="20">
-        <v>188.49</v>
+        <v>295.93</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B287" s="21"/>
-      <c r="C287" s="22"/>
-      <c r="D287" s="21"/>
+      <c r="B287" s="18">
+        <v>30.5</v>
+      </c>
+      <c r="C287" s="19">
+        <v>6.18</v>
+      </c>
+      <c r="D287" s="20">
+        <v>188.49</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="B288" s="18">
-        <v>22.5</v>
-      </c>
-      <c r="C288" s="19">
-        <v>7.18</v>
-      </c>
-      <c r="D288" s="20">
-        <v>161.5</v>
-      </c>
+      <c r="B288" s="21"/>
+      <c r="C288" s="22"/>
+      <c r="D288" s="21"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
         <v>291</v>
       </c>
       <c r="B289" s="18">
-        <v>91</v>
+        <v>22.5</v>
       </c>
       <c r="C289" s="19">
-        <v>7.13</v>
+        <v>7.18</v>
       </c>
       <c r="D289" s="20">
-        <v>648.83000000000004</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6171,13 +6180,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C290" s="19">
         <v>7.13</v>
       </c>
       <c r="D290" s="20">
-        <v>613.17999999999995</v>
+        <v>648.83000000000004</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6185,13 +6194,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="18">
-        <v>26.5</v>
+        <v>86</v>
       </c>
       <c r="C291" s="19">
         <v>7.13</v>
       </c>
       <c r="D291" s="20">
-        <v>188.95</v>
+        <v>613.17999999999995</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,72 +6208,72 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>33</v>
+        <v>26.5</v>
       </c>
       <c r="C292" s="19">
-        <v>6.65</v>
+        <v>7.13</v>
       </c>
       <c r="D292" s="20">
-        <v>219.45</v>
+        <v>188.95</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="B293" s="21"/>
-      <c r="C293" s="22"/>
-      <c r="D293" s="21"/>
+      <c r="B293" s="18">
+        <v>33</v>
+      </c>
+      <c r="C293" s="19">
+        <v>6.65</v>
+      </c>
+      <c r="D293" s="20">
+        <v>219.45</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B294" s="18">
-        <v>29</v>
-      </c>
-      <c r="C294" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="D294" s="20">
-        <v>220.4</v>
-      </c>
+      <c r="B294" s="21"/>
+      <c r="C294" s="22"/>
+      <c r="D294" s="21"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B295" s="18">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="C295" s="19">
-        <v>7.36</v>
+        <v>7.6</v>
       </c>
       <c r="D295" s="20">
-        <v>62.56</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B296" s="21"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="21"/>
+      <c r="B296" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="C296" s="19">
+        <v>7.36</v>
+      </c>
+      <c r="D296" s="20">
+        <v>62.56</v>
+      </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B297" s="18">
-        <v>16</v>
-      </c>
-      <c r="C297" s="19">
-        <v>8</v>
-      </c>
-      <c r="D297" s="20">
-        <v>128</v>
-      </c>
+      <c r="B297" s="21"/>
+      <c r="C297" s="22"/>
+      <c r="D297" s="21"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
@@ -6274,10 +6283,10 @@
         <v>16</v>
       </c>
       <c r="C298" s="19">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D298" s="20">
-        <v>121.6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6285,13 +6294,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>38.5</v>
+        <v>16</v>
       </c>
       <c r="C299" s="19">
-        <v>8.08</v>
+        <v>7.6</v>
       </c>
       <c r="D299" s="20">
-        <v>311.08</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,49 +6308,49 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="C300" s="19">
-        <v>8.75</v>
+        <v>8.08</v>
       </c>
       <c r="D300" s="20">
-        <v>262.5</v>
+        <v>311.08</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B301" s="21"/>
-      <c r="C301" s="22"/>
-      <c r="D301" s="21"/>
+      <c r="B301" s="18">
+        <v>30</v>
+      </c>
+      <c r="C301" s="19">
+        <v>8.75</v>
+      </c>
+      <c r="D301" s="20">
+        <v>262.5</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B302" s="18">
-        <v>19.5</v>
-      </c>
-      <c r="C302" s="19">
-        <v>8.08</v>
-      </c>
-      <c r="D302" s="20">
-        <v>157.56</v>
-      </c>
+      <c r="B302" s="21"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="21"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
         <v>305</v>
       </c>
       <c r="B303" s="18">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="C303" s="19">
-        <v>9</v>
+        <v>8.08</v>
       </c>
       <c r="D303" s="20">
-        <v>90</v>
+        <v>157.56</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,13 +6358,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="18">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="C304" s="19">
-        <v>8.85</v>
+        <v>9</v>
       </c>
       <c r="D304" s="20">
-        <v>75.23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,13 +6372,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="18">
-        <v>23.5</v>
+        <v>8.5</v>
       </c>
       <c r="C305" s="19">
-        <v>9</v>
+        <v>8.85</v>
       </c>
       <c r="D305" s="20">
-        <v>211.5</v>
+        <v>75.23</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,13 +6386,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="18">
-        <v>-12.5</v>
+        <v>23.5</v>
       </c>
       <c r="C306" s="19">
-        <v>9.4600000000000009</v>
+        <v>9</v>
       </c>
       <c r="D306" s="20">
-        <v>-118.23</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6391,13 +6400,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>22.5</v>
+        <v>-17.5</v>
       </c>
       <c r="C307" s="19">
-        <v>9.25</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D307" s="20">
-        <v>208.13</v>
+        <v>-165.52</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6405,13 +6414,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>56.7</v>
+        <v>22.5</v>
       </c>
       <c r="C308" s="19">
-        <v>8.8000000000000007</v>
+        <v>9.25</v>
       </c>
       <c r="D308" s="20">
-        <v>498.96</v>
+        <v>208.13</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,13 +6428,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>33.5</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C309" s="19">
-        <v>9.31</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D309" s="20">
-        <v>311.97000000000003</v>
+        <v>287.76</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,13 +6442,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="18">
-        <v>14</v>
+        <v>33.5</v>
       </c>
       <c r="C310" s="19">
-        <v>9</v>
+        <v>9.31</v>
       </c>
       <c r="D310" s="20">
-        <v>126</v>
+        <v>311.97000000000003</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,13 +6456,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="C311" s="19">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D311" s="20">
-        <v>90.25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,13 +6470,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="C312" s="19">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D312" s="20">
-        <v>130</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,13 +6484,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C313" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D313" s="20">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,13 +6498,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>50.5</v>
+        <v>9</v>
       </c>
       <c r="C314" s="19">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="D314" s="20">
-        <v>467.13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,13 +6512,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="18">
-        <v>26.5</v>
+        <v>50.5</v>
       </c>
       <c r="C315" s="19">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="D315" s="20">
-        <v>311.38</v>
+        <v>467.13</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6517,13 +6526,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="18">
-        <v>32</v>
+        <v>26.5</v>
       </c>
       <c r="C316" s="19">
-        <v>4.8</v>
+        <v>11.75</v>
       </c>
       <c r="D316" s="20">
-        <v>153.6</v>
+        <v>311.38</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,13 +6540,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="18">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C317" s="19">
-        <v>8.25</v>
+        <v>4.8</v>
       </c>
       <c r="D317" s="20">
-        <v>99</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6545,13 +6554,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="18">
-        <v>91.5</v>
+        <v>12</v>
       </c>
       <c r="C318" s="19">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="D318" s="20">
-        <v>503.25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6559,13 +6568,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="18">
-        <v>60.5</v>
+        <v>91.5</v>
       </c>
       <c r="C319" s="19">
-        <v>6.86</v>
+        <v>5.5</v>
       </c>
       <c r="D319" s="20">
-        <v>415.06</v>
+        <v>503.25</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6573,13 +6582,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="18">
-        <v>60.5</v>
+        <v>54.5</v>
       </c>
       <c r="C320" s="19">
-        <v>6.9</v>
+        <v>6.86</v>
       </c>
       <c r="D320" s="20">
-        <v>417.45</v>
+        <v>373.9</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,13 +6596,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="18">
-        <v>18</v>
+        <v>60.5</v>
       </c>
       <c r="C321" s="19">
-        <v>7.13</v>
+        <v>6.9</v>
       </c>
       <c r="D321" s="20">
-        <v>128.34</v>
+        <v>417.45</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6601,13 +6610,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="18">
-        <v>26.5</v>
+        <v>18</v>
       </c>
       <c r="C322" s="19">
-        <v>8.5</v>
+        <v>7.13</v>
       </c>
       <c r="D322" s="20">
-        <v>225.25</v>
+        <v>128.34</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6615,13 +6624,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="18">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="C323" s="19">
         <v>8.5</v>
       </c>
       <c r="D323" s="20">
-        <v>208.25</v>
+        <v>225.25</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6629,13 +6638,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="18">
-        <v>38.5</v>
+        <v>24.5</v>
       </c>
       <c r="C324" s="19">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D324" s="20">
-        <v>365.75</v>
+        <v>208.25</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6643,13 +6652,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>15.5</v>
+        <v>38.5</v>
       </c>
       <c r="C325" s="19">
-        <v>10.61</v>
+        <v>9.5</v>
       </c>
       <c r="D325" s="20">
-        <v>164.52</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,13 +6666,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>39</v>
+        <v>15.5</v>
       </c>
       <c r="C326" s="19">
-        <v>7.84</v>
+        <v>10.61</v>
       </c>
       <c r="D326" s="20">
-        <v>305.76</v>
+        <v>164.52</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6671,13 +6680,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>8.5</v>
+        <v>39</v>
       </c>
       <c r="C327" s="19">
-        <v>6.9</v>
+        <v>7.84</v>
       </c>
       <c r="D327" s="20">
-        <v>58.65</v>
+        <v>305.76</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6685,71 +6694,71 @@
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="C328" s="19">
-        <v>7.83</v>
+        <v>6.9</v>
       </c>
       <c r="D328" s="20">
-        <v>117.38</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B329" s="21"/>
-      <c r="C329" s="22"/>
-      <c r="D329" s="21"/>
+      <c r="B329" s="18">
+        <v>14</v>
+      </c>
+      <c r="C329" s="19">
+        <v>7.83</v>
+      </c>
+      <c r="D329" s="20">
+        <v>109.55</v>
+      </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B330" s="18">
-        <v>28</v>
-      </c>
-      <c r="C330" s="19">
-        <v>6.51</v>
-      </c>
-      <c r="D330" s="20">
-        <v>182.29</v>
-      </c>
+      <c r="B330" s="21"/>
+      <c r="C330" s="22"/>
+      <c r="D330" s="21"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B331" s="21"/>
-      <c r="C331" s="22"/>
-      <c r="D331" s="21"/>
+      <c r="B331" s="18">
+        <v>28</v>
+      </c>
+      <c r="C331" s="19">
+        <v>6.51</v>
+      </c>
+      <c r="D331" s="20">
+        <v>182.29</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B332" s="18">
-        <v>9</v>
-      </c>
-      <c r="C332" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D332" s="20">
-        <v>44.1</v>
-      </c>
+      <c r="B332" s="21"/>
+      <c r="C332" s="22"/>
+      <c r="D332" s="21"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="17" t="s">
         <v>335</v>
       </c>
       <c r="B333" s="18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C333" s="19">
-        <v>6.65</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D333" s="20">
-        <v>113.05</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,13 +6766,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C334" s="19">
-        <v>7.36</v>
+        <v>6.65</v>
       </c>
       <c r="D334" s="20">
-        <v>198.72</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6771,13 +6780,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="18">
-        <v>30.5</v>
+        <v>27</v>
       </c>
       <c r="C335" s="19">
-        <v>7.6</v>
+        <v>7.36</v>
       </c>
       <c r="D335" s="20">
-        <v>231.8</v>
+        <v>198.72</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6785,13 +6794,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="18">
-        <v>23</v>
+        <v>30.5</v>
       </c>
       <c r="C336" s="19">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="D336" s="20">
-        <v>201.35</v>
+        <v>231.8</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6799,13 +6808,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="18">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C337" s="19">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="D337" s="20">
-        <v>416</v>
+        <v>201.35</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6813,13 +6822,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="18">
-        <v>11.5</v>
+        <v>64</v>
       </c>
       <c r="C338" s="19">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="D338" s="20">
-        <v>195.5</v>
+        <v>416</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6827,13 +6836,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="C339" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D339" s="20">
-        <v>280</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6841,13 +6850,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="18">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="C340" s="19">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="D340" s="20">
-        <v>162.5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,13 +6864,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="18">
-        <v>25.5</v>
+        <v>13</v>
       </c>
       <c r="C341" s="19">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="D341" s="20">
-        <v>312.38</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6869,13 +6878,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="18">
-        <v>4.5</v>
+        <v>25.5</v>
       </c>
       <c r="C342" s="19">
-        <v>16.25</v>
+        <v>12.25</v>
       </c>
       <c r="D342" s="20">
-        <v>73.13</v>
+        <v>312.38</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6883,13 +6892,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="18">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="C343" s="19">
-        <v>11</v>
+        <v>16.25</v>
       </c>
       <c r="D343" s="20">
-        <v>104.5</v>
+        <v>73.13</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6897,13 +6906,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="C344" s="19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D344" s="20">
-        <v>117</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6911,13 +6920,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="18">
-        <v>22.5</v>
+        <v>6.5</v>
       </c>
       <c r="C345" s="19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D345" s="20">
-        <v>225</v>
+        <v>117</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6925,13 +6934,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="C346" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D346" s="20">
-        <v>165</v>
+        <v>225</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,13 +6948,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C347" s="19">
         <v>11</v>
       </c>
       <c r="D347" s="20">
-        <v>330</v>
+        <v>165</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6953,13 +6962,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="18">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C348" s="19">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D348" s="20">
-        <v>273</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6967,13 +6976,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="18">
-        <v>11.49</v>
+        <v>7</v>
       </c>
       <c r="C349" s="19">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D349" s="20">
-        <v>137.88</v>
+        <v>273</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6981,13 +6990,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="18">
-        <v>16.5</v>
+        <v>11.49</v>
       </c>
       <c r="C350" s="19">
         <v>12</v>
       </c>
       <c r="D350" s="20">
-        <v>198</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6995,13 +7004,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>35</v>
+        <v>16.5</v>
       </c>
       <c r="C351" s="19">
-        <v>7.84</v>
+        <v>12</v>
       </c>
       <c r="D351" s="20">
-        <v>274.39999999999998</v>
+        <v>198</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7009,13 +7018,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="18">
-        <v>11.5</v>
+        <v>35</v>
       </c>
       <c r="C352" s="19">
-        <v>11</v>
+        <v>7.84</v>
       </c>
       <c r="D352" s="20">
-        <v>126.5</v>
+        <v>274.39999999999998</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7023,13 +7032,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="18">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C353" s="19">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="D353" s="20">
-        <v>282</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7037,13 +7046,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C354" s="19">
-        <v>14.79</v>
+        <v>23.5</v>
       </c>
       <c r="D354" s="20">
-        <v>295.74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7051,13 +7060,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>4.5</v>
+        <v>20</v>
       </c>
       <c r="C355" s="19">
-        <v>13.5</v>
+        <v>14.79</v>
       </c>
       <c r="D355" s="20">
-        <v>60.75</v>
+        <v>295.74</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7065,13 +7074,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C356" s="19">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="D356" s="20">
-        <v>36.75</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7079,13 +7088,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>43.23</v>
+        <v>3.5</v>
       </c>
       <c r="C357" s="19">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D357" s="20">
-        <v>432.3</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7093,13 +7102,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="18">
-        <v>5.5</v>
+        <v>43.23</v>
       </c>
       <c r="C358" s="19">
         <v>10</v>
       </c>
       <c r="D358" s="20">
-        <v>55</v>
+        <v>432.3</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7107,13 +7116,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="18">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="C359" s="19">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D359" s="20">
-        <v>168</v>
+        <v>55</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7121,13 +7130,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="C360" s="19">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="D360" s="20">
-        <v>128.25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7135,13 +7144,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="18">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
       <c r="C361" s="19">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="D361" s="20">
-        <v>333</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7149,13 +7158,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="18">
-        <v>9.5</v>
+        <v>18.5</v>
       </c>
       <c r="C362" s="19">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="D362" s="20">
-        <v>99.75</v>
+        <v>333</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7163,13 +7172,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>21.5</v>
+        <v>9.5</v>
       </c>
       <c r="C363" s="19">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D363" s="20">
-        <v>204.25</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7177,13 +7186,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="C364" s="19">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="D364" s="20">
-        <v>292.5</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7191,13 +7200,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="C365" s="19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D365" s="20">
-        <v>105</v>
+        <v>292.5</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7205,13 +7214,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="18">
-        <v>25.5</v>
+        <v>10.5</v>
       </c>
       <c r="C366" s="19">
         <v>10</v>
       </c>
       <c r="D366" s="20">
-        <v>255</v>
+        <v>105</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7219,13 +7228,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="18">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="C367" s="19">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D367" s="20">
-        <v>195.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7233,13 +7242,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="18">
-        <v>22.5</v>
+        <v>11.5</v>
       </c>
       <c r="C368" s="19">
-        <v>7.84</v>
+        <v>17</v>
       </c>
       <c r="D368" s="20">
-        <v>176.4</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7247,13 +7256,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="C369" s="19">
-        <v>25</v>
+        <v>7.84</v>
       </c>
       <c r="D369" s="20">
-        <v>487.5</v>
+        <v>160.72</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7261,13 +7270,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="18">
-        <v>3</v>
+        <v>15.5</v>
       </c>
       <c r="C370" s="19">
-        <v>14.2</v>
+        <v>25</v>
       </c>
       <c r="D370" s="20">
-        <v>42.6</v>
+        <v>387.5</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7275,13 +7284,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>34.5</v>
+        <v>3</v>
       </c>
       <c r="C371" s="19">
-        <v>10.93</v>
+        <v>14.2</v>
       </c>
       <c r="D371" s="20">
-        <v>377.09</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7289,13 +7298,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="18">
-        <v>14</v>
+        <v>33.5</v>
       </c>
       <c r="C372" s="19">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="D372" s="20">
-        <v>159.6</v>
+        <v>366.16</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7303,13 +7312,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="18">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="C373" s="19">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="D373" s="20">
-        <v>193.75</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7317,13 +7326,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C374" s="19">
-        <v>21.5</v>
+        <v>12.5</v>
       </c>
       <c r="D374" s="20">
-        <v>129</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7331,13 +7340,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="C375" s="19">
-        <v>12.75</v>
+        <v>21.5</v>
       </c>
       <c r="D375" s="20">
-        <v>172.13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7345,13 +7354,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>25.75</v>
+        <v>13.5</v>
       </c>
       <c r="C376" s="19">
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="D376" s="20">
-        <v>296.13</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7359,13 +7368,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="18">
-        <v>8</v>
+        <v>25.75</v>
       </c>
       <c r="C377" s="19">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="D377" s="20">
-        <v>136</v>
+        <v>296.13</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7373,13 +7382,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>31.5</v>
+        <v>8</v>
       </c>
       <c r="C378" s="19">
-        <v>11.4</v>
+        <v>17</v>
       </c>
       <c r="D378" s="20">
-        <v>359.1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7387,13 +7396,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>13.5</v>
+        <v>31.5</v>
       </c>
       <c r="C379" s="19">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="D379" s="20">
-        <v>195.75</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7401,13 +7410,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="18">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="C380" s="19">
-        <v>22.5</v>
+        <v>14.5</v>
       </c>
       <c r="D380" s="20">
-        <v>371.25</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7415,13 +7424,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="18">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="C381" s="19">
-        <v>12.5</v>
+        <v>22.5</v>
       </c>
       <c r="D381" s="20">
-        <v>162.5</v>
+        <v>371.25</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7429,13 +7438,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C382" s="19">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="D382" s="20">
-        <v>133</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7443,13 +7452,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C383" s="19">
-        <v>10.93</v>
+        <v>9.5</v>
       </c>
       <c r="D383" s="20">
-        <v>240.46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7457,13 +7466,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="18">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="C384" s="19">
         <v>10.93</v>
       </c>
       <c r="D384" s="20">
-        <v>235</v>
+        <v>218.6</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7471,13 +7480,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="18">
-        <v>6.5</v>
+        <v>21.5</v>
       </c>
       <c r="C385" s="19">
-        <v>14.75</v>
+        <v>10.93</v>
       </c>
       <c r="D385" s="20">
-        <v>95.88</v>
+        <v>235</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7485,13 +7494,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="18">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="C386" s="19">
-        <v>10</v>
+        <v>14.75</v>
       </c>
       <c r="D386" s="20">
-        <v>10</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7499,13 +7508,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C387" s="19">
-        <v>10.45</v>
+        <v>10</v>
       </c>
       <c r="D387" s="20">
-        <v>15.68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7513,13 +7522,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="18">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="C388" s="19">
-        <v>10.84</v>
+        <v>10.45</v>
       </c>
       <c r="D388" s="20">
-        <v>2.71</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7527,13 +7536,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="18">
-        <v>32.5</v>
+        <v>0.25</v>
       </c>
       <c r="C389" s="19">
-        <v>2</v>
+        <v>10.84</v>
       </c>
       <c r="D389" s="20">
-        <v>65</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7541,13 +7550,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="18">
-        <v>28</v>
+        <v>32.5</v>
       </c>
       <c r="C390" s="19">
         <v>2</v>
       </c>
       <c r="D390" s="20">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7555,13 +7564,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="18">
-        <v>48.5</v>
+        <v>28</v>
       </c>
       <c r="C391" s="19">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D391" s="20">
-        <v>101.85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7569,44 +7578,50 @@
         <v>394</v>
       </c>
       <c r="B392" s="18">
-        <v>81</v>
+        <v>48.5</v>
       </c>
       <c r="C392" s="19">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D392" s="20">
-        <v>162</v>
+        <v>101.85</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B393" s="21"/>
-      <c r="C393" s="22"/>
-      <c r="D393" s="21"/>
+      <c r="B393" s="18">
+        <v>95</v>
+      </c>
+      <c r="C393" s="19">
+        <v>2</v>
+      </c>
+      <c r="D393" s="20">
+        <v>190</v>
+      </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B394" s="18">
-        <v>53.5</v>
-      </c>
-      <c r="C394" s="19">
-        <v>2</v>
-      </c>
-      <c r="D394" s="20">
-        <v>107</v>
-      </c>
+      <c r="B394" s="21"/>
+      <c r="C394" s="22"/>
+      <c r="D394" s="21"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B395" s="21"/>
-      <c r="C395" s="22"/>
-      <c r="D395" s="21"/>
+      <c r="B395" s="18">
+        <v>53.5</v>
+      </c>
+      <c r="C395" s="19">
+        <v>2</v>
+      </c>
+      <c r="D395" s="20">
+        <v>107</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="17" t="s">
@@ -7620,28 +7635,22 @@
       <c r="A397" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="B397" s="18">
-        <v>14</v>
-      </c>
-      <c r="C397" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D397" s="20">
-        <v>35</v>
-      </c>
+      <c r="B397" s="21"/>
+      <c r="C397" s="22"/>
+      <c r="D397" s="21"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="17" t="s">
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C398" s="19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D398" s="20">
-        <v>150.75</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7649,13 +7658,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>61.5</v>
+        <v>67</v>
       </c>
       <c r="C399" s="19">
         <v>2.25</v>
       </c>
       <c r="D399" s="20">
-        <v>138.38</v>
+        <v>150.75</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7663,13 +7672,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="18">
-        <v>24</v>
+        <v>61.5</v>
       </c>
       <c r="C400" s="19">
         <v>2.25</v>
       </c>
       <c r="D400" s="20">
-        <v>54</v>
+        <v>138.38</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7677,13 +7686,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C401" s="19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="D401" s="20">
-        <v>37.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7691,13 +7700,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="18">
-        <v>55.5</v>
+        <v>15</v>
       </c>
       <c r="C402" s="19">
         <v>2.5</v>
       </c>
       <c r="D402" s="20">
-        <v>138.75</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7705,13 +7714,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="18">
-        <v>8.5</v>
+        <v>55.5</v>
       </c>
       <c r="C403" s="19">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D403" s="20">
-        <v>22.95</v>
+        <v>138.75</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7719,13 +7728,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>72.5</v>
+        <v>23.5</v>
       </c>
       <c r="C404" s="19">
         <v>2.7</v>
       </c>
       <c r="D404" s="20">
-        <v>195.75</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7733,13 +7742,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>57.5</v>
+        <v>72.5</v>
       </c>
       <c r="C405" s="19">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D405" s="20">
-        <v>149.5</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7747,13 +7756,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>72</v>
+        <v>57.5</v>
       </c>
       <c r="C406" s="19">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="D406" s="20">
-        <v>198</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7761,13 +7770,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="18">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C407" s="19">
         <v>2.75</v>
       </c>
       <c r="D407" s="20">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7775,13 +7784,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="18">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C408" s="19">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="D408" s="20">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7789,13 +7798,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>26.5</v>
+        <v>45</v>
       </c>
       <c r="C409" s="19">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D409" s="20">
-        <v>74.2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7803,49 +7812,49 @@
         <v>412</v>
       </c>
       <c r="B410" s="18">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="C410" s="19">
         <v>2.8</v>
       </c>
       <c r="D410" s="20">
-        <v>81.2</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B411" s="21"/>
-      <c r="C411" s="22"/>
-      <c r="D411" s="21"/>
+      <c r="B411" s="18">
+        <v>26</v>
+      </c>
+      <c r="C411" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="D411" s="20">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="B412" s="18">
-        <v>63.5</v>
-      </c>
-      <c r="C412" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="D412" s="20">
-        <v>177.8</v>
-      </c>
+      <c r="B412" s="21"/>
+      <c r="C412" s="22"/>
+      <c r="D412" s="21"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="s">
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="C413" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D413" s="20">
-        <v>126.85</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,13 +7862,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C414" s="19">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="D414" s="20">
-        <v>80.599999999999994</v>
+        <v>126.85</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,13 +7876,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="18">
-        <v>20.5</v>
+        <v>26</v>
       </c>
       <c r="C415" s="19">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="D415" s="20">
-        <v>58.43</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7881,13 +7890,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="18">
-        <v>29.5</v>
+        <v>20.5</v>
       </c>
       <c r="C416" s="19">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="D416" s="20">
-        <v>96.17</v>
+        <v>58.43</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7895,13 +7904,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>41</v>
+        <v>29.5</v>
       </c>
       <c r="C417" s="19">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="D417" s="20">
-        <v>135.30000000000001</v>
+        <v>96.17</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7909,35 +7918,41 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>16.45</v>
+        <v>39</v>
       </c>
       <c r="C418" s="19">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="D418" s="20">
-        <v>51.82</v>
+        <v>128.69999999999999</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="B419" s="21"/>
-      <c r="C419" s="22"/>
-      <c r="D419" s="21"/>
+      <c r="B419" s="18">
+        <v>14.95</v>
+      </c>
+      <c r="C419" s="19">
+        <v>3.15</v>
+      </c>
+      <c r="D419" s="20">
+        <v>47.09</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="17" t="s">
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>11.5</v>
+        <v>62</v>
       </c>
       <c r="C420" s="19">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="D420" s="20">
-        <v>37.380000000000003</v>
+        <v>189.1</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -7945,49 +7960,49 @@
         <v>423</v>
       </c>
       <c r="B421" s="18">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="C421" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D421" s="20">
-        <v>122.5</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="B422" s="21"/>
-      <c r="C422" s="22"/>
-      <c r="D422" s="21"/>
+      <c r="B422" s="18">
+        <v>35</v>
+      </c>
+      <c r="C422" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D422" s="20">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="B423" s="18">
-        <v>44</v>
-      </c>
-      <c r="C423" s="19">
-        <v>3.25</v>
-      </c>
-      <c r="D423" s="20">
-        <v>143</v>
-      </c>
+      <c r="B423" s="21"/>
+      <c r="C423" s="22"/>
+      <c r="D423" s="21"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="17" t="s">
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C424" s="19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="D424" s="20">
-        <v>78.2</v>
+        <v>143</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -7995,13 +8010,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>41.06</v>
+        <v>23</v>
       </c>
       <c r="C425" s="19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D425" s="20">
-        <v>143.71</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8009,13 +8024,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>60.5</v>
+        <v>41.06</v>
       </c>
       <c r="C426" s="19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D426" s="20">
-        <v>229.9</v>
+        <v>143.71</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8023,13 +8038,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>28</v>
+        <v>60.5</v>
       </c>
       <c r="C427" s="19">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D427" s="20">
-        <v>109.2</v>
+        <v>229.9</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8037,13 +8052,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C428" s="19">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="D428" s="20">
-        <v>116.55</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8051,22 +8066,28 @@
         <v>431</v>
       </c>
       <c r="B429" s="18">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C429" s="19">
         <v>3.33</v>
       </c>
       <c r="D429" s="20">
-        <v>189.81</v>
+        <v>116.55</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="B430" s="21"/>
-      <c r="C430" s="22"/>
-      <c r="D430" s="21"/>
+      <c r="B430" s="18">
+        <v>55</v>
+      </c>
+      <c r="C430" s="19">
+        <v>3.33</v>
+      </c>
+      <c r="D430" s="20">
+        <v>183.15</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="s">
@@ -8080,28 +8101,22 @@
       <c r="A432" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="B432" s="18">
-        <v>50.5</v>
-      </c>
-      <c r="C432" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D432" s="20">
-        <v>191.9</v>
-      </c>
+      <c r="B432" s="21"/>
+      <c r="C432" s="22"/>
+      <c r="D432" s="21"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="17" t="s">
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>29</v>
+        <v>50.5</v>
       </c>
       <c r="C433" s="19">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="D433" s="20">
-        <v>123.25</v>
+        <v>191.9</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,13 +8124,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="C434" s="19">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="D434" s="20">
-        <v>108.3</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,13 +8138,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>61.5</v>
+        <v>28.5</v>
       </c>
       <c r="C435" s="19">
-        <v>4.1500000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="D435" s="20">
-        <v>255.26</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,13 +8152,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>12.5</v>
+        <v>61.5</v>
       </c>
       <c r="C436" s="19">
-        <v>4.25</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D436" s="20">
-        <v>53.13</v>
+        <v>255.26</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8151,13 +8166,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C437" s="19">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="D437" s="20">
-        <v>61.75</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8165,13 +8180,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C438" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="D438" s="20">
-        <v>102.9</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8179,13 +8194,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C439" s="19">
-        <v>4.28</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D439" s="20">
-        <v>128.4</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8196,10 +8211,10 @@
         <v>30</v>
       </c>
       <c r="C440" s="19">
-        <v>4.18</v>
+        <v>4.28</v>
       </c>
       <c r="D440" s="20">
-        <v>125.4</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8207,13 +8222,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>56.5</v>
+        <v>30</v>
       </c>
       <c r="C441" s="19">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="D441" s="20">
-        <v>241.82</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,49 +8236,49 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>50</v>
+        <v>56.5</v>
       </c>
       <c r="C442" s="19">
-        <v>4.75</v>
+        <v>4.28</v>
       </c>
       <c r="D442" s="20">
-        <v>237.5</v>
+        <v>241.82</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B443" s="21"/>
-      <c r="C443" s="22"/>
-      <c r="D443" s="21"/>
+      <c r="B443" s="18">
+        <v>50</v>
+      </c>
+      <c r="C443" s="19">
+        <v>4.75</v>
+      </c>
+      <c r="D443" s="20">
+        <v>237.5</v>
+      </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B444" s="18">
-        <v>34</v>
-      </c>
-      <c r="C444" s="19">
-        <v>4.75</v>
-      </c>
-      <c r="D444" s="20">
-        <v>161.5</v>
-      </c>
+      <c r="B444" s="21"/>
+      <c r="C444" s="22"/>
+      <c r="D444" s="21"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>20.5</v>
+        <v>34</v>
       </c>
       <c r="C445" s="19">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="D445" s="20">
-        <v>107.63</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8271,13 +8286,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="18">
-        <v>13</v>
+        <v>20.5</v>
       </c>
       <c r="C446" s="19">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D446" s="20">
-        <v>58.5</v>
+        <v>107.63</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8285,13 +8300,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C447" s="19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D447" s="20">
-        <v>57.75</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8299,13 +8314,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C448" s="19">
-        <v>4.5999999999999996</v>
+        <v>5.25</v>
       </c>
       <c r="D448" s="20">
-        <v>133.4</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8313,13 +8328,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>56.5</v>
+        <v>29</v>
       </c>
       <c r="C449" s="19">
-        <v>5.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D449" s="20">
-        <v>310.75</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8327,13 +8342,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>5.5</v>
+        <v>53</v>
       </c>
       <c r="C450" s="19">
         <v>5.5</v>
       </c>
       <c r="D450" s="20">
-        <v>30.25</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8341,13 +8356,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>29.5</v>
+        <v>5.5</v>
       </c>
       <c r="C451" s="19">
-        <v>5.23</v>
+        <v>5.5</v>
       </c>
       <c r="D451" s="20">
-        <v>154.29</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8355,71 +8370,71 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>10.5</v>
+        <v>29.5</v>
       </c>
       <c r="C452" s="19">
-        <v>6.25</v>
+        <v>5.23</v>
       </c>
       <c r="D452" s="20">
-        <v>65.63</v>
+        <v>154.29</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="B453" s="21"/>
-      <c r="C453" s="22"/>
-      <c r="D453" s="21"/>
+      <c r="B453" s="18">
+        <v>10.5</v>
+      </c>
+      <c r="C453" s="19">
+        <v>6.25</v>
+      </c>
+      <c r="D453" s="20">
+        <v>65.63</v>
+      </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B454" s="18">
-        <v>43</v>
-      </c>
-      <c r="C454" s="19">
-        <v>6</v>
-      </c>
-      <c r="D454" s="20">
-        <v>258</v>
-      </c>
+      <c r="B454" s="21"/>
+      <c r="C454" s="22"/>
+      <c r="D454" s="21"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="B455" s="21"/>
-      <c r="C455" s="22"/>
-      <c r="D455" s="21"/>
+      <c r="B455" s="18">
+        <v>40</v>
+      </c>
+      <c r="C455" s="19">
+        <v>6</v>
+      </c>
+      <c r="D455" s="20">
+        <v>240</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B456" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="C456" s="19">
-        <v>5.94</v>
-      </c>
-      <c r="D456" s="20">
-        <v>121.77</v>
-      </c>
+      <c r="B456" s="21"/>
+      <c r="C456" s="22"/>
+      <c r="D456" s="21"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="C457" s="19">
-        <v>6.75</v>
+        <v>5.94</v>
       </c>
       <c r="D457" s="20">
-        <v>141.75</v>
+        <v>121.77</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8427,13 +8442,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C458" s="19">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="D458" s="20">
-        <v>120</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8441,13 +8456,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="18">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C459" s="19">
-        <v>7.13</v>
+        <v>7.5</v>
       </c>
       <c r="D459" s="20">
-        <v>327.98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8455,13 +8470,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C460" s="19">
-        <v>8</v>
+        <v>7.13</v>
       </c>
       <c r="D460" s="20">
-        <v>192</v>
+        <v>320.85000000000002</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8469,13 +8484,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C461" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D461" s="20">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,13 +8498,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>26.5</v>
+        <v>20</v>
       </c>
       <c r="C462" s="19">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="D462" s="20">
-        <v>201.4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8497,13 +8512,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C463" s="19">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="D463" s="20">
-        <v>365.5</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8511,13 +8526,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>24.5</v>
+        <v>43</v>
       </c>
       <c r="C464" s="19">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D464" s="20">
-        <v>183.75</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8525,49 +8540,49 @@
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>6.5</v>
+        <v>24.5</v>
       </c>
       <c r="C465" s="19">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="D465" s="20">
-        <v>53.63</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="B466" s="21"/>
-      <c r="C466" s="22"/>
-      <c r="D466" s="21"/>
+      <c r="B466" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="C466" s="19">
+        <v>8.25</v>
+      </c>
+      <c r="D466" s="20">
+        <v>53.63</v>
+      </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="B467" s="18">
-        <v>11.5</v>
-      </c>
-      <c r="C467" s="19">
-        <v>9</v>
-      </c>
-      <c r="D467" s="20">
-        <v>103.5</v>
-      </c>
+      <c r="B467" s="21"/>
+      <c r="C467" s="22"/>
+      <c r="D467" s="21"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="C468" s="19">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="D468" s="20">
-        <v>69.38</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8575,13 +8590,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="C469" s="19">
-        <v>4.28</v>
+        <v>3.75</v>
       </c>
       <c r="D469" s="20">
-        <v>102.72</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8589,13 +8604,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>38.5</v>
+        <v>24</v>
       </c>
       <c r="C470" s="19">
-        <v>9.5</v>
+        <v>4.28</v>
       </c>
       <c r="D470" s="20">
-        <v>365.75</v>
+        <v>102.72</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8603,13 +8618,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>35.5</v>
+        <v>38.5</v>
       </c>
       <c r="C471" s="19">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="D471" s="20">
-        <v>159.75</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8617,13 +8632,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>50</v>
+        <v>35.5</v>
       </c>
       <c r="C472" s="19">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D472" s="20">
-        <v>140</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8631,13 +8646,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>39.5</v>
+        <v>50</v>
       </c>
       <c r="C473" s="19">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="D473" s="20">
-        <v>225.15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8645,13 +8660,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>34</v>
+        <v>39.5</v>
       </c>
       <c r="C474" s="19">
-        <v>1.92</v>
+        <v>5.7</v>
       </c>
       <c r="D474" s="20">
-        <v>65.23</v>
+        <v>225.15</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8659,13 +8674,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C475" s="19">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D475" s="20">
-        <v>172.9</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8673,13 +8688,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>13.5</v>
+        <v>91</v>
       </c>
       <c r="C476" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D476" s="20">
-        <v>14.85</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8687,13 +8702,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="C477" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D477" s="20">
-        <v>-1.1000000000000001</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8701,13 +8716,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="C478" s="19">
-        <v>4.1500000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D478" s="20">
-        <v>232.4</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8715,13 +8730,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C479" s="19">
-        <v>1.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D479" s="20">
-        <v>162.4</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8729,13 +8744,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>149.5</v>
+        <v>116</v>
       </c>
       <c r="C480" s="19">
         <v>1.4</v>
       </c>
       <c r="D480" s="20">
-        <v>209.3</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8743,13 +8758,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>82.5</v>
+        <v>149.5</v>
       </c>
       <c r="C481" s="19">
         <v>1.4</v>
       </c>
       <c r="D481" s="20">
-        <v>115.5</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8757,13 +8772,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>21.5</v>
+        <v>82.5</v>
       </c>
       <c r="C482" s="19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D482" s="20">
-        <v>64.5</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8771,13 +8786,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>30.5</v>
+        <v>21.5</v>
       </c>
       <c r="C483" s="19">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="D483" s="20">
-        <v>93.03</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8785,13 +8800,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>28</v>
+        <v>30.5</v>
       </c>
       <c r="C484" s="19">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="D484" s="20">
-        <v>43.4</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8799,13 +8814,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C485" s="19">
         <v>1.55</v>
       </c>
       <c r="D485" s="20">
-        <v>15.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,13 +8828,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="C486" s="19">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="D486" s="20">
-        <v>216.38</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8827,13 +8842,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="C487" s="19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="D487" s="20">
-        <v>144</v>
+        <v>216.38</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8841,13 +8856,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C488" s="19">
         <v>1.5</v>
       </c>
       <c r="D488" s="20">
-        <v>300</v>
+        <v>135</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8855,13 +8870,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>347.5</v>
+        <v>200</v>
       </c>
       <c r="C489" s="19">
         <v>1.5</v>
       </c>
       <c r="D489" s="20">
-        <v>521.25</v>
+        <v>300</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8869,13 +8884,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>82.5</v>
+        <v>346</v>
       </c>
       <c r="C490" s="19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="D490" s="20">
-        <v>141.08000000000001</v>
+        <v>519</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8883,13 +8898,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>128.5</v>
+        <v>82.5</v>
       </c>
       <c r="C491" s="19">
-        <v>0.39</v>
+        <v>1.71</v>
       </c>
       <c r="D491" s="20">
-        <v>50.34</v>
+        <v>141.08000000000001</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8897,13 +8912,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>116</v>
+        <v>128.5</v>
       </c>
       <c r="C492" s="19">
-        <v>2.2799999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="D492" s="20">
-        <v>264.48</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8911,13 +8926,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>40.5</v>
+        <v>105.7</v>
       </c>
       <c r="C493" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D493" s="20">
-        <v>92.34</v>
+        <v>241</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -8925,49 +8940,49 @@
         <v>496</v>
       </c>
       <c r="B494" s="18">
-        <v>28.5</v>
+        <v>39.5</v>
       </c>
       <c r="C494" s="19">
-        <v>2.4700000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D494" s="20">
-        <v>70.400000000000006</v>
+        <v>90.06</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="B495" s="21"/>
-      <c r="C495" s="22"/>
-      <c r="D495" s="21"/>
+      <c r="B495" s="18">
+        <v>24</v>
+      </c>
+      <c r="C495" s="19">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D495" s="20">
+        <v>59.28</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="B496" s="18">
-        <v>19.5</v>
-      </c>
-      <c r="C496" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="D496" s="20">
-        <v>53.63</v>
-      </c>
+      <c r="B496" s="21"/>
+      <c r="C496" s="22"/>
+      <c r="D496" s="21"/>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>71.5</v>
+        <v>19.5</v>
       </c>
       <c r="C497" s="19">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="D497" s="20">
-        <v>195.49</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,13 +8990,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="18">
-        <v>65</v>
+        <v>71.5</v>
       </c>
       <c r="C498" s="19">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="D498" s="20">
-        <v>182</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -8989,13 +9004,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>48.5</v>
+        <v>65</v>
       </c>
       <c r="C499" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D499" s="20">
-        <v>143.08000000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9003,13 +9018,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>40</v>
+        <v>48.5</v>
       </c>
       <c r="C500" s="19">
         <v>2.95</v>
       </c>
       <c r="D500" s="20">
-        <v>118</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9017,13 +9032,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C501" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D501" s="20">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9045,13 +9060,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>57.5</v>
+        <v>30</v>
       </c>
       <c r="C503" s="19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D503" s="20">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9059,49 +9074,49 @@
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>47</v>
+        <v>57.5</v>
       </c>
       <c r="C504" s="19">
         <v>3.2</v>
       </c>
       <c r="D504" s="20">
-        <v>150.4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B505" s="21"/>
-      <c r="C505" s="22"/>
-      <c r="D505" s="21"/>
+      <c r="B505" s="18">
+        <v>47</v>
+      </c>
+      <c r="C505" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="D505" s="20">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B506" s="18">
-        <v>46</v>
-      </c>
-      <c r="C506" s="19">
-        <v>2.85</v>
-      </c>
-      <c r="D506" s="20">
-        <v>131.1</v>
-      </c>
+      <c r="B506" s="21"/>
+      <c r="C506" s="22"/>
+      <c r="D506" s="21"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
         <v>509</v>
       </c>
       <c r="B507" s="18">
-        <v>57.5</v>
+        <v>46</v>
       </c>
       <c r="C507" s="19">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="D507" s="20">
-        <v>186.88</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9109,22 +9124,28 @@
         <v>510</v>
       </c>
       <c r="B508" s="18">
-        <v>46.5</v>
+        <v>57.5</v>
       </c>
       <c r="C508" s="19">
         <v>3.25</v>
       </c>
       <c r="D508" s="20">
-        <v>151.13</v>
+        <v>186.88</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B509" s="21"/>
-      <c r="C509" s="22"/>
-      <c r="D509" s="21"/>
+      <c r="B509" s="18">
+        <v>46.5</v>
+      </c>
+      <c r="C509" s="19">
+        <v>3.25</v>
+      </c>
+      <c r="D509" s="20">
+        <v>151.13</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
@@ -9138,28 +9159,22 @@
       <c r="A511" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="B511" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="C511" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D511" s="20">
-        <v>71.75</v>
-      </c>
+      <c r="B511" s="21"/>
+      <c r="C511" s="22"/>
+      <c r="D511" s="21"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="C512" s="19">
         <v>3.5</v>
       </c>
       <c r="D512" s="20">
-        <v>77</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9167,49 +9182,49 @@
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C513" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D513" s="20">
-        <v>169.83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="B514" s="21"/>
-      <c r="C514" s="22"/>
-      <c r="D514" s="21"/>
+      <c r="B514" s="18">
+        <v>47</v>
+      </c>
+      <c r="C514" s="19">
+        <v>3.33</v>
+      </c>
+      <c r="D514" s="20">
+        <v>156.51</v>
+      </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="B515" s="18">
-        <v>51.5</v>
-      </c>
-      <c r="C515" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="D515" s="20">
-        <v>195.7</v>
-      </c>
+      <c r="B515" s="21"/>
+      <c r="C515" s="22"/>
+      <c r="D515" s="21"/>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>71.5</v>
+        <v>51.5</v>
       </c>
       <c r="C516" s="19">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="D516" s="20">
-        <v>265.52</v>
+        <v>195.7</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9217,71 +9232,71 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>48</v>
+        <v>71.5</v>
       </c>
       <c r="C517" s="19">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="D517" s="20">
-        <v>172.8</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B518" s="21"/>
-      <c r="C518" s="22"/>
-      <c r="D518" s="21"/>
+      <c r="B518" s="18">
+        <v>48</v>
+      </c>
+      <c r="C518" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="D518" s="20">
+        <v>172.8</v>
+      </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B519" s="18">
-        <v>76.5</v>
-      </c>
-      <c r="C519" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="D519" s="20">
-        <v>275.39999999999998</v>
-      </c>
+      <c r="B519" s="21"/>
+      <c r="C519" s="22"/>
+      <c r="D519" s="21"/>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B520" s="21"/>
-      <c r="C520" s="22"/>
-      <c r="D520" s="21"/>
+      <c r="B520" s="18">
+        <v>71.5</v>
+      </c>
+      <c r="C520" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="D520" s="20">
+        <v>257.39999999999998</v>
+      </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="B521" s="18">
-        <v>22.5</v>
-      </c>
-      <c r="C521" s="19">
-        <v>4</v>
-      </c>
-      <c r="D521" s="20">
-        <v>90</v>
-      </c>
+      <c r="B521" s="21"/>
+      <c r="C521" s="22"/>
+      <c r="D521" s="21"/>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C522" s="19">
         <v>4</v>
       </c>
       <c r="D522" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9289,13 +9304,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>41.5</v>
+        <v>22</v>
       </c>
       <c r="C523" s="19">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D523" s="20">
-        <v>159.78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9303,13 +9318,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>17</v>
+        <v>36.5</v>
       </c>
       <c r="C524" s="19">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D524" s="20">
-        <v>68</v>
+        <v>140.53</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9317,13 +9332,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C525" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D525" s="20">
-        <v>133</v>
+        <v>64</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9331,13 +9346,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="C526" s="19">
         <v>3.8</v>
       </c>
       <c r="D526" s="20">
-        <v>138.69999999999999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9345,13 +9360,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>43</v>
+        <v>36.5</v>
       </c>
       <c r="C527" s="19">
-        <v>4.3099999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D527" s="20">
-        <v>185.33</v>
+        <v>138.69999999999999</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9359,13 +9374,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C528" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D528" s="20">
-        <v>110</v>
+        <v>185.33</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9373,13 +9388,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="C529" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D529" s="20">
-        <v>59.4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9387,13 +9402,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="C530" s="19">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D530" s="20">
-        <v>80</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9401,13 +9416,13 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="C531" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D531" s="20">
-        <v>49.88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9415,13 +9430,13 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="C532" s="19">
         <v>4.75</v>
       </c>
       <c r="D532" s="20">
-        <v>133</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9429,13 +9444,13 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>35.5</v>
+        <v>28</v>
       </c>
       <c r="C533" s="19">
         <v>4.75</v>
       </c>
       <c r="D533" s="20">
-        <v>168.63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -9443,13 +9458,13 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>25</v>
+        <v>35.5</v>
       </c>
       <c r="C534" s="19">
         <v>4.75</v>
       </c>
       <c r="D534" s="20">
-        <v>118.75</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9457,13 +9472,13 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="C535" s="19">
         <v>4.75</v>
       </c>
       <c r="D535" s="20">
-        <v>73.63</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9471,13 +9486,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="C536" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D536" s="20">
-        <v>92.5</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9485,13 +9500,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>28.5</v>
+        <v>18.5</v>
       </c>
       <c r="C537" s="19">
         <v>5</v>
       </c>
       <c r="D537" s="20">
-        <v>142.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9499,13 +9514,13 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>18</v>
+        <v>28.5</v>
       </c>
       <c r="C538" s="19">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D538" s="20">
-        <v>94.5</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9513,13 +9528,13 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C539" s="19">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D539" s="20">
-        <v>175</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9527,13 +9542,13 @@
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C540" s="19">
-        <v>5.41</v>
+        <v>5</v>
       </c>
       <c r="D540" s="20">
-        <v>129.78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9541,13 +9556,13 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>6.5</v>
+        <v>24</v>
       </c>
       <c r="C541" s="19">
-        <v>5.5</v>
+        <v>5.41</v>
       </c>
       <c r="D541" s="20">
-        <v>35.75</v>
+        <v>129.78</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9555,13 +9570,13 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>28</v>
+        <v>96.5</v>
       </c>
       <c r="C542" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D542" s="20">
-        <v>161</v>
+        <v>530.75</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9569,13 +9584,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="C543" s="19">
         <v>5.75</v>
       </c>
       <c r="D543" s="20">
-        <v>117.88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9583,13 +9598,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>53</v>
+        <v>19.5</v>
       </c>
       <c r="C544" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D544" s="20">
-        <v>291.5</v>
+        <v>112.13</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9597,13 +9612,13 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>27.5</v>
+        <v>53</v>
       </c>
       <c r="C545" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D545" s="20">
-        <v>158.13</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9611,13 +9626,13 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="C546" s="19">
         <v>5.75</v>
       </c>
       <c r="D546" s="20">
-        <v>163.88</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9625,13 +9640,13 @@
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>47</v>
+        <v>28.5</v>
       </c>
       <c r="C547" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D547" s="20">
-        <v>282</v>
+        <v>163.88</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9639,13 +9654,13 @@
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C548" s="19">
         <v>6</v>
       </c>
       <c r="D548" s="20">
-        <v>54</v>
+        <v>282</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9653,13 +9668,13 @@
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C549" s="19">
         <v>6</v>
       </c>
       <c r="D549" s="20">
-        <v>186</v>
+        <v>54</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9667,49 +9682,49 @@
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>13.5</v>
+        <v>31</v>
       </c>
       <c r="C550" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D550" s="20">
-        <v>94.5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="B551" s="21"/>
-      <c r="C551" s="22"/>
-      <c r="D551" s="21"/>
+      <c r="B551" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="C551" s="19">
+        <v>7</v>
+      </c>
+      <c r="D551" s="20">
+        <v>94.5</v>
+      </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="B552" s="18">
-        <v>34</v>
-      </c>
-      <c r="C552" s="19">
-        <v>7</v>
-      </c>
-      <c r="D552" s="20">
-        <v>238</v>
-      </c>
+      <c r="B552" s="21"/>
+      <c r="C552" s="22"/>
+      <c r="D552" s="21"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
         <v>555</v>
       </c>
       <c r="B553" s="18">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="C553" s="19">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="D553" s="20">
-        <v>126.88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9717,13 +9732,13 @@
         <v>556</v>
       </c>
       <c r="B554" s="18">
-        <v>24.5</v>
+        <v>17.5</v>
       </c>
       <c r="C554" s="19">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="D554" s="20">
-        <v>189.88</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -9731,13 +9746,13 @@
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>11.5</v>
+        <v>24.5</v>
       </c>
       <c r="C555" s="19">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="D555" s="20">
-        <v>92</v>
+        <v>189.88</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -9745,13 +9760,13 @@
         <v>558</v>
       </c>
       <c r="B556" s="18">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C556" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D556" s="20">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -9759,49 +9774,49 @@
         <v>559</v>
       </c>
       <c r="B557" s="18">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="C557" s="19">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="D557" s="20">
-        <v>161.88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="B558" s="21"/>
-      <c r="C558" s="22"/>
-      <c r="D558" s="21"/>
+      <c r="B558" s="18">
+        <v>18.5</v>
+      </c>
+      <c r="C558" s="19">
+        <v>8.75</v>
+      </c>
+      <c r="D558" s="20">
+        <v>161.88</v>
+      </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="B559" s="18">
-        <v>16.5</v>
-      </c>
-      <c r="C559" s="19">
-        <v>11</v>
-      </c>
-      <c r="D559" s="20">
-        <v>181.5</v>
-      </c>
+      <c r="B559" s="21"/>
+      <c r="C559" s="22"/>
+      <c r="D559" s="21"/>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
         <v>562</v>
       </c>
       <c r="B560" s="18">
-        <v>71</v>
+        <v>16.5</v>
       </c>
       <c r="C560" s="19">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="D560" s="20">
-        <v>195.96</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -9809,13 +9824,13 @@
         <v>563</v>
       </c>
       <c r="B561" s="18">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C561" s="19">
         <v>2.76</v>
       </c>
       <c r="D561" s="20">
-        <v>176.64</v>
+        <v>195.96</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -9823,13 +9838,13 @@
         <v>564</v>
       </c>
       <c r="B562" s="18">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C562" s="19">
         <v>2.76</v>
       </c>
       <c r="D562" s="20">
-        <v>256.68</v>
+        <v>176.64</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -9837,13 +9852,13 @@
         <v>565</v>
       </c>
       <c r="B563" s="18">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C563" s="19">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D563" s="20">
-        <v>95.2</v>
+        <v>240.12</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -9851,13 +9866,13 @@
         <v>566</v>
       </c>
       <c r="B564" s="18">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C564" s="19">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="D564" s="20">
-        <v>152.22</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -9865,13 +9880,13 @@
         <v>567</v>
       </c>
       <c r="B565" s="18">
-        <v>40.5</v>
+        <v>53</v>
       </c>
       <c r="C565" s="19">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="D565" s="20">
-        <v>111.78</v>
+        <v>152.22</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -9879,13 +9894,13 @@
         <v>568</v>
       </c>
       <c r="B566" s="18">
-        <v>21</v>
+        <v>40.5</v>
       </c>
       <c r="C566" s="19">
         <v>2.76</v>
       </c>
       <c r="D566" s="20">
-        <v>57.96</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -9893,13 +9908,13 @@
         <v>569</v>
       </c>
       <c r="B567" s="18">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C567" s="19">
         <v>2.76</v>
       </c>
       <c r="D567" s="20">
-        <v>118.68</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -9907,13 +9922,13 @@
         <v>570</v>
       </c>
       <c r="B568" s="18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C568" s="19">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="D568" s="20">
-        <v>105</v>
+        <v>115.92</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -9921,13 +9936,13 @@
         <v>571</v>
       </c>
       <c r="B569" s="18">
-        <v>41.5</v>
+        <v>30</v>
       </c>
       <c r="C569" s="19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D569" s="20">
-        <v>124.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -9935,13 +9950,13 @@
         <v>572</v>
       </c>
       <c r="B570" s="18">
-        <v>69</v>
+        <v>41.5</v>
       </c>
       <c r="C570" s="19">
         <v>3</v>
       </c>
       <c r="D570" s="20">
-        <v>207</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -9949,13 +9964,13 @@
         <v>573</v>
       </c>
       <c r="B571" s="18">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C571" s="19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D571" s="20">
-        <v>114.7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -9963,13 +9978,13 @@
         <v>574</v>
       </c>
       <c r="B572" s="18">
-        <v>7</v>
+        <v>34.5</v>
       </c>
       <c r="C572" s="19">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="D572" s="20">
-        <v>42</v>
+        <v>106.95</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -9977,13 +9992,13 @@
         <v>575</v>
       </c>
       <c r="B573" s="18">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C573" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D573" s="20">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -9991,13 +10006,13 @@
         <v>576</v>
       </c>
       <c r="B574" s="18">
-        <v>24.5</v>
+        <v>37</v>
       </c>
       <c r="C574" s="19">
         <v>4</v>
       </c>
       <c r="D574" s="20">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -10005,13 +10020,13 @@
         <v>577</v>
       </c>
       <c r="B575" s="18">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C575" s="19">
         <v>4</v>
       </c>
       <c r="D575" s="20">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -10019,13 +10034,13 @@
         <v>578</v>
       </c>
       <c r="B576" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C576" s="19">
         <v>4</v>
       </c>
       <c r="D576" s="20">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -10033,13 +10048,13 @@
         <v>579</v>
       </c>
       <c r="B577" s="18">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C577" s="19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="D577" s="20">
-        <v>215.25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10047,13 +10062,13 @@
         <v>580</v>
       </c>
       <c r="B578" s="18">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C578" s="19">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="D578" s="20">
-        <v>120.35</v>
+        <v>215.25</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10061,13 +10076,13 @@
         <v>581</v>
       </c>
       <c r="B579" s="18">
-        <v>244.5</v>
+        <v>22.5</v>
       </c>
       <c r="C579" s="19">
-        <v>1.92</v>
+        <v>5.01</v>
       </c>
       <c r="D579" s="20">
-        <v>469.56</v>
+        <v>112.83</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10075,13 +10090,13 @@
         <v>582</v>
       </c>
       <c r="B580" s="18">
-        <v>-2.5</v>
+        <v>241</v>
       </c>
       <c r="C580" s="19">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="D580" s="20">
-        <v>-4.9000000000000004</v>
+        <v>462.84</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -10089,13 +10104,13 @@
         <v>583</v>
       </c>
       <c r="B581" s="18">
-        <v>239</v>
+        <v>-2.5</v>
       </c>
       <c r="C581" s="19">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="D581" s="20">
-        <v>461.18</v>
+        <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -10103,13 +10118,13 @@
         <v>584</v>
       </c>
       <c r="B582" s="18">
-        <v>108.5</v>
+        <v>239</v>
       </c>
       <c r="C582" s="19">
-        <v>2.84</v>
+        <v>1.93</v>
       </c>
       <c r="D582" s="20">
-        <v>307.91000000000003</v>
+        <v>461.18</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -10117,13 +10132,13 @@
         <v>585</v>
       </c>
       <c r="B583" s="18">
-        <v>0.5</v>
+        <v>108.5</v>
       </c>
       <c r="C583" s="19">
-        <v>4.28</v>
+        <v>2.84</v>
       </c>
       <c r="D583" s="20">
-        <v>2.14</v>
+        <v>307.91000000000003</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10131,13 +10146,13 @@
         <v>586</v>
       </c>
       <c r="B584" s="18">
-        <v>32.5</v>
+        <v>0.5</v>
       </c>
       <c r="C584" s="19">
         <v>4.28</v>
       </c>
       <c r="D584" s="20">
-        <v>139.1</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10145,13 +10160,13 @@
         <v>587</v>
       </c>
       <c r="B585" s="18">
-        <v>56.5</v>
+        <v>32.5</v>
       </c>
       <c r="C585" s="19">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="D585" s="20">
-        <v>228.83</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10159,13 +10174,13 @@
         <v>588</v>
       </c>
       <c r="B586" s="18">
-        <v>69</v>
+        <v>56.5</v>
       </c>
       <c r="C586" s="19">
         <v>4.05</v>
       </c>
       <c r="D586" s="20">
-        <v>279.45</v>
+        <v>228.83</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -10173,13 +10188,13 @@
         <v>589</v>
       </c>
       <c r="B587" s="18">
-        <v>119.5</v>
+        <v>69</v>
       </c>
       <c r="C587" s="19">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="D587" s="20">
-        <v>166.35</v>
+        <v>279.45</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10187,13 +10202,13 @@
         <v>590</v>
       </c>
       <c r="B588" s="18">
-        <v>354.5</v>
+        <v>119.5</v>
       </c>
       <c r="C588" s="19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="D588" s="20">
-        <v>496.3</v>
+        <v>166.35</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -10201,13 +10216,13 @@
         <v>591</v>
       </c>
       <c r="B589" s="18">
-        <v>78.5</v>
+        <v>353.5</v>
       </c>
       <c r="C589" s="19">
         <v>1.4</v>
       </c>
       <c r="D589" s="20">
-        <v>109.9</v>
+        <v>494.9</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -10215,17 +10230,21 @@
         <v>592</v>
       </c>
       <c r="B590" s="18">
-        <v>90</v>
-      </c>
-      <c r="C590" s="22"/>
-      <c r="D590" s="21"/>
+        <v>77.5</v>
+      </c>
+      <c r="C590" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D590" s="20">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="17" t="s">
         <v>593</v>
       </c>
       <c r="B591" s="18">
-        <v>27.5</v>
+        <v>90</v>
       </c>
       <c r="C591" s="22"/>
       <c r="D591" s="21"/>
@@ -10235,7 +10254,7 @@
         <v>594</v>
       </c>
       <c r="B592" s="18">
-        <v>47.5</v>
+        <v>27.5</v>
       </c>
       <c r="C592" s="22"/>
       <c r="D592" s="21"/>
@@ -10245,7 +10264,7 @@
         <v>595</v>
       </c>
       <c r="B593" s="18">
-        <v>3</v>
+        <v>47.5</v>
       </c>
       <c r="C593" s="22"/>
       <c r="D593" s="21"/>
@@ -10255,7 +10274,7 @@
         <v>596</v>
       </c>
       <c r="B594" s="18">
-        <v>470</v>
+        <v>3</v>
       </c>
       <c r="C594" s="22"/>
       <c r="D594" s="21"/>
@@ -10265,27 +10284,23 @@
         <v>597</v>
       </c>
       <c r="B595" s="18">
-        <v>1753.5</v>
-      </c>
-      <c r="C595" s="19">
-        <v>0.83</v>
-      </c>
-      <c r="D595" s="20">
-        <v>1446.64</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C595" s="22"/>
+      <c r="D595" s="21"/>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="17" t="s">
         <v>598</v>
       </c>
       <c r="B596" s="18">
-        <v>614.5</v>
+        <v>1713.5</v>
       </c>
       <c r="C596" s="19">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D596" s="20">
-        <v>491.6</v>
+        <v>1413.64</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10293,13 +10308,13 @@
         <v>599</v>
       </c>
       <c r="B597" s="18">
-        <v>721</v>
+        <v>554.5</v>
       </c>
       <c r="C597" s="19">
         <v>0.8</v>
       </c>
       <c r="D597" s="20">
-        <v>576.79999999999995</v>
+        <v>443.6</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -10307,13 +10322,13 @@
         <v>600</v>
       </c>
       <c r="B598" s="18">
-        <v>463.5</v>
+        <v>661</v>
       </c>
       <c r="C598" s="19">
         <v>0.8</v>
       </c>
       <c r="D598" s="20">
-        <v>370.8</v>
+        <v>528.79999999999995</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -10321,13 +10336,13 @@
         <v>601</v>
       </c>
       <c r="B599" s="18">
-        <v>131</v>
+        <v>403.5</v>
       </c>
       <c r="C599" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D599" s="20">
-        <v>68.12</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -10335,13 +10350,13 @@
         <v>602</v>
       </c>
       <c r="B600" s="18">
-        <v>266</v>
+        <v>128</v>
       </c>
       <c r="C600" s="19">
         <v>0.52</v>
       </c>
       <c r="D600" s="20">
-        <v>138.32</v>
+        <v>66.56</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -10349,13 +10364,13 @@
         <v>603</v>
       </c>
       <c r="B601" s="18">
-        <v>816</v>
+        <v>171</v>
       </c>
       <c r="C601" s="19">
         <v>0.52</v>
       </c>
       <c r="D601" s="20">
-        <v>424.32</v>
+        <v>88.92</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -10363,13 +10378,13 @@
         <v>604</v>
       </c>
       <c r="B602" s="18">
-        <v>910.5</v>
+        <v>729</v>
       </c>
       <c r="C602" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D602" s="20">
-        <v>637.35</v>
+        <v>379.08</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -10377,13 +10392,13 @@
         <v>605</v>
       </c>
       <c r="B603" s="18">
-        <v>-2</v>
+        <v>899.5</v>
       </c>
       <c r="C603" s="19">
         <v>0.7</v>
       </c>
       <c r="D603" s="20">
-        <v>-1.4</v>
+        <v>629.65</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -10391,13 +10406,13 @@
         <v>606</v>
       </c>
       <c r="B604" s="18">
-        <v>404.5</v>
+        <v>-2</v>
       </c>
       <c r="C604" s="19">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D604" s="20">
-        <v>275.87</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -10405,13 +10420,13 @@
         <v>607</v>
       </c>
       <c r="B605" s="18">
-        <v>11</v>
+        <v>324.5</v>
       </c>
       <c r="C605" s="19">
-        <v>4.5</v>
+        <v>0.68</v>
       </c>
       <c r="D605" s="20">
-        <v>49.5</v>
+        <v>221.31</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -10419,53 +10434,87 @@
         <v>608</v>
       </c>
       <c r="B606" s="18">
-        <v>41</v>
-      </c>
-      <c r="C606" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="D606" s="20">
-        <v>184.5</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C606" s="22"/>
+      <c r="D606" s="21"/>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="17" t="s">
         <v>609</v>
       </c>
       <c r="B607" s="18">
-        <v>7</v>
-      </c>
-      <c r="C607" s="19">
-        <v>3</v>
-      </c>
-      <c r="D607" s="20">
-        <v>21</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C607" s="22"/>
+      <c r="D607" s="21"/>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="17" t="s">
         <v>610</v>
       </c>
       <c r="B608" s="18">
+        <v>11</v>
+      </c>
+      <c r="C608" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D608" s="20">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B609" s="18">
+        <v>41</v>
+      </c>
+      <c r="C609" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D609" s="20">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="B610" s="18">
+        <v>7</v>
+      </c>
+      <c r="C610" s="19">
         <v>3</v>
       </c>
-      <c r="C608" s="19">
+      <c r="D610" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B611" s="18">
         <v>3</v>
       </c>
-      <c r="D608" s="20">
+      <c r="C611" s="19">
+        <v>3</v>
+      </c>
+      <c r="D611" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A609" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="B609" s="24">
-        <v>40521.019999999997</v>
-      </c>
-      <c r="C609" s="25"/>
-      <c r="D609" s="26">
-        <v>112722.98</v>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="B612" s="24">
+        <v>39550.720000000001</v>
+      </c>
+      <c r="C612" s="25"/>
+      <c r="D612" s="26">
+        <v>110932.04</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 27-Dec-2024</t>
+    <t>1-Jul-2024 to 28-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -2489,13 +2489,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>123.9</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2503,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>114.5</v>
+        <v>111.5</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>240.45</v>
+        <v>234.15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +2783,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>246.5</v>
+        <v>242.5</v>
       </c>
       <c r="C45" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D45" s="20">
-        <v>271.14999999999998</v>
+        <v>266.75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,13 +2797,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C46" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>411.4</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +2853,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>279.39999999999998</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,13 +3091,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="18">
-        <v>107.5</v>
+        <v>105.5</v>
       </c>
       <c r="C67" s="19">
         <v>0.9</v>
       </c>
       <c r="D67" s="20">
-        <v>96.75</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,13 +3105,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C68" s="19">
         <v>1.55</v>
       </c>
       <c r="D68" s="20">
-        <v>564.20000000000005</v>
+        <v>556.45000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3207,13 +3207,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>487.5</v>
+        <v>484.5</v>
       </c>
       <c r="C77" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D77" s="20">
-        <v>560.63</v>
+        <v>557.17999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,13 +3221,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>466.5</v>
+        <v>463.5</v>
       </c>
       <c r="C78" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D78" s="20">
-        <v>536.48</v>
+        <v>533.03</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,13 +4383,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="18">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C161" s="19">
         <v>3.8</v>
       </c>
       <c r="D161" s="20">
-        <v>349.6</v>
+        <v>334.4</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,13 +4677,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>84.5</v>
+        <v>80.5</v>
       </c>
       <c r="C182" s="19">
         <v>3.8</v>
       </c>
       <c r="D182" s="20">
-        <v>321.10000000000002</v>
+        <v>305.89999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,13 +4719,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="18">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="C185" s="19">
         <v>4.1100000000000003</v>
       </c>
       <c r="D185" s="20">
-        <v>67.84</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,13 +5027,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C207" s="19">
         <v>5.7</v>
       </c>
       <c r="D207" s="20">
-        <v>461.7</v>
+        <v>404.7</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5755,13 +5755,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="C259" s="19">
         <v>7.18</v>
       </c>
       <c r="D259" s="20">
-        <v>161.5</v>
+        <v>147.13999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -7225,13 +7225,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>69.5</v>
+        <v>66</v>
       </c>
       <c r="C364" s="19">
         <v>2.7</v>
       </c>
       <c r="D364" s="20">
-        <v>187.65</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7491,13 +7491,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>38.06</v>
+        <v>37.06</v>
       </c>
       <c r="C383" s="19">
         <v>3.5</v>
       </c>
       <c r="D383" s="20">
-        <v>133.21</v>
+        <v>129.71</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7897,13 +7897,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C412" s="19">
         <v>7.13</v>
       </c>
       <c r="D412" s="20">
-        <v>313.72000000000003</v>
+        <v>306.58999999999997</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8191,13 +8191,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="C433" s="19">
         <v>3</v>
       </c>
       <c r="D433" s="20">
-        <v>64.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8303,13 +8303,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>80.5</v>
+        <v>80</v>
       </c>
       <c r="C441" s="19">
         <v>1.71</v>
       </c>
       <c r="D441" s="20">
-        <v>137.66</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8849,13 +8849,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>46.5</v>
+        <v>34.5</v>
       </c>
       <c r="C480" s="19">
         <v>5</v>
       </c>
       <c r="D480" s="20">
-        <v>232.5</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -9507,13 +9507,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>58.5</v>
+        <v>48.5</v>
       </c>
       <c r="C527" s="19">
         <v>4.05</v>
       </c>
       <c r="D527" s="20">
-        <v>236.93</v>
+        <v>196.43</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9563,13 +9563,13 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>59.5</v>
+        <v>57.5</v>
       </c>
       <c r="C531" s="19">
         <v>1.4</v>
       </c>
       <c r="D531" s="20">
-        <v>83.3</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9641,13 +9641,13 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>551.5</v>
+        <v>550</v>
       </c>
       <c r="C538" s="19">
         <v>0.8</v>
       </c>
       <c r="D538" s="20">
-        <v>441.2</v>
+        <v>440</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9669,13 +9669,13 @@
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>401.5</v>
+        <v>400</v>
       </c>
       <c r="C540" s="19">
         <v>0.8</v>
       </c>
       <c r="D540" s="20">
-        <v>321.2</v>
+        <v>320</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9843,11 +9843,11 @@
         <v>555</v>
       </c>
       <c r="B553" s="24">
-        <v>40226.720000000001</v>
+        <v>40140.720000000001</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="26">
-        <v>111869.13</v>
+        <v>111589.92</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="554">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 28-Dec-2024</t>
+    <t>1-Jul-2024 to 30-Dec-2024</t>
   </si>
   <si>
     <t/>
@@ -1311,12 +1311,6 @@
   </si>
   <si>
     <t>7339 PATRIKA (DC)</t>
-  </si>
-  <si>
-    <t>7340 PATRIKA (ECO 65)</t>
-  </si>
-  <si>
-    <t>7341 PATRIKA (ECO 66)</t>
   </si>
   <si>
     <t>7342 PATRIKA</t>
@@ -2184,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D553"/>
+  <dimension ref="A1:D551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2419,13 +2413,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>118</v>
+        <v>116.5</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2483,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>119.7</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2497,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="18">
-        <v>111.5</v>
+        <v>109.5</v>
       </c>
       <c r="C25" s="19">
         <v>2.1</v>
       </c>
       <c r="D25" s="20">
-        <v>234.15</v>
+        <v>229.95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2511,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="18">
-        <v>60.82</v>
+        <v>58.82</v>
       </c>
       <c r="C26" s="19">
         <v>2.35</v>
       </c>
       <c r="D26" s="20">
-        <v>142.93</v>
+        <v>138.22999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +2525,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>57.37</v>
+        <v>54.37</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>134.82</v>
+        <v>127.77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,13 +2679,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C38" s="19">
         <v>2.85</v>
       </c>
       <c r="D38" s="20">
-        <v>370.5</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,13 +2707,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="18">
-        <v>149.5</v>
+        <v>137.5</v>
       </c>
       <c r="C40" s="19">
         <v>2.25</v>
       </c>
       <c r="D40" s="20">
-        <v>336.38</v>
+        <v>309.38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,13 +2749,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="18">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C43" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D43" s="20">
-        <v>206.8</v>
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,13 +2763,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="18">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="C44" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D44" s="20">
-        <v>327.8</v>
+        <v>228.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +2777,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>242.5</v>
+        <v>166.5</v>
       </c>
       <c r="C45" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D45" s="20">
-        <v>266.75</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,13 +2791,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="C46" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>407</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2825,13 +2819,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>467.5</v>
+        <v>415.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,13 +2833,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="18">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="C49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="20">
-        <v>404.8</v>
+        <v>305.8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +2847,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>275</v>
+        <v>233.2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,13 +2889,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C53" s="19">
         <v>1.9</v>
       </c>
       <c r="D53" s="20">
-        <v>1088.7</v>
+        <v>1086.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,13 +2987,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="18">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C60" s="19">
         <v>2.1</v>
       </c>
       <c r="D60" s="20">
-        <v>739.2</v>
+        <v>741.3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,13 +3001,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="18">
-        <v>436.5</v>
+        <v>434.5</v>
       </c>
       <c r="C61" s="19">
         <v>2.1</v>
       </c>
       <c r="D61" s="20">
-        <v>916.65</v>
+        <v>912.45</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,13 +3071,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="18">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C66" s="19">
         <v>0.9</v>
       </c>
       <c r="D66" s="20">
-        <v>38.700000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3197,7 +3191,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
@@ -3207,13 +3201,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>484.5</v>
+        <v>479.5</v>
       </c>
       <c r="C77" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D77" s="20">
-        <v>557.17999999999995</v>
+        <v>551.42999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,13 +3215,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>463.5</v>
+        <v>459.5</v>
       </c>
       <c r="C78" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D78" s="20">
-        <v>533.03</v>
+        <v>528.42999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,13 +3229,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C79" s="19">
         <v>1.4</v>
       </c>
       <c r="D79" s="20">
-        <v>771.4</v>
+        <v>768.6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,13 +3243,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="C80" s="19">
         <v>1.4</v>
       </c>
       <c r="D80" s="20">
-        <v>45.5</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,13 +3257,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>35</v>
+        <v>26.5</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>49</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3277,13 +3271,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="18">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C82" s="19">
         <v>2</v>
       </c>
       <c r="D82" s="20">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,13 +3299,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="18">
-        <v>467.5</v>
+        <v>462.5</v>
       </c>
       <c r="C84" s="19">
         <v>1.26</v>
       </c>
       <c r="D84" s="20">
-        <v>589.04999999999995</v>
+        <v>582.75</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,13 +3313,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C85" s="19">
         <v>1.26</v>
       </c>
       <c r="D85" s="20">
-        <v>608.58000000000004</v>
+        <v>580.86</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3445,13 +3439,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C94" s="19">
         <v>12.5</v>
       </c>
       <c r="D94" s="20">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,13 +3453,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C95" s="19">
         <v>12.5</v>
       </c>
       <c r="D95" s="20">
-        <v>487.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3543,13 +3537,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>231.25</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,13 +3565,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C103" s="19">
         <v>15.5</v>
       </c>
       <c r="D103" s="20">
-        <v>139.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,13 +3859,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C124" s="19">
         <v>18.37</v>
       </c>
       <c r="D124" s="20">
-        <v>73.48</v>
+        <v>91.85</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,13 +3887,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="18">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="C126" s="19">
         <v>18.34</v>
       </c>
       <c r="D126" s="20">
-        <v>165.08</v>
+        <v>155.91</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,13 +3985,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C133" s="19">
         <v>2.8</v>
       </c>
       <c r="D133" s="20">
-        <v>86.8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4047,13 +4041,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>66.5</v>
+        <v>62.5</v>
       </c>
       <c r="C137" s="19">
         <v>3.4</v>
       </c>
       <c r="D137" s="20">
-        <v>226.1</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4089,13 +4083,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>84.5</v>
+        <v>80.5</v>
       </c>
       <c r="C140" s="19">
         <v>2.8</v>
       </c>
       <c r="D140" s="20">
-        <v>236.6</v>
+        <v>225.4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,13 +4181,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="18">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C147" s="19">
         <v>2.95</v>
       </c>
       <c r="D147" s="20">
-        <v>188.8</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,13 +4223,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="18">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C150" s="19">
         <v>3.3</v>
       </c>
       <c r="D150" s="20">
-        <v>376.2</v>
+        <v>369.6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,13 +4251,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="C152" s="19">
         <v>3.5</v>
       </c>
       <c r="D152" s="20">
-        <v>127.75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4397,13 +4391,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="18">
-        <v>159.5</v>
+        <v>158.5</v>
       </c>
       <c r="C162" s="19">
         <v>3</v>
       </c>
       <c r="D162" s="20">
-        <v>478.5</v>
+        <v>475.5</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,13 +4405,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="18">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C163" s="19">
         <v>4.5</v>
       </c>
       <c r="D163" s="20">
-        <v>648</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,13 +4601,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="18">
-        <v>17.739999999999998</v>
+        <v>7.74</v>
       </c>
       <c r="C177" s="19">
         <v>3.14</v>
       </c>
       <c r="D177" s="20">
-        <v>55.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,13 +4671,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>80.5</v>
+        <v>88.5</v>
       </c>
       <c r="C182" s="19">
         <v>3.8</v>
       </c>
       <c r="D182" s="20">
-        <v>305.89999999999998</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,13 +4713,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="18">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C185" s="19">
         <v>4.1100000000000003</v>
       </c>
       <c r="D185" s="20">
-        <v>61.68</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,13 +4727,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="18">
-        <v>58.5</v>
+        <v>52</v>
       </c>
       <c r="C186" s="19">
         <v>4.12</v>
       </c>
       <c r="D186" s="20">
-        <v>240.83</v>
+        <v>214.07</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,13 +4825,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="18">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C193" s="19">
         <v>4.5</v>
       </c>
       <c r="D193" s="20">
-        <v>1125</v>
+        <v>1102.5</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,13 +4839,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="18">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C194" s="19">
         <v>4.5</v>
       </c>
       <c r="D194" s="20">
-        <v>841.5</v>
+        <v>823.5</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,13 +5007,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="C206" s="19">
         <v>6</v>
       </c>
       <c r="D206" s="20">
-        <v>-36</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,13 +5021,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C207" s="19">
         <v>5.7</v>
       </c>
       <c r="D207" s="20">
-        <v>404.7</v>
+        <v>364.8</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,13 +5063,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C210" s="19">
         <v>6.75</v>
       </c>
       <c r="D210" s="20">
-        <v>519.75</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,13 +5077,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>156.5</v>
+        <v>153.5</v>
       </c>
       <c r="C211" s="19">
         <v>5.97</v>
       </c>
       <c r="D211" s="20">
-        <v>935.07</v>
+        <v>917.15</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,13 +5091,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>44.5</v>
+        <v>42.5</v>
       </c>
       <c r="C212" s="19">
         <v>4.26</v>
       </c>
       <c r="D212" s="20">
-        <v>189.57</v>
+        <v>181.05</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,13 +5133,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="18">
-        <v>89.5</v>
+        <v>83</v>
       </c>
       <c r="C215" s="19">
         <v>4.5</v>
       </c>
       <c r="D215" s="20">
-        <v>402.75</v>
+        <v>373.5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,13 +5343,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="C230" s="19">
         <v>5</v>
       </c>
       <c r="D230" s="20">
-        <v>165</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,13 +5539,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C244" s="19">
         <v>5.94</v>
       </c>
       <c r="D244" s="20">
-        <v>362.34</v>
+        <v>332.64</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5587,13 +5581,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C247" s="19">
         <v>5.94</v>
       </c>
       <c r="D247" s="20">
-        <v>326.7</v>
+        <v>302.94</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5629,13 +5623,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="C250" s="19">
         <v>6.18</v>
       </c>
       <c r="D250" s="20">
-        <v>101.97</v>
+        <v>114.33</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5643,13 +5637,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C251" s="19">
         <v>6.18</v>
       </c>
       <c r="D251" s="20">
-        <v>302.82</v>
+        <v>296.64</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5755,13 +5749,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="C259" s="19">
         <v>7.18</v>
       </c>
       <c r="D259" s="20">
-        <v>147.13999999999999</v>
+        <v>139.97</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,13 +5931,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="18">
-        <v>-12.5</v>
+        <v>44.5</v>
       </c>
       <c r="C272" s="19">
-        <v>9.4600000000000009</v>
+        <v>9.16</v>
       </c>
       <c r="D272" s="20">
-        <v>-118.23</v>
+        <v>407.7</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5965,13 +5959,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="18">
-        <v>21.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C274" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D274" s="20">
-        <v>190.96</v>
+        <v>322.95999999999998</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6007,13 +6001,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="18">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="C277" s="19">
         <v>9.5</v>
       </c>
       <c r="D277" s="20">
-        <v>90.25</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6049,13 +6043,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="18">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="C280" s="19">
         <v>9.25</v>
       </c>
       <c r="D280" s="20">
-        <v>467.13</v>
+        <v>457.88</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6105,13 +6099,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="18">
-        <v>79.5</v>
+        <v>85.5</v>
       </c>
       <c r="C284" s="19">
         <v>5.5</v>
       </c>
       <c r="D284" s="20">
-        <v>437.25</v>
+        <v>470.25</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6133,13 +6127,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="18">
-        <v>60.5</v>
+        <v>59.5</v>
       </c>
       <c r="C286" s="19">
         <v>6.9</v>
       </c>
       <c r="D286" s="20">
-        <v>417.45</v>
+        <v>410.55</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6427,13 +6421,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C307" s="19">
         <v>18</v>
       </c>
       <c r="D307" s="20">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6441,13 +6435,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="C308" s="19">
         <v>10</v>
       </c>
       <c r="D308" s="20">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6455,13 +6449,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C309" s="19">
         <v>11</v>
       </c>
       <c r="D309" s="20">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6497,13 +6491,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>9.49</v>
+        <v>6.49</v>
       </c>
       <c r="C312" s="19">
         <v>12</v>
       </c>
       <c r="D312" s="20">
-        <v>113.88</v>
+        <v>77.88</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,13 +6519,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>27</v>
+        <v>20.5</v>
       </c>
       <c r="C314" s="19">
         <v>7.84</v>
       </c>
       <c r="D314" s="20">
-        <v>211.68</v>
+        <v>160.72</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6777,13 +6771,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="C332" s="19">
         <v>25</v>
       </c>
       <c r="D332" s="20">
-        <v>437.5</v>
+        <v>387.5</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6875,13 +6869,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>25.75</v>
+        <v>23.75</v>
       </c>
       <c r="C339" s="19">
         <v>11.5</v>
       </c>
       <c r="D339" s="20">
-        <v>296.13</v>
+        <v>273.13</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6973,13 +6967,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="C346" s="19">
         <v>10.93</v>
       </c>
       <c r="D346" s="20">
-        <v>202.21</v>
+        <v>174.88</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7057,13 +7051,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="18">
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="C352" s="19">
         <v>2</v>
       </c>
       <c r="D352" s="20">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7099,13 +7093,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C355" s="19">
         <v>2</v>
       </c>
       <c r="D355" s="20">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7267,13 +7261,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="18">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C367" s="19">
         <v>2.75</v>
       </c>
       <c r="D367" s="20">
-        <v>220</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7323,13 +7317,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C371" s="19">
         <v>2.8</v>
       </c>
       <c r="D371" s="20">
-        <v>92.4</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7435,13 +7429,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="C379" s="19">
         <v>3.25</v>
       </c>
       <c r="D379" s="20">
-        <v>27.63</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7477,13 +7471,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="C382" s="19">
         <v>3.4</v>
       </c>
       <c r="D382" s="20">
-        <v>71.400000000000006</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7491,13 +7485,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>37.06</v>
+        <v>37.56</v>
       </c>
       <c r="C383" s="19">
         <v>3.5</v>
       </c>
       <c r="D383" s="20">
-        <v>129.71</v>
+        <v>131.46</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7505,13 +7499,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="18">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="C384" s="19">
         <v>3.8</v>
       </c>
       <c r="D384" s="20">
-        <v>229.9</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7603,13 +7597,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="18">
-        <v>59.5</v>
+        <v>53.5</v>
       </c>
       <c r="C391" s="19">
         <v>4.1500000000000004</v>
       </c>
       <c r="D391" s="20">
-        <v>246.95</v>
+        <v>222.05</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7701,13 +7695,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>47</v>
+        <v>48.5</v>
       </c>
       <c r="C398" s="19">
         <v>4.75</v>
       </c>
       <c r="D398" s="20">
-        <v>223.25</v>
+        <v>230.38</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7729,13 +7723,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="18">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="C400" s="19">
         <v>5.25</v>
       </c>
       <c r="D400" s="20">
-        <v>76.13</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,13 +7877,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="18">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="C411" s="19">
         <v>7.5</v>
       </c>
       <c r="D411" s="20">
-        <v>105</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7897,13 +7891,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C412" s="19">
         <v>7.13</v>
       </c>
       <c r="D412" s="20">
-        <v>306.58999999999997</v>
+        <v>278.07</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8065,13 +8059,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="C424" s="19">
         <v>5.7</v>
       </c>
       <c r="D424" s="20">
-        <v>225.15</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8107,13 +8101,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>2.5</v>
+        <v>56</v>
       </c>
       <c r="C427" s="19">
-        <v>1.1000000000000001</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D427" s="20">
-        <v>2.75</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8121,13 +8115,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>-2</v>
+        <v>116</v>
       </c>
       <c r="C428" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="D428" s="20">
-        <v>-2.2000000000000002</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8135,13 +8129,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="18">
-        <v>56</v>
+        <v>149.5</v>
       </c>
       <c r="C429" s="19">
-        <v>4.1500000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="D429" s="20">
-        <v>232.4</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8149,13 +8143,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="18">
-        <v>116</v>
+        <v>82.5</v>
       </c>
       <c r="C430" s="19">
         <v>1.4</v>
       </c>
       <c r="D430" s="20">
-        <v>162.4</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8163,13 +8157,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="18">
-        <v>149.5</v>
+        <v>20</v>
       </c>
       <c r="C431" s="19">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="D431" s="20">
-        <v>209.3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8177,13 +8171,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>82.5</v>
+        <v>30.5</v>
       </c>
       <c r="C432" s="19">
-        <v>1.4</v>
+        <v>3.05</v>
       </c>
       <c r="D432" s="20">
-        <v>115.5</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8191,13 +8185,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C433" s="19">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="D433" s="20">
-        <v>60</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8205,13 +8199,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>30.5</v>
+        <v>8</v>
       </c>
       <c r="C434" s="19">
-        <v>3.05</v>
+        <v>1.55</v>
       </c>
       <c r="D434" s="20">
-        <v>93.03</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8219,13 +8213,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C435" s="19">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="D435" s="20">
-        <v>43.4</v>
+        <v>216.38</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8233,13 +8227,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C436" s="19">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="D436" s="20">
-        <v>9.3000000000000007</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8247,13 +8241,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C437" s="19">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="D437" s="20">
-        <v>216.38</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8261,13 +8255,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>90</v>
+        <v>346</v>
       </c>
       <c r="C438" s="19">
         <v>1.5</v>
       </c>
       <c r="D438" s="20">
-        <v>135</v>
+        <v>519</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8275,13 +8269,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="C439" s="19">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="D439" s="20">
-        <v>288</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8289,13 +8283,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="18">
-        <v>346</v>
+        <v>128.5</v>
       </c>
       <c r="C440" s="19">
-        <v>1.5</v>
+        <v>0.39</v>
       </c>
       <c r="D440" s="20">
-        <v>519</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8303,13 +8297,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>80</v>
+        <v>92.7</v>
       </c>
       <c r="C441" s="19">
-        <v>1.71</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D441" s="20">
-        <v>136.80000000000001</v>
+        <v>211.36</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8317,13 +8311,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>128.5</v>
+        <v>39.5</v>
       </c>
       <c r="C442" s="19">
-        <v>0.39</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D442" s="20">
-        <v>50.34</v>
+        <v>90.06</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8331,13 +8325,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="18">
-        <v>102.2</v>
+        <v>22</v>
       </c>
       <c r="C443" s="19">
-        <v>2.2799999999999998</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D443" s="20">
-        <v>233.02</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8345,13 +8339,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>39.5</v>
+        <v>19.5</v>
       </c>
       <c r="C444" s="19">
-        <v>2.2799999999999998</v>
+        <v>2.75</v>
       </c>
       <c r="D444" s="20">
-        <v>90.06</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8359,13 +8353,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>20.5</v>
+        <v>71.5</v>
       </c>
       <c r="C445" s="19">
-        <v>2.4700000000000002</v>
+        <v>2.73</v>
       </c>
       <c r="D445" s="20">
-        <v>50.64</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8373,13 +8367,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="18">
-        <v>19.5</v>
+        <v>117.5</v>
       </c>
       <c r="C446" s="19">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="D446" s="20">
-        <v>53.63</v>
+        <v>329</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8387,13 +8381,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>71.5</v>
+        <v>48.5</v>
       </c>
       <c r="C447" s="19">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="D447" s="20">
-        <v>195.49</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8401,13 +8395,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>121.5</v>
+        <v>40</v>
       </c>
       <c r="C448" s="19">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="D448" s="20">
-        <v>340.2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8415,13 +8409,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>48.5</v>
+        <v>30</v>
       </c>
       <c r="C449" s="19">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="D449" s="20">
-        <v>143.08000000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8429,13 +8423,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C450" s="19">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="D450" s="20">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8443,13 +8437,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>30</v>
+        <v>57.5</v>
       </c>
       <c r="C451" s="19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D451" s="20">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,13 +8451,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C452" s="19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D452" s="20">
-        <v>105</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8471,13 +8465,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>57.5</v>
+        <v>46</v>
       </c>
       <c r="C453" s="19">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="D453" s="20">
-        <v>184</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8485,13 +8479,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>46</v>
+        <v>56.5</v>
       </c>
       <c r="C454" s="19">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="D454" s="20">
-        <v>147.19999999999999</v>
+        <v>183.63</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8499,13 +8493,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>46</v>
+        <v>46.5</v>
       </c>
       <c r="C455" s="19">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="D455" s="20">
-        <v>131.1</v>
+        <v>151.13</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8513,13 +8507,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>56.5</v>
+        <v>11</v>
       </c>
       <c r="C456" s="19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D456" s="20">
-        <v>183.63</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8527,13 +8521,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>46.5</v>
+        <v>22</v>
       </c>
       <c r="C457" s="19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D457" s="20">
-        <v>151.13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8541,13 +8535,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>13</v>
+        <v>41.5</v>
       </c>
       <c r="C458" s="19">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="D458" s="20">
-        <v>45.5</v>
+        <v>138.19999999999999</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8555,13 +8549,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="18">
-        <v>22</v>
+        <v>51.5</v>
       </c>
       <c r="C459" s="19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D459" s="20">
-        <v>77</v>
+        <v>195.7</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8569,13 +8563,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>40</v>
+        <v>71.5</v>
       </c>
       <c r="C460" s="19">
-        <v>3.33</v>
+        <v>3.71</v>
       </c>
       <c r="D460" s="20">
-        <v>133.19999999999999</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8583,13 +8577,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>51.5</v>
+        <v>46</v>
       </c>
       <c r="C461" s="19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D461" s="20">
-        <v>195.7</v>
+        <v>165.6</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8600,10 +8594,10 @@
         <v>71.5</v>
       </c>
       <c r="C462" s="19">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="D462" s="20">
-        <v>265.52</v>
+        <v>257.39999999999998</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8611,13 +8605,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>46</v>
+        <v>22.5</v>
       </c>
       <c r="C463" s="19">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D463" s="20">
-        <v>165.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8625,13 +8619,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>71.5</v>
+        <v>22</v>
       </c>
       <c r="C464" s="19">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D464" s="20">
-        <v>257.39999999999998</v>
+        <v>88</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8639,13 +8633,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>22.5</v>
+        <v>36.5</v>
       </c>
       <c r="C465" s="19">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D465" s="20">
-        <v>90</v>
+        <v>140.53</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8653,13 +8647,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C466" s="19">
         <v>4</v>
       </c>
       <c r="D466" s="20">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8667,13 +8661,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>36.5</v>
+        <v>34</v>
       </c>
       <c r="C467" s="19">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="D467" s="20">
-        <v>140.53</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8681,13 +8675,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>15</v>
+        <v>35.5</v>
       </c>
       <c r="C468" s="19">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D468" s="20">
-        <v>60</v>
+        <v>134.9</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8695,13 +8689,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C469" s="19">
-        <v>3.8</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D469" s="20">
-        <v>129.19999999999999</v>
+        <v>185.33</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8709,13 +8703,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>36.5</v>
+        <v>23</v>
       </c>
       <c r="C470" s="19">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D470" s="20">
-        <v>138.69999999999999</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8723,13 +8717,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>43</v>
+        <v>13.5</v>
       </c>
       <c r="C471" s="19">
-        <v>4.3099999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D471" s="20">
-        <v>185.33</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8737,13 +8731,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C472" s="19">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D472" s="20">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8751,13 +8745,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="C473" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="D473" s="20">
-        <v>59.4</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8765,13 +8759,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C474" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D474" s="20">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8779,13 +8773,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>10.5</v>
+        <v>35.5</v>
       </c>
       <c r="C475" s="19">
         <v>4.75</v>
       </c>
       <c r="D475" s="20">
-        <v>49.88</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8793,13 +8787,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C476" s="19">
         <v>4.75</v>
       </c>
       <c r="D476" s="20">
-        <v>133</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8807,13 +8801,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>35.5</v>
+        <v>10.5</v>
       </c>
       <c r="C477" s="19">
         <v>4.75</v>
       </c>
       <c r="D477" s="20">
-        <v>168.63</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8821,13 +8815,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>25</v>
+        <v>46.5</v>
       </c>
       <c r="C478" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D478" s="20">
-        <v>118.75</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8835,13 +8829,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>15.5</v>
+        <v>28.5</v>
       </c>
       <c r="C479" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D479" s="20">
-        <v>73.63</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8849,13 +8843,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>34.5</v>
+        <v>18</v>
       </c>
       <c r="C480" s="19">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D480" s="20">
-        <v>172.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8863,13 +8857,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>28.5</v>
+        <v>35</v>
       </c>
       <c r="C481" s="19">
         <v>5</v>
       </c>
       <c r="D481" s="20">
-        <v>142.5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8877,13 +8871,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C482" s="19">
-        <v>5.25</v>
+        <v>5.41</v>
       </c>
       <c r="D482" s="20">
-        <v>94.5</v>
+        <v>113.56</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8891,13 +8885,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>35</v>
+        <v>96.5</v>
       </c>
       <c r="C483" s="19">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D483" s="20">
-        <v>175</v>
+        <v>530.75</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8908,10 +8902,10 @@
         <v>24</v>
       </c>
       <c r="C484" s="19">
-        <v>5.41</v>
+        <v>5.75</v>
       </c>
       <c r="D484" s="20">
-        <v>129.78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8919,13 +8913,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>96.5</v>
+        <v>19.5</v>
       </c>
       <c r="C485" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D485" s="20">
-        <v>530.75</v>
+        <v>112.13</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8933,13 +8927,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C486" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D486" s="20">
-        <v>138</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8947,13 +8941,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>19.5</v>
+        <v>27.5</v>
       </c>
       <c r="C487" s="19">
         <v>5.75</v>
       </c>
       <c r="D487" s="20">
-        <v>112.13</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,13 +8955,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>53</v>
+        <v>28.5</v>
       </c>
       <c r="C488" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D488" s="20">
-        <v>291.5</v>
+        <v>163.88</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,13 +8969,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>27.5</v>
+        <v>47</v>
       </c>
       <c r="C489" s="19">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D489" s="20">
-        <v>158.13</v>
+        <v>282</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8989,13 +8983,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>28.5</v>
+        <v>7</v>
       </c>
       <c r="C490" s="19">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D490" s="20">
-        <v>163.88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9003,13 +8997,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C491" s="19">
         <v>6</v>
       </c>
       <c r="D491" s="20">
-        <v>282</v>
+        <v>186</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9017,13 +9011,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="C492" s="19">
         <v>7</v>
       </c>
-      <c r="C492" s="19">
-        <v>6</v>
-      </c>
       <c r="D492" s="20">
-        <v>42</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9031,13 +9025,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C493" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D493" s="20">
-        <v>186</v>
+        <v>238</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9045,13 +9039,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="18">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="C494" s="19">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="D494" s="20">
-        <v>94.5</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9059,13 +9053,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>34</v>
+        <v>24.5</v>
       </c>
       <c r="C495" s="19">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="D495" s="20">
-        <v>238</v>
+        <v>189.88</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9073,13 +9067,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="C496" s="19">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="D496" s="20">
-        <v>126.88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9087,13 +9081,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>24.5</v>
+        <v>7</v>
       </c>
       <c r="C497" s="19">
-        <v>7.75</v>
+        <v>10</v>
       </c>
       <c r="D497" s="20">
-        <v>189.88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9101,13 +9095,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="18">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="C498" s="19">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="D498" s="20">
-        <v>92</v>
+        <v>161.88</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9115,13 +9109,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="C499" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D499" s="20">
-        <v>70</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9129,13 +9123,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>18.5</v>
+        <v>71</v>
       </c>
       <c r="C500" s="19">
-        <v>8.75</v>
+        <v>2.76</v>
       </c>
       <c r="D500" s="20">
-        <v>161.88</v>
+        <v>195.96</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9143,13 +9137,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>16.5</v>
+        <v>61</v>
       </c>
       <c r="C501" s="19">
-        <v>11</v>
+        <v>2.76</v>
       </c>
       <c r="D501" s="20">
-        <v>181.5</v>
+        <v>168.36</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9157,13 +9151,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C502" s="19">
         <v>2.76</v>
       </c>
       <c r="D502" s="20">
-        <v>195.96</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9171,13 +9165,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C503" s="19">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="D503" s="20">
-        <v>168.36</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9185,13 +9179,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>87</v>
+        <v>48.5</v>
       </c>
       <c r="C504" s="19">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="D504" s="20">
-        <v>240.12</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9199,13 +9193,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>34</v>
+        <v>40.5</v>
       </c>
       <c r="C505" s="19">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D505" s="20">
-        <v>95.2</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9213,13 +9207,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="18">
-        <v>48.5</v>
+        <v>21</v>
       </c>
       <c r="C506" s="19">
-        <v>2.87</v>
+        <v>2.76</v>
       </c>
       <c r="D506" s="20">
-        <v>139.29</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9227,13 +9221,13 @@
         <v>509</v>
       </c>
       <c r="B507" s="18">
-        <v>40.5</v>
+        <v>43</v>
       </c>
       <c r="C507" s="19">
         <v>2.76</v>
       </c>
       <c r="D507" s="20">
-        <v>111.78</v>
+        <v>118.68</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9241,13 +9235,13 @@
         <v>510</v>
       </c>
       <c r="B508" s="18">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C508" s="19">
-        <v>2.76</v>
+        <v>3.5</v>
       </c>
       <c r="D508" s="20">
-        <v>57.96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9255,13 +9249,13 @@
         <v>511</v>
       </c>
       <c r="B509" s="18">
-        <v>43</v>
+        <v>41.5</v>
       </c>
       <c r="C509" s="19">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="D509" s="20">
-        <v>118.68</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9269,13 +9263,13 @@
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>30</v>
+        <v>66.5</v>
       </c>
       <c r="C510" s="19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D510" s="20">
-        <v>105</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9283,13 +9277,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>41.5</v>
+        <v>26.5</v>
       </c>
       <c r="C511" s="19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D511" s="20">
-        <v>124.5</v>
+        <v>82.15</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9297,13 +9291,13 @@
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C512" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D512" s="20">
-        <v>204</v>
+        <v>42</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9311,13 +9305,13 @@
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>25.5</v>
+        <v>37</v>
       </c>
       <c r="C513" s="19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D513" s="20">
-        <v>79.05</v>
+        <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9325,13 +9319,13 @@
         <v>516</v>
       </c>
       <c r="B514" s="18">
-        <v>7</v>
+        <v>24.5</v>
       </c>
       <c r="C514" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D514" s="20">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9339,13 +9333,13 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C515" s="19">
         <v>4</v>
       </c>
       <c r="D515" s="20">
-        <v>148</v>
+        <v>96</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9353,13 +9347,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>24.5</v>
+        <v>20</v>
       </c>
       <c r="C516" s="19">
         <v>4</v>
       </c>
       <c r="D516" s="20">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9367,13 +9361,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C517" s="19">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="D517" s="20">
-        <v>96</v>
+        <v>215.25</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9381,13 +9375,13 @@
         <v>520</v>
       </c>
       <c r="B518" s="18">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="C518" s="19">
-        <v>4</v>
+        <v>5.01</v>
       </c>
       <c r="D518" s="20">
-        <v>80</v>
+        <v>112.83</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9395,13 +9389,13 @@
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="C519" s="19">
-        <v>5.25</v>
+        <v>1.92</v>
       </c>
       <c r="D519" s="20">
-        <v>215.25</v>
+        <v>462.84</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9409,13 +9403,13 @@
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>22.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C520" s="19">
-        <v>5.01</v>
+        <v>1.96</v>
       </c>
       <c r="D520" s="20">
-        <v>112.83</v>
+        <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9423,13 +9417,13 @@
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C521" s="19">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="D521" s="20">
-        <v>462.84</v>
+        <v>457.32</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9437,13 +9431,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>-2.5</v>
+        <v>100.5</v>
       </c>
       <c r="C522" s="19">
-        <v>1.96</v>
+        <v>2.84</v>
       </c>
       <c r="D522" s="20">
-        <v>-4.9000000000000004</v>
+        <v>285.2</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9451,13 +9445,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>237</v>
+        <v>0.5</v>
       </c>
       <c r="C523" s="19">
-        <v>1.93</v>
+        <v>4.28</v>
       </c>
       <c r="D523" s="20">
-        <v>457.32</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9465,13 +9459,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>104.5</v>
+        <v>32.5</v>
       </c>
       <c r="C524" s="19">
-        <v>2.84</v>
+        <v>4.28</v>
       </c>
       <c r="D524" s="20">
-        <v>296.56</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9479,13 +9473,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>0.5</v>
+        <v>48.5</v>
       </c>
       <c r="C525" s="19">
-        <v>4.28</v>
+        <v>4.05</v>
       </c>
       <c r="D525" s="20">
-        <v>2.14</v>
+        <v>196.43</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9493,13 +9487,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>32.5</v>
+        <v>69</v>
       </c>
       <c r="C526" s="19">
-        <v>4.28</v>
+        <v>4.05</v>
       </c>
       <c r="D526" s="20">
-        <v>139.1</v>
+        <v>279.45</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9507,13 +9501,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>48.5</v>
+        <v>119.5</v>
       </c>
       <c r="C527" s="19">
-        <v>4.05</v>
+        <v>1.39</v>
       </c>
       <c r="D527" s="20">
-        <v>196.43</v>
+        <v>166.35</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9521,13 +9515,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>69</v>
+        <v>349.5</v>
       </c>
       <c r="C528" s="19">
-        <v>4.05</v>
+        <v>1.4</v>
       </c>
       <c r="D528" s="20">
-        <v>279.45</v>
+        <v>489.3</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9535,13 +9529,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>119.5</v>
+        <v>58</v>
       </c>
       <c r="C529" s="19">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="D529" s="20">
-        <v>166.35</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9549,35 +9543,27 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>351.5</v>
-      </c>
-      <c r="C530" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="D530" s="20">
-        <v>492.1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C530" s="21"/>
+      <c r="D530" s="22"/>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>57.5</v>
-      </c>
-      <c r="C531" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="D531" s="20">
-        <v>80.5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C531" s="21"/>
+      <c r="D531" s="22"/>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>90</v>
+        <v>47.5</v>
       </c>
       <c r="C532" s="21"/>
       <c r="D532" s="22"/>
@@ -9587,7 +9573,7 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C533" s="21"/>
       <c r="D533" s="22"/>
@@ -9597,7 +9583,7 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>47.5</v>
+        <v>470</v>
       </c>
       <c r="C534" s="21"/>
       <c r="D534" s="22"/>
@@ -9607,33 +9593,41 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>3</v>
-      </c>
-      <c r="C535" s="21"/>
-      <c r="D535" s="22"/>
+        <v>1713.5</v>
+      </c>
+      <c r="C535" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="D535" s="20">
+        <v>1413.64</v>
+      </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>470</v>
-      </c>
-      <c r="C536" s="21"/>
-      <c r="D536" s="22"/>
+        <v>550</v>
+      </c>
+      <c r="C536" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="D536" s="20">
+        <v>440</v>
+      </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>1713.5</v>
+        <v>661</v>
       </c>
       <c r="C537" s="19">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="D537" s="20">
-        <v>1413.64</v>
+        <v>528.79999999999995</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9641,13 +9635,13 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>550</v>
+        <v>398.5</v>
       </c>
       <c r="C538" s="19">
         <v>0.8</v>
       </c>
       <c r="D538" s="20">
-        <v>440</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9655,13 +9649,13 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>661</v>
+        <v>104</v>
       </c>
       <c r="C539" s="19">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="D539" s="20">
-        <v>528.79999999999995</v>
+        <v>54.08</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9669,13 +9663,13 @@
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>400</v>
+        <v>122</v>
       </c>
       <c r="C540" s="19">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="D540" s="20">
-        <v>320</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9683,13 +9677,13 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>104</v>
+        <v>697</v>
       </c>
       <c r="C541" s="19">
         <v>0.52</v>
       </c>
       <c r="D541" s="20">
-        <v>54.08</v>
+        <v>362.44</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9697,13 +9691,13 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>121</v>
+        <v>914.5</v>
       </c>
       <c r="C542" s="19">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="D542" s="20">
-        <v>62.92</v>
+        <v>640.15</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9711,13 +9705,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>699</v>
+        <v>282</v>
       </c>
       <c r="C543" s="19">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="D543" s="20">
-        <v>363.48</v>
+        <v>197.4</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9725,13 +9719,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>914.5</v>
+        <v>312.5</v>
       </c>
       <c r="C544" s="19">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="D544" s="20">
-        <v>640.15</v>
+        <v>213.13</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9739,61 +9733,61 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>284</v>
-      </c>
-      <c r="C545" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="D545" s="20">
-        <v>198.8</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C545" s="21"/>
+      <c r="D545" s="22"/>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>312.5</v>
-      </c>
-      <c r="C546" s="19">
-        <v>0.68</v>
-      </c>
-      <c r="D546" s="20">
-        <v>213.13</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C546" s="21"/>
+      <c r="D546" s="22"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>227</v>
-      </c>
-      <c r="C547" s="21"/>
-      <c r="D547" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="C547" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D547" s="20">
+        <v>49.5</v>
+      </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>147</v>
-      </c>
-      <c r="C548" s="21"/>
-      <c r="D548" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C548" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D548" s="20">
+        <v>184.5</v>
+      </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C549" s="19">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D549" s="20">
-        <v>49.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9801,53 +9795,25 @@
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C550" s="19">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D550" s="20">
-        <v>184.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551" s="17" t="s">
+      <c r="A551" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="B551" s="18">
-        <v>7</v>
-      </c>
-      <c r="C551" s="19">
-        <v>3</v>
-      </c>
-      <c r="D551" s="20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="B552" s="18">
-        <v>3</v>
-      </c>
-      <c r="C552" s="19">
-        <v>3</v>
-      </c>
-      <c r="D552" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="B553" s="24">
-        <v>40140.720000000001</v>
-      </c>
-      <c r="C553" s="25"/>
-      <c r="D553" s="26">
-        <v>111589.92</v>
+      <c r="B551" s="24">
+        <v>39538.22</v>
+      </c>
+      <c r="C551" s="25"/>
+      <c r="D551" s="26">
+        <v>110847.26</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="555">
   <si>
     <t>StkSummary</t>
   </si>
@@ -311,6 +311,9 @@
     <t>1933 PATRIKA (ECO 80 BIRSA)</t>
   </si>
   <si>
+    <t>1934 PATRIKA</t>
+  </si>
+  <si>
     <t>2021 PATRIKA {L}</t>
   </si>
   <si>
@@ -452,7 +455,7 @@
     <t>4208 PATRIKA</t>
   </si>
   <si>
-    <t>4209 PATRIKA</t>
+    <t>4209 PATRIKA (STCOK LOT NO)</t>
   </si>
   <si>
     <t>4210 PATRIKA</t>
@@ -584,9 +587,6 @@
     <t>5010 PATRIKA</t>
   </si>
   <si>
-    <t>5010 PATRIKA -B (DC)</t>
-  </si>
-  <si>
     <t>5012 PATRIKA</t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>5034 PATRIKA (Direct)</t>
   </si>
   <si>
-    <t>5035 PATRIKA (MONDAY )</t>
+    <t>5035 PATRIKA</t>
   </si>
   <si>
     <t>5037 PATRIKA</t>
@@ -1313,6 +1313,9 @@
     <t>7339 PATRIKA (DC)</t>
   </si>
   <si>
+    <t>7340 PATRIKA (ECO 65)</t>
+  </si>
+  <si>
     <t>7342 PATRIKA</t>
   </si>
   <si>
@@ -1592,7 +1595,7 @@
     <t>9093 CARD</t>
   </si>
   <si>
-    <t>9094 CARD</t>
+    <t>9094 CARD ( MIL JAYGA)</t>
   </si>
   <si>
     <t>9095 CARD</t>
@@ -1673,7 +1676,7 @@
     <t>9212 CARDS (NEW)</t>
   </si>
   <si>
-    <t>9945 CARDS {M} ♠</t>
+    <t>9945 CARDS {M} ♠ DC</t>
   </si>
   <si>
     <t>9955 CARDS ♠</t>
@@ -2178,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D551"/>
+  <dimension ref="A1:D552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2273,13 +2276,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="18">
-        <v>692.5</v>
+        <v>672.5</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="20">
-        <v>692.5</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,13 +2290,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="18">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="20">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,13 +2416,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="18">
-        <v>116.5</v>
+        <v>118</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
       </c>
       <c r="D19" s="20">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,13 +2472,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="18">
-        <v>118.5</v>
+        <v>116.5</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="20">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2514,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="18">
-        <v>58.82</v>
+        <v>56.32</v>
       </c>
       <c r="C26" s="19">
         <v>2.35</v>
       </c>
       <c r="D26" s="20">
-        <v>138.22999999999999</v>
+        <v>132.35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,13 +2542,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>181.3</v>
+        <v>179.8</v>
       </c>
       <c r="C28" s="19">
         <v>2.59</v>
       </c>
       <c r="D28" s="20">
-        <v>468.79</v>
+        <v>464.91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2584,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="18">
-        <v>56.5</v>
+        <v>48.5</v>
       </c>
       <c r="C31" s="19">
         <v>2.5</v>
       </c>
       <c r="D31" s="20">
-        <v>141.25</v>
+        <v>121.25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2612,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="18">
-        <v>51.5</v>
+        <v>38.5</v>
       </c>
       <c r="C33" s="19">
         <v>2.6</v>
       </c>
       <c r="D33" s="20">
-        <v>133.9</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2682,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>126</v>
+        <v>122.5</v>
       </c>
       <c r="C38" s="19">
         <v>2.85</v>
       </c>
       <c r="D38" s="20">
-        <v>359.1</v>
+        <v>349.13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,13 +2794,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C46" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>341</v>
+        <v>334.4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,13 +2850,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>233.2</v>
+        <v>226.6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,13 +2878,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C52" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="20">
-        <v>266.2</v>
+        <v>248.6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,13 +2892,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>572</v>
+        <v>567.5</v>
       </c>
       <c r="C53" s="19">
         <v>1.9</v>
       </c>
       <c r="D53" s="20">
-        <v>1086.8</v>
+        <v>1078.25</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,13 +2948,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="18">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="C57" s="19">
         <v>2.1</v>
       </c>
       <c r="D57" s="20">
-        <v>59.85</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3057,13 +3060,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="18">
-        <v>160</v>
+        <v>155.5</v>
       </c>
       <c r="C65" s="19">
         <v>0.7</v>
       </c>
       <c r="D65" s="20">
-        <v>112</v>
+        <v>108.85</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,13 +3074,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="18">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C66" s="19">
         <v>0.9</v>
       </c>
       <c r="D66" s="20">
-        <v>36</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3085,13 +3088,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="18">
-        <v>105.5</v>
+        <v>99.5</v>
       </c>
       <c r="C67" s="19">
         <v>0.9</v>
       </c>
       <c r="D67" s="20">
-        <v>94.95</v>
+        <v>89.55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,13 +3102,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C68" s="19">
         <v>1.55</v>
       </c>
       <c r="D68" s="20">
-        <v>556.45000000000005</v>
+        <v>553.35</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3113,13 +3116,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="18">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C69" s="19">
         <v>1.55</v>
       </c>
       <c r="D69" s="20">
-        <v>664.95</v>
+        <v>654.1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3141,7 +3144,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>120.5</v>
+        <v>118</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
@@ -3171,7 +3174,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>200.5</v>
+        <v>315.5</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
@@ -3201,13 +3204,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>479.5</v>
+        <v>447.5</v>
       </c>
       <c r="C77" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D77" s="20">
-        <v>551.42999999999995</v>
+        <v>514.63</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,13 +3218,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>459.5</v>
+        <v>427.5</v>
       </c>
       <c r="C78" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D78" s="20">
-        <v>528.42999999999995</v>
+        <v>491.63</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,13 +3232,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C79" s="19">
         <v>1.4</v>
       </c>
       <c r="D79" s="20">
-        <v>768.6</v>
+        <v>750.4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,13 +3246,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>30.5</v>
+        <v>27.5</v>
       </c>
       <c r="C80" s="19">
         <v>1.4</v>
       </c>
       <c r="D80" s="20">
-        <v>42.7</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,13 +3316,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>461</v>
+        <v>457.5</v>
       </c>
       <c r="C85" s="19">
         <v>1.26</v>
       </c>
       <c r="D85" s="20">
-        <v>580.86</v>
+        <v>576.45000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3425,27 +3428,23 @@
         <v>95</v>
       </c>
       <c r="B93" s="18">
-        <v>32.5</v>
-      </c>
-      <c r="C93" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="D93" s="20">
-        <v>406.25</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="18">
-        <v>16</v>
+        <v>30.5</v>
       </c>
       <c r="C94" s="19">
         <v>12.5</v>
       </c>
       <c r="D94" s="20">
-        <v>200</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,13 +3452,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="C95" s="19">
         <v>12.5</v>
       </c>
       <c r="D95" s="20">
-        <v>450</v>
+        <v>181.25</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,13 +3466,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="18">
-        <v>39.5</v>
+        <v>36</v>
       </c>
       <c r="C96" s="19">
         <v>12.5</v>
       </c>
       <c r="D96" s="20">
-        <v>493.75</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,13 +3480,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>22</v>
+        <v>39.5</v>
       </c>
       <c r="C97" s="19">
         <v>12.5</v>
       </c>
       <c r="D97" s="20">
-        <v>275</v>
+        <v>493.75</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,13 +3494,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="18">
-        <v>33</v>
+        <v>18.5</v>
       </c>
       <c r="C98" s="19">
         <v>12.5</v>
       </c>
       <c r="D98" s="20">
-        <v>412.5</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,13 +3508,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>42.86</v>
+        <v>33</v>
       </c>
       <c r="C99" s="19">
         <v>12.5</v>
       </c>
       <c r="D99" s="20">
-        <v>535.75</v>
+        <v>412.5</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3523,13 +3522,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="18">
-        <v>21.5</v>
+        <v>42.86</v>
       </c>
       <c r="C100" s="19">
         <v>12.5</v>
       </c>
       <c r="D100" s="20">
-        <v>268.75</v>
+        <v>535.75</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3537,13 +3536,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>262.5</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3551,13 +3550,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>56.25</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3565,13 +3564,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C103" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>108.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,13 +3578,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C104" s="19">
         <v>15.5</v>
       </c>
       <c r="D104" s="20">
-        <v>139.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3593,13 +3592,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="18">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C105" s="19">
         <v>15.5</v>
       </c>
       <c r="D105" s="20">
-        <v>325.5</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3607,13 +3606,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="18">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="C106" s="19">
         <v>15.5</v>
       </c>
       <c r="D106" s="20">
-        <v>147.25</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3621,13 +3620,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="18">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="C107" s="19">
         <v>15.5</v>
       </c>
       <c r="D107" s="20">
-        <v>279</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,13 +3634,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C108" s="19">
         <v>15.5</v>
       </c>
       <c r="D108" s="20">
-        <v>62</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3649,13 +3648,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="18">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="C109" s="19">
         <v>15.5</v>
       </c>
       <c r="D109" s="20">
-        <v>286.75</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3663,13 +3662,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="C110" s="19">
         <v>15.5</v>
       </c>
       <c r="D110" s="20">
-        <v>310</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3677,13 +3676,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C111" s="19">
         <v>15.5</v>
       </c>
       <c r="D111" s="20">
-        <v>294.5</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3691,13 +3690,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="18">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="C112" s="19">
         <v>15.5</v>
       </c>
       <c r="D112" s="20">
-        <v>325.5</v>
+        <v>271.25</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,13 +3704,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="18">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C113" s="19">
         <v>15.5</v>
       </c>
       <c r="D113" s="20">
-        <v>155</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,13 +3718,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="18">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="C114" s="19">
         <v>15.5</v>
       </c>
       <c r="D114" s="20">
-        <v>240.25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3733,13 +3732,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="18">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="C115" s="19">
         <v>15.5</v>
       </c>
       <c r="D115" s="20">
-        <v>325.5</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,13 +3746,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C116" s="19">
         <v>15.5</v>
       </c>
       <c r="D116" s="20">
-        <v>263.5</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,13 +3760,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C117" s="19">
         <v>15.5</v>
       </c>
       <c r="D117" s="20">
-        <v>325.5</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3775,13 +3774,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="18">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="C118" s="19">
         <v>15.5</v>
       </c>
       <c r="D118" s="20">
-        <v>131.75</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,13 +3788,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="18">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="C119" s="19">
         <v>15.5</v>
       </c>
       <c r="D119" s="20">
-        <v>325.5</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,10 +3805,10 @@
         <v>21</v>
       </c>
       <c r="C120" s="19">
-        <v>18.45</v>
+        <v>15.5</v>
       </c>
       <c r="D120" s="20">
-        <v>387.41</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,13 +3816,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="18">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C121" s="19">
-        <v>18.34</v>
+        <v>18.45</v>
       </c>
       <c r="D121" s="20">
-        <v>220.11</v>
+        <v>387.41</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3831,13 +3830,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122" s="19">
-        <v>18.27</v>
+        <v>18.34</v>
       </c>
       <c r="D122" s="20">
-        <v>146.15</v>
+        <v>220.11</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,13 +3844,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="18">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="C123" s="19">
-        <v>18.37</v>
+        <v>18.27</v>
       </c>
       <c r="D123" s="20">
-        <v>64.290000000000006</v>
+        <v>146.15</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,13 +3858,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="18">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C124" s="19">
         <v>18.37</v>
       </c>
       <c r="D124" s="20">
-        <v>91.85</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,13 +3872,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="18">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="C125" s="19">
-        <v>18.27</v>
+        <v>18.37</v>
       </c>
       <c r="D125" s="20">
-        <v>45.67</v>
+        <v>91.85</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,13 +3886,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="18">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="C126" s="19">
-        <v>18.34</v>
+        <v>18.27</v>
       </c>
       <c r="D126" s="20">
-        <v>155.91</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3901,13 +3900,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="18">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="C127" s="19">
-        <v>18.440000000000001</v>
+        <v>18.34</v>
       </c>
       <c r="D127" s="20">
-        <v>248.89</v>
+        <v>155.91</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,13 +3914,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="18">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="C128" s="19">
-        <v>18.37</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="D128" s="20">
-        <v>82.66</v>
+        <v>248.89</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,13 +3928,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="18">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C129" s="19">
-        <v>18.34</v>
+        <v>18.37</v>
       </c>
       <c r="D129" s="20">
-        <v>55.03</v>
+        <v>82.66</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,13 +3942,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C130" s="19">
-        <v>18.37</v>
+        <v>18.34</v>
       </c>
       <c r="D130" s="20">
-        <v>220.43</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,13 +3956,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="C131" s="19">
-        <v>14.5</v>
+        <v>18.37</v>
       </c>
       <c r="D131" s="20">
-        <v>123.25</v>
+        <v>220.43</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,13 +3970,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="18">
-        <v>54.5</v>
+        <v>8.5</v>
       </c>
       <c r="C132" s="19">
-        <v>3.3</v>
+        <v>14.5</v>
       </c>
       <c r="D132" s="20">
-        <v>179.85</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,13 +3984,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="18">
-        <v>30</v>
+        <v>54.5</v>
       </c>
       <c r="C133" s="19">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D133" s="20">
-        <v>84</v>
+        <v>179.85</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,13 +3998,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C134" s="19">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="D134" s="20">
-        <v>286</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4013,13 +4012,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>82.5</v>
+        <v>102</v>
       </c>
       <c r="C135" s="19">
         <v>2.75</v>
       </c>
       <c r="D135" s="20">
-        <v>226.88</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4027,13 +4026,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C136" s="19">
-        <v>4.7</v>
+        <v>2.75</v>
       </c>
       <c r="D136" s="20">
-        <v>145.69999999999999</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,13 +4040,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>62.5</v>
+        <v>31</v>
       </c>
       <c r="C137" s="19">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="D137" s="20">
-        <v>212.5</v>
+        <v>145.69999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,13 +4054,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="18">
-        <v>9</v>
+        <v>58.5</v>
       </c>
       <c r="C138" s="19">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D138" s="20">
-        <v>24.3</v>
+        <v>198.9</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4069,13 +4068,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="18">
-        <v>36.5</v>
+        <v>9</v>
       </c>
       <c r="C139" s="19">
         <v>2.7</v>
       </c>
       <c r="D139" s="20">
-        <v>98.55</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,13 +4082,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>80.5</v>
+        <v>36.5</v>
       </c>
       <c r="C140" s="19">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D140" s="20">
-        <v>225.4</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,13 +4096,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>89.5</v>
+        <v>75</v>
       </c>
       <c r="C141" s="19">
         <v>2.8</v>
       </c>
       <c r="D141" s="20">
-        <v>250.6</v>
+        <v>210</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4111,13 +4110,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>103</v>
+        <v>89.5</v>
       </c>
       <c r="C142" s="19">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D142" s="20">
-        <v>257.5</v>
+        <v>250.6</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,13 +4124,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>128.5</v>
+        <v>103</v>
       </c>
       <c r="C143" s="19">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D143" s="20">
-        <v>359.8</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,13 +4138,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="18">
-        <v>128</v>
+        <v>128.5</v>
       </c>
       <c r="C144" s="19">
         <v>2.8</v>
       </c>
       <c r="D144" s="20">
-        <v>358.4</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4153,13 +4152,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>111.5</v>
+        <v>128</v>
       </c>
       <c r="C145" s="19">
         <v>2.8</v>
       </c>
       <c r="D145" s="20">
-        <v>312.2</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,13 +4166,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="18">
-        <v>94.5</v>
+        <v>111.5</v>
       </c>
       <c r="C146" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D146" s="20">
-        <v>278.77999999999997</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4181,13 +4180,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="18">
-        <v>60</v>
+        <v>78.5</v>
       </c>
       <c r="C147" s="19">
         <v>2.95</v>
       </c>
       <c r="D147" s="20">
-        <v>177</v>
+        <v>231.58</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,13 +4194,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>91</v>
+        <v>52.5</v>
       </c>
       <c r="C148" s="19">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="D148" s="20">
-        <v>273</v>
+        <v>154.88</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4209,13 +4208,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C149" s="19">
         <v>3</v>
       </c>
       <c r="D149" s="20">
-        <v>201</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4223,13 +4222,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="18">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C150" s="19">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D150" s="20">
-        <v>369.6</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4237,13 +4236,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="18">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C151" s="19">
         <v>3.3</v>
       </c>
       <c r="D151" s="20">
-        <v>376.2</v>
+        <v>369.6</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,13 +4250,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C152" s="19">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D152" s="20">
-        <v>140</v>
+        <v>376.2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,13 +4264,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="18">
-        <v>64.5</v>
+        <v>40</v>
       </c>
       <c r="C153" s="19">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D153" s="20">
-        <v>251.55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,13 +4278,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="18">
-        <v>5</v>
+        <v>64.5</v>
       </c>
       <c r="C154" s="19">
         <v>3.9</v>
       </c>
       <c r="D154" s="20">
-        <v>19.5</v>
+        <v>251.55</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,13 +4292,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="18">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C155" s="19">
         <v>3.9</v>
       </c>
       <c r="D155" s="20">
-        <v>245.7</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,13 +4306,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="18">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C156" s="19">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="D156" s="20">
-        <v>103.23</v>
+        <v>245.7</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,13 +4320,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="18">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C157" s="19">
         <v>3.33</v>
       </c>
       <c r="D157" s="20">
-        <v>299.7</v>
+        <v>103.23</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,13 +4334,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C158" s="19">
         <v>3.33</v>
       </c>
       <c r="D158" s="20">
-        <v>186.48</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,13 +4348,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="18">
-        <v>133.5</v>
+        <v>50.5</v>
       </c>
       <c r="C159" s="19">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="D159" s="20">
-        <v>480.6</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,13 +4362,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>23.5</v>
+        <v>133.5</v>
       </c>
       <c r="C160" s="19">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="D160" s="20">
-        <v>88.13</v>
+        <v>480.6</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4377,13 +4376,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="18">
-        <v>88</v>
+        <v>23.5</v>
       </c>
       <c r="C161" s="19">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="D161" s="20">
-        <v>334.4</v>
+        <v>88.13</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4391,13 +4390,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="18">
-        <v>158.5</v>
+        <v>87</v>
       </c>
       <c r="C162" s="19">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D162" s="20">
-        <v>475.5</v>
+        <v>330.6</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,13 +4404,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="18">
-        <v>143</v>
+        <v>158.5</v>
       </c>
       <c r="C163" s="19">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D163" s="20">
-        <v>643.5</v>
+        <v>475.5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,13 +4418,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="18">
-        <v>51.5</v>
+        <v>132</v>
       </c>
       <c r="C164" s="19">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="D164" s="20">
-        <v>220.42</v>
+        <v>594</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,13 +4432,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="18">
-        <v>50</v>
+        <v>51.5</v>
       </c>
       <c r="C165" s="19">
-        <v>3.1</v>
+        <v>4.28</v>
       </c>
       <c r="D165" s="20">
-        <v>155</v>
+        <v>220.42</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,13 +4446,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C166" s="19">
         <v>3.1</v>
       </c>
       <c r="D166" s="20">
-        <v>139.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,13 +4460,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="18">
-        <v>20.5</v>
+        <v>45</v>
       </c>
       <c r="C167" s="19">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D167" s="20">
-        <v>92.25</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,13 +4474,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="18">
-        <v>133</v>
+        <v>20.5</v>
       </c>
       <c r="C168" s="19">
         <v>4.5</v>
       </c>
       <c r="D168" s="20">
-        <v>598.5</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4489,13 +4488,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="18">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C169" s="19">
-        <v>3.93</v>
+        <v>4.5</v>
       </c>
       <c r="D169" s="20">
-        <v>463.75</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,13 +4502,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="18">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C170" s="19">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="D170" s="20">
-        <v>625.24</v>
+        <v>463.75</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,13 +4516,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="18">
-        <v>68</v>
+        <v>136.5</v>
       </c>
       <c r="C171" s="19">
-        <v>4.1500000000000004</v>
+        <v>3.96</v>
       </c>
       <c r="D171" s="20">
-        <v>282.2</v>
+        <v>540.16</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,13 +4530,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="18">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C172" s="19">
-        <v>3</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D172" s="20">
-        <v>240</v>
+        <v>282.2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,13 +4544,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>50</v>
+        <v>79.5</v>
       </c>
       <c r="C173" s="19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D173" s="20">
-        <v>140</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,13 +4572,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="18">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C175" s="19">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D175" s="20">
-        <v>71.400000000000006</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,13 +4586,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C176" s="19">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D176" s="20">
-        <v>99</v>
+        <v>71.400000000000006</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,13 +4600,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="18">
-        <v>7.74</v>
+        <v>22</v>
       </c>
       <c r="C177" s="19">
-        <v>3.14</v>
+        <v>4.5</v>
       </c>
       <c r="D177" s="20">
-        <v>24.3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,13 +4614,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="18">
-        <v>6.5</v>
+        <v>1.74</v>
       </c>
       <c r="C178" s="19">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="D178" s="20">
-        <v>21.19</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,13 +4628,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="18">
-        <v>52</v>
+        <v>6.5</v>
       </c>
       <c r="C179" s="19">
-        <v>3.5</v>
+        <v>3.26</v>
       </c>
       <c r="D179" s="20">
-        <v>182</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,13 +4642,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="18">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C180" s="19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D180" s="20">
-        <v>91.2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,13 +4656,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C181" s="19">
         <v>3.8</v>
       </c>
       <c r="D181" s="20">
-        <v>64.599999999999994</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4671,13 +4670,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>88.5</v>
+        <v>17</v>
       </c>
       <c r="C182" s="19">
         <v>3.8</v>
       </c>
       <c r="D182" s="20">
-        <v>336.3</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,13 +4684,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="18">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C183" s="19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D183" s="20">
-        <v>187.2</v>
+        <v>330.6</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,13 +4698,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="18">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C184" s="19">
         <v>3.6</v>
       </c>
       <c r="D184" s="20">
-        <v>43.2</v>
+        <v>187.2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,13 +4712,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="18">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="C185" s="19">
         <v>4.1100000000000003</v>
       </c>
       <c r="D185" s="20">
-        <v>32.89</v>
+        <v>-41.12</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,13 +4726,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="18">
-        <v>52</v>
+        <v>49.5</v>
       </c>
       <c r="C186" s="19">
         <v>4.12</v>
       </c>
       <c r="D186" s="20">
-        <v>214.07</v>
+        <v>203.78</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,13 +4754,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="18">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="C188" s="19">
         <v>4.75</v>
       </c>
       <c r="D188" s="20">
-        <v>247</v>
+        <v>239.88</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,13 +4824,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="18">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C193" s="19">
         <v>4.5</v>
       </c>
       <c r="D193" s="20">
-        <v>1102.5</v>
+        <v>1075.5</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,13 +4838,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="18">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C194" s="19">
         <v>4.5</v>
       </c>
       <c r="D194" s="20">
-        <v>823.5</v>
+        <v>810</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,13 +4936,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="18">
-        <v>39.5</v>
+        <v>35.5</v>
       </c>
       <c r="C201" s="19">
         <v>5.25</v>
       </c>
       <c r="D201" s="20">
-        <v>207.38</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,13 +5006,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="C206" s="19">
         <v>6</v>
       </c>
       <c r="D206" s="20">
-        <v>-48</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,13 +5020,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C207" s="19">
         <v>5.7</v>
       </c>
       <c r="D207" s="20">
-        <v>364.8</v>
+        <v>273.60000000000002</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5077,13 +5076,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>153.5</v>
+        <v>151.5</v>
       </c>
       <c r="C211" s="19">
         <v>5.97</v>
       </c>
       <c r="D211" s="20">
-        <v>917.15</v>
+        <v>905.2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,13 +5160,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C217" s="19">
         <v>5</v>
       </c>
       <c r="D217" s="20">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,13 +5174,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="18">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="C218" s="19">
         <v>3.8</v>
       </c>
       <c r="D218" s="20">
-        <v>93.1</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,13 +5188,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="18">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C219" s="19">
         <v>3.5</v>
       </c>
       <c r="D219" s="20">
-        <v>196</v>
+        <v>84</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5203,13 +5202,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="18">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C220" s="19">
         <v>4.25</v>
       </c>
       <c r="D220" s="20">
-        <v>752.25</v>
+        <v>726.75</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,13 +5216,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>94.5</v>
+        <v>93</v>
       </c>
       <c r="C221" s="19">
         <v>4.25</v>
       </c>
       <c r="D221" s="20">
-        <v>401.63</v>
+        <v>395.25</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,13 +5258,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>92.5</v>
+        <v>88.5</v>
       </c>
       <c r="C224" s="19">
         <v>4.28</v>
       </c>
       <c r="D224" s="20">
-        <v>395.9</v>
+        <v>378.78</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,13 +5314,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="18">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C228" s="19">
         <v>4.95</v>
       </c>
       <c r="D228" s="20">
-        <v>136.13</v>
+        <v>131.18</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,13 +5468,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="18">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C239" s="19">
         <v>6.25</v>
       </c>
       <c r="D239" s="20">
-        <v>131.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5511,13 +5510,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>34.5</v>
+        <v>23.5</v>
       </c>
       <c r="C242" s="19">
         <v>6</v>
       </c>
       <c r="D242" s="20">
-        <v>207</v>
+        <v>141</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5539,13 +5538,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>56</v>
+        <v>49.88</v>
       </c>
       <c r="C244" s="19">
         <v>5.94</v>
       </c>
       <c r="D244" s="20">
-        <v>332.64</v>
+        <v>296.29000000000002</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5581,13 +5580,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C247" s="19">
         <v>5.94</v>
       </c>
       <c r="D247" s="20">
-        <v>302.94</v>
+        <v>297</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,13 +5594,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C248" s="19">
         <v>6.67</v>
       </c>
       <c r="D248" s="20">
-        <v>213.44</v>
+        <v>193.43</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,13 +5636,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C251" s="19">
         <v>6.18</v>
       </c>
       <c r="D251" s="20">
-        <v>296.64</v>
+        <v>290.45999999999998</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5791,13 +5790,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="C262" s="19">
         <v>7.13</v>
       </c>
       <c r="D262" s="20">
-        <v>188.95</v>
+        <v>174.69</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,13 +5930,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="18">
-        <v>44.5</v>
+        <v>31.5</v>
       </c>
       <c r="C272" s="19">
         <v>9.16</v>
       </c>
       <c r="D272" s="20">
-        <v>407.7</v>
+        <v>288.60000000000002</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5959,13 +5958,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="18">
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="C274" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D274" s="20">
-        <v>322.95999999999998</v>
+        <v>314.16000000000003</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5973,13 +5972,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="18">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="C275" s="19">
         <v>9.31</v>
       </c>
       <c r="D275" s="20">
-        <v>293.33999999999997</v>
+        <v>284.02999999999997</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6043,13 +6042,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="18">
-        <v>49.5</v>
+        <v>46.5</v>
       </c>
       <c r="C280" s="19">
         <v>9.25</v>
       </c>
       <c r="D280" s="20">
-        <v>457.88</v>
+        <v>430.13</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6099,13 +6098,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="18">
-        <v>85.5</v>
+        <v>75.5</v>
       </c>
       <c r="C284" s="19">
         <v>5.5</v>
       </c>
       <c r="D284" s="20">
-        <v>470.25</v>
+        <v>415.25</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6113,13 +6112,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C285" s="19">
         <v>6.86</v>
       </c>
       <c r="D285" s="20">
-        <v>373.9</v>
+        <v>367.04</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6323,13 +6322,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C300" s="19">
         <v>6.5</v>
       </c>
       <c r="D300" s="20">
-        <v>403</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6449,13 +6448,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C309" s="19">
         <v>11</v>
       </c>
       <c r="D309" s="20">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6491,13 +6490,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>6.49</v>
+        <v>3.99</v>
       </c>
       <c r="C312" s="19">
         <v>12</v>
       </c>
       <c r="D312" s="20">
-        <v>77.88</v>
+        <v>47.88</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6519,13 +6518,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="C314" s="19">
         <v>7.84</v>
       </c>
       <c r="D314" s="20">
-        <v>160.72</v>
+        <v>152.88</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,13 +6672,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="C325" s="19">
         <v>10.5</v>
       </c>
       <c r="D325" s="20">
-        <v>99.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6687,13 +6686,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>61.5</v>
+        <v>58</v>
       </c>
       <c r="C326" s="19">
         <v>9.5</v>
       </c>
       <c r="D326" s="20">
-        <v>584.25</v>
+        <v>551</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,13 +6756,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="18">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="C331" s="19">
         <v>7.84</v>
       </c>
       <c r="D331" s="20">
-        <v>286.16000000000003</v>
+        <v>270.48</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6827,13 +6826,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="18">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="C336" s="19">
         <v>12.5</v>
       </c>
       <c r="D336" s="20">
-        <v>81.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6869,13 +6868,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>23.75</v>
+        <v>21.75</v>
       </c>
       <c r="C339" s="19">
         <v>11.5</v>
       </c>
       <c r="D339" s="20">
-        <v>273.13</v>
+        <v>250.13</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6925,13 +6924,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="18">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="C343" s="19">
         <v>22.5</v>
       </c>
       <c r="D343" s="20">
-        <v>371.25</v>
+        <v>303.75</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6967,13 +6966,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C346" s="19">
         <v>10.93</v>
       </c>
       <c r="D346" s="20">
-        <v>174.88</v>
+        <v>131.16</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7107,13 +7106,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>53.5</v>
+        <v>52.5</v>
       </c>
       <c r="C356" s="19">
         <v>2</v>
       </c>
       <c r="D356" s="20">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7191,13 +7190,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="18">
-        <v>49.5</v>
+        <v>48.5</v>
       </c>
       <c r="C362" s="19">
         <v>2.5</v>
       </c>
       <c r="D362" s="20">
-        <v>123.75</v>
+        <v>121.25</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7219,13 +7218,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C364" s="19">
         <v>2.7</v>
       </c>
       <c r="D364" s="20">
-        <v>178.2</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7303,13 +7302,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C370" s="19">
         <v>2.8</v>
       </c>
       <c r="D370" s="20">
-        <v>72.8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7401,13 +7400,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="18">
-        <v>15.45</v>
+        <v>13.45</v>
       </c>
       <c r="C377" s="19">
         <v>3.15</v>
       </c>
       <c r="D377" s="20">
-        <v>48.67</v>
+        <v>42.37</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7415,13 +7414,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C378" s="19">
         <v>3.05</v>
       </c>
       <c r="D378" s="20">
-        <v>189.1</v>
+        <v>186.05</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7485,13 +7484,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>37.56</v>
+        <v>35.46</v>
       </c>
       <c r="C383" s="19">
         <v>3.5</v>
       </c>
       <c r="D383" s="20">
-        <v>131.46</v>
+        <v>124.11</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7527,13 +7526,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C386" s="19">
         <v>3.33</v>
       </c>
       <c r="D386" s="20">
-        <v>116.55</v>
+        <v>113.22</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,13 +7778,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>53</v>
+        <v>51.5</v>
       </c>
       <c r="C404" s="19">
         <v>5.5</v>
       </c>
       <c r="D404" s="20">
-        <v>291.5</v>
+        <v>283.25</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7877,13 +7876,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="18">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="C411" s="19">
         <v>7.5</v>
       </c>
       <c r="D411" s="20">
-        <v>101.25</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7891,13 +7890,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C412" s="19">
         <v>7.13</v>
       </c>
       <c r="D412" s="20">
-        <v>278.07</v>
+        <v>263.81</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,13 +7932,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="18">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="C415" s="19">
         <v>7.6</v>
       </c>
       <c r="D415" s="20">
-        <v>155.80000000000001</v>
+        <v>140.6</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8003,13 +8002,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>24</v>
+        <v>21.5</v>
       </c>
       <c r="C420" s="19">
         <v>4.28</v>
       </c>
       <c r="D420" s="20">
-        <v>102.72</v>
+        <v>92.02</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8059,13 +8058,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C424" s="19">
         <v>5.7</v>
       </c>
       <c r="D424" s="20">
-        <v>222.3</v>
+        <v>216.6</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8101,13 +8100,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>56</v>
+        <v>-3</v>
       </c>
       <c r="C427" s="19">
-        <v>4.1500000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D427" s="20">
-        <v>232.4</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8115,13 +8114,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C428" s="19">
-        <v>1.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D428" s="20">
-        <v>162.4</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8129,13 +8128,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="18">
-        <v>149.5</v>
+        <v>114</v>
       </c>
       <c r="C429" s="19">
         <v>1.4</v>
       </c>
       <c r="D429" s="20">
-        <v>209.3</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8143,13 +8142,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="18">
-        <v>82.5</v>
+        <v>149.5</v>
       </c>
       <c r="C430" s="19">
         <v>1.4</v>
       </c>
       <c r="D430" s="20">
-        <v>115.5</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8157,13 +8156,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="18">
-        <v>20</v>
+        <v>78.5</v>
       </c>
       <c r="C431" s="19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D431" s="20">
-        <v>60</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8171,13 +8170,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="C432" s="19">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="D432" s="20">
-        <v>93.03</v>
+        <v>60</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8185,13 +8184,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>28</v>
+        <v>30.5</v>
       </c>
       <c r="C433" s="19">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="D433" s="20">
-        <v>43.4</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8199,13 +8198,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C434" s="19">
         <v>1.55</v>
       </c>
       <c r="D434" s="20">
-        <v>12.4</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8213,13 +8212,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C435" s="19">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="D435" s="20">
-        <v>216.38</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8227,13 +8226,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C436" s="19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="D436" s="20">
-        <v>135</v>
+        <v>209.49</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8241,13 +8240,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="C437" s="19">
         <v>1.5</v>
       </c>
       <c r="D437" s="20">
-        <v>289.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8255,13 +8254,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="C438" s="19">
         <v>1.5</v>
       </c>
       <c r="D438" s="20">
-        <v>519</v>
+        <v>270</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8269,13 +8268,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="C439" s="19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="D439" s="20">
-        <v>129.96</v>
+        <v>516</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8283,13 +8282,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="18">
-        <v>128.5</v>
+        <v>73</v>
       </c>
       <c r="C440" s="19">
-        <v>0.39</v>
+        <v>1.71</v>
       </c>
       <c r="D440" s="20">
-        <v>50.34</v>
+        <v>124.83</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8297,13 +8296,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>92.7</v>
+        <v>128.5</v>
       </c>
       <c r="C441" s="19">
-        <v>2.2799999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="D441" s="20">
-        <v>211.36</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8311,13 +8310,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>39.5</v>
+        <v>89.7</v>
       </c>
       <c r="C442" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D442" s="20">
-        <v>90.06</v>
+        <v>204.52</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8325,13 +8324,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="18">
-        <v>22</v>
+        <v>33.5</v>
       </c>
       <c r="C443" s="19">
-        <v>2.4700000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D443" s="20">
-        <v>54.34</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8339,13 +8338,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="C444" s="19">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D444" s="20">
-        <v>53.63</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8353,13 +8352,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>71.5</v>
+        <v>19.5</v>
       </c>
       <c r="C445" s="19">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="D445" s="20">
-        <v>195.49</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8367,13 +8366,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="18">
-        <v>117.5</v>
+        <v>71.5</v>
       </c>
       <c r="C446" s="19">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="D446" s="20">
-        <v>329</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8381,13 +8380,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>48.5</v>
+        <v>116</v>
       </c>
       <c r="C447" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D447" s="20">
-        <v>143.08000000000001</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8395,13 +8394,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>40</v>
+        <v>48.5</v>
       </c>
       <c r="C448" s="19">
         <v>2.95</v>
       </c>
       <c r="D448" s="20">
-        <v>118</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8409,13 +8408,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C449" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D449" s="20">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8437,13 +8436,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>57.5</v>
+        <v>30</v>
       </c>
       <c r="C451" s="19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D451" s="20">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8451,13 +8450,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>46</v>
+        <v>57.5</v>
       </c>
       <c r="C452" s="19">
         <v>3.2</v>
       </c>
       <c r="D452" s="20">
-        <v>147.19999999999999</v>
+        <v>184</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,10 +8467,10 @@
         <v>46</v>
       </c>
       <c r="C453" s="19">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="D453" s="20">
-        <v>131.1</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8479,13 +8478,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>56.5</v>
+        <v>46</v>
       </c>
       <c r="C454" s="19">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="D454" s="20">
-        <v>183.63</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8493,13 +8492,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>46.5</v>
+        <v>56.5</v>
       </c>
       <c r="C455" s="19">
         <v>3.25</v>
       </c>
       <c r="D455" s="20">
-        <v>151.13</v>
+        <v>183.63</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8507,13 +8506,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>11</v>
+        <v>46.5</v>
       </c>
       <c r="C456" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D456" s="20">
-        <v>38.5</v>
+        <v>151.13</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8521,13 +8520,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C457" s="19">
         <v>3.5</v>
       </c>
       <c r="D457" s="20">
-        <v>77</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8535,13 +8534,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>41.5</v>
+        <v>22</v>
       </c>
       <c r="C458" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D458" s="20">
-        <v>138.19999999999999</v>
+        <v>77</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8549,13 +8548,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="18">
-        <v>51.5</v>
+        <v>40.5</v>
       </c>
       <c r="C459" s="19">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="D459" s="20">
-        <v>195.7</v>
+        <v>134.87</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8563,13 +8562,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>71.5</v>
+        <v>51.5</v>
       </c>
       <c r="C460" s="19">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="D460" s="20">
-        <v>265.52</v>
+        <v>195.7</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8577,13 +8576,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>46</v>
+        <v>71.5</v>
       </c>
       <c r="C461" s="19">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="D461" s="20">
-        <v>165.6</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8591,13 +8590,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>71.5</v>
+        <v>42</v>
       </c>
       <c r="C462" s="19">
         <v>3.6</v>
       </c>
       <c r="D462" s="20">
-        <v>257.39999999999998</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8605,13 +8604,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>22.5</v>
+        <v>71.5</v>
       </c>
       <c r="C463" s="19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D463" s="20">
-        <v>90</v>
+        <v>257.39999999999998</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8619,13 +8618,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C464" s="19">
         <v>4</v>
       </c>
       <c r="D464" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8633,13 +8632,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>36.5</v>
+        <v>22</v>
       </c>
       <c r="C465" s="19">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D465" s="20">
-        <v>140.53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8647,13 +8646,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>15</v>
+        <v>31.5</v>
       </c>
       <c r="C466" s="19">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D466" s="20">
-        <v>60</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8661,13 +8660,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C467" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D467" s="20">
-        <v>129.19999999999999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8675,13 +8674,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>35.5</v>
+        <v>34</v>
       </c>
       <c r="C468" s="19">
         <v>3.8</v>
       </c>
       <c r="D468" s="20">
-        <v>134.9</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8689,13 +8688,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>43</v>
+        <v>35.5</v>
       </c>
       <c r="C469" s="19">
-        <v>4.3099999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D469" s="20">
-        <v>185.33</v>
+        <v>134.9</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,13 +8702,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C470" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D470" s="20">
-        <v>101.2</v>
+        <v>185.33</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8717,13 +8716,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="C471" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D471" s="20">
-        <v>59.4</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8731,13 +8730,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="C472" s="19">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D472" s="20">
-        <v>75</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8745,13 +8744,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="C473" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D473" s="20">
-        <v>49.88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8759,13 +8758,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>28</v>
+        <v>5.5</v>
       </c>
       <c r="C474" s="19">
         <v>4.75</v>
       </c>
       <c r="D474" s="20">
-        <v>133</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8773,13 +8772,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>35.5</v>
+        <v>28</v>
       </c>
       <c r="C475" s="19">
         <v>4.75</v>
       </c>
       <c r="D475" s="20">
-        <v>168.63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8787,13 +8786,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>25</v>
+        <v>35.5</v>
       </c>
       <c r="C476" s="19">
         <v>4.75</v>
       </c>
       <c r="D476" s="20">
-        <v>118.75</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8801,13 +8800,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="C477" s="19">
         <v>4.75</v>
       </c>
       <c r="D477" s="20">
-        <v>49.88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8815,13 +8814,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>46.5</v>
+        <v>10.5</v>
       </c>
       <c r="C478" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D478" s="20">
-        <v>232.5</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8829,13 +8828,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>28.5</v>
+        <v>44.5</v>
       </c>
       <c r="C479" s="19">
         <v>5</v>
       </c>
       <c r="D479" s="20">
-        <v>142.5</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8843,13 +8842,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>18</v>
+        <v>28.5</v>
       </c>
       <c r="C480" s="19">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D480" s="20">
-        <v>94.5</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8857,13 +8856,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C481" s="19">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D481" s="20">
-        <v>175</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,13 +8870,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C482" s="19">
-        <v>5.41</v>
+        <v>5</v>
       </c>
       <c r="D482" s="20">
-        <v>113.56</v>
+        <v>175</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8885,13 +8884,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>96.5</v>
+        <v>21</v>
       </c>
       <c r="C483" s="19">
-        <v>5.5</v>
+        <v>5.41</v>
       </c>
       <c r="D483" s="20">
-        <v>530.75</v>
+        <v>113.56</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8899,13 +8898,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C484" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D484" s="20">
-        <v>138</v>
+        <v>456.5</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8913,13 +8912,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="C485" s="19">
         <v>5.75</v>
       </c>
       <c r="D485" s="20">
-        <v>112.13</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8927,13 +8926,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>53</v>
+        <v>14.5</v>
       </c>
       <c r="C486" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D486" s="20">
-        <v>291.5</v>
+        <v>83.38</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8941,13 +8940,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>27.5</v>
+        <v>53</v>
       </c>
       <c r="C487" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D487" s="20">
-        <v>158.13</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8955,13 +8954,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="C488" s="19">
         <v>5.75</v>
       </c>
       <c r="D488" s="20">
-        <v>163.88</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8969,13 +8968,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>47</v>
+        <v>27.5</v>
       </c>
       <c r="C489" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D489" s="20">
-        <v>282</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8983,13 +8982,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C490" s="19">
         <v>6</v>
       </c>
       <c r="D490" s="20">
-        <v>42</v>
+        <v>282</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8997,13 +8996,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C491" s="19">
         <v>6</v>
       </c>
       <c r="D491" s="20">
-        <v>186</v>
+        <v>42</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9011,13 +9010,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="C492" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D492" s="20">
-        <v>94.5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9025,13 +9024,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="C493" s="19">
         <v>7</v>
       </c>
       <c r="D493" s="20">
-        <v>238</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9039,13 +9038,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="18">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="C494" s="19">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="D494" s="20">
-        <v>126.88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9053,13 +9052,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>24.5</v>
+        <v>17.5</v>
       </c>
       <c r="C495" s="19">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="D495" s="20">
-        <v>189.88</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9067,13 +9066,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>11.5</v>
+        <v>21.5</v>
       </c>
       <c r="C496" s="19">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="D496" s="20">
-        <v>92</v>
+        <v>166.63</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9081,13 +9080,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="C497" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D497" s="20">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9095,13 +9094,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="18">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="C498" s="19">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="D498" s="20">
-        <v>161.88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9109,13 +9108,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="C499" s="19">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="D499" s="20">
-        <v>181.5</v>
+        <v>161.88</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9123,13 +9122,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>71</v>
+        <v>16.5</v>
       </c>
       <c r="C500" s="19">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="D500" s="20">
-        <v>195.96</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9137,13 +9136,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>61</v>
+        <v>69.5</v>
       </c>
       <c r="C501" s="19">
         <v>2.76</v>
       </c>
       <c r="D501" s="20">
-        <v>168.36</v>
+        <v>191.82</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9151,13 +9150,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C502" s="19">
         <v>2.76</v>
       </c>
       <c r="D502" s="20">
-        <v>248.4</v>
+        <v>168.36</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9165,13 +9164,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C503" s="19">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D503" s="20">
-        <v>95.2</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9179,13 +9178,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>48.5</v>
+        <v>34</v>
       </c>
       <c r="C504" s="19">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="D504" s="20">
-        <v>139.29</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9193,13 +9192,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>40.5</v>
+        <v>47</v>
       </c>
       <c r="C505" s="19">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="D505" s="20">
-        <v>111.78</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9207,13 +9206,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="18">
-        <v>21</v>
+        <v>40.5</v>
       </c>
       <c r="C506" s="19">
         <v>2.76</v>
       </c>
       <c r="D506" s="20">
-        <v>57.96</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9221,13 +9220,13 @@
         <v>509</v>
       </c>
       <c r="B507" s="18">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C507" s="19">
         <v>2.76</v>
       </c>
       <c r="D507" s="20">
-        <v>118.68</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9235,13 +9234,13 @@
         <v>510</v>
       </c>
       <c r="B508" s="18">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C508" s="19">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="D508" s="20">
-        <v>105</v>
+        <v>118.68</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9249,13 +9248,13 @@
         <v>511</v>
       </c>
       <c r="B509" s="18">
-        <v>41.5</v>
+        <v>30</v>
       </c>
       <c r="C509" s="19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D509" s="20">
-        <v>124.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9263,13 +9262,13 @@
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>66.5</v>
+        <v>41.5</v>
       </c>
       <c r="C510" s="19">
         <v>3</v>
       </c>
       <c r="D510" s="20">
-        <v>199.5</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9277,13 +9276,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>26.5</v>
+        <v>63.5</v>
       </c>
       <c r="C511" s="19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D511" s="20">
-        <v>82.15</v>
+        <v>190.5</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9291,13 +9290,13 @@
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>7</v>
+        <v>26.5</v>
       </c>
       <c r="C512" s="19">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="D512" s="20">
-        <v>42</v>
+        <v>82.15</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9305,13 +9304,13 @@
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C513" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D513" s="20">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9319,13 +9318,13 @@
         <v>516</v>
       </c>
       <c r="B514" s="18">
-        <v>24.5</v>
+        <v>37</v>
       </c>
       <c r="C514" s="19">
         <v>4</v>
       </c>
       <c r="D514" s="20">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9333,13 +9332,13 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C515" s="19">
         <v>4</v>
       </c>
       <c r="D515" s="20">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9347,13 +9346,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C516" s="19">
         <v>4</v>
       </c>
       <c r="D516" s="20">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9361,13 +9360,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C517" s="19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="D517" s="20">
-        <v>215.25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9375,13 +9374,13 @@
         <v>520</v>
       </c>
       <c r="B518" s="18">
-        <v>22.5</v>
+        <v>41</v>
       </c>
       <c r="C518" s="19">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="D518" s="20">
-        <v>112.83</v>
+        <v>215.25</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9389,13 +9388,13 @@
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>241</v>
+        <v>22.5</v>
       </c>
       <c r="C519" s="19">
-        <v>1.92</v>
+        <v>5.01</v>
       </c>
       <c r="D519" s="20">
-        <v>462.84</v>
+        <v>112.83</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9403,13 +9402,13 @@
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>-2.5</v>
+        <v>239.5</v>
       </c>
       <c r="C520" s="19">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="D520" s="20">
-        <v>-4.9000000000000004</v>
+        <v>459.95</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9417,13 +9416,13 @@
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>237</v>
+        <v>-2.5</v>
       </c>
       <c r="C521" s="19">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="D521" s="20">
-        <v>457.32</v>
+        <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9431,13 +9430,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>100.5</v>
+        <v>231.5</v>
       </c>
       <c r="C522" s="19">
-        <v>2.84</v>
+        <v>1.93</v>
       </c>
       <c r="D522" s="20">
-        <v>285.2</v>
+        <v>446.71</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9445,13 +9444,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>0.5</v>
+        <v>97.5</v>
       </c>
       <c r="C523" s="19">
-        <v>4.28</v>
+        <v>2.84</v>
       </c>
       <c r="D523" s="20">
-        <v>2.14</v>
+        <v>276.69</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9459,13 +9458,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>32.5</v>
+        <v>0.5</v>
       </c>
       <c r="C524" s="19">
         <v>4.28</v>
       </c>
       <c r="D524" s="20">
-        <v>139.1</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9473,13 +9472,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>48.5</v>
+        <v>27.5</v>
       </c>
       <c r="C525" s="19">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="D525" s="20">
-        <v>196.43</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9487,13 +9486,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>69</v>
+        <v>43.5</v>
       </c>
       <c r="C526" s="19">
         <v>4.05</v>
       </c>
       <c r="D526" s="20">
-        <v>279.45</v>
+        <v>176.18</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9501,13 +9500,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>119.5</v>
+        <v>62.5</v>
       </c>
       <c r="C527" s="19">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="D527" s="20">
-        <v>166.35</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9515,13 +9514,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>349.5</v>
+        <v>86.5</v>
       </c>
       <c r="C528" s="19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="D528" s="20">
-        <v>489.3</v>
+        <v>120.42</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9529,13 +9528,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>58</v>
+        <v>349.5</v>
       </c>
       <c r="C529" s="19">
         <v>1.4</v>
       </c>
       <c r="D529" s="20">
-        <v>81.2</v>
+        <v>489.3</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9543,17 +9542,21 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>86</v>
-      </c>
-      <c r="C530" s="21"/>
-      <c r="D530" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="C530" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D530" s="20">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>22</v>
+        <v>48.5</v>
       </c>
       <c r="C531" s="21"/>
       <c r="D531" s="22"/>
@@ -9563,7 +9566,7 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>47.5</v>
+        <v>19.5</v>
       </c>
       <c r="C532" s="21"/>
       <c r="D532" s="22"/>
@@ -9573,7 +9576,7 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>1</v>
+        <v>47.5</v>
       </c>
       <c r="C533" s="21"/>
       <c r="D533" s="22"/>
@@ -9583,7 +9586,7 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>470</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C534" s="21"/>
       <c r="D534" s="22"/>
@@ -9593,27 +9596,23 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>1713.5</v>
-      </c>
-      <c r="C535" s="19">
-        <v>0.83</v>
-      </c>
-      <c r="D535" s="20">
-        <v>1413.64</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C535" s="21"/>
+      <c r="D535" s="22"/>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>550</v>
+        <v>1705.5</v>
       </c>
       <c r="C536" s="19">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D536" s="20">
-        <v>440</v>
+        <v>1407.04</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9621,13 +9620,13 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>661</v>
+        <v>550</v>
       </c>
       <c r="C537" s="19">
         <v>0.8</v>
       </c>
       <c r="D537" s="20">
-        <v>528.79999999999995</v>
+        <v>440</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9635,13 +9634,13 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>398.5</v>
+        <v>661</v>
       </c>
       <c r="C538" s="19">
         <v>0.8</v>
       </c>
       <c r="D538" s="20">
-        <v>318.8</v>
+        <v>528.79999999999995</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9649,13 +9648,13 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>104</v>
+        <v>376.5</v>
       </c>
       <c r="C539" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D539" s="20">
-        <v>54.08</v>
+        <v>301.2</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9663,13 +9662,13 @@
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C540" s="19">
         <v>0.52</v>
       </c>
       <c r="D540" s="20">
-        <v>63.44</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9677,13 +9676,13 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>697</v>
+        <v>18</v>
       </c>
       <c r="C541" s="19">
         <v>0.52</v>
       </c>
       <c r="D541" s="20">
-        <v>362.44</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9691,13 +9690,13 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>914.5</v>
+        <v>675</v>
       </c>
       <c r="C542" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D542" s="20">
-        <v>640.15</v>
+        <v>351</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9705,13 +9704,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>282</v>
+        <v>874.5</v>
       </c>
       <c r="C543" s="19">
         <v>0.7</v>
       </c>
       <c r="D543" s="20">
-        <v>197.4</v>
+        <v>612.15</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9719,13 +9718,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>312.5</v>
+        <v>241</v>
       </c>
       <c r="C544" s="19">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D544" s="20">
-        <v>213.13</v>
+        <v>168.7</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9733,17 +9732,21 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>227</v>
-      </c>
-      <c r="C545" s="21"/>
-      <c r="D545" s="22"/>
+        <v>310.5</v>
+      </c>
+      <c r="C545" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D545" s="20">
+        <v>211.76</v>
+      </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="C546" s="21"/>
       <c r="D546" s="22"/>
@@ -9753,27 +9756,23 @@
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>11</v>
-      </c>
-      <c r="C547" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="D547" s="20">
-        <v>49.5</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C547" s="21"/>
+      <c r="D547" s="22"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C548" s="19">
         <v>4.5</v>
       </c>
       <c r="D548" s="20">
-        <v>184.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9781,13 +9780,13 @@
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C549" s="19">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D549" s="20">
-        <v>21</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9795,25 +9794,39 @@
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C550" s="19">
         <v>3</v>
       </c>
       <c r="D550" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B551" s="18">
+        <v>3</v>
+      </c>
+      <c r="C551" s="19">
+        <v>3</v>
+      </c>
+      <c r="D551" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="B551" s="24">
-        <v>39538.22</v>
-      </c>
-      <c r="C551" s="25"/>
-      <c r="D551" s="26">
-        <v>110847.26</v>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B552" s="24">
+        <v>38631.300000000003</v>
+      </c>
+      <c r="C552" s="25"/>
+      <c r="D552" s="26">
+        <v>108063.11</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="557">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 30-Dec-2024</t>
+    <t>1-Jul-2024 to 1-Jan-2025</t>
   </si>
   <si>
     <t/>
@@ -236,7 +236,7 @@
     <t>1907 PATRIKA (KING 02)</t>
   </si>
   <si>
-    <t>1908 PATRIKA (S.S. 51)</t>
+    <t>1908 PATRIKA (सवाश्री 51)</t>
   </si>
   <si>
     <t>1909 PATRIKA (S.S. 54)</t>
@@ -653,6 +653,9 @@
     <t>5035 PATRIKA</t>
   </si>
   <si>
+    <t>5035 PATRIKA - B</t>
+  </si>
+  <si>
     <t>5037 PATRIKA</t>
   </si>
   <si>
@@ -1181,7 +1184,10 @@
     <t>7284 PATRIKA {F}</t>
   </si>
   <si>
-    <t>7286 PATRIKA</t>
+    <t>7286 PATRIKA - B</t>
+  </si>
+  <si>
+    <t>7286 PATRIKA (HALKA D/F)</t>
   </si>
   <si>
     <t>7287 PATRIKA</t>
@@ -2181,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2304,13 +2310,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C11" s="19">
         <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>170.25</v>
+        <v>157.36000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,13 +2436,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="18">
-        <v>125.5</v>
+        <v>153.5</v>
       </c>
       <c r="C20" s="19">
         <v>2</v>
       </c>
       <c r="D20" s="20">
-        <v>251</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,13 +2464,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>92.5</v>
+        <v>84.5</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,13 +2520,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="18">
-        <v>56.32</v>
+        <v>54.82</v>
       </c>
       <c r="C26" s="19">
         <v>2.35</v>
       </c>
       <c r="D26" s="20">
-        <v>132.35</v>
+        <v>128.83000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,13 +2534,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>54.37</v>
+        <v>43.37</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>127.77</v>
+        <v>101.92</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,13 +2590,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="18">
-        <v>48.5</v>
+        <v>47</v>
       </c>
       <c r="C31" s="19">
         <v>2.5</v>
       </c>
       <c r="D31" s="20">
-        <v>121.25</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2640,13 +2646,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="18">
-        <v>87.5</v>
+        <v>86</v>
       </c>
       <c r="C35" s="19">
         <v>2.7</v>
       </c>
       <c r="D35" s="20">
-        <v>236.25</v>
+        <v>232.2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,13 +2688,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="18">
-        <v>122.5</v>
+        <v>120</v>
       </c>
       <c r="C38" s="19">
         <v>2.85</v>
       </c>
       <c r="D38" s="20">
-        <v>349.13</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,13 +2786,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>166.5</v>
+        <v>116.5</v>
       </c>
       <c r="C45" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D45" s="20">
-        <v>183.15</v>
+        <v>128.15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2794,13 +2800,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="C46" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>334.4</v>
+        <v>268.39999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,13 +2828,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>415.8</v>
+        <v>343.2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2850,13 +2856,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>226.6</v>
+        <v>150.69999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2976,13 +2982,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="18">
-        <v>49.5</v>
+        <v>48</v>
       </c>
       <c r="C59" s="19">
         <v>2.1</v>
       </c>
       <c r="D59" s="20">
-        <v>103.95</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,13 +2996,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="18">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C60" s="19">
         <v>2.1</v>
       </c>
       <c r="D60" s="20">
-        <v>741.3</v>
+        <v>737.1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,13 +3024,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="18">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C62" s="19">
         <v>0.52</v>
       </c>
       <c r="D62" s="20">
-        <v>130</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3032,13 +3038,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="18">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C63" s="19">
         <v>0.52</v>
       </c>
       <c r="D63" s="20">
-        <v>119.08</v>
+        <v>108.68</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3060,13 +3066,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="18">
-        <v>155.5</v>
+        <v>153.5</v>
       </c>
       <c r="C65" s="19">
         <v>0.7</v>
       </c>
       <c r="D65" s="20">
-        <v>108.85</v>
+        <v>107.45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,13 +3094,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="18">
-        <v>99.5</v>
+        <v>89.5</v>
       </c>
       <c r="C67" s="19">
         <v>0.9</v>
       </c>
       <c r="D67" s="20">
-        <v>89.55</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,13 +3108,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C68" s="19">
         <v>1.55</v>
       </c>
       <c r="D68" s="20">
-        <v>553.35</v>
+        <v>548.70000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,13 +3136,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="18">
-        <v>631.5</v>
+        <v>627.5</v>
       </c>
       <c r="C70" s="19">
         <v>1.55</v>
       </c>
       <c r="D70" s="20">
-        <v>978.83</v>
+        <v>972.63</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,7 +3160,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>187.5</v>
+        <v>137.5</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
@@ -3204,13 +3210,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>447.5</v>
+        <v>445.5</v>
       </c>
       <c r="C77" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D77" s="20">
-        <v>514.63</v>
+        <v>512.33000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,13 +3238,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C79" s="19">
         <v>1.4</v>
       </c>
       <c r="D79" s="20">
-        <v>750.4</v>
+        <v>729.4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,13 +3252,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>27.5</v>
+        <v>25.5</v>
       </c>
       <c r="C80" s="19">
         <v>1.4</v>
       </c>
       <c r="D80" s="20">
-        <v>38.5</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,13 +3266,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>26.5</v>
+        <v>16.5</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>37.1</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,13 +3280,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="18">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82" s="19">
         <v>2</v>
       </c>
       <c r="D82" s="20">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,13 +3294,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C83" s="19">
         <v>2</v>
       </c>
       <c r="D83" s="20">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,13 +3308,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="18">
-        <v>462.5</v>
+        <v>456</v>
       </c>
       <c r="C84" s="19">
         <v>1.26</v>
       </c>
       <c r="D84" s="20">
-        <v>582.75</v>
+        <v>574.55999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,13 +3322,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>457.5</v>
+        <v>450.5</v>
       </c>
       <c r="C85" s="19">
         <v>1.26</v>
       </c>
       <c r="D85" s="20">
-        <v>576.45000000000005</v>
+        <v>567.63</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3438,13 +3444,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="18">
-        <v>30.5</v>
+        <v>47.5</v>
       </c>
       <c r="C94" s="19">
         <v>12.5</v>
       </c>
       <c r="D94" s="20">
-        <v>381.25</v>
+        <v>593.75</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3480,13 +3486,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>39.5</v>
+        <v>38</v>
       </c>
       <c r="C97" s="19">
         <v>12.5</v>
       </c>
       <c r="D97" s="20">
-        <v>493.75</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3536,13 +3542,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>268.75</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3564,13 +3570,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>1</v>
+        <v>17.5</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>12.5</v>
+        <v>218.75</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3774,13 +3780,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C118" s="19">
         <v>15.5</v>
       </c>
       <c r="D118" s="20">
-        <v>325.5</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3788,13 +3794,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="18">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C119" s="19">
         <v>15.5</v>
       </c>
       <c r="D119" s="20">
-        <v>131.75</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3830,13 +3836,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" s="19">
         <v>18.34</v>
       </c>
       <c r="D122" s="20">
-        <v>220.11</v>
+        <v>201.76</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3872,13 +3878,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="18">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C125" s="19">
         <v>18.37</v>
       </c>
       <c r="D125" s="20">
-        <v>91.85</v>
+        <v>82.66</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3956,13 +3962,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C131" s="19">
         <v>18.37</v>
       </c>
       <c r="D131" s="20">
-        <v>220.43</v>
+        <v>211.25</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3998,13 +4004,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C134" s="19">
         <v>2.8</v>
       </c>
       <c r="D134" s="20">
-        <v>78.400000000000006</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4026,13 +4032,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C136" s="19">
         <v>2.75</v>
       </c>
       <c r="D136" s="20">
-        <v>220</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4054,13 +4060,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="18">
-        <v>58.5</v>
+        <v>53.5</v>
       </c>
       <c r="C138" s="19">
         <v>3.4</v>
       </c>
       <c r="D138" s="20">
-        <v>198.9</v>
+        <v>181.9</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4082,13 +4088,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>36.5</v>
+        <v>31.5</v>
       </c>
       <c r="C140" s="19">
         <v>2.7</v>
       </c>
       <c r="D140" s="20">
-        <v>98.55</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4110,13 +4116,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>89.5</v>
+        <v>87.5</v>
       </c>
       <c r="C142" s="19">
         <v>2.8</v>
       </c>
       <c r="D142" s="20">
-        <v>250.6</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4194,13 +4200,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="C148" s="19">
         <v>2.95</v>
       </c>
       <c r="D148" s="20">
-        <v>154.88</v>
+        <v>151.93</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4208,13 +4214,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>91</v>
+        <v>89.5</v>
       </c>
       <c r="C149" s="19">
         <v>3</v>
       </c>
       <c r="D149" s="20">
-        <v>273</v>
+        <v>268.5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4404,13 +4410,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="18">
-        <v>158.5</v>
+        <v>157.5</v>
       </c>
       <c r="C163" s="19">
         <v>3</v>
       </c>
       <c r="D163" s="20">
-        <v>475.5</v>
+        <v>472.5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4418,13 +4424,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="18">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C164" s="19">
         <v>4.5</v>
       </c>
       <c r="D164" s="20">
-        <v>594</v>
+        <v>571.5</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4502,13 +4508,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="18">
-        <v>118</v>
+        <v>117.5</v>
       </c>
       <c r="C170" s="19">
         <v>3.93</v>
       </c>
       <c r="D170" s="20">
-        <v>463.75</v>
+        <v>461.79</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,13 +4522,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="18">
-        <v>136.5</v>
+        <v>131.5</v>
       </c>
       <c r="C171" s="19">
         <v>3.96</v>
       </c>
       <c r="D171" s="20">
-        <v>540.16</v>
+        <v>520.38</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,13 +4620,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="18">
-        <v>1.74</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="C178" s="19">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="D178" s="20">
-        <v>5.46</v>
+        <v>239.93</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4628,13 +4634,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="18">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="C179" s="19">
         <v>3.26</v>
       </c>
       <c r="D179" s="20">
-        <v>21.19</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,13 +4676,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C182" s="19">
         <v>3.8</v>
       </c>
       <c r="D182" s="20">
-        <v>64.599999999999994</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,13 +4732,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="18">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="C186" s="19">
         <v>4.12</v>
       </c>
       <c r="D186" s="20">
-        <v>203.78</v>
+        <v>183.19</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,13 +4746,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="18">
-        <v>57</v>
+        <v>54.5</v>
       </c>
       <c r="C187" s="19">
         <v>4.75</v>
       </c>
       <c r="D187" s="20">
-        <v>270.75</v>
+        <v>258.88</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,13 +4830,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="18">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C193" s="19">
         <v>4.5</v>
       </c>
       <c r="D193" s="20">
-        <v>1075.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4838,13 +4844,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="18">
-        <v>180</v>
+        <v>177.5</v>
       </c>
       <c r="C194" s="19">
         <v>4.5</v>
       </c>
       <c r="D194" s="20">
-        <v>810</v>
+        <v>798.75</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4852,13 +4858,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="18">
-        <v>8.5</v>
+        <v>57.5</v>
       </c>
       <c r="C195" s="19">
         <v>5.25</v>
       </c>
       <c r="D195" s="20">
-        <v>44.63</v>
+        <v>301.88</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4880,13 +4886,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>31</v>
+        <v>29.5</v>
       </c>
       <c r="C197" s="19">
         <v>4.8</v>
       </c>
       <c r="D197" s="20">
-        <v>148.80000000000001</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4992,13 +4998,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>34.5</v>
+        <v>32</v>
       </c>
       <c r="C205" s="19">
         <v>6</v>
       </c>
       <c r="D205" s="20">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5006,13 +5012,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="C206" s="19">
         <v>6</v>
       </c>
       <c r="D206" s="20">
-        <v>-54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5020,13 +5026,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C207" s="19">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D207" s="20">
-        <v>273.60000000000002</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5034,13 +5040,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="18">
-        <v>25.5</v>
+        <v>47</v>
       </c>
       <c r="C208" s="19">
-        <v>6.75</v>
+        <v>5.7</v>
       </c>
       <c r="D208" s="20">
-        <v>172.13</v>
+        <v>267.89999999999998</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5048,13 +5054,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="18">
-        <v>0.5</v>
+        <v>25.5</v>
       </c>
       <c r="C209" s="19">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="D209" s="20">
-        <v>3.38</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5062,13 +5068,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>74</v>
+        <v>0.5</v>
       </c>
       <c r="C210" s="19">
-        <v>6.75</v>
+        <v>6.76</v>
       </c>
       <c r="D210" s="20">
-        <v>499.5</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5076,13 +5082,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>151.5</v>
+        <v>74</v>
       </c>
       <c r="C211" s="19">
-        <v>5.97</v>
+        <v>6.75</v>
       </c>
       <c r="D211" s="20">
-        <v>905.2</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5090,13 +5096,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>42.5</v>
+        <v>150.5</v>
       </c>
       <c r="C212" s="19">
-        <v>4.26</v>
+        <v>5.97</v>
       </c>
       <c r="D212" s="20">
-        <v>181.05</v>
+        <v>899.23</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5104,13 +5110,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="18">
-        <v>5.5</v>
+        <v>42.5</v>
       </c>
       <c r="C213" s="19">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="D213" s="20">
-        <v>22</v>
+        <v>181.05</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5118,13 +5124,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="18">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="C214" s="19">
         <v>4</v>
       </c>
       <c r="D214" s="20">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,13 +5138,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="18">
-        <v>83</v>
+        <v>2.5</v>
       </c>
       <c r="C215" s="19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D215" s="20">
-        <v>373.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5146,13 +5152,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="18">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C216" s="19">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D216" s="20">
-        <v>130</v>
+        <v>373.5</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5160,13 +5166,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C217" s="19">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D217" s="20">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5174,13 +5180,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="18">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="C218" s="19">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="D218" s="20">
-        <v>89.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5188,13 +5194,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="18">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="C219" s="19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D219" s="20">
-        <v>84</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5202,13 +5208,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="18">
-        <v>171</v>
+        <v>20.5</v>
       </c>
       <c r="C220" s="19">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="D220" s="20">
-        <v>726.75</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5216,13 +5222,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C221" s="19">
         <v>4.25</v>
       </c>
       <c r="D221" s="20">
-        <v>395.25</v>
+        <v>726.75</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5230,13 +5236,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="18">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C222" s="19">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="D222" s="20">
-        <v>217.36</v>
+        <v>395.25</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5244,13 +5250,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="18">
-        <v>49.5</v>
+        <v>52</v>
       </c>
       <c r="C223" s="19">
         <v>4.18</v>
       </c>
       <c r="D223" s="20">
-        <v>206.91</v>
+        <v>217.36</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5258,13 +5264,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>88.5</v>
+        <v>49.5</v>
       </c>
       <c r="C224" s="19">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="D224" s="20">
-        <v>378.78</v>
+        <v>206.91</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5272,13 +5278,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="18">
-        <v>69.5</v>
+        <v>87</v>
       </c>
       <c r="C225" s="19">
         <v>4.28</v>
       </c>
       <c r="D225" s="20">
-        <v>297.45999999999998</v>
+        <v>372.36</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5286,13 +5292,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="18">
-        <v>35</v>
+        <v>68.5</v>
       </c>
       <c r="C226" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.28</v>
       </c>
       <c r="D226" s="20">
-        <v>161</v>
+        <v>293.18</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5300,13 +5306,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C227" s="19">
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D227" s="20">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5314,13 +5320,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="18">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="C228" s="19">
-        <v>4.95</v>
+        <v>4.75</v>
       </c>
       <c r="D228" s="20">
-        <v>131.18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5328,13 +5334,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="18">
-        <v>22.5</v>
+        <v>26.5</v>
       </c>
       <c r="C229" s="19">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="D229" s="20">
-        <v>106.88</v>
+        <v>131.18</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,13 +5348,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>30.5</v>
+        <v>22.5</v>
       </c>
       <c r="C230" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D230" s="20">
-        <v>152.5</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5356,13 +5362,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>26</v>
+        <v>30.5</v>
       </c>
       <c r="C231" s="19">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D231" s="20">
-        <v>132.6</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5370,13 +5376,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="18">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C232" s="19">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D232" s="20">
-        <v>143.1</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5384,13 +5390,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="C233" s="19">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="D233" s="20">
-        <v>661.5</v>
+        <v>143.1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5398,13 +5404,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="18">
-        <v>5</v>
+        <v>120.5</v>
       </c>
       <c r="C234" s="19">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D234" s="20">
-        <v>27.5</v>
+        <v>650.70000000000005</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5412,13 +5418,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="18">
-        <v>42.5</v>
+        <v>5</v>
       </c>
       <c r="C235" s="19">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="D235" s="20">
-        <v>235.88</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5426,13 +5432,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="18">
-        <v>25.5</v>
+        <v>39.5</v>
       </c>
       <c r="C236" s="19">
-        <v>5.23</v>
+        <v>5.55</v>
       </c>
       <c r="D236" s="20">
-        <v>133.37</v>
+        <v>219.23</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5440,13 +5446,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="18">
-        <v>21</v>
+        <v>25.5</v>
       </c>
       <c r="C237" s="19">
         <v>5.23</v>
       </c>
       <c r="D237" s="20">
-        <v>109.83</v>
+        <v>133.37</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5454,13 +5460,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="C238" s="19">
-        <v>5.46</v>
+        <v>5.23</v>
       </c>
       <c r="D238" s="20">
-        <v>188.37</v>
+        <v>109.83</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5468,13 +5474,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="18">
-        <v>14</v>
+        <v>34.5</v>
       </c>
       <c r="C239" s="19">
-        <v>6.25</v>
+        <v>5.46</v>
       </c>
       <c r="D239" s="20">
-        <v>87.5</v>
+        <v>188.37</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5482,13 +5488,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C240" s="19">
-        <v>6.38</v>
+        <v>6.25</v>
       </c>
       <c r="D240" s="20">
-        <v>261.62</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5496,13 +5502,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C241" s="19">
-        <v>6.5</v>
+        <v>6.38</v>
       </c>
       <c r="D241" s="20">
-        <v>208</v>
+        <v>261.62</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5510,13 +5516,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>23.5</v>
+        <v>32</v>
       </c>
       <c r="C242" s="19">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D242" s="20">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5524,13 +5530,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="18">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C243" s="19">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="D243" s="20">
-        <v>59.4</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5538,13 +5544,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>49.88</v>
+        <v>10</v>
       </c>
       <c r="C244" s="19">
         <v>5.94</v>
       </c>
       <c r="D244" s="20">
-        <v>296.29000000000002</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5552,13 +5558,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="18">
-        <v>24.5</v>
+        <v>48.38</v>
       </c>
       <c r="C245" s="19">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="D245" s="20">
-        <v>139.65</v>
+        <v>287.38</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5566,13 +5572,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="18">
-        <v>85.5</v>
+        <v>24.5</v>
       </c>
       <c r="C246" s="19">
-        <v>5.94</v>
+        <v>5.7</v>
       </c>
       <c r="D246" s="20">
-        <v>507.87</v>
+        <v>139.65</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5580,13 +5586,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>50</v>
+        <v>85.5</v>
       </c>
       <c r="C247" s="19">
         <v>5.94</v>
       </c>
       <c r="D247" s="20">
-        <v>297</v>
+        <v>507.87</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5594,13 +5600,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="18">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C248" s="19">
-        <v>6.67</v>
+        <v>5.94</v>
       </c>
       <c r="D248" s="20">
-        <v>193.43</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5608,13 +5614,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="18">
-        <v>45.5</v>
+        <v>24</v>
       </c>
       <c r="C249" s="19">
-        <v>6.18</v>
+        <v>6.67</v>
       </c>
       <c r="D249" s="20">
-        <v>281.19</v>
+        <v>160.08000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5622,13 +5628,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>18.5</v>
+        <v>45.5</v>
       </c>
       <c r="C250" s="19">
         <v>6.18</v>
       </c>
       <c r="D250" s="20">
-        <v>114.33</v>
+        <v>281.19</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5636,13 +5642,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>47</v>
+        <v>54.5</v>
       </c>
       <c r="C251" s="19">
         <v>6.18</v>
       </c>
       <c r="D251" s="20">
-        <v>290.45999999999998</v>
+        <v>336.81</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5650,13 +5656,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="18">
-        <v>-0.5</v>
+        <v>47</v>
       </c>
       <c r="C252" s="19">
-        <v>6.66</v>
+        <v>6.18</v>
       </c>
       <c r="D252" s="20">
-        <v>-3.33</v>
+        <v>290.45999999999998</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5664,13 +5670,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="18">
-        <v>20</v>
+        <v>-0.5</v>
       </c>
       <c r="C253" s="19">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="D253" s="20">
-        <v>133</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,13 +5684,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="18">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="C254" s="19">
-        <v>6.4</v>
+        <v>6.65</v>
       </c>
       <c r="D254" s="20">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5692,13 +5698,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="18">
-        <v>35</v>
+        <v>22.5</v>
       </c>
       <c r="C255" s="19">
-        <v>6.46</v>
+        <v>6.4</v>
       </c>
       <c r="D255" s="20">
-        <v>226.1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5706,13 +5712,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="18">
-        <v>23.5</v>
+        <v>32</v>
       </c>
       <c r="C256" s="19">
-        <v>6.4</v>
+        <v>6.46</v>
       </c>
       <c r="D256" s="20">
-        <v>150.4</v>
+        <v>206.72</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5720,13 +5726,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>44.5</v>
+        <v>23.5</v>
       </c>
       <c r="C257" s="19">
-        <v>6.65</v>
+        <v>6.4</v>
       </c>
       <c r="D257" s="20">
-        <v>295.93</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5734,13 +5740,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="18">
-        <v>30.5</v>
+        <v>44.5</v>
       </c>
       <c r="C258" s="19">
-        <v>6.18</v>
+        <v>6.65</v>
       </c>
       <c r="D258" s="20">
-        <v>188.49</v>
+        <v>295.93</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5748,13 +5754,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
       <c r="C259" s="19">
-        <v>7.18</v>
+        <v>6.18</v>
       </c>
       <c r="D259" s="20">
-        <v>139.97</v>
+        <v>188.49</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5762,13 +5768,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="18">
-        <v>91</v>
+        <v>19.5</v>
       </c>
       <c r="C260" s="19">
-        <v>7.13</v>
+        <v>7.18</v>
       </c>
       <c r="D260" s="20">
-        <v>648.83000000000004</v>
+        <v>139.97</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5776,13 +5782,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="18">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C261" s="19">
         <v>7.13</v>
       </c>
       <c r="D261" s="20">
-        <v>577.53</v>
+        <v>634.57000000000005</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5790,13 +5796,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>24.5</v>
+        <v>81</v>
       </c>
       <c r="C262" s="19">
         <v>7.13</v>
       </c>
       <c r="D262" s="20">
-        <v>174.69</v>
+        <v>577.53</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5804,13 +5810,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="18">
-        <v>33</v>
+        <v>24.5</v>
       </c>
       <c r="C263" s="19">
-        <v>6.65</v>
+        <v>7.13</v>
       </c>
       <c r="D263" s="20">
-        <v>219.45</v>
+        <v>174.69</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5818,13 +5824,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="18">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C264" s="19">
-        <v>7.6</v>
+        <v>6.65</v>
       </c>
       <c r="D264" s="20">
-        <v>220.4</v>
+        <v>219.45</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5832,13 +5838,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C265" s="19">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="D265" s="20">
-        <v>128</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,10 +5855,10 @@
         <v>16</v>
       </c>
       <c r="C266" s="19">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D266" s="20">
-        <v>121.6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5860,13 +5866,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="18">
-        <v>38.5</v>
+        <v>16</v>
       </c>
       <c r="C267" s="19">
-        <v>8.08</v>
+        <v>7.6</v>
       </c>
       <c r="D267" s="20">
-        <v>311.08</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5874,13 +5880,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="18">
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="C268" s="19">
-        <v>8.75</v>
+        <v>8.08</v>
       </c>
       <c r="D268" s="20">
-        <v>262.5</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5888,13 +5894,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="C269" s="19">
-        <v>8.08</v>
+        <v>8.75</v>
       </c>
       <c r="D269" s="20">
-        <v>157.56</v>
+        <v>245</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,13 +5908,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="18">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="C270" s="19">
-        <v>9</v>
+        <v>8.08</v>
       </c>
       <c r="D270" s="20">
-        <v>90</v>
+        <v>157.56</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5916,13 +5922,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C271" s="19">
-        <v>8.85</v>
+        <v>9</v>
       </c>
       <c r="D271" s="20">
-        <v>8.85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5930,13 +5936,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="18">
-        <v>31.5</v>
+        <v>1</v>
       </c>
       <c r="C272" s="19">
-        <v>9.16</v>
+        <v>8.85</v>
       </c>
       <c r="D272" s="20">
-        <v>288.60000000000002</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5944,13 +5950,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>22.5</v>
+        <v>31.5</v>
       </c>
       <c r="C273" s="19">
-        <v>9.25</v>
+        <v>9.16</v>
       </c>
       <c r="D273" s="20">
-        <v>208.13</v>
+        <v>288.60000000000002</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5958,13 +5964,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="18">
-        <v>35.700000000000003</v>
+        <v>22.5</v>
       </c>
       <c r="C274" s="19">
-        <v>8.8000000000000007</v>
+        <v>9.25</v>
       </c>
       <c r="D274" s="20">
-        <v>314.16000000000003</v>
+        <v>208.13</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5972,13 +5978,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="18">
-        <v>30.5</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C275" s="19">
-        <v>9.31</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D275" s="20">
-        <v>284.02999999999997</v>
+        <v>287.76</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5986,13 +5992,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="18">
-        <v>14</v>
+        <v>30.5</v>
       </c>
       <c r="C276" s="19">
-        <v>9</v>
+        <v>9.31</v>
       </c>
       <c r="D276" s="20">
-        <v>126</v>
+        <v>284.02999999999997</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6000,13 +6006,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="18">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="C277" s="19">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D277" s="20">
-        <v>61.75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6014,13 +6020,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="18">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="C278" s="19">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D278" s="20">
-        <v>130</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6028,13 +6034,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C279" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D279" s="20">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,13 +6048,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="18">
-        <v>46.5</v>
+        <v>9</v>
       </c>
       <c r="C280" s="19">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="D280" s="20">
-        <v>430.13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6056,13 +6062,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="18">
-        <v>26.5</v>
+        <v>46.5</v>
       </c>
       <c r="C281" s="19">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="D281" s="20">
-        <v>311.38</v>
+        <v>430.13</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6070,13 +6076,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>32</v>
+        <v>26.5</v>
       </c>
       <c r="C282" s="19">
-        <v>4.8</v>
+        <v>11.75</v>
       </c>
       <c r="D282" s="20">
-        <v>153.6</v>
+        <v>311.38</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6084,13 +6090,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="18">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C283" s="19">
-        <v>8.25</v>
+        <v>4.8</v>
       </c>
       <c r="D283" s="20">
-        <v>99</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6098,13 +6104,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="18">
-        <v>75.5</v>
+        <v>11</v>
       </c>
       <c r="C284" s="19">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="D284" s="20">
-        <v>415.25</v>
+        <v>90.75</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6112,13 +6118,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>53.5</v>
+        <v>75.5</v>
       </c>
       <c r="C285" s="19">
-        <v>6.86</v>
+        <v>5.5</v>
       </c>
       <c r="D285" s="20">
-        <v>367.04</v>
+        <v>415.25</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6126,13 +6132,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="18">
-        <v>59.5</v>
+        <v>55.5</v>
       </c>
       <c r="C286" s="19">
-        <v>6.9</v>
+        <v>6.86</v>
       </c>
       <c r="D286" s="20">
-        <v>410.55</v>
+        <v>380.76</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6140,13 +6146,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="18">
-        <v>18</v>
+        <v>59.5</v>
       </c>
       <c r="C287" s="19">
-        <v>7.13</v>
+        <v>6.9</v>
       </c>
       <c r="D287" s="20">
-        <v>128.34</v>
+        <v>410.55</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6154,13 +6160,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="18">
-        <v>26.5</v>
+        <v>18</v>
       </c>
       <c r="C288" s="19">
-        <v>8.5</v>
+        <v>7.13</v>
       </c>
       <c r="D288" s="20">
-        <v>225.25</v>
+        <v>128.34</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6168,13 +6174,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="18">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="C289" s="19">
         <v>8.5</v>
       </c>
       <c r="D289" s="20">
-        <v>208.25</v>
+        <v>225.25</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6182,13 +6188,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>38.5</v>
+        <v>24.5</v>
       </c>
       <c r="C290" s="19">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D290" s="20">
-        <v>365.75</v>
+        <v>208.25</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6196,13 +6202,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="18">
-        <v>15.5</v>
+        <v>38.5</v>
       </c>
       <c r="C291" s="19">
-        <v>10.61</v>
+        <v>9.5</v>
       </c>
       <c r="D291" s="20">
-        <v>164.52</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6210,13 +6216,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>37</v>
+        <v>15.5</v>
       </c>
       <c r="C292" s="19">
-        <v>7.84</v>
+        <v>10.61</v>
       </c>
       <c r="D292" s="20">
-        <v>290.08</v>
+        <v>164.52</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6224,13 +6230,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="18">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C293" s="19">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="D293" s="20">
-        <v>109.55</v>
+        <v>290.08</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6238,13 +6244,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="18">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C294" s="19">
-        <v>6.51</v>
+        <v>7.83</v>
       </c>
       <c r="D294" s="20">
-        <v>182.29</v>
+        <v>109.55</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6252,13 +6258,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="18">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C295" s="19">
-        <v>4.9000000000000004</v>
+        <v>6.51</v>
       </c>
       <c r="D295" s="20">
-        <v>548.79999999999995</v>
+        <v>182.29</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6266,13 +6272,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="18">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="C296" s="19">
-        <v>6.65</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D296" s="20">
-        <v>113.05</v>
+        <v>548.79999999999995</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6280,13 +6286,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C297" s="19">
-        <v>7.36</v>
+        <v>6.65</v>
       </c>
       <c r="D297" s="20">
-        <v>198.72</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,13 +6300,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="18">
-        <v>30.5</v>
+        <v>27</v>
       </c>
       <c r="C298" s="19">
-        <v>7.6</v>
+        <v>7.36</v>
       </c>
       <c r="D298" s="20">
-        <v>231.8</v>
+        <v>198.72</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6308,13 +6314,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>23</v>
+        <v>30.5</v>
       </c>
       <c r="C299" s="19">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="D299" s="20">
-        <v>201.35</v>
+        <v>231.8</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6322,13 +6328,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C300" s="19">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="D300" s="20">
-        <v>383.5</v>
+        <v>201.35</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6336,13 +6342,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="18">
-        <v>11.5</v>
+        <v>59</v>
       </c>
       <c r="C301" s="19">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="D301" s="20">
-        <v>195.5</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6350,13 +6356,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="18">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="C302" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D302" s="20">
-        <v>280</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6364,13 +6370,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="18">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="C303" s="19">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="D303" s="20">
-        <v>162.5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6378,13 +6384,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="18">
-        <v>25.5</v>
+        <v>13</v>
       </c>
       <c r="C304" s="19">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="D304" s="20">
-        <v>312.38</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6392,13 +6398,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="18">
-        <v>4.5</v>
+        <v>25.5</v>
       </c>
       <c r="C305" s="19">
-        <v>16.25</v>
+        <v>12.25</v>
       </c>
       <c r="D305" s="20">
-        <v>73.13</v>
+        <v>312.38</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6406,13 +6412,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="18">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="C306" s="19">
-        <v>11</v>
+        <v>16.25</v>
       </c>
       <c r="D306" s="20">
-        <v>104.5</v>
+        <v>73.13</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6420,13 +6426,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="C307" s="19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D307" s="20">
-        <v>90</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6434,13 +6440,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C308" s="19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D308" s="20">
-        <v>190</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6448,13 +6454,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C309" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D309" s="20">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6462,13 +6468,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="18">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C310" s="19">
         <v>11</v>
       </c>
       <c r="D310" s="20">
-        <v>242</v>
+        <v>66</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6476,13 +6482,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C311" s="19">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D311" s="20">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6490,13 +6496,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>3.99</v>
+        <v>7</v>
       </c>
       <c r="C312" s="19">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D312" s="20">
-        <v>47.88</v>
+        <v>273</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6504,13 +6510,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>16.5</v>
+        <v>1.49</v>
       </c>
       <c r="C313" s="19">
         <v>12</v>
       </c>
       <c r="D313" s="20">
-        <v>198</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6518,13 +6524,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="C314" s="19">
-        <v>7.84</v>
+        <v>12</v>
       </c>
       <c r="D314" s="20">
-        <v>152.88</v>
+        <v>198</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6532,13 +6538,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="18">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="C315" s="19">
-        <v>11</v>
+        <v>7.84</v>
       </c>
       <c r="D315" s="20">
-        <v>126.5</v>
+        <v>152.88</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6546,13 +6552,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="18">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C316" s="19">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="D316" s="20">
-        <v>282</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6560,13 +6566,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C317" s="19">
-        <v>14.79</v>
+        <v>23.5</v>
       </c>
       <c r="D317" s="20">
-        <v>295.74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6574,13 +6580,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="18">
-        <v>4.5</v>
+        <v>20</v>
       </c>
       <c r="C318" s="19">
-        <v>13.5</v>
+        <v>14.79</v>
       </c>
       <c r="D318" s="20">
-        <v>60.75</v>
+        <v>295.74</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,13 +6594,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="18">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C319" s="19">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="D319" s="20">
-        <v>36.75</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6602,13 +6608,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="18">
-        <v>43.23</v>
+        <v>2.5</v>
       </c>
       <c r="C320" s="19">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D320" s="20">
-        <v>432.3</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6616,13 +6622,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="18">
-        <v>5.5</v>
+        <v>43.23</v>
       </c>
       <c r="C321" s="19">
         <v>10</v>
       </c>
       <c r="D321" s="20">
-        <v>55</v>
+        <v>432.3</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,13 +6636,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="18">
-        <v>16</v>
+        <v>37.5</v>
       </c>
       <c r="C322" s="19">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D322" s="20">
-        <v>168</v>
+        <v>375</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6644,13 +6650,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="18">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="C323" s="19">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="D323" s="20">
-        <v>128.25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6658,13 +6664,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="18">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
       <c r="C324" s="19">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="D324" s="20">
-        <v>333</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6672,13 +6678,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="C325" s="19">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="D325" s="20">
-        <v>110.25</v>
+        <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6686,13 +6692,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>58</v>
+        <v>10.5</v>
       </c>
       <c r="C326" s="19">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D326" s="20">
-        <v>551</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6700,13 +6706,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>19.5</v>
+        <v>57</v>
       </c>
       <c r="C327" s="19">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="D327" s="20">
-        <v>292.5</v>
+        <v>541.5</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,13 +6720,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="C328" s="19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D328" s="20">
-        <v>105</v>
+        <v>255</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6728,13 +6734,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="18">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="C329" s="19">
         <v>10</v>
       </c>
       <c r="D329" s="20">
-        <v>240</v>
+        <v>105</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6742,13 +6748,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="18">
+        <v>24</v>
+      </c>
+      <c r="C330" s="19">
         <v>10</v>
       </c>
-      <c r="C330" s="19">
-        <v>17</v>
-      </c>
       <c r="D330" s="20">
-        <v>170</v>
+        <v>240</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,13 +6762,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="18">
-        <v>34.5</v>
+        <v>10</v>
       </c>
       <c r="C331" s="19">
-        <v>7.84</v>
+        <v>17</v>
       </c>
       <c r="D331" s="20">
-        <v>270.48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6770,13 +6776,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>15.5</v>
+        <v>49</v>
       </c>
       <c r="C332" s="19">
-        <v>25</v>
+        <v>7.84</v>
       </c>
       <c r="D332" s="20">
-        <v>387.5</v>
+        <v>384.16</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6784,13 +6790,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="18">
-        <v>3</v>
+        <v>15.5</v>
       </c>
       <c r="C333" s="19">
-        <v>14.2</v>
+        <v>25</v>
       </c>
       <c r="D333" s="20">
-        <v>42.6</v>
+        <v>387.5</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6798,13 +6804,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="18">
-        <v>32.5</v>
+        <v>3</v>
       </c>
       <c r="C334" s="19">
-        <v>10.93</v>
+        <v>14.2</v>
       </c>
       <c r="D334" s="20">
-        <v>355.23</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6812,13 +6818,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="18">
-        <v>14</v>
+        <v>32.5</v>
       </c>
       <c r="C335" s="19">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="D335" s="20">
-        <v>159.6</v>
+        <v>355.23</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6826,13 +6832,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="18">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="C336" s="19">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="D336" s="20">
-        <v>43.75</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6840,13 +6846,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="18">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="C337" s="19">
-        <v>21.5</v>
+        <v>12.5</v>
       </c>
       <c r="D337" s="20">
-        <v>129</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6854,13 +6860,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="18">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="C338" s="19">
-        <v>12.75</v>
+        <v>21.5</v>
       </c>
       <c r="D338" s="20">
-        <v>172.13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6868,13 +6874,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>21.75</v>
+        <v>13.5</v>
       </c>
       <c r="C339" s="19">
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="D339" s="20">
-        <v>250.13</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6882,13 +6888,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="18">
-        <v>8</v>
+        <v>21.75</v>
       </c>
       <c r="C340" s="19">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="D340" s="20">
-        <v>136</v>
+        <v>250.13</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6896,13 +6902,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="18">
-        <v>31.5</v>
+        <v>8</v>
       </c>
       <c r="C341" s="19">
-        <v>11.4</v>
+        <v>17</v>
       </c>
       <c r="D341" s="20">
-        <v>359.1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,13 +6916,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="18">
-        <v>13.5</v>
+        <v>31.5</v>
       </c>
       <c r="C342" s="19">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="D342" s="20">
-        <v>195.75</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6927,10 +6933,10 @@
         <v>13.5</v>
       </c>
       <c r="C343" s="19">
-        <v>22.5</v>
+        <v>14.5</v>
       </c>
       <c r="D343" s="20">
-        <v>303.75</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6938,13 +6944,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C344" s="19">
-        <v>12.5</v>
+        <v>22.5</v>
       </c>
       <c r="D344" s="20">
-        <v>162.5</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6952,13 +6958,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C345" s="19">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="D345" s="20">
-        <v>114</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6969,10 +6975,10 @@
         <v>12</v>
       </c>
       <c r="C346" s="19">
-        <v>10.93</v>
+        <v>9.5</v>
       </c>
       <c r="D346" s="20">
-        <v>131.16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6980,13 +6986,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C347" s="19">
         <v>10.93</v>
       </c>
       <c r="D347" s="20">
-        <v>218.6</v>
+        <v>120.23</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6994,13 +7000,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="18">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="C348" s="19">
-        <v>14.75</v>
+        <v>10.93</v>
       </c>
       <c r="D348" s="20">
-        <v>95.88</v>
+        <v>185.81</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7008,13 +7014,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="18">
-        <v>34</v>
+        <v>6.5</v>
       </c>
       <c r="C349" s="19">
-        <v>10</v>
+        <v>14.75</v>
       </c>
       <c r="D349" s="20">
-        <v>340</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7022,13 +7028,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="18">
-        <v>1.5</v>
+        <v>34</v>
       </c>
       <c r="C350" s="19">
-        <v>10.45</v>
+        <v>10</v>
       </c>
       <c r="D350" s="20">
-        <v>15.68</v>
+        <v>340</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7036,13 +7042,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="C351" s="19">
-        <v>10.84</v>
+        <v>10.45</v>
       </c>
       <c r="D351" s="20">
-        <v>2.71</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7050,13 +7056,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="18">
-        <v>30.5</v>
+        <v>0.25</v>
       </c>
       <c r="C352" s="19">
-        <v>2</v>
+        <v>10.84</v>
       </c>
       <c r="D352" s="20">
-        <v>61</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7064,13 +7070,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="18">
-        <v>24</v>
+        <v>28.5</v>
       </c>
       <c r="C353" s="19">
         <v>2</v>
       </c>
       <c r="D353" s="20">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7078,13 +7084,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="18">
-        <v>48.5</v>
+        <v>24</v>
       </c>
       <c r="C354" s="19">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D354" s="20">
-        <v>101.85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7092,13 +7098,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>93</v>
+        <v>47.5</v>
       </c>
       <c r="C355" s="19">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D355" s="20">
-        <v>186</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7106,13 +7112,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>52.5</v>
+        <v>93</v>
       </c>
       <c r="C356" s="19">
         <v>2</v>
       </c>
       <c r="D356" s="20">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7120,13 +7126,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>13</v>
+        <v>52.5</v>
       </c>
       <c r="C357" s="19">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D357" s="20">
-        <v>32.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,13 +7140,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="18">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C358" s="19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D358" s="20">
-        <v>150.75</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7148,13 +7154,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="18">
-        <v>61.5</v>
+        <v>67</v>
       </c>
       <c r="C359" s="19">
         <v>2.25</v>
       </c>
       <c r="D359" s="20">
-        <v>138.38</v>
+        <v>150.75</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7162,13 +7168,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>24</v>
+        <v>60.5</v>
       </c>
       <c r="C360" s="19">
         <v>2.25</v>
       </c>
       <c r="D360" s="20">
-        <v>54</v>
+        <v>136.13</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7176,13 +7182,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C361" s="19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="D361" s="20">
-        <v>37.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7190,13 +7196,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="18">
-        <v>48.5</v>
+        <v>15</v>
       </c>
       <c r="C362" s="19">
         <v>2.5</v>
       </c>
       <c r="D362" s="20">
-        <v>121.25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7204,13 +7210,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>23.5</v>
+        <v>48.5</v>
       </c>
       <c r="C363" s="19">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D363" s="20">
-        <v>63.45</v>
+        <v>121.25</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7218,13 +7224,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>63</v>
+        <v>23.5</v>
       </c>
       <c r="C364" s="19">
         <v>2.7</v>
       </c>
       <c r="D364" s="20">
-        <v>170.1</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7232,13 +7238,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>57.5</v>
+        <v>63</v>
       </c>
       <c r="C365" s="19">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D365" s="20">
-        <v>149.5</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7246,13 +7252,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="18">
-        <v>72</v>
+        <v>57.5</v>
       </c>
       <c r="C366" s="19">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="D366" s="20">
-        <v>198</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7260,13 +7266,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="18">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C367" s="19">
         <v>2.75</v>
       </c>
       <c r="D367" s="20">
-        <v>214.5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7274,13 +7280,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="18">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C368" s="19">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="D368" s="20">
-        <v>171</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7288,13 +7294,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>14.5</v>
+        <v>45</v>
       </c>
       <c r="C369" s="19">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D369" s="20">
-        <v>40.6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7302,13 +7308,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="18">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="C370" s="19">
         <v>2.8</v>
       </c>
       <c r="D370" s="20">
-        <v>70</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7316,13 +7322,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C371" s="19">
         <v>2.8</v>
       </c>
       <c r="D371" s="20">
-        <v>120.4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7333,10 +7339,10 @@
         <v>43</v>
       </c>
       <c r="C372" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D372" s="20">
-        <v>126.85</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7344,13 +7350,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="18">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C373" s="19">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="D373" s="20">
-        <v>80.599999999999994</v>
+        <v>123.9</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7358,13 +7364,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="18">
-        <v>20.5</v>
+        <v>26</v>
       </c>
       <c r="C374" s="19">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="D374" s="20">
-        <v>58.43</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7372,13 +7378,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>29.5</v>
+        <v>20.5</v>
       </c>
       <c r="C375" s="19">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="D375" s="20">
-        <v>96.17</v>
+        <v>58.43</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7386,13 +7392,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>38.5</v>
+        <v>29.5</v>
       </c>
       <c r="C376" s="19">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="D376" s="20">
-        <v>127.05</v>
+        <v>96.17</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7400,13 +7406,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="18">
-        <v>13.45</v>
+        <v>38.5</v>
       </c>
       <c r="C377" s="19">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="D377" s="20">
-        <v>42.37</v>
+        <v>127.05</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7414,13 +7420,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>61</v>
+        <v>13.4</v>
       </c>
       <c r="C378" s="19">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="D378" s="20">
-        <v>186.05</v>
+        <v>42.21</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7428,13 +7434,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C379" s="19">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="D379" s="20">
-        <v>29.25</v>
+        <v>186.05</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7442,13 +7448,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="18">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C380" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D380" s="20">
-        <v>122.5</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7456,13 +7462,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="18">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C381" s="19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D381" s="20">
-        <v>143</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7470,13 +7476,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="C382" s="19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="D382" s="20">
-        <v>66.3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7484,13 +7490,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>35.46</v>
+        <v>19.5</v>
       </c>
       <c r="C383" s="19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D383" s="20">
-        <v>124.11</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7498,13 +7504,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="18">
-        <v>58.5</v>
+        <v>9</v>
       </c>
       <c r="C384" s="19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D384" s="20">
-        <v>222.3</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7512,13 +7518,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="18">
-        <v>28</v>
+        <v>21.46</v>
       </c>
       <c r="C385" s="19">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D385" s="20">
-        <v>109.2</v>
+        <v>75.11</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7526,13 +7532,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="18">
-        <v>34</v>
+        <v>57.5</v>
       </c>
       <c r="C386" s="19">
-        <v>3.33</v>
+        <v>3.8</v>
       </c>
       <c r="D386" s="20">
-        <v>113.22</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7540,13 +7546,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="18">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C387" s="19">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="D387" s="20">
-        <v>183.15</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,13 +7560,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="18">
-        <v>49.5</v>
+        <v>34</v>
       </c>
       <c r="C388" s="19">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="D388" s="20">
-        <v>188.1</v>
+        <v>113.22</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7568,13 +7574,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="18">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C389" s="19">
-        <v>4.25</v>
+        <v>3.33</v>
       </c>
       <c r="D389" s="20">
-        <v>119</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7582,13 +7588,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="18">
-        <v>28.5</v>
+        <v>49.5</v>
       </c>
       <c r="C390" s="19">
         <v>3.8</v>
       </c>
       <c r="D390" s="20">
-        <v>108.3</v>
+        <v>188.1</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7596,13 +7602,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="18">
-        <v>53.5</v>
+        <v>27</v>
       </c>
       <c r="C391" s="19">
-        <v>4.1500000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="D391" s="20">
-        <v>222.05</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7610,13 +7616,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="18">
-        <v>12.5</v>
+        <v>28.5</v>
       </c>
       <c r="C392" s="19">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="D392" s="20">
-        <v>53.13</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7624,13 +7630,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="18">
-        <v>13</v>
+        <v>53.5</v>
       </c>
       <c r="C393" s="19">
-        <v>4.75</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D393" s="20">
-        <v>61.75</v>
+        <v>222.05</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7638,13 +7644,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="18">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="C394" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="D394" s="20">
-        <v>98</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7652,13 +7658,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="18">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C395" s="19">
-        <v>4.28</v>
+        <v>4.75</v>
       </c>
       <c r="D395" s="20">
-        <v>128.4</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7666,13 +7672,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C396" s="19">
-        <v>4.18</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D396" s="20">
-        <v>125.4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7680,13 +7686,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="18">
-        <v>116.5</v>
+        <v>30</v>
       </c>
       <c r="C397" s="19">
         <v>4.28</v>
       </c>
       <c r="D397" s="20">
-        <v>498.62</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7694,13 +7700,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>48.5</v>
+        <v>30</v>
       </c>
       <c r="C398" s="19">
-        <v>4.75</v>
+        <v>4.18</v>
       </c>
       <c r="D398" s="20">
-        <v>230.38</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7708,13 +7714,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>34</v>
+        <v>116.5</v>
       </c>
       <c r="C399" s="19">
-        <v>4.75</v>
+        <v>4.28</v>
       </c>
       <c r="D399" s="20">
-        <v>161.5</v>
+        <v>498.62</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7722,13 +7728,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="18">
-        <v>17.5</v>
+        <v>48.5</v>
       </c>
       <c r="C400" s="19">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="D400" s="20">
-        <v>91.88</v>
+        <v>230.38</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7736,13 +7742,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C401" s="19">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D401" s="20">
-        <v>58.5</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7750,13 +7756,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="18">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="C402" s="19">
         <v>5.25</v>
       </c>
       <c r="D402" s="20">
-        <v>57.75</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7764,13 +7770,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="18">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C403" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="D403" s="20">
-        <v>133.4</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7778,13 +7784,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>51.5</v>
+        <v>11</v>
       </c>
       <c r="C404" s="19">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="D404" s="20">
-        <v>283.25</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7792,13 +7798,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>5.5</v>
+        <v>29</v>
       </c>
       <c r="C405" s="19">
-        <v>5.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D405" s="20">
-        <v>30.25</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7806,13 +7812,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>29.5</v>
+        <v>51.5</v>
       </c>
       <c r="C406" s="19">
-        <v>5.23</v>
+        <v>5.5</v>
       </c>
       <c r="D406" s="20">
-        <v>154.29</v>
+        <v>283.25</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7820,13 +7826,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="18">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="C407" s="19">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="D407" s="20">
-        <v>65.63</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7834,13 +7840,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="18">
-        <v>43</v>
+        <v>29.5</v>
       </c>
       <c r="C408" s="19">
-        <v>6</v>
+        <v>5.23</v>
       </c>
       <c r="D408" s="20">
-        <v>258</v>
+        <v>154.29</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7848,13 +7854,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>20.5</v>
+        <v>10.5</v>
       </c>
       <c r="C409" s="19">
-        <v>5.94</v>
+        <v>6.25</v>
       </c>
       <c r="D409" s="20">
-        <v>121.77</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7862,13 +7868,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="18">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C410" s="19">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="D410" s="20">
-        <v>141.75</v>
+        <v>258</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7876,13 +7882,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="18">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="C411" s="19">
-        <v>7.5</v>
+        <v>5.94</v>
       </c>
       <c r="D411" s="20">
-        <v>97.5</v>
+        <v>109.89</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7890,13 +7896,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C412" s="19">
-        <v>7.13</v>
+        <v>6.75</v>
       </c>
       <c r="D412" s="20">
-        <v>263.81</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7904,13 +7910,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C413" s="19">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D413" s="20">
-        <v>192</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7918,13 +7924,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="18">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C414" s="19">
-        <v>7</v>
+        <v>7.13</v>
       </c>
       <c r="D414" s="20">
-        <v>140</v>
+        <v>263.81</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7932,13 +7938,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="18">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="C415" s="19">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D415" s="20">
-        <v>140.6</v>
+        <v>192</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7946,13 +7952,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="18">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C416" s="19">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="D416" s="20">
-        <v>365.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7960,13 +7966,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>24.5</v>
+        <v>16.5</v>
       </c>
       <c r="C417" s="19">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D417" s="20">
-        <v>183.75</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7974,13 +7980,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>11.5</v>
+        <v>43</v>
       </c>
       <c r="C418" s="19">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D418" s="20">
-        <v>103.5</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7988,13 +7994,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="18">
-        <v>18.5</v>
+        <v>24.5</v>
       </c>
       <c r="C419" s="19">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="D419" s="20">
-        <v>69.38</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8002,13 +8008,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>21.5</v>
+        <v>11.5</v>
       </c>
       <c r="C420" s="19">
-        <v>4.28</v>
+        <v>9</v>
       </c>
       <c r="D420" s="20">
-        <v>92.02</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8016,13 +8022,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="18">
-        <v>37</v>
+        <v>18.5</v>
       </c>
       <c r="C421" s="19">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="D421" s="20">
-        <v>351.5</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8030,13 +8036,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="18">
-        <v>35.5</v>
+        <v>21.5</v>
       </c>
       <c r="C422" s="19">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="D422" s="20">
-        <v>159.75</v>
+        <v>92.02</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8044,13 +8050,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="18">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C423" s="19">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="D423" s="20">
-        <v>140</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8058,13 +8064,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>38</v>
+        <v>35.5</v>
       </c>
       <c r="C424" s="19">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="D424" s="20">
-        <v>216.6</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,13 +8078,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C425" s="19">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="D425" s="20">
-        <v>65.23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8086,13 +8092,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C426" s="19">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="D426" s="20">
-        <v>172.9</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,13 +8106,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="C427" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="D427" s="20">
-        <v>-3.3</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,13 +8120,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C428" s="19">
-        <v>4.1500000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="D428" s="20">
-        <v>232.4</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8128,13 +8134,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="18">
-        <v>114</v>
+        <v>-3</v>
       </c>
       <c r="C429" s="19">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D429" s="20">
-        <v>159.6</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8142,13 +8148,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="18">
-        <v>149.5</v>
+        <v>56</v>
       </c>
       <c r="C430" s="19">
-        <v>1.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D430" s="20">
-        <v>209.3</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8156,13 +8162,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="18">
-        <v>78.5</v>
+        <v>114</v>
       </c>
       <c r="C431" s="19">
         <v>1.4</v>
       </c>
       <c r="D431" s="20">
-        <v>109.9</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8170,13 +8176,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>20</v>
+        <v>149.5</v>
       </c>
       <c r="C432" s="19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D432" s="20">
-        <v>60</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8184,13 +8190,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>30.5</v>
+        <v>78.5</v>
       </c>
       <c r="C433" s="19">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="D433" s="20">
-        <v>93.03</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8198,13 +8204,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C434" s="19">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="D434" s="20">
-        <v>43.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8212,13 +8218,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>1</v>
+        <v>30.5</v>
       </c>
       <c r="C435" s="19">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="D435" s="20">
-        <v>1.55</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8226,13 +8232,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="C436" s="19">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="D436" s="20">
-        <v>209.49</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8240,13 +8246,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C437" s="19">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="D437" s="20">
-        <v>135</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8254,13 +8260,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C438" s="19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="D438" s="20">
-        <v>270</v>
+        <v>209.49</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8268,13 +8274,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="C439" s="19">
         <v>1.5</v>
       </c>
       <c r="D439" s="20">
-        <v>516</v>
+        <v>135</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8282,13 +8288,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="18">
-        <v>73</v>
+        <v>175.5</v>
       </c>
       <c r="C440" s="19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="D440" s="20">
-        <v>124.83</v>
+        <v>263.25</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8296,13 +8302,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>128.5</v>
+        <v>344</v>
       </c>
       <c r="C441" s="19">
-        <v>0.39</v>
+        <v>1.5</v>
       </c>
       <c r="D441" s="20">
-        <v>50.34</v>
+        <v>516</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8310,13 +8316,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>89.7</v>
+        <v>73</v>
       </c>
       <c r="C442" s="19">
-        <v>2.2799999999999998</v>
+        <v>1.71</v>
       </c>
       <c r="D442" s="20">
-        <v>204.52</v>
+        <v>124.83</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8324,13 +8330,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="18">
-        <v>33.5</v>
+        <v>128.5</v>
       </c>
       <c r="C443" s="19">
-        <v>2.2799999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="D443" s="20">
-        <v>76.38</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8338,13 +8344,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>22</v>
+        <v>89.7</v>
       </c>
       <c r="C444" s="19">
-        <v>2.4700000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D444" s="20">
-        <v>54.34</v>
+        <v>204.52</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8352,13 +8358,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>19.5</v>
+        <v>167.5</v>
       </c>
       <c r="C445" s="19">
-        <v>2.75</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D445" s="20">
-        <v>53.63</v>
+        <v>381.9</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8366,13 +8372,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="18">
-        <v>71.5</v>
+        <v>22</v>
       </c>
       <c r="C446" s="19">
-        <v>2.73</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D446" s="20">
-        <v>195.49</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8380,13 +8386,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>116</v>
+        <v>18.5</v>
       </c>
       <c r="C447" s="19">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="D447" s="20">
-        <v>324.8</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8394,13 +8400,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>48.5</v>
+        <v>71.5</v>
       </c>
       <c r="C448" s="19">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="D448" s="20">
-        <v>143.08000000000001</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8408,13 +8414,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C449" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D449" s="20">
-        <v>118</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8422,13 +8428,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>30</v>
+        <v>48.5</v>
       </c>
       <c r="C450" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D450" s="20">
-        <v>105</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8436,13 +8442,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C451" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D451" s="20">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8450,13 +8456,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>57.5</v>
+        <v>30</v>
       </c>
       <c r="C452" s="19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D452" s="20">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8464,13 +8470,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C453" s="19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D453" s="20">
-        <v>147.19999999999999</v>
+        <v>105</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8478,13 +8484,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>46</v>
+        <v>57.5</v>
       </c>
       <c r="C454" s="19">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="D454" s="20">
-        <v>131.1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8492,13 +8498,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>56.5</v>
+        <v>46</v>
       </c>
       <c r="C455" s="19">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="D455" s="20">
-        <v>183.63</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,13 +8512,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="C456" s="19">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="D456" s="20">
-        <v>151.13</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8520,13 +8526,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>11</v>
+        <v>56.5</v>
       </c>
       <c r="C457" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D457" s="20">
-        <v>38.5</v>
+        <v>183.63</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8534,13 +8540,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>22</v>
+        <v>46.5</v>
       </c>
       <c r="C458" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D458" s="20">
-        <v>77</v>
+        <v>151.13</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8548,13 +8554,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="18">
-        <v>40.5</v>
+        <v>11</v>
       </c>
       <c r="C459" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D459" s="20">
-        <v>134.87</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8562,13 +8568,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>51.5</v>
+        <v>21</v>
       </c>
       <c r="C460" s="19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D460" s="20">
-        <v>195.7</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8576,13 +8582,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>71.5</v>
+        <v>40.5</v>
       </c>
       <c r="C461" s="19">
-        <v>3.71</v>
+        <v>3.33</v>
       </c>
       <c r="D461" s="20">
-        <v>265.52</v>
+        <v>134.87</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8590,13 +8596,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>42</v>
+        <v>51.5</v>
       </c>
       <c r="C462" s="19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D462" s="20">
-        <v>151.19999999999999</v>
+        <v>195.7</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8607,10 +8613,10 @@
         <v>71.5</v>
       </c>
       <c r="C463" s="19">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="D463" s="20">
-        <v>257.39999999999998</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8618,13 +8624,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>22.5</v>
+        <v>42</v>
       </c>
       <c r="C464" s="19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D464" s="20">
-        <v>90</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8632,13 +8638,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>22</v>
+        <v>64.5</v>
       </c>
       <c r="C465" s="19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D465" s="20">
-        <v>88</v>
+        <v>232.2</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8646,13 +8652,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>31.5</v>
+        <v>22.5</v>
       </c>
       <c r="C466" s="19">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D466" s="20">
-        <v>121.28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8660,13 +8666,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C467" s="19">
         <v>4</v>
       </c>
       <c r="D467" s="20">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8674,13 +8680,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>34</v>
+        <v>31.5</v>
       </c>
       <c r="C468" s="19">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="D468" s="20">
-        <v>129.19999999999999</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8688,13 +8694,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>35.5</v>
+        <v>13</v>
       </c>
       <c r="C469" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D469" s="20">
-        <v>134.9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8702,13 +8708,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C470" s="19">
-        <v>4.3099999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D470" s="20">
-        <v>185.33</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8716,13 +8722,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>23</v>
+        <v>35.5</v>
       </c>
       <c r="C471" s="19">
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="D471" s="20">
-        <v>101.2</v>
+        <v>134.9</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8730,13 +8736,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="C472" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D472" s="20">
-        <v>59.4</v>
+        <v>181.02</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8744,13 +8750,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C473" s="19">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D473" s="20">
-        <v>75</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8758,13 +8764,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="C474" s="19">
-        <v>4.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D474" s="20">
-        <v>26.13</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8772,13 +8778,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C475" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D475" s="20">
-        <v>133</v>
+        <v>65</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8786,13 +8792,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>35.5</v>
+        <v>5.5</v>
       </c>
       <c r="C476" s="19">
         <v>4.75</v>
       </c>
       <c r="D476" s="20">
-        <v>168.63</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8800,13 +8806,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C477" s="19">
         <v>4.75</v>
       </c>
       <c r="D477" s="20">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8814,13 +8820,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>10.5</v>
+        <v>35.5</v>
       </c>
       <c r="C478" s="19">
         <v>4.75</v>
       </c>
       <c r="D478" s="20">
-        <v>49.88</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8828,13 +8834,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>44.5</v>
+        <v>20</v>
       </c>
       <c r="C479" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D479" s="20">
-        <v>222.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8842,13 +8848,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>28.5</v>
+        <v>10.5</v>
       </c>
       <c r="C480" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D480" s="20">
-        <v>142.5</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8856,13 +8862,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>18</v>
+        <v>44.5</v>
       </c>
       <c r="C481" s="19">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D481" s="20">
-        <v>94.5</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8870,13 +8876,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>35</v>
+        <v>28.5</v>
       </c>
       <c r="C482" s="19">
         <v>5</v>
       </c>
       <c r="D482" s="20">
-        <v>175</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8884,13 +8890,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C483" s="19">
-        <v>5.41</v>
+        <v>5.25</v>
       </c>
       <c r="D483" s="20">
-        <v>113.56</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8898,13 +8904,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C484" s="19">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D484" s="20">
-        <v>456.5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8912,13 +8918,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>23.5</v>
+        <v>21</v>
       </c>
       <c r="C485" s="19">
-        <v>5.75</v>
+        <v>5.41</v>
       </c>
       <c r="D485" s="20">
-        <v>135.13</v>
+        <v>113.56</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8926,13 +8932,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>14.5</v>
+        <v>83</v>
       </c>
       <c r="C486" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D486" s="20">
-        <v>83.38</v>
+        <v>456.5</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8940,13 +8946,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>53</v>
+        <v>23.5</v>
       </c>
       <c r="C487" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D487" s="20">
-        <v>291.5</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8954,13 +8960,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>27.5</v>
+        <v>14.5</v>
       </c>
       <c r="C488" s="19">
         <v>5.75</v>
       </c>
       <c r="D488" s="20">
-        <v>158.13</v>
+        <v>83.38</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8968,13 +8974,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>27.5</v>
+        <v>53</v>
       </c>
       <c r="C489" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D489" s="20">
-        <v>158.13</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8982,13 +8988,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>47</v>
+        <v>27.5</v>
       </c>
       <c r="C490" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D490" s="20">
-        <v>282</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8996,13 +9002,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>7</v>
+        <v>27.5</v>
       </c>
       <c r="C491" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D491" s="20">
-        <v>42</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9010,13 +9016,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C492" s="19">
         <v>6</v>
       </c>
       <c r="D492" s="20">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9024,13 +9030,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="C493" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D493" s="20">
-        <v>59.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9038,13 +9044,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="18">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C494" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D494" s="20">
-        <v>238</v>
+        <v>156</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9052,13 +9058,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="C495" s="19">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="D495" s="20">
-        <v>126.88</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,13 +9072,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>21.5</v>
+        <v>34</v>
       </c>
       <c r="C496" s="19">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="D496" s="20">
-        <v>166.63</v>
+        <v>238</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9080,13 +9086,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="C497" s="19">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="D497" s="20">
-        <v>92</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9094,13 +9100,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="18">
-        <v>7</v>
+        <v>21.5</v>
       </c>
       <c r="C498" s="19">
-        <v>10</v>
+        <v>7.75</v>
       </c>
       <c r="D498" s="20">
-        <v>70</v>
+        <v>166.63</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9108,13 +9114,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="C499" s="19">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="D499" s="20">
-        <v>161.88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9122,13 +9128,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>16.5</v>
+        <v>4.5</v>
       </c>
       <c r="C500" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D500" s="20">
-        <v>181.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9136,13 +9142,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>69.5</v>
+        <v>18.5</v>
       </c>
       <c r="C501" s="19">
-        <v>2.76</v>
+        <v>8.75</v>
       </c>
       <c r="D501" s="20">
-        <v>191.82</v>
+        <v>161.88</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9150,13 +9156,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>61</v>
+        <v>16.5</v>
       </c>
       <c r="C502" s="19">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="D502" s="20">
-        <v>168.36</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9164,13 +9170,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>90</v>
+        <v>69.5</v>
       </c>
       <c r="C503" s="19">
         <v>2.76</v>
       </c>
       <c r="D503" s="20">
-        <v>248.4</v>
+        <v>191.82</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9178,13 +9184,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C504" s="19">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D504" s="20">
-        <v>95.2</v>
+        <v>168.36</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9192,13 +9198,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>47</v>
+        <v>86.5</v>
       </c>
       <c r="C505" s="19">
-        <v>2.87</v>
+        <v>2.76</v>
       </c>
       <c r="D505" s="20">
-        <v>134.97999999999999</v>
+        <v>238.74</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9206,13 +9212,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="18">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="C506" s="19">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="D506" s="20">
-        <v>111.78</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9220,13 +9226,13 @@
         <v>509</v>
       </c>
       <c r="B507" s="18">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C507" s="19">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="D507" s="20">
-        <v>57.96</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9234,13 +9240,13 @@
         <v>510</v>
       </c>
       <c r="B508" s="18">
-        <v>43</v>
+        <v>40.5</v>
       </c>
       <c r="C508" s="19">
         <v>2.76</v>
       </c>
       <c r="D508" s="20">
-        <v>118.68</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9248,13 +9254,13 @@
         <v>511</v>
       </c>
       <c r="B509" s="18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C509" s="19">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="D509" s="20">
-        <v>105</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9262,13 +9268,13 @@
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>41.5</v>
+        <v>43</v>
       </c>
       <c r="C510" s="19">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="D510" s="20">
-        <v>124.5</v>
+        <v>118.68</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9276,13 +9282,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>63.5</v>
+        <v>30</v>
       </c>
       <c r="C511" s="19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D511" s="20">
-        <v>190.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9290,13 +9296,13 @@
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>26.5</v>
+        <v>41.5</v>
       </c>
       <c r="C512" s="19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D512" s="20">
-        <v>82.15</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9304,13 +9310,13 @@
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>7</v>
+        <v>62.5</v>
       </c>
       <c r="C513" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D513" s="20">
-        <v>42</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9318,13 +9324,13 @@
         <v>516</v>
       </c>
       <c r="B514" s="18">
-        <v>37</v>
+        <v>24.5</v>
       </c>
       <c r="C514" s="19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D514" s="20">
-        <v>148</v>
+        <v>75.95</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9332,13 +9338,13 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>24.5</v>
+        <v>7</v>
       </c>
       <c r="C515" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D515" s="20">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9346,13 +9352,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C516" s="19">
         <v>4</v>
       </c>
       <c r="D516" s="20">
-        <v>96</v>
+        <v>148</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9360,13 +9366,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>20</v>
+        <v>23.5</v>
       </c>
       <c r="C517" s="19">
         <v>4</v>
       </c>
       <c r="D517" s="20">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9374,13 +9380,13 @@
         <v>520</v>
       </c>
       <c r="B518" s="18">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C518" s="19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="D518" s="20">
-        <v>215.25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9388,13 +9394,13 @@
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="C519" s="19">
-        <v>5.01</v>
+        <v>4</v>
       </c>
       <c r="D519" s="20">
-        <v>112.83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9402,13 +9408,13 @@
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>239.5</v>
+        <v>41</v>
       </c>
       <c r="C520" s="19">
-        <v>1.92</v>
+        <v>5.25</v>
       </c>
       <c r="D520" s="20">
-        <v>459.95</v>
+        <v>215.25</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9416,13 +9422,13 @@
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>-2.5</v>
+        <v>15.5</v>
       </c>
       <c r="C521" s="19">
-        <v>1.96</v>
+        <v>5.01</v>
       </c>
       <c r="D521" s="20">
-        <v>-4.9000000000000004</v>
+        <v>77.73</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9430,13 +9436,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>231.5</v>
+        <v>238</v>
       </c>
       <c r="C522" s="19">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="D522" s="20">
-        <v>446.71</v>
+        <v>457.07</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9444,13 +9450,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>97.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C523" s="19">
-        <v>2.84</v>
+        <v>1.96</v>
       </c>
       <c r="D523" s="20">
-        <v>276.69</v>
+        <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9458,13 +9464,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>0.5</v>
+        <v>231.5</v>
       </c>
       <c r="C524" s="19">
-        <v>4.28</v>
+        <v>1.93</v>
       </c>
       <c r="D524" s="20">
-        <v>2.14</v>
+        <v>446.71</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9472,13 +9478,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>27.5</v>
+        <v>91.5</v>
       </c>
       <c r="C525" s="19">
-        <v>4.28</v>
+        <v>2.84</v>
       </c>
       <c r="D525" s="20">
-        <v>117.7</v>
+        <v>259.66000000000003</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9486,13 +9492,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>43.5</v>
+        <v>0.5</v>
       </c>
       <c r="C526" s="19">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="D526" s="20">
-        <v>176.18</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9500,13 +9506,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>62.5</v>
+        <v>27.5</v>
       </c>
       <c r="C527" s="19">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="D527" s="20">
-        <v>253.13</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9514,13 +9520,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>86.5</v>
+        <v>43.5</v>
       </c>
       <c r="C528" s="19">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="D528" s="20">
-        <v>120.42</v>
+        <v>176.18</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9528,13 +9534,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>349.5</v>
+        <v>62.5</v>
       </c>
       <c r="C529" s="19">
-        <v>1.4</v>
+        <v>4.05</v>
       </c>
       <c r="D529" s="20">
-        <v>489.3</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9542,13 +9548,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C530" s="19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="D530" s="20">
-        <v>81.2</v>
+        <v>111.37</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9556,27 +9562,35 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>48.5</v>
-      </c>
-      <c r="C531" s="21"/>
-      <c r="D531" s="22"/>
+        <v>349.5</v>
+      </c>
+      <c r="C531" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D531" s="20">
+        <v>489.3</v>
+      </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>19.5</v>
-      </c>
-      <c r="C532" s="21"/>
-      <c r="D532" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="C532" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D532" s="20">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="C533" s="21"/>
       <c r="D533" s="22"/>
@@ -9586,7 +9600,7 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>34.299999999999997</v>
+        <v>19.5</v>
       </c>
       <c r="C534" s="21"/>
       <c r="D534" s="22"/>
@@ -9596,7 +9610,7 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>470</v>
+        <v>47.5</v>
       </c>
       <c r="C535" s="21"/>
       <c r="D535" s="22"/>
@@ -9606,41 +9620,33 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>1705.5</v>
-      </c>
-      <c r="C536" s="19">
-        <v>0.83</v>
-      </c>
-      <c r="D536" s="20">
-        <v>1407.04</v>
-      </c>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C536" s="21"/>
+      <c r="D536" s="22"/>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>550</v>
-      </c>
-      <c r="C537" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="D537" s="20">
-        <v>440</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C537" s="21"/>
+      <c r="D537" s="22"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>661</v>
+        <v>1705.5</v>
       </c>
       <c r="C538" s="19">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D538" s="20">
-        <v>528.79999999999995</v>
+        <v>1407.04</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9648,13 +9654,13 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>376.5</v>
+        <v>546</v>
       </c>
       <c r="C539" s="19">
         <v>0.8</v>
       </c>
       <c r="D539" s="20">
-        <v>301.2</v>
+        <v>436.8</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9662,13 +9668,13 @@
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>65</v>
+        <v>661</v>
       </c>
       <c r="C540" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D540" s="20">
-        <v>33.799999999999997</v>
+        <v>528.79999999999995</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9676,13 +9682,13 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>18</v>
+        <v>372.5</v>
       </c>
       <c r="C541" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D541" s="20">
-        <v>9.36</v>
+        <v>298</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9690,13 +9696,13 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>675</v>
+        <v>44</v>
       </c>
       <c r="C542" s="19">
         <v>0.52</v>
       </c>
       <c r="D542" s="20">
-        <v>351</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9704,13 +9710,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>874.5</v>
+        <v>17</v>
       </c>
       <c r="C543" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D543" s="20">
-        <v>612.15</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9718,13 +9724,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>241</v>
+        <v>669</v>
       </c>
       <c r="C544" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D544" s="20">
-        <v>168.7</v>
+        <v>347.88</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9732,13 +9738,13 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>310.5</v>
+        <v>868</v>
       </c>
       <c r="C545" s="19">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D545" s="20">
-        <v>211.76</v>
+        <v>607.6</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9746,61 +9752,61 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>227</v>
-      </c>
-      <c r="C546" s="21"/>
-      <c r="D546" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="C546" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D546" s="20">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>147</v>
-      </c>
-      <c r="C547" s="21"/>
-      <c r="D547" s="22"/>
+        <v>306.5</v>
+      </c>
+      <c r="C547" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D547" s="20">
+        <v>209.04</v>
+      </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>1</v>
-      </c>
-      <c r="C548" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="D548" s="20">
-        <v>4.5</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C548" s="21"/>
+      <c r="D548" s="22"/>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>41</v>
-      </c>
-      <c r="C549" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="D549" s="20">
-        <v>184.5</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C549" s="21"/>
+      <c r="D549" s="22"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C550" s="19">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D550" s="20">
-        <v>21</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9808,25 +9814,53 @@
         <v>553</v>
       </c>
       <c r="B551" s="18">
+        <v>41</v>
+      </c>
+      <c r="C551" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D551" s="20">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="B552" s="18">
+        <v>7</v>
+      </c>
+      <c r="C552" s="19">
         <v>3</v>
       </c>
-      <c r="C551" s="19">
+      <c r="D552" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B553" s="18">
         <v>3</v>
       </c>
-      <c r="D551" s="20">
+      <c r="C553" s="19">
+        <v>3</v>
+      </c>
+      <c r="D553" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="B552" s="24">
-        <v>38631.300000000003</v>
-      </c>
-      <c r="C552" s="25"/>
-      <c r="D552" s="26">
-        <v>108063.11</v>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="B554" s="24">
+        <v>38417.75</v>
+      </c>
+      <c r="C554" s="25"/>
+      <c r="D554" s="26">
+        <v>108770.9</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="561">
   <si>
     <t>StkSummary</t>
   </si>
@@ -245,9 +245,15 @@
     <t>1910 PATRIKA (S.S. 56)</t>
   </si>
   <si>
+    <t>1911 PATRIKA - B</t>
+  </si>
+  <si>
     <t>1911 PATRIKA (GOLDEN)</t>
   </si>
   <si>
+    <t>1912 PATRIKA - B</t>
+  </si>
+  <si>
     <t>1912 PATRIKA (RED)</t>
   </si>
   <si>
@@ -314,6 +320,12 @@
     <t>1934 PATRIKA</t>
   </si>
   <si>
+    <t>1937 PATRIKA</t>
+  </si>
+  <si>
+    <t>1939 PATRIKA</t>
+  </si>
+  <si>
     <t>2021 PATRIKA {L}</t>
   </si>
   <si>
@@ -770,7 +782,7 @@
     <t>5879 PATRIKA</t>
   </si>
   <si>
-    <t>5880 PATRIKA</t>
+    <t>5880 PATRIKA ( Halka D/f)</t>
   </si>
   <si>
     <t>5881 PATRIKA</t>
@@ -977,7 +989,7 @@
     <t>6512 PATRIKA {M}</t>
   </si>
   <si>
-    <t>6513 PATRIKA {M} (3600)</t>
+    <t>6513 PATRIKA {M}</t>
   </si>
   <si>
     <t>6514 PATRIKA</t>
@@ -1136,7 +1148,7 @@
     <t>7266 PATRIKA</t>
   </si>
   <si>
-    <t>7267 PATRIKA</t>
+    <t>7267 PATRIKA (Halka D/f)</t>
   </si>
   <si>
     <t>7268 PATRIKA</t>
@@ -2187,7 +2199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D554"/>
+  <dimension ref="A1:D558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2296,13 +2308,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="18">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="20">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,13 +2322,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="18">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C11" s="19">
         <v>0.92</v>
       </c>
       <c r="D11" s="20">
-        <v>157.36000000000001</v>
+        <v>148.16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,13 +2336,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>212.5</v>
+        <v>192.5</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>350.63</v>
+        <v>317.63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,13 +2350,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="18">
-        <v>178.5</v>
+        <v>173.5</v>
       </c>
       <c r="C13" s="19">
         <v>1.65</v>
       </c>
       <c r="D13" s="20">
-        <v>294.52999999999997</v>
+        <v>286.27999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,13 +2378,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="18">
-        <v>81.5</v>
+        <v>80.5</v>
       </c>
       <c r="C15" s="19">
         <v>1.8</v>
       </c>
       <c r="D15" s="20">
-        <v>146.69999999999999</v>
+        <v>144.9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,13 +2476,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>84.5</v>
+        <v>82.5</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,13 +2504,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="18">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="19">
         <v>2.1</v>
       </c>
       <c r="D24" s="20">
-        <v>113.4</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2548,13 +2560,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>179.8</v>
+        <v>176.8</v>
       </c>
       <c r="C28" s="19">
         <v>2.59</v>
       </c>
       <c r="D28" s="20">
-        <v>464.91</v>
+        <v>457.15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,13 +2644,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="18">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="C34" s="19">
         <v>2.7</v>
       </c>
       <c r="D34" s="20">
-        <v>136.35</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,13 +2798,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>116.5</v>
+        <v>104.5</v>
       </c>
       <c r="C45" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D45" s="20">
-        <v>128.15</v>
+        <v>114.95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,13 +2812,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C46" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>268.39999999999998</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,13 +2840,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>343.2</v>
+        <v>338.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,13 +2868,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>150.69999999999999</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,13 +2910,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>567.5</v>
+        <v>563.5</v>
       </c>
       <c r="C53" s="19">
         <v>1.9</v>
       </c>
       <c r="D53" s="20">
-        <v>1078.25</v>
+        <v>1070.6500000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,13 +2952,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="18">
-        <v>453.5</v>
+        <v>452.5</v>
       </c>
       <c r="C56" s="19">
         <v>1.9</v>
       </c>
       <c r="D56" s="20">
-        <v>861.65</v>
+        <v>859.75</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,13 +3092,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C66" s="19">
         <v>0.9</v>
       </c>
       <c r="D66" s="20">
-        <v>19.8</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,13 +3120,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C68" s="19">
         <v>1.55</v>
       </c>
       <c r="D68" s="20">
-        <v>548.70000000000005</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3122,13 +3134,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="18">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C69" s="19">
         <v>1.55</v>
       </c>
       <c r="D69" s="20">
-        <v>654.1</v>
+        <v>647.9</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,7 +3162,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="18">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
@@ -3160,7 +3172,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="18">
-        <v>137.5</v>
+        <v>128</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
@@ -3170,7 +3182,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="18">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
@@ -3180,7 +3192,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>315.5</v>
+        <v>37.5</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
@@ -3190,7 +3202,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="18">
-        <v>165.5</v>
+        <v>120</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
@@ -3200,7 +3212,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="18">
-        <v>37</v>
+        <v>367.5</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
@@ -3210,41 +3222,33 @@
         <v>79</v>
       </c>
       <c r="B77" s="18">
-        <v>445.5</v>
-      </c>
-      <c r="C77" s="19">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D77" s="20">
-        <v>512.33000000000004</v>
-      </c>
+        <v>165.5</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>427.5</v>
-      </c>
-      <c r="C78" s="19">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D78" s="20">
-        <v>491.63</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>521</v>
+        <v>441.5</v>
       </c>
       <c r="C79" s="19">
-        <v>1.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D79" s="20">
-        <v>729.4</v>
+        <v>507.73</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,13 +3256,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="18">
-        <v>25.5</v>
+        <v>374.5</v>
       </c>
       <c r="C80" s="19">
-        <v>1.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D80" s="20">
-        <v>35.700000000000003</v>
+        <v>430.68</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,13 +3270,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>16.5</v>
+        <v>506</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>23.1</v>
+        <v>708.4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,13 +3284,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="18">
-        <v>132</v>
+        <v>18.5</v>
       </c>
       <c r="C82" s="19">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D82" s="20">
-        <v>264</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,13 +3298,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>237</v>
+        <v>16.5</v>
       </c>
       <c r="C83" s="19">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>474</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,13 +3312,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="18">
-        <v>456</v>
+        <v>125.5</v>
       </c>
       <c r="C84" s="19">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="D84" s="20">
-        <v>574.55999999999995</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,13 +3326,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>450.5</v>
+        <v>237</v>
       </c>
       <c r="C85" s="19">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="D85" s="20">
-        <v>567.63</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,13 +3340,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="18">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="C86" s="19">
-        <v>0.55000000000000004</v>
+        <v>1.26</v>
       </c>
       <c r="D86" s="20">
-        <v>11</v>
+        <v>574.55999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,13 +3354,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="18">
-        <v>20</v>
+        <v>450.5</v>
       </c>
       <c r="C87" s="19">
-        <v>0.55000000000000004</v>
+        <v>1.26</v>
       </c>
       <c r="D87" s="20">
-        <v>11</v>
+        <v>567.63</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,13 +3382,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C89" s="19">
         <v>0.55000000000000004</v>
       </c>
       <c r="D89" s="20">
-        <v>9.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,13 +3396,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C90" s="19">
-        <v>1.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D90" s="20">
-        <v>12.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,13 +3410,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="18">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C91" s="19">
-        <v>1.1499999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D91" s="20">
-        <v>5.75</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,13 +3424,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" s="19">
-        <v>1.1499999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="D92" s="20">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,23 +3438,27 @@
         <v>95</v>
       </c>
       <c r="B93" s="18">
-        <v>-10</v>
-      </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="C93" s="19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D93" s="20">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="18">
-        <v>47.5</v>
+        <v>10</v>
       </c>
       <c r="C94" s="19">
-        <v>12.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D94" s="20">
-        <v>593.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,55 +3466,43 @@
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>14.5</v>
-      </c>
-      <c r="C95" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="D95" s="20">
-        <v>181.25</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="18">
-        <v>36</v>
-      </c>
-      <c r="C96" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="D96" s="20">
-        <v>450</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="18">
-        <v>38</v>
-      </c>
-      <c r="C97" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="D97" s="20">
-        <v>475</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="18">
-        <v>18.5</v>
+        <v>41.5</v>
       </c>
       <c r="C98" s="19">
         <v>12.5</v>
       </c>
       <c r="D98" s="20">
-        <v>231.25</v>
+        <v>518.75</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3514,13 +3510,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="18">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C99" s="19">
         <v>12.5</v>
       </c>
       <c r="D99" s="20">
-        <v>412.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3528,13 +3524,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="18">
-        <v>42.86</v>
+        <v>20</v>
       </c>
       <c r="C100" s="19">
         <v>12.5</v>
       </c>
       <c r="D100" s="20">
-        <v>535.75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3542,13 +3538,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="18">
-        <v>21</v>
+        <v>36.5</v>
       </c>
       <c r="C101" s="19">
         <v>12.5</v>
       </c>
       <c r="D101" s="20">
-        <v>262.5</v>
+        <v>456.25</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,13 +3552,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>262.5</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3570,13 +3566,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>17.5</v>
+        <v>33</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>218.75</v>
+        <v>412.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3584,13 +3580,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>7</v>
+        <v>42.86</v>
       </c>
       <c r="C104" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>108.5</v>
+        <v>535.75</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,13 +3594,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C105" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D105" s="20">
-        <v>139.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,10 +3611,10 @@
         <v>21</v>
       </c>
       <c r="C106" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D106" s="20">
-        <v>325.5</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,13 +3622,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="18">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="C107" s="19">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D107" s="20">
-        <v>147.25</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,13 +3636,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="18">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C108" s="19">
         <v>15.5</v>
       </c>
       <c r="D108" s="20">
-        <v>279</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,13 +3650,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="18">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="C109" s="19">
         <v>15.5</v>
       </c>
       <c r="D109" s="20">
-        <v>85.25</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,13 +3664,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="18">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="C110" s="19">
         <v>15.5</v>
       </c>
       <c r="D110" s="20">
-        <v>286.75</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3682,13 +3678,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="18">
-        <v>20</v>
+        <v>9.5</v>
       </c>
       <c r="C111" s="19">
         <v>15.5</v>
       </c>
       <c r="D111" s="20">
-        <v>310</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,13 +3692,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="18">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="C112" s="19">
         <v>15.5</v>
       </c>
       <c r="D112" s="20">
-        <v>271.25</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,13 +3706,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="18">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="C113" s="19">
         <v>15.5</v>
       </c>
       <c r="D113" s="20">
-        <v>325.5</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3724,13 +3720,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="18">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="C114" s="19">
         <v>15.5</v>
       </c>
       <c r="D114" s="20">
-        <v>155</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,13 +3734,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="18">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C115" s="19">
         <v>15.5</v>
       </c>
       <c r="D115" s="20">
-        <v>240.25</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3752,13 +3748,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="18">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="C116" s="19">
         <v>15.5</v>
       </c>
       <c r="D116" s="20">
-        <v>325.5</v>
+        <v>271.25</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,13 +3762,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C117" s="19">
         <v>15.5</v>
       </c>
       <c r="D117" s="20">
-        <v>263.5</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,13 +3776,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C118" s="19">
         <v>15.5</v>
       </c>
       <c r="D118" s="20">
-        <v>263.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,13 +3790,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="18">
-        <v>7.5</v>
+        <v>15.5</v>
       </c>
       <c r="C119" s="19">
         <v>15.5</v>
       </c>
       <c r="D119" s="20">
-        <v>116.25</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3822,13 +3818,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C121" s="19">
-        <v>18.45</v>
+        <v>15.5</v>
       </c>
       <c r="D121" s="20">
-        <v>387.41</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3836,13 +3832,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C122" s="19">
-        <v>18.34</v>
+        <v>15.5</v>
       </c>
       <c r="D122" s="20">
-        <v>201.76</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3850,13 +3846,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="18">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C123" s="19">
-        <v>18.27</v>
+        <v>15.5</v>
       </c>
       <c r="D123" s="20">
-        <v>146.15</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3864,13 +3860,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="18">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="C124" s="19">
-        <v>18.37</v>
+        <v>15.5</v>
       </c>
       <c r="D124" s="20">
-        <v>64.290000000000006</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,13 +3874,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="18">
-        <v>4.5</v>
+        <v>19</v>
       </c>
       <c r="C125" s="19">
-        <v>18.37</v>
+        <v>18.45</v>
       </c>
       <c r="D125" s="20">
-        <v>82.66</v>
+        <v>350.52</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,13 +3888,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="18">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="C126" s="19">
-        <v>18.27</v>
+        <v>18.34</v>
       </c>
       <c r="D126" s="20">
-        <v>45.67</v>
+        <v>201.76</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3906,13 +3902,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="18">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="C127" s="19">
-        <v>18.34</v>
+        <v>18.27</v>
       </c>
       <c r="D127" s="20">
-        <v>155.91</v>
+        <v>146.15</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,13 +3916,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="18">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="C128" s="19">
-        <v>18.440000000000001</v>
+        <v>18.37</v>
       </c>
       <c r="D128" s="20">
-        <v>248.89</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,13 +3944,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C130" s="19">
-        <v>18.34</v>
+        <v>18.27</v>
       </c>
       <c r="D130" s="20">
-        <v>55.03</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3962,13 +3958,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="18">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="C131" s="19">
-        <v>18.37</v>
+        <v>18.34</v>
       </c>
       <c r="D131" s="20">
-        <v>211.25</v>
+        <v>155.91</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3976,13 +3972,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="18">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="C132" s="19">
-        <v>14.5</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="D132" s="20">
-        <v>123.25</v>
+        <v>248.89</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,13 +3986,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="18">
-        <v>54.5</v>
+        <v>4.5</v>
       </c>
       <c r="C133" s="19">
-        <v>3.3</v>
+        <v>18.37</v>
       </c>
       <c r="D133" s="20">
-        <v>179.85</v>
+        <v>82.66</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,13 +4000,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>27</v>
+        <v>1.5</v>
       </c>
       <c r="C134" s="19">
-        <v>2.8</v>
+        <v>18.34</v>
       </c>
       <c r="D134" s="20">
-        <v>75.599999999999994</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4018,13 +4014,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="18">
-        <v>102</v>
+        <v>10.5</v>
       </c>
       <c r="C135" s="19">
-        <v>2.75</v>
+        <v>18.37</v>
       </c>
       <c r="D135" s="20">
-        <v>280.5</v>
+        <v>192.88</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4032,13 +4028,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="18">
-        <v>75</v>
+        <v>8.5</v>
       </c>
       <c r="C136" s="19">
-        <v>2.75</v>
+        <v>14.5</v>
       </c>
       <c r="D136" s="20">
-        <v>206.25</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,13 +4042,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>31</v>
+        <v>54.5</v>
       </c>
       <c r="C137" s="19">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D137" s="20">
-        <v>145.69999999999999</v>
+        <v>179.85</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4060,13 +4056,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="18">
-        <v>53.5</v>
+        <v>25</v>
       </c>
       <c r="C138" s="19">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D138" s="20">
-        <v>181.9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,13 +4070,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="18">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C139" s="19">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="D139" s="20">
-        <v>24.3</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4088,13 +4084,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>31.5</v>
+        <v>75</v>
       </c>
       <c r="C140" s="19">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="D140" s="20">
-        <v>85.05</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4102,13 +4098,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="18">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C141" s="19">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="D141" s="20">
-        <v>210</v>
+        <v>145.69999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,13 +4112,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>87.5</v>
+        <v>52</v>
       </c>
       <c r="C142" s="19">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D142" s="20">
-        <v>245</v>
+        <v>176.8</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,13 +4126,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="18">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C143" s="19">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D143" s="20">
-        <v>257.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4144,13 +4140,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="18">
-        <v>128.5</v>
+        <v>31.5</v>
       </c>
       <c r="C144" s="19">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D144" s="20">
-        <v>359.8</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4158,13 +4154,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="C145" s="19">
         <v>2.8</v>
       </c>
       <c r="D145" s="20">
-        <v>358.4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,13 +4168,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="18">
-        <v>111.5</v>
+        <v>87.5</v>
       </c>
       <c r="C146" s="19">
         <v>2.8</v>
       </c>
       <c r="D146" s="20">
-        <v>312.2</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4186,13 +4182,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="18">
-        <v>78.5</v>
+        <v>97</v>
       </c>
       <c r="C147" s="19">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="D147" s="20">
-        <v>231.58</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,13 +4196,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="18">
-        <v>51.5</v>
+        <v>128.5</v>
       </c>
       <c r="C148" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D148" s="20">
-        <v>151.93</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,13 +4210,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="18">
-        <v>89.5</v>
+        <v>128</v>
       </c>
       <c r="C149" s="19">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D149" s="20">
-        <v>268.5</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,13 +4224,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="18">
-        <v>67</v>
+        <v>111.5</v>
       </c>
       <c r="C150" s="19">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D150" s="20">
-        <v>201</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4242,13 +4238,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="18">
-        <v>112</v>
+        <v>78.5</v>
       </c>
       <c r="C151" s="19">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="D151" s="20">
-        <v>369.6</v>
+        <v>231.58</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,13 +4252,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>114</v>
+        <v>46.5</v>
       </c>
       <c r="C152" s="19">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="D152" s="20">
-        <v>376.2</v>
+        <v>137.18</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,13 +4266,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="18">
-        <v>40</v>
+        <v>89.5</v>
       </c>
       <c r="C153" s="19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D153" s="20">
-        <v>140</v>
+        <v>268.5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,13 +4280,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="18">
-        <v>64.5</v>
+        <v>67</v>
       </c>
       <c r="C154" s="19">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D154" s="20">
-        <v>251.55</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,13 +4294,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="18">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C155" s="19">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D155" s="20">
-        <v>19.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,13 +4308,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="18">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C156" s="19">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D156" s="20">
-        <v>245.7</v>
+        <v>376.2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,13 +4322,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D157" s="20">
-        <v>103.23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,13 +4336,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="18">
-        <v>90</v>
+        <v>64.5</v>
       </c>
       <c r="C158" s="19">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="D158" s="20">
-        <v>299.7</v>
+        <v>251.55</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,13 +4350,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="18">
-        <v>50.5</v>
+        <v>5</v>
       </c>
       <c r="C159" s="19">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="D159" s="20">
-        <v>168.17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,13 +4364,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="18">
-        <v>133.5</v>
+        <v>63</v>
       </c>
       <c r="C160" s="19">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D160" s="20">
-        <v>480.6</v>
+        <v>245.7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,13 +4378,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="18">
-        <v>23.5</v>
+        <v>31</v>
       </c>
       <c r="C161" s="19">
-        <v>3.75</v>
+        <v>3.33</v>
       </c>
       <c r="D161" s="20">
-        <v>88.13</v>
+        <v>103.23</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,13 +4392,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="18">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C162" s="19">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="D162" s="20">
-        <v>330.6</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,13 +4406,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="18">
-        <v>157.5</v>
+        <v>50.5</v>
       </c>
       <c r="C163" s="19">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="D163" s="20">
-        <v>472.5</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,13 +4420,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="18">
-        <v>127</v>
+        <v>133.5</v>
       </c>
       <c r="C164" s="19">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D164" s="20">
-        <v>571.5</v>
+        <v>480.6</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,13 +4434,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="18">
-        <v>51.5</v>
+        <v>23.5</v>
       </c>
       <c r="C165" s="19">
-        <v>4.28</v>
+        <v>3.75</v>
       </c>
       <c r="D165" s="20">
-        <v>220.42</v>
+        <v>88.13</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,13 +4448,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="18">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C166" s="19">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D166" s="20">
-        <v>155</v>
+        <v>326.8</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,13 +4462,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="18">
-        <v>45</v>
+        <v>157.5</v>
       </c>
       <c r="C167" s="19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D167" s="20">
-        <v>139.5</v>
+        <v>472.5</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,13 +4476,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="18">
-        <v>20.5</v>
+        <v>124.5</v>
       </c>
       <c r="C168" s="19">
         <v>4.5</v>
       </c>
       <c r="D168" s="20">
-        <v>92.25</v>
+        <v>560.25</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,13 +4490,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="18">
-        <v>133</v>
+        <v>51.5</v>
       </c>
       <c r="C169" s="19">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="D169" s="20">
-        <v>598.5</v>
+        <v>220.42</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,13 +4504,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="18">
-        <v>117.5</v>
+        <v>50</v>
       </c>
       <c r="C170" s="19">
-        <v>3.93</v>
+        <v>3.1</v>
       </c>
       <c r="D170" s="20">
-        <v>461.79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,13 +4518,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="18">
-        <v>131.5</v>
+        <v>45</v>
       </c>
       <c r="C171" s="19">
-        <v>3.96</v>
+        <v>3.1</v>
       </c>
       <c r="D171" s="20">
-        <v>520.38</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,13 +4532,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="18">
-        <v>68</v>
+        <v>20.5</v>
       </c>
       <c r="C172" s="19">
-        <v>4.1500000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D172" s="20">
-        <v>282.2</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +4546,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="18">
-        <v>79.5</v>
+        <v>133</v>
       </c>
       <c r="C173" s="19">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D173" s="20">
-        <v>238.5</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,13 +4560,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="18">
-        <v>50</v>
+        <v>117.5</v>
       </c>
       <c r="C174" s="19">
-        <v>2.8</v>
+        <v>3.93</v>
       </c>
       <c r="D174" s="20">
-        <v>140</v>
+        <v>461.79</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,13 +4574,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="18">
-        <v>50</v>
+        <v>130.5</v>
       </c>
       <c r="C175" s="19">
-        <v>2.8</v>
+        <v>3.96</v>
       </c>
       <c r="D175" s="20">
-        <v>140</v>
+        <v>516.41999999999996</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,13 +4588,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="18">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C176" s="19">
-        <v>3.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D176" s="20">
-        <v>71.400000000000006</v>
+        <v>282.2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +4602,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="18">
-        <v>22</v>
+        <v>79.5</v>
       </c>
       <c r="C177" s="19">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D177" s="20">
-        <v>99</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,13 +4616,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="18">
-        <v>77.239999999999995</v>
+        <v>50</v>
       </c>
       <c r="C178" s="19">
-        <v>3.11</v>
+        <v>2.8</v>
       </c>
       <c r="D178" s="20">
-        <v>239.93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,13 +4630,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="18">
-        <v>2.5</v>
+        <v>50</v>
       </c>
       <c r="C179" s="19">
-        <v>3.26</v>
+        <v>2.8</v>
       </c>
       <c r="D179" s="20">
-        <v>8.15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,13 +4644,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="18">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C180" s="19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D180" s="20">
-        <v>182</v>
+        <v>71.400000000000006</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,13 +4658,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C181" s="19">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D181" s="20">
-        <v>91.2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,13 +4672,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>16</v>
+        <v>86.24</v>
       </c>
       <c r="C182" s="19">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="D182" s="20">
-        <v>60.8</v>
+        <v>267.88</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,13 +4686,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="18">
-        <v>87</v>
+        <v>2.5</v>
       </c>
       <c r="C183" s="19">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="D183" s="20">
-        <v>330.6</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,10 +4703,10 @@
         <v>52</v>
       </c>
       <c r="C184" s="19">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D184" s="20">
-        <v>187.2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,13 +4714,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="18">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="C185" s="19">
-        <v>4.1100000000000003</v>
+        <v>3.8</v>
       </c>
       <c r="D185" s="20">
-        <v>-41.12</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,13 +4728,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="18">
-        <v>44.5</v>
+        <v>16</v>
       </c>
       <c r="C186" s="19">
-        <v>4.12</v>
+        <v>3.8</v>
       </c>
       <c r="D186" s="20">
-        <v>183.19</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,13 +4742,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="18">
-        <v>54.5</v>
+        <v>87</v>
       </c>
       <c r="C187" s="19">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="D187" s="20">
-        <v>258.88</v>
+        <v>330.6</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,13 +4756,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="18">
-        <v>50.5</v>
+        <v>52</v>
       </c>
       <c r="C188" s="19">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="D188" s="20">
-        <v>239.88</v>
+        <v>187.2</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4774,13 +4770,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="18">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C189" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D189" s="20">
-        <v>127.6</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,13 +4784,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="18">
-        <v>73</v>
+        <v>44.5</v>
       </c>
       <c r="C190" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="D190" s="20">
-        <v>321.2</v>
+        <v>183.19</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,13 +4798,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="18">
-        <v>29.5</v>
+        <v>54.5</v>
       </c>
       <c r="C191" s="19">
-        <v>4.28</v>
+        <v>4.75</v>
       </c>
       <c r="D191" s="20">
-        <v>126.26</v>
+        <v>258.88</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,13 +4812,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="18">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="C192" s="19">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D192" s="20">
-        <v>234</v>
+        <v>239.88</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4830,13 +4826,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="18">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="C193" s="19">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D193" s="20">
-        <v>1021.5</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4844,13 +4840,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="18">
-        <v>177.5</v>
+        <v>73</v>
       </c>
       <c r="C194" s="19">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D194" s="20">
-        <v>798.75</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4858,13 +4854,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="18">
-        <v>57.5</v>
+        <v>29.5</v>
       </c>
       <c r="C195" s="19">
-        <v>5.25</v>
+        <v>4.28</v>
       </c>
       <c r="D195" s="20">
-        <v>301.88</v>
+        <v>126.26</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,13 +4868,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="18">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C196" s="19">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="D196" s="20">
-        <v>172.8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4886,13 +4882,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>29.5</v>
+        <v>224.5</v>
       </c>
       <c r="C197" s="19">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="D197" s="20">
-        <v>141.6</v>
+        <v>1010.25</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4900,13 +4896,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="18">
-        <v>61.5</v>
+        <v>177</v>
       </c>
       <c r="C198" s="19">
         <v>4.5</v>
       </c>
       <c r="D198" s="20">
-        <v>276.75</v>
+        <v>796.5</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4914,13 +4910,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="18">
-        <v>45.5</v>
+        <v>57.5</v>
       </c>
       <c r="C199" s="19">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D199" s="20">
-        <v>216.13</v>
+        <v>301.88</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,13 +4924,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="18">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C200" s="19">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D200" s="20">
-        <v>9.8000000000000007</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,13 +4938,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="18">
-        <v>35.5</v>
+        <v>29.5</v>
       </c>
       <c r="C201" s="19">
-        <v>5.25</v>
+        <v>4.8</v>
       </c>
       <c r="D201" s="20">
-        <v>186.38</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4956,13 +4952,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="18">
-        <v>48.5</v>
+        <v>52.5</v>
       </c>
       <c r="C202" s="19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D202" s="20">
-        <v>254.63</v>
+        <v>236.25</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,13 +4966,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="18">
-        <v>39.5</v>
+        <v>45.5</v>
       </c>
       <c r="C203" s="19">
         <v>4.75</v>
       </c>
       <c r="D203" s="20">
-        <v>187.63</v>
+        <v>216.13</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4984,13 +4980,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="18">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C204" s="19">
-        <v>4.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D204" s="20">
-        <v>332.5</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,13 +4994,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="C205" s="19">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="D205" s="20">
-        <v>192</v>
+        <v>170.63</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,13 +5008,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>18</v>
+        <v>48.5</v>
       </c>
       <c r="C206" s="19">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="D206" s="20">
-        <v>108</v>
+        <v>254.63</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5026,13 +5022,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>5</v>
+        <v>34.5</v>
       </c>
       <c r="C207" s="19">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="D207" s="20">
-        <v>30</v>
+        <v>163.88</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,13 +5036,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="18">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C208" s="19">
-        <v>5.7</v>
+        <v>4.75</v>
       </c>
       <c r="D208" s="20">
-        <v>267.89999999999998</v>
+        <v>332.5</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,13 +5050,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="18">
-        <v>25.5</v>
+        <v>32</v>
       </c>
       <c r="C209" s="19">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="D209" s="20">
-        <v>172.13</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5068,13 +5064,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="18">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="C210" s="19">
-        <v>6.76</v>
+        <v>6</v>
       </c>
       <c r="D210" s="20">
-        <v>3.38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,13 +5078,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="18">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C211" s="19">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="D211" s="20">
-        <v>499.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,13 +5092,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>150.5</v>
+        <v>55</v>
       </c>
       <c r="C212" s="19">
-        <v>5.97</v>
+        <v>5.7</v>
       </c>
       <c r="D212" s="20">
-        <v>899.23</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,13 +5106,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="18">
-        <v>42.5</v>
+        <v>25.5</v>
       </c>
       <c r="C213" s="19">
-        <v>4.26</v>
+        <v>6.75</v>
       </c>
       <c r="D213" s="20">
-        <v>181.05</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,13 +5120,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="18">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="C214" s="19">
-        <v>4</v>
+        <v>6.76</v>
       </c>
       <c r="D214" s="20">
-        <v>22</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,13 +5134,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="18">
-        <v>2.5</v>
+        <v>74</v>
       </c>
       <c r="C215" s="19">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="D215" s="20">
-        <v>10</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5152,13 +5148,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="18">
-        <v>83</v>
+        <v>150.5</v>
       </c>
       <c r="C216" s="19">
-        <v>4.5</v>
+        <v>5.97</v>
       </c>
       <c r="D216" s="20">
-        <v>373.5</v>
+        <v>899.23</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,13 +5162,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="18">
-        <v>20</v>
+        <v>42.5</v>
       </c>
       <c r="C217" s="19">
-        <v>6.5</v>
+        <v>4.26</v>
       </c>
       <c r="D217" s="20">
-        <v>130</v>
+        <v>181.05</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,13 +5176,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C218" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218" s="20">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,13 +5190,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="18">
-        <v>22.5</v>
+        <v>2.5</v>
       </c>
       <c r="C219" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D219" s="20">
-        <v>85.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5208,13 +5204,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="18">
-        <v>20.5</v>
+        <v>83</v>
       </c>
       <c r="C220" s="19">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D220" s="20">
-        <v>71.75</v>
+        <v>373.5</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,13 +5218,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="18">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="C221" s="19">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="D221" s="20">
-        <v>726.75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5236,13 +5232,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="18">
-        <v>93</v>
+        <v>16.5</v>
       </c>
       <c r="C222" s="19">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="D222" s="20">
-        <v>395.25</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5250,13 +5246,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="18">
-        <v>52</v>
+        <v>23.5</v>
       </c>
       <c r="C223" s="19">
-        <v>4.18</v>
+        <v>3.8</v>
       </c>
       <c r="D223" s="20">
-        <v>217.36</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,13 +5260,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>49.5</v>
+        <v>32.5</v>
       </c>
       <c r="C224" s="19">
-        <v>4.18</v>
+        <v>3.5</v>
       </c>
       <c r="D224" s="20">
-        <v>206.91</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5278,13 +5274,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="18">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="C225" s="19">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="D225" s="20">
-        <v>372.36</v>
+        <v>726.75</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5292,13 +5288,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="18">
-        <v>68.5</v>
+        <v>93</v>
       </c>
       <c r="C226" s="19">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="D226" s="20">
-        <v>293.18</v>
+        <v>395.25</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5306,13 +5302,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C227" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.18</v>
       </c>
       <c r="D227" s="20">
-        <v>161</v>
+        <v>217.36</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5320,13 +5316,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="18">
-        <v>24</v>
+        <v>49.5</v>
       </c>
       <c r="C228" s="19">
-        <v>4.75</v>
+        <v>4.18</v>
       </c>
       <c r="D228" s="20">
-        <v>114</v>
+        <v>206.91</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,13 +5330,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="18">
-        <v>26.5</v>
+        <v>87</v>
       </c>
       <c r="C229" s="19">
-        <v>4.95</v>
+        <v>4.28</v>
       </c>
       <c r="D229" s="20">
-        <v>131.18</v>
+        <v>372.36</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,13 +5344,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>22.5</v>
+        <v>68.5</v>
       </c>
       <c r="C230" s="19">
-        <v>4.75</v>
+        <v>4.28</v>
       </c>
       <c r="D230" s="20">
-        <v>106.88</v>
+        <v>293.18</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5362,13 +5358,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="18">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="C231" s="19">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D231" s="20">
-        <v>152.5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5376,13 +5372,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C232" s="19">
-        <v>5.0999999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="D232" s="20">
-        <v>117.3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5390,13 +5386,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C233" s="19">
-        <v>5.3</v>
+        <v>4.95</v>
       </c>
       <c r="D233" s="20">
-        <v>143.1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5404,13 +5400,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="18">
-        <v>120.5</v>
+        <v>22.5</v>
       </c>
       <c r="C234" s="19">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="D234" s="20">
-        <v>650.70000000000005</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5418,13 +5414,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="18">
+        <v>30.5</v>
+      </c>
+      <c r="C235" s="19">
         <v>5</v>
       </c>
-      <c r="C235" s="19">
-        <v>5.5</v>
-      </c>
       <c r="D235" s="20">
-        <v>27.5</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,13 +5428,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="18">
-        <v>39.5</v>
+        <v>23</v>
       </c>
       <c r="C236" s="19">
-        <v>5.55</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D236" s="20">
-        <v>219.23</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5446,13 +5442,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="18">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="C237" s="19">
-        <v>5.23</v>
+        <v>5.3</v>
       </c>
       <c r="D237" s="20">
-        <v>133.37</v>
+        <v>143.1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5460,13 +5456,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="18">
-        <v>21</v>
+        <v>117.5</v>
       </c>
       <c r="C238" s="19">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
       <c r="D238" s="20">
-        <v>109.83</v>
+        <v>634.5</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,13 +5470,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="18">
-        <v>34.5</v>
+        <v>5</v>
       </c>
       <c r="C239" s="19">
-        <v>5.46</v>
+        <v>5.5</v>
       </c>
       <c r="D239" s="20">
-        <v>188.37</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5488,13 +5484,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="18">
-        <v>14</v>
+        <v>39.5</v>
       </c>
       <c r="C240" s="19">
-        <v>6.25</v>
+        <v>5.55</v>
       </c>
       <c r="D240" s="20">
-        <v>87.5</v>
+        <v>219.23</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,13 +5498,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="18">
-        <v>41</v>
+        <v>25.5</v>
       </c>
       <c r="C241" s="19">
-        <v>6.38</v>
+        <v>5.23</v>
       </c>
       <c r="D241" s="20">
-        <v>261.62</v>
+        <v>133.37</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5516,13 +5512,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="18">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C242" s="19">
-        <v>6.5</v>
+        <v>5.23</v>
       </c>
       <c r="D242" s="20">
-        <v>208</v>
+        <v>109.83</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5530,13 +5526,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="18">
-        <v>23</v>
+        <v>34.5</v>
       </c>
       <c r="C243" s="19">
-        <v>6</v>
+        <v>5.46</v>
       </c>
       <c r="D243" s="20">
-        <v>138</v>
+        <v>188.37</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5544,13 +5540,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="18">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="C244" s="19">
-        <v>5.94</v>
+        <v>6.25</v>
       </c>
       <c r="D244" s="20">
-        <v>59.4</v>
+        <v>109.38</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5558,13 +5554,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="18">
-        <v>48.38</v>
+        <v>41</v>
       </c>
       <c r="C245" s="19">
-        <v>5.94</v>
+        <v>6.38</v>
       </c>
       <c r="D245" s="20">
-        <v>287.38</v>
+        <v>261.62</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,13 +5568,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="18">
-        <v>24.5</v>
+        <v>32</v>
       </c>
       <c r="C246" s="19">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="D246" s="20">
-        <v>139.65</v>
+        <v>208</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,13 +5582,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>85.5</v>
+        <v>23</v>
       </c>
       <c r="C247" s="19">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="D247" s="20">
-        <v>507.87</v>
+        <v>138</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5600,13 +5596,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C248" s="19">
         <v>5.94</v>
       </c>
       <c r="D248" s="20">
-        <v>297</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5614,13 +5610,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="18">
-        <v>24</v>
+        <v>48.38</v>
       </c>
       <c r="C249" s="19">
-        <v>6.67</v>
+        <v>5.94</v>
       </c>
       <c r="D249" s="20">
-        <v>160.08000000000001</v>
+        <v>287.38</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,13 +5624,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="18">
-        <v>45.5</v>
+        <v>24.5</v>
       </c>
       <c r="C250" s="19">
-        <v>6.18</v>
+        <v>5.7</v>
       </c>
       <c r="D250" s="20">
-        <v>281.19</v>
+        <v>139.65</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5642,13 +5638,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="18">
-        <v>54.5</v>
+        <v>85.5</v>
       </c>
       <c r="C251" s="19">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="D251" s="20">
-        <v>336.81</v>
+        <v>507.87</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5656,13 +5652,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="18">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C252" s="19">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="D252" s="20">
-        <v>290.45999999999998</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5670,13 +5666,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="18">
-        <v>-0.5</v>
+        <v>27</v>
       </c>
       <c r="C253" s="19">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
       <c r="D253" s="20">
-        <v>-3.33</v>
+        <v>180.09</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5684,13 +5680,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="18">
-        <v>20</v>
+        <v>45.5</v>
       </c>
       <c r="C254" s="19">
-        <v>6.65</v>
+        <v>6.18</v>
       </c>
       <c r="D254" s="20">
-        <v>133</v>
+        <v>281.19</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5698,13 +5694,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="18">
-        <v>22.5</v>
+        <v>54.5</v>
       </c>
       <c r="C255" s="19">
-        <v>6.4</v>
+        <v>6.18</v>
       </c>
       <c r="D255" s="20">
-        <v>144</v>
+        <v>336.81</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5712,13 +5708,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="18">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C256" s="19">
-        <v>6.46</v>
+        <v>6.18</v>
       </c>
       <c r="D256" s="20">
-        <v>206.72</v>
+        <v>290.45999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,13 +5722,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="18">
-        <v>23.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C257" s="19">
-        <v>6.4</v>
+        <v>6.66</v>
       </c>
       <c r="D257" s="20">
-        <v>150.4</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5740,13 +5736,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="18">
-        <v>44.5</v>
+        <v>20</v>
       </c>
       <c r="C258" s="19">
         <v>6.65</v>
       </c>
       <c r="D258" s="20">
-        <v>295.93</v>
+        <v>133</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,13 +5750,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="18">
-        <v>30.5</v>
+        <v>22.5</v>
       </c>
       <c r="C259" s="19">
-        <v>6.18</v>
+        <v>6.4</v>
       </c>
       <c r="D259" s="20">
-        <v>188.49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5768,13 +5764,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="18">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="C260" s="19">
-        <v>7.18</v>
+        <v>6.46</v>
       </c>
       <c r="D260" s="20">
-        <v>139.97</v>
+        <v>174.42</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5782,13 +5778,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="18">
-        <v>89</v>
+        <v>23.5</v>
       </c>
       <c r="C261" s="19">
-        <v>7.13</v>
+        <v>6.4</v>
       </c>
       <c r="D261" s="20">
-        <v>634.57000000000005</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5796,13 +5792,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="18">
-        <v>81</v>
+        <v>43.5</v>
       </c>
       <c r="C262" s="19">
-        <v>7.13</v>
+        <v>6.65</v>
       </c>
       <c r="D262" s="20">
-        <v>577.53</v>
+        <v>289.27999999999997</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,13 +5806,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="18">
-        <v>24.5</v>
+        <v>30.5</v>
       </c>
       <c r="C263" s="19">
-        <v>7.13</v>
+        <v>6.18</v>
       </c>
       <c r="D263" s="20">
-        <v>174.69</v>
+        <v>188.49</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5824,13 +5820,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="18">
-        <v>33</v>
+        <v>19.5</v>
       </c>
       <c r="C264" s="19">
-        <v>6.65</v>
+        <v>7.18</v>
       </c>
       <c r="D264" s="20">
-        <v>219.45</v>
+        <v>139.97</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5838,13 +5834,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C265" s="19">
-        <v>7.6</v>
+        <v>7.13</v>
       </c>
       <c r="D265" s="20">
-        <v>220.4</v>
+        <v>634.57000000000005</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5852,13 +5848,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="18">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C266" s="19">
-        <v>8</v>
+        <v>7.13</v>
       </c>
       <c r="D266" s="20">
-        <v>128</v>
+        <v>577.53</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5866,13 +5862,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="18">
-        <v>16</v>
+        <v>24.5</v>
       </c>
       <c r="C267" s="19">
-        <v>7.6</v>
+        <v>7.13</v>
       </c>
       <c r="D267" s="20">
-        <v>121.6</v>
+        <v>174.69</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,13 +5876,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="18">
-        <v>37.5</v>
+        <v>33</v>
       </c>
       <c r="C268" s="19">
-        <v>8.08</v>
+        <v>6.65</v>
       </c>
       <c r="D268" s="20">
-        <v>303</v>
+        <v>219.45</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5894,13 +5890,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C269" s="19">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="D269" s="20">
-        <v>245</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5908,13 +5904,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="18">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="C270" s="19">
-        <v>8.08</v>
+        <v>8</v>
       </c>
       <c r="D270" s="20">
-        <v>157.56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,13 +5918,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C271" s="19">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="D271" s="20">
-        <v>90</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,13 +5932,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="18">
-        <v>1</v>
+        <v>37.5</v>
       </c>
       <c r="C272" s="19">
-        <v>8.85</v>
+        <v>8.08</v>
       </c>
       <c r="D272" s="20">
-        <v>8.85</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5950,13 +5946,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>31.5</v>
+        <v>28</v>
       </c>
       <c r="C273" s="19">
-        <v>9.16</v>
+        <v>8.75</v>
       </c>
       <c r="D273" s="20">
-        <v>288.60000000000002</v>
+        <v>245</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,13 +5960,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="18">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="C274" s="19">
-        <v>9.25</v>
+        <v>8.08</v>
       </c>
       <c r="D274" s="20">
-        <v>208.13</v>
+        <v>157.56</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,13 +5974,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="18">
-        <v>32.700000000000003</v>
+        <v>10</v>
       </c>
       <c r="C275" s="19">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="D275" s="20">
-        <v>287.76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5992,13 +5988,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="18">
-        <v>30.5</v>
+        <v>1</v>
       </c>
       <c r="C276" s="19">
-        <v>9.31</v>
+        <v>8.85</v>
       </c>
       <c r="D276" s="20">
-        <v>284.02999999999997</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6006,13 +6002,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="18">
-        <v>14</v>
+        <v>31.5</v>
       </c>
       <c r="C277" s="19">
-        <v>9</v>
+        <v>9.16</v>
       </c>
       <c r="D277" s="20">
-        <v>126</v>
+        <v>288.60000000000002</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6020,13 +6016,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="18">
-        <v>6.5</v>
+        <v>22.5</v>
       </c>
       <c r="C278" s="19">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="D278" s="20">
-        <v>61.75</v>
+        <v>208.13</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,13 +6030,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="18">
-        <v>13</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C279" s="19">
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D279" s="20">
-        <v>130</v>
+        <v>292.16000000000003</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6048,13 +6044,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="18">
-        <v>9</v>
+        <v>30.5</v>
       </c>
       <c r="C280" s="19">
-        <v>11</v>
+        <v>9.31</v>
       </c>
       <c r="D280" s="20">
-        <v>99</v>
+        <v>284.02999999999997</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6062,13 +6058,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="18">
-        <v>46.5</v>
+        <v>14</v>
       </c>
       <c r="C281" s="19">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="D281" s="20">
-        <v>430.13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6076,13 +6072,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>26.5</v>
+        <v>5.5</v>
       </c>
       <c r="C282" s="19">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="D282" s="20">
-        <v>311.38</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,13 +6086,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="18">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C283" s="19">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="D283" s="20">
-        <v>153.6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,13 +6100,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="18">
+        <v>9</v>
+      </c>
+      <c r="C284" s="19">
         <v>11</v>
       </c>
-      <c r="C284" s="19">
-        <v>8.25</v>
-      </c>
       <c r="D284" s="20">
-        <v>90.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,13 +6114,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>75.5</v>
+        <v>46.5</v>
       </c>
       <c r="C285" s="19">
-        <v>5.5</v>
+        <v>9.25</v>
       </c>
       <c r="D285" s="20">
-        <v>415.25</v>
+        <v>430.13</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6132,13 +6128,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="18">
-        <v>55.5</v>
+        <v>26.5</v>
       </c>
       <c r="C286" s="19">
-        <v>6.86</v>
+        <v>11.75</v>
       </c>
       <c r="D286" s="20">
-        <v>380.76</v>
+        <v>311.38</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6146,13 +6142,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="18">
-        <v>59.5</v>
+        <v>32</v>
       </c>
       <c r="C287" s="19">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="D287" s="20">
-        <v>410.55</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6160,13 +6156,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C288" s="19">
-        <v>7.13</v>
+        <v>8.25</v>
       </c>
       <c r="D288" s="20">
-        <v>128.34</v>
+        <v>90.75</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6174,13 +6170,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="18">
-        <v>26.5</v>
+        <v>74</v>
       </c>
       <c r="C289" s="19">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="D289" s="20">
-        <v>225.25</v>
+        <v>407</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6188,13 +6184,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>24.5</v>
+        <v>55.5</v>
       </c>
       <c r="C290" s="19">
-        <v>8.5</v>
+        <v>6.86</v>
       </c>
       <c r="D290" s="20">
-        <v>208.25</v>
+        <v>380.76</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6202,13 +6198,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="18">
-        <v>38.5</v>
+        <v>59.5</v>
       </c>
       <c r="C291" s="19">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="D291" s="20">
-        <v>365.75</v>
+        <v>410.55</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6216,13 +6212,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="18">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="C292" s="19">
-        <v>10.61</v>
+        <v>7.13</v>
       </c>
       <c r="D292" s="20">
-        <v>164.52</v>
+        <v>117.65</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6230,13 +6226,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="18">
-        <v>37</v>
+        <v>26.5</v>
       </c>
       <c r="C293" s="19">
-        <v>7.84</v>
+        <v>8.5</v>
       </c>
       <c r="D293" s="20">
-        <v>290.08</v>
+        <v>225.25</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6244,13 +6240,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="18">
-        <v>14</v>
+        <v>24.5</v>
       </c>
       <c r="C294" s="19">
-        <v>7.83</v>
+        <v>8.5</v>
       </c>
       <c r="D294" s="20">
-        <v>109.55</v>
+        <v>208.25</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6258,13 +6254,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="18">
-        <v>28</v>
+        <v>38.5</v>
       </c>
       <c r="C295" s="19">
-        <v>6.51</v>
+        <v>9.5</v>
       </c>
       <c r="D295" s="20">
-        <v>182.29</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,13 +6268,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="18">
-        <v>112</v>
+        <v>15.5</v>
       </c>
       <c r="C296" s="19">
-        <v>4.9000000000000004</v>
+        <v>10.61</v>
       </c>
       <c r="D296" s="20">
-        <v>548.79999999999995</v>
+        <v>164.52</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6286,13 +6282,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="18">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C297" s="19">
-        <v>6.65</v>
+        <v>7.84</v>
       </c>
       <c r="D297" s="20">
-        <v>113.05</v>
+        <v>290.08</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6300,13 +6296,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="18">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="C298" s="19">
-        <v>7.36</v>
+        <v>7.82</v>
       </c>
       <c r="D298" s="20">
-        <v>198.72</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6314,13 +6310,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="18">
-        <v>30.5</v>
+        <v>28</v>
       </c>
       <c r="C299" s="19">
-        <v>7.6</v>
+        <v>6.51</v>
       </c>
       <c r="D299" s="20">
-        <v>231.8</v>
+        <v>182.29</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6328,13 +6324,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C300" s="19">
-        <v>8.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D300" s="20">
-        <v>201.35</v>
+        <v>548.79999999999995</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6342,13 +6338,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="18">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C301" s="19">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
       <c r="D301" s="20">
-        <v>383.5</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6356,13 +6352,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="18">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="C302" s="19">
-        <v>17</v>
+        <v>7.36</v>
       </c>
       <c r="D302" s="20">
-        <v>195.5</v>
+        <v>198.72</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6370,13 +6366,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="18">
-        <v>17.5</v>
+        <v>30.5</v>
       </c>
       <c r="C303" s="19">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="D303" s="20">
-        <v>280</v>
+        <v>231.8</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6384,13 +6380,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C304" s="19">
-        <v>12.5</v>
+        <v>8.75</v>
       </c>
       <c r="D304" s="20">
-        <v>162.5</v>
+        <v>183.84</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6398,13 +6394,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="18">
-        <v>25.5</v>
+        <v>59</v>
       </c>
       <c r="C305" s="19">
-        <v>12.25</v>
+        <v>6.5</v>
       </c>
       <c r="D305" s="20">
-        <v>312.38</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,13 +6408,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="18">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="C306" s="19">
-        <v>16.25</v>
+        <v>17</v>
       </c>
       <c r="D306" s="20">
-        <v>73.13</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6426,13 +6422,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="18">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="C307" s="19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D307" s="20">
-        <v>104.5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6440,13 +6436,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="18">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C308" s="19">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="D308" s="20">
-        <v>90</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6454,13 +6450,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="18">
-        <v>19</v>
+        <v>25.5</v>
       </c>
       <c r="C309" s="19">
-        <v>10</v>
+        <v>12.25</v>
       </c>
       <c r="D309" s="20">
-        <v>190</v>
+        <v>312.38</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6468,13 +6464,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="18">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C310" s="19">
-        <v>11</v>
+        <v>16.25</v>
       </c>
       <c r="D310" s="20">
-        <v>66</v>
+        <v>73.13</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6482,13 +6478,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="18">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="C311" s="19">
         <v>11</v>
       </c>
       <c r="D311" s="20">
-        <v>242</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6496,13 +6492,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C312" s="19">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D312" s="20">
-        <v>273</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6510,13 +6506,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="18">
-        <v>1.49</v>
+        <v>19</v>
       </c>
       <c r="C313" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D313" s="20">
-        <v>17.88</v>
+        <v>190</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6524,13 +6520,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="18">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="C314" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D314" s="20">
-        <v>198</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6538,13 +6534,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="18">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="C315" s="19">
-        <v>7.84</v>
+        <v>11</v>
       </c>
       <c r="D315" s="20">
-        <v>152.88</v>
+        <v>242</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6552,13 +6548,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="18">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="C316" s="19">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D316" s="20">
-        <v>126.5</v>
+        <v>273</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6566,13 +6562,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="18">
+        <v>3.99</v>
+      </c>
+      <c r="C317" s="19">
         <v>12</v>
       </c>
-      <c r="C317" s="19">
-        <v>23.5</v>
-      </c>
       <c r="D317" s="20">
-        <v>282</v>
+        <v>47.88</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,13 +6576,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="18">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="C318" s="19">
-        <v>14.79</v>
+        <v>12</v>
       </c>
       <c r="D318" s="20">
-        <v>295.74</v>
+        <v>198</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6594,13 +6590,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="18">
-        <v>4.5</v>
+        <v>18.5</v>
       </c>
       <c r="C319" s="19">
-        <v>13.5</v>
+        <v>7.84</v>
       </c>
       <c r="D319" s="20">
-        <v>60.75</v>
+        <v>145.04</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6608,13 +6604,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="18">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="C320" s="19">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D320" s="20">
-        <v>26.25</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6622,13 +6618,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="18">
-        <v>43.23</v>
+        <v>12</v>
       </c>
       <c r="C321" s="19">
-        <v>10</v>
+        <v>23.5</v>
       </c>
       <c r="D321" s="20">
-        <v>432.3</v>
+        <v>282</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6636,13 +6632,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="18">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="C322" s="19">
-        <v>10</v>
+        <v>14.79</v>
       </c>
       <c r="D322" s="20">
-        <v>375</v>
+        <v>295.74</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6650,13 +6646,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="18">
-        <v>16</v>
+        <v>4.5</v>
       </c>
       <c r="C323" s="19">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="D323" s="20">
-        <v>168</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6664,13 +6660,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="18">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="C324" s="19">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="D324" s="20">
-        <v>128.25</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6678,13 +6674,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="18">
-        <v>18.5</v>
+        <v>41.73</v>
       </c>
       <c r="C325" s="19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D325" s="20">
-        <v>333</v>
+        <v>417.3</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6692,13 +6688,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="18">
-        <v>10.5</v>
+        <v>37.5</v>
       </c>
       <c r="C326" s="19">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D326" s="20">
-        <v>110.25</v>
+        <v>375</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6706,13 +6702,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="18">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C327" s="19">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D327" s="20">
-        <v>541.5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6720,13 +6716,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="18">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="C328" s="19">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="D328" s="20">
-        <v>255</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6734,13 +6730,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="18">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="C329" s="19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D329" s="20">
-        <v>105</v>
+        <v>333</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6748,13 +6744,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="18">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="C330" s="19">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D330" s="20">
-        <v>240</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6762,13 +6758,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="18">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C331" s="19">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="D331" s="20">
-        <v>170</v>
+        <v>627</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6776,13 +6772,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="18">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C332" s="19">
-        <v>7.84</v>
+        <v>15</v>
       </c>
       <c r="D332" s="20">
-        <v>384.16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6790,13 +6786,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="18">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="C333" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D333" s="20">
-        <v>387.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,13 +6800,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="18">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C334" s="19">
-        <v>14.2</v>
+        <v>10</v>
       </c>
       <c r="D334" s="20">
-        <v>42.6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6818,13 +6814,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="18">
-        <v>32.5</v>
+        <v>10</v>
       </c>
       <c r="C335" s="19">
-        <v>10.93</v>
+        <v>17</v>
       </c>
       <c r="D335" s="20">
-        <v>355.23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6832,13 +6828,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="18">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C336" s="19">
-        <v>11.4</v>
+        <v>7.84</v>
       </c>
       <c r="D336" s="20">
-        <v>159.6</v>
+        <v>399.84</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6846,13 +6842,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="18">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="C337" s="19">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="D337" s="20">
-        <v>43.75</v>
+        <v>350</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6860,13 +6856,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C338" s="19">
-        <v>21.5</v>
+        <v>14.2</v>
       </c>
       <c r="D338" s="20">
-        <v>129</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6874,13 +6870,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="18">
-        <v>13.5</v>
+        <v>32.5</v>
       </c>
       <c r="C339" s="19">
-        <v>12.75</v>
+        <v>10.93</v>
       </c>
       <c r="D339" s="20">
-        <v>172.13</v>
+        <v>355.23</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,13 +6884,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="18">
-        <v>21.75</v>
+        <v>14</v>
       </c>
       <c r="C340" s="19">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D340" s="20">
-        <v>250.13</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6902,13 +6898,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="18">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="C341" s="19">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="D341" s="20">
-        <v>136</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6916,13 +6912,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="18">
-        <v>31.5</v>
+        <v>6</v>
       </c>
       <c r="C342" s="19">
-        <v>11.4</v>
+        <v>21.5</v>
       </c>
       <c r="D342" s="20">
-        <v>359.1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6933,10 +6929,10 @@
         <v>13.5</v>
       </c>
       <c r="C343" s="19">
-        <v>14.5</v>
+        <v>12.75</v>
       </c>
       <c r="D343" s="20">
-        <v>195.75</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6944,13 +6940,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="18">
-        <v>12.5</v>
+        <v>18.75</v>
       </c>
       <c r="C344" s="19">
-        <v>22.5</v>
+        <v>11.5</v>
       </c>
       <c r="D344" s="20">
-        <v>281.25</v>
+        <v>215.63</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6958,13 +6954,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C345" s="19">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="D345" s="20">
-        <v>162.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,13 +6968,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>12</v>
+        <v>24.5</v>
       </c>
       <c r="C346" s="19">
-        <v>9.5</v>
+        <v>11.4</v>
       </c>
       <c r="D346" s="20">
-        <v>114</v>
+        <v>279.3</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6986,13 +6982,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="18">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="C347" s="19">
-        <v>10.93</v>
+        <v>14.5</v>
       </c>
       <c r="D347" s="20">
-        <v>120.23</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7000,13 +6996,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="18">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="C348" s="19">
-        <v>10.93</v>
+        <v>22.5</v>
       </c>
       <c r="D348" s="20">
-        <v>185.81</v>
+        <v>303.75</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7014,13 +7010,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="18">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="C349" s="19">
-        <v>14.75</v>
+        <v>12.5</v>
       </c>
       <c r="D349" s="20">
-        <v>95.88</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7028,13 +7024,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="18">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C350" s="19">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D350" s="20">
-        <v>340</v>
+        <v>114</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7042,13 +7038,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>1.5</v>
+        <v>15.5</v>
       </c>
       <c r="C351" s="19">
-        <v>10.45</v>
+        <v>10.93</v>
       </c>
       <c r="D351" s="20">
-        <v>15.68</v>
+        <v>169.42</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7056,13 +7052,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="18">
-        <v>0.25</v>
+        <v>18.5</v>
       </c>
       <c r="C352" s="19">
-        <v>10.84</v>
+        <v>10.93</v>
       </c>
       <c r="D352" s="20">
-        <v>2.71</v>
+        <v>202.21</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7070,13 +7066,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="18">
-        <v>28.5</v>
+        <v>6.5</v>
       </c>
       <c r="C353" s="19">
-        <v>2</v>
+        <v>14.75</v>
       </c>
       <c r="D353" s="20">
-        <v>57</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7084,13 +7080,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C354" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D354" s="20">
-        <v>48</v>
+        <v>340</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7098,13 +7094,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>47.5</v>
+        <v>9.5</v>
       </c>
       <c r="C355" s="19">
-        <v>2.1</v>
+        <v>10.45</v>
       </c>
       <c r="D355" s="20">
-        <v>99.75</v>
+        <v>99.28</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7112,13 +7108,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="18">
-        <v>93</v>
+        <v>0.25</v>
       </c>
       <c r="C356" s="19">
-        <v>2</v>
+        <v>10.84</v>
       </c>
       <c r="D356" s="20">
-        <v>186</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7126,13 +7122,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="18">
-        <v>52.5</v>
+        <v>28.5</v>
       </c>
       <c r="C357" s="19">
         <v>2</v>
       </c>
       <c r="D357" s="20">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7140,13 +7136,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="18">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C358" s="19">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D358" s="20">
-        <v>32.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7154,13 +7150,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="18">
-        <v>67</v>
+        <v>47.5</v>
       </c>
       <c r="C359" s="19">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="D359" s="20">
-        <v>150.75</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7168,13 +7164,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="18">
-        <v>60.5</v>
+        <v>93</v>
       </c>
       <c r="C360" s="19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="D360" s="20">
-        <v>136.13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7182,13 +7178,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="18">
-        <v>24</v>
+        <v>52.5</v>
       </c>
       <c r="C361" s="19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="D361" s="20">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7196,13 +7192,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C362" s="19">
         <v>2.5</v>
       </c>
       <c r="D362" s="20">
-        <v>37.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7210,13 +7206,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="18">
-        <v>48.5</v>
+        <v>67</v>
       </c>
       <c r="C363" s="19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="D363" s="20">
-        <v>121.25</v>
+        <v>150.75</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,13 +7220,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="18">
-        <v>23.5</v>
+        <v>60.5</v>
       </c>
       <c r="C364" s="19">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="D364" s="20">
-        <v>63.45</v>
+        <v>136.13</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7238,13 +7234,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="18">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C365" s="19">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="D365" s="20">
-        <v>170.1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7252,13 +7248,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="18">
-        <v>57.5</v>
+        <v>15</v>
       </c>
       <c r="C366" s="19">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D366" s="20">
-        <v>149.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7266,13 +7262,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="18">
-        <v>72</v>
+        <v>47.5</v>
       </c>
       <c r="C367" s="19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="D367" s="20">
-        <v>198</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7280,13 +7276,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="18">
-        <v>78</v>
+        <v>23.5</v>
       </c>
       <c r="C368" s="19">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="D368" s="20">
-        <v>214.5</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7294,13 +7290,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C369" s="19">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D369" s="20">
-        <v>171</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7308,13 +7304,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="18">
-        <v>14.5</v>
+        <v>57.5</v>
       </c>
       <c r="C370" s="19">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D370" s="20">
-        <v>40.6</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7322,13 +7318,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="18">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C371" s="19">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="D371" s="20">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7336,13 +7332,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="18">
-        <v>43</v>
+        <v>74.5</v>
       </c>
       <c r="C372" s="19">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="D372" s="20">
-        <v>120.4</v>
+        <v>204.88</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7350,13 +7346,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="18">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C373" s="19">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="D373" s="20">
-        <v>123.9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7364,13 +7360,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="18">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="C374" s="19">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D374" s="20">
-        <v>80.599999999999994</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7378,13 +7374,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="18">
-        <v>20.5</v>
+        <v>27</v>
       </c>
       <c r="C375" s="19">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="D375" s="20">
-        <v>58.43</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7392,13 +7388,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="18">
-        <v>29.5</v>
+        <v>43</v>
       </c>
       <c r="C376" s="19">
-        <v>3.26</v>
+        <v>2.8</v>
       </c>
       <c r="D376" s="20">
-        <v>96.17</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7406,13 +7402,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="18">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="C377" s="19">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="D377" s="20">
-        <v>127.05</v>
+        <v>119.48</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7420,13 +7416,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="18">
-        <v>13.4</v>
+        <v>26</v>
       </c>
       <c r="C378" s="19">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="D378" s="20">
-        <v>42.21</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7434,13 +7430,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="18">
-        <v>61</v>
+        <v>20.5</v>
       </c>
       <c r="C379" s="19">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="D379" s="20">
-        <v>186.05</v>
+        <v>58.43</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7448,13 +7444,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="18">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C380" s="19">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="D380" s="20">
-        <v>94.25</v>
+        <v>96.17</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7462,13 +7458,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="18">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="C381" s="19">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D381" s="20">
-        <v>122.5</v>
+        <v>127.05</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7476,13 +7472,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>44</v>
+        <v>10.4</v>
       </c>
       <c r="C382" s="19">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="D382" s="20">
-        <v>143</v>
+        <v>32.76</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7490,13 +7486,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="18">
-        <v>19.5</v>
+        <v>61.5</v>
       </c>
       <c r="C383" s="19">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="D383" s="20">
-        <v>66.3</v>
+        <v>187.58</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7504,13 +7500,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="18">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C384" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D384" s="20">
-        <v>31.5</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7518,13 +7514,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="18">
-        <v>21.46</v>
+        <v>35</v>
       </c>
       <c r="C385" s="19">
         <v>3.5</v>
       </c>
       <c r="D385" s="20">
-        <v>75.11</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7532,13 +7528,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="18">
-        <v>57.5</v>
+        <v>44</v>
       </c>
       <c r="C386" s="19">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="D386" s="20">
-        <v>218.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7546,13 +7542,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="18">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="C387" s="19">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D387" s="20">
-        <v>109.2</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7560,13 +7556,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="18">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C388" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D388" s="20">
-        <v>113.22</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7574,13 +7570,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="18">
-        <v>55</v>
+        <v>19.46</v>
       </c>
       <c r="C389" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D389" s="20">
-        <v>183.15</v>
+        <v>68.11</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,13 +7584,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="18">
-        <v>49.5</v>
+        <v>57.5</v>
       </c>
       <c r="C390" s="19">
         <v>3.8</v>
       </c>
       <c r="D390" s="20">
-        <v>188.1</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7602,13 +7598,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C391" s="19">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="D391" s="20">
-        <v>114.75</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7616,13 +7612,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="18">
-        <v>28.5</v>
+        <v>34</v>
       </c>
       <c r="C392" s="19">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="D392" s="20">
-        <v>108.3</v>
+        <v>113.22</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7630,13 +7626,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="18">
-        <v>53.5</v>
+        <v>57</v>
       </c>
       <c r="C393" s="19">
-        <v>4.1500000000000004</v>
+        <v>3.33</v>
       </c>
       <c r="D393" s="20">
-        <v>222.05</v>
+        <v>189.81</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,13 +7640,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="18">
-        <v>12.5</v>
+        <v>49.5</v>
       </c>
       <c r="C394" s="19">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="D394" s="20">
-        <v>53.13</v>
+        <v>188.1</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7658,13 +7654,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="18">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C395" s="19">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="D395" s="20">
-        <v>61.75</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7672,13 +7668,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="18">
-        <v>20</v>
+        <v>28.5</v>
       </c>
       <c r="C396" s="19">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="D396" s="20">
-        <v>98</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7686,13 +7682,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="18">
-        <v>30</v>
+        <v>53.5</v>
       </c>
       <c r="C397" s="19">
-        <v>4.28</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D397" s="20">
-        <v>128.4</v>
+        <v>222.05</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7700,13 +7696,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="18">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="C398" s="19">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="D398" s="20">
-        <v>125.4</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7714,13 +7710,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="18">
-        <v>116.5</v>
+        <v>13</v>
       </c>
       <c r="C399" s="19">
-        <v>4.28</v>
+        <v>4.75</v>
       </c>
       <c r="D399" s="20">
-        <v>498.62</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7728,13 +7724,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="18">
-        <v>48.5</v>
+        <v>20</v>
       </c>
       <c r="C400" s="19">
-        <v>4.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D400" s="20">
-        <v>230.38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7742,13 +7738,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C401" s="19">
-        <v>4.75</v>
+        <v>4.28</v>
       </c>
       <c r="D401" s="20">
-        <v>161.5</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7756,13 +7752,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="18">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="C402" s="19">
-        <v>5.25</v>
+        <v>4.18</v>
       </c>
       <c r="D402" s="20">
-        <v>91.88</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7770,13 +7766,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="18">
-        <v>13</v>
+        <v>116.5</v>
       </c>
       <c r="C403" s="19">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="D403" s="20">
-        <v>58.5</v>
+        <v>498.62</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7784,13 +7780,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="18">
-        <v>11</v>
+        <v>48.5</v>
       </c>
       <c r="C404" s="19">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="D404" s="20">
-        <v>57.75</v>
+        <v>230.38</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7798,13 +7794,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C405" s="19">
-        <v>4.5999999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="D405" s="20">
-        <v>133.4</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,13 +7808,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="18">
-        <v>51.5</v>
+        <v>17.5</v>
       </c>
       <c r="C406" s="19">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="D406" s="20">
-        <v>283.25</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7826,13 +7822,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="18">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="C407" s="19">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="D407" s="20">
-        <v>30.25</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7840,13 +7836,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="18">
-        <v>29.5</v>
+        <v>11</v>
       </c>
       <c r="C408" s="19">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="D408" s="20">
-        <v>154.29</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7854,13 +7850,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="18">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="C409" s="19">
-        <v>6.25</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D409" s="20">
-        <v>65.63</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7868,13 +7864,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="18">
-        <v>43</v>
+        <v>51.5</v>
       </c>
       <c r="C410" s="19">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D410" s="20">
-        <v>258</v>
+        <v>283.25</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7882,13 +7878,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="18">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="C411" s="19">
-        <v>5.94</v>
+        <v>5.5</v>
       </c>
       <c r="D411" s="20">
-        <v>109.89</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7896,13 +7892,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="18">
-        <v>21</v>
+        <v>29.5</v>
       </c>
       <c r="C412" s="19">
-        <v>6.75</v>
+        <v>5.23</v>
       </c>
       <c r="D412" s="20">
-        <v>141.75</v>
+        <v>154.29</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7910,13 +7906,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="18">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="C413" s="19">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="D413" s="20">
-        <v>97.5</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7924,13 +7920,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="18">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C414" s="19">
-        <v>7.13</v>
+        <v>6</v>
       </c>
       <c r="D414" s="20">
-        <v>263.81</v>
+        <v>258</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7938,13 +7934,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="18">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="C415" s="19">
-        <v>8</v>
+        <v>5.94</v>
       </c>
       <c r="D415" s="20">
-        <v>192</v>
+        <v>109.89</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,13 +7948,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C416" s="19">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="D416" s="20">
-        <v>140</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7966,13 +7962,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="C417" s="19">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D417" s="20">
-        <v>125.4</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7980,13 +7976,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>43</v>
+        <v>37.5</v>
       </c>
       <c r="C418" s="19">
-        <v>8.5</v>
+        <v>7.13</v>
       </c>
       <c r="D418" s="20">
-        <v>365.5</v>
+        <v>267.38</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7994,13 +7990,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="18">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="C419" s="19">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D419" s="20">
-        <v>183.75</v>
+        <v>192</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8008,13 +8004,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="C420" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D420" s="20">
-        <v>103.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,10 +8021,10 @@
         <v>18.5</v>
       </c>
       <c r="C421" s="19">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="D421" s="20">
-        <v>69.38</v>
+        <v>140.6</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8036,13 +8032,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="18">
-        <v>21.5</v>
+        <v>43</v>
       </c>
       <c r="C422" s="19">
-        <v>4.28</v>
+        <v>8.5</v>
       </c>
       <c r="D422" s="20">
-        <v>92.02</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8050,13 +8046,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="18">
-        <v>37</v>
+        <v>24.5</v>
       </c>
       <c r="C423" s="19">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D423" s="20">
-        <v>351.5</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8064,13 +8060,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>35.5</v>
+        <v>11.5</v>
       </c>
       <c r="C424" s="19">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="D424" s="20">
-        <v>159.75</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8078,13 +8074,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="C425" s="19">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="D425" s="20">
-        <v>140</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8092,13 +8088,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>36</v>
+        <v>21.5</v>
       </c>
       <c r="C426" s="19">
-        <v>5.7</v>
+        <v>4.28</v>
       </c>
       <c r="D426" s="20">
-        <v>205.2</v>
+        <v>92.02</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8106,13 +8102,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C427" s="19">
-        <v>1.92</v>
+        <v>9.5</v>
       </c>
       <c r="D427" s="20">
-        <v>65.23</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8120,13 +8116,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>91</v>
+        <v>35.5</v>
       </c>
       <c r="C428" s="19">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="D428" s="20">
-        <v>172.9</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8134,13 +8130,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="18">
-        <v>-3</v>
+        <v>50</v>
       </c>
       <c r="C429" s="19">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="D429" s="20">
-        <v>-3.3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8148,13 +8144,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="18">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C430" s="19">
-        <v>4.1500000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="D430" s="20">
-        <v>232.4</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8162,13 +8158,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="18">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="C431" s="19">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="D431" s="20">
-        <v>159.6</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8176,13 +8172,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>149.5</v>
+        <v>91</v>
       </c>
       <c r="C432" s="19">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D432" s="20">
-        <v>209.3</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8190,13 +8186,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>78.5</v>
+        <v>-3</v>
       </c>
       <c r="C433" s="19">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D433" s="20">
-        <v>109.9</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8204,13 +8200,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C434" s="19">
-        <v>3</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D434" s="20">
-        <v>60</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8218,13 +8214,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>30.5</v>
+        <v>113</v>
       </c>
       <c r="C435" s="19">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="D435" s="20">
-        <v>93.03</v>
+        <v>158.19999999999999</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8232,13 +8228,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>28</v>
+        <v>149.5</v>
       </c>
       <c r="C436" s="19">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="D436" s="20">
-        <v>43.4</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8246,13 +8242,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>1</v>
+        <v>80.5</v>
       </c>
       <c r="C437" s="19">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="D437" s="20">
-        <v>1.55</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8260,13 +8256,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="C438" s="19">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="D438" s="20">
-        <v>209.49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8274,13 +8270,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>90</v>
+        <v>30.5</v>
       </c>
       <c r="C439" s="19">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="D439" s="20">
-        <v>135</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8288,13 +8284,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="18">
-        <v>175.5</v>
+        <v>28</v>
       </c>
       <c r="C440" s="19">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="D440" s="20">
-        <v>263.25</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8302,13 +8298,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="C441" s="19">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="D441" s="20">
-        <v>516</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8316,13 +8312,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C442" s="19">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="D442" s="20">
-        <v>124.83</v>
+        <v>205.36</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8330,13 +8326,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="18">
-        <v>128.5</v>
+        <v>90</v>
       </c>
       <c r="C443" s="19">
-        <v>0.39</v>
+        <v>1.5</v>
       </c>
       <c r="D443" s="20">
-        <v>50.34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8344,13 +8340,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>89.7</v>
+        <v>166</v>
       </c>
       <c r="C444" s="19">
-        <v>2.2799999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="D444" s="20">
-        <v>204.52</v>
+        <v>249</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,13 +8354,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>167.5</v>
+        <v>344</v>
       </c>
       <c r="C445" s="19">
-        <v>2.2799999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="D445" s="20">
-        <v>381.9</v>
+        <v>516</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8372,13 +8368,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="18">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C446" s="19">
-        <v>2.4700000000000002</v>
+        <v>1.71</v>
       </c>
       <c r="D446" s="20">
-        <v>54.34</v>
+        <v>90.63</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8386,13 +8382,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>18.5</v>
+        <v>128.5</v>
       </c>
       <c r="C447" s="19">
-        <v>2.75</v>
+        <v>0.39</v>
       </c>
       <c r="D447" s="20">
-        <v>50.88</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8400,13 +8396,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>71.5</v>
+        <v>84.7</v>
       </c>
       <c r="C448" s="19">
-        <v>2.73</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D448" s="20">
-        <v>195.49</v>
+        <v>193.12</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8414,13 +8410,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>114</v>
+        <v>167.5</v>
       </c>
       <c r="C449" s="19">
-        <v>2.8</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D449" s="20">
-        <v>319.2</v>
+        <v>381.9</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8428,13 +8424,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>48.5</v>
+        <v>22</v>
       </c>
       <c r="C450" s="19">
-        <v>2.95</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D450" s="20">
-        <v>143.08000000000001</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8442,13 +8438,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="C451" s="19">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="D451" s="20">
-        <v>118</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8456,13 +8452,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>30</v>
+        <v>71.5</v>
       </c>
       <c r="C452" s="19">
-        <v>3.5</v>
+        <v>2.73</v>
       </c>
       <c r="D452" s="20">
-        <v>105</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8470,13 +8466,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>30</v>
+        <v>110.5</v>
       </c>
       <c r="C453" s="19">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D453" s="20">
-        <v>105</v>
+        <v>309.39999999999998</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8484,13 +8480,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>57.5</v>
+        <v>48.5</v>
       </c>
       <c r="C454" s="19">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="D454" s="20">
-        <v>184</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8498,13 +8494,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C455" s="19">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="D455" s="20">
-        <v>147.19999999999999</v>
+        <v>118</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8512,13 +8508,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C456" s="19">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="D456" s="20">
-        <v>131.1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8526,13 +8522,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="18">
-        <v>56.5</v>
+        <v>30</v>
       </c>
       <c r="C457" s="19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D457" s="20">
-        <v>183.63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8540,13 +8536,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>46.5</v>
+        <v>57.5</v>
       </c>
       <c r="C458" s="19">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="D458" s="20">
-        <v>151.13</v>
+        <v>184</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8554,13 +8550,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="18">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C459" s="19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D459" s="20">
-        <v>38.5</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8568,13 +8564,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="18">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C460" s="19">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="D460" s="20">
-        <v>73.5</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8582,13 +8578,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>40.5</v>
+        <v>56.5</v>
       </c>
       <c r="C461" s="19">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="D461" s="20">
-        <v>134.87</v>
+        <v>183.63</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8596,13 +8592,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>51.5</v>
+        <v>46.5</v>
       </c>
       <c r="C462" s="19">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="D462" s="20">
-        <v>195.7</v>
+        <v>151.13</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8610,13 +8606,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>71.5</v>
+        <v>9.5</v>
       </c>
       <c r="C463" s="19">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="D463" s="20">
-        <v>265.52</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8624,13 +8620,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C464" s="19">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D464" s="20">
-        <v>151.19999999999999</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8638,13 +8634,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>64.5</v>
+        <v>40.5</v>
       </c>
       <c r="C465" s="19">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="D465" s="20">
-        <v>232.2</v>
+        <v>134.87</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8652,13 +8648,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>22.5</v>
+        <v>50.5</v>
       </c>
       <c r="C466" s="19">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D466" s="20">
-        <v>90</v>
+        <v>191.9</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8666,13 +8662,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>22</v>
+        <v>71.5</v>
       </c>
       <c r="C467" s="19">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="D467" s="20">
-        <v>88</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8680,13 +8676,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>31.5</v>
+        <v>42</v>
       </c>
       <c r="C468" s="19">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="D468" s="20">
-        <v>121.28</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8694,13 +8690,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>13</v>
+        <v>64.5</v>
       </c>
       <c r="C469" s="19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D469" s="20">
-        <v>52</v>
+        <v>232.2</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8708,13 +8704,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>34</v>
+        <v>22.5</v>
       </c>
       <c r="C470" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D470" s="20">
-        <v>129.19999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8722,13 +8718,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>35.5</v>
+        <v>22</v>
       </c>
       <c r="C471" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D471" s="20">
-        <v>134.9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8736,13 +8732,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>42</v>
+        <v>31.5</v>
       </c>
       <c r="C472" s="19">
-        <v>4.3099999999999996</v>
+        <v>3.85</v>
       </c>
       <c r="D472" s="20">
-        <v>181.02</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8750,13 +8746,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C473" s="19">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="D473" s="20">
-        <v>101.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8764,13 +8760,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>13.5</v>
+        <v>33</v>
       </c>
       <c r="C474" s="19">
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="D474" s="20">
-        <v>59.4</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8778,13 +8774,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>13</v>
+        <v>23.5</v>
       </c>
       <c r="C475" s="19">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="D475" s="20">
-        <v>65</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8792,13 +8788,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>5.5</v>
+        <v>42</v>
       </c>
       <c r="C476" s="19">
-        <v>4.75</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D476" s="20">
-        <v>26.13</v>
+        <v>181.02</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,13 +8802,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C477" s="19">
-        <v>4.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D477" s="20">
-        <v>133</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8820,13 +8816,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>35.5</v>
+        <v>13.5</v>
       </c>
       <c r="C478" s="19">
-        <v>4.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D478" s="20">
-        <v>168.63</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8834,13 +8830,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C479" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D479" s="20">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8848,13 +8844,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="C480" s="19">
         <v>4.75</v>
       </c>
       <c r="D480" s="20">
-        <v>49.88</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8862,13 +8858,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>44.5</v>
+        <v>28</v>
       </c>
       <c r="C481" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D481" s="20">
-        <v>222.5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8876,13 +8872,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>28.5</v>
+        <v>35.5</v>
       </c>
       <c r="C482" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D482" s="20">
-        <v>142.5</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8890,13 +8886,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C483" s="19">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="D483" s="20">
-        <v>94.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8904,13 +8900,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>35</v>
+        <v>10.5</v>
       </c>
       <c r="C484" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D484" s="20">
-        <v>175</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8918,13 +8914,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>21</v>
+        <v>45.5</v>
       </c>
       <c r="C485" s="19">
-        <v>5.41</v>
+        <v>5</v>
       </c>
       <c r="D485" s="20">
-        <v>113.56</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8932,13 +8928,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>83</v>
+        <v>28.5</v>
       </c>
       <c r="C486" s="19">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D486" s="20">
-        <v>456.5</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8946,13 +8942,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>23.5</v>
+        <v>18</v>
       </c>
       <c r="C487" s="19">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="D487" s="20">
-        <v>135.13</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8960,13 +8956,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>14.5</v>
+        <v>35</v>
       </c>
       <c r="C488" s="19">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="D488" s="20">
-        <v>83.38</v>
+        <v>175</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8974,13 +8970,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C489" s="19">
-        <v>5.5</v>
+        <v>5.41</v>
       </c>
       <c r="D489" s="20">
-        <v>291.5</v>
+        <v>113.56</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8988,13 +8984,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>27.5</v>
+        <v>75.5</v>
       </c>
       <c r="C490" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D490" s="20">
-        <v>158.13</v>
+        <v>415.25</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9002,13 +8998,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>27.5</v>
+        <v>23.5</v>
       </c>
       <c r="C491" s="19">
         <v>5.75</v>
       </c>
       <c r="D491" s="20">
-        <v>158.13</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9016,13 +9012,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>47</v>
+        <v>14.5</v>
       </c>
       <c r="C492" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D492" s="20">
-        <v>282</v>
+        <v>83.38</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9030,13 +9026,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C493" s="19">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D493" s="20">
-        <v>42</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9044,13 +9040,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="18">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="C494" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D494" s="20">
-        <v>156</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9058,13 +9054,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="18">
-        <v>8.5</v>
+        <v>27.5</v>
       </c>
       <c r="C495" s="19">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="D495" s="20">
-        <v>59.5</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9072,13 +9068,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C496" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D496" s="20">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9086,13 +9082,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="C497" s="19">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="D497" s="20">
-        <v>126.88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9100,13 +9096,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="18">
-        <v>21.5</v>
+        <v>26</v>
       </c>
       <c r="C498" s="19">
-        <v>7.75</v>
+        <v>6</v>
       </c>
       <c r="D498" s="20">
-        <v>166.63</v>
+        <v>156</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9114,13 +9110,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="C499" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D499" s="20">
-        <v>92</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9128,13 +9124,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>4.5</v>
+        <v>34</v>
       </c>
       <c r="C500" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D500" s="20">
-        <v>45</v>
+        <v>238</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9142,13 +9138,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="C501" s="19">
-        <v>8.75</v>
+        <v>7.25</v>
       </c>
       <c r="D501" s="20">
-        <v>161.88</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9156,13 +9152,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="C502" s="19">
-        <v>11</v>
+        <v>7.75</v>
       </c>
       <c r="D502" s="20">
-        <v>181.5</v>
+        <v>178.25</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9170,13 +9166,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>69.5</v>
+        <v>11.5</v>
       </c>
       <c r="C503" s="19">
-        <v>2.76</v>
+        <v>8</v>
       </c>
       <c r="D503" s="20">
-        <v>191.82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9184,13 +9180,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>61</v>
+        <v>4.5</v>
       </c>
       <c r="C504" s="19">
-        <v>2.76</v>
+        <v>10</v>
       </c>
       <c r="D504" s="20">
-        <v>168.36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9198,13 +9194,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>86.5</v>
+        <v>18.5</v>
       </c>
       <c r="C505" s="19">
-        <v>2.76</v>
+        <v>8.75</v>
       </c>
       <c r="D505" s="20">
-        <v>238.74</v>
+        <v>161.88</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9212,13 +9208,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="18">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="C506" s="19">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="D506" s="20">
-        <v>95.2</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9226,13 +9222,13 @@
         <v>509</v>
       </c>
       <c r="B507" s="18">
-        <v>47</v>
+        <v>64.5</v>
       </c>
       <c r="C507" s="19">
-        <v>2.87</v>
+        <v>2.76</v>
       </c>
       <c r="D507" s="20">
-        <v>134.97999999999999</v>
+        <v>178.02</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9240,13 +9236,13 @@
         <v>510</v>
       </c>
       <c r="B508" s="18">
-        <v>40.5</v>
+        <v>56</v>
       </c>
       <c r="C508" s="19">
         <v>2.76</v>
       </c>
       <c r="D508" s="20">
-        <v>111.78</v>
+        <v>154.56</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9254,13 +9250,13 @@
         <v>511</v>
       </c>
       <c r="B509" s="18">
-        <v>21</v>
+        <v>81.5</v>
       </c>
       <c r="C509" s="19">
         <v>2.76</v>
       </c>
       <c r="D509" s="20">
-        <v>57.96</v>
+        <v>224.94</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9268,13 +9264,13 @@
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C510" s="19">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="D510" s="20">
-        <v>118.68</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9282,13 +9278,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C511" s="19">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="D511" s="20">
-        <v>105</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9296,13 +9292,13 @@
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="C512" s="19">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="D512" s="20">
-        <v>124.5</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9310,13 +9306,13 @@
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>62.5</v>
+        <v>21</v>
       </c>
       <c r="C513" s="19">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="D513" s="20">
-        <v>187.5</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9324,13 +9320,13 @@
         <v>516</v>
       </c>
       <c r="B514" s="18">
-        <v>24.5</v>
+        <v>35.5</v>
       </c>
       <c r="C514" s="19">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="D514" s="20">
-        <v>75.95</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9338,13 +9334,13 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C515" s="19">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="D515" s="20">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9352,13 +9348,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>37</v>
+        <v>41.5</v>
       </c>
       <c r="C516" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D516" s="20">
-        <v>148</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9366,13 +9362,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>23.5</v>
+        <v>62.5</v>
       </c>
       <c r="C517" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D517" s="20">
-        <v>94</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9380,13 +9376,13 @@
         <v>520</v>
       </c>
       <c r="B518" s="18">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="C518" s="19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D518" s="20">
-        <v>96</v>
+        <v>72.849999999999994</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9394,13 +9390,13 @@
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C519" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D519" s="20">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9408,13 +9404,13 @@
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C520" s="19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="D520" s="20">
-        <v>215.25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9422,13 +9418,13 @@
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="C521" s="19">
-        <v>5.01</v>
+        <v>4</v>
       </c>
       <c r="D521" s="20">
-        <v>77.73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9436,13 +9432,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="C522" s="19">
-        <v>1.92</v>
+        <v>4</v>
       </c>
       <c r="D522" s="20">
-        <v>457.07</v>
+        <v>96</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9450,13 +9446,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>-2.5</v>
+        <v>20</v>
       </c>
       <c r="C523" s="19">
-        <v>1.96</v>
+        <v>4</v>
       </c>
       <c r="D523" s="20">
-        <v>-4.9000000000000004</v>
+        <v>80</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9464,13 +9460,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>231.5</v>
+        <v>41</v>
       </c>
       <c r="C524" s="19">
-        <v>1.93</v>
+        <v>5.25</v>
       </c>
       <c r="D524" s="20">
-        <v>446.71</v>
+        <v>215.25</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9478,13 +9474,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>91.5</v>
+        <v>18.5</v>
       </c>
       <c r="C525" s="19">
-        <v>2.84</v>
+        <v>5.01</v>
       </c>
       <c r="D525" s="20">
-        <v>259.66000000000003</v>
+        <v>92.77</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9492,13 +9488,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>0.5</v>
+        <v>238</v>
       </c>
       <c r="C526" s="19">
-        <v>4.28</v>
+        <v>1.92</v>
       </c>
       <c r="D526" s="20">
-        <v>2.14</v>
+        <v>457.07</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9506,13 +9502,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>27.5</v>
+        <v>-4.5</v>
       </c>
       <c r="C527" s="19">
-        <v>4.28</v>
+        <v>1.96</v>
       </c>
       <c r="D527" s="20">
-        <v>117.7</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9520,13 +9516,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>43.5</v>
+        <v>231.5</v>
       </c>
       <c r="C528" s="19">
-        <v>4.05</v>
+        <v>1.93</v>
       </c>
       <c r="D528" s="20">
-        <v>176.18</v>
+        <v>446.71</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9534,13 +9530,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>62.5</v>
+        <v>91.5</v>
       </c>
       <c r="C529" s="19">
-        <v>4.05</v>
+        <v>2.84</v>
       </c>
       <c r="D529" s="20">
-        <v>253.13</v>
+        <v>259.66000000000003</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9548,13 +9544,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>80</v>
+        <v>0.5</v>
       </c>
       <c r="C530" s="19">
-        <v>1.39</v>
+        <v>4.28</v>
       </c>
       <c r="D530" s="20">
-        <v>111.37</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9562,13 +9558,13 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>349.5</v>
+        <v>27.5</v>
       </c>
       <c r="C531" s="19">
-        <v>1.4</v>
+        <v>4.28</v>
       </c>
       <c r="D531" s="20">
-        <v>489.3</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9576,13 +9572,13 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>58</v>
+        <v>43.5</v>
       </c>
       <c r="C532" s="19">
-        <v>1.4</v>
+        <v>4.05</v>
       </c>
       <c r="D532" s="20">
-        <v>81.2</v>
+        <v>176.18</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9590,47 +9586,63 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>48.5</v>
-      </c>
-      <c r="C533" s="21"/>
-      <c r="D533" s="22"/>
+        <v>59.5</v>
+      </c>
+      <c r="C533" s="19">
+        <v>4.05</v>
+      </c>
+      <c r="D533" s="20">
+        <v>240.98</v>
+      </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>19.5</v>
-      </c>
-      <c r="C534" s="21"/>
-      <c r="D534" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="C534" s="19">
+        <v>1.39</v>
+      </c>
+      <c r="D534" s="20">
+        <v>157.31</v>
+      </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>47.5</v>
-      </c>
-      <c r="C535" s="21"/>
-      <c r="D535" s="22"/>
+        <v>348</v>
+      </c>
+      <c r="C535" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D535" s="20">
+        <v>487.2</v>
+      </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="C536" s="21"/>
-      <c r="D536" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="C536" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D536" s="20">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>470</v>
+        <v>48.5</v>
       </c>
       <c r="C537" s="21"/>
       <c r="D537" s="22"/>
@@ -9640,69 +9652,53 @@
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>1705.5</v>
-      </c>
-      <c r="C538" s="19">
-        <v>0.83</v>
-      </c>
-      <c r="D538" s="20">
-        <v>1407.04</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C538" s="21"/>
+      <c r="D538" s="22"/>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>546</v>
-      </c>
-      <c r="C539" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="D539" s="20">
-        <v>436.8</v>
-      </c>
+        <v>47.5</v>
+      </c>
+      <c r="C539" s="21"/>
+      <c r="D539" s="22"/>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>661</v>
-      </c>
-      <c r="C540" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="D540" s="20">
-        <v>528.79999999999995</v>
-      </c>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C540" s="21"/>
+      <c r="D540" s="22"/>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>372.5</v>
-      </c>
-      <c r="C541" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="D541" s="20">
-        <v>298</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C541" s="21"/>
+      <c r="D541" s="22"/>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>44</v>
+        <v>1705.5</v>
       </c>
       <c r="C542" s="19">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
       <c r="D542" s="20">
-        <v>22.88</v>
+        <v>1407.04</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9710,13 +9706,13 @@
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>17</v>
+        <v>546</v>
       </c>
       <c r="C543" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D543" s="20">
-        <v>8.84</v>
+        <v>436.8</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9724,13 +9720,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C544" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D544" s="20">
-        <v>347.88</v>
+        <v>528.79999999999995</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9738,13 +9734,13 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>868</v>
+        <v>372.5</v>
       </c>
       <c r="C545" s="19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D545" s="20">
-        <v>607.6</v>
+        <v>298</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9752,13 +9748,13 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="C546" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D546" s="20">
-        <v>168.7</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9766,13 +9762,13 @@
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>306.5</v>
+        <v>15</v>
       </c>
       <c r="C547" s="19">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
       <c r="D547" s="20">
-        <v>209.04</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9780,33 +9776,41 @@
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>227</v>
-      </c>
-      <c r="C548" s="21"/>
-      <c r="D548" s="22"/>
+        <v>667</v>
+      </c>
+      <c r="C548" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D548" s="20">
+        <v>346.84</v>
+      </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>147</v>
-      </c>
-      <c r="C549" s="21"/>
-      <c r="D549" s="22"/>
+        <v>858</v>
+      </c>
+      <c r="C549" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D549" s="20">
+        <v>600.6</v>
+      </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="C550" s="19">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="D550" s="20">
-        <v>4.5</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9814,13 +9818,13 @@
         <v>553</v>
       </c>
       <c r="B551" s="18">
-        <v>41</v>
+        <v>306.5</v>
       </c>
       <c r="C551" s="19">
-        <v>4.5</v>
+        <v>0.68</v>
       </c>
       <c r="D551" s="20">
-        <v>184.5</v>
+        <v>209.04</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9828,39 +9832,87 @@
         <v>554</v>
       </c>
       <c r="B552" s="18">
-        <v>7</v>
-      </c>
-      <c r="C552" s="19">
-        <v>3</v>
-      </c>
-      <c r="D552" s="20">
-        <v>21</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C552" s="21"/>
+      <c r="D552" s="22"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
         <v>555</v>
       </c>
       <c r="B553" s="18">
+        <v>147</v>
+      </c>
+      <c r="C553" s="21"/>
+      <c r="D553" s="22"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B554" s="18">
+        <v>1</v>
+      </c>
+      <c r="C554" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D554" s="20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B555" s="18">
+        <v>41</v>
+      </c>
+      <c r="C555" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D555" s="20">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B556" s="18">
+        <v>7</v>
+      </c>
+      <c r="C556" s="19">
         <v>3</v>
       </c>
-      <c r="C553" s="19">
+      <c r="D556" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B557" s="18">
         <v>3</v>
       </c>
-      <c r="D553" s="20">
+      <c r="C557" s="19">
+        <v>3</v>
+      </c>
+      <c r="D557" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="B554" s="24">
-        <v>38417.75</v>
-      </c>
-      <c r="C554" s="25"/>
-      <c r="D554" s="26">
-        <v>108770.9</v>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B558" s="24">
+        <v>38484.25</v>
+      </c>
+      <c r="C558" s="25"/>
+      <c r="D558" s="26">
+        <v>107936.78</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="562">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 1-Jan-2025</t>
+    <t>1-Jul-2024 to 2-Jan-2025</t>
   </si>
   <si>
     <t/>
@@ -1272,6 +1272,9 @@
   </si>
   <si>
     <t>7314 PATRIKA (DC) {{10}}</t>
+  </si>
+  <si>
+    <t>7315 PATRIKA (DC) {{10}}</t>
   </si>
   <si>
     <t>7316 PATRIKA</t>
@@ -2199,7 +2202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D558"/>
+  <dimension ref="A1:D559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2336,13 +2339,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="18">
-        <v>192.5</v>
+        <v>188.5</v>
       </c>
       <c r="C12" s="19">
         <v>1.65</v>
       </c>
       <c r="D12" s="20">
-        <v>317.63</v>
+        <v>311.02999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,13 +2409,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="18">
-        <v>98.5</v>
+        <v>96.5</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,13 +2479,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="18">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
       <c r="D22" s="20">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,13 +2493,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="18">
-        <v>116.5</v>
+        <v>114.5</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
       </c>
       <c r="D23" s="20">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,13 +2535,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="18">
-        <v>54.82</v>
+        <v>51.32</v>
       </c>
       <c r="C26" s="19">
         <v>2.35</v>
       </c>
       <c r="D26" s="20">
-        <v>128.83000000000001</v>
+        <v>120.6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,13 +2549,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="18">
-        <v>43.37</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="C27" s="19">
         <v>2.35</v>
       </c>
       <c r="D27" s="20">
-        <v>101.92</v>
+        <v>90.17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,13 +2563,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="18">
-        <v>176.8</v>
+        <v>164.8</v>
       </c>
       <c r="C28" s="19">
         <v>2.59</v>
       </c>
       <c r="D28" s="20">
-        <v>457.15</v>
+        <v>426.13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,13 +2605,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="18">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C31" s="19">
         <v>2.5</v>
       </c>
       <c r="D31" s="20">
-        <v>117.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,13 +2731,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="18">
-        <v>137.5</v>
+        <v>128.5</v>
       </c>
       <c r="C40" s="19">
         <v>2.25</v>
       </c>
       <c r="D40" s="20">
-        <v>309.38</v>
+        <v>289.13</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,13 +2801,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="18">
-        <v>104.5</v>
+        <v>95.5</v>
       </c>
       <c r="C45" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D45" s="20">
-        <v>114.95</v>
+        <v>105.05</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,13 +2815,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="18">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C46" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>264</v>
+        <v>261.8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,13 +2829,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="18">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="20">
-        <v>180.4</v>
+        <v>169.4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,13 +2843,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="18">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="20">
-        <v>338.8</v>
+        <v>325.60000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,13 +2871,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="18">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C50" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="20">
-        <v>146.30000000000001</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,13 +2885,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="18">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C51" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="D51" s="20">
-        <v>226.6</v>
+        <v>215.6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,13 +2913,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="18">
-        <v>563.5</v>
+        <v>559.5</v>
       </c>
       <c r="C53" s="19">
         <v>1.9</v>
       </c>
       <c r="D53" s="20">
-        <v>1070.6500000000001</v>
+        <v>1063.05</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,13 +2941,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="18">
-        <v>245</v>
+        <v>243.5</v>
       </c>
       <c r="C55" s="19">
         <v>1.9</v>
       </c>
       <c r="D55" s="20">
-        <v>465.5</v>
+        <v>462.65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3078,13 +3081,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="18">
-        <v>153.5</v>
+        <v>152.5</v>
       </c>
       <c r="C65" s="19">
         <v>0.7</v>
       </c>
       <c r="D65" s="20">
-        <v>107.45</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,13 +3123,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="18">
-        <v>340</v>
+        <v>330.5</v>
       </c>
       <c r="C68" s="19">
         <v>1.55</v>
       </c>
       <c r="D68" s="20">
-        <v>527</v>
+        <v>512.28</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,7 +3195,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="18">
-        <v>37.5</v>
+        <v>24.5</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
@@ -3232,7 +3235,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="18">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C78" s="21"/>
       <c r="D78" s="22"/>
@@ -3242,13 +3245,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="18">
-        <v>441.5</v>
+        <v>434.5</v>
       </c>
       <c r="C79" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="D79" s="20">
-        <v>507.73</v>
+        <v>499.68</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,13 +3273,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="18">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C81" s="19">
         <v>1.4</v>
       </c>
       <c r="D81" s="20">
-        <v>708.4</v>
+        <v>694.4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3298,13 +3301,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="18">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="C83" s="19">
         <v>1.4</v>
       </c>
       <c r="D83" s="20">
-        <v>23.1</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3326,13 +3329,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="18">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C85" s="19">
         <v>2</v>
       </c>
       <c r="D85" s="20">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3340,13 +3343,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="18">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C86" s="19">
         <v>1.26</v>
       </c>
       <c r="D86" s="20">
-        <v>574.55999999999995</v>
+        <v>570.78</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3354,13 +3357,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="18">
-        <v>450.5</v>
+        <v>444.5</v>
       </c>
       <c r="C87" s="19">
         <v>1.26</v>
       </c>
       <c r="D87" s="20">
-        <v>567.63</v>
+        <v>560.07000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3466,7 +3469,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="22"/>
@@ -3524,13 +3527,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C100" s="19">
         <v>12.5</v>
       </c>
       <c r="D100" s="20">
-        <v>250</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,13 +3555,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="18">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="C102" s="19">
         <v>12.5</v>
       </c>
       <c r="D102" s="20">
-        <v>231.25</v>
+        <v>181.25</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,13 +3569,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="18">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="C103" s="19">
         <v>12.5</v>
       </c>
       <c r="D103" s="20">
-        <v>412.5</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,13 +3583,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="18">
-        <v>42.86</v>
+        <v>37.86</v>
       </c>
       <c r="C104" s="19">
         <v>12.5</v>
       </c>
       <c r="D104" s="20">
-        <v>535.75</v>
+        <v>473.25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3986,13 +3989,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="18">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C133" s="19">
         <v>18.37</v>
       </c>
       <c r="D133" s="20">
-        <v>82.66</v>
+        <v>55.11</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,13 +4003,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="18">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C134" s="19">
         <v>18.34</v>
       </c>
       <c r="D134" s="20">
-        <v>27.51</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,13 +4045,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="18">
-        <v>54.5</v>
+        <v>51.5</v>
       </c>
       <c r="C137" s="19">
         <v>3.3</v>
       </c>
       <c r="D137" s="20">
-        <v>179.85</v>
+        <v>169.95</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4056,13 +4059,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="18">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="C138" s="19">
         <v>2.8</v>
       </c>
       <c r="D138" s="20">
-        <v>70</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4070,13 +4073,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="18">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C139" s="19">
         <v>2.75</v>
       </c>
       <c r="D139" s="20">
-        <v>280.5</v>
+        <v>272.25</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,13 +4087,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="18">
-        <v>75</v>
+        <v>72.5</v>
       </c>
       <c r="C140" s="19">
         <v>2.75</v>
       </c>
       <c r="D140" s="20">
-        <v>206.25</v>
+        <v>199.38</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4112,13 +4115,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C142" s="19">
         <v>3.4</v>
       </c>
       <c r="D142" s="20">
-        <v>176.8</v>
+        <v>173.4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,13 +4143,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="18">
-        <v>31.5</v>
+        <v>23</v>
       </c>
       <c r="C144" s="19">
         <v>2.7</v>
       </c>
       <c r="D144" s="20">
-        <v>85.05</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,13 +4157,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="18">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C145" s="19">
         <v>2.8</v>
       </c>
       <c r="D145" s="20">
-        <v>196</v>
+        <v>190.4</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,13 +4171,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="18">
-        <v>87.5</v>
+        <v>80.5</v>
       </c>
       <c r="C146" s="19">
         <v>2.8</v>
       </c>
       <c r="D146" s="20">
-        <v>245</v>
+        <v>225.4</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,13 +4241,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="18">
-        <v>78.5</v>
+        <v>72.5</v>
       </c>
       <c r="C151" s="19">
         <v>2.95</v>
       </c>
       <c r="D151" s="20">
-        <v>231.58</v>
+        <v>213.88</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,13 +4255,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="18">
-        <v>46.5</v>
+        <v>44</v>
       </c>
       <c r="C152" s="19">
         <v>2.95</v>
       </c>
       <c r="D152" s="20">
-        <v>137.18</v>
+        <v>129.80000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,13 +4269,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="18">
-        <v>89.5</v>
+        <v>77.5</v>
       </c>
       <c r="C153" s="19">
         <v>3</v>
       </c>
       <c r="D153" s="20">
-        <v>268.5</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,13 +4395,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="18">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C162" s="19">
         <v>3.33</v>
       </c>
       <c r="D162" s="20">
-        <v>299.7</v>
+        <v>293.04000000000002</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,13 +4423,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="18">
-        <v>133.5</v>
+        <v>128.5</v>
       </c>
       <c r="C164" s="19">
         <v>3.6</v>
       </c>
       <c r="D164" s="20">
-        <v>480.6</v>
+        <v>462.6</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,13 +4479,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="18">
-        <v>124.5</v>
+        <v>120</v>
       </c>
       <c r="C168" s="19">
         <v>4.5</v>
       </c>
       <c r="D168" s="20">
-        <v>560.25</v>
+        <v>540</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4574,13 +4577,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="18">
-        <v>130.5</v>
+        <v>128</v>
       </c>
       <c r="C175" s="19">
         <v>3.96</v>
       </c>
       <c r="D175" s="20">
-        <v>516.41999999999996</v>
+        <v>506.53</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4672,13 +4675,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="18">
-        <v>86.24</v>
+        <v>79.239999999999995</v>
       </c>
       <c r="C182" s="19">
         <v>3.11</v>
       </c>
       <c r="D182" s="20">
-        <v>267.88</v>
+        <v>246.14</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4812,13 +4815,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="18">
-        <v>50.5</v>
+        <v>45.5</v>
       </c>
       <c r="C192" s="19">
         <v>4.75</v>
       </c>
       <c r="D192" s="20">
-        <v>239.88</v>
+        <v>216.13</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4840,13 +4843,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="18">
-        <v>73</v>
+        <v>65.5</v>
       </c>
       <c r="C194" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D194" s="20">
-        <v>321.2</v>
+        <v>288.2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4882,13 +4885,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="18">
-        <v>224.5</v>
+        <v>223.5</v>
       </c>
       <c r="C197" s="19">
         <v>4.5</v>
       </c>
       <c r="D197" s="20">
-        <v>1010.25</v>
+        <v>1005.75</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4896,13 +4899,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="18">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C198" s="19">
         <v>4.5</v>
       </c>
       <c r="D198" s="20">
-        <v>796.5</v>
+        <v>765</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4994,13 +4997,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="18">
-        <v>32.5</v>
+        <v>31</v>
       </c>
       <c r="C205" s="19">
         <v>5.25</v>
       </c>
       <c r="D205" s="20">
-        <v>170.63</v>
+        <v>162.75</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5008,13 +5011,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="18">
-        <v>48.5</v>
+        <v>33.5</v>
       </c>
       <c r="C206" s="19">
         <v>5.25</v>
       </c>
       <c r="D206" s="20">
-        <v>254.63</v>
+        <v>175.88</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5022,13 +5025,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="18">
-        <v>34.5</v>
+        <v>39.5</v>
       </c>
       <c r="C207" s="19">
         <v>4.75</v>
       </c>
       <c r="D207" s="20">
-        <v>163.88</v>
+        <v>187.63</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5092,13 +5095,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="18">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C212" s="19">
         <v>5.7</v>
       </c>
       <c r="D212" s="20">
-        <v>313.5</v>
+        <v>296.39999999999998</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5260,13 +5263,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="18">
-        <v>32.5</v>
+        <v>28</v>
       </c>
       <c r="C224" s="19">
         <v>3.5</v>
       </c>
       <c r="D224" s="20">
-        <v>113.75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5302,13 +5305,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C227" s="19">
         <v>4.18</v>
       </c>
       <c r="D227" s="20">
-        <v>217.36</v>
+        <v>213.18</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5344,13 +5347,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="18">
-        <v>68.5</v>
+        <v>67</v>
       </c>
       <c r="C230" s="19">
         <v>4.28</v>
       </c>
       <c r="D230" s="20">
-        <v>293.18</v>
+        <v>286.76</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5386,13 +5389,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="18">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="C233" s="19">
         <v>4.95</v>
       </c>
       <c r="D233" s="20">
-        <v>99</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5414,13 +5417,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="18">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="C235" s="19">
         <v>5</v>
       </c>
       <c r="D235" s="20">
-        <v>152.5</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5428,13 +5431,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="18">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C236" s="19">
         <v>5.0999999999999996</v>
       </c>
       <c r="D236" s="20">
-        <v>117.3</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5526,13 +5529,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="18">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
       <c r="C243" s="19">
         <v>5.46</v>
       </c>
       <c r="D243" s="20">
-        <v>188.37</v>
+        <v>182.91</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5582,13 +5585,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C247" s="19">
         <v>6</v>
       </c>
       <c r="D247" s="20">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5610,13 +5613,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="18">
-        <v>48.38</v>
+        <v>46.88</v>
       </c>
       <c r="C249" s="19">
         <v>5.94</v>
       </c>
       <c r="D249" s="20">
-        <v>287.38</v>
+        <v>278.47000000000003</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,13 +5655,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="18">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C252" s="19">
         <v>5.94</v>
       </c>
       <c r="D252" s="20">
-        <v>297</v>
+        <v>279.18</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5666,13 +5669,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="18">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="C253" s="19">
         <v>6.67</v>
       </c>
       <c r="D253" s="20">
-        <v>180.09</v>
+        <v>150.08000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5834,13 +5837,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="18">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C265" s="19">
         <v>7.13</v>
       </c>
       <c r="D265" s="20">
-        <v>634.57000000000005</v>
+        <v>627.44000000000005</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5848,13 +5851,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="18">
-        <v>81</v>
+        <v>78.5</v>
       </c>
       <c r="C266" s="19">
         <v>7.13</v>
       </c>
       <c r="D266" s="20">
-        <v>577.53</v>
+        <v>559.71</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,13 +5949,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="18">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C273" s="19">
         <v>8.75</v>
       </c>
       <c r="D273" s="20">
-        <v>245</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6072,13 +6075,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="18">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="C282" s="19">
         <v>9.5</v>
       </c>
       <c r="D282" s="20">
-        <v>52.25</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6114,13 +6117,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="18">
-        <v>46.5</v>
+        <v>37</v>
       </c>
       <c r="C285" s="19">
         <v>9.25</v>
       </c>
       <c r="D285" s="20">
-        <v>430.13</v>
+        <v>342.25</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6170,13 +6173,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="18">
-        <v>74</v>
+        <v>71.5</v>
       </c>
       <c r="C289" s="19">
         <v>5.5</v>
       </c>
       <c r="D289" s="20">
-        <v>407</v>
+        <v>393.25</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,13 +6187,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="18">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="C290" s="19">
         <v>6.86</v>
       </c>
       <c r="D290" s="20">
-        <v>380.76</v>
+        <v>373.9</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,13 +6327,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="18">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C300" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="D300" s="20">
-        <v>548.79999999999995</v>
+        <v>529.20000000000005</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6366,13 +6369,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="18">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="C303" s="19">
         <v>7.6</v>
       </c>
       <c r="D303" s="20">
-        <v>231.8</v>
+        <v>224.2</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6394,13 +6397,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="18">
-        <v>59</v>
+        <v>57.5</v>
       </c>
       <c r="C305" s="19">
         <v>6.5</v>
       </c>
       <c r="D305" s="20">
-        <v>383.5</v>
+        <v>373.75</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6562,13 +6565,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="18">
-        <v>3.99</v>
+        <v>1.99</v>
       </c>
       <c r="C317" s="19">
         <v>12</v>
       </c>
       <c r="D317" s="20">
-        <v>47.88</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6590,13 +6593,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="18">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="C319" s="19">
         <v>7.84</v>
       </c>
       <c r="D319" s="20">
-        <v>145.04</v>
+        <v>105.84</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6758,13 +6761,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="18">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C331" s="19">
         <v>9.5</v>
       </c>
       <c r="D331" s="20">
-        <v>627</v>
+        <v>560.5</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6898,13 +6901,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="18">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="C341" s="19">
         <v>12.5</v>
       </c>
       <c r="D341" s="20">
-        <v>43.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6968,13 +6971,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="18">
-        <v>24.5</v>
+        <v>13.5</v>
       </c>
       <c r="C346" s="19">
         <v>11.4</v>
       </c>
       <c r="D346" s="20">
-        <v>279.3</v>
+        <v>153.9</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6996,13 +6999,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="18">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="C348" s="19">
         <v>22.5</v>
       </c>
       <c r="D348" s="20">
-        <v>303.75</v>
+        <v>236.25</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7038,13 +7041,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="18">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="C351" s="19">
         <v>10.93</v>
       </c>
       <c r="D351" s="20">
-        <v>169.42</v>
+        <v>142.09</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7094,13 +7097,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="18">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="C355" s="19">
         <v>10.45</v>
       </c>
       <c r="D355" s="20">
-        <v>99.28</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,13 +7293,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="18">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C369" s="19">
         <v>2.7</v>
       </c>
       <c r="D369" s="20">
-        <v>170.1</v>
+        <v>164.7</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,13 +7335,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="18">
-        <v>74.5</v>
+        <v>73.5</v>
       </c>
       <c r="C372" s="19">
         <v>2.75</v>
       </c>
       <c r="D372" s="20">
-        <v>204.88</v>
+        <v>202.13</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7472,13 +7475,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="18">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="C382" s="19">
         <v>3.15</v>
       </c>
       <c r="D382" s="20">
-        <v>32.76</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7920,13 +7923,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="18">
-        <v>43</v>
+        <v>-6</v>
       </c>
       <c r="C414" s="19">
-        <v>6</v>
+        <v>5.46</v>
       </c>
       <c r="D414" s="20">
-        <v>258</v>
+        <v>-32.76</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,13 +7937,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="18">
-        <v>18.5</v>
+        <v>43</v>
       </c>
       <c r="C415" s="19">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="D415" s="20">
-        <v>109.89</v>
+        <v>258</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7948,13 +7951,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="18">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="C416" s="19">
-        <v>6.75</v>
+        <v>5.94</v>
       </c>
       <c r="D416" s="20">
-        <v>141.75</v>
+        <v>109.89</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7962,13 +7965,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="18">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="C417" s="19">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="D417" s="20">
-        <v>101.25</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7976,13 +7979,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="18">
-        <v>37.5</v>
+        <v>13.5</v>
       </c>
       <c r="C418" s="19">
-        <v>7.13</v>
+        <v>7.5</v>
       </c>
       <c r="D418" s="20">
-        <v>267.38</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7990,13 +7993,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="18">
-        <v>24</v>
+        <v>37.5</v>
       </c>
       <c r="C419" s="19">
-        <v>8</v>
+        <v>7.13</v>
       </c>
       <c r="D419" s="20">
-        <v>192</v>
+        <v>267.38</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8004,13 +8007,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C420" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D420" s="20">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8018,13 +8021,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="18">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="C421" s="19">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="D421" s="20">
-        <v>140.6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8032,13 +8035,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="18">
-        <v>43</v>
+        <v>18.5</v>
       </c>
       <c r="C422" s="19">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="D422" s="20">
-        <v>365.5</v>
+        <v>140.6</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8046,13 +8049,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="18">
-        <v>24.5</v>
+        <v>43</v>
       </c>
       <c r="C423" s="19">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D423" s="20">
-        <v>183.75</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8060,13 +8063,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="18">
-        <v>11.5</v>
+        <v>24.5</v>
       </c>
       <c r="C424" s="19">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D424" s="20">
-        <v>103.5</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8074,13 +8077,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="18">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="C425" s="19">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="D425" s="20">
-        <v>69.38</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8088,13 +8091,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="18">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
       <c r="C426" s="19">
-        <v>4.28</v>
+        <v>3.75</v>
       </c>
       <c r="D426" s="20">
-        <v>92.02</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8102,13 +8105,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="18">
-        <v>37</v>
+        <v>21.5</v>
       </c>
       <c r="C427" s="19">
-        <v>9.5</v>
+        <v>4.28</v>
       </c>
       <c r="D427" s="20">
-        <v>351.5</v>
+        <v>92.02</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8116,13 +8119,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="18">
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="C428" s="19">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="D428" s="20">
-        <v>159.75</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8130,13 +8133,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="18">
-        <v>50</v>
+        <v>35.5</v>
       </c>
       <c r="C429" s="19">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D429" s="20">
-        <v>140</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8144,13 +8147,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="18">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C430" s="19">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="D430" s="20">
-        <v>205.2</v>
+        <v>140</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8158,13 +8161,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C431" s="19">
-        <v>1.92</v>
+        <v>5.7</v>
       </c>
       <c r="D431" s="20">
-        <v>65.23</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8172,13 +8175,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="18">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C432" s="19">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D432" s="20">
-        <v>172.9</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8186,13 +8189,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="18">
-        <v>-3</v>
+        <v>91</v>
       </c>
       <c r="C433" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D433" s="20">
-        <v>-3.3</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8200,13 +8203,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="18">
-        <v>56</v>
+        <v>-3</v>
       </c>
       <c r="C434" s="19">
-        <v>4.1500000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D434" s="20">
-        <v>232.4</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8214,13 +8217,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="18">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C435" s="19">
-        <v>1.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D435" s="20">
-        <v>158.19999999999999</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8228,13 +8231,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="18">
-        <v>149.5</v>
+        <v>113</v>
       </c>
       <c r="C436" s="19">
         <v>1.4</v>
       </c>
       <c r="D436" s="20">
-        <v>209.3</v>
+        <v>158.19999999999999</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8242,13 +8245,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="18">
-        <v>80.5</v>
+        <v>149.5</v>
       </c>
       <c r="C437" s="19">
         <v>1.4</v>
       </c>
       <c r="D437" s="20">
-        <v>112.7</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8256,13 +8259,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="18">
-        <v>20</v>
+        <v>80.5</v>
       </c>
       <c r="C438" s="19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D438" s="20">
-        <v>60</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8270,13 +8273,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="18">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="C439" s="19">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="D439" s="20">
-        <v>93.03</v>
+        <v>60</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8284,13 +8287,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="18">
-        <v>28</v>
+        <v>30.5</v>
       </c>
       <c r="C440" s="19">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="D440" s="20">
-        <v>43.4</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8298,13 +8301,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="18">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C441" s="19">
         <v>1.55</v>
       </c>
       <c r="D441" s="20">
-        <v>1.55</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8312,13 +8315,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="18">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="C442" s="19">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="D442" s="20">
-        <v>205.36</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8326,13 +8329,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="18">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C443" s="19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="D443" s="20">
-        <v>135</v>
+        <v>198.47</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8340,13 +8343,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="18">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C444" s="19">
         <v>1.5</v>
       </c>
       <c r="D444" s="20">
-        <v>249</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8354,13 +8357,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="18">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="C445" s="19">
         <v>1.5</v>
       </c>
       <c r="D445" s="20">
-        <v>516</v>
+        <v>240</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8368,13 +8371,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="18">
-        <v>53</v>
+        <v>342.5</v>
       </c>
       <c r="C446" s="19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="D446" s="20">
-        <v>90.63</v>
+        <v>513.75</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8382,13 +8385,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="18">
-        <v>128.5</v>
+        <v>53</v>
       </c>
       <c r="C447" s="19">
-        <v>0.39</v>
+        <v>1.71</v>
       </c>
       <c r="D447" s="20">
-        <v>50.34</v>
+        <v>90.63</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8396,13 +8399,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="18">
-        <v>84.7</v>
+        <v>128.5</v>
       </c>
       <c r="C448" s="19">
-        <v>2.2799999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="D448" s="20">
-        <v>193.12</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8410,13 +8413,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="18">
-        <v>167.5</v>
+        <v>68.7</v>
       </c>
       <c r="C449" s="19">
         <v>2.2799999999999998</v>
       </c>
       <c r="D449" s="20">
-        <v>381.9</v>
+        <v>156.63999999999999</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8424,13 +8427,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="18">
-        <v>22</v>
+        <v>160.5</v>
       </c>
       <c r="C450" s="19">
-        <v>2.4700000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D450" s="20">
-        <v>54.34</v>
+        <v>365.94</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8438,13 +8441,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="18">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="C451" s="19">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D451" s="20">
-        <v>50.88</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8452,13 +8455,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="18">
-        <v>71.5</v>
+        <v>18.5</v>
       </c>
       <c r="C452" s="19">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="D452" s="20">
-        <v>195.49</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8466,13 +8469,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="18">
-        <v>110.5</v>
+        <v>71.5</v>
       </c>
       <c r="C453" s="19">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="D453" s="20">
-        <v>309.39999999999998</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8480,13 +8483,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="18">
-        <v>48.5</v>
+        <v>110.5</v>
       </c>
       <c r="C454" s="19">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="D454" s="20">
-        <v>143.08000000000001</v>
+        <v>309.39999999999998</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8494,13 +8497,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="18">
-        <v>40</v>
+        <v>48.5</v>
       </c>
       <c r="C455" s="19">
         <v>2.95</v>
       </c>
       <c r="D455" s="20">
-        <v>118</v>
+        <v>143.08000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8508,13 +8511,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C456" s="19">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="D456" s="20">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8536,13 +8539,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="18">
-        <v>57.5</v>
+        <v>30</v>
       </c>
       <c r="C458" s="19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D458" s="20">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8550,13 +8553,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="18">
-        <v>46</v>
+        <v>57.5</v>
       </c>
       <c r="C459" s="19">
         <v>3.2</v>
       </c>
       <c r="D459" s="20">
-        <v>147.19999999999999</v>
+        <v>184</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,10 +8570,10 @@
         <v>46</v>
       </c>
       <c r="C460" s="19">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="D460" s="20">
-        <v>131.1</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,13 +8581,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="18">
-        <v>56.5</v>
+        <v>46</v>
       </c>
       <c r="C461" s="19">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="D461" s="20">
-        <v>183.63</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8592,13 +8595,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="18">
-        <v>46.5</v>
+        <v>56.5</v>
       </c>
       <c r="C462" s="19">
         <v>3.25</v>
       </c>
       <c r="D462" s="20">
-        <v>151.13</v>
+        <v>183.63</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8606,13 +8609,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="18">
-        <v>9.5</v>
+        <v>46.5</v>
       </c>
       <c r="C463" s="19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="D463" s="20">
-        <v>33.25</v>
+        <v>151.13</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8620,13 +8623,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="18">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C464" s="19">
         <v>3.5</v>
       </c>
       <c r="D464" s="20">
-        <v>73.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8634,13 +8637,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="18">
-        <v>40.5</v>
+        <v>21</v>
       </c>
       <c r="C465" s="19">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="D465" s="20">
-        <v>134.87</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8648,13 +8651,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="18">
-        <v>50.5</v>
+        <v>38.5</v>
       </c>
       <c r="C466" s="19">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="D466" s="20">
-        <v>191.9</v>
+        <v>128.21</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8662,13 +8665,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="18">
-        <v>71.5</v>
+        <v>50.5</v>
       </c>
       <c r="C467" s="19">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="D467" s="20">
-        <v>265.52</v>
+        <v>191.9</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8676,13 +8679,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="18">
-        <v>42</v>
+        <v>71.5</v>
       </c>
       <c r="C468" s="19">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="D468" s="20">
-        <v>151.19999999999999</v>
+        <v>265.52</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8690,13 +8693,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="18">
-        <v>64.5</v>
+        <v>41</v>
       </c>
       <c r="C469" s="19">
         <v>3.6</v>
       </c>
       <c r="D469" s="20">
-        <v>232.2</v>
+        <v>147.6</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8704,13 +8707,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="18">
-        <v>22.5</v>
+        <v>64.5</v>
       </c>
       <c r="C470" s="19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D470" s="20">
-        <v>90</v>
+        <v>232.2</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8718,13 +8721,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="18">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C471" s="19">
         <v>4</v>
       </c>
       <c r="D471" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8732,13 +8735,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="18">
-        <v>31.5</v>
+        <v>19</v>
       </c>
       <c r="C472" s="19">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D472" s="20">
-        <v>121.28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8746,13 +8749,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="18">
-        <v>12</v>
+        <v>31.5</v>
       </c>
       <c r="C473" s="19">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D473" s="20">
-        <v>48</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8760,13 +8763,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="18">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C474" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D474" s="20">
-        <v>125.4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,13 +8777,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="18">
-        <v>23.5</v>
+        <v>33</v>
       </c>
       <c r="C475" s="19">
         <v>3.8</v>
       </c>
       <c r="D475" s="20">
-        <v>89.3</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8788,13 +8791,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="18">
-        <v>42</v>
+        <v>23.5</v>
       </c>
       <c r="C476" s="19">
-        <v>4.3099999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D476" s="20">
-        <v>181.02</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,13 +8805,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="18">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C477" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D477" s="20">
-        <v>101.2</v>
+        <v>181.02</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,13 +8819,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="18">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="C478" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="D478" s="20">
-        <v>59.4</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8830,13 +8833,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="18">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="C479" s="19">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D479" s="20">
-        <v>70</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8844,13 +8847,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="18">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="C480" s="19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D480" s="20">
-        <v>26.13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8858,13 +8861,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="18">
-        <v>28</v>
+        <v>5.5</v>
       </c>
       <c r="C481" s="19">
         <v>4.75</v>
       </c>
       <c r="D481" s="20">
-        <v>133</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8872,13 +8875,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="18">
-        <v>35.5</v>
+        <v>28</v>
       </c>
       <c r="C482" s="19">
         <v>4.75</v>
       </c>
       <c r="D482" s="20">
-        <v>168.63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8886,13 +8889,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="18">
-        <v>20</v>
+        <v>35.5</v>
       </c>
       <c r="C483" s="19">
         <v>4.75</v>
       </c>
       <c r="D483" s="20">
-        <v>95</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8900,13 +8903,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="18">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="C484" s="19">
         <v>4.75</v>
       </c>
       <c r="D484" s="20">
-        <v>49.88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8914,13 +8917,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="18">
-        <v>45.5</v>
+        <v>10.5</v>
       </c>
       <c r="C485" s="19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D485" s="20">
-        <v>227.5</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8928,13 +8931,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="18">
-        <v>28.5</v>
+        <v>45.5</v>
       </c>
       <c r="C486" s="19">
         <v>5</v>
       </c>
       <c r="D486" s="20">
-        <v>142.5</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8942,13 +8945,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="18">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="C487" s="19">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D487" s="20">
-        <v>94.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,13 +8959,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="18">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C488" s="19">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D488" s="20">
-        <v>175</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8970,13 +8973,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="18">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C489" s="19">
-        <v>5.41</v>
+        <v>5</v>
       </c>
       <c r="D489" s="20">
-        <v>113.56</v>
+        <v>175</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8984,13 +8987,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="18">
-        <v>75.5</v>
+        <v>21</v>
       </c>
       <c r="C490" s="19">
-        <v>5.5</v>
+        <v>5.41</v>
       </c>
       <c r="D490" s="20">
-        <v>415.25</v>
+        <v>113.56</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8998,13 +9001,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="18">
-        <v>23.5</v>
+        <v>57.5</v>
       </c>
       <c r="C491" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D491" s="20">
-        <v>135.13</v>
+        <v>316.25</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9012,13 +9015,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="18">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="C492" s="19">
         <v>5.75</v>
       </c>
       <c r="D492" s="20">
-        <v>83.38</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9026,13 +9029,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="18">
-        <v>53</v>
+        <v>14.5</v>
       </c>
       <c r="C493" s="19">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D493" s="20">
-        <v>291.5</v>
+        <v>83.38</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9040,13 +9043,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="18">
-        <v>27.5</v>
+        <v>53</v>
       </c>
       <c r="C494" s="19">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="D494" s="20">
-        <v>158.13</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9068,13 +9071,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="18">
-        <v>47</v>
+        <v>27.5</v>
       </c>
       <c r="C496" s="19">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="D496" s="20">
-        <v>282</v>
+        <v>158.13</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9082,13 +9085,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="18">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C497" s="19">
         <v>6</v>
       </c>
       <c r="D497" s="20">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9096,13 +9099,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="18">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C498" s="19">
         <v>6</v>
       </c>
       <c r="D498" s="20">
-        <v>156</v>
+        <v>42</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9110,13 +9113,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="18">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="C499" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D499" s="20">
-        <v>59.5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9124,13 +9127,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="18">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="C500" s="19">
         <v>7</v>
       </c>
       <c r="D500" s="20">
-        <v>238</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9138,13 +9141,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="18">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="C501" s="19">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="D501" s="20">
-        <v>126.88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9152,13 +9155,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="18">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="C502" s="19">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="D502" s="20">
-        <v>178.25</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9166,13 +9169,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="18">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="C503" s="19">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="D503" s="20">
-        <v>92</v>
+        <v>178.25</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9180,13 +9183,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="18">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="C504" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D504" s="20">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9194,13 +9197,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="18">
-        <v>18.5</v>
+        <v>4.5</v>
       </c>
       <c r="C505" s="19">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="D505" s="20">
-        <v>161.88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9208,13 +9211,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="18">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="C506" s="19">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="D506" s="20">
-        <v>181.5</v>
+        <v>161.88</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9222,13 +9225,13 @@
         <v>509</v>
       </c>
       <c r="B507" s="18">
-        <v>64.5</v>
+        <v>16.5</v>
       </c>
       <c r="C507" s="19">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="D507" s="20">
-        <v>178.02</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9236,13 +9239,13 @@
         <v>510</v>
       </c>
       <c r="B508" s="18">
-        <v>56</v>
+        <v>69.5</v>
       </c>
       <c r="C508" s="19">
         <v>2.76</v>
       </c>
       <c r="D508" s="20">
-        <v>154.56</v>
+        <v>191.82</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9250,13 +9253,13 @@
         <v>511</v>
       </c>
       <c r="B509" s="18">
-        <v>81.5</v>
+        <v>56</v>
       </c>
       <c r="C509" s="19">
         <v>2.76</v>
       </c>
       <c r="D509" s="20">
-        <v>224.94</v>
+        <v>154.56</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9264,13 +9267,13 @@
         <v>512</v>
       </c>
       <c r="B510" s="18">
-        <v>34</v>
+        <v>83.5</v>
       </c>
       <c r="C510" s="19">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D510" s="20">
-        <v>95.2</v>
+        <v>230.46</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9278,13 +9281,13 @@
         <v>513</v>
       </c>
       <c r="B511" s="18">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C511" s="19">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="D511" s="20">
-        <v>134.97999999999999</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9292,13 +9295,13 @@
         <v>514</v>
       </c>
       <c r="B512" s="18">
-        <v>40.5</v>
+        <v>47</v>
       </c>
       <c r="C512" s="19">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="D512" s="20">
-        <v>111.78</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9306,13 +9309,13 @@
         <v>515</v>
       </c>
       <c r="B513" s="18">
-        <v>21</v>
+        <v>40.5</v>
       </c>
       <c r="C513" s="19">
         <v>2.76</v>
       </c>
       <c r="D513" s="20">
-        <v>57.96</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9320,13 +9323,13 @@
         <v>516</v>
       </c>
       <c r="B514" s="18">
-        <v>35.5</v>
+        <v>21</v>
       </c>
       <c r="C514" s="19">
         <v>2.76</v>
       </c>
       <c r="D514" s="20">
-        <v>97.98</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9334,13 +9337,13 @@
         <v>517</v>
       </c>
       <c r="B515" s="18">
-        <v>30</v>
+        <v>35.5</v>
       </c>
       <c r="C515" s="19">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="D515" s="20">
-        <v>105</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9348,13 +9351,13 @@
         <v>518</v>
       </c>
       <c r="B516" s="18">
-        <v>41.5</v>
+        <v>30</v>
       </c>
       <c r="C516" s="19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D516" s="20">
-        <v>124.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9362,13 +9365,13 @@
         <v>519</v>
       </c>
       <c r="B517" s="18">
-        <v>62.5</v>
+        <v>41.5</v>
       </c>
       <c r="C517" s="19">
         <v>3</v>
       </c>
       <c r="D517" s="20">
-        <v>187.5</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9376,13 +9379,13 @@
         <v>520</v>
       </c>
       <c r="B518" s="18">
-        <v>23.5</v>
+        <v>62.5</v>
       </c>
       <c r="C518" s="19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D518" s="20">
-        <v>72.849999999999994</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9390,13 +9393,13 @@
         <v>521</v>
       </c>
       <c r="B519" s="18">
-        <v>7</v>
+        <v>23.5</v>
       </c>
       <c r="C519" s="19">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="D519" s="20">
-        <v>42</v>
+        <v>72.849999999999994</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9404,13 +9407,13 @@
         <v>522</v>
       </c>
       <c r="B520" s="18">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C520" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D520" s="20">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9418,13 +9421,13 @@
         <v>523</v>
       </c>
       <c r="B521" s="18">
-        <v>23.5</v>
+        <v>37</v>
       </c>
       <c r="C521" s="19">
         <v>4</v>
       </c>
       <c r="D521" s="20">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9432,13 +9435,13 @@
         <v>524</v>
       </c>
       <c r="B522" s="18">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="C522" s="19">
         <v>4</v>
       </c>
       <c r="D522" s="20">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9446,13 +9449,13 @@
         <v>525</v>
       </c>
       <c r="B523" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C523" s="19">
         <v>4</v>
       </c>
       <c r="D523" s="20">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9460,13 +9463,13 @@
         <v>526</v>
       </c>
       <c r="B524" s="18">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C524" s="19">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="D524" s="20">
-        <v>215.25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9474,13 +9477,13 @@
         <v>527</v>
       </c>
       <c r="B525" s="18">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="C525" s="19">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="D525" s="20">
-        <v>92.77</v>
+        <v>215.25</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9488,13 +9491,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="18">
-        <v>238</v>
+        <v>18.5</v>
       </c>
       <c r="C526" s="19">
-        <v>1.92</v>
+        <v>5.01</v>
       </c>
       <c r="D526" s="20">
-        <v>457.07</v>
+        <v>92.77</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9502,13 +9505,13 @@
         <v>529</v>
       </c>
       <c r="B527" s="18">
-        <v>-4.5</v>
+        <v>238</v>
       </c>
       <c r="C527" s="19">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="D527" s="20">
-        <v>-8.83</v>
+        <v>457.07</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9516,13 +9519,13 @@
         <v>530</v>
       </c>
       <c r="B528" s="18">
-        <v>231.5</v>
+        <v>-8.5</v>
       </c>
       <c r="C528" s="19">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="D528" s="20">
-        <v>446.71</v>
+        <v>-16.670000000000002</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9530,13 +9533,13 @@
         <v>531</v>
       </c>
       <c r="B529" s="18">
-        <v>91.5</v>
+        <v>231.5</v>
       </c>
       <c r="C529" s="19">
-        <v>2.84</v>
+        <v>1.93</v>
       </c>
       <c r="D529" s="20">
-        <v>259.66000000000003</v>
+        <v>446.71</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9544,13 +9547,13 @@
         <v>532</v>
       </c>
       <c r="B530" s="18">
-        <v>0.5</v>
+        <v>87</v>
       </c>
       <c r="C530" s="19">
-        <v>4.28</v>
+        <v>2.84</v>
       </c>
       <c r="D530" s="20">
-        <v>2.14</v>
+        <v>246.89</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9558,13 +9561,13 @@
         <v>533</v>
       </c>
       <c r="B531" s="18">
-        <v>27.5</v>
+        <v>0.5</v>
       </c>
       <c r="C531" s="19">
         <v>4.28</v>
       </c>
       <c r="D531" s="20">
-        <v>117.7</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9572,13 +9575,13 @@
         <v>534</v>
       </c>
       <c r="B532" s="18">
-        <v>43.5</v>
+        <v>27.5</v>
       </c>
       <c r="C532" s="19">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="D532" s="20">
-        <v>176.18</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9586,13 +9589,13 @@
         <v>535</v>
       </c>
       <c r="B533" s="18">
-        <v>59.5</v>
+        <v>43.5</v>
       </c>
       <c r="C533" s="19">
         <v>4.05</v>
       </c>
       <c r="D533" s="20">
-        <v>240.98</v>
+        <v>176.18</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -9600,13 +9603,13 @@
         <v>536</v>
       </c>
       <c r="B534" s="18">
-        <v>113</v>
+        <v>59.5</v>
       </c>
       <c r="C534" s="19">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="D534" s="20">
-        <v>157.31</v>
+        <v>240.98</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9614,13 +9617,13 @@
         <v>537</v>
       </c>
       <c r="B535" s="18">
-        <v>348</v>
+        <v>113</v>
       </c>
       <c r="C535" s="19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="D535" s="20">
-        <v>487.2</v>
+        <v>157.31</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9628,13 +9631,13 @@
         <v>538</v>
       </c>
       <c r="B536" s="18">
-        <v>58</v>
+        <v>346</v>
       </c>
       <c r="C536" s="19">
         <v>1.4</v>
       </c>
       <c r="D536" s="20">
-        <v>81.2</v>
+        <v>484.4</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9642,17 +9645,21 @@
         <v>539</v>
       </c>
       <c r="B537" s="18">
-        <v>48.5</v>
-      </c>
-      <c r="C537" s="21"/>
-      <c r="D537" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="C537" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D537" s="20">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
         <v>540</v>
       </c>
       <c r="B538" s="18">
-        <v>18</v>
+        <v>47.5</v>
       </c>
       <c r="C538" s="21"/>
       <c r="D538" s="22"/>
@@ -9662,7 +9669,7 @@
         <v>541</v>
       </c>
       <c r="B539" s="18">
-        <v>47.5</v>
+        <v>18</v>
       </c>
       <c r="C539" s="21"/>
       <c r="D539" s="22"/>
@@ -9672,7 +9679,7 @@
         <v>542</v>
       </c>
       <c r="B540" s="18">
-        <v>34.299999999999997</v>
+        <v>47.5</v>
       </c>
       <c r="C540" s="21"/>
       <c r="D540" s="22"/>
@@ -9682,7 +9689,7 @@
         <v>543</v>
       </c>
       <c r="B541" s="18">
-        <v>470</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C541" s="21"/>
       <c r="D541" s="22"/>
@@ -9692,27 +9699,23 @@
         <v>544</v>
       </c>
       <c r="B542" s="18">
-        <v>1705.5</v>
-      </c>
-      <c r="C542" s="19">
-        <v>0.83</v>
-      </c>
-      <c r="D542" s="20">
-        <v>1407.04</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C542" s="21"/>
+      <c r="D542" s="22"/>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
         <v>545</v>
       </c>
       <c r="B543" s="18">
-        <v>546</v>
+        <v>1705.5</v>
       </c>
       <c r="C543" s="19">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D543" s="20">
-        <v>436.8</v>
+        <v>1407.04</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9720,13 +9723,13 @@
         <v>546</v>
       </c>
       <c r="B544" s="18">
-        <v>661</v>
+        <v>543</v>
       </c>
       <c r="C544" s="19">
         <v>0.8</v>
       </c>
       <c r="D544" s="20">
-        <v>528.79999999999995</v>
+        <v>434.4</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9734,13 +9737,13 @@
         <v>547</v>
       </c>
       <c r="B545" s="18">
-        <v>372.5</v>
+        <v>655</v>
       </c>
       <c r="C545" s="19">
         <v>0.8</v>
       </c>
       <c r="D545" s="20">
-        <v>298</v>
+        <v>524</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9748,13 +9751,13 @@
         <v>548</v>
       </c>
       <c r="B546" s="18">
-        <v>32</v>
+        <v>366.5</v>
       </c>
       <c r="C546" s="19">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="D546" s="20">
-        <v>16.64</v>
+        <v>293.2</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9762,13 +9765,13 @@
         <v>549</v>
       </c>
       <c r="B547" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C547" s="19">
         <v>0.52</v>
       </c>
       <c r="D547" s="20">
-        <v>7.8</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9776,13 +9779,13 @@
         <v>550</v>
       </c>
       <c r="B548" s="18">
-        <v>667</v>
+        <v>-1</v>
       </c>
       <c r="C548" s="19">
         <v>0.52</v>
       </c>
       <c r="D548" s="20">
-        <v>346.84</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9790,13 +9793,13 @@
         <v>551</v>
       </c>
       <c r="B549" s="18">
-        <v>858</v>
+        <v>632.5</v>
       </c>
       <c r="C549" s="19">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D549" s="20">
-        <v>600.6</v>
+        <v>328.9</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,13 +9807,13 @@
         <v>552</v>
       </c>
       <c r="B550" s="18">
-        <v>209</v>
+        <v>845</v>
       </c>
       <c r="C550" s="19">
         <v>0.7</v>
       </c>
       <c r="D550" s="20">
-        <v>146.30000000000001</v>
+        <v>591.5</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9818,13 +9821,13 @@
         <v>553</v>
       </c>
       <c r="B551" s="18">
-        <v>306.5</v>
+        <v>192</v>
       </c>
       <c r="C551" s="19">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D551" s="20">
-        <v>209.04</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9832,17 +9835,21 @@
         <v>554</v>
       </c>
       <c r="B552" s="18">
-        <v>227</v>
-      </c>
-      <c r="C552" s="21"/>
-      <c r="D552" s="22"/>
+        <v>305.5</v>
+      </c>
+      <c r="C552" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D552" s="20">
+        <v>208.35</v>
+      </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
         <v>555</v>
       </c>
       <c r="B553" s="18">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="C553" s="21"/>
       <c r="D553" s="22"/>
@@ -9852,27 +9859,23 @@
         <v>556</v>
       </c>
       <c r="B554" s="18">
-        <v>1</v>
-      </c>
-      <c r="C554" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="D554" s="20">
-        <v>4.5</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C554" s="21"/>
+      <c r="D554" s="22"/>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
         <v>557</v>
       </c>
       <c r="B555" s="18">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C555" s="19">
         <v>4.5</v>
       </c>
       <c r="D555" s="20">
-        <v>184.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -9880,13 +9883,13 @@
         <v>558</v>
       </c>
       <c r="B556" s="18">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C556" s="19">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D556" s="20">
-        <v>21</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -9894,25 +9897,39 @@
         <v>559</v>
       </c>
       <c r="B557" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C557" s="19">
         <v>3</v>
       </c>
       <c r="D557" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B558" s="18">
+        <v>3</v>
+      </c>
+      <c r="C558" s="19">
+        <v>3</v>
+      </c>
+      <c r="D558" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="B558" s="24">
-        <v>38484.25</v>
-      </c>
-      <c r="C558" s="25"/>
-      <c r="D558" s="26">
-        <v>107936.78</v>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="B559" s="24">
+        <v>37845.75</v>
+      </c>
+      <c r="C559" s="25"/>
+      <c r="D559" s="26">
+        <v>105638.08</v>
       </c>
     </row>
   </sheetData>

--- a/StkSum_new.xlsx
+++ b/StkSum_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="630">
   <si>
     <t>StkSummary</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Stock Summary</t>
   </si>
   <si>
-    <t>1-Jul-2024 to 4-Jan-2025</t>
+    <t>1-Jul-2024 to 6-Jan-2025</t>
   </si>
   <si>
     <t/>
@@ -671,7 +671,7 @@
     <t>5011 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5012 PATRIKA</t>
+    <t>5012 PATRIKA (12K 08.01)</t>
   </si>
   <si>
     <t>5013 PATRIKA</t>
@@ -704,7 +704,7 @@
     <t>5021 PATRIKA</t>
   </si>
   <si>
-    <t>5022 PATRIKA</t>
+    <t>5022 PATRIKA (14K 09.01)</t>
   </si>
   <si>
     <t>5023 PATRIKA</t>
@@ -764,7 +764,7 @@
     <t>5039 PATRIKA</t>
   </si>
   <si>
-    <t>5040 PATRIKA</t>
+    <t>5040 PATRIKA (GRAPH AAYEGA)</t>
   </si>
   <si>
     <t>5041 PATRIKA</t>
@@ -791,7 +791,7 @@
     <t>5047 PATRIKA (5022-B)</t>
   </si>
   <si>
-    <t>5850 PATRIKA (Halka D/f)</t>
+    <t>5850 PATRIKA (Halka D/f) (4K 11.01)</t>
   </si>
   <si>
     <t>5851 PATRIKA</t>
@@ -863,7 +863,7 @@
     <t>5873 PATRIKA (DC)</t>
   </si>
   <si>
-    <t>5874 PATRIKA</t>
+    <t>5874 PATRIKA (08 K 10.01)</t>
   </si>
   <si>
     <t>5875 PATRIKA {M}</t>
@@ -1004,7 +1004,7 @@
     <t>5920 PATRIKA {M}</t>
   </si>
   <si>
-    <t>5921 PATRIKA (GGN) {M}</t>
+    <t>5921 PATRIKA (GGN) {M} (03 K 10.01)</t>
   </si>
   <si>
     <t>5922 PATRIKA {M}</t>
@@ -1532,6 +1532,9 @@
     <t>7350 PATRIKA (S.S.61)</t>
   </si>
   <si>
+    <t>7351 PATRIKA</t>
+  </si>
+  <si>
     <t>9000 CARD</t>
   </si>
   <si>
@@ -1874,7 +1877,7 @@
     <t>9205 CARD (RED)</t>
   </si>
   <si>
-    <t>9206 CARD (YELLOW)</t>
+    <t>9206 CARD (YELLOW) (07.01)</t>
   </si>
   <si>
     <t>9207 CARD (GOLDEN)</t>
@@ -2428,13 +2431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E624"/>
+  <dimension ref="A1:E625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2587,16 +2590,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="23">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D12" s="24">
         <v>1.65</v>
       </c>
       <c r="E12" s="25">
-        <v>310.2</v>
+        <v>287.10000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,16 +2607,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="23">
-        <v>173.5</v>
+        <v>158.5</v>
       </c>
       <c r="D13" s="24">
         <v>1.65</v>
       </c>
       <c r="E13" s="25">
-        <v>286.27999999999997</v>
+        <v>261.52999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2638,16 +2641,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="23">
-        <v>80.5</v>
+        <v>75.5</v>
       </c>
       <c r="D15" s="24">
         <v>1.8</v>
       </c>
       <c r="E15" s="25">
-        <v>144.9</v>
+        <v>135.9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2672,16 +2675,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="22">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17" s="23">
-        <v>95.5</v>
+        <v>86</v>
       </c>
       <c r="D17" s="24">
         <v>2</v>
       </c>
       <c r="E17" s="25">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2723,16 +2726,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23">
-        <v>143.5</v>
+        <v>137</v>
       </c>
       <c r="D20" s="24">
         <v>2</v>
       </c>
       <c r="E20" s="25">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2740,16 +2743,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="23">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" s="24">
         <v>2</v>
       </c>
       <c r="E21" s="25">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2757,16 +2760,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="23">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D22" s="24">
         <v>2</v>
       </c>
       <c r="E22" s="25">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2774,16 +2777,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="23">
-        <v>114.5</v>
+        <v>108.5</v>
       </c>
       <c r="D23" s="24">
         <v>2</v>
       </c>
       <c r="E23" s="25">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,16 +2794,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C24" s="23">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D24" s="24">
         <v>2.1</v>
       </c>
       <c r="E24" s="25">
-        <v>109.2</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2808,16 +2811,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="23">
-        <v>109.5</v>
+        <v>101.5</v>
       </c>
       <c r="D25" s="24">
         <v>2.1</v>
       </c>
       <c r="E25" s="25">
-        <v>229.95</v>
+        <v>213.15</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,16 +2837,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="22">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="23">
-        <v>49.32</v>
+        <v>40.82</v>
       </c>
       <c r="D27" s="24">
         <v>2.35</v>
       </c>
       <c r="E27" s="25">
-        <v>115.9</v>
+        <v>95.93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,16 +2854,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="22">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="23">
-        <v>38.369999999999997</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="D28" s="24">
         <v>2.35</v>
       </c>
       <c r="E28" s="25">
-        <v>90.17</v>
+        <v>83.12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2868,16 +2871,16 @@
         <v>33</v>
       </c>
       <c r="B29" s="22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="23">
-        <v>163.30000000000001</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="D29" s="24">
         <v>2.59</v>
       </c>
       <c r="E29" s="25">
-        <v>422.25</v>
+        <v>418.37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,16 +2942,16 @@
         <v>38</v>
       </c>
       <c r="B34" s="22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" s="23">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" s="24">
         <v>2.5</v>
       </c>
       <c r="E34" s="25">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,16 +2985,16 @@
         <v>41</v>
       </c>
       <c r="B37" s="22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" s="23">
-        <v>38.5</v>
+        <v>35.5</v>
       </c>
       <c r="D37" s="24">
         <v>2.6</v>
       </c>
       <c r="E37" s="25">
-        <v>100.1</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,16 +3002,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="23">
-        <v>47.5</v>
+        <v>43</v>
       </c>
       <c r="D38" s="24">
         <v>2.7</v>
       </c>
       <c r="E38" s="25">
-        <v>128.25</v>
+        <v>116.1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,16 +3019,16 @@
         <v>43</v>
       </c>
       <c r="B39" s="22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39" s="23">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D39" s="24">
         <v>2.7</v>
       </c>
       <c r="E39" s="25">
-        <v>232.2</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,16 +3085,16 @@
         <v>47</v>
       </c>
       <c r="B43" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="23">
-        <v>41.5</v>
+        <v>39.5</v>
       </c>
       <c r="D43" s="24">
         <v>2.25</v>
       </c>
       <c r="E43" s="25">
-        <v>93.38</v>
+        <v>88.88</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3099,16 +3102,16 @@
         <v>48</v>
       </c>
       <c r="B44" s="22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" s="23">
-        <v>128.5</v>
+        <v>122.5</v>
       </c>
       <c r="D44" s="24">
         <v>2.25</v>
       </c>
       <c r="E44" s="25">
-        <v>289.13</v>
+        <v>275.63</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,16 +3119,16 @@
         <v>49</v>
       </c>
       <c r="B45" s="22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" s="23">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D45" s="24">
         <v>2.35</v>
       </c>
       <c r="E45" s="25">
-        <v>157.44999999999999</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,16 +3153,16 @@
         <v>51</v>
       </c>
       <c r="B47" s="22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="23">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D47" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E47" s="25">
-        <v>151.80000000000001</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3167,16 +3170,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="23">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="D48" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E48" s="25">
-        <v>228.8</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3184,16 +3187,16 @@
         <v>53</v>
       </c>
       <c r="B49" s="22">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C49" s="23">
-        <v>84.5</v>
+        <v>61</v>
       </c>
       <c r="D49" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E49" s="25">
-        <v>92.95</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,16 +3204,16 @@
         <v>54</v>
       </c>
       <c r="B50" s="22">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C50" s="23">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="D50" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E50" s="25">
-        <v>259.60000000000002</v>
+        <v>169.4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,16 +3221,16 @@
         <v>55</v>
       </c>
       <c r="B51" s="22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C51" s="23">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D51" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E51" s="25">
-        <v>169.4</v>
+        <v>92.4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3235,16 +3238,16 @@
         <v>56</v>
       </c>
       <c r="B52" s="22">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C52" s="23">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="D52" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E52" s="25">
-        <v>325.60000000000002</v>
+        <v>162.80000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3252,16 +3255,16 @@
         <v>57</v>
       </c>
       <c r="B53" s="22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53" s="23">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="D53" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E53" s="25">
-        <v>305.8</v>
+        <v>239.8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,16 +3272,16 @@
         <v>58</v>
       </c>
       <c r="B54" s="22">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C54" s="23">
-        <v>109</v>
+        <v>71.5</v>
       </c>
       <c r="D54" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E54" s="25">
-        <v>119.9</v>
+        <v>78.650000000000006</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,16 +3289,16 @@
         <v>59</v>
       </c>
       <c r="B55" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55" s="23">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D55" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E55" s="25">
-        <v>215.6</v>
+        <v>160.6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3303,16 +3306,16 @@
         <v>60</v>
       </c>
       <c r="B56" s="22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C56" s="23">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="D56" s="24">
         <v>1.1000000000000001</v>
       </c>
       <c r="E56" s="25">
-        <v>245.3</v>
+        <v>185.9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3320,16 +3323,16 @@
         <v>61</v>
       </c>
       <c r="B57" s="22">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C57" s="23">
-        <v>556.5</v>
+        <v>531.5</v>
       </c>
       <c r="D57" s="24">
         <v>1.9</v>
       </c>
       <c r="E57" s="25">
-        <v>1057.3499999999999</v>
+        <v>1009.85</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3352,16 +3355,16 @@
         <v>63</v>
       </c>
       <c r="B59" s="22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" s="23">
-        <v>243.5</v>
+        <v>218.5</v>
       </c>
       <c r="D59" s="24">
         <v>1.9</v>
       </c>
       <c r="E59" s="25">
-        <v>462.65</v>
+        <v>415.15</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3369,16 +3372,16 @@
         <v>64</v>
       </c>
       <c r="B60" s="22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C60" s="23">
-        <v>452.5</v>
+        <v>427.5</v>
       </c>
       <c r="D60" s="24">
         <v>1.9</v>
       </c>
       <c r="E60" s="25">
-        <v>859.75</v>
+        <v>812.25</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,16 +3421,16 @@
         <v>67</v>
       </c>
       <c r="B63" s="22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C63" s="23">
-        <v>48</v>
+        <v>45.5</v>
       </c>
       <c r="D63" s="24">
         <v>2.1</v>
       </c>
       <c r="E63" s="25">
-        <v>100.8</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,16 +3438,16 @@
         <v>68</v>
       </c>
       <c r="B64" s="22">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C64" s="23">
-        <v>329</v>
+        <v>314.5</v>
       </c>
       <c r="D64" s="24">
         <v>2.1</v>
       </c>
       <c r="E64" s="25">
-        <v>690.9</v>
+        <v>660.45</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,16 +3472,16 @@
         <v>70</v>
       </c>
       <c r="B66" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="23">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D66" s="24">
         <v>0.52</v>
       </c>
       <c r="E66" s="25">
-        <v>124.8</v>
+        <v>123.76</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,16 +3489,16 @@
         <v>71</v>
       </c>
       <c r="B67" s="22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" s="23">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D67" s="24">
         <v>0.52</v>
       </c>
       <c r="E67" s="25">
-        <v>107.64</v>
+        <v>105.04</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,16 +3540,16 @@
         <v>74</v>
       </c>
       <c r="B70" s="22">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C70" s="23">
-        <v>17.5</v>
+        <v>285.5</v>
       </c>
       <c r="D70" s="24">
         <v>0.9</v>
       </c>
       <c r="E70" s="25">
-        <v>15.75</v>
+        <v>256.95</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,16 +3557,16 @@
         <v>75</v>
       </c>
       <c r="B71" s="22">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C71" s="23">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="D71" s="24">
         <v>0.9</v>
       </c>
       <c r="E71" s="25">
-        <v>72</v>
+        <v>280.8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,16 +3574,16 @@
         <v>76</v>
       </c>
       <c r="B72" s="22">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C72" s="23">
-        <v>299.5</v>
+        <v>196.5</v>
       </c>
       <c r="D72" s="24">
         <v>1.55</v>
       </c>
       <c r="E72" s="25">
-        <v>464.23</v>
+        <v>304.58</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,16 +3591,16 @@
         <v>77</v>
       </c>
       <c r="B73" s="22">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C73" s="23">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="D73" s="24">
         <v>1.55</v>
       </c>
       <c r="E73" s="25">
-        <v>643.25</v>
+        <v>480.5</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,16 +3608,16 @@
         <v>78</v>
       </c>
       <c r="B74" s="22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C74" s="23">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="D74" s="24">
         <v>1.55</v>
       </c>
       <c r="E74" s="25">
-        <v>968.75</v>
+        <v>843.2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3633,10 +3636,10 @@
         <v>80</v>
       </c>
       <c r="B76" s="22">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C76" s="23">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="26"/>
@@ -3646,10 +3649,10 @@
         <v>81</v>
       </c>
       <c r="B77" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="23">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="26"/>
@@ -3659,10 +3662,10 @@
         <v>82</v>
       </c>
       <c r="B78" s="22">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C78" s="23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="26"/>
@@ -3685,10 +3688,10 @@
         <v>84</v>
       </c>
       <c r="B80" s="22">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C80" s="23">
-        <v>353.5</v>
+        <v>284.5</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="26"/>
@@ -3698,10 +3701,10 @@
         <v>85</v>
       </c>
       <c r="B81" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="23">
-        <v>165.5</v>
+        <v>135.5</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="26"/>
@@ -3711,10 +3714,10 @@
         <v>86</v>
       </c>
       <c r="B82" s="22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C82" s="23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="26"/>
@@ -3724,16 +3727,16 @@
         <v>87</v>
       </c>
       <c r="B83" s="22">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C83" s="23">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D83" s="24">
         <v>1.1499999999999999</v>
       </c>
       <c r="E83" s="25">
-        <v>496.8</v>
+        <v>463.45</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,16 +3744,16 @@
         <v>88</v>
       </c>
       <c r="B84" s="22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C84" s="23">
-        <v>374.5</v>
+        <v>350.5</v>
       </c>
       <c r="D84" s="24">
         <v>1.1499999999999999</v>
       </c>
       <c r="E84" s="25">
-        <v>430.68</v>
+        <v>403.08</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,16 +3761,16 @@
         <v>89</v>
       </c>
       <c r="B85" s="22">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C85" s="23">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="D85" s="24">
         <v>1.4</v>
       </c>
       <c r="E85" s="25">
-        <v>662.2</v>
+        <v>578.20000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,16 +3778,16 @@
         <v>90</v>
       </c>
       <c r="B86" s="22">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C86" s="23">
-        <v>-31.5</v>
+        <v>68.5</v>
       </c>
       <c r="D86" s="24">
         <v>1.4</v>
       </c>
       <c r="E86" s="25">
-        <v>-44.1</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,16 +3795,16 @@
         <v>91</v>
       </c>
       <c r="B87" s="22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C87" s="23">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="D87" s="24">
         <v>1.4</v>
       </c>
       <c r="E87" s="25">
-        <v>20.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,16 +3821,16 @@
         <v>93</v>
       </c>
       <c r="B89" s="22">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C89" s="23">
-        <v>125.5</v>
+        <v>51</v>
       </c>
       <c r="D89" s="24">
         <v>2</v>
       </c>
       <c r="E89" s="25">
-        <v>251</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,16 +3838,16 @@
         <v>94</v>
       </c>
       <c r="B90" s="22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C90" s="23">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="D90" s="24">
         <v>2</v>
       </c>
       <c r="E90" s="25">
-        <v>458</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,16 +3855,16 @@
         <v>95</v>
       </c>
       <c r="B91" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" s="23">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="D91" s="24">
         <v>1.26</v>
       </c>
       <c r="E91" s="25">
-        <v>570.78</v>
+        <v>507.78</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,16 +3872,16 @@
         <v>96</v>
       </c>
       <c r="B92" s="22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C92" s="23">
-        <v>444.5</v>
+        <v>373.5</v>
       </c>
       <c r="D92" s="24">
         <v>1.26</v>
       </c>
       <c r="E92" s="25">
-        <v>560.07000000000005</v>
+        <v>470.61</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,24 +4096,28 @@
       <c r="C109" s="23">
         <v>60</v>
       </c>
-      <c r="D109" s="27"/>
-      <c r="E109" s="26"/>
+      <c r="D109" s="24">
+        <v>1.26</v>
+      </c>
+      <c r="E109" s="25">
+        <v>75.599999999999994</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B110" s="22">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C110" s="23">
-        <v>41.5</v>
+        <v>40</v>
       </c>
       <c r="D110" s="24">
         <v>12.5</v>
       </c>
       <c r="E110" s="25">
-        <v>518.75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4121,13 +4128,13 @@
         <v>29</v>
       </c>
       <c r="C111" s="23">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="D111" s="24">
         <v>12.5</v>
       </c>
       <c r="E111" s="25">
-        <v>175</v>
+        <v>181.25</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,13 +4145,13 @@
         <v>36</v>
       </c>
       <c r="C112" s="23">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D112" s="24">
         <v>12.5</v>
       </c>
       <c r="E112" s="25">
-        <v>62.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,16 +4244,16 @@
         <v>122</v>
       </c>
       <c r="B118" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C118" s="23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" s="24">
         <v>12.5</v>
       </c>
       <c r="E118" s="25">
-        <v>250</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,16 +4261,16 @@
         <v>123</v>
       </c>
       <c r="B119" s="22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" s="23">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="D119" s="24">
         <v>12.5</v>
       </c>
       <c r="E119" s="25">
-        <v>181.25</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4371,16 +4378,16 @@
         <v>130</v>
       </c>
       <c r="B126" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" s="23">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="D126" s="24">
         <v>15.5</v>
       </c>
       <c r="E126" s="25">
-        <v>286.75</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4620,16 +4627,16 @@
         <v>145</v>
       </c>
       <c r="B141" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C141" s="23">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D141" s="24">
         <v>18.37</v>
       </c>
       <c r="E141" s="25">
-        <v>82.66</v>
+        <v>73.48</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,16 +4712,16 @@
         <v>150</v>
       </c>
       <c r="B146" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D146" s="24">
         <v>18.34</v>
       </c>
       <c r="E146" s="25">
-        <v>9.17</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4756,16 +4763,16 @@
         <v>153</v>
       </c>
       <c r="B149" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149" s="23">
-        <v>51.5</v>
+        <v>41.5</v>
       </c>
       <c r="D149" s="24">
         <v>3.3</v>
       </c>
       <c r="E149" s="25">
-        <v>169.95</v>
+        <v>136.94999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,16 +4780,16 @@
         <v>154</v>
       </c>
       <c r="B150" s="22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C150" s="23">
-        <v>104.5</v>
+        <v>104</v>
       </c>
       <c r="D150" s="24">
         <v>2.8</v>
       </c>
       <c r="E150" s="25">
-        <v>292.60000000000002</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,16 +4831,16 @@
         <v>157</v>
       </c>
       <c r="B153" s="22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C153" s="23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D153" s="24">
         <v>4.7</v>
       </c>
       <c r="E153" s="25">
-        <v>145.69999999999999</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,16 +4848,16 @@
         <v>158</v>
       </c>
       <c r="B154" s="22">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C154" s="23">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D154" s="24">
         <v>3.4</v>
       </c>
       <c r="E154" s="25">
-        <v>173.4</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,16 +4882,16 @@
         <v>160</v>
       </c>
       <c r="B156" s="22">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C156" s="23">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D156" s="24">
         <v>2.7</v>
       </c>
       <c r="E156" s="25">
-        <v>43.2</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4892,16 +4899,16 @@
         <v>161</v>
       </c>
       <c r="B157" s="22">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C157" s="23">
-        <v>67.5</v>
+        <v>62.5</v>
       </c>
       <c r="D157" s="24">
         <v>2.8</v>
       </c>
       <c r="E157" s="25">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,16 +4916,16 @@
         <v>162</v>
       </c>
       <c r="B158" s="22">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C158" s="23">
-        <v>77.5</v>
+        <v>60.5</v>
       </c>
       <c r="D158" s="24">
         <v>2.8</v>
       </c>
       <c r="E158" s="25">
-        <v>217</v>
+        <v>169.4</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4977,16 +4984,16 @@
         <v>166</v>
       </c>
       <c r="B162" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" s="23">
-        <v>111.5</v>
+        <v>110.5</v>
       </c>
       <c r="D162" s="24">
         <v>2.8</v>
       </c>
       <c r="E162" s="25">
-        <v>312.2</v>
+        <v>309.39999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4997,13 +5004,13 @@
         <v>20</v>
       </c>
       <c r="C163" s="23">
-        <v>72.5</v>
+        <v>70.5</v>
       </c>
       <c r="D163" s="24">
         <v>2.95</v>
       </c>
       <c r="E163" s="25">
-        <v>213.88</v>
+        <v>207.98</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5011,16 +5018,16 @@
         <v>168</v>
       </c>
       <c r="B164" s="22">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C164" s="23">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D164" s="24">
         <v>2.95</v>
       </c>
       <c r="E164" s="25">
-        <v>123.9</v>
+        <v>97.35</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5028,16 +5035,16 @@
         <v>169</v>
       </c>
       <c r="B165" s="22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C165" s="23">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D165" s="24">
         <v>3</v>
       </c>
       <c r="E165" s="25">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5045,16 +5052,16 @@
         <v>170</v>
       </c>
       <c r="B166" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" s="23">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D166" s="24">
         <v>3</v>
       </c>
       <c r="E166" s="25">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5079,16 +5086,16 @@
         <v>172</v>
       </c>
       <c r="B168" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" s="23">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D168" s="24">
         <v>3.3</v>
       </c>
       <c r="E168" s="25">
-        <v>376.2</v>
+        <v>372.9</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,16 +5103,16 @@
         <v>173</v>
       </c>
       <c r="B169" s="22">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C169" s="23">
-        <v>83.5</v>
+        <v>70</v>
       </c>
       <c r="D169" s="24">
         <v>3.5</v>
       </c>
       <c r="E169" s="25">
-        <v>292.25</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5171,16 +5178,16 @@
         <v>178</v>
       </c>
       <c r="B174" s="22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C174" s="23">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D174" s="24">
         <v>3.33</v>
       </c>
       <c r="E174" s="25">
-        <v>99.9</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,16 +5229,16 @@
         <v>181</v>
       </c>
       <c r="B177" s="22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C177" s="23">
-        <v>127.5</v>
+        <v>124</v>
       </c>
       <c r="D177" s="24">
         <v>3.6</v>
       </c>
       <c r="E177" s="25">
-        <v>459</v>
+        <v>446.4</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5299,16 +5306,16 @@
         <v>186</v>
       </c>
       <c r="B182" s="22">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C182" s="23">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D182" s="24">
         <v>4.5</v>
       </c>
       <c r="E182" s="25">
-        <v>499.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5382,16 +5389,16 @@
         <v>191</v>
       </c>
       <c r="B187" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C187" s="23">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D187" s="24">
         <v>4.5</v>
       </c>
       <c r="E187" s="25">
-        <v>580.5</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5399,16 +5406,16 @@
         <v>192</v>
       </c>
       <c r="B188" s="22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C188" s="23">
-        <v>117.5</v>
+        <v>115</v>
       </c>
       <c r="D188" s="24">
         <v>3.93</v>
       </c>
       <c r="E188" s="25">
-        <v>461.79</v>
+        <v>451.96</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5416,16 +5423,16 @@
         <v>193</v>
       </c>
       <c r="B189" s="22">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C189" s="23">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D189" s="24">
         <v>3.96</v>
       </c>
       <c r="E189" s="25">
-        <v>506.53</v>
+        <v>466.95</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5549,16 +5556,16 @@
         <v>202</v>
       </c>
       <c r="B198" s="22">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C198" s="23">
-        <v>74.239999999999995</v>
+        <v>62.74</v>
       </c>
       <c r="D198" s="24">
         <v>3.11</v>
       </c>
       <c r="E198" s="25">
-        <v>230.61</v>
+        <v>194.89</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5651,16 +5658,16 @@
         <v>210</v>
       </c>
       <c r="B206" s="22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C206" s="23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D206" s="24">
         <v>3.8</v>
       </c>
       <c r="E206" s="25">
-        <v>60.8</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5668,16 +5675,16 @@
         <v>211</v>
       </c>
       <c r="B207" s="22">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C207" s="23">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D207" s="24">
         <v>3.8</v>
       </c>
       <c r="E207" s="25">
-        <v>330.6</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5685,16 +5692,16 @@
         <v>212</v>
       </c>
       <c r="B208" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" s="23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D208" s="24">
         <v>3.6</v>
       </c>
       <c r="E208" s="25">
-        <v>180</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5726,25 +5733,31 @@
       <c r="B211" s="22">
         <v>32</v>
       </c>
-      <c r="C211" s="26"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="26"/>
+      <c r="C211" s="23">
+        <v>1</v>
+      </c>
+      <c r="D211" s="24">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E211" s="25">
+        <v>4.1100000000000003</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
         <v>216</v>
       </c>
       <c r="B212" s="22">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C212" s="23">
-        <v>44.5</v>
+        <v>34.5</v>
       </c>
       <c r="D212" s="24">
         <v>4.12</v>
       </c>
       <c r="E212" s="25">
-        <v>183.19</v>
+        <v>142.03</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5752,16 +5765,16 @@
         <v>217</v>
       </c>
       <c r="B213" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" s="23">
-        <v>54.5</v>
+        <v>49.5</v>
       </c>
       <c r="D213" s="24">
         <v>4.75</v>
       </c>
       <c r="E213" s="25">
-        <v>258.88</v>
+        <v>235.13</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5803,16 +5816,16 @@
         <v>220</v>
       </c>
       <c r="B216" s="22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C216" s="23">
-        <v>65.5</v>
+        <v>63.5</v>
       </c>
       <c r="D216" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="E216" s="25">
-        <v>288.2</v>
+        <v>279.39999999999998</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5865,16 +5878,16 @@
         <v>224</v>
       </c>
       <c r="B220" s="22">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C220" s="23">
-        <v>213.5</v>
+        <v>199.5</v>
       </c>
       <c r="D220" s="24">
         <v>4.5</v>
       </c>
       <c r="E220" s="25">
-        <v>960.75</v>
+        <v>897.75</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5885,13 +5898,13 @@
         <v>71</v>
       </c>
       <c r="C221" s="23">
-        <v>160</v>
+        <v>161.5</v>
       </c>
       <c r="D221" s="24">
         <v>4.5</v>
       </c>
       <c r="E221" s="25">
-        <v>720</v>
+        <v>726.75</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,16 +5912,16 @@
         <v>226</v>
       </c>
       <c r="B222" s="22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C222" s="23">
-        <v>56.5</v>
+        <v>53.5</v>
       </c>
       <c r="D222" s="24">
         <v>5.25</v>
       </c>
       <c r="E222" s="25">
-        <v>296.63</v>
+        <v>280.88</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5916,16 +5929,16 @@
         <v>227</v>
       </c>
       <c r="B223" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C223" s="23">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D223" s="24">
         <v>4.8</v>
       </c>
       <c r="E223" s="25">
-        <v>153.6</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5950,16 +5963,16 @@
         <v>229</v>
       </c>
       <c r="B225" s="22">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C225" s="23">
-        <v>52.5</v>
+        <v>47.5</v>
       </c>
       <c r="D225" s="24">
         <v>4.5</v>
       </c>
       <c r="E225" s="25">
-        <v>236.25</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5999,16 +6012,16 @@
         <v>232</v>
       </c>
       <c r="B228" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C228" s="23">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D228" s="24">
         <v>5.25</v>
       </c>
       <c r="E228" s="25">
-        <v>147</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6016,16 +6029,16 @@
         <v>233</v>
       </c>
       <c r="B229" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C229" s="23">
-        <v>33.5</v>
+        <v>23.5</v>
       </c>
       <c r="D229" s="24">
         <v>5.25</v>
       </c>
       <c r="E229" s="25">
-        <v>175.88</v>
+        <v>123.38</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6050,16 +6063,16 @@
         <v>235</v>
       </c>
       <c r="B231" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C231" s="23">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D231" s="24">
         <v>4.75</v>
       </c>
       <c r="E231" s="25">
-        <v>332.5</v>
+        <v>308.75</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6106,16 +6119,16 @@
         <v>239</v>
       </c>
       <c r="B235" s="22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C235" s="23">
-        <v>16</v>
+        <v>61.5</v>
       </c>
       <c r="D235" s="24">
         <v>6</v>
       </c>
       <c r="E235" s="25">
-        <v>96</v>
+        <v>369</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,16 +6160,16 @@
         <v>242</v>
       </c>
       <c r="B238" s="22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C238" s="23">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D238" s="24">
         <v>5.7</v>
       </c>
       <c r="E238" s="25">
-        <v>267.89999999999998</v>
+        <v>233.7</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6164,16 +6177,16 @@
         <v>243</v>
       </c>
       <c r="B239" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C239" s="23">
-        <v>25.5</v>
+        <v>21.5</v>
       </c>
       <c r="D239" s="24">
         <v>6.75</v>
       </c>
       <c r="E239" s="25">
-        <v>172.13</v>
+        <v>145.13</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6213,16 +6226,16 @@
         <v>246</v>
       </c>
       <c r="B242" s="22">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C242" s="23">
-        <v>136.5</v>
+        <v>136</v>
       </c>
       <c r="D242" s="24">
         <v>5.97</v>
       </c>
       <c r="E242" s="25">
-        <v>815.58</v>
+        <v>812.59</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6230,16 +6243,16 @@
         <v>247</v>
       </c>
       <c r="B243" s="22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C243" s="23">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="D243" s="24">
         <v>4.26</v>
       </c>
       <c r="E243" s="25">
-        <v>181.05</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6247,16 +6260,16 @@
         <v>248</v>
       </c>
       <c r="B244" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C244" s="23">
-        <v>120</v>
+        <v>112.5</v>
       </c>
       <c r="D244" s="24">
         <v>4</v>
       </c>
       <c r="E244" s="25">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6281,16 +6294,16 @@
         <v>250</v>
       </c>
       <c r="B246" s="22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C246" s="23">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D246" s="24">
         <v>4.5</v>
       </c>
       <c r="E246" s="25">
-        <v>373.5</v>
+        <v>351</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6313,16 +6326,16 @@
         <v>252</v>
       </c>
       <c r="B248" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C248" s="23">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="D248" s="24">
         <v>5</v>
       </c>
       <c r="E248" s="25">
-        <v>82.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,33 +6371,27 @@
         <v>255</v>
       </c>
       <c r="B251" s="22">
-        <v>81</v>
-      </c>
-      <c r="C251" s="23">
-        <v>23</v>
-      </c>
-      <c r="D251" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="E251" s="25">
-        <v>80.5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C251" s="26"/>
+      <c r="D251" s="27"/>
+      <c r="E251" s="26"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
         <v>256</v>
       </c>
       <c r="B252" s="22">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C252" s="23">
-        <v>171</v>
+        <v>155.5</v>
       </c>
       <c r="D252" s="24">
         <v>4.25</v>
       </c>
       <c r="E252" s="25">
-        <v>726.75</v>
+        <v>660.88</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6418,16 +6425,16 @@
         <v>259</v>
       </c>
       <c r="B255" s="22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C255" s="23">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D255" s="24">
         <v>4.18</v>
       </c>
       <c r="E255" s="25">
-        <v>213.18</v>
+        <v>200.64</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6452,16 +6459,16 @@
         <v>261</v>
       </c>
       <c r="B257" s="22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C257" s="23">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D257" s="24">
         <v>4.28</v>
       </c>
       <c r="E257" s="25">
-        <v>329.56</v>
+        <v>312.44</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6486,16 +6493,16 @@
         <v>263</v>
       </c>
       <c r="B259" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C259" s="23">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D259" s="24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E259" s="25">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6503,7 +6510,7 @@
         <v>264</v>
       </c>
       <c r="B260" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C260" s="23">
         <v>24</v>
@@ -6520,16 +6527,16 @@
         <v>265</v>
       </c>
       <c r="B261" s="22">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C261" s="23">
-        <v>12</v>
+        <v>-1.5</v>
       </c>
       <c r="D261" s="24">
         <v>4.95</v>
       </c>
       <c r="E261" s="25">
-        <v>59.4</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6554,16 +6561,16 @@
         <v>267</v>
       </c>
       <c r="B263" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C263" s="23">
-        <v>29.5</v>
+        <v>26.5</v>
       </c>
       <c r="D263" s="24">
         <v>5</v>
       </c>
       <c r="E263" s="25">
-        <v>147.5</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6589,16 +6596,16 @@
         <v>270</v>
       </c>
       <c r="B266" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C266" s="23">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D266" s="24">
         <v>5.0999999999999996</v>
       </c>
       <c r="E266" s="25">
-        <v>53.55</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6623,16 +6630,16 @@
         <v>272</v>
       </c>
       <c r="B268" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C268" s="23">
-        <v>117.5</v>
+        <v>115.5</v>
       </c>
       <c r="D268" s="24">
         <v>5.4</v>
       </c>
       <c r="E268" s="25">
-        <v>634.5</v>
+        <v>623.70000000000005</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6657,16 +6664,16 @@
         <v>274</v>
       </c>
       <c r="B270" s="22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C270" s="23">
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="D270" s="24">
         <v>5.55</v>
       </c>
       <c r="E270" s="25">
-        <v>219.23</v>
+        <v>208.13</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6674,16 +6681,16 @@
         <v>275</v>
       </c>
       <c r="B271" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C271" s="23">
-        <v>25.5</v>
+        <v>17.5</v>
       </c>
       <c r="D271" s="24">
         <v>5.23</v>
       </c>
       <c r="E271" s="25">
-        <v>133.37</v>
+        <v>91.53</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6691,16 +6698,16 @@
         <v>276</v>
       </c>
       <c r="B272" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C272" s="23">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D272" s="24">
         <v>5.23</v>
       </c>
       <c r="E272" s="25">
-        <v>109.83</v>
+        <v>88.91</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6734,16 +6741,16 @@
         <v>279</v>
       </c>
       <c r="B275" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C275" s="23">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D275" s="24">
         <v>6.25</v>
       </c>
       <c r="E275" s="25">
-        <v>100</v>
+        <v>96.88</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6768,16 +6775,16 @@
         <v>281</v>
       </c>
       <c r="B277" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C277" s="23">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D277" s="24">
         <v>6.5</v>
       </c>
       <c r="E277" s="25">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6785,16 +6792,16 @@
         <v>282</v>
       </c>
       <c r="B278" s="22">
+        <v>19</v>
+      </c>
+      <c r="C278" s="23">
         <v>20</v>
-      </c>
-      <c r="C278" s="23">
-        <v>18</v>
       </c>
       <c r="D278" s="24">
         <v>6</v>
       </c>
       <c r="E278" s="25">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6819,16 +6826,16 @@
         <v>284</v>
       </c>
       <c r="B280" s="22">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C280" s="23">
-        <v>41.88</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="D280" s="24">
         <v>5.94</v>
       </c>
       <c r="E280" s="25">
-        <v>248.77</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6836,16 +6843,16 @@
         <v>285</v>
       </c>
       <c r="B281" s="22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C281" s="23">
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
       <c r="D281" s="24">
         <v>5.7</v>
       </c>
       <c r="E281" s="25">
-        <v>139.65</v>
+        <v>116.85</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6853,16 +6860,16 @@
         <v>286</v>
       </c>
       <c r="B282" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C282" s="23">
-        <v>84</v>
+        <v>80.5</v>
       </c>
       <c r="D282" s="24">
         <v>5.94</v>
       </c>
       <c r="E282" s="25">
-        <v>498.96</v>
+        <v>478.17</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6887,16 +6894,16 @@
         <v>288</v>
       </c>
       <c r="B284" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C284" s="23">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="D284" s="24">
         <v>6.67</v>
       </c>
       <c r="E284" s="25">
-        <v>133.4</v>
+        <v>130.07</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6956,16 +6963,16 @@
         <v>293</v>
       </c>
       <c r="B289" s="22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C289" s="23">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D289" s="24">
         <v>6.18</v>
       </c>
       <c r="E289" s="25">
-        <v>290.45999999999998</v>
+        <v>278.10000000000002</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7024,16 +7031,16 @@
         <v>297</v>
       </c>
       <c r="B293" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C293" s="23">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="D293" s="24">
         <v>6.46</v>
       </c>
       <c r="E293" s="25">
-        <v>174.42</v>
+        <v>171.19</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7041,16 +7048,16 @@
         <v>298</v>
       </c>
       <c r="B294" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C294" s="23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D294" s="24">
         <v>6.4</v>
       </c>
       <c r="E294" s="25">
-        <v>140.80000000000001</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7067,16 +7074,16 @@
         <v>300</v>
       </c>
       <c r="B296" s="22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C296" s="23">
-        <v>43.5</v>
+        <v>40</v>
       </c>
       <c r="D296" s="24">
         <v>6.65</v>
       </c>
       <c r="E296" s="25">
-        <v>289.27999999999997</v>
+        <v>266</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7084,16 +7091,16 @@
         <v>301</v>
       </c>
       <c r="B297" s="22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C297" s="23">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D297" s="24">
         <v>6.18</v>
       </c>
       <c r="E297" s="25">
-        <v>188.49</v>
+        <v>117.42</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7127,16 +7134,16 @@
         <v>304</v>
       </c>
       <c r="B300" s="22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C300" s="23">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D300" s="24">
         <v>7.13</v>
       </c>
       <c r="E300" s="25">
-        <v>606.04999999999995</v>
+        <v>584.66</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7161,16 +7168,16 @@
         <v>306</v>
       </c>
       <c r="B302" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C302" s="23">
-        <v>24.5</v>
+        <v>21.5</v>
       </c>
       <c r="D302" s="24">
         <v>7.13</v>
       </c>
       <c r="E302" s="25">
-        <v>174.69</v>
+        <v>153.30000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7178,16 +7185,16 @@
         <v>307</v>
       </c>
       <c r="B303" s="22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C303" s="23">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="D303" s="24">
         <v>6.65</v>
       </c>
       <c r="E303" s="25">
-        <v>196.18</v>
+        <v>182.88</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7204,16 +7211,16 @@
         <v>309</v>
       </c>
       <c r="B305" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C305" s="23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D305" s="24">
         <v>7.6</v>
       </c>
       <c r="E305" s="25">
-        <v>220.4</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7273,16 +7280,16 @@
         <v>314</v>
       </c>
       <c r="B310" s="22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C310" s="23">
-        <v>37.5</v>
+        <v>36.5</v>
       </c>
       <c r="D310" s="24">
         <v>8.08</v>
       </c>
       <c r="E310" s="25">
-        <v>303</v>
+        <v>294.92</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7290,16 +7297,16 @@
         <v>315</v>
       </c>
       <c r="B311" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C311" s="23">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="D311" s="24">
         <v>8.75</v>
       </c>
       <c r="E311" s="25">
-        <v>201.25</v>
+        <v>170.63</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7376,16 +7383,16 @@
         <v>321</v>
       </c>
       <c r="B317" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C317" s="23">
-        <v>18.5</v>
+        <v>31.5</v>
       </c>
       <c r="D317" s="24">
-        <v>9.16</v>
+        <v>9.81</v>
       </c>
       <c r="E317" s="25">
-        <v>169.49</v>
+        <v>308.98</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7410,16 +7417,16 @@
         <v>323</v>
       </c>
       <c r="B319" s="22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C319" s="23">
-        <v>33.200000000000003</v>
+        <v>31.2</v>
       </c>
       <c r="D319" s="24">
         <v>8.8000000000000007</v>
       </c>
       <c r="E319" s="25">
-        <v>292.16000000000003</v>
+        <v>274.56</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7444,16 +7451,16 @@
         <v>325</v>
       </c>
       <c r="B321" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C321" s="23">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D321" s="24">
         <v>9</v>
       </c>
       <c r="E321" s="25">
-        <v>85.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7478,16 +7485,16 @@
         <v>327</v>
       </c>
       <c r="B323" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C323" s="23">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D323" s="24">
         <v>10</v>
       </c>
       <c r="E323" s="25">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7512,16 +7519,16 @@
         <v>329</v>
       </c>
       <c r="B325" s="22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C325" s="23">
-        <v>35.5</v>
+        <v>27.5</v>
       </c>
       <c r="D325" s="24">
         <v>9.25</v>
       </c>
       <c r="E325" s="25">
-        <v>328.38</v>
+        <v>254.38</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7580,16 +7587,16 @@
         <v>333</v>
       </c>
       <c r="B329" s="22">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C329" s="23">
-        <v>70</v>
+        <v>64.5</v>
       </c>
       <c r="D329" s="24">
         <v>5.5</v>
       </c>
       <c r="E329" s="25">
-        <v>385</v>
+        <v>354.75</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7597,16 +7604,16 @@
         <v>334</v>
       </c>
       <c r="B330" s="22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C330" s="23">
-        <v>50.5</v>
+        <v>45.5</v>
       </c>
       <c r="D330" s="24">
         <v>6.86</v>
       </c>
       <c r="E330" s="25">
-        <v>346.46</v>
+        <v>312.16000000000003</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7614,16 +7621,16 @@
         <v>335</v>
       </c>
       <c r="B331" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C331" s="23">
-        <v>59.5</v>
+        <v>58.5</v>
       </c>
       <c r="D331" s="24">
         <v>6.9</v>
       </c>
       <c r="E331" s="25">
-        <v>410.55</v>
+        <v>403.65</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7631,16 +7638,16 @@
         <v>336</v>
       </c>
       <c r="B332" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C332" s="23">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D332" s="24">
         <v>7.13</v>
       </c>
       <c r="E332" s="25">
-        <v>117.65</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7665,16 +7672,16 @@
         <v>338</v>
       </c>
       <c r="B334" s="22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C334" s="23">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="D334" s="24">
         <v>8.5</v>
       </c>
       <c r="E334" s="25">
-        <v>208.25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7699,16 +7706,16 @@
         <v>340</v>
       </c>
       <c r="B336" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C336" s="23">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="D336" s="24">
         <v>10.61</v>
       </c>
       <c r="E336" s="25">
-        <v>164.52</v>
+        <v>111.45</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7832,16 +7839,16 @@
         <v>349</v>
       </c>
       <c r="B345" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C345" s="23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D345" s="24">
         <v>7.36</v>
       </c>
       <c r="E345" s="25">
-        <v>184</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7849,16 +7856,16 @@
         <v>350</v>
       </c>
       <c r="B346" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C346" s="23">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D346" s="24">
         <v>7.6</v>
       </c>
       <c r="E346" s="25">
-        <v>224.2</v>
+        <v>228</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7883,16 +7890,16 @@
         <v>352</v>
       </c>
       <c r="B348" s="22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C348" s="23">
-        <v>57.5</v>
+        <v>54.5</v>
       </c>
       <c r="D348" s="24">
         <v>6.5</v>
       </c>
       <c r="E348" s="25">
-        <v>373.75</v>
+        <v>354.25</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8036,16 +8043,16 @@
         <v>361</v>
       </c>
       <c r="B357" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C357" s="23">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D357" s="24">
         <v>11</v>
       </c>
       <c r="E357" s="25">
-        <v>104.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8053,16 +8060,16 @@
         <v>362</v>
       </c>
       <c r="B358" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C358" s="23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D358" s="24">
         <v>11</v>
       </c>
       <c r="E358" s="25">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8121,16 +8128,16 @@
         <v>366</v>
       </c>
       <c r="B362" s="22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C362" s="23">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D362" s="24">
         <v>7.84</v>
       </c>
       <c r="E362" s="25">
-        <v>243.04</v>
+        <v>282.24</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8138,16 +8145,16 @@
         <v>367</v>
       </c>
       <c r="B363" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C363" s="23">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="D363" s="24">
         <v>11</v>
       </c>
       <c r="E363" s="25">
-        <v>126.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8188,15 +8195,17 @@
       <c r="A366" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="B366" s="22"/>
+      <c r="B366" s="22">
+        <v>2</v>
+      </c>
       <c r="C366" s="23">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D366" s="24">
         <v>13.5</v>
       </c>
       <c r="E366" s="25">
-        <v>60.75</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8221,16 +8230,16 @@
         <v>372</v>
       </c>
       <c r="B368" s="22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C368" s="23">
-        <v>41.73</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="D368" s="24">
         <v>10</v>
       </c>
       <c r="E368" s="25">
-        <v>417.3</v>
+        <v>407.3</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8255,16 +8264,16 @@
         <v>374</v>
       </c>
       <c r="B370" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C370" s="23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D370" s="24">
         <v>10.5</v>
       </c>
       <c r="E370" s="25">
-        <v>168</v>
+        <v>105</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8323,16 +8332,16 @@
         <v>378</v>
       </c>
       <c r="B374" s="22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C374" s="23">
-        <v>59</v>
+        <v>56.5</v>
       </c>
       <c r="D374" s="24">
         <v>9.5</v>
       </c>
  